--- a/zonasul.xlsx
+++ b/zonasul.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P49"/>
+  <dimension ref="A1:P96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,115 +518,111 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>batata-inglesa-600g-14346</t>
+          <t>saco-para-lixo-dover-roll-banheiro-e-pia-50-unidades--1172557</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Batata Inglesa 600g</t>
+          <t>Saco para Lixo Dover Roll Banheiro e Pia 50 Unidades</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>14346</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Embalagem com 4 a 5 unidades.</t>
-        </is>
-      </c>
+          <t>1172557</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="n">
-        <v>4.69</v>
+        <v>14.39</v>
       </c>
       <c r="F2" t="n">
-        <v>5.99</v>
+        <v>15.99</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>111</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2020-09-26T00:00:00Z</t>
+          <t>2025-05-05T00:00:00Z</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3080690/VF4qT-qqCUAAAAAAAAN8PA.jpg?v=637934223305000000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4073900/VF4qT-qqCUAAAAAAAAis3g.jpg?v=638827019012400000</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>5568</t>
+          <t>40200</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>5584</t>
+          <t>40127</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>DOVER ROLL</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>2000015</v>
+        <v>2001458</v>
       </c>
       <c r="P2" t="n">
-        <v>99999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>cebola-unidade-211745</t>
+          <t>acendedor-alcool-gel-montenegro-80-430-906727</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cebola Unidade</t>
+          <t>Acendedor Álcool Gel Montenegro 80% 430</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>211745</t>
+          <t>906727</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Cebola Unidade</t>
+          <t>Acendedor Álcool Gel Montenegro 80% 430</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.97</v>
+        <v>8.99</v>
       </c>
       <c r="F3" t="n">
-        <v>1.37</v>
+        <v>13.99</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>619</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2000-07-24T00:00:00Z</t>
+          <t>2020-10-15T00:00:00Z</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3095526/VF4qT-qqCUAAAAAAAASo4Q.jpg?v=638213232489830000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3064429/VF4qT-qqCUAAAAAAAAHIAg.jpg?v=637794310084600000</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -639,66 +635,66 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>33275</t>
+          <t>12717</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>33200</t>
+          <t>12732</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>MONTENEGRO</t>
         </is>
       </c>
       <c r="O3" t="n">
-        <v>2000015</v>
+        <v>2000527</v>
       </c>
       <c r="P3" t="n">
-        <v>99999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>banana-prata-unidade-43621</t>
+          <t>toalex-leve-mais-pague-menos-pack-com-3-unidades-1180860</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Banana Prata unidade</t>
+          <t>Toalex Leve Mais Pague Menos Pack com 3 Unidades</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>43621</t>
+          <t>1180860</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Banana Prata unidade</t>
+          <t>Toalex Leve Mais Pague Menos com 3 unidadesToalex é o seu pano de todos os dias, que está sempre à mão e para todos os momentos: prático, superabsorvente, higiênico e reutilizável.Com a incrível tecnologia Íons de Prata, elimina até 99,9% dos germes.Limpa, absorve, lava e seca com a eficiência e durabilidade de um pano de verdade! Tanto faz se é para grandes ou pequenas limpezas.Pode ser utilizado em toda a casa: cozinha, banheiro, sala, quarto, escritório e muito mais. Você não vai acreditar no que uma única toalha pode fazer por você! Enfrenta tudo com a maior resistência e sem esfarelar que nem papel.</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1.5</v>
+        <v>19.99</v>
       </c>
       <c r="F4" t="n">
-        <v>1.65</v>
+        <v>29.99</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>111</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2005-01-03T00:00:00Z</t>
+          <t>2025-07-24T00:00:00Z</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3095533/VF4qT-qqCUAAAAAAAASo8Q.jpg?v=638213259294930000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4464064/VF4qT-qqCUAAAAAAAAoWqg.jpg?v=639038691266470000</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -711,66 +707,66 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>33277</t>
+          <t>44160</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>33202</t>
+          <t>44087</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>TOALEX</t>
         </is>
       </c>
       <c r="O4" t="n">
-        <v>2000015</v>
+        <v>2001585</v>
       </c>
       <c r="P4" t="n">
-        <v>99999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>tomate-italiano-organico-bio-vida-500-g-458589</t>
+          <t>saco-para-lixo-dover-roll-resist-30l-com-30-unidades-1173219</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Tomate Italiano Orgânico Bio Vida 500g</t>
+          <t>Saco Para Lixo Dover Roll Resist 30L com 30 Unidades</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>458589</t>
+          <t>1173219</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Se sua saúde está em primeiro lugar, a dica é o consumo de alimentos orgânicos . Além de não levar agrotóxicos, com os produtos orgânicos Bio Vida você tem a oportunidade de consumir alimentos naturais , direto do solo para sua mesa. Higienizados e prontos para consumo, os orgânicos Bio Vida trazem mais praticidade à sua rotina. Conheça mais sobre os orgânicos Bio Vida.</t>
+          <t>Dover-Roll Resist! é um saco para lixo alinhado ao consumo consciente, pois usa menos matéria-prima, além de utilizar plásticos reciclados. Com a reconhecida qualidade Dover-Roll, oferece ótima combinação de benefício e valor.Indicação:Dover-Roll Resist! é indicado para os consumidores preocupados com a sustentabilidade e que não abrem mão de qualidade e economia.Prática e Incentivo à SustentabilidadeContém plásticos reciclados de qualidadeParticipe dos programas de reciclagem de sua cidade, separando e entregando materiais recicláveis.Se é reciclável. Não é lixo!Consuma de forma consciente: Reduza,</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7.99</v>
+        <v>19.61</v>
       </c>
       <c r="F5" t="n">
-        <v>11.99</v>
+        <v>21.79</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>111</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2020-09-27T00:00:00Z</t>
+          <t>2025-05-07T00:00:00Z</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3097704/VF4qT-qqCUAAAAAAAATK2g.jpg?v=638249426952670000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4202872/VF4qT-qqCUAAAAAAAAjuyA.jpg?v=638881445412170000</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -783,21 +779,21 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>6506</t>
+          <t>40364</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>6523</t>
+          <t>40291</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>BIO VIDA</t>
+          <t>DOVER ROLL</t>
         </is>
       </c>
       <c r="O5" t="n">
-        <v>2001034</v>
+        <v>2001458</v>
       </c>
       <c r="P5" t="n">
         <v>100</v>
@@ -806,43 +802,43 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>cenoura-organica-bio-vida-600g-453196</t>
+          <t>super-mini-orquidea-phalaenopsis-unidade-505960</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cenoura Orgânica Bio Vida 600g</t>
+          <t>Mini Orquídea  Phalaenopsis Unidade</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>453196</t>
+          <t>505960</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Se sua saúde está em primeiro lugar, a dica é o consumo de alimentos orgânicos . Além de não levar agrotóxicos, com os produtos orgânicos Bio Vida você tem a oportunidade de consumir alimentos naturais , direto do solo para sua mesa. Higienizados e prontos para consumo, os orgânicos Bio Vida trazem mais praticidade à sua rotina. Conheça mais sobre os orgânicos Bio Vida.</t>
+          <t>ORQUIDEA PHALAENOPSIS MINI UN</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>7.99</v>
+        <v>34.9</v>
       </c>
       <c r="F6" t="n">
-        <v>10.99</v>
+        <v>44.9</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>174</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2020-09-27T00:00:00Z</t>
+          <t>2020-11-13T00:00:00Z</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3794844/VF4qT-qqCUAAAAAAAATqxQ.jpg?v=638648164689100000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3461668/VF4qT-qqCUAAAAAAAAGR-g.jpg?v=638509063757300000</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -855,66 +851,62 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>6480</t>
+          <t>14247</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>6497</t>
+          <t>14267</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>BIO VIDA</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O6" t="n">
-        <v>2001034</v>
+        <v>2000015</v>
       </c>
       <c r="P6" t="n">
-        <v>100</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>blueberry-mirtilo-bandeja-125g-122580</t>
+          <t>papel-toalha-snob-19cm-x-20cm-com-2-rolos-com-60-folhas-cada-101400</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Blueberry Mirtilo Bandeja 125g</t>
+          <t>Papel Toalha Snob 19cm X 20cm com 2 Rolos com 60 Folhas Cada</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>122580</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Os mirtilos aos poucos estão cada vez mais reconhecidos no mercado brasileiro por ser uma fruta com a maior quantidade de antioxidantes. Estes berries oferecem o dobro de antioxidantes o qual estudos demonstram a função no combate de muitas enfermidades, melhoram a função da memória e proporcionam um envelhecimento saudável. Ótima fonte de vitamina C e ajuda no controle da glicose sanguínea. Guarde sua fruta sem lavar no refrigerador e terão uma durabilidade de cinco a sete dias. Somente lava-las no momento que for consumi-las.</t>
-        </is>
-      </c>
+          <t>101400</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>11.9</v>
+        <v>7.99</v>
       </c>
       <c r="F7" t="n">
-        <v>14.99</v>
+        <v>7.99</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>111</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2020-09-26T00:00:00Z</t>
+          <t>2020-10-02T00:00:00Z</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3647528/VF4qT-qqCUAAAAAAAAHKXQ.jpg?v=638585962742570000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3211651/VF4qT-qqCUAAAAAAAAU25g.jpg?v=638337998985300000</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -927,66 +919,66 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>5143</t>
+          <t>9230</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>5159</t>
+          <t>9242</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>SNOB</t>
         </is>
       </c>
       <c r="O7" t="n">
-        <v>2000015</v>
+        <v>2001312</v>
       </c>
       <c r="P7" t="n">
-        <v>100</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>couve-flor-unidade-189111</t>
+          <t>guardanapo-folha-dupla-scott-grand-hotel-jantar-33×33-cm-com-50-unidades-129887</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Couve Flor Unidade</t>
+          <t>Guardanapo Folha Dupla Scott Grand Hotel Jantar 33×33 Cm Com 50 Unidades</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>189111</t>
+          <t>129887</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>A couveflor é uma hortaliça rica em cálcio e fósforo e fonte de ácido fólico e vitamina C . Como Conservar:Na geladeira pode ser conservada por 3 a 5 dias, dentro de saco plástico perfurado. Antes de guardar, remova as partes escuras e folhas, mas não lave a cabeça.Como Consumir:Pode ser consumida assada, frita ou cozinhe em água e sal. [Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
+          <t>O Guardanapo Grand Hotel folha tripla é mais sofisticado e garante uma maciez superior para todos os momentos. Contém 50 folhas de tamanho 31,8x32,8 cm cada.</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8.789999999999999</v>
+        <v>12.99</v>
       </c>
       <c r="F8" t="n">
-        <v>9.99</v>
+        <v>12.99</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>111</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2020-09-28T00:00:00Z</t>
+          <t>2020-10-05T00:00:00Z</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3041615/VF4qT-qqCUAAAAAAAAGF4Q.jpg?v=637792579893500000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3078100/129887_1.jpg?v=637895346534630000</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -999,21 +991,21 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>7446</t>
+          <t>9427</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>7465</t>
+          <t>9439</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>GRANDE HOTEL</t>
         </is>
       </c>
       <c r="O8" t="n">
-        <v>2000015</v>
+        <v>2001401</v>
       </c>
       <c r="P8" t="n">
         <v>99999</v>
@@ -1022,43 +1014,43 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>cebola-organica-bio-vida-500g-860077</t>
+          <t>guardanapo-folha-dupla-scott-grand-hotel-238cm×218cm-50-unidades-129879</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Cebola Orgânica Bio Vida 500g</t>
+          <t>Guardanapo Folha Dupla Scott Grand Hotel 23,8cm×21,8cm 50 Unidades</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>860077</t>
+          <t>129879</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Se sua saúde está em primeiro lugar, a dica é o consumo de alimentos orgânicos . Além de não levar agrotóxicos, com os produtos orgânicos Bio Vida você tem a oportunidade de consumir alimentos naturais , direto do solo para sua mesa. Higienizados e prontos para consumo, os orgânicos Bio Vida trazem mais praticidade à sua rotina. Conheça mais sobre os orgânicos Bio Vida.</t>
+          <t>Guardanapo Folha Dupla Scott Grand Hotel 23,8cm×21,8cm 50 Unidades</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>7.99</v>
+        <v>6.19</v>
       </c>
       <c r="F9" t="n">
-        <v>9.99</v>
+        <v>6.19</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>111</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2020-09-27T00:00:00Z</t>
+          <t>2020-10-05T00:00:00Z</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3100527/VF4qT-qqCUAAAAAAAATqsw.jpg?v=638279788824770000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3239421/VF4qT-qqCUAAAAAAAAVSfw.jpg?v=638362188224230000</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1071,66 +1063,66 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>6372</t>
+          <t>9426</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>6389</t>
+          <t>9438</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>BIO VIDA</t>
+          <t>GRANDE HOTEL</t>
         </is>
       </c>
       <c r="O9" t="n">
-        <v>2001034</v>
+        <v>2001400</v>
       </c>
       <c r="P9" t="n">
-        <v>100</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ovos-vermelhos-organicos-bio-vida-com-20-unidades-1185500</t>
+          <t>saco-para-lixo-dover-roll-resistent-15l-azul-60-unidades</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ovos Vermelhos Orgânicos Bio Vida com 20 Unidades</t>
+          <t>Saco para Lixo Dover Roll Resistent 15L Azul 60 Unidades</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1185500</t>
+          <t>1173227</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Ovos Vermelhos Orgânicos Bio VidaMais sabor, mais saúde e respeito à natureza!Produzidos por galinhas criadas soltas e alimentadas com ração 100% orgânica, os Ovos Vermelhos Orgânicos Bio Vida são sinônimo de qualidade e bem-estar animal. Cada ovo é fonte natural de proteínas, vitaminas e minerais essenciais, perfeitos para o seu dia a dia.</t>
+          <t>Resistência, sustentabilidade e economiaProduto de alta qualidadeDover-Roll Resist! é um saco para lixo alinhado ao consumo consciente, pois usa menos matéria-prima, além de utilizar plásticos reciclados. Com a reconhecida qualidade Dover-Roll, oferece ótima combinação de benefício e valor.Indicação:Dover-Roll Resist! é indicado para os consumidores preocupados com a sustentabilidade e que não abrem mão de qualidade e economia.</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>24.9</v>
+        <v>19.61</v>
       </c>
       <c r="F10" t="n">
-        <v>29.9</v>
+        <v>21.79</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>111</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-09-18T00:00:00Z</t>
+          <t>2025-05-07T00:00:00Z</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4395484/VF4qT-qqCUAAAAAAAAoDww.jpg?v=638981678198370000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4098459/VF4qT-qqCUAAAAAAAAiwow.jpg?v=638835658957930000</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1143,66 +1135,66 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>44699</t>
+          <t>40275</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>44626</t>
+          <t>40202</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>BIO VIDA</t>
+          <t>DOVER ROLL</t>
         </is>
       </c>
       <c r="O10" t="n">
-        <v>2001034</v>
+        <v>2001458</v>
       </c>
       <c r="P10" t="n">
-        <v>99999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>abobrinha-italiana-organica-bio-vida-600g-450219</t>
+          <t>saco-para-lixo-dover-roll-resistent-50l-azul-30-unidades-1173200</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Abobrinha Italiana Orgânica Bio Vida 600g</t>
+          <t>Saco para Lixo Dover Roll Resistent 50L Azul 30 Unidades</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>450219</t>
+          <t>1173200</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Se sua saúde está em primeiro lugar, a dica é o consumo de alimentos orgânicos . Além de não levar agrotóxicos, com os produtos orgânicos Bio Vida você tem a oportunidade de consumir alimentos naturais , direto do solo para sua mesa. Higienizados e prontos para consumo, os orgânicos Bio Vida trazem mais praticidade à sua rotina. Conheça mais sobre os orgânicos Bio Vida.</t>
+          <t>Dover-Roll Resist! é um saco para lixo alinhado ao consumo consciente, pois usa menos matéria-prima, além de utilizar plásticos reciclados. Com a reconhecida qualidade Dover-Roll, oferece ótima combinação de benefício e valor.Indicação:Dover-Roll Resist! é indicado para os consumidores preocupados com a sustentabilidade e que não abrem mão de qualidade e economia.</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>7.99</v>
+        <v>19.61</v>
       </c>
       <c r="F11" t="n">
-        <v>11.99</v>
+        <v>21.79</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>111</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2020-09-27T00:00:00Z</t>
+          <t>2025-05-07T00:00:00Z</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3100526/VF4qT-qqCUAAAAAAAATqwQ.jpg?v=638279788513600000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4098458/VF4qT-qqCUAAAAAAAAiwog.jpg?v=638835658947500000</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1215,21 +1207,21 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>6486</t>
+          <t>40260</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>6503</t>
+          <t>40187</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>BIO VIDA</t>
+          <t>DOVER ROLL</t>
         </is>
       </c>
       <c r="O11" t="n">
-        <v>2001034</v>
+        <v>2001458</v>
       </c>
       <c r="P11" t="n">
         <v>100</v>
@@ -1238,17 +1230,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>tomate-grape-organico-bio-vida--180g-870293</t>
+          <t>papel-toalha-social-clean-19cm-x-19cm-com-2-rolos-com-50-folhas-cada-783250</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Tomate Grape Orgânico Bio Vida  180g</t>
+          <t>Papel Toalha Social Clean 19cm X 19cm com 2 Rolos com 50 Folhas Cada</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>870293</t>
+          <t>783250</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -1256,21 +1248,21 @@
         <v>5.99</v>
       </c>
       <c r="F12" t="n">
-        <v>7.99</v>
+        <v>5.99</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>111</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2020-09-27T00:00:00Z</t>
+          <t>2020-10-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4403142/VF4qT-qqCUAAAAAAAATqsQ.jpg?v=638985994609970000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3051599/VF4qT-qqCUAAAAAAAAKPYw.jpg?v=637793391583770000</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1283,62 +1275,62 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>6276</t>
+          <t>11630</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>6293</t>
+          <t>11653</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>BIO VIDA</t>
+          <t>SOCIAL CLEAN</t>
         </is>
       </c>
       <c r="O12" t="n">
-        <v>2001034</v>
+        <v>2001952</v>
       </c>
       <c r="P12" t="n">
-        <v>100</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>cogumelo-de-paris-organico-200g-196428</t>
+          <t>saco-para-lixo-banheiro-e-pia-dover-roll-odor-defense-lemon-fresh-50-unidades</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Cogumelo de Paris Orgânico 200g</t>
+          <t>Saco para Lixo Banheiro e Pia Dover Roll Odor Defense Lemon Fresh 50 Unidades</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>196428</t>
+          <t>1173243</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
-        <v>10.99</v>
+        <v>14.39</v>
       </c>
       <c r="F13" t="n">
-        <v>12.99</v>
+        <v>15.99</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>111</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2020-09-28T06:20:00Z</t>
+          <t>2025-05-07T00:00:00Z</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4057575/VF4qT-qqCUAAAAAAAAirJQ.jpg?v=638821834915570000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4098460/VF4qT-qqCUAAAAAAAAiwpA.jpg?v=638835658967900000</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1351,66 +1343,66 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>7353</t>
+          <t>40259</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>7372</t>
+          <t>40186</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>DOVER ROLL</t>
         </is>
       </c>
       <c r="O13" t="n">
-        <v>2000015</v>
+        <v>2001458</v>
       </c>
       <c r="P13" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>pimentao-verde-unidade-204064</t>
+          <t>orquidea-phalaenopsis-kit-arvore-1164180</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Pimentão Verde unidade</t>
+          <t>Orquídea Phalaenopsis Kit Árvore</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>204064</t>
+          <t>1164180</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Pimentão Verde unidade</t>
+          <t>Orquídea Phalaenopsis Kit Árvore Elegância e sofisticação em cada detalhe!Flores duradouras e fáceis de cuidarBeleza que transforma qualquer ambientePresente sofisticado e inesquecível 💝👉 Um toque de natureza e encanto para sua casa ou para presentear!* A cor da flor pode alterar de acordo com estoque disponível</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.75</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="F14" t="n">
-        <v>1.14</v>
+        <v>99.98999999999999</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>174</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2000-02-25T00:00:00Z</t>
+          <t>2025-02-14T00:00:00Z</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3095401/VF4qT-qqCUAAAAAAAASlEA.jpg?v=638211360132670000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4298436/VF4qT-qqCUAAAAAAAAnxdA.jpg?v=638930697073370000</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1423,12 +1415,12 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>33282</t>
+          <t>40189</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>33207</t>
+          <t>40116</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1446,43 +1438,43 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>maca-organica-400g-964930</t>
+          <t>papel-toalha-coquetel-mega-rolo-19cm-x-20cm-leve-180-pague-160-folha-874132</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Maçã Orgânica 400g</t>
+          <t>Papel Toalha Coquetel Mega Rolo 19cm X 20cm Leve 180 Pague 160 Folhas</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>964930</t>
+          <t>874132</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Contém aproximadamente 4 unidades.</t>
+          <t>Papel Toalha Coquetel Mega Rolo 19cm X 20cm Leve 180 Pague 160 Folhas</t>
         </is>
       </c>
       <c r="E15" t="n">
         <v>11.99</v>
       </c>
       <c r="F15" t="n">
-        <v>14.99</v>
+        <v>11.99</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>612</t>
+          <t>111</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2020-09-27T00:00:00Z</t>
+          <t>2020-10-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3100192/VF4qT-qqCUAAAAAAAATlaw.jpg?v=638273762611630000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3055819/VF4qT-qqCUAAAAAAAAGmgQ.jpg?v=637793591504330000</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1495,21 +1487,21 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>6146</t>
+          <t>12572</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>6162</t>
+          <t>12598</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>COQUETEL</t>
         </is>
       </c>
       <c r="O15" t="n">
-        <v>2000015</v>
+        <v>2001855</v>
       </c>
       <c r="P15" t="n">
         <v>100</v>
@@ -1518,43 +1510,39 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>batata-doce-organica-bio-vida-600g-456080</t>
+          <t>guardanapo-coquetel-100-folhas-22cm-x-23cm-1105973</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Batata Doce Orgânica Bio Vida 600g</t>
+          <t>Guardanapo Coquetel 100 Folhas 22cm x 23cm</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>456080</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Se sua saúde está em primeiro lugar, a dica é o consumo de alimentos orgânicos . Além de não levar agrotóxicos, com os produtos orgânicos Bio Vida você tem a oportunidade de consumir alimentos naturais , direto do solo para sua mesa. Higienizados e prontos para consumo, os orgânicos Bio Vida trazem mais praticidade à sua rotina. Conheça mais sobre os orgânicos Bio Vida.</t>
-        </is>
-      </c>
+          <t>1105973</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="n">
-        <v>6.99</v>
+        <v>4.99</v>
       </c>
       <c r="F16" t="n">
-        <v>8.99</v>
+        <v>4.99</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>111</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2020-09-27T00:00:00Z</t>
+          <t>2023-07-28T00:00:00Z</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4032872/VF4qT-qqCUAAAAAAAAiaUw.jpg?v=638796778922870000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4222753/VF4qT-qqCUAAAAAAAAlpDg.jpg?v=638895269123630000</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1567,66 +1555,66 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>6532</t>
+          <t>41370</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>6549</t>
+          <t>41297</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>BIO VIDA</t>
+          <t>COQUETEL</t>
         </is>
       </c>
       <c r="O16" t="n">
-        <v>2001034</v>
+        <v>2001855</v>
       </c>
       <c r="P16" t="n">
-        <v>100</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>couve-organica-bio-vida-embalada-499293</t>
+          <t>papel-aluminio-rolitto-30cm-x-75-m-897795</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Couve Orgânica Bio Vida Embalada</t>
+          <t>Papel Alumínio Rolitto 30Cm X 7,5 M</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>499293</t>
+          <t>897795</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Se sua saúde está em primeiro lugar, a dica é o consumo de alimentos orgânicos . Além de não levar agrotóxicos, com os produtos orgânicos Bio Vida você tem a oportunidade de consumir alimentos naturais , direto do solo para sua mesa. Higienizados e prontos para consumo, os orgânicos Bio Vida trazem mais praticidade à sua rotina. Conheça mais sobre os orgânicos Bio Vida.</t>
+          <t>Envolve , protege e conserva.</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5.99</v>
+        <v>6.99</v>
       </c>
       <c r="F17" t="n">
-        <v>8.99</v>
+        <v>6.99</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>111</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2020-09-27T00:00:00Z</t>
+          <t>2020-10-05T00:00:00Z</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4202839/VF4qT-qqCUAAAAAAAAju1A.jpg?v=638881445020670000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3061098/VF4qT-qqCUAAAAAAAAGpfA.jpg?v=637794125591230000</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1639,21 +1627,21 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>6866</t>
+          <t>9853</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>6884</t>
+          <t>9866</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>BIO VIDA</t>
+          <t>KENTINHA</t>
         </is>
       </c>
       <c r="O17" t="n">
-        <v>2001034</v>
+        <v>2001532</v>
       </c>
       <c r="P17" t="n">
         <v>99999</v>
@@ -1662,43 +1650,43 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>alface-americana-organica-bio-vida-180g-499226</t>
+          <t>orquidea-phalaenopsis-especial-unidade-265390</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Alface Americana Orgânica Bio Vida 180g</t>
+          <t>Orquídea Phalaenopsis Especial Unidade</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>499226</t>
+          <t>265390</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Se sua saúde está em primeiro lugar, a dica é o consumo de alimentos orgânicos . Além de não levar agrotóxicos, com os produtos orgânicos Bio Vida você tem a oportunidade de consumir alimentos naturais , direto do solo para sua mesa. Higienizados e prontos para consumo, os orgânicos Bio Vida trazem mais praticidade à sua rotina. Conheça mais sobre os orgânicos Bio Vida.</t>
+          <t>A Orquídea Phalaenopsis, também conhecida como orquídea-moth, é uma das variedades mais populares entre os amantes de plantas. Esta espécie se destaca pela sua beleza exótica e flores duradouras, que podem permanecer em flor por meses. **A cor pode variar de acordo com estoque disponível**</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>5.99</v>
+        <v>52.9</v>
       </c>
       <c r="F18" t="n">
-        <v>8.99</v>
+        <v>54.9</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>174</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2020-09-27T00:00:00Z</t>
+          <t>2020-10-05T00:00:00Z</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3103840/VF4qT-qqCUAAAAAAAAUBZw.jpg?v=638291780985430000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3048666/VF4qT-qqCUAAAAAAAAKwZA.jpg?v=637793264482830000</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1711,62 +1699,66 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>6879</t>
+          <t>9733</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>6897</t>
+          <t>9745</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>BIO VIDA</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O18" t="n">
-        <v>2001034</v>
+        <v>2000015</v>
       </c>
       <c r="P18" t="n">
-        <v>100</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>tomate-salada-organico-bio-vida-500g-458619</t>
+          <t>filtro-de-papel-melitta-original-103-com-30-unidades-482692</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Tomate Salada Orgânico Bio Vida 500g</t>
+          <t>Filtro De Papel Melitta Original 103 Com 30 Unidades</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>458619</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
+          <t>482692</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Modo de uso:1 Dobre o filtro de papel nas áreas indicadas e coloqueo no suporte para filtro 103 (grande);2 Para preparar 20 xícaras de café de 50ml, coloque 4 colheres de sopa bem cheias (equivalente a 80g) de pó no filtro;3 Sempre segurando a alça do suporte para filtro, acrescente 1 litro de água, lenta e continuamente.O Original Melitta® possui a exclusiva tecnologia de microfuros, esses furinhos no papel que têm o tamanho certo para deixar passar todo o aroma e sabor do seu café preferido.Único com microfuros</t>
+        </is>
+      </c>
       <c r="E19" t="n">
-        <v>9.99</v>
+        <v>5.29</v>
       </c>
       <c r="F19" t="n">
-        <v>11.99</v>
+        <v>5.29</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>111</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2020-09-27T00:00:00Z</t>
+          <t>2020-10-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3100620/VF4qT-qqCUAAAAAAAATqtQ.jpg?v=638279797414530000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3059859/VF4qT-qqCUAAAAAAAAGwjQ.jpg?v=637794016336030000</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1779,21 +1771,21 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>6504</t>
+          <t>10804</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>6521</t>
+          <t>10822</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>BIO VIDA</t>
+          <t>MELLITA</t>
         </is>
       </c>
       <c r="O19" t="n">
-        <v>2001034</v>
+        <v>2001318</v>
       </c>
       <c r="P19" t="n">
         <v>100</v>
@@ -1802,115 +1794,111 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>manga-palmer-em-pedacos-quasi-pronto-250g-63096</t>
+          <t>filtro-de-papel-melitta-original-102-com-30-unidades-482684</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Manga Palmer em Pedaços Quasi Pronto 250g</t>
+          <t>Filtro De Papel Melitta Original 102 Com 30 Unidades</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>63096</t>
+          <t>482684</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Suculentos pedaços de manga palmer higienizadas e pronta para consumo, basta abrir e comer. Quasi Pronto é uma linha exclusiva Zona Sul pensada para quem procura por praticidade aliada à alimentação saudável. São legumes , frutas e verduras higienizados e prontos, tanto para consumo imediato quanto para cozinhar, abrangendo os dois lados da moeda dos novos hábitos alimentares. Produtos selecionados, sem casca e picados, evitam o desperdício e diminuem os gastos. Validade de 5 dias mantendo o fechado e sob refrigeração; após aberto deverá ser consumido todo o produto. Conheça mais sobre nossa linha exclusiva Quasi Pronto</t>
+          <t>Único com microfuros. 30 unidades. Ideal para suportes tamanho 103.</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>25.99</v>
+        <v>4.99</v>
       </c>
       <c r="F20" t="n">
-        <v>29.99</v>
+        <v>4.99</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>111</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2020-09-28T00:00:00Z</t>
+          <t>2020-10-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3082335/VF4qT-qqCUAAAAAAAAOJ2Q.jpg?v=637969547917970000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3046749/VF4qT-qqCUAAAAAAAAGwjA.jpg?v=637793191983570000</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K20" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>7078</t>
+          <t>10803</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>7096</t>
+          <t>10821</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>QUASI PRONTO</t>
+          <t>MELLITA</t>
         </is>
       </c>
       <c r="O20" t="n">
-        <v>2001077</v>
+        <v>2001318</v>
       </c>
       <c r="P20" t="n">
-        <v>99999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>amora-80g-386855</t>
+          <t>papel-toalha-scala-222cm-x-19cm-com-2-rolos-60-folhas-1031660</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Amora 80g</t>
+          <t>Papel Toalha Scala 22,2cm x 19cm com 2 Rolos 60 Folhas</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>386855</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Amora 80g</t>
-        </is>
-      </c>
+          <t>1031660</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="n">
-        <v>19.99</v>
+        <v>6.99</v>
       </c>
       <c r="F21" t="n">
-        <v>29.99</v>
+        <v>6.99</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>111</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2020-09-26T00:00:00Z</t>
+          <t>2021-10-13T00:00:00Z</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3047276/VF4qT-qqCUAAAAAAAAF9mg.jpg?v=637793216706930000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3761859/VF4qT-qqCUAAAAAAAAc2_w.jpg?v=638628299729030000</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1923,66 +1911,66 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>5142</t>
+          <t>22018</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>5158</t>
+          <t>21946</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>SCALA</t>
         </is>
       </c>
       <c r="O21" t="n">
-        <v>2000015</v>
+        <v>2005008</v>
       </c>
       <c r="P21" t="n">
-        <v>10</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>alface-crespa-organica-bio-vida-processada-unidade-499234</t>
+          <t>papel-aluminio-wyda-30cm-x-75m-475238</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Alface Crespa Orgânica Bio Vida Processada Unidade</t>
+          <t>Papel Alumínio Wyda 30Cm X 7,5M</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>499234</t>
+          <t>475238</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Se sua saúde está em primeiro lugar, a dica é o consumo de alimentos orgânicos . Além de não levar agrotóxicos, com os produtos orgânicos Bio Vida você tem a oportunidade de consumir alimentos naturais . Conheça mais sobre os orgânicos Bio Vida.</t>
+          <t>As Folhas de Alumínio Wyda suportam desde altas temperaturas até o congelamento extremo. Item indispensável nas cozinhas brasileiras, a folha de alumínio é perfeita para tudo, desde o armazenamento, ao grelhar, ao forno e até ao congelador.</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>5.99</v>
+        <v>7.99</v>
       </c>
       <c r="F22" t="n">
-        <v>8.99</v>
+        <v>7.99</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>111</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2020-09-27T00:00:00Z</t>
+          <t>2020-10-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3103841/VF4qT-qqCUAAAAAAAAUBaQ.jpg?v=638291781028470000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3701667/VF4qT-qqCUAAAAAAAAcd3A.jpg?v=638606699352100000</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1995,138 +1983,138 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>6877</t>
+          <t>10710</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>6895</t>
+          <t>10728</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>BIO VIDA</t>
+          <t>WYDA</t>
         </is>
       </c>
       <c r="O22" t="n">
-        <v>2001034</v>
+        <v>2001541</v>
       </c>
       <c r="P22" t="n">
-        <v>99999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>avocado-300g-33863</t>
+          <t>filme-de-pvc-transparente-wyda-28cm-x-30m-475343</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Avocado 300g</t>
+          <t>Filme De Pvc Transparente Wyda 28Cm X 30M</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>33863</t>
+          <t>475343</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Embalagem com 1 unidade.</t>
+          <t>Filme De Pvc Transparente Wyda 28Cm X 30M</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>19.99</v>
+        <v>9.49</v>
       </c>
       <c r="F23" t="n">
-        <v>22.99</v>
+        <v>9.49</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>111</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2020-09-26T00:00:00Z</t>
+          <t>2020-10-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3080710/VF4qT-qqCUAAAAAAAAN8bQ.jpg?v=637934249606770000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3538849/VF4qT-qqCUAAAAAAAAa6hA.jpg?v=638550537766530000</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K23" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>5004</t>
+          <t>10718</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>5020</t>
+          <t>10736</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>WYDA</t>
         </is>
       </c>
       <c r="O23" t="n">
-        <v>2000015</v>
+        <v>2001541</v>
       </c>
       <c r="P23" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>abobora-japonesa-organica-bio-vida-600-g-449962</t>
+          <t>guardanapo-coquetel-30x33-cm-50-unidades-590487</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Abóbora Japonesa Orgânica Bio Vida 600g</t>
+          <t>Guardanapo Coquetel 30x33  cm 50  Unidades</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>449962</t>
+          <t>590487</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Se sua saúde está em primeiro lugar, a dica é o consumo de alimentos orgânicos . Além de não levar agrotóxicos, com os produtos orgânicos Bio Vida você tem a oportunidade de consumir alimentos naturais , direto do solo para sua mesa. Higienizados e prontos para consumo, os orgânicos Bio Vida trazem mais praticidade à sua rotina. Conheça mais sobre os orgânicos Bio Vida.</t>
+          <t>Guardanapo de Papel Folha Simples100% Fibras Naturais Mais absorçãoMais economia</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>8.99</v>
+        <v>6.19</v>
       </c>
       <c r="F24" t="n">
-        <v>9.99</v>
+        <v>6.19</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>111</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2020-09-27T00:00:00Z</t>
+          <t>2020-10-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3531453/VF4qT-qqCUAAAAAAAAa2Xw.jpg?v=638548809425930000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3047880/VF4qT-qqCUAAAAAAAAGQ9A.jpg?v=637793229576600000</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -2139,21 +2127,21 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>6541</t>
+          <t>11126</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>6558</t>
+          <t>11145</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>BIO VIDA</t>
+          <t>COQUETEL</t>
         </is>
       </c>
       <c r="O24" t="n">
-        <v>2001034</v>
+        <v>2001855</v>
       </c>
       <c r="P24" t="n">
         <v>100</v>
@@ -2162,107 +2150,115 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>tomate-fonte-verde-500g-70211</t>
+          <t>guardanapo-coquetel-215cm-x23cm-com-50-unidades-589624</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Tomate Fonte Verde 500g</t>
+          <t>Guardanapo Coquetel 21,5cm X23cm com 50 Unidades</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>70211</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
+          <t>589624</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Guardanapo Coquetel 21,5cm X23cm com 50 Unidades</t>
+        </is>
+      </c>
       <c r="E25" t="n">
-        <v>15.99</v>
+        <v>3.49</v>
       </c>
       <c r="F25" t="n">
-        <v>17.99</v>
+        <v>3.49</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>111</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2023-03-16T00:00:00Z</t>
+          <t>2020-10-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3093339/VF4qT-qqCUAAAAAAAAQ1vg.jpg?v=638167601588000000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3047879/VF4qT-qqCUAAAAAAAAGXRA.jpg?v=637793229530000000</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K25" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>32641</t>
+          <t>11124</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>32566</t>
+          <t>11143</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>COQUETEL</t>
         </is>
       </c>
       <c r="O25" t="n">
-        <v>2000015</v>
+        <v>2001855</v>
       </c>
       <c r="P25" t="n">
-        <v>100</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>tamara-com-caroco-deglet-nour-nouri-200g-5455057</t>
+          <t>filtro-de-papel-3-coracoes-102-917621</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Tâmara com Caroço Deglet Nour Nouri 200g</t>
+          <t>Filtro de Papel 3 Corações 102</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>5455057</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
+          <t>917621</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Coloque o filtro de papel em um porta-filtro 102, dobrando o fundo e a lateral marcados. O porta-filtro deverá estar limpo e seco. Ajuste o porta-filtro sobre o bule, jarra ou garrafa. Coloque o pó de café dentro do filtro, na quantidade desejada. Adicione água fervente aos poucos, no centro do filtro. Segure o porta-filtro ao despejar a água. Não mexa a mistura com colher. Adoce a gosto. Um filtro de papel 102 é ideal para o preparo de ½ litro de café ou um filtro de papel. Para garantir maior qualidade do café, troque o porta-filtro em até 6 meses. Não use utensílios para mexer o café enquanto estiver coando e assegure-se de que o porta-filtro esteja bem apoiado antes de despejar a água quente.</t>
+        </is>
+      </c>
       <c r="E26" t="n">
-        <v>4.99</v>
+        <v>2.49</v>
       </c>
       <c r="F26" t="n">
-        <v>6.93</v>
+        <v>2.49</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>111</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2024-12-12T00:00:00Z</t>
+          <t>2018-10-11T00:00:00Z</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3880027/VF4qT-qqCUAAAAAAAAgRrQ.jpg?v=638706054441300000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4362593/VF4qT-qqCUAAAAAAAAoAWw.jpg?v=638973033895270000</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2275,21 +2271,21 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>38796</t>
+          <t>37015</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>38723</t>
+          <t>36942</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>NOURI DATES</t>
+          <t>3 CORAÇÕES</t>
         </is>
       </c>
       <c r="O26" t="n">
-        <v>2005089</v>
+        <v>2001502</v>
       </c>
       <c r="P26" t="n">
         <v>99999</v>
@@ -2298,43 +2294,43 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ovos-caipira-organicos-label-rouge-bandeja-com-6-unidades-397890</t>
+          <t>guardanapo-folha-simples-snob-24x22cm-com-50-unidades-246468</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Ovos Caipira Orgânicos Label Rouge Bandeja Com 6 Unidades</t>
+          <t>Guardanapo Folha Simples Snob 24x22cm com 50 unidades</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>397890</t>
+          <t>246468</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Ovos Caipira Orgânicos Label Rouge Bandeja Com 6 Unidades</t>
+          <t>Guardanapo Folha Simples Snob 24x22cm com 50 unidades</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>10.99</v>
+        <v>3.29</v>
       </c>
       <c r="F27" t="n">
-        <v>11.99</v>
+        <v>3.29</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>111</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2020-09-27T00:00:00Z</t>
+          <t>2001-04-09T00:00:00Z</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3095722/VF4qT-qqCUAAAAAAAAStIQ.jpg?v=638217453713770000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3049684/VF4qT-qqCUAAAAAAAALBXQ.jpg?v=637793308376230000</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -2347,66 +2343,62 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>6622</t>
+          <t>22925</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>6639</t>
+          <t>22853</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>LABEL ROUGE</t>
+          <t>SNOB</t>
         </is>
       </c>
       <c r="O27" t="n">
-        <v>2001057</v>
+        <v>2001312</v>
       </c>
       <c r="P27" t="n">
-        <v>100</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>salada-pronta-organica-tropical-250-g-829587</t>
+          <t>copo-branco-descartavel-facilita-200ml-com-100-unidades-1191837</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Salada Pronta Orgânica Tropical  250 g</t>
+          <t>Copo Branco Descartável Facilita 200ml com 100 Unidades</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>829587</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Salada Pronta Orgânica Tropical 250 g</t>
-        </is>
-      </c>
+          <t>1191837</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="n">
-        <v>6.99</v>
+        <v>9.99</v>
       </c>
       <c r="F28" t="n">
-        <v>8.99</v>
+        <v>9.99</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>111</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2020-09-27T00:00:00Z</t>
+          <t>2025-12-11T00:00:00Z</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3052185/VF4qT-qqCUAAAAAAAAKgKw.jpg?v=637793422521700000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4435238/VF4qT-qqCUAAAAAAAAoPaQ.jpg?v=639020547416570000</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2419,21 +2411,21 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>6836</t>
+          <t>45669</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>6854</t>
+          <t>45596</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>FACILITA</t>
         </is>
       </c>
       <c r="O28" t="n">
-        <v>2000015</v>
+        <v>2005413</v>
       </c>
       <c r="P28" t="n">
         <v>100</v>
@@ -2442,115 +2434,107 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>banana-prata-cariorta-12kg-98957</t>
+          <t>copo-branco-descartavel-facilita-300ml-com-100-unidades-1191845</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Banana Prata Cariorta 1,4Kg</t>
+          <t>Copo Branco Descartável Facilita 300ml com 100 Unidades</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>98957</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Cariorta selecionados de coração.</t>
-        </is>
-      </c>
+          <t>1191845</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="n">
-        <v>13.99</v>
+        <v>15.99</v>
       </c>
       <c r="F29" t="n">
-        <v>13.99</v>
+        <v>15.99</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>111</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2020-12-16T00:00:00Z</t>
+          <t>2025-12-11T00:00:00Z</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3082685/VF4qT-qqCUAAAAAAAAOOmg.jpg?v=637980005966530000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4435239/VF4qT-qqCUAAAAAAAAoPag.jpg?v=639020547423400000</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K29" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>16565</t>
+          <t>45670</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>16456</t>
+          <t>45597</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>CARIORTA</t>
+          <t>FACILITA</t>
         </is>
       </c>
       <c r="O29" t="n">
-        <v>2001012</v>
+        <v>2005413</v>
       </c>
       <c r="P29" t="n">
-        <v>99999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ovos-brancos-cartela-com-30-unidades-196673</t>
+          <t>filtro-de-papel-3-coracoes-103-com-30-unidades-917630</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Ovos Brancos Cartela com 30 Unidades</t>
+          <t>Filtro de Papel 3 Corações 103 com 30 Unidades</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>196673</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Frescos, nutritivos e versáteis, os Ovos Brancos são perfeitos para o seu dia a dia! Ideais para preparar cafés da manhã deliciosos, receitas de bolos, omeletes ou aquele almoço especial.Embalagem econômica com 30 unidadesOrigem controlada e qualidade garantidaFonte natural de proteínas, vitaminas e minerais</t>
-        </is>
-      </c>
+          <t>917630</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="n">
-        <v>19.9</v>
+        <v>2.69</v>
       </c>
       <c r="F30" t="n">
-        <v>19.9</v>
+        <v>2.69</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>111</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2020-09-27T00:00:00Z</t>
+          <t>2021-01-27T02:45:00Z</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3081468/VF4qT-qqCUAAAAAAAAOA2g.jpg?v=637945445793000000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4362594/VF4qT-qqCUAAAAAAAAoAXA.jpg?v=638973033904800000</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -2563,138 +2547,138 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>7004</t>
+          <t>18958</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>7022</t>
+          <t>18850</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>3 CORAÇÕES</t>
         </is>
       </c>
       <c r="O30" t="n">
-        <v>2000015</v>
+        <v>2001502</v>
       </c>
       <c r="P30" t="n">
-        <v>99999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>banana-prata-organica-800g-73695</t>
+          <t>caixa-termica-antares-34l-cores-1047191</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Banana Prata Orgânica 800g</t>
+          <t>Caixa Térmica Antares 34L Cores</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>73695</t>
+          <t>1047191</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Banana Prata Orgânica</t>
+          <t>A caixa térmica de 34 Litros possui: ✓ Design Moderno; ✓ Alça móvel e confortável; ✓ Maior tempo de conservação; ✓ Tampa com porta copo, garrafa e objetos; ✓ Capacidade para 48 Latas de 350ml. Altura 40cm Largura 46cm Profundidade 32cm Material Parede em polipropileno, tampa em polietileno e isolamento térmico em poliestireno expandido.</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>10.99</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="F31" t="n">
-        <v>10.99</v>
+        <v>282.59</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>612</t>
+          <t>112</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2020-09-27T00:00:00Z</t>
+          <t>2022-03-07T00:00:00Z</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3478337/VF4qT-qqCUAAAAAAAAHzHA.jpg?v=638519431983800000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3296606/VF4qT-qqCUAAAAAAAAWc1g.jpg?v=638413165388900000</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K31" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>6180</t>
+          <t>24143</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>6196</t>
+          <t>24067</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>Antares Plásticos</t>
         </is>
       </c>
       <c r="O31" t="n">
-        <v>2000015</v>
+        <v>2004289</v>
       </c>
       <c r="P31" t="n">
-        <v>99999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>uva-verde-sem-semente-500-g-387096</t>
+          <t>guardanapo-folha-simples-kitchen-227-x-228-cm-com-50-unidades-149829</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Uva Verde Sem Semente 500g</t>
+          <t>Guardanapo Folha Simples Kitchen 22,7 X 22,8 Cm Com 50 Unidades</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>387096</t>
+          <t>149829</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Eventualmente, devido à variações climáticas, essa variedade pode apresentar traços de sementes comestíveis As uvas são, sem dúvidas, uma das frutas mais nutritivas de todas. Apesar de seu tamanho relativamente pequeno, elas são extremamente poderosas nutricionalmente e consumilas é muito importante para o bom funcionamento do corpo. As calorias presentes nas uvas também são poucas: apenas 90 em cerca de 150g. Por isso, é uma ótima opção também para aqueles que estão em processo de redução da massa corporal, desde que consumida com cautela. Rica em antioxidantes que são responsáveis por ‘’limpar’’ e proteger as nossas células dos chamados radicais livres, compostos potencialmente perigosos que podem danificar essas estruturas. Os antioxidantes estão mais comumente presentes na casca da fruta, o que é indicado pela coloração delas. Quanto mais escuras, maior é a concentração desses compostos na uva. Os principais exemplos são os polifenois, e o mais famoso deles chamase resveratrol."</t>
+          <t>UltramacioSuper absorvente</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>12.99</v>
+        <v>4.19</v>
       </c>
       <c r="F32" t="n">
-        <v>12.99</v>
+        <v>4.19</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>111</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2020-09-26T00:00:00Z</t>
+          <t>2020-10-05T00:00:00Z</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4302860/VF4qT-qqCUAAAAAAAAHKLQ.jpg?v=638933289093600000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3076712/VF4qT-qqCUAAAAAAAAG_rw.jpg?v=637877839676800000</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2707,21 +2691,21 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>5276</t>
+          <t>9474</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>5292</t>
+          <t>9486</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>KITCHEN</t>
         </is>
       </c>
       <c r="O32" t="n">
-        <v>2000015</v>
+        <v>2001425</v>
       </c>
       <c r="P32" t="n">
         <v>99999</v>
@@ -2730,111 +2714,115 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>alho-roxo-200g-93009</t>
+          <t>saco-para-conservar-alimentos-freezer-roll-20×35cm-2l-com-100-unidades-433438</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Alho Roxo 200g</t>
+          <t>Saco Para Conservar Alimentos Freezer Roll 20×35cm 2L com 100 Unidades</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>93009</t>
+          <t>433438</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Embalagem com 1 a 2 cabeças.</t>
+          <t>Atóxico e inodoro. Para freezer, geladeira e microondas.</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>39.9</v>
+        <v>15.99</v>
       </c>
       <c r="F33" t="n">
-        <v>39.9</v>
+        <v>15.99</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>111</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2021-06-24T00:00:00Z</t>
+          <t>2020-10-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3478338/VF4qT-qqCUAAAAAAAAYALg.jpg?v=638519431997800000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3042464/VF4qT-qqCUAAAAAAAAIi4w.jpg?v=637792616051870000</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K33" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>20520</t>
+          <t>10389</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>20457</t>
+          <t>10406</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>DOVER ROLL</t>
         </is>
       </c>
       <c r="O33" t="n">
-        <v>2000015</v>
+        <v>2001458</v>
       </c>
       <c r="P33" t="n">
-        <v>99999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>castanha-de-caju-iracema-sache-50g-1137867</t>
+          <t>guardanapo-de-papel-folha-dupla-snob-235cm-x-235cm-pacote-50-unidades-482447</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Castanha de Cajú Iracema Sachê 50g</t>
+          <t>Guardanapo de Papel Folha Dupla Snob 23,5cm x 23,5cm Pacote 50 Unidades</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1137867</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
+          <t>482447</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Guardanapo de Papel Folha Dupla Snob 23,5cm x 23,5cm Pacote 50 Unidades</t>
+        </is>
+      </c>
       <c r="E34" t="n">
-        <v>11.49</v>
+        <v>7.99</v>
       </c>
       <c r="F34" t="n">
-        <v>11.49</v>
+        <v>7.99</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>111</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2024-05-31T00:00:00Z</t>
+          <t>2009-04-28T00:00:00Z</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3541171/VF4qT-qqCUAAAAAAAAa62A.jpg?v=638552265597400000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3100227/VF4qT-qqCUAAAAAAAATlpg.jpg?v=638276138717370000</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2847,66 +2835,66 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>36865</t>
+          <t>34046</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>36792</t>
+          <t>33973</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>IRACEMA</t>
+          <t>SNOB</t>
         </is>
       </c>
       <c r="O34" t="n">
-        <v>2001801</v>
+        <v>2001312</v>
       </c>
       <c r="P34" t="n">
-        <v>100</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>brocolis-e-couve-flor-florete-organicos-higienizados-200g-1025996</t>
+          <t>filme-de-pvc-transparente-wyda-28cm-x-15m-475319</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Brócolis e Couve Flor Florete Orgânicos Higienizados 200g</t>
+          <t>Filme De Pvc Transparente Wyda 28Cm X 15M</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1025996</t>
+          <t>475319</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Pronto para consumo.</t>
+          <t>Filme De Pvc Transparente Wyda 28Cm X 15M</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6.99</v>
+        <v>4.99</v>
       </c>
       <c r="F35" t="n">
-        <v>7.99</v>
+        <v>4.99</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>111</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2021-08-20T00:00:00Z</t>
+          <t>2020-10-06T03:07:00Z</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3045821/VF4qT-qqCUAAAAAAAAKhHQ.jpg?v=637793147502770000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3538848/VF4qT-qqCUAAAAAAAAa6hQ.jpg?v=638550537756800000</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2919,66 +2907,66 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>21334</t>
+          <t>10716</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>21265</t>
+          <t>10734</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Rio de Una</t>
+          <t>WYDA</t>
         </is>
       </c>
       <c r="O35" t="n">
-        <v>2004428</v>
+        <v>2001541</v>
       </c>
       <c r="P35" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>brocolis-americano-unidade-197254</t>
+          <t>papel-toalha-tootex-20cm-x-20cm-com-2-rolos-50-folhas-cada-1164210</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Brócolis Americano Unidade</t>
+          <t>Papel Toalha Tootex 20cm x 20cm com 2 Rolos 50 Folhas Cada</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>197254</t>
+          <t>1164210</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>O brócolis é uma hortaliça com poucas calorias. É fonte de fósforo, ferro, cálcio, fibras e também possui vitamina C .Como conservar: Em geladeira doméstica, pode ser mantido por até 4 dias dentro de saco plástico perfurado.Como consumir :Pode ser consumido cru em saladas ou cozido em saladas, sopas suflês, bolos e refogados . O cozimento deve ser feito em vapor ou em panela tampada com pouca água.[ Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
+          <t>Papel Toalha Tootex, a solução perfeita para suas necessidades de limpeza e secagem!</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>8.99</v>
+        <v>3.99</v>
       </c>
       <c r="F36" t="n">
-        <v>8.99</v>
+        <v>3.99</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>111</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2020-09-28T00:00:00Z</t>
+          <t>2025-02-14T00:00:00Z</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3045902/VF4qT-qqCUAAAAAAAAHLnQ.jpg?v=637793151806400000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4210672/VF4qT-qqCUAAAAAAAAkRfw.jpg?v=638884892363800000</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2991,66 +2979,66 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>7462</t>
+          <t>40524</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>7481</t>
+          <t>40451</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>TOOTEX</t>
         </is>
       </c>
       <c r="O36" t="n">
-        <v>2000015</v>
+        <v>2005273</v>
       </c>
       <c r="P36" t="n">
-        <v>99999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>framboesa-bandeja-80-g-125504</t>
+          <t>saco-para-conservar-alimentos-freezer-roll-28×42-cm-5-l-100-unidades-402176</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Framboesa Bandeja 80g</t>
+          <t>Saco Para Conservar Alimentos Freezer Roll 28×42 Cm 5 L 100 Unidades</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>125504</t>
+          <t>402176</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>As framboesas são uma excelente fonte de vitamina C, cálcio, ferro, potássio e antioxidantes. Tem também como principal atividade prevenir o câncer. Previne doenças cardíacas pela razão das amoras e framboesas conter uma forma natural de aspirina chamado Salicí­lico. Também são grande fonte de fibras. Com a charmosa coloração vermelha proveniente das antocianinas, um antioxidante. A framboesa deve ser lavada somente no momento que for consumila. Mantenha em seu refrigerador e seu uso antes de dois dias.</t>
+          <t>Saco Para Conservar Alimentos Freezer Roll 28×42 Cm 5 L 100 Unidades</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>24.99</v>
+        <v>21.99</v>
       </c>
       <c r="F37" t="n">
-        <v>27.99</v>
+        <v>21.99</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>111</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2020-09-26T00:00:00Z</t>
+          <t>2020-10-05T00:00:00Z</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4427459/VF4qT-qqCUAAAAAAAAoMHQ.jpg?v=639011907148030000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3042032/VF4qT-qqCUAAAAAAAAIi3g.jpg?v=637792597833670000</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -3063,21 +3051,21 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>5145</t>
+          <t>10187</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>5161</t>
+          <t>10204</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>DOVER ROLL</t>
         </is>
       </c>
       <c r="O37" t="n">
-        <v>2000015</v>
+        <v>2001458</v>
       </c>
       <c r="P37" t="n">
         <v>100</v>
@@ -3086,43 +3074,43 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>mamao-papaia-unidade-5130786</t>
+          <t>filme-de-pvc-transparente-filmitto-28cm-x-30-m-897817</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Mamão Papaia Unidade</t>
+          <t>Filme De Pvc Transparente Filmitto 28Cm X 30 M</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>5130786</t>
+          <t>897817</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Mamão Papaia Unidade</t>
+          <t>Envolve , protege e conserva.</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6.49</v>
+        <v>11.99</v>
       </c>
       <c r="F38" t="n">
-        <v>6.49</v>
+        <v>11.99</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>111</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2017-02-17T00:00:00Z</t>
+          <t>2020-10-05T00:00:00Z</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3093313/VF4qT-qqCUAAAAAAAAQ0fA.jpg?v=638167600775370000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3061015/VF4qT-qqCUAAAAAAAAGpfg.jpg?v=637794117870700000</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -3135,66 +3123,66 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>32822</t>
+          <t>9856</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>32747</t>
+          <t>9869</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>KENTINHA</t>
         </is>
       </c>
       <c r="O38" t="n">
-        <v>2000015</v>
+        <v>2001532</v>
       </c>
       <c r="P38" t="n">
-        <v>99999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>shimeji-preto-organico-1173510</t>
+          <t>guardanapo-de-papel-folha-dupla-snob-325cm-x-325cm-pacote-50-unidades-482455</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Shimeji Preto Orgânico Bio Vida 200g</t>
+          <t>Guardanapo de Papel Folha Dupla Snob 32,5cm x 32,5cm Pacote 50 Unidades</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1173510</t>
+          <t>482455</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Shimeji Preto Orgânico Bio Vida - Exclusivo Zona Sul -Sabor suave e levemente adocicado. Fonte de ergotioneína, antioxidante que protege as células.Uso ideal: Salteados, yakisoba e omeletes Item de utilidade não acompanha , foto meramente ilustrativa.</t>
+          <t>Guardanapo de Papel Folha Dupla Snob 32,5cm x 32,5cm Pacote 50 Unidades</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>16.99</v>
+        <v>12.99</v>
       </c>
       <c r="F39" t="n">
-        <v>20.99</v>
+        <v>12.99</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>111</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-05-09T00:00:00Z</t>
+          <t>2009-04-28T00:00:00Z</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4435223/VF4qT-qqCUAAAAAAAAoPbg.jpg?v=639020547294130000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3100231/VF4qT-qqCUAAAAAAAATlrg.jpg?v=638276138896370000</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -3207,134 +3195,138 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>40258</t>
+          <t>34047</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>40185</t>
+          <t>33974</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>BIO VIDA</t>
+          <t>SNOB</t>
         </is>
       </c>
       <c r="O39" t="n">
-        <v>2001034</v>
+        <v>2001312</v>
       </c>
       <c r="P39" t="n">
-        <v>100</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>batata-inglesa-cariorta-12kg-98698</t>
+          <t>carvao-vegetal-cariocao-saco-5kg-530581</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Batata Inglesa Cariorta 1,2Kg</t>
+          <t>Carvão Vegetal Cariocão Saco 5kg</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>98698</t>
+          <t>530581</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Cariorta selecionados de coração.</t>
+          <t>Carvão Vegetal Cariocão Saco 5kg</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>7.99</v>
+        <v>50.99</v>
       </c>
       <c r="F40" t="n">
-        <v>7.99</v>
+        <v>50.99</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>619</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2020-12-16T00:00:00Z</t>
+          <t>2020-10-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3082670/VF4qT-qqCUAAAAAAAAOOew.jpg?v=637979987993130000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3049150/VF4qT-qqCUAAAAAAAAF_OQ.jpg?v=637793282542670000</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K40" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>16570</t>
+          <t>11058</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>16461</t>
+          <t>11077</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>CARIORTA</t>
+          <t>CARIOCAO</t>
         </is>
       </c>
       <c r="O40" t="n">
-        <v>2001012</v>
+        <v>2001829</v>
       </c>
       <c r="P40" t="n">
-        <v>99999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ovos-vermelhos-caipira-happy-eggs-com-20-unidades-370550</t>
+          <t>lugar-americano-limao-siciliano-45-5cm-lyor-1190172</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Ovos Vermelhos Caipira Happy Eggs Com 20 Unidades</t>
+          <t>Lugar Americano Limão Siciliano 45,5cm Lyor</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>370550</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr"/>
+          <t>1190172</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Lugar Americano Limão Siciliano Lyor 45,5cmFrescor, cor e elegância para a sua mesaO Lugar Americano Limão Siciliano Lyor é o toque de charme que transforma qualquer refeição em uma experiência especial. Com estampa inspirada no limão siciliano, ele traz leveza, frescor e um visual vibrante que valoriza a mesa posta.Com tamanho 45,5cm, oferece excelente cobertura e proteção para a mesa, além de acomodar pratos, talheres e copos com conforto. Produzido em material resistente e fácil de limpar, é perfeito para o dia a dia ou ocasiões especiais.Ideal para quem gosta de uma mesa alegre, elegante e cheia de personalidade.</t>
+        </is>
+      </c>
       <c r="E41" t="n">
-        <v>24.99</v>
+        <v>9.99</v>
       </c>
       <c r="F41" t="n">
-        <v>24.99</v>
+        <v>9.99</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>112</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2020-09-27T00:00:00Z</t>
+          <t>2025-11-14T00:00:00Z</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4343192/VF4qT-qqCUAAAAAAAAn9QA.jpg?v=638956617627730000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4462807/VF4qT-qqCUAAAAAAAAoWKw.jpg?v=639036090426530000</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -3347,66 +3339,62 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>6939</t>
+          <t>45286</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>6957</t>
+          <t>45213</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>HAPPY EGGS</t>
+          <t>LYOR</t>
         </is>
       </c>
       <c r="O41" t="n">
-        <v>2003319</v>
+        <v>2003797</v>
       </c>
       <c r="P41" t="n">
-        <v>99999</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ovos-brancos-jumbo-mantiqueira-com-10-unidades-437638</t>
+          <t>toalha-de-papel-snob-100-folhas-1123360</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Ovos Brancos Jumbo Mantiqueira Com 10 Unidades</t>
+          <t>Toalha de Papel Snob 100 Folhas</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>437638</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Os Ovos Jumbo Mantiqueira possuem maior tamanho, ideais para quem busca uma alimentação rica em vitaminas, proteínas e minerais, ou para quem gosta de um maior rendimento em suas receitas. Um único ovo contém quase todos os nutrientes necessários para manter o corpo saudável, fortalecendo os ossos e auxiliando em dietas para perda de peso ou ganho de massa.O Ovo Jumbo Mantiqueira é um produto da linha Especial da marca e possui a qualidade superior, passando por um moderno sistema de seleção, limpeza e embalagem sem contato de mãos humanas.Especificações:Ovos maiores, tamanho família.Embalagem com 10 unidades.Ovos brancos e vermelhos tipo jumbo categoria A.</t>
-        </is>
-      </c>
+          <t>1123360</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
       <c r="E42" t="n">
-        <v>10.9</v>
+        <v>10.49</v>
       </c>
       <c r="F42" t="n">
-        <v>10.9</v>
+        <v>10.49</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>111</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2020-09-27T00:00:00Z</t>
+          <t>2024-01-18T00:00:00Z</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3976126/VF4qT-qqCUAAAAAAAAh4RA.jpg?v=638769994856100000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3310243/VF4qT-qqCUAAAAAAAAWu2A.jpg?v=638429574957000000</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -3419,138 +3407,138 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>7002</t>
+          <t>35444</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>7020</t>
+          <t>35371</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>MANTIQUEIRA</t>
+          <t>SNOB</t>
         </is>
       </c>
       <c r="O42" t="n">
-        <v>2001056</v>
+        <v>2001312</v>
       </c>
       <c r="P42" t="n">
-        <v>99999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>tomate-italiano-cariorta-12kg-98868</t>
+          <t>pilha-duracell-palito-aaa-com-4-unidades-791121</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Tomate Italiano Cariorta 1,2Kg</t>
+          <t>Pilha Duracell Palito AAA com 4 Unidades</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>98868</t>
+          <t>791121</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Cariorta selecionados de coração.</t>
+          <t>Quando se trata de pilhas confiáveis e de longa duração, Duracell é a melhor opção. Projetadas para fornecer aquela energia extra, as pilhas alcalinas Duracell estão disponíveis nos tamanhos AA, AAA, C, D e 9V. As pilhas AAA proporcionam energia confiável aos aparelhos do dia a dia, como brinquedos, controles remotos, consoles de jogos portáteis, fechaduras eletrônicas, lanternas, etc. Além disso, a tecnologia de Duracell preserva a energia das pilhas que ainda não foram usadas, por até 10 anos.</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>10.99</v>
+        <v>27.99</v>
       </c>
       <c r="F43" t="n">
-        <v>10.99</v>
+        <v>27.99</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>243</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2020-12-16T00:00:00Z</t>
+          <t>2020-10-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3082683/VF4qT-qqCUAAAAAAAAOOlg.jpg?v=637980005909000000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3050847/VF4qT-qqCUAAAAAAAAH80Q.jpg?v=637793355415430000</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K43" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>16582</t>
+          <t>11732</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>16473</t>
+          <t>11756</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>CARIORTA</t>
+          <t>DURACELL</t>
         </is>
       </c>
       <c r="O43" t="n">
-        <v>2001012</v>
+        <v>2001319</v>
       </c>
       <c r="P43" t="n">
-        <v>99999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ovos-vermelhos-mantiqueira-happy-eggs-com-10-unidades-5106753</t>
+          <t>pilha-duracell-pequena-aa-4-unidades-124036</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Ovos Vermelhos Mantiqueira Happy Eggs com 10 Unidades</t>
+          <t>Pilha Duracell Pequena Aa 4 Unidades</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>5106753</t>
+          <t>124036</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Produzidos por galinhas criadas livres de gaiolas. Garantia de Bem-Estar Animal. Ovos Vermelhos Tipo Grande Categoria A. Embalagem com 10 unidades.</t>
+          <t>Pilha Duracell Pequena Aa 4 Unidades</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>11.99</v>
+        <v>27.99</v>
       </c>
       <c r="F44" t="n">
-        <v>11.99</v>
+        <v>27.99</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>243</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2021-01-11T00:00:00Z</t>
+          <t>2020-10-05T00:00:00Z</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4222023/VF4qT-qqCUAAAAAAAAStHA.jpg?v=638894405636230000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3076195/VF4qT-qqCUAAAAAAAAH8zQ.jpg?v=637877817609770000</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -3563,287 +3551,287 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>18105</t>
+          <t>9412</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>17997</t>
+          <t>9424</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>HAPPY EGGS</t>
+          <t>DURACELL</t>
         </is>
       </c>
       <c r="O44" t="n">
-        <v>2003319</v>
+        <v>2001319</v>
       </c>
       <c r="P44" t="n">
-        <v>99999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>mamao-papaia-cariorta-12kg-99007</t>
+          <t>papel-aluminio-wyda-30cm-x-4m-603660</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Mamão Papaia Cariorta 1,2kg</t>
+          <t>Papel Alumínio Wyda 30cm x 4m</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>99007</t>
+          <t>603660</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Cariorta selecionados de coração.</t>
+          <t>As Folhas de Alumínio Wyda suportam desde altas temperaturas até o congelamento extremo. Item indispensável nas cozinhas brasileiras, a folha de alumínio é perfeita para tudo, desde o armazenamento, ao grelhar, ao forno e até ao congelador.</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>15.99</v>
+        <v>5.29</v>
       </c>
       <c r="F45" t="n">
-        <v>15.99</v>
+        <v>5.29</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>111</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2020-05-20T00:00:00Z</t>
+          <t>2012-01-24T00:00:00Z</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3082688/VF4qT-qqCUAAAAAAAAOOog.jpg?v=637980006057500000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3701669/VF4qT-qqCUAAAAAAAAcd0w.jpg?v=638606699403300000</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K45" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>24413</t>
+          <t>33398</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>24337</t>
+          <t>33323</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>CARIORTA</t>
+          <t>WYDA</t>
         </is>
       </c>
       <c r="O45" t="n">
-        <v>2001012</v>
+        <v>2001541</v>
       </c>
       <c r="P45" t="n">
-        <v>99999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>pitaya-vermelha-300g-12394</t>
+          <t>carvao-vegetal-ecologico-guedes-5kg-1008994</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Pitaya Vermelha 300g</t>
+          <t>Carvão Vegetal Ecológico Guedes 5kg</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>12394</t>
+          <t>1008994</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Com sua casca escamosa de cor vibrante e polpa suculenta, a pitaya vermelha é não apenas visualmente atraente, mas também repleta de benefícios para a saúde. Rica em fibras, vitaminas e antioxidantes, a pitaya vermelha é uma aliada para a saúde do sistema digestivo e imunológico.</t>
+          <t>Carvão Vegetal Ecológico Guedes 5kg</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>14.99</v>
+        <v>44.99</v>
       </c>
       <c r="F46" t="n">
-        <v>16.99</v>
+        <v>44.99</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>619</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>1996-10-30T00:00:00Z</t>
+          <t>2021-03-23T00:00:00Z</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3337187/VF4qT-qqCUAAAAAAAAXE7g.jpg?v=638455493927700000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3037110/VF4qT-qqCUAAAAAAAAIoPA.jpg?v=637792348146800000</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K46" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>35587</t>
+          <t>19712</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>35515</t>
+          <t>19609</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Hortifruti</t>
+          <t>CARVÃO GUEDES</t>
         </is>
       </c>
       <c r="O46" t="n">
-        <v>2000000</v>
+        <v>2003745</v>
       </c>
       <c r="P46" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>alho-roxo-cariorta-4-a-5-unidades-250g-99279</t>
+          <t>pote-hermetico-em-vidro-550ml-lyor-1190199</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Alho Roxo Cariorta 4 a 5 unidades 250g</t>
+          <t>Pote Hermético em Vidro 550ml Lyor</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>99279</t>
+          <t>1190199</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Cariorta selecionados de coração.</t>
+          <t>Pote Hermético em Vidro Lyor 550mlConservação premium com elegância e praticidadeO Pote Hermético em Vidro Lyor 550ml é ideal para quem busca armazenar alimentos com mais frescor, higiene e sofisticação. Produzido em vidro de alta qualidade, ele não absorve odores nem sabores, preservando a pureza dos alimentos.Sua tampa hermética com vedação eficiente protege contra ar, umidade e contaminação, mantendo tudo fresco por mais tempo. O tamanho de 550ml é perfeito para guardar grãos, biscoitos, castanhas, açúcar, café, doces e muito mais.Com design moderno e acabamento refinado, valoriza sua despensa, bancada ou mesa posta.</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>59.99</v>
+        <v>27.99</v>
       </c>
       <c r="F47" t="n">
-        <v>59.99</v>
+        <v>27.99</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>112</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2020-05-27T00:00:00Z</t>
+          <t>2025-11-14T00:00:00Z</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3082698/VF4qT-qqCUAAAAAAAAOOtg.jpg?v=637980006345970000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4462809/VF4qT-qqCUAAAAAAAAoWLw.jpg?v=639036090463470000</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K47" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>24684</t>
+          <t>45288</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>24608</t>
+          <t>45215</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>CARIORTA</t>
+          <t>LYOR</t>
         </is>
       </c>
       <c r="O47" t="n">
-        <v>2001012</v>
+        <v>2003797</v>
       </c>
       <c r="P47" t="n">
-        <v>99999</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>limao-cariorta-1kg-98981</t>
+          <t>pote-hermetico-em-vidro-150ml-lyor-1190300</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Limão Cariorta 1Kg</t>
+          <t>Pote Hermético em Vidro 150ml Lyor</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>98981</t>
+          <t>1190300</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Cariorta selecionados de coração.</t>
+          <t>Pote Hermético em Vidro Lyor 150mlPequeno no tamanho, grande na praticidadeO Pote Hermético em Vidro Lyor 150ml é perfeito para armazenar com charme e eficiência pequenas porções do dia a dia. Produzido em vidro de alta qualidade, não absorve odores nem sabores, garantindo máxima higiene e preservação dos alimentos.Sua tampa hermética cria uma vedação segura que mantém o conteúdo fresco por mais tempo, protegendo contra umidade e ar. Ideal para temperos, ervas, especiarias, geleias, mel, castanhas, sementes ou até para organizar pequenos itens com elegância.Compacto e sofisticado, combina perfeitamente com cozinhas modernas, despensas organizadas e mesas gourmet.</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>11.99</v>
+        <v>15.99</v>
       </c>
       <c r="F48" t="n">
-        <v>11.99</v>
+        <v>15.99</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>112</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2020-05-20T00:00:00Z</t>
+          <t>2025-11-14T00:00:00Z</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3084385/VF4qT-qqCUAAAAAAAAOgIg.jpg?v=638000868147970000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4462814/VF4qT-qqCUAAAAAAAAoWIQ.jpg?v=639036090561900000</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K48" t="n">
@@ -3851,95 +3839,3459 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>24698</t>
+          <t>45299</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>24622</t>
+          <t>45226</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>CARIORTA</t>
+          <t>LYOR</t>
         </is>
       </c>
       <c r="O48" t="n">
-        <v>2001012</v>
+        <v>2003797</v>
       </c>
       <c r="P48" t="n">
-        <v>99999</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
+          <t>guardanapo-folha-simples-snob-33×33-cm-50-unidades-266990</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Guardanapo Folha Simples Snob 33×33 cm 50 Unidades</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>266990</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Guardanapo Folha Simples Snob 33×33 cm 50 Unidades</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="F49" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>2020-10-15T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3070907/VF4qT-qqCUAAAAAAAAMxGQ.jpg?v=637806315398570000</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>un</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>13266</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>13286</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>SNOB</t>
+        </is>
+      </c>
+      <c r="O49" t="n">
+        <v>2001312</v>
+      </c>
+      <c r="P49" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>leite-condensado-moca-lata-395g-1136321</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Leite Condensado Moça Lata 395g</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>1136321</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Moça® faz todas as receitas darem certo desde 1921, com seu sabor único e original, tem consistência perfeita, é sem comparação! É leite condensado obtido a partir de leite fresco, puro e integral. É um clássico no preparo de sobremesas, também é uma delícia na colher, na salada de frutas e o que mais você imaginar.</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>7.98</v>
+      </c>
+      <c r="F50" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>2024-05-13T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3561021/VF4qT-qqCUAAAAAAAAbPyA.jpg?v=638987191686300000</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>un</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>37022</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>36949</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>NESTLE</t>
+        </is>
+      </c>
+      <c r="O50" t="n">
+        <v>2000043</v>
+      </c>
+      <c r="P50" t="n">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>matte-leao-limao-pet-1-5l-118222</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Matte Leão Limão Pet 1,5L</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>118222</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>O Chá MATTE Limão Leão é um dos tipos de chás preferido dos consumidores. A marca Chá Mate Leão está presente no mercado há mais de 100 anos, sendo a marca de chá mais vendida e tradicional. Produzido com extrato aquoso de mate, açúcar e suco de limão, o Chá MATTE LEÃO Limão é a opção ideal para refrescar o seu dia! Compre e compartilhe com amigos e familiares!</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>7.69</v>
+      </c>
+      <c r="F51" t="n">
+        <v>8.99</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>2020-10-01T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3704455/VF4qT-qqCUAAAAAAAAcePQ.jpg?v=638609291270100000</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>un</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>8711</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>8723</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>LEAO</t>
+        </is>
+      </c>
+      <c r="O51" t="n">
+        <v>2000010</v>
+      </c>
+      <c r="P51" t="n">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>leite-uht-piracanjuba-integral-1l-865427</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Leite Uht Piracanjuba Integral 1L</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>865427</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>No café da manhã, em um delicioso lanche da tarde ou até mesmo antes de dormir, o Leite Piracanjuba cumpre bem o seu papel principal: trazer mais sabor para os seus momentos especiais e para as suas receitas. Mais sabor para todos os momentos.</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="F52" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>2017-04-12T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3294485/VF4qT-qqCUAAAAAAAAWbgQ.jpg?v=638412300289570000</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>un</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>23232</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>23158</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>PIRACANJUBA</t>
+        </is>
+      </c>
+      <c r="O52" t="n">
+        <v>2002038</v>
+      </c>
+      <c r="P52" t="n">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>alcool-montenegro-46-1-l-780570</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Álcool Montenegro 46% 1 L</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>780570</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Álcool Montenegro 46% 1 L</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>8.789999999999999</v>
+      </c>
+      <c r="F53" t="n">
+        <v>8.789999999999999</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>2020-10-06T10:47:00Z</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3051579/VF4qT-qqCUAAAAAAAAG3pQ.jpg?v=637793390624870000</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>un</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>11598</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>11621</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>MONTENEGRO</t>
+        </is>
+      </c>
+      <c r="O53" t="n">
+        <v>2000527</v>
+      </c>
+      <c r="P53" t="n">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>papel-higienico-neve-folha-dupla-toque-de-seda-com-12-unidades-1153285</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Papel Higiênico Neve Folha Dupla Toque de Seda com 12 Unidades</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>1153285</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>O Papel Higiênico Folha Dupla Neve é a opção ideal para quem busca conforto e praticidade no dia a dia. Com folhas macias que proporcionam uma limpeza suave e eficiente, ele traz muito mais conforto e bem-estar. Além disso, seu formato em rolos com 20 metros de comprimento garante longa duração, evitando o desperdício. Cada pacote contém 12 rolos, o que permite estoque para uso contínuo. Produzido com matéria-prima de alta qualidade, o Papel Higiênico Folha Dupla Neve dissolve facilmente na água, o que evita entupimentos e garante higiene. É uma ótima pedida para uso doméstico ou comercial.</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>19.89</v>
+      </c>
+      <c r="F54" t="n">
+        <v>19.89</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>2024-10-16T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3798203/VF4qT-qqCUAAAAAAAAdSuw.jpg?v=638649029489970000</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>un</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>37914</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>37841</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>NEVE</t>
+        </is>
+      </c>
+      <c r="O54" t="n">
+        <v>2000291</v>
+      </c>
+      <c r="P54" t="n">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>uva-preta-sem-semente-500-g-674583</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Uva Preta Sem Semente 500g</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>674583</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Eventualmente, devido à variações climáticas, essa variedade pode apresentar traços de sementes comestíveis As uvas são, sem dúvidas, uma das frutas mais nutritivas de todas. Apesar de seu tamanho relativamente pequeno, elas são extremamente poderosas nutricionalmente e consumilas é muito importante para o bom funcionamento do corpo.As calorias presentes nas uvas também são poucas: apenas 90 em cerca de 150g. Por isso, é uma ótima opção também para aqueles que estão em processo de redução da massa corporal, desde que consumida com cautela.Rica em antioxidantes que são responsáveis por ‘’limpar’’ e proteger as nossas células dos chamados radicais livres, compostos potencialmente perigosos que podem danificar essas estruturas.Os antioxidantes estão mais comumente presentes na casca da fruta, o que é indicado pela coloração delas. Quanto mais escuras, maior é a concentração desses compostos na uva. Os principais exemplos são os polifenois, e o mais famoso deles chamase resveratrol.</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="F55" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>2020-09-26T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3047035/VF4qT-qqCUAAAAAAAAGXCQ.jpg?v=637793205627670000</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>un</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>5264</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>5280</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>Zona Sul</t>
+        </is>
+      </c>
+      <c r="O55" t="n">
+        <v>2000015</v>
+      </c>
+      <c r="P55" t="n">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>mucarela-em-fatias-92363</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Muçarela  em Fatias 200g</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>92363</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Muçarela em Fatias</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>59.9</v>
+      </c>
+      <c r="F56" t="n">
+        <v>59.9</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>2020-09-27T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3052070/VF4qT-qqCUAAAAAAAAI4-w.jpg?v=637793416889100000</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>1361</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>1368</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>Zona Sul</t>
+        </is>
+      </c>
+      <c r="O56" t="n">
+        <v>2000015</v>
+      </c>
+      <c r="P56" t="n">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>tomate-italiano-unidade-495212</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Tomate Italiano Unidade</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>495212</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Tomate Italiano Unidade</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>2020-09-27T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3094266/VF4qT-qqCUAAAAAAAASLmg.jpg?v=638191532599970000</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>un</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>6965</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>6983</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>Zona Sul</t>
+        </is>
+      </c>
+      <c r="O57" t="n">
+        <v>2000015</v>
+      </c>
+      <c r="P57" t="n">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>creme-de-leite-nestle-10--gratis-200g-1165151</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Creme de Leite Nestlé 10% Grátis 200g</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>1165151</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="F58" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>2025-02-20T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4395976/VF4qT-qqCUAAAAAAAAoEeQ.jpg?v=638984266226730000</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>un</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>40151</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>40078</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>NESTLE</t>
+        </is>
+      </c>
+      <c r="O58" t="n">
+        <v>2000043</v>
+      </c>
+      <c r="P58" t="n">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>cheiro-verde-unidade-201049</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Cheiro Verde Unidade</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>201049</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>O cheiro verde é a combinação da cebolinha e salsinha .Como conservar:Em geladeira por até 5 dias em saco ou vasilha de plástico.Como consumir:Podem ser adicionadas cruas, em saladas e recheios de sanduíches e como ingredientes em marinadas.</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="F59" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>2020-09-28T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3457712/VF4qT-qqCUAAAAAAAAXvTg.jpg?v=638507335658200000</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>un</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>7411</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>7430</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>Zona Sul</t>
+        </is>
+      </c>
+      <c r="O59" t="n">
+        <v>2000015</v>
+      </c>
+      <c r="P59" t="n">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>cafe-torrado-e-moido-pilao-tradicional-500g-828025</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Café Torrado E Moído Pilão Tradicional Fresh Pack 500g</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>828025</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Tem um ponto de torra acentuado e um processo de moagem fina e uniforme, que garantem e preservam seu sabor forte e encorpado.É perfeito para servir em dia de casa cheia, pois seu sabor tradicional agrada a todo mundo.</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>32.98</v>
+      </c>
+      <c r="F60" t="n">
+        <v>43.9</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>2020-09-15T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3051146/VF4qT-qqCUAAAAAAAAG1sQ.jpg?v=637793369863530000</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>un</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>PILAO</t>
+        </is>
+      </c>
+      <c r="O60" t="n">
+        <v>2000070</v>
+      </c>
+      <c r="P60" t="n">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>agua-mineral-com-gas-sao-lourenco-pet-1-26-l-140805</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Água Mineral Com Gás São Lourenço Pet 1,26 L</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>140805</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Água Mineral Com Gás São Lourenço Pet 1,26 L</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="F61" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>2020-09-25T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3076277/VF4qT-qqCUAAAAAAAAHMBQ.jpg?v=637877821166370000</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>un</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>3915</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>3929</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>SAO LOURENCO</t>
+        </is>
+      </c>
+      <c r="O61" t="n">
+        <v>2000145</v>
+      </c>
+      <c r="P61" t="n">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>ovos-vermelhos-mantiqueira-happy-eggs-com-10-unidades-5106753</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Ovos Vermelhos Mantiqueira Happy Eggs com 10 Unidades</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>5106753</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Produzidos por galinhas criadas livres de gaiolas. Garantia de Bem-Estar Animal. Ovos Vermelhos Tipo Grande Categoria A. Embalagem com 10 unidades.</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="F62" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>2021-01-11T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4222023/VF4qT-qqCUAAAAAAAAStHA.jpg?v=638894405636230000</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>un</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>18105</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>17997</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>HAPPY EGGS</t>
+        </is>
+      </c>
+      <c r="O62" t="n">
+        <v>2003319</v>
+      </c>
+      <c r="P62" t="n">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>couve-flor-unidade-189111</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Couve Flor Unidade</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>189111</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>A couveflor é uma hortaliça rica em cálcio e fósforo e fonte de ácido fólico e vitamina C . Como Conservar:Na geladeira pode ser conservada por 3 a 5 dias, dentro de saco plástico perfurado. Antes de guardar, remova as partes escuras e folhas, mas não lave a cabeça.Como Consumir:Pode ser consumida assada, frita ou cozinhe em água e sal. [Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>8.789999999999999</v>
+      </c>
+      <c r="F63" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>2020-09-28T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3041615/VF4qT-qqCUAAAAAAAAGF4Q.jpg?v=637792579893500000</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>un</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>7446</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>7465</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>Zona Sul</t>
+        </is>
+      </c>
+      <c r="O63" t="n">
+        <v>2000015</v>
+      </c>
+      <c r="P63" t="n">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>pao-de-forma-plus-vita-tradicional-500-g-252921</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Pão de Forma Tradicional Plusvita 480g</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>252921</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Versátil, prático e para qualquer momento, trazendo a energia necessária para o seu dia. Perfeito para sanduíches, torradas, receitas para o café da manhã, café da tarde, almoço e jantar</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>9.98</v>
+      </c>
+      <c r="F64" t="n">
+        <v>9.98</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>2020-10-05T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3663691/VF4qT-qqCUAAAAAAAAb-gA.jpg?v=638592874910030000</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>un</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>9715</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>9727</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>PLUS VITA</t>
+        </is>
+      </c>
+      <c r="O64" t="n">
+        <v>2000316</v>
+      </c>
+      <c r="P64" t="n">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
           <t>manga-palmer-unidade-5130760</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B65" t="inlineStr">
         <is>
           <t>Manga Palmer Unidade</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C65" t="inlineStr">
         <is>
           <t>5130760</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="D65" t="inlineStr">
         <is>
           <t>Manga Palmer Unidade</t>
         </is>
       </c>
-      <c r="E49" t="n">
+      <c r="E65" t="n">
         <v>5.39</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F65" t="n">
         <v>5.39</v>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>2023-02-16T00:00:00Z</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>https://zonasul.vtexassets.com/arquivos/ids/3153453/VF4qT-qqCUAAAAAAAAUnKA.jpg?v=638319847497670000</t>
         </is>
       </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>un</t>
-        </is>
-      </c>
-      <c r="K49" t="n">
-        <v>1</v>
-      </c>
-      <c r="L49" t="inlineStr">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>un</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr">
         <is>
           <t>31977</t>
         </is>
       </c>
-      <c r="M49" t="inlineStr">
+      <c r="M65" t="inlineStr">
         <is>
           <t>31902</t>
         </is>
       </c>
-      <c r="N49" t="inlineStr">
+      <c r="N65" t="inlineStr">
         <is>
           <t>Zona Sul</t>
         </is>
       </c>
-      <c r="O49" t="n">
+      <c r="O65" t="n">
         <v>2000015</v>
       </c>
-      <c r="P49" t="n">
+      <c r="P65" t="n">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>file-de-peito-de-frango-sadia-bandeja-1kg-290564</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Filé de Peito de Frango Sadia Bandeja 1kg</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>290564</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Peito De Frango Em Filés Sadia Bandeja 1kg</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>24.99</v>
+      </c>
+      <c r="F66" t="n">
+        <v>26.99</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>2020-09-29T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3538840/VF4qT-qqCUAAAAAAAAa5gg.jpg?v=638550537679130000</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>un</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>SADIA</t>
+        </is>
+      </c>
+      <c r="O66" t="n">
+        <v>2000057</v>
+      </c>
+      <c r="P66" t="n">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>limao-cariorta-1kg-98981</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Limão Cariorta 1Kg</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>98981</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Cariorta selecionados de coração.</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="F67" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>482</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>2020-05-20T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3084385/VF4qT-qqCUAAAAAAAAOgIg.jpg?v=638000868147970000</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>24698</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>24622</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>CARIORTA</t>
+        </is>
+      </c>
+      <c r="O67" t="n">
+        <v>2001012</v>
+      </c>
+      <c r="P67" t="n">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>farinha-de-trigo-dona-benta-1kg-105287</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Farinha De Trigo Dona Benta 1kg</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>105287</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Farinha De Trigo Dona Benta 1kg</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="F68" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>2020-07-06T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3079291/VF4qT-qqCUAAAAAAAANuog.jpg?v=637897755804270000</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>un</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>DONA BENTA</t>
+        </is>
+      </c>
+      <c r="O68" t="n">
+        <v>2000701</v>
+      </c>
+      <c r="P68" t="n">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>morango-250g-289612</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Morango 250g</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>289612</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Embalagem com 250g "O morango é rico em vitamina C e, por isso, o consumo da fruta evita a fragilidade dos ossos e a má formação dos dentes. Ele também dá resistência aos tecidos, age contra infecções ajudando na cicatrização. O morango também possui, em menor quantidade, vitamina B5, conhecida como niacina. Ela tem a função de evitar problemas de pele, do aparelho digestivo e do sistema nervoso. Na fruta, também é encontrado ferro, que faz parte da formação do sangue."</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="F69" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>2020-09-26T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3226559/VF4qT-qqCUAAAAAAAAHKNA.jpg?v=638352676547800000</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>un</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>5152</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>5168</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>Zona Sul</t>
+        </is>
+      </c>
+      <c r="O69" t="n">
+        <v>2000015</v>
+      </c>
+      <c r="P69" t="n">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>ovos-vermelhos-caipira-happy-eggs-com-20-unidades-370550</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Ovos Vermelhos Caipira Happy Eggs Com 20 Unidades</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>370550</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="n">
+        <v>24.99</v>
+      </c>
+      <c r="F70" t="n">
+        <v>24.99</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>2020-09-27T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4343192/VF4qT-qqCUAAAAAAAAn9QA.jpg?v=638956617627730000</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>un</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>6939</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>6957</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>HAPPY EGGS</t>
+        </is>
+      </c>
+      <c r="O70" t="n">
+        <v>2003319</v>
+      </c>
+      <c r="P70" t="n">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>cebola-roxa-400g-38393</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Cebola Roxa 400g</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>38393</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Embalagem com 2 a 3 unidades. Melhor para comer cru; Use : no guacamole, em conserva, na salada, no sanduíche.</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>7.69</v>
+      </c>
+      <c r="F71" t="n">
+        <v>7.69</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>2020-09-26T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3081506/VF4qT-qqCUAAAAAAAAOBng.jpg?v=637947101712670000</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>5543</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>5559</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>Zona Sul</t>
+        </is>
+      </c>
+      <c r="O71" t="n">
+        <v>2000015</v>
+      </c>
+      <c r="P71" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>abobrinha-italiana-unidade-423513</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Abobrinha Italiana Unidade</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>423513</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Abobrinha Italiana Unidade</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="F72" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>2020-12-07T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3095398/VF4qT-qqCUAAAAAAAASlGA.jpg?v=638211351178300000</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>un</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>16065</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>15956</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>Zona Sul</t>
+        </is>
+      </c>
+      <c r="O72" t="n">
+        <v>2000015</v>
+      </c>
+      <c r="P72" t="n">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>pao-frances-panetto-60g-com-4-unidades-96318</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Pão Francês Panetto  60g Com 4 unidades</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>96318</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="n">
+        <v>23.98</v>
+      </c>
+      <c r="F73" t="n">
+        <v>23.98</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>2024-01-31T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3307700/VF4qT-qqCUAAAAAAAAWnXQ.jpg?v=638932898013670000</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>35477</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>35404</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>PANETTO</t>
+        </is>
+      </c>
+      <c r="O73" t="n">
+        <v>2000307</v>
+      </c>
+      <c r="P73" t="n">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>detergente-para-loucas-odd-clear-500ml-982911</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Detergente Para Louças Odd Clear 500ml</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>982911</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>ODD voltou!Alto rendimento , controle de odor.</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F74" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>2020-10-06T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3056732/VF4qT-qqCUAAAAAAAAHzRQ.jpg?v=637793635376800000</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>un</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>11872</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>11898</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>LIMPPANO</t>
+        </is>
+      </c>
+      <c r="O74" t="n">
+        <v>2001341</v>
+      </c>
+      <c r="P74" t="n">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>abobora-japonesa-pedaco-500g-38229</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Abóbora Japonesa Pedaço 500g</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>38229</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Embalagem com 1 pedaço.</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="F75" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>2020-09-26T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3096862/VF4qT-qqCUAAAAAAAAS9Tw.jpg?v=638235593168230000</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>5593</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>5609</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>Zona Sul</t>
+        </is>
+      </c>
+      <c r="O75" t="n">
+        <v>2000015</v>
+      </c>
+      <c r="P75" t="n">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>detergente-para-loucas-biodegradavel-limpol-neutro-500-ml-100510</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Detergente Para Louças Biodegradável Limpol Neutro 500ml</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>100510</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>O Lava-Louças Limpol é eficiente no poder da limpeza, remoção da gordura e sujeiras e no combate aos maus odores indesejados da cozinha. Sua fórmula é dermatologicamente testada e contém glicerina, tornando-a mais suave para as mãos.</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="F76" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>2020-10-06T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3269221/12054_1.jpg?v=638386029717470000</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>un</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>12054</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>12081</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>LIMPOL</t>
+        </is>
+      </c>
+      <c r="O76" t="n">
+        <v>2001413</v>
+      </c>
+      <c r="P76" t="n">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>oleo-de-soja-liza-900ml-127310</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Óleo De Soja Liza 900ml</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>127310</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Óleo De Soja Liza 900ml</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>8.59</v>
+      </c>
+      <c r="F77" t="n">
+        <v>8.59</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>576</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>2020-09-15T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3075849/VF4qT-qqCUAAAAAAAAIxqw.jpg?v=637877802666600000</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>un</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>LIZA</t>
+        </is>
+      </c>
+      <c r="O77" t="n">
+        <v>2000067</v>
+      </c>
+      <c r="P77" t="n">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>mamao-papaia-cariorta-12kg-99007</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Mamão Papaia Cariorta 1,2kg</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>99007</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Cariorta selecionados de coração.</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>15.99</v>
+      </c>
+      <c r="F78" t="n">
+        <v>15.99</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>482</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>2020-05-20T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3082688/VF4qT-qqCUAAAAAAAAOOog.jpg?v=637980006057500000</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>24413</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>24337</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>CARIORTA</t>
+        </is>
+      </c>
+      <c r="O78" t="n">
+        <v>2001012</v>
+      </c>
+      <c r="P78" t="n">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>la-de-aco-bombril-com-6-unidades-45g-1180320</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Lã de Aço Bombril com 6 Unidades 45g</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>1180320</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Uso: Ideal para limpeza de panelas, utensílios de cozinha, superfícies metálicas e outras áreas que necessitam de uma limpeza mais intensa.Remove sujeiras difíceis, incluindo resíduos de alimentos queimados e ferrugem.</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="F79" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>2025-07-17T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4216409/VF4qT-qqCUAAAAAAAAko5g.jpg?v=638889221726300000</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>un</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>41130</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>41057</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>BOMBRIL</t>
+        </is>
+      </c>
+      <c r="O79" t="n">
+        <v>2001389</v>
+      </c>
+      <c r="P79" t="n">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>espinafre-unidade-200948</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Espinafre Unidade</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>200948</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>O espinafre é uma hortaliça saborosa, rica em ferro e também é fonte de vitamina A e B2, além de fornecer cálcio, fósforo, potássio e magnésio, é indicado também para pessoas com anemia e desnutrição.Como conservar :Sob refrigeração, pode ser mantido por no máximo 5 dias. Antes de colocálo na geladeira, lave as folhas, escorra o excesso de água e coloqueo em sacos de plástico perfurados ou em vasilha de plástico.Como consumir :O espinafre também pode ser usado em saladas, sopas,suflês omeletes. É ótimo como recheio ou acompanhamento de massas como macarrão, quiche, tortas, pastéis e assados. [Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="F80" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>2020-09-28T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3076729/VF4qT-qqCUAAAAAAAAKBdQ.jpg?v=637877840409270000</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>un</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>7464</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>7483</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>Zona Sul</t>
+        </is>
+      </c>
+      <c r="O80" t="n">
+        <v>2000015</v>
+      </c>
+      <c r="P80" t="n">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>refrigerante-coca-cola-sem-acucar-pet-600-ml-429392</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Refrigerante Coca Cola Sem Açúcar Pet 600ml</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>429392</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>A Coca-Cola Sem Açúcar é um refrigerante que não contém calorias! Com certeza você já se perguntou: “Então, de onde vem aquele gostinho doce? ” A Coca-Cola Sem Açúcar é produzida especialmente com adoçantes para manter o delicioso sabor de Coca-Cola porém com 0% Açucar. Perfeita para matar sua sede a qualquer hora do dia!</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="F81" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>2020-10-01T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4313186/VF4qT-qqCUAAAAAAAAn3Vg.jpg?v=638939337183900000</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>un</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>8816</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>8828</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>COCA COLA</t>
+        </is>
+      </c>
+      <c r="O81" t="n">
+        <v>2000027</v>
+      </c>
+      <c r="P81" t="n">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>sal-refinado-iodado-ita-1kg-117293</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Sal Refinado Iodado Ita 1kg</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>117293</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Sal Refinado Iodado Ita 1kg</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="F82" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>2020-09-15T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3076051/VF4qT-qqCUAAAAAAAAKZcQ.jpg?v=637877811480070000</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>un</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
+      </c>
+      <c r="O82" t="n">
+        <v>2000066</v>
+      </c>
+      <c r="P82" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>coentro-unidade-200930</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Coentro Unidade</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>200930</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Coentro Unidade</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="F83" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>2020-09-28T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3076728/VF4qT-qqCUAAAAAAAAGF4g.jpg?v=637877840364830000</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>un</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>7408</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>7427</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>Zona Sul</t>
+        </is>
+      </c>
+      <c r="O83" t="n">
+        <v>2000015</v>
+      </c>
+      <c r="P83" t="n">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>papel-higienico-folha-tripla-neve-supreme-dermacare-pacote-leve-16-pague-15-unidades-981168</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Papel Higiênico Folha Tripla Neve Supreme Dermacare Pacote Leve 16 Pague 15 Unidades</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>981168</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Papel higiênico neutro folha tripla de alta qualidade. Neve quer ajudar as pessoas a cuidarem de si, por isso desenvolveu um produto que proporciona maciez insuperável com mais absorção e resistência.</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>32.19</v>
+      </c>
+      <c r="F84" t="n">
+        <v>32.19</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>2020-09-22T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4430737/VF4qT-qqCUAAAAAAAAoMMw.jpg?v=639014499358300000</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>un</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>1262</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>1269</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>NEVE</t>
+        </is>
+      </c>
+      <c r="O84" t="n">
+        <v>2000291</v>
+      </c>
+      <c r="P84" t="n">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>pessego-nacional-500g-12408</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Pêssego Nacional 600g</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>12408</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Pêssego Nacional 500g</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="F85" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>2020-09-26T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3092387/VF4qT-qqCUAAAAAAAAFvOA.jpg?v=638151904193130000</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>5122</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>5138</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>Zona Sul</t>
+        </is>
+      </c>
+      <c r="O85" t="n">
+        <v>2000015</v>
+      </c>
+      <c r="P85" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>creme-de-leite-piracanjuba-tetra-pak-200g-818640</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Creme de Leite Piracanjuba Tetra Pak 200g</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>818640</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>O sabor é incomparável e com textura aveludada. O resultado não poderia ser melhor: receitas perfeitas e deliciosas. Você pode ter dúvida quanto à receita, mas o Creme de Leite é Piracanjuba. Modo de conservação: Mantenha em local seco e arejado. Antes do uso, não necessita de refrigeração. Após aberto, manter em geladeira (1°C - 10°C) e consumir em até 2 dias. Ingredientes: Creme de leite padronizado a 17% de gordura, leite em pó desnatado, estabilizantes celulose microcristalina e citrato de sódio e espessantes carboximetilcelulose sódica, goma xantana e carragena. Alergênicos: CONTÉM LEITE E DERIVADOS. CONTÉM LACTOSE. NÃO CONTÉM GLÚTEN. Porção de 15 g (1 colher e 1/2 de sopa) = 26 kcal</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="F86" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>2020-11-26T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3296613/VF4qT-qqCUAAAAAAAAWc6A.jpg?v=638413165673100000</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>un</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>15104</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>14992</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>PIRACANJUBA</t>
+        </is>
+      </c>
+      <c r="O86" t="n">
+        <v>2002038</v>
+      </c>
+      <c r="P86" t="n">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>couve-manteiga-unidade-201235</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Couve Manteiga Unidade</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>201235</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>A couve é uma hortaliça muito rica em nutriente,cálcio, ferro e vitaminas A,C, K e B5.Como conservar:Em geladeira, inteira ou picada deve ser mantida em saco plástico fechado ou em vasilha de plástico tampada.Como consumir:Pode ser consumida crua, em saladas e sucos, refogada ou como ingrediente de sopas, farofas e cozidos.[ Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="F87" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>2020-09-28T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3083631/VF4qT-qqCUAAAAAAAAOZOA.jpg?v=637994955185970000</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>un</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>7445</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>7464</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>Zona Sul</t>
+        </is>
+      </c>
+      <c r="O87" t="n">
+        <v>2000015</v>
+      </c>
+      <c r="P87" t="n">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>biscoito-cream-cracker-piraque-pacote-184g-1105795</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Biscoito Cream Cracker Piraquê Pacote 184g</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>1105795</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Biscoito Salgado Cream Cracker Piraquê Pacote 184g</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="F88" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>2023-07-26T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3099416/VF4qT-qqCUAAAAAAAATd0w.jpg?v=638264204522930000</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>un</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>33955</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>33882</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>PIRAQUE</t>
+        </is>
+      </c>
+      <c r="O88" t="n">
+        <v>2000017</v>
+      </c>
+      <c r="P88" t="n">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>saponaceo-cremoso-cif-limpeza-milagrosa-450ml-781266</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>CIF Cremoso Limpeza Milagrosa remove 100% da sujeira 450 ml</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>781266</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>• Cif Cremoso Original é o produto de limpeza milagrosa que limpa fácil e dá brilho em mais de 100 superfícies*, removendo 100% da sujeira difícil, sem esforço • O Cif Cremoso Original possui um perfume suave, é mais concentrado e rende 7 garrafas do limpador comum • Fórmula com tecnologia poderosa que limpa sem riscar, removendo toda a sujeira desde a mais pesada até a limpeza de casa do dia a dia, deixando um brilho imbatível • Com o Cif, a limpeza nunca foi tão fácil e versátil. Cif Cremoso possui três variantes: Original, Limão e Laranja • Cif Cremoso Original é o produto de limpeza milagrosa para todo tipo de objeto como: eletrodomésticos, pias, couro sintético, borracha, plástico, porcelana e serve até como limpador de pisos • Cif promove uma limpeza milagrosa completa, com produtos versáteis que atendem a todas as suas necessidades. Cif. Sinta a limpeza acontecer! Cif Cremoso Original 450 ml é o produto de limpeza milagroso que limpa fácil e dá brilho em mais de 100 superfícies*, removendo 100% da sujeira difícil, sem esforço. O higienizador de casa cremoso é mais concentrado e rende 7 garrafas do limpador comum**. Sua fórmula, poderosa, limpa sem riscar***, removendo toda a sujeira desde a mais pesada até a limpeza de casa do dia a dia, deixando um brilho imbatível. Limpe toda sua casa usando o Cif Cremoso Original, que limpa todo tipo de objeto, como eletrodomésticos, potes plásticos, pias, brinquedos das crianças, persianas, pisos e até ajuda a deixar aquele cabo de carregador de celular como novo! Com o Limpador Cif, a limpeza nunca foi tão fácil e versátil. A linha do milagroso Cif Cremoso possui outras variedades de perfumes, como Laranja e Limão, que se adaptam ao seu estilo. Conheça a linha completa de produtos de limpeza Cif que não podem ficar de fora da sua lista de material de limpeza. Use também: Cif Cozinha, Cif Derrete Gordura, Cif Banheiro, Cif Tira Limo Com Cloro, Cif Vidros, Cif Cremoso e muito mais. Cif: Sinta a limpeza acontecer! Modo de usar: 1. Agite antes de usar. 2. Aplique uma pequena quantidade do produto sobre uma esponja ou pano úmido. 3. Esfregue a superfície suavemente até eliminar a sujeira. 4. Passe um pano úmido para finalizar. 5. Feche a embalagem após o uso. *Consulte lista das superfícies em www.ciflimpadores.com.br **Manchas de sabão e gordura queimada, comparado com limpadores comuns do mercado. Consulte a diferença de preços entre produtos. ***Não usar esponja ácida, como palha de aço, para a limpeza de vidros. A imagem do produto é meramente ilustrativa e o rótulo pode variar. Será enviada a embalagem disponível no momento da compra.</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>14.99</v>
+      </c>
+      <c r="F89" t="n">
+        <v>18.99</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>2020-10-06T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3640099/VF4qT-qqCUAAAAAAAAbyew.jpg?v=638585098972800000</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>un</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>11602</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>11625</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="O89" t="n">
+        <v>2000541</v>
+      </c>
+      <c r="P89" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>pao-de-queijo-forno-de-minas-tradicional--400-g-456110</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Pão De Queijo Forno De Minas Tradicional 400g</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>456110</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Pão De Queijo Forno De Minas Tradicional 400g</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>18.99</v>
+      </c>
+      <c r="F90" t="n">
+        <v>20.99</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>2020-10-20T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3041185/VF4qT-qqCUAAAAAAAAHIag.jpg?v=637792557833470000</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>un</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>13544</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>13564</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>FORNO MINAS</t>
+        </is>
+      </c>
+      <c r="O90" t="n">
+        <v>2001500</v>
+      </c>
+      <c r="P90" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>alho-roxo-cariorta-4-a-5-unidades-250g-99279</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Alho Roxo Cariorta 4 a 5 unidades 250g</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>99279</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Cariorta selecionados de coração.</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>59.99</v>
+      </c>
+      <c r="F91" t="n">
+        <v>59.99</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>480</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>2020-05-27T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3082698/VF4qT-qqCUAAAAAAAAOOtg.jpg?v=637980006345970000</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>24684</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>24608</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>CARIORTA</t>
+        </is>
+      </c>
+      <c r="O91" t="n">
+        <v>2001012</v>
+      </c>
+      <c r="P91" t="n">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>cafe-torrado-e-moido-melitta-a-vacuo-500g-103845</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Café Torrado e Moído Melitta A Vácuo 500g</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>103845</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Feitos com uma cuidadosa seleção dos grãos que passam por um processo de torra a ar quente que resultam em cafés marcantes e fortes.</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>32.98</v>
+      </c>
+      <c r="F92" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>2020-07-13T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3038677/VF4qT-qqCUAAAAAAAAGwhg.jpg?v=637792444870400000</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>un</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>MELITTA</t>
+        </is>
+      </c>
+      <c r="O92" t="n">
+        <v>2001329</v>
+      </c>
+      <c r="P92" t="n">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>abobrinha-italiana-cariorta-1kg-98663</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Abobrinha Italiana Cariorta 1Kg</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>98663</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="F93" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>483</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>2020-12-16T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3082667/VF4qT-qqCUAAAAAAAAOOdQ.jpg?v=637979987909700000</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>16567</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>16458</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>CARIORTA</t>
+        </is>
+      </c>
+      <c r="O93" t="n">
+        <v>2001012</v>
+      </c>
+      <c r="P93" t="n">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>file-mignon-resfriado-sem-cordao-2-2kg-44822</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Filé Mignon Resfriado Sem Cordão 2,2kg</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>44822</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="n">
+        <v>79.98999999999999</v>
+      </c>
+      <c r="F94" t="n">
+        <v>99.98999999999999</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>2020-09-28T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4340142/VF4qT-qqCUAAAAAAAAJRsQ.jpg?v=638954025546430000</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>7539</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>7558</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>Zona Sul</t>
+        </is>
+      </c>
+      <c r="O94" t="n">
+        <v>2000015</v>
+      </c>
+      <c r="P94" t="n">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>pao-frances-panetto-60g-com-8-unidades-96504</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Pão Francês Panetto 60g Com 8 Unidades</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>96504</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Pão Francês Panetto é feito com farinha de qualidade superior, sua massa é cuidadosamente elaborada para garantir uma textura crocante por fora e um interior macio e arejado. Cada mordida revela a combinação perfeita entre crocância e suavidade, tornando-o ideal para acompanhar seu café da manhã e lanche da tarde.</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>23.98</v>
+      </c>
+      <c r="F95" t="n">
+        <v>23.98</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>2024-02-01T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3310764/VF4qT-qqCUAAAAAAAAWu8Q.jpg?v=638932897909230000</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>35484</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>35411</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>PANETTO</t>
+        </is>
+      </c>
+      <c r="O95" t="n">
+        <v>2000307</v>
+      </c>
+      <c r="P95" t="n">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>rucula-unidade-201006</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Rúcula Unidade</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>201006</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>A rúcula é uma hortaliça rica em sais minerais e vitaminas A e C, tem o sabor picante e cheiro agradável e acentuado. Como Conservar:A hortaliça pode ser mantida no máximo por um dia, desde que colocando em local fresco, com a parte de baixo em uma vasilha com água .Em Geladeira o produto deve ser condicionado em saco de plástico ou vasilha tampada.Como Consumir : A rúcula é tradicionalmente consumida crua em saladas, temperada com azeite, sal e limão. Também pode ser consumida como ingredientes de torta,quiche, lasanha, sanduíches e bolinhos. [ Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="F96" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>2020-09-28T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3040890/VF4qT-qqCUAAAAAAAAHLpQ.jpg?v=637792545082200000</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>un</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>7467</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>7486</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>Zona Sul</t>
+        </is>
+      </c>
+      <c r="O96" t="n">
+        <v>2000015</v>
+      </c>
+      <c r="P96" t="n">
         <v>99999</v>
       </c>
     </row>

--- a/zonasul.xlsx
+++ b/zonasul.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P49"/>
+  <dimension ref="A1:P50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3951,6 +3951,78 @@
         <v>99999</v>
       </c>
     </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>abacaxi-unidade-221</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Abacaxi Unidade</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Peso Aproximado 1,61,8Kg / Unidade.O Abacaxi é rico em Vitaminas A, B5, B6, C, BetaCaroteno, Tiamina, Antioxidantes e Fibras, auxiliando na saciedade e regulação do peso. É uma Importante fonte de energia póstreino. Auxilia nos processos antiinflamatórios por conter Bromelina, enzima encontrada principalmente no talo da fruta. Como preparar: no seu estado natural cortado, em saladas, assado, grelhado, sucos, geleias, sorvetes e chás.</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="F50" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>2020-09-26T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3041923/VF4qT-qqCUAAAAAAAAFtXw.jpg?v=637792593143530000</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>un</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>4959</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>4975</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>Zona Sul</t>
+        </is>
+      </c>
+      <c r="O50" t="n">
+        <v>2000015</v>
+      </c>
+      <c r="P50" t="n">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/zonasul.xlsx
+++ b/zonasul.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P50"/>
+  <dimension ref="A1:P49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,43 +518,43 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>rucula-unidade-201006</t>
+          <t>leite-condensado-moca-lata-395g-1136321</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rúcula Unidade</t>
+          <t>Leite Condensado Moça Lata 395g</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>201006</t>
+          <t>1136321</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A rúcula é uma hortaliça rica em sais minerais e vitaminas A e C, tem o sabor picante e cheiro agradável e acentuado. Como Conservar:A hortaliça pode ser mantida no máximo por um dia, desde que colocando em local fresco, com a parte de baixo em uma vasilha com água .Em Geladeira o produto deve ser condicionado em saco de plástico ou vasilha tampada.Como Consumir : A rúcula é tradicionalmente consumida crua em saladas, temperada com azeite, sal e limão. Também pode ser consumida como ingredientes de torta,quiche, lasanha, sanduíches e bolinhos. [ Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
+          <t>Moça® faz todas as receitas darem certo desde 1921, com seu sabor único e original, tem consistência perfeita, é sem comparação! É leite condensado obtido a partir de leite fresco, puro e integral. É um clássico no preparo de sobremesas, também é uma delícia na colher, na salada de frutas e o que mais você imaginar.</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3.79</v>
+        <v>7.98</v>
       </c>
       <c r="F2" t="n">
-        <v>3.79</v>
+        <v>9.99</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>67</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2020-09-28T00:00:00Z</t>
+          <t>2024-05-13T00:00:00Z</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3040890/VF4qT-qqCUAAAAAAAAHLpQ.jpg?v=637792545082200000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3561021/VF4qT-qqCUAAAAAAAAbPyA.jpg?v=638987191686300000</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -567,21 +567,21 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>7467</t>
+          <t>37022</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>7486</t>
+          <t>36949</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>NESTLE</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>2000015</v>
+        <v>2000043</v>
       </c>
       <c r="P2" t="n">
         <v>99999</v>
@@ -590,43 +590,43 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>leite-condensado-moca-lata-395g-1136321</t>
+          <t>rucula-unidade-201006</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Leite Condensado Moça Lata 395g</t>
+          <t>Rúcula Unidade</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1136321</t>
+          <t>201006</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Moça® faz todas as receitas darem certo desde 1921, com seu sabor único e original, tem consistência perfeita, é sem comparação! É leite condensado obtido a partir de leite fresco, puro e integral. É um clássico no preparo de sobremesas, também é uma delícia na colher, na salada de frutas e o que mais você imaginar.</t>
+          <t>A rúcula é uma hortaliça rica em sais minerais e vitaminas A e C, tem o sabor picante e cheiro agradável e acentuado. Como Conservar:A hortaliça pode ser mantida no máximo por um dia, desde que colocando em local fresco, com a parte de baixo em uma vasilha com água .Em Geladeira o produto deve ser condicionado em saco de plástico ou vasilha tampada.Como Consumir : A rúcula é tradicionalmente consumida crua em saladas, temperada com azeite, sal e limão. Também pode ser consumida como ingredientes de torta,quiche, lasanha, sanduíches e bolinhos. [ Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>7.98</v>
+        <v>3.79</v>
       </c>
       <c r="F3" t="n">
-        <v>9.99</v>
+        <v>3.79</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2024-05-13T00:00:00Z</t>
+          <t>2020-09-28T00:00:00Z</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3561021/VF4qT-qqCUAAAAAAAAbPyA.jpg?v=638987191686300000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3040890/VF4qT-qqCUAAAAAAAAHLpQ.jpg?v=637792545082200000</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -639,21 +639,21 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>37022</t>
+          <t>7467</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>36949</t>
+          <t>7486</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>NESTLE</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O3" t="n">
-        <v>2000043</v>
+        <v>2000015</v>
       </c>
       <c r="P3" t="n">
         <v>99999</v>
@@ -806,43 +806,43 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>alcool-montenegro-46-1-l-780570</t>
+          <t>papel-higienico-neve-folha-dupla-toque-de-seda-com-12-unidades-1153285</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Álcool Montenegro 46% 1 L</t>
+          <t>Papel Higiênico Neve Folha Dupla Toque de Seda com 12 Unidades</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>780570</t>
+          <t>1153285</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Álcool Montenegro 46% 1 L</t>
+          <t>O Papel Higiênico Folha Dupla Neve é a opção ideal para quem busca conforto e praticidade no dia a dia. Com folhas macias que proporcionam uma limpeza suave e eficiente, ele traz muito mais conforto e bem-estar. Além disso, seu formato em rolos com 20 metros de comprimento garante longa duração, evitando o desperdício. Cada pacote contém 12 rolos, o que permite estoque para uso contínuo. Produzido com matéria-prima de alta qualidade, o Papel Higiênico Folha Dupla Neve dissolve facilmente na água, o que evita entupimentos e garante higiene. É uma ótima pedida para uso doméstico ou comercial.</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>8.789999999999999</v>
+        <v>19.89</v>
       </c>
       <c r="F6" t="n">
-        <v>8.789999999999999</v>
+        <v>19.89</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>14</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2020-10-06T10:47:00Z</t>
+          <t>2024-10-16T00:00:00Z</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3051579/VF4qT-qqCUAAAAAAAAG3pQ.jpg?v=637793390624870000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3798203/VF4qT-qqCUAAAAAAAAdSuw.jpg?v=638649029489970000</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -855,21 +855,21 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>11598</t>
+          <t>37914</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>11621</t>
+          <t>37841</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>MONTENEGRO</t>
+          <t>NEVE</t>
         </is>
       </c>
       <c r="O6" t="n">
-        <v>2000527</v>
+        <v>2000291</v>
       </c>
       <c r="P6" t="n">
         <v>99999</v>
@@ -878,43 +878,43 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>papel-higienico-neve-folha-dupla-toque-de-seda-com-12-unidades-1153285</t>
+          <t>alcool-montenegro-46-1-l-780570</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Papel Higiênico Neve Folha Dupla Toque de Seda com 12 Unidades</t>
+          <t>Álcool Montenegro 46% 1 L</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1153285</t>
+          <t>780570</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>O Papel Higiênico Folha Dupla Neve é a opção ideal para quem busca conforto e praticidade no dia a dia. Com folhas macias que proporcionam uma limpeza suave e eficiente, ele traz muito mais conforto e bem-estar. Além disso, seu formato em rolos com 20 metros de comprimento garante longa duração, evitando o desperdício. Cada pacote contém 12 rolos, o que permite estoque para uso contínuo. Produzido com matéria-prima de alta qualidade, o Papel Higiênico Folha Dupla Neve dissolve facilmente na água, o que evita entupimentos e garante higiene. É uma ótima pedida para uso doméstico ou comercial.</t>
+          <t>Álcool Montenegro 46% 1 L</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>19.89</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>19.89</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>74</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2024-10-16T00:00:00Z</t>
+          <t>2020-10-06T10:47:00Z</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3798203/VF4qT-qqCUAAAAAAAAdSuw.jpg?v=638649029489970000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3051579/VF4qT-qqCUAAAAAAAAG3pQ.jpg?v=637793390624870000</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -927,21 +927,21 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>37914</t>
+          <t>11598</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>37841</t>
+          <t>11621</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>NEVE</t>
+          <t>MONTENEGRO</t>
         </is>
       </c>
       <c r="O7" t="n">
-        <v>2000291</v>
+        <v>2000527</v>
       </c>
       <c r="P7" t="n">
         <v>99999</v>
@@ -1094,43 +1094,39 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>tomate-italiano-unidade-495212</t>
+          <t>creme-de-leite-nestle-10--gratis-200g-1165151</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Tomate Italiano Unidade</t>
+          <t>Creme de Leite Nestlé 10% Grátis 200g</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>495212</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Tomate Italiano Unidade</t>
-        </is>
-      </c>
+          <t>1165151</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>1.53</v>
+        <v>4.29</v>
       </c>
       <c r="F10" t="n">
-        <v>1.53</v>
+        <v>5.99</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>71</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2020-09-27T00:00:00Z</t>
+          <t>2025-02-20T00:00:00Z</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3094266/VF4qT-qqCUAAAAAAAASLmg.jpg?v=638191532599970000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4395976/VF4qT-qqCUAAAAAAAAoEeQ.jpg?v=638984266226730000</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1143,21 +1139,21 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>6965</t>
+          <t>40151</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>6983</t>
+          <t>40078</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>NESTLE</t>
         </is>
       </c>
       <c r="O10" t="n">
-        <v>2000015</v>
+        <v>2000043</v>
       </c>
       <c r="P10" t="n">
         <v>99999</v>
@@ -1166,39 +1162,43 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>creme-de-leite-nestle-10--gratis-200g-1165151</t>
+          <t>tomate-italiano-unidade-495212</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Creme de Leite Nestlé 10% Grátis 200g</t>
+          <t>Tomate Italiano Unidade</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1165151</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
+          <t>495212</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Tomate Italiano Unidade</t>
+        </is>
+      </c>
       <c r="E11" t="n">
-        <v>4.29</v>
+        <v>1.53</v>
       </c>
       <c r="F11" t="n">
-        <v>5.99</v>
+        <v>1.53</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>53</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-02-20T00:00:00Z</t>
+          <t>2020-09-27T00:00:00Z</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4395976/VF4qT-qqCUAAAAAAAAoEeQ.jpg?v=638984266226730000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3094266/VF4qT-qqCUAAAAAAAASLmg.jpg?v=638191532599970000</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1211,21 +1211,21 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>40151</t>
+          <t>6965</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>40078</t>
+          <t>6983</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>NESTLE</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O11" t="n">
-        <v>2000043</v>
+        <v>2000015</v>
       </c>
       <c r="P11" t="n">
         <v>99999</v>
@@ -1234,43 +1234,43 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>guardanapo-folha-dupla-scott-grand-hotel-238cm×218cm-50-unidades-129879</t>
+          <t>cheiro-verde-unidade-201049</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Guardanapo Folha Dupla Scott Grand Hotel 23,8cm×21,8cm 50 Unidades</t>
+          <t>Cheiro Verde Unidade</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>129879</t>
+          <t>201049</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Guardanapo Folha Dupla Scott Grand Hotel 23,8cm×21,8cm 50 Unidades</t>
+          <t>O cheiro verde é a combinação da cebolinha e salsinha .Como conservar:Em geladeira por até 5 dias em saco ou vasilha de plástico.Como consumir:Podem ser adicionadas cruas, em saladas e recheios de sanduíches e como ingredientes em marinadas.</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6.19</v>
+        <v>3.79</v>
       </c>
       <c r="F12" t="n">
-        <v>6.19</v>
+        <v>3.79</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2020-10-05T00:00:00Z</t>
+          <t>2020-09-28T00:00:00Z</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3239421/VF4qT-qqCUAAAAAAAAVSfw.jpg?v=638362188224230000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3457712/VF4qT-qqCUAAAAAAAAXvTg.jpg?v=638507335658200000</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1283,21 +1283,21 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>9426</t>
+          <t>7411</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>9438</t>
+          <t>7430</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>GRANDE HOTEL</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O12" t="n">
-        <v>2001400</v>
+        <v>2000015</v>
       </c>
       <c r="P12" t="n">
         <v>99999</v>
@@ -1306,43 +1306,43 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>cheiro-verde-unidade-201049</t>
+          <t>guardanapo-folha-dupla-scott-grand-hotel-238cm×218cm-50-unidades-129879</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Cheiro Verde Unidade</t>
+          <t>Guardanapo Folha Dupla Scott Grand Hotel 23,8cm×21,8cm 50 Unidades</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>201049</t>
+          <t>129879</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>O cheiro verde é a combinação da cebolinha e salsinha .Como conservar:Em geladeira por até 5 dias em saco ou vasilha de plástico.Como consumir:Podem ser adicionadas cruas, em saladas e recheios de sanduíches e como ingredientes em marinadas.</t>
+          <t>Guardanapo Folha Dupla Scott Grand Hotel 23,8cm×21,8cm 50 Unidades</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>3.79</v>
+        <v>6.19</v>
       </c>
       <c r="F13" t="n">
-        <v>3.79</v>
+        <v>6.19</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>111</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2020-09-28T00:00:00Z</t>
+          <t>2020-10-05T00:00:00Z</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3457712/VF4qT-qqCUAAAAAAAAXvTg.jpg?v=638507335658200000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3239421/VF4qT-qqCUAAAAAAAAVSfw.jpg?v=638362188224230000</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1355,21 +1355,21 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>7411</t>
+          <t>9426</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>7430</t>
+          <t>9438</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>GRANDE HOTEL</t>
         </is>
       </c>
       <c r="O13" t="n">
-        <v>2000015</v>
+        <v>2001400</v>
       </c>
       <c r="P13" t="n">
         <v>99999</v>
@@ -1378,43 +1378,43 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>cafe-torrado-e-moido-pilao-tradicional-500g-828025</t>
+          <t>agua-mineral-com-gas-sao-lourenco-pet-1-26-l-140805</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Café Torrado E Moído Pilão Tradicional Fresh Pack 500g</t>
+          <t>Água Mineral Com Gás São Lourenço Pet 1,26 L</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>828025</t>
+          <t>140805</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Tem um ponto de torra acentuado e um processo de moagem fina e uniforme, que garantem e preservam seu sabor forte e encorpado.É perfeito para servir em dia de casa cheia, pois seu sabor tradicional agrada a todo mundo.</t>
+          <t>Água Mineral Com Gás São Lourenço Pet 1,26 L</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>32.98</v>
+        <v>5.29</v>
       </c>
       <c r="F14" t="n">
-        <v>43.9</v>
+        <v>5.29</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>18</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2020-09-15T00:00:00Z</t>
+          <t>2020-09-25T00:00:00Z</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3051146/VF4qT-qqCUAAAAAAAAG1sQ.jpg?v=637793369863530000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3076277/VF4qT-qqCUAAAAAAAAHMBQ.jpg?v=637877821166370000</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1427,21 +1427,21 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>3915</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>3929</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>PILAO</t>
+          <t>SAO LOURENCO</t>
         </is>
       </c>
       <c r="O14" t="n">
-        <v>2000070</v>
+        <v>2000145</v>
       </c>
       <c r="P14" t="n">
         <v>99999</v>
@@ -1450,43 +1450,43 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>agua-mineral-com-gas-sao-lourenco-pet-1-26-l-140805</t>
+          <t>cafe-torrado-e-moido-pilao-tradicional-500g-828025</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Água Mineral Com Gás São Lourenço Pet 1,26 L</t>
+          <t>Café Torrado E Moído Pilão Tradicional Fresh Pack 500g</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>140805</t>
+          <t>828025</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Água Mineral Com Gás São Lourenço Pet 1,26 L</t>
+          <t>Tem um ponto de torra acentuado e um processo de moagem fina e uniforme, que garantem e preservam seu sabor forte e encorpado.É perfeito para servir em dia de casa cheia, pois seu sabor tradicional agrada a todo mundo.</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5.29</v>
+        <v>32.98</v>
       </c>
       <c r="F15" t="n">
-        <v>5.29</v>
+        <v>43.9</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>59</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2020-09-25T00:00:00Z</t>
+          <t>2020-09-15T00:00:00Z</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3076277/VF4qT-qqCUAAAAAAAAHMBQ.jpg?v=637877821166370000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3051146/VF4qT-qqCUAAAAAAAAG1sQ.jpg?v=637793369863530000</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1499,21 +1499,21 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>3915</t>
+          <t>130</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>3929</t>
+          <t>135</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>SAO LOURENCO</t>
+          <t>PILAO</t>
         </is>
       </c>
       <c r="O15" t="n">
-        <v>2000145</v>
+        <v>2000070</v>
       </c>
       <c r="P15" t="n">
         <v>99999</v>
@@ -1666,43 +1666,43 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>pao-de-forma-plus-vita-tradicional-500-g-252921</t>
+          <t>manga-palmer-unidade-5130760</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Pão de Forma Tradicional Plusvita 480g</t>
+          <t>Manga Palmer Unidade</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>252921</t>
+          <t>5130760</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Versátil, prático e para qualquer momento, trazendo a energia necessária para o seu dia. Perfeito para sanduíches, torradas, receitas para o café da manhã, café da tarde, almoço e jantar</t>
+          <t>Manga Palmer Unidade</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>9.98</v>
+        <v>5.39</v>
       </c>
       <c r="F18" t="n">
-        <v>9.98</v>
+        <v>5.39</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2020-10-05T00:00:00Z</t>
+          <t>2023-02-16T00:00:00Z</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3663691/VF4qT-qqCUAAAAAAAAb-gA.jpg?v=638592874910030000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3153453/VF4qT-qqCUAAAAAAAAUnKA.jpg?v=638319847497670000</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1715,21 +1715,21 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>9715</t>
+          <t>31977</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>9727</t>
+          <t>31902</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>PLUS VITA</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O18" t="n">
-        <v>2000316</v>
+        <v>2000015</v>
       </c>
       <c r="P18" t="n">
         <v>99999</v>
@@ -1738,43 +1738,43 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>manga-palmer-unidade-5130760</t>
+          <t>pao-de-forma-plus-vita-tradicional-500-g-252921</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Manga Palmer Unidade</t>
+          <t>Pão de Forma Tradicional Plusvita 480g</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>5130760</t>
+          <t>252921</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Manga Palmer Unidade</t>
+          <t>Versátil, prático e para qualquer momento, trazendo a energia necessária para o seu dia. Perfeito para sanduíches, torradas, receitas para o café da manhã, café da tarde, almoço e jantar</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5.39</v>
+        <v>9.98</v>
       </c>
       <c r="F19" t="n">
-        <v>5.39</v>
+        <v>9.98</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>183</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2023-02-16T00:00:00Z</t>
+          <t>2020-10-05T00:00:00Z</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3153453/VF4qT-qqCUAAAAAAAAUnKA.jpg?v=638319847497670000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3663691/VF4qT-qqCUAAAAAAAAb-gA.jpg?v=638592874910030000</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1787,21 +1787,21 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>31977</t>
+          <t>9715</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>31902</t>
+          <t>9727</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>PLUS VITA</t>
         </is>
       </c>
       <c r="O19" t="n">
-        <v>2000015</v>
+        <v>2000316</v>
       </c>
       <c r="P19" t="n">
         <v>99999</v>
@@ -1882,48 +1882,48 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>limao-cariorta-1kg-98981</t>
+          <t>abacaxi-unidade-221</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Limão Cariorta 1Kg</t>
+          <t>Abacaxi Unidade</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>98981</t>
+          <t>221</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Cariorta selecionados de coração.</t>
+          <t>Peso Aproximado 1,61,8Kg / Unidade.O Abacaxi é rico em Vitaminas A, B5, B6, C, BetaCaroteno, Tiamina, Antioxidantes e Fibras, auxiliando na saciedade e regulação do peso. É uma Importante fonte de energia póstreino. Auxilia nos processos antiinflamatórios por conter Bromelina, enzima encontrada principalmente no talo da fruta. Como preparar: no seu estado natural cortado, em saladas, assado, grelhado, sucos, geleias, sorvetes e chás.</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>11.99</v>
+        <v>10.99</v>
       </c>
       <c r="F21" t="n">
-        <v>11.99</v>
+        <v>10.99</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2020-05-20T00:00:00Z</t>
+          <t>2020-09-26T00:00:00Z</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3084385/VF4qT-qqCUAAAAAAAAOgIg.jpg?v=638000868147970000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3041923/VF4qT-qqCUAAAAAAAAFtXw.jpg?v=637792593143530000</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K21" t="n">
@@ -1931,71 +1931,71 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>24698</t>
+          <t>4959</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>24622</t>
+          <t>4975</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>CARIORTA</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O21" t="n">
-        <v>2001012</v>
+        <v>2000015</v>
       </c>
       <c r="P21" t="n">
-        <v>99999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>farinha-de-trigo-dona-benta-1kg-105287</t>
+          <t>limao-cariorta-1kg-98981</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Farinha De Trigo Dona Benta 1kg</t>
+          <t>Limão Cariorta 1Kg</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>105287</t>
+          <t>98981</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Farinha De Trigo Dona Benta 1kg</t>
+          <t>Cariorta selecionados de coração.</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>5.99</v>
+        <v>11.99</v>
       </c>
       <c r="F22" t="n">
-        <v>7.99</v>
+        <v>11.99</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>482</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2020-07-06T00:00:00Z</t>
+          <t>2020-05-20T00:00:00Z</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3079291/VF4qT-qqCUAAAAAAAANuog.jpg?v=637897755804270000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3084385/VF4qT-qqCUAAAAAAAAOgIg.jpg?v=638000868147970000</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K22" t="n">
@@ -2003,21 +2003,21 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>24698</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>24622</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>DONA BENTA</t>
+          <t>CARIORTA</t>
         </is>
       </c>
       <c r="O22" t="n">
-        <v>2000701</v>
+        <v>2001012</v>
       </c>
       <c r="P22" t="n">
         <v>99999</v>
@@ -2026,43 +2026,43 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>morango-250g-289612</t>
+          <t>farinha-de-trigo-dona-benta-1kg-105287</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Morango 250g</t>
+          <t>Farinha De Trigo Dona Benta 1kg</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>289612</t>
+          <t>105287</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Embalagem com 250g "O morango é rico em vitamina C e, por isso, o consumo da fruta evita a fragilidade dos ossos e a má formação dos dentes. Ele também dá resistência aos tecidos, age contra infecções ajudando na cicatrização. O morango também possui, em menor quantidade, vitamina B5, conhecida como niacina. Ela tem a função de evitar problemas de pele, do aparelho digestivo e do sistema nervoso. Na fruta, também é encontrado ferro, que faz parte da formação do sangue."</t>
+          <t>Farinha De Trigo Dona Benta 1kg</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>9.99</v>
+        <v>5.99</v>
       </c>
       <c r="F23" t="n">
-        <v>9.99</v>
+        <v>7.99</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>63</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2020-09-26T00:00:00Z</t>
+          <t>2020-07-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3226559/VF4qT-qqCUAAAAAAAAHKNA.jpg?v=638352676547800000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3079291/VF4qT-qqCUAAAAAAAANuog.jpg?v=637897755804270000</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -2075,21 +2075,21 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>5152</t>
+          <t>31</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>5168</t>
+          <t>31</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>DONA BENTA</t>
         </is>
       </c>
       <c r="O23" t="n">
-        <v>2000015</v>
+        <v>2000701</v>
       </c>
       <c r="P23" t="n">
         <v>99999</v>
@@ -2098,39 +2098,43 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ovos-vermelhos-caipira-happy-eggs-com-20-unidades-370550</t>
+          <t>morango-250g-289612</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Ovos Vermelhos Caipira Happy Eggs Com 20 Unidades</t>
+          <t>Morango 250g</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>370550</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
+          <t>289612</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Embalagem com 250g "O morango é rico em vitamina C e, por isso, o consumo da fruta evita a fragilidade dos ossos e a má formação dos dentes. Ele também dá resistência aos tecidos, age contra infecções ajudando na cicatrização. O morango também possui, em menor quantidade, vitamina B5, conhecida como niacina. Ela tem a função de evitar problemas de pele, do aparelho digestivo e do sistema nervoso. Na fruta, também é encontrado ferro, que faz parte da formação do sangue."</t>
+        </is>
+      </c>
       <c r="E24" t="n">
-        <v>24.99</v>
+        <v>9.99</v>
       </c>
       <c r="F24" t="n">
-        <v>24.99</v>
+        <v>9.99</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2020-09-27T00:00:00Z</t>
+          <t>2020-09-26T00:00:00Z</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4343192/VF4qT-qqCUAAAAAAAAn9QA.jpg?v=638956617627730000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3226559/VF4qT-qqCUAAAAAAAAHKNA.jpg?v=638352676547800000</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -2143,21 +2147,21 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>6939</t>
+          <t>5152</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>6957</t>
+          <t>5168</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>HAPPY EGGS</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O24" t="n">
-        <v>2003319</v>
+        <v>2000015</v>
       </c>
       <c r="P24" t="n">
         <v>99999</v>
@@ -2166,142 +2170,134 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>cebola-roxa-400g-38393</t>
+          <t>ovos-vermelhos-caipira-happy-eggs-com-20-unidades-370550</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Cebola Roxa 400g</t>
+          <t>Ovos Vermelhos Caipira Happy Eggs Com 20 Unidades</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>38393</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Embalagem com 2 a 3 unidades. Melhor para comer cru; Use : no guacamole, em conserva, na salada, no sanduíche.</t>
-        </is>
-      </c>
+          <t>370550</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="n">
-        <v>7.69</v>
+        <v>24.99</v>
       </c>
       <c r="F25" t="n">
-        <v>7.69</v>
+        <v>24.99</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2020-09-26T00:00:00Z</t>
+          <t>2020-09-27T00:00:00Z</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3081506/VF4qT-qqCUAAAAAAAAOBng.jpg?v=637947101712670000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4343192/VF4qT-qqCUAAAAAAAAn9QA.jpg?v=638956617627730000</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K25" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>5543</t>
+          <t>6939</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>5559</t>
+          <t>6957</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>HAPPY EGGS</t>
         </is>
       </c>
       <c r="O25" t="n">
-        <v>2000015</v>
+        <v>2003319</v>
       </c>
       <c r="P25" t="n">
-        <v>100</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>abobrinha-italiana-unidade-423513</t>
+          <t>pao-frances-panetto-60g-com-4-unidades-96318</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Abobrinha Italiana Unidade</t>
+          <t>Pão Francês Panetto  60g Com 4 unidades</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>423513</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Abobrinha Italiana Unidade</t>
-        </is>
-      </c>
+          <t>96318</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="n">
-        <v>2.1</v>
+        <v>23.98</v>
       </c>
       <c r="F26" t="n">
-        <v>2.1</v>
+        <v>23.98</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>89</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2020-12-07T00:00:00Z</t>
+          <t>2024-01-31T00:00:00Z</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3095398/VF4qT-qqCUAAAAAAAASlGA.jpg?v=638211351178300000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3307700/VF4qT-qqCUAAAAAAAAWnXQ.jpg?v=638932898013670000</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K26" t="n">
-        <v>1</v>
+        <v>0.24</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>16065</t>
+          <t>35477</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>15956</t>
+          <t>35404</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>PANETTO</t>
         </is>
       </c>
       <c r="O26" t="n">
-        <v>2000015</v>
+        <v>2000307</v>
       </c>
       <c r="P26" t="n">
         <v>99999</v>
@@ -2310,66 +2306,70 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>pao-frances-panetto-60g-com-4-unidades-96318</t>
+          <t>abobrinha-italiana-unidade-423513</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Pão Francês Panetto  60g Com 4 unidades</t>
+          <t>Abobrinha Italiana Unidade</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>96318</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
+          <t>423513</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Abobrinha Italiana Unidade</t>
+        </is>
+      </c>
       <c r="E27" t="n">
-        <v>23.98</v>
+        <v>2.1</v>
       </c>
       <c r="F27" t="n">
-        <v>23.98</v>
+        <v>2.1</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>53</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2024-01-31T00:00:00Z</t>
+          <t>2020-12-07T00:00:00Z</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3307700/VF4qT-qqCUAAAAAAAAWnXQ.jpg?v=638932898013670000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3095398/VF4qT-qqCUAAAAAAAASlGA.jpg?v=638211351178300000</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K27" t="n">
-        <v>0.24</v>
+        <v>1</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>35477</t>
+          <t>16065</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>35404</t>
+          <t>15956</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>PANETTO</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O27" t="n">
-        <v>2000307</v>
+        <v>2000015</v>
       </c>
       <c r="P27" t="n">
         <v>99999</v>
@@ -2594,33 +2594,33 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>detergente-para-loucas-biodegradavel-limpol-neutro-500-ml-100510</t>
+          <t>saponaceo-cremoso-cif-gratis-20-450-ml-839264</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Detergente Para Louças Biodegradável Limpol Neutro 500ml</t>
+          <t>Saponáceo Cremoso Cif Grátis 20% 450ml</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>100510</t>
+          <t>839264</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>O Lava-Louças Limpol é eficiente no poder da limpeza, remoção da gordura e sujeiras e no combate aos maus odores indesejados da cozinha. Sua fórmula é dermatologicamente testada e contém glicerina, tornando-a mais suave para as mãos.</t>
+          <t>• Multiuso Cremoso • 1 gota remove 100% da sujeira difícil • Limpa sem riscar com micropartículas de origem natural • Poderoso na limpeza, imbatível no cuidado • Use também em couro sintético, plástico, porcelana e borracha • Para toda casa CIF Multiuso Cremoso Original, possui uma fórmula exclusiva que limpa profundamente, removendo 100% da sujeira difícil, com apenas 1 gota. O limpador CIF Cremoso é mais concentrado e por isso pode render até 7 garrafas * dos limpadores comuns encontrados no mercado. Com sua tecnologia, o limpador de casa CIF Multiuso Cremoso Original é poderoso na limpeza e imbatível no cuidado. Sua formula com micropartículas de origem natural limpam, sem riscar, removendo toda a sujeira desde a mais pesada até a manutenção do dia a dia, deixando um brilho imbatível. Limpe toda sua casa usando o limpador multiuso CIF Multiuso Cremoso, que limpa mais de 100 objetos **, como fogão, micro-ondas, chinelos, panelas, geladeira, potes plásticos, pias, torneiras, sofá, máquina de lavar, brinquedos das crianças, persianas, utensílios de churrasco, talheres, ventilador e até ajuda a deixar aquele cabo de carregador de celular como novo! CIF é muito mais do que uma linha de produtos de limpeza, CIF é cuidado com a sua casa. A família de multiuso CIF Cremoso possui uma variedade de fragrâncias, sendo elas: Original, Laranja e Limão, todas super refrescantes e se adaptam ao seu estilo e à sua casa. CIF Multiuso Cremoso é um grande aliado na limpeza de casa, para mantê-la sempre limpa, bonita e bem cuidada, do jeito que você e sua família merecem. CIF é poderoso na limpeza e imbatível no cuidado pois sabemos que cada cantinho da sua casa merece limpeza e cuidado.</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>2.79</v>
+        <v>9.99</v>
       </c>
       <c r="F31" t="n">
-        <v>2.79</v>
+        <v>14.99</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>74</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -2630,7 +2630,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3269221/12054_1.jpg?v=638386029717470000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3077844/839264_17.jpg?v=637895340530470000</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -2643,21 +2643,21 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>12054</t>
+          <t>12274</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>12081</t>
+          <t>12301</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>LIMPOL</t>
+          <t>CIF</t>
         </is>
       </c>
       <c r="O31" t="n">
-        <v>2001413</v>
+        <v>2000541</v>
       </c>
       <c r="P31" t="n">
         <v>99999</v>
@@ -2666,70 +2666,70 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>oleo-de-soja-liza-900ml-127310</t>
+          <t>mamao-papaia-cariorta-12kg-99007</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Óleo De Soja Liza 900ml</t>
+          <t>Mamão Papaia Cariorta 1,2kg</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>127310</t>
+          <t>99007</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Óleo De Soja Liza 900ml</t>
+          <t>Cariorta selecionados de coração.</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>8.59</v>
+        <v>15.99</v>
       </c>
       <c r="F32" t="n">
-        <v>8.59</v>
+        <v>15.99</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>482</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2020-09-15T00:00:00Z</t>
+          <t>2020-05-20T00:00:00Z</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3075849/VF4qT-qqCUAAAAAAAAIxqw.jpg?v=637877802666600000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3082688/VF4qT-qqCUAAAAAAAAOOog.jpg?v=637980006057500000</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K32" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>24413</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>24337</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>LIZA</t>
+          <t>CARIORTA</t>
         </is>
       </c>
       <c r="O32" t="n">
-        <v>2000067</v>
+        <v>2001012</v>
       </c>
       <c r="P32" t="n">
         <v>99999</v>
@@ -2738,70 +2738,70 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>mamao-papaia-cariorta-12kg-99007</t>
+          <t>la-de-aco-bombril-com-6-unidades-45g-1180320</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Mamão Papaia Cariorta 1,2kg</t>
+          <t>Lã de Aço Bombril com 6 Unidades 45g</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>99007</t>
+          <t>1180320</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Cariorta selecionados de coração.</t>
+          <t>Uso: Ideal para limpeza de panelas, utensílios de cozinha, superfícies metálicas e outras áreas que necessitam de uma limpeza mais intensa.Remove sujeiras difíceis, incluindo resíduos de alimentos queimados e ferrugem.</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>15.99</v>
+        <v>2.99</v>
       </c>
       <c r="F33" t="n">
-        <v>15.99</v>
+        <v>2.99</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>78</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2020-05-20T00:00:00Z</t>
+          <t>2025-07-17T00:00:00Z</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3082688/VF4qT-qqCUAAAAAAAAOOog.jpg?v=637980006057500000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4216409/VF4qT-qqCUAAAAAAAAko5g.jpg?v=638889221726300000</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K33" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>24413</t>
+          <t>41130</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>24337</t>
+          <t>41057</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>CARIORTA</t>
+          <t>BOMBRIL</t>
         </is>
       </c>
       <c r="O33" t="n">
-        <v>2001012</v>
+        <v>2001389</v>
       </c>
       <c r="P33" t="n">
         <v>99999</v>
@@ -2810,43 +2810,43 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>la-de-aco-bombril-com-6-unidades-45g-1180320</t>
+          <t>oleo-de-soja-liza-900ml-127310</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Lã de Aço Bombril com 6 Unidades 45g</t>
+          <t>Óleo De Soja Liza 900ml</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1180320</t>
+          <t>127310</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Uso: Ideal para limpeza de panelas, utensílios de cozinha, superfícies metálicas e outras áreas que necessitam de uma limpeza mais intensa.Remove sujeiras difíceis, incluindo resíduos de alimentos queimados e ferrugem.</t>
+          <t>Óleo De Soja Liza 900ml</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>2.99</v>
+        <v>8.59</v>
       </c>
       <c r="F34" t="n">
-        <v>2.99</v>
+        <v>8.59</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>576</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-07-17T00:00:00Z</t>
+          <t>2020-09-15T00:00:00Z</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4216409/VF4qT-qqCUAAAAAAAAko5g.jpg?v=638889221726300000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3075849/VF4qT-qqCUAAAAAAAAIxqw.jpg?v=637877802666600000</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2859,21 +2859,21 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>41130</t>
+          <t>127</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>41057</t>
+          <t>132</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>BOMBRIL</t>
+          <t>LIZA</t>
         </is>
       </c>
       <c r="O34" t="n">
-        <v>2001389</v>
+        <v>2000067</v>
       </c>
       <c r="P34" t="n">
         <v>99999</v>
@@ -2882,43 +2882,43 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>espinafre-unidade-200948</t>
+          <t>detergente-para-loucas-biodegradavel-limpol-neutro-500-ml-100510</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Espinafre Unidade</t>
+          <t>Detergente Para Louças Biodegradável Limpol Neutro 500ml</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>200948</t>
+          <t>100510</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>O espinafre é uma hortaliça saborosa, rica em ferro e também é fonte de vitamina A e B2, além de fornecer cálcio, fósforo, potássio e magnésio, é indicado também para pessoas com anemia e desnutrição.Como conservar :Sob refrigeração, pode ser mantido por no máximo 5 dias. Antes de colocálo na geladeira, lave as folhas, escorra o excesso de água e coloqueo em sacos de plástico perfurados ou em vasilha de plástico.Como consumir :O espinafre também pode ser usado em saladas, sopas,suflês omeletes. É ótimo como recheio ou acompanhamento de massas como macarrão, quiche, tortas, pastéis e assados. [Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
+          <t>O Lava-Louças Limpol é eficiente no poder da limpeza, remoção da gordura e sujeiras e no combate aos maus odores indesejados da cozinha. Sua fórmula é dermatologicamente testada e contém glicerina, tornando-a mais suave para as mãos.</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>3.79</v>
+        <v>2.79</v>
       </c>
       <c r="F35" t="n">
-        <v>3.79</v>
+        <v>2.79</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>76</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2020-09-28T00:00:00Z</t>
+          <t>2020-10-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3076729/VF4qT-qqCUAAAAAAAAKBdQ.jpg?v=637877840409270000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3269221/12054_1.jpg?v=638386029717470000</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2931,21 +2931,21 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>7464</t>
+          <t>12054</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>7483</t>
+          <t>12081</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>LIMPOL</t>
         </is>
       </c>
       <c r="O35" t="n">
-        <v>2000015</v>
+        <v>2001413</v>
       </c>
       <c r="P35" t="n">
         <v>99999</v>
@@ -2954,43 +2954,43 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>refrigerante-coca-cola-sem-acucar-pet-600-ml-429392</t>
+          <t>espinafre-unidade-200948</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Refrigerante Coca Cola Sem Açúcar Pet 600ml</t>
+          <t>Espinafre Unidade</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>429392</t>
+          <t>200948</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>A Coca-Cola Sem Açúcar é um refrigerante que não contém calorias! Com certeza você já se perguntou: “Então, de onde vem aquele gostinho doce? ” A Coca-Cola Sem Açúcar é produzida especialmente com adoçantes para manter o delicioso sabor de Coca-Cola porém com 0% Açucar. Perfeita para matar sua sede a qualquer hora do dia!</t>
+          <t>O espinafre é uma hortaliça saborosa, rica em ferro e também é fonte de vitamina A e B2, além de fornecer cálcio, fósforo, potássio e magnésio, é indicado também para pessoas com anemia e desnutrição.Como conservar :Sob refrigeração, pode ser mantido por no máximo 5 dias. Antes de colocálo na geladeira, lave as folhas, escorra o excesso de água e coloqueo em sacos de plástico perfurados ou em vasilha de plástico.Como consumir :O espinafre também pode ser usado em saladas, sopas,suflês omeletes. É ótimo como recheio ou acompanhamento de massas como macarrão, quiche, tortas, pastéis e assados. [Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>5.69</v>
+        <v>3.79</v>
       </c>
       <c r="F36" t="n">
-        <v>5.69</v>
+        <v>3.79</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2020-10-01T00:00:00Z</t>
+          <t>2020-09-28T00:00:00Z</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4313186/VF4qT-qqCUAAAAAAAAn3Vg.jpg?v=638939337183900000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3076729/VF4qT-qqCUAAAAAAAAKBdQ.jpg?v=637877840409270000</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -3003,21 +3003,21 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>8816</t>
+          <t>7464</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>8828</t>
+          <t>7483</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>COCA COLA</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O36" t="n">
-        <v>2000027</v>
+        <v>2000015</v>
       </c>
       <c r="P36" t="n">
         <v>99999</v>
@@ -3026,43 +3026,43 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>sal-refinado-iodado-ita-1kg-117293</t>
+          <t>refrigerante-coca-cola-sem-acucar-pet-600-ml-429392</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Sal Refinado Iodado Ita 1kg</t>
+          <t>Refrigerante Coca Cola Sem Açúcar Pet 600ml</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>117293</t>
+          <t>429392</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Sal Refinado Iodado Ita 1kg</t>
+          <t>A Coca-Cola Sem Açúcar é um refrigerante que não contém calorias! Com certeza você já se perguntou: “Então, de onde vem aquele gostinho doce? ” A Coca-Cola Sem Açúcar é produzida especialmente com adoçantes para manter o delicioso sabor de Coca-Cola porém com 0% Açucar. Perfeita para matar sua sede a qualquer hora do dia!</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>3.65</v>
+        <v>5.69</v>
       </c>
       <c r="F37" t="n">
-        <v>3.65</v>
+        <v>5.69</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2020-09-15T00:00:00Z</t>
+          <t>2020-10-01T00:00:00Z</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3076051/VF4qT-qqCUAAAAAAAAKZcQ.jpg?v=637877811480070000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4313186/VF4qT-qqCUAAAAAAAAn3Vg.jpg?v=638939337183900000</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -3075,66 +3075,66 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>8816</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>8828</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>ITA</t>
+          <t>COCA COLA</t>
         </is>
       </c>
       <c r="O37" t="n">
-        <v>2000066</v>
+        <v>2000027</v>
       </c>
       <c r="P37" t="n">
-        <v>100</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>coentro-unidade-200930</t>
+          <t>papel-higienico-folha-tripla-neve-supreme-dermacare-pacote-leve-16-pague-15-unidades-981168</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Coentro Unidade</t>
+          <t>Papel Higiênico Folha Tripla Neve Supreme Dermacare Pacote Leve 16 Pague 15 Unidades</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>200930</t>
+          <t>981168</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Coentro Unidade</t>
+          <t>Papel higiênico neutro folha tripla de alta qualidade. Neve quer ajudar as pessoas a cuidarem de si, por isso desenvolveu um produto que proporciona maciez insuperável com mais absorção e resistência.</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>3.79</v>
+        <v>32.19</v>
       </c>
       <c r="F38" t="n">
-        <v>3.79</v>
+        <v>32.19</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>14</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2020-09-28T00:00:00Z</t>
+          <t>2020-09-22T00:00:00Z</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3076728/VF4qT-qqCUAAAAAAAAGF4g.jpg?v=637877840364830000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4430737/VF4qT-qqCUAAAAAAAAoMMw.jpg?v=639014499358300000</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -3147,21 +3147,21 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>7408</t>
+          <t>1262</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>7427</t>
+          <t>1269</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>NEVE</t>
         </is>
       </c>
       <c r="O38" t="n">
-        <v>2000015</v>
+        <v>2000291</v>
       </c>
       <c r="P38" t="n">
         <v>99999</v>
@@ -3170,43 +3170,43 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>papel-higienico-folha-tripla-neve-supreme-dermacare-pacote-leve-16-pague-15-unidades-981168</t>
+          <t>coentro-unidade-200930</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Papel Higiênico Folha Tripla Neve Supreme Dermacare Pacote Leve 16 Pague 15 Unidades</t>
+          <t>Coentro Unidade</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>981168</t>
+          <t>200930</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Papel higiênico neutro folha tripla de alta qualidade. Neve quer ajudar as pessoas a cuidarem de si, por isso desenvolveu um produto que proporciona maciez insuperável com mais absorção e resistência.</t>
+          <t>Coentro Unidade</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>32.19</v>
+        <v>3.79</v>
       </c>
       <c r="F39" t="n">
-        <v>32.19</v>
+        <v>3.79</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2020-09-22T00:00:00Z</t>
+          <t>2020-09-28T00:00:00Z</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4430737/VF4qT-qqCUAAAAAAAAoMMw.jpg?v=639014499358300000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3076728/VF4qT-qqCUAAAAAAAAGF4g.jpg?v=637877840364830000</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -3219,21 +3219,21 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>1262</t>
+          <t>7408</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>1269</t>
+          <t>7427</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>NEVE</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O39" t="n">
-        <v>2000291</v>
+        <v>2000015</v>
       </c>
       <c r="P39" t="n">
         <v>99999</v>
@@ -3242,145 +3242,145 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>pessego-nacional-500g-12408</t>
+          <t>sal-refinado-iodado-ita-1kg-117293</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Pêssego Nacional 600g</t>
+          <t>Sal Refinado Iodado Ita 1kg</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>12408</t>
+          <t>117293</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Pêssego Nacional 500g</t>
+          <t>Sal Refinado Iodado Ita 1kg</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>9.99</v>
+        <v>3.65</v>
       </c>
       <c r="F40" t="n">
-        <v>9.99</v>
+        <v>3.65</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2020-09-26T00:00:00Z</t>
+          <t>2020-09-15T00:00:00Z</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3092387/VF4qT-qqCUAAAAAAAAFvOA.jpg?v=638151904193130000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3076051/VF4qT-qqCUAAAAAAAAKZcQ.jpg?v=637877811480070000</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K40" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>5122</t>
+          <t>126</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>5138</t>
+          <t>131</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>ITA</t>
         </is>
       </c>
       <c r="O40" t="n">
-        <v>2000015</v>
+        <v>2000066</v>
       </c>
       <c r="P40" t="n">
-        <v>100</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>creme-de-leite-piracanjuba-tetra-pak-200g-818640</t>
+          <t>pessego-nacional-500g-12408</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Creme de Leite Piracanjuba Tetra Pak 200g</t>
+          <t>Pêssego Nacional 600g</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>818640</t>
+          <t>12408</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>O sabor é incomparável e com textura aveludada. O resultado não poderia ser melhor: receitas perfeitas e deliciosas. Você pode ter dúvida quanto à receita, mas o Creme de Leite é Piracanjuba. Modo de conservação: Mantenha em local seco e arejado. Antes do uso, não necessita de refrigeração. Após aberto, manter em geladeira (1°C - 10°C) e consumir em até 2 dias. Ingredientes: Creme de leite padronizado a 17% de gordura, leite em pó desnatado, estabilizantes celulose microcristalina e citrato de sódio e espessantes carboximetilcelulose sódica, goma xantana e carragena. Alergênicos: CONTÉM LEITE E DERIVADOS. CONTÉM LACTOSE. NÃO CONTÉM GLÚTEN. Porção de 15 g (1 colher e 1/2 de sopa) = 26 kcal</t>
+          <t>Pêssego Nacional 500g</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>4.99</v>
+        <v>9.99</v>
       </c>
       <c r="F41" t="n">
-        <v>4.99</v>
+        <v>9.99</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2020-11-26T00:00:00Z</t>
+          <t>2020-09-26T00:00:00Z</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3296613/VF4qT-qqCUAAAAAAAAWc6A.jpg?v=638413165673100000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3092387/VF4qT-qqCUAAAAAAAAFvOA.jpg?v=638151904193130000</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K41" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>15104</t>
+          <t>5122</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>14992</t>
+          <t>5138</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>PIRACANJUBA</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O41" t="n">
-        <v>2002038</v>
+        <v>2000015</v>
       </c>
       <c r="P41" t="n">
-        <v>99999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42">
@@ -3458,43 +3458,43 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>couve-manteiga-unidade-201235</t>
+          <t>creme-de-leite-piracanjuba-tetra-pak-200g-818640</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Couve Manteiga Unidade</t>
+          <t>Creme de Leite Piracanjuba Tetra Pak 200g</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>201235</t>
+          <t>818640</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>A couve é uma hortaliça muito rica em nutriente,cálcio, ferro e vitaminas A,C, K e B5.Como conservar:Em geladeira, inteira ou picada deve ser mantida em saco plástico fechado ou em vasilha de plástico tampada.Como consumir:Pode ser consumida crua, em saladas e sucos, refogada ou como ingrediente de sopas, farofas e cozidos.[ Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
+          <t>O sabor é incomparável e com textura aveludada. O resultado não poderia ser melhor: receitas perfeitas e deliciosas. Você pode ter dúvida quanto à receita, mas o Creme de Leite é Piracanjuba. Modo de conservação: Mantenha em local seco e arejado. Antes do uso, não necessita de refrigeração. Após aberto, manter em geladeira (1°C - 10°C) e consumir em até 2 dias. Ingredientes: Creme de leite padronizado a 17% de gordura, leite em pó desnatado, estabilizantes celulose microcristalina e citrato de sódio e espessantes carboximetilcelulose sódica, goma xantana e carragena. Alergênicos: CONTÉM LEITE E DERIVADOS. CONTÉM LACTOSE. NÃO CONTÉM GLÚTEN. Porção de 15 g (1 colher e 1/2 de sopa) = 26 kcal</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>3.79</v>
+        <v>4.99</v>
       </c>
       <c r="F43" t="n">
-        <v>3.79</v>
+        <v>4.99</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>71</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2020-09-28T00:00:00Z</t>
+          <t>2020-11-26T00:00:00Z</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3083631/VF4qT-qqCUAAAAAAAAOZOA.jpg?v=637994955185970000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3296613/VF4qT-qqCUAAAAAAAAWc6A.jpg?v=638413165673100000</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -3507,21 +3507,21 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>7445</t>
+          <t>15104</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>7464</t>
+          <t>14992</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>PIRACANJUBA</t>
         </is>
       </c>
       <c r="O43" t="n">
-        <v>2000015</v>
+        <v>2002038</v>
       </c>
       <c r="P43" t="n">
         <v>99999</v>
@@ -3530,43 +3530,43 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>saponaceo-cremoso-cif-limpeza-milagrosa-450ml-781266</t>
+          <t>couve-manteiga-unidade-201235</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>CIF Cremoso Limpeza Milagrosa remove 100% da sujeira 450 ml</t>
+          <t>Couve Manteiga Unidade</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>781266</t>
+          <t>201235</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>• Cif Cremoso Original é o produto de limpeza milagrosa que limpa fácil e dá brilho em mais de 100 superfícies*, removendo 100% da sujeira difícil, sem esforço • O Cif Cremoso Original possui um perfume suave, é mais concentrado e rende 7 garrafas do limpador comum • Fórmula com tecnologia poderosa que limpa sem riscar, removendo toda a sujeira desde a mais pesada até a limpeza de casa do dia a dia, deixando um brilho imbatível • Com o Cif, a limpeza nunca foi tão fácil e versátil. Cif Cremoso possui três variantes: Original, Limão e Laranja • Cif Cremoso Original é o produto de limpeza milagrosa para todo tipo de objeto como: eletrodomésticos, pias, couro sintético, borracha, plástico, porcelana e serve até como limpador de pisos • Cif promove uma limpeza milagrosa completa, com produtos versáteis que atendem a todas as suas necessidades. Cif. Sinta a limpeza acontecer! Cif Cremoso Original 450 ml é o produto de limpeza milagroso que limpa fácil e dá brilho em mais de 100 superfícies*, removendo 100% da sujeira difícil, sem esforço. O higienizador de casa cremoso é mais concentrado e rende 7 garrafas do limpador comum**. Sua fórmula, poderosa, limpa sem riscar***, removendo toda a sujeira desde a mais pesada até a limpeza de casa do dia a dia, deixando um brilho imbatível. Limpe toda sua casa usando o Cif Cremoso Original, que limpa todo tipo de objeto, como eletrodomésticos, potes plásticos, pias, brinquedos das crianças, persianas, pisos e até ajuda a deixar aquele cabo de carregador de celular como novo! Com o Limpador Cif, a limpeza nunca foi tão fácil e versátil. A linha do milagroso Cif Cremoso possui outras variedades de perfumes, como Laranja e Limão, que se adaptam ao seu estilo. Conheça a linha completa de produtos de limpeza Cif que não podem ficar de fora da sua lista de material de limpeza. Use também: Cif Cozinha, Cif Derrete Gordura, Cif Banheiro, Cif Tira Limo Com Cloro, Cif Vidros, Cif Cremoso e muito mais. Cif: Sinta a limpeza acontecer! Modo de usar: 1. Agite antes de usar. 2. Aplique uma pequena quantidade do produto sobre uma esponja ou pano úmido. 3. Esfregue a superfície suavemente até eliminar a sujeira. 4. Passe um pano úmido para finalizar. 5. Feche a embalagem após o uso. *Consulte lista das superfícies em www.ciflimpadores.com.br **Manchas de sabão e gordura queimada, comparado com limpadores comuns do mercado. Consulte a diferença de preços entre produtos. ***Não usar esponja ácida, como palha de aço, para a limpeza de vidros. A imagem do produto é meramente ilustrativa e o rótulo pode variar. Será enviada a embalagem disponível no momento da compra.</t>
+          <t>A couve é uma hortaliça muito rica em nutriente,cálcio, ferro e vitaminas A,C, K e B5.Como conservar:Em geladeira, inteira ou picada deve ser mantida em saco plástico fechado ou em vasilha de plástico tampada.Como consumir:Pode ser consumida crua, em saladas e sucos, refogada ou como ingrediente de sopas, farofas e cozidos.[ Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>14.99</v>
+        <v>3.79</v>
       </c>
       <c r="F44" t="n">
-        <v>18.99</v>
+        <v>3.79</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2020-10-06T00:00:00Z</t>
+          <t>2020-09-28T00:00:00Z</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3640099/VF4qT-qqCUAAAAAAAAbyew.jpg?v=638585098972800000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3083631/VF4qT-qqCUAAAAAAAAOZOA.jpg?v=637994955185970000</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -3579,24 +3579,24 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>11602</t>
+          <t>7445</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>11625</t>
+          <t>7464</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>CIF</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O44" t="n">
-        <v>2000541</v>
+        <v>2000015</v>
       </c>
       <c r="P44" t="n">
-        <v>100</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="45">
@@ -3746,70 +3746,70 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>cafe-torrado-e-moido-melitta-a-vacuo-500g-103845</t>
+          <t>pao-frances-panetto-60g-com-8-unidades-96504</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Café Torrado e Moído Melitta A Vácuo 500g</t>
+          <t>Pão Francês Panetto 60g Com 8 Unidades</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>103845</t>
+          <t>96504</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Feitos com uma cuidadosa seleção dos grãos que passam por um processo de torra a ar quente que resultam em cafés marcantes e fortes.</t>
+          <t>Pão Francês Panetto é feito com farinha de qualidade superior, sua massa é cuidadosamente elaborada para garantir uma textura crocante por fora e um interior macio e arejado. Cada mordida revela a combinação perfeita entre crocância e suavidade, tornando-o ideal para acompanhar seu café da manhã e lanche da tarde.</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>32.98</v>
+        <v>23.98</v>
       </c>
       <c r="F47" t="n">
-        <v>39.9</v>
+        <v>23.98</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>89</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2020-07-13T00:00:00Z</t>
+          <t>2024-02-01T00:00:00Z</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3038677/VF4qT-qqCUAAAAAAAAGwhg.jpg?v=637792444870400000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3310764/VF4qT-qqCUAAAAAAAAWu8Q.jpg?v=638932897909230000</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K47" t="n">
-        <v>1</v>
+        <v>0.48</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>35484</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>35411</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>MELITTA</t>
+          <t>PANETTO</t>
         </is>
       </c>
       <c r="O47" t="n">
-        <v>2001329</v>
+        <v>2000307</v>
       </c>
       <c r="P47" t="n">
         <v>99999</v>
@@ -3818,44 +3818,48 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>abobrinha-italiana-cariorta-1kg-98663</t>
+          <t>saponaceo-cremoso-cif-limpeza-milagrosa-450ml-781266</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Abobrinha Italiana Cariorta 1Kg</t>
+          <t>CIF Cremoso Limpeza Milagrosa remove 100% da sujeira 450 ml</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>98663</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr"/>
+          <t>781266</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>• Cif Cremoso Original é o produto de limpeza milagrosa que limpa fácil e dá brilho em mais de 100 superfícies*, removendo 100% da sujeira difícil, sem esforço • O Cif Cremoso Original possui um perfume suave, é mais concentrado e rende 7 garrafas do limpador comum • Fórmula com tecnologia poderosa que limpa sem riscar, removendo toda a sujeira desde a mais pesada até a limpeza de casa do dia a dia, deixando um brilho imbatível • Com o Cif, a limpeza nunca foi tão fácil e versátil. Cif Cremoso possui três variantes: Original, Limão e Laranja • Cif Cremoso Original é o produto de limpeza milagrosa para todo tipo de objeto como: eletrodomésticos, pias, couro sintético, borracha, plástico, porcelana e serve até como limpador de pisos • Cif promove uma limpeza milagrosa completa, com produtos versáteis que atendem a todas as suas necessidades. Cif. Sinta a limpeza acontecer! Cif Cremoso Original 450 ml é o produto de limpeza milagroso que limpa fácil e dá brilho em mais de 100 superfícies*, removendo 100% da sujeira difícil, sem esforço. O higienizador de casa cremoso é mais concentrado e rende 7 garrafas do limpador comum**. Sua fórmula, poderosa, limpa sem riscar***, removendo toda a sujeira desde a mais pesada até a limpeza de casa do dia a dia, deixando um brilho imbatível. Limpe toda sua casa usando o Cif Cremoso Original, que limpa todo tipo de objeto, como eletrodomésticos, potes plásticos, pias, brinquedos das crianças, persianas, pisos e até ajuda a deixar aquele cabo de carregador de celular como novo! Com o Limpador Cif, a limpeza nunca foi tão fácil e versátil. A linha do milagroso Cif Cremoso possui outras variedades de perfumes, como Laranja e Limão, que se adaptam ao seu estilo. Conheça a linha completa de produtos de limpeza Cif que não podem ficar de fora da sua lista de material de limpeza. Use também: Cif Cozinha, Cif Derrete Gordura, Cif Banheiro, Cif Tira Limo Com Cloro, Cif Vidros, Cif Cremoso e muito mais. Cif: Sinta a limpeza acontecer! Modo de usar: 1. Agite antes de usar. 2. Aplique uma pequena quantidade do produto sobre uma esponja ou pano úmido. 3. Esfregue a superfície suavemente até eliminar a sujeira. 4. Passe um pano úmido para finalizar. 5. Feche a embalagem após o uso. *Consulte lista das superfícies em www.ciflimpadores.com.br **Manchas de sabão e gordura queimada, comparado com limpadores comuns do mercado. Consulte a diferença de preços entre produtos. ***Não usar esponja ácida, como palha de aço, para a limpeza de vidros. A imagem do produto é meramente ilustrativa e o rótulo pode variar. Será enviada a embalagem disponível no momento da compra.</t>
+        </is>
+      </c>
       <c r="E48" t="n">
-        <v>7.99</v>
+        <v>14.99</v>
       </c>
       <c r="F48" t="n">
-        <v>7.99</v>
+        <v>18.99</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>74</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2020-12-16T00:00:00Z</t>
+          <t>2020-10-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3082667/VF4qT-qqCUAAAAAAAAOOdQ.jpg?v=637979987909700000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3640099/VF4qT-qqCUAAAAAAAAbyew.jpg?v=638585098972800000</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K48" t="n">
@@ -3863,24 +3867,24 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>16567</t>
+          <t>11602</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>16458</t>
+          <t>11625</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>CARIORTA</t>
+          <t>CIF</t>
         </is>
       </c>
       <c r="O48" t="n">
-        <v>2001012</v>
+        <v>2000541</v>
       </c>
       <c r="P48" t="n">
-        <v>99999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49">
@@ -3901,7 +3905,7 @@
       </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="n">
-        <v>79.98999999999999</v>
+        <v>99.98999999999999</v>
       </c>
       <c r="F49" t="n">
         <v>99.98999999999999</v>
@@ -3949,78 +3953,6 @@
       </c>
       <c r="P49" t="n">
         <v>99999</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>abacaxi-unidade-221</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Abacaxi Unidade</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>221</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Peso Aproximado 1,61,8Kg / Unidade.O Abacaxi é rico em Vitaminas A, B5, B6, C, BetaCaroteno, Tiamina, Antioxidantes e Fibras, auxiliando na saciedade e regulação do peso. É uma Importante fonte de energia póstreino. Auxilia nos processos antiinflamatórios por conter Bromelina, enzima encontrada principalmente no talo da fruta. Como preparar: no seu estado natural cortado, em saladas, assado, grelhado, sucos, geleias, sorvetes e chás.</t>
-        </is>
-      </c>
-      <c r="E50" t="n">
-        <v>11.99</v>
-      </c>
-      <c r="F50" t="n">
-        <v>11.99</v>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2020-09-26T00:00:00Z</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3041923/VF4qT-qqCUAAAAAAAAFtXw.jpg?v=637792593143530000</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>un</t>
-        </is>
-      </c>
-      <c r="K50" t="n">
-        <v>1</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>4959</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>4975</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>Zona Sul</t>
-        </is>
-      </c>
-      <c r="O50" t="n">
-        <v>2000015</v>
-      </c>
-      <c r="P50" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/zonasul.xlsx
+++ b/zonasul.xlsx
@@ -518,43 +518,43 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>leite-condensado-moca-lata-395g-1136321</t>
+          <t>lava-roupas-liquido-omo-lavagem-perfeita-3-l-774359</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Leite Condensado Moça Lata 395g</t>
+          <t>Lava Roupas Líquido Omo Lavagem Perfeita  3 L</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1136321</t>
+          <t>774359</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Moça® faz todas as receitas darem certo desde 1921, com seu sabor único e original, tem consistência perfeita, é sem comparação! É leite condensado obtido a partir de leite fresco, puro e integral. É um clássico no preparo de sobremesas, também é uma delícia na colher, na salada de frutas e o que mais você imaginar.</t>
+          <t>• OMO Lavagem Perfeita é perfeito para manter suas roupas impecáveis, já que remove as manchas de primeira** • A fórmula do sabão líquido OMO possui um perfume exclusivo que dura muito mais, isso tudo cuidando das cores dos tecidos e das suas roupas • O detergente OMO é imbatível na limpeza* e cuida do meio ambiente, pois sua fórmula contém ativo biodegradável e não possui fosfato, ajudando a preservar rios e oceanos • O sabão líquido é 10x melhor* no poder da limpeza e cuidado com as suas roupas e tecidos • OMO Lavagem Perfeita cuida das cores sem danificar os tecidos e deixa suas roupas com cheirinho de limpeza • O lava-roupas líquido é um produto sustentável e com rendimento muito eficiente, pois necessita de apenas um enxágue e permite lavar uma máquina cheia com apenas uma tampa*** OMO Lavagem Perfeita é 10x melhor* no poder e cuidado com as suas roupas. Sua fórmula não deixa resíduos e remove as manchas de primeira**. Este sabão líquido deixa suas roupas com brancura imbatível, higieniza as peças e elimina o mau odor. OMO Lavagem Perfeita possui perfume exclusivo que dura muito mais, isso tudo cuidando das cores e dos tecidos das suas roupas. É imbatível na limpeza* e cuida do meio ambiente, pois sua fórmula contém ativo biodegradável e não possui fosfato, ajudando a preservar rios e oceanos, além de economizar água, uma vez que precisa de apenas 1 enxágue. Além disso, é um produto sustentável e com rendimento eficiente, pois necessita de apenas um enxágue e permite lavar uma máquina cheia com apenas uma tampa de sabão. Sua embalagem é 100% reciclável. Faça o descarte consciente. Quando você escolhe OMO, você escolhe um mundo melhor. Juntos, sOMOs a transformação positiva para o meio ambiente. Mantenha o produto fora do alcance de crianças e dos animais domésticos. Leia o rótulo antes de usar o produto. Para saber mais sobre a linha de produtos OMO, OMO Tira Manchas e OMO Desinfetantes, acesse o site. *Comparado com detergentes do mesmo fabricante. **Remove manchas como suco de laranja, sobremesa de chocolate e óleo de fritura, tecido algodão. ***Reduzindo de 2 ou mais enxágues para apenas 1. Tampa com 100 ml. Máquina de abertura superior.</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7.98</v>
+        <v>38.99</v>
       </c>
       <c r="F2" t="n">
-        <v>9.99</v>
+        <v>41.99</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>75</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2024-05-13T00:00:00Z</t>
+          <t>2020-10-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3561021/VF4qT-qqCUAAAAAAAAbPyA.jpg?v=638987191686300000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4191006/VF4qT-qqCUAAAAAAAAjPOg.jpg?v=638876264865530000</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -567,21 +567,21 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>37022</t>
+          <t>11540</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>36949</t>
+          <t>11563</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>NESTLE</t>
+          <t>OMO</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>2000043</v>
+        <v>2000046</v>
       </c>
       <c r="P2" t="n">
         <v>99999</v>
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3.79</v>
+        <v>3.39</v>
       </c>
       <c r="F3" t="n">
-        <v>3.79</v>
+        <v>3.39</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -662,43 +662,43 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>matte-leao-limao-pet-1-5l-118222</t>
+          <t>leite-uht-piracanjuba-integral-1l-865427</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Matte Leão Limão Pet 1,5L</t>
+          <t>Leite Uht Piracanjuba Integral 1L</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>118222</t>
+          <t>865427</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>O Chá MATTE Limão Leão é um dos tipos de chás preferido dos consumidores. A marca Chá Mate Leão está presente no mercado há mais de 100 anos, sendo a marca de chá mais vendida e tradicional. Produzido com extrato aquoso de mate, açúcar e suco de limão, o Chá MATTE LEÃO Limão é a opção ideal para refrescar o seu dia! Compre e compartilhe com amigos e familiares!</t>
+          <t>No café da manhã, em um delicioso lanche da tarde ou até mesmo antes de dormir, o Leite Piracanjuba cumpre bem o seu papel principal: trazer mais sabor para os seus momentos especiais e para as suas receitas. Mais sabor para todos os momentos.</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>7.69</v>
+        <v>5.29</v>
       </c>
       <c r="F4" t="n">
-        <v>8.99</v>
+        <v>5.29</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>130</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2020-10-01T00:00:00Z</t>
+          <t>2017-04-12T00:00:00Z</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3704455/VF4qT-qqCUAAAAAAAAcePQ.jpg?v=638609291270100000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3294485/VF4qT-qqCUAAAAAAAAWbgQ.jpg?v=638412300289570000</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -711,21 +711,21 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>8711</t>
+          <t>23232</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>8723</t>
+          <t>23158</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>LEAO</t>
+          <t>PIRACANJUBA</t>
         </is>
       </c>
       <c r="O4" t="n">
-        <v>2000010</v>
+        <v>2002038</v>
       </c>
       <c r="P4" t="n">
         <v>99999</v>
@@ -734,43 +734,43 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>leite-uht-piracanjuba-integral-1l-865427</t>
+          <t>matte-leao-limao-pet-1-5l-118222</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Leite Uht Piracanjuba Integral 1L</t>
+          <t>Matte Leão Limão Pet 1,5L</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>865427</t>
+          <t>118222</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>No café da manhã, em um delicioso lanche da tarde ou até mesmo antes de dormir, o Leite Piracanjuba cumpre bem o seu papel principal: trazer mais sabor para os seus momentos especiais e para as suas receitas. Mais sabor para todos os momentos.</t>
+          <t>O Chá MATTE Limão Leão é um dos tipos de chás preferido dos consumidores. A marca Chá Mate Leão está presente no mercado há mais de 100 anos, sendo a marca de chá mais vendida e tradicional. Produzido com extrato aquoso de mate, açúcar e suco de limão, o Chá MATTE LEÃO Limão é a opção ideal para refrescar o seu dia! Compre e compartilhe com amigos e familiares!</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5.29</v>
+        <v>7.69</v>
       </c>
       <c r="F5" t="n">
-        <v>5.29</v>
+        <v>8.99</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2017-04-12T00:00:00Z</t>
+          <t>2020-10-01T00:00:00Z</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3294485/VF4qT-qqCUAAAAAAAAWbgQ.jpg?v=638412300289570000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3704455/VF4qT-qqCUAAAAAAAAcePQ.jpg?v=638609291270100000</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -783,21 +783,21 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>23232</t>
+          <t>8711</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>23158</t>
+          <t>8723</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>PIRACANJUBA</t>
+          <t>LEAO</t>
         </is>
       </c>
       <c r="O5" t="n">
-        <v>2002038</v>
+        <v>2000010</v>
       </c>
       <c r="P5" t="n">
         <v>99999</v>
@@ -872,7 +872,7 @@
         <v>2000291</v>
       </c>
       <c r="P6" t="n">
-        <v>99999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
@@ -1162,43 +1162,43 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>tomate-italiano-unidade-495212</t>
+          <t>guardanapo-folha-dupla-scott-grand-hotel-238cm×218cm-50-unidades-129879</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Tomate Italiano Unidade</t>
+          <t>Guardanapo Folha Dupla Scott Grand Hotel 23,8cm×21,8cm 50 Unidades</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>495212</t>
+          <t>129879</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Tomate Italiano Unidade</t>
+          <t>Guardanapo Folha Dupla Scott Grand Hotel 23,8cm×21,8cm 50 Unidades</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1.53</v>
+        <v>6.19</v>
       </c>
       <c r="F11" t="n">
-        <v>1.53</v>
+        <v>6.19</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>111</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2020-09-27T00:00:00Z</t>
+          <t>2020-10-05T00:00:00Z</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3094266/VF4qT-qqCUAAAAAAAASLmg.jpg?v=638191532599970000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3239421/VF4qT-qqCUAAAAAAAAVSfw.jpg?v=638362188224230000</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1211,21 +1211,21 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>6965</t>
+          <t>9426</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>6983</t>
+          <t>9438</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>GRANDE HOTEL</t>
         </is>
       </c>
       <c r="O11" t="n">
-        <v>2000015</v>
+        <v>2001400</v>
       </c>
       <c r="P11" t="n">
         <v>99999</v>
@@ -1234,43 +1234,43 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>cheiro-verde-unidade-201049</t>
+          <t>tomate-italiano-unidade-495212</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Cheiro Verde Unidade</t>
+          <t>Tomate Italiano Unidade</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>201049</t>
+          <t>495212</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>O cheiro verde é a combinação da cebolinha e salsinha .Como conservar:Em geladeira por até 5 dias em saco ou vasilha de plástico.Como consumir:Podem ser adicionadas cruas, em saladas e recheios de sanduíches e como ingredientes em marinadas.</t>
+          <t>Tomate Italiano Unidade</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>3.79</v>
+        <v>1.53</v>
       </c>
       <c r="F12" t="n">
-        <v>3.79</v>
+        <v>1.53</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>53</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2020-09-28T00:00:00Z</t>
+          <t>2020-09-27T00:00:00Z</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3457712/VF4qT-qqCUAAAAAAAAXvTg.jpg?v=638507335658200000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3094266/VF4qT-qqCUAAAAAAAASLmg.jpg?v=638191532599970000</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1283,12 +1283,12 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>7411</t>
+          <t>6965</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>7430</t>
+          <t>6983</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1306,43 +1306,43 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>guardanapo-folha-dupla-scott-grand-hotel-238cm×218cm-50-unidades-129879</t>
+          <t>cheiro-verde-unidade-201049</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Guardanapo Folha Dupla Scott Grand Hotel 23,8cm×21,8cm 50 Unidades</t>
+          <t>Cheiro Verde Unidade</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>129879</t>
+          <t>201049</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Guardanapo Folha Dupla Scott Grand Hotel 23,8cm×21,8cm 50 Unidades</t>
+          <t>O cheiro verde é a combinação da cebolinha e salsinha .Como conservar:Em geladeira por até 5 dias em saco ou vasilha de plástico.Como consumir:Podem ser adicionadas cruas, em saladas e recheios de sanduíches e como ingredientes em marinadas.</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6.19</v>
+        <v>3.39</v>
       </c>
       <c r="F13" t="n">
-        <v>6.19</v>
+        <v>3.39</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2020-10-05T00:00:00Z</t>
+          <t>2020-09-28T00:00:00Z</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3239421/VF4qT-qqCUAAAAAAAAVSfw.jpg?v=638362188224230000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3457712/VF4qT-qqCUAAAAAAAAXvTg.jpg?v=638507335658200000</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1355,21 +1355,21 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>9426</t>
+          <t>7411</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>9438</t>
+          <t>7430</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>GRANDE HOTEL</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O13" t="n">
-        <v>2001400</v>
+        <v>2000015</v>
       </c>
       <c r="P13" t="n">
         <v>99999</v>
@@ -1810,43 +1810,43 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>file-de-peito-de-frango-sadia-bandeja-1kg-290564</t>
+          <t>abacaxi-unidade-221</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Filé de Peito de Frango Sadia Bandeja 1kg</t>
+          <t>Abacaxi Unidade</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>290564</t>
+          <t>221</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Peito De Frango Em Filés Sadia Bandeja 1kg</t>
+          <t>Peso Aproximado 1,61,8Kg / Unidade.O Abacaxi é rico em Vitaminas A, B5, B6, C, BetaCaroteno, Tiamina, Antioxidantes e Fibras, auxiliando na saciedade e regulação do peso. É uma Importante fonte de energia póstreino. Auxilia nos processos antiinflamatórios por conter Bromelina, enzima encontrada principalmente no talo da fruta. Como preparar: no seu estado natural cortado, em saladas, assado, grelhado, sucos, geleias, sorvetes e chás.</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>24.99</v>
+        <v>10.99</v>
       </c>
       <c r="F20" t="n">
-        <v>26.99</v>
+        <v>10.99</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2020-09-29T00:00:00Z</t>
+          <t>2020-09-26T00:00:00Z</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3538840/VF4qT-qqCUAAAAAAAAa5gg.jpg?v=638550537679130000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3041923/VF4qT-qqCUAAAAAAAAFtXw.jpg?v=637792593143530000</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1859,66 +1859,66 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4959</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4975</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>SADIA</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O20" t="n">
-        <v>2000057</v>
+        <v>2000015</v>
       </c>
       <c r="P20" t="n">
-        <v>99999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>abacaxi-unidade-221</t>
+          <t>file-de-peito-de-frango-sadia-bandeja-1kg-290564</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Abacaxi Unidade</t>
+          <t>Filé de Peito de Frango Sadia Bandeja 1kg</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>290564</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Peso Aproximado 1,61,8Kg / Unidade.O Abacaxi é rico em Vitaminas A, B5, B6, C, BetaCaroteno, Tiamina, Antioxidantes e Fibras, auxiliando na saciedade e regulação do peso. É uma Importante fonte de energia póstreino. Auxilia nos processos antiinflamatórios por conter Bromelina, enzima encontrada principalmente no talo da fruta. Como preparar: no seu estado natural cortado, em saladas, assado, grelhado, sucos, geleias, sorvetes e chás.</t>
+          <t>Peito De Frango Em Filés Sadia Bandeja 1kg</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>10.99</v>
+        <v>24.99</v>
       </c>
       <c r="F21" t="n">
-        <v>10.99</v>
+        <v>26.99</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>125</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2020-09-26T00:00:00Z</t>
+          <t>2020-09-29T00:00:00Z</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3041923/VF4qT-qqCUAAAAAAAAFtXw.jpg?v=637792593143530000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3538840/VF4qT-qqCUAAAAAAAAa5gg.jpg?v=638550537679130000</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1931,71 +1931,71 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>4959</t>
+          <t>7</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>4975</t>
+          <t>7</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>SADIA</t>
         </is>
       </c>
       <c r="O21" t="n">
-        <v>2000015</v>
+        <v>2000057</v>
       </c>
       <c r="P21" t="n">
-        <v>100</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>limao-cariorta-1kg-98981</t>
+          <t>farinha-de-trigo-dona-benta-1kg-105287</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Limão Cariorta 1Kg</t>
+          <t>Farinha De Trigo Dona Benta 1kg</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>98981</t>
+          <t>105287</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Cariorta selecionados de coração.</t>
+          <t>Farinha De Trigo Dona Benta 1kg</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>11.99</v>
+        <v>5.99</v>
       </c>
       <c r="F22" t="n">
-        <v>11.99</v>
+        <v>7.99</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>63</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2020-05-20T00:00:00Z</t>
+          <t>2020-07-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3084385/VF4qT-qqCUAAAAAAAAOgIg.jpg?v=638000868147970000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3079291/VF4qT-qqCUAAAAAAAANuog.jpg?v=637897755804270000</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K22" t="n">
@@ -2003,21 +2003,21 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>24698</t>
+          <t>31</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>24622</t>
+          <t>31</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>CARIORTA</t>
+          <t>DONA BENTA</t>
         </is>
       </c>
       <c r="O22" t="n">
-        <v>2001012</v>
+        <v>2000701</v>
       </c>
       <c r="P22" t="n">
         <v>99999</v>
@@ -2026,48 +2026,48 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>farinha-de-trigo-dona-benta-1kg-105287</t>
+          <t>limao-cariorta-1kg-98981</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Farinha De Trigo Dona Benta 1kg</t>
+          <t>Limão Cariorta 1Kg</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>105287</t>
+          <t>98981</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Farinha De Trigo Dona Benta 1kg</t>
+          <t>Cariorta selecionados de coração.</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>5.99</v>
+        <v>11.99</v>
       </c>
       <c r="F23" t="n">
-        <v>7.99</v>
+        <v>11.99</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>482</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2020-07-06T00:00:00Z</t>
+          <t>2020-05-20T00:00:00Z</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3079291/VF4qT-qqCUAAAAAAAANuog.jpg?v=637897755804270000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3084385/VF4qT-qqCUAAAAAAAAOgIg.jpg?v=638000868147970000</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K23" t="n">
@@ -2075,21 +2075,21 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>24698</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>24622</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>DONA BENTA</t>
+          <t>CARIORTA</t>
         </is>
       </c>
       <c r="O23" t="n">
-        <v>2000701</v>
+        <v>2001012</v>
       </c>
       <c r="P23" t="n">
         <v>99999</v>
@@ -2378,43 +2378,43 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>guardanapo-folha-dupla-scott-grand-hotel-jantar-33×33-cm-com-50-unidades-129887</t>
+          <t>detergente-para-loucas-odd-clear-500ml-982911</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Guardanapo Folha Dupla Scott Grand Hotel Jantar 33×33 Cm Com 50 Unidades</t>
+          <t>Detergente Para Louças Odd Clear 500ml</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>129887</t>
+          <t>982911</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>O Guardanapo Grand Hotel folha tripla é mais sofisticado e garante uma maciez superior para todos os momentos. Contém 50 folhas de tamanho 31,8x32,8 cm cada.</t>
+          <t>ODD voltou!Alto rendimento , controle de odor.</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>12.99</v>
+        <v>1.9</v>
       </c>
       <c r="F28" t="n">
-        <v>12.99</v>
+        <v>2.49</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>76</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2020-10-05T00:00:00Z</t>
+          <t>2020-10-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3078100/129887_1.jpg?v=637895346534630000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3056732/VF4qT-qqCUAAAAAAAAHzRQ.jpg?v=637793635376800000</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2427,21 +2427,21 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>9427</t>
+          <t>11872</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>9439</t>
+          <t>11898</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>GRANDE HOTEL</t>
+          <t>LIMPPANO</t>
         </is>
       </c>
       <c r="O28" t="n">
-        <v>2001401</v>
+        <v>2001341</v>
       </c>
       <c r="P28" t="n">
         <v>99999</v>
@@ -2450,43 +2450,43 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>detergente-para-loucas-odd-clear-500ml-982911</t>
+          <t>guardanapo-folha-dupla-scott-grand-hotel-jantar-33×33-cm-com-50-unidades-129887</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Detergente Para Louças Odd Clear 500ml</t>
+          <t>Guardanapo Folha Dupla Scott Grand Hotel Jantar 33×33 Cm Com 50 Unidades</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>982911</t>
+          <t>129887</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>ODD voltou!Alto rendimento , controle de odor.</t>
+          <t>O Guardanapo Grand Hotel folha tripla é mais sofisticado e garante uma maciez superior para todos os momentos. Contém 50 folhas de tamanho 31,8x32,8 cm cada.</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1.9</v>
+        <v>12.99</v>
       </c>
       <c r="F29" t="n">
-        <v>2.49</v>
+        <v>12.99</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>111</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2020-10-06T00:00:00Z</t>
+          <t>2020-10-05T00:00:00Z</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3056732/VF4qT-qqCUAAAAAAAAHzRQ.jpg?v=637793635376800000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3078100/129887_1.jpg?v=637895346534630000</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2499,21 +2499,21 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>11872</t>
+          <t>9427</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>11898</t>
+          <t>9439</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>LIMPPANO</t>
+          <t>GRANDE HOTEL</t>
         </is>
       </c>
       <c r="O29" t="n">
-        <v>2001341</v>
+        <v>2001401</v>
       </c>
       <c r="P29" t="n">
         <v>99999</v>
@@ -2522,70 +2522,70 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>abobora-japonesa-pedaco-500g-38229</t>
+          <t>saponaceo-cremoso-cif-gratis-20-450-ml-839264</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Abóbora Japonesa Pedaço 500g</t>
+          <t>Saponáceo Cremoso Cif Grátis 20% 450ml</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>38229</t>
+          <t>839264</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Embalagem com 1 pedaço.</t>
+          <t>• Multiuso Cremoso • 1 gota remove 100% da sujeira difícil • Limpa sem riscar com micropartículas de origem natural • Poderoso na limpeza, imbatível no cuidado • Use também em couro sintético, plástico, porcelana e borracha • Para toda casa CIF Multiuso Cremoso Original, possui uma fórmula exclusiva que limpa profundamente, removendo 100% da sujeira difícil, com apenas 1 gota. O limpador CIF Cremoso é mais concentrado e por isso pode render até 7 garrafas * dos limpadores comuns encontrados no mercado. Com sua tecnologia, o limpador de casa CIF Multiuso Cremoso Original é poderoso na limpeza e imbatível no cuidado. Sua formula com micropartículas de origem natural limpam, sem riscar, removendo toda a sujeira desde a mais pesada até a manutenção do dia a dia, deixando um brilho imbatível. Limpe toda sua casa usando o limpador multiuso CIF Multiuso Cremoso, que limpa mais de 100 objetos **, como fogão, micro-ondas, chinelos, panelas, geladeira, potes plásticos, pias, torneiras, sofá, máquina de lavar, brinquedos das crianças, persianas, utensílios de churrasco, talheres, ventilador e até ajuda a deixar aquele cabo de carregador de celular como novo! CIF é muito mais do que uma linha de produtos de limpeza, CIF é cuidado com a sua casa. A família de multiuso CIF Cremoso possui uma variedade de fragrâncias, sendo elas: Original, Laranja e Limão, todas super refrescantes e se adaptam ao seu estilo e à sua casa. CIF Multiuso Cremoso é um grande aliado na limpeza de casa, para mantê-la sempre limpa, bonita e bem cuidada, do jeito que você e sua família merecem. CIF é poderoso na limpeza e imbatível no cuidado pois sabemos que cada cantinho da sua casa merece limpeza e cuidado.</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>5.99</v>
+        <v>9.99</v>
       </c>
       <c r="F30" t="n">
-        <v>5.99</v>
+        <v>14.99</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>74</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2020-09-26T00:00:00Z</t>
+          <t>2020-10-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3096862/VF4qT-qqCUAAAAAAAAS9Tw.jpg?v=638235593168230000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3077844/839264_17.jpg?v=637895340530470000</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K30" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>5593</t>
+          <t>12274</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>5609</t>
+          <t>12301</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>CIF</t>
         </is>
       </c>
       <c r="O30" t="n">
-        <v>2000015</v>
+        <v>2000541</v>
       </c>
       <c r="P30" t="n">
         <v>99999</v>
@@ -2594,70 +2594,70 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>saponaceo-cremoso-cif-gratis-20-450-ml-839264</t>
+          <t>abobora-japonesa-pedaco-500g-38229</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Saponáceo Cremoso Cif Grátis 20% 450ml</t>
+          <t>Abóbora Japonesa Pedaço 500g</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>839264</t>
+          <t>38229</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>• Multiuso Cremoso • 1 gota remove 100% da sujeira difícil • Limpa sem riscar com micropartículas de origem natural • Poderoso na limpeza, imbatível no cuidado • Use também em couro sintético, plástico, porcelana e borracha • Para toda casa CIF Multiuso Cremoso Original, possui uma fórmula exclusiva que limpa profundamente, removendo 100% da sujeira difícil, com apenas 1 gota. O limpador CIF Cremoso é mais concentrado e por isso pode render até 7 garrafas * dos limpadores comuns encontrados no mercado. Com sua tecnologia, o limpador de casa CIF Multiuso Cremoso Original é poderoso na limpeza e imbatível no cuidado. Sua formula com micropartículas de origem natural limpam, sem riscar, removendo toda a sujeira desde a mais pesada até a manutenção do dia a dia, deixando um brilho imbatível. Limpe toda sua casa usando o limpador multiuso CIF Multiuso Cremoso, que limpa mais de 100 objetos **, como fogão, micro-ondas, chinelos, panelas, geladeira, potes plásticos, pias, torneiras, sofá, máquina de lavar, brinquedos das crianças, persianas, utensílios de churrasco, talheres, ventilador e até ajuda a deixar aquele cabo de carregador de celular como novo! CIF é muito mais do que uma linha de produtos de limpeza, CIF é cuidado com a sua casa. A família de multiuso CIF Cremoso possui uma variedade de fragrâncias, sendo elas: Original, Laranja e Limão, todas super refrescantes e se adaptam ao seu estilo e à sua casa. CIF Multiuso Cremoso é um grande aliado na limpeza de casa, para mantê-la sempre limpa, bonita e bem cuidada, do jeito que você e sua família merecem. CIF é poderoso na limpeza e imbatível no cuidado pois sabemos que cada cantinho da sua casa merece limpeza e cuidado.</t>
+          <t>Embalagem com 1 pedaço.</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>9.99</v>
+        <v>4.99</v>
       </c>
       <c r="F31" t="n">
-        <v>14.99</v>
+        <v>4.99</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>53</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2020-10-06T00:00:00Z</t>
+          <t>2020-09-26T00:00:00Z</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3077844/839264_17.jpg?v=637895340530470000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3096862/VF4qT-qqCUAAAAAAAAS9Tw.jpg?v=638235593168230000</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K31" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>12274</t>
+          <t>5593</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>12301</t>
+          <t>5609</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>CIF</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O31" t="n">
-        <v>2000541</v>
+        <v>2000015</v>
       </c>
       <c r="P31" t="n">
         <v>99999</v>
@@ -2882,43 +2882,43 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>detergente-para-loucas-biodegradavel-limpol-neutro-500-ml-100510</t>
+          <t>refrigerante-coca-cola-sem-acucar-pet-600-ml-429392</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Detergente Para Louças Biodegradável Limpol Neutro 500ml</t>
+          <t>Refrigerante Coca Cola Sem Açúcar Pet 600ml</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>100510</t>
+          <t>429392</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>O Lava-Louças Limpol é eficiente no poder da limpeza, remoção da gordura e sujeiras e no combate aos maus odores indesejados da cozinha. Sua fórmula é dermatologicamente testada e contém glicerina, tornando-a mais suave para as mãos.</t>
+          <t>A Coca-Cola Sem Açúcar é um refrigerante que não contém calorias! Com certeza você já se perguntou: “Então, de onde vem aquele gostinho doce? ” A Coca-Cola Sem Açúcar é produzida especialmente com adoçantes para manter o delicioso sabor de Coca-Cola porém com 0% Açucar. Perfeita para matar sua sede a qualquer hora do dia!</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>2.79</v>
+        <v>5.69</v>
       </c>
       <c r="F35" t="n">
-        <v>2.79</v>
+        <v>5.69</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2020-10-06T00:00:00Z</t>
+          <t>2020-10-01T00:00:00Z</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3269221/12054_1.jpg?v=638386029717470000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4313186/VF4qT-qqCUAAAAAAAAn3Vg.jpg?v=638939337183900000</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2931,21 +2931,21 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>12054</t>
+          <t>8816</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>12081</t>
+          <t>8828</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>LIMPOL</t>
+          <t>COCA COLA</t>
         </is>
       </c>
       <c r="O35" t="n">
-        <v>2001413</v>
+        <v>2000027</v>
       </c>
       <c r="P35" t="n">
         <v>99999</v>
@@ -2954,43 +2954,43 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>espinafre-unidade-200948</t>
+          <t>detergente-para-loucas-biodegradavel-limpol-neutro-500-ml-100510</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Espinafre Unidade</t>
+          <t>Detergente Para Louças Biodegradável Limpol Neutro 500ml</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>200948</t>
+          <t>100510</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>O espinafre é uma hortaliça saborosa, rica em ferro e também é fonte de vitamina A e B2, além de fornecer cálcio, fósforo, potássio e magnésio, é indicado também para pessoas com anemia e desnutrição.Como conservar :Sob refrigeração, pode ser mantido por no máximo 5 dias. Antes de colocálo na geladeira, lave as folhas, escorra o excesso de água e coloqueo em sacos de plástico perfurados ou em vasilha de plástico.Como consumir :O espinafre também pode ser usado em saladas, sopas,suflês omeletes. É ótimo como recheio ou acompanhamento de massas como macarrão, quiche, tortas, pastéis e assados. [Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
+          <t>O Lava-Louças Limpol é eficiente no poder da limpeza, remoção da gordura e sujeiras e no combate aos maus odores indesejados da cozinha. Sua fórmula é dermatologicamente testada e contém glicerina, tornando-a mais suave para as mãos.</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>3.79</v>
+        <v>2.79</v>
       </c>
       <c r="F36" t="n">
-        <v>3.79</v>
+        <v>2.79</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>76</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2020-09-28T00:00:00Z</t>
+          <t>2020-10-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3076729/VF4qT-qqCUAAAAAAAAKBdQ.jpg?v=637877840409270000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3269221/12054_1.jpg?v=638386029717470000</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -3003,21 +3003,21 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>7464</t>
+          <t>12054</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>7483</t>
+          <t>12081</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>LIMPOL</t>
         </is>
       </c>
       <c r="O36" t="n">
-        <v>2000015</v>
+        <v>2001413</v>
       </c>
       <c r="P36" t="n">
         <v>99999</v>
@@ -3026,43 +3026,43 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>refrigerante-coca-cola-sem-acucar-pet-600-ml-429392</t>
+          <t>espinafre-unidade-200948</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Refrigerante Coca Cola Sem Açúcar Pet 600ml</t>
+          <t>Espinafre Unidade</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>429392</t>
+          <t>200948</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>A Coca-Cola Sem Açúcar é um refrigerante que não contém calorias! Com certeza você já se perguntou: “Então, de onde vem aquele gostinho doce? ” A Coca-Cola Sem Açúcar é produzida especialmente com adoçantes para manter o delicioso sabor de Coca-Cola porém com 0% Açucar. Perfeita para matar sua sede a qualquer hora do dia!</t>
+          <t>O espinafre é uma hortaliça saborosa, rica em ferro e também é fonte de vitamina A e B2, além de fornecer cálcio, fósforo, potássio e magnésio, é indicado também para pessoas com anemia e desnutrição.Como conservar :Sob refrigeração, pode ser mantido por no máximo 5 dias. Antes de colocálo na geladeira, lave as folhas, escorra o excesso de água e coloqueo em sacos de plástico perfurados ou em vasilha de plástico.Como consumir :O espinafre também pode ser usado em saladas, sopas,suflês omeletes. É ótimo como recheio ou acompanhamento de massas como macarrão, quiche, tortas, pastéis e assados. [Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>5.69</v>
+        <v>3.39</v>
       </c>
       <c r="F37" t="n">
-        <v>5.69</v>
+        <v>3.39</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2020-10-01T00:00:00Z</t>
+          <t>2020-09-28T00:00:00Z</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4313186/VF4qT-qqCUAAAAAAAAn3Vg.jpg?v=638939337183900000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3076729/VF4qT-qqCUAAAAAAAAKBdQ.jpg?v=637877840409270000</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -3075,21 +3075,21 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>8816</t>
+          <t>7464</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>8828</t>
+          <t>7483</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>COCA COLA</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O37" t="n">
-        <v>2000027</v>
+        <v>2000015</v>
       </c>
       <c r="P37" t="n">
         <v>99999</v>
@@ -3170,43 +3170,43 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>coentro-unidade-200930</t>
+          <t>sal-refinado-iodado-ita-1kg-117293</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Coentro Unidade</t>
+          <t>Sal Refinado Iodado Ita 1kg</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>200930</t>
+          <t>117293</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Coentro Unidade</t>
+          <t>Sal Refinado Iodado Ita 1kg</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>3.79</v>
+        <v>3.65</v>
       </c>
       <c r="F39" t="n">
-        <v>3.79</v>
+        <v>3.65</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2020-09-28T00:00:00Z</t>
+          <t>2020-09-15T00:00:00Z</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3076728/VF4qT-qqCUAAAAAAAAGF4g.jpg?v=637877840364830000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3076051/VF4qT-qqCUAAAAAAAAKZcQ.jpg?v=637877811480070000</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -3219,66 +3219,66 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>7408</t>
+          <t>126</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>7427</t>
+          <t>131</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>ITA</t>
         </is>
       </c>
       <c r="O39" t="n">
-        <v>2000015</v>
+        <v>2000066</v>
       </c>
       <c r="P39" t="n">
-        <v>99999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>sal-refinado-iodado-ita-1kg-117293</t>
+          <t>coentro-unidade-200930</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Sal Refinado Iodado Ita 1kg</t>
+          <t>Coentro Unidade</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>117293</t>
+          <t>200930</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Sal Refinado Iodado Ita 1kg</t>
+          <t>Coentro Unidade</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>3.65</v>
+        <v>3.39</v>
       </c>
       <c r="F40" t="n">
-        <v>3.65</v>
+        <v>3.39</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2020-09-15T00:00:00Z</t>
+          <t>2020-09-28T00:00:00Z</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3076051/VF4qT-qqCUAAAAAAAAKZcQ.jpg?v=637877811480070000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3076728/VF4qT-qqCUAAAAAAAAGF4g.jpg?v=637877840364830000</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -3291,21 +3291,21 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>7408</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>7427</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>ITA</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O40" t="n">
-        <v>2000066</v>
+        <v>2000015</v>
       </c>
       <c r="P40" t="n">
         <v>99999</v>
@@ -3458,43 +3458,43 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>creme-de-leite-piracanjuba-tetra-pak-200g-818640</t>
+          <t>pao-de-queijo-forno-de-minas-tradicional--400-g-456110</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Creme de Leite Piracanjuba Tetra Pak 200g</t>
+          <t>Pão De Queijo Forno De Minas Tradicional 400g</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>818640</t>
+          <t>456110</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>O sabor é incomparável e com textura aveludada. O resultado não poderia ser melhor: receitas perfeitas e deliciosas. Você pode ter dúvida quanto à receita, mas o Creme de Leite é Piracanjuba. Modo de conservação: Mantenha em local seco e arejado. Antes do uso, não necessita de refrigeração. Após aberto, manter em geladeira (1°C - 10°C) e consumir em até 2 dias. Ingredientes: Creme de leite padronizado a 17% de gordura, leite em pó desnatado, estabilizantes celulose microcristalina e citrato de sódio e espessantes carboximetilcelulose sódica, goma xantana e carragena. Alergênicos: CONTÉM LEITE E DERIVADOS. CONTÉM LACTOSE. NÃO CONTÉM GLÚTEN. Porção de 15 g (1 colher e 1/2 de sopa) = 26 kcal</t>
+          <t>Pão De Queijo Forno De Minas Tradicional 400g</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>4.99</v>
+        <v>18.99</v>
       </c>
       <c r="F43" t="n">
-        <v>4.99</v>
+        <v>21.99</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>119</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2020-11-26T00:00:00Z</t>
+          <t>2020-10-20T00:00:00Z</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3296613/VF4qT-qqCUAAAAAAAAWc6A.jpg?v=638413165673100000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3041185/VF4qT-qqCUAAAAAAAAHIag.jpg?v=637792557833470000</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -3507,24 +3507,24 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>15104</t>
+          <t>13544</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>14992</t>
+          <t>13564</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>PIRACANJUBA</t>
+          <t>FORNO MINAS</t>
         </is>
       </c>
       <c r="O43" t="n">
-        <v>2002038</v>
+        <v>2001500</v>
       </c>
       <c r="P43" t="n">
-        <v>99999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44">
@@ -3549,10 +3549,10 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>3.79</v>
+        <v>3.39</v>
       </c>
       <c r="F44" t="n">
-        <v>3.79</v>
+        <v>3.39</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -3602,43 +3602,43 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>pao-de-queijo-forno-de-minas-tradicional--400-g-456110</t>
+          <t>creme-de-leite-piracanjuba-tetra-pak-200g-818640</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Pão De Queijo Forno De Minas Tradicional 400g</t>
+          <t>Creme de Leite Piracanjuba Tetra Pak 200g</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>456110</t>
+          <t>818640</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Pão De Queijo Forno De Minas Tradicional 400g</t>
+          <t>O sabor é incomparável e com textura aveludada. O resultado não poderia ser melhor: receitas perfeitas e deliciosas. Você pode ter dúvida quanto à receita, mas o Creme de Leite é Piracanjuba. Modo de conservação: Mantenha em local seco e arejado. Antes do uso, não necessita de refrigeração. Após aberto, manter em geladeira (1°C - 10°C) e consumir em até 2 dias. Ingredientes: Creme de leite padronizado a 17% de gordura, leite em pó desnatado, estabilizantes celulose microcristalina e citrato de sódio e espessantes carboximetilcelulose sódica, goma xantana e carragena. Alergênicos: CONTÉM LEITE E DERIVADOS. CONTÉM LACTOSE. NÃO CONTÉM GLÚTEN. Porção de 15 g (1 colher e 1/2 de sopa) = 26 kcal</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>18.99</v>
+        <v>4.99</v>
       </c>
       <c r="F45" t="n">
-        <v>20.99</v>
+        <v>4.99</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>71</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2020-10-20T00:00:00Z</t>
+          <t>2020-11-26T00:00:00Z</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3041185/VF4qT-qqCUAAAAAAAAHIag.jpg?v=637792557833470000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3296613/VF4qT-qqCUAAAAAAAAWc6A.jpg?v=638413165673100000</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -3651,24 +3651,24 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>13544</t>
+          <t>15104</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>13564</t>
+          <t>14992</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>FORNO MINAS</t>
+          <t>PIRACANJUBA</t>
         </is>
       </c>
       <c r="O45" t="n">
-        <v>2001500</v>
+        <v>2002038</v>
       </c>
       <c r="P45" t="n">
-        <v>100</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="46">
@@ -3746,43 +3746,39 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>pao-frances-panetto-60g-com-8-unidades-96504</t>
+          <t>file-mignon-resfriado-sem-cordao-2-2kg-44822</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Pão Francês Panetto 60g Com 8 Unidades</t>
+          <t>Filé Mignon Resfriado Sem Cordão 2,2kg</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>96504</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Pão Francês Panetto é feito com farinha de qualidade superior, sua massa é cuidadosamente elaborada para garantir uma textura crocante por fora e um interior macio e arejado. Cada mordida revela a combinação perfeita entre crocância e suavidade, tornando-o ideal para acompanhar seu café da manhã e lanche da tarde.</t>
-        </is>
-      </c>
+          <t>44822</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
       <c r="E47" t="n">
-        <v>23.98</v>
+        <v>99.98999999999999</v>
       </c>
       <c r="F47" t="n">
-        <v>23.98</v>
+        <v>99.98999999999999</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>124</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2024-02-01T00:00:00Z</t>
+          <t>2020-09-28T00:00:00Z</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3310764/VF4qT-qqCUAAAAAAAAWu8Q.jpg?v=638932897909230000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4340142/VF4qT-qqCUAAAAAAAAJRsQ.jpg?v=638954025546430000</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -3791,25 +3787,25 @@
         </is>
       </c>
       <c r="K47" t="n">
-        <v>0.48</v>
+        <v>2.2</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>35484</t>
+          <t>7539</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>35411</t>
+          <t>7558</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>PANETTO</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O47" t="n">
-        <v>2000307</v>
+        <v>2000015</v>
       </c>
       <c r="P47" t="n">
         <v>99999</v>
@@ -3818,43 +3814,43 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>saponaceo-cremoso-cif-limpeza-milagrosa-450ml-781266</t>
+          <t>cafe-torrado-e-moido-melitta-a-vacuo-500g-103845</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>CIF Cremoso Limpeza Milagrosa remove 100% da sujeira 450 ml</t>
+          <t>Café Torrado e Moído Melitta A Vácuo 500g</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>781266</t>
+          <t>103845</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>• Cif Cremoso Original é o produto de limpeza milagrosa que limpa fácil e dá brilho em mais de 100 superfícies*, removendo 100% da sujeira difícil, sem esforço • O Cif Cremoso Original possui um perfume suave, é mais concentrado e rende 7 garrafas do limpador comum • Fórmula com tecnologia poderosa que limpa sem riscar, removendo toda a sujeira desde a mais pesada até a limpeza de casa do dia a dia, deixando um brilho imbatível • Com o Cif, a limpeza nunca foi tão fácil e versátil. Cif Cremoso possui três variantes: Original, Limão e Laranja • Cif Cremoso Original é o produto de limpeza milagrosa para todo tipo de objeto como: eletrodomésticos, pias, couro sintético, borracha, plástico, porcelana e serve até como limpador de pisos • Cif promove uma limpeza milagrosa completa, com produtos versáteis que atendem a todas as suas necessidades. Cif. Sinta a limpeza acontecer! Cif Cremoso Original 450 ml é o produto de limpeza milagroso que limpa fácil e dá brilho em mais de 100 superfícies*, removendo 100% da sujeira difícil, sem esforço. O higienizador de casa cremoso é mais concentrado e rende 7 garrafas do limpador comum**. Sua fórmula, poderosa, limpa sem riscar***, removendo toda a sujeira desde a mais pesada até a limpeza de casa do dia a dia, deixando um brilho imbatível. Limpe toda sua casa usando o Cif Cremoso Original, que limpa todo tipo de objeto, como eletrodomésticos, potes plásticos, pias, brinquedos das crianças, persianas, pisos e até ajuda a deixar aquele cabo de carregador de celular como novo! Com o Limpador Cif, a limpeza nunca foi tão fácil e versátil. A linha do milagroso Cif Cremoso possui outras variedades de perfumes, como Laranja e Limão, que se adaptam ao seu estilo. Conheça a linha completa de produtos de limpeza Cif que não podem ficar de fora da sua lista de material de limpeza. Use também: Cif Cozinha, Cif Derrete Gordura, Cif Banheiro, Cif Tira Limo Com Cloro, Cif Vidros, Cif Cremoso e muito mais. Cif: Sinta a limpeza acontecer! Modo de usar: 1. Agite antes de usar. 2. Aplique uma pequena quantidade do produto sobre uma esponja ou pano úmido. 3. Esfregue a superfície suavemente até eliminar a sujeira. 4. Passe um pano úmido para finalizar. 5. Feche a embalagem após o uso. *Consulte lista das superfícies em www.ciflimpadores.com.br **Manchas de sabão e gordura queimada, comparado com limpadores comuns do mercado. Consulte a diferença de preços entre produtos. ***Não usar esponja ácida, como palha de aço, para a limpeza de vidros. A imagem do produto é meramente ilustrativa e o rótulo pode variar. Será enviada a embalagem disponível no momento da compra.</t>
+          <t>Feitos com uma cuidadosa seleção dos grãos que passam por um processo de torra a ar quente que resultam em cafés marcantes e fortes.</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>14.99</v>
+        <v>32.98</v>
       </c>
       <c r="F48" t="n">
-        <v>18.99</v>
+        <v>39.9</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>59</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2020-10-06T00:00:00Z</t>
+          <t>2020-07-13T00:00:00Z</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3640099/VF4qT-qqCUAAAAAAAAbyew.jpg?v=638585098972800000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3038677/VF4qT-qqCUAAAAAAAAGwhg.jpg?v=637792444870400000</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -3867,62 +3863,66 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>11602</t>
+          <t>53</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>11625</t>
+          <t>56</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>CIF</t>
+          <t>MELITTA</t>
         </is>
       </c>
       <c r="O48" t="n">
-        <v>2000541</v>
+        <v>2001329</v>
       </c>
       <c r="P48" t="n">
-        <v>100</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>file-mignon-resfriado-sem-cordao-2-2kg-44822</t>
+          <t>cereja-chilena-300g-13463</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Filé Mignon Resfriado Sem Cordão 2,2kg</t>
+          <t>Cereja Chilena 300g</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>44822</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr"/>
+          <t>13463</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>As cerejas chilenas vão deleitar seu paladar com seu doce e suculento sabor. Sua cor intensa, que varia do vermelho vibrante a tonalidades mais escuras, é um banquete para os olhos e o sinal dos inúmeros benefícios à saúde. Essa pequena fruta é uma fonte nutricional completa, com vitaminas essenciais como a C e a E, além de minerais como o ferro, potássio e magnésio. A cerejas podem ser consumidas frescas, no preparo de conservas, sobremesas e tortas e são classificadas por tamanho e nós só trazemos as mais graúdas especialmente para você!</t>
+        </is>
+      </c>
       <c r="E49" t="n">
-        <v>99.98999999999999</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="F49" t="n">
-        <v>99.98999999999999</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2020-09-28T00:00:00Z</t>
+          <t>2020-09-26T00:00:00Z</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4340142/VF4qT-qqCUAAAAAAAAJRsQ.jpg?v=638954025546430000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4434078/VF4qT-qqCUAAAAAAAAoONQ.jpg?v=639019170859200000</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -3931,16 +3931,16 @@
         </is>
       </c>
       <c r="K49" t="n">
-        <v>2.2</v>
+        <v>0.3</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>7539</t>
+          <t>5090</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>7558</t>
+          <t>5106</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">

--- a/zonasul.xlsx
+++ b/zonasul.xlsx
@@ -518,43 +518,43 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>lava-roupas-liquido-omo-lavagem-perfeita-3-l-774359</t>
+          <t>matte-leao-limao-pet-1-5l-118222</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lava Roupas Líquido Omo Lavagem Perfeita  3 L</t>
+          <t>Matte Leão Limão Pet 1,5L</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>774359</t>
+          <t>118222</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>• OMO Lavagem Perfeita é perfeito para manter suas roupas impecáveis, já que remove as manchas de primeira** • A fórmula do sabão líquido OMO possui um perfume exclusivo que dura muito mais, isso tudo cuidando das cores dos tecidos e das suas roupas • O detergente OMO é imbatível na limpeza* e cuida do meio ambiente, pois sua fórmula contém ativo biodegradável e não possui fosfato, ajudando a preservar rios e oceanos • O sabão líquido é 10x melhor* no poder da limpeza e cuidado com as suas roupas e tecidos • OMO Lavagem Perfeita cuida das cores sem danificar os tecidos e deixa suas roupas com cheirinho de limpeza • O lava-roupas líquido é um produto sustentável e com rendimento muito eficiente, pois necessita de apenas um enxágue e permite lavar uma máquina cheia com apenas uma tampa*** OMO Lavagem Perfeita é 10x melhor* no poder e cuidado com as suas roupas. Sua fórmula não deixa resíduos e remove as manchas de primeira**. Este sabão líquido deixa suas roupas com brancura imbatível, higieniza as peças e elimina o mau odor. OMO Lavagem Perfeita possui perfume exclusivo que dura muito mais, isso tudo cuidando das cores e dos tecidos das suas roupas. É imbatível na limpeza* e cuida do meio ambiente, pois sua fórmula contém ativo biodegradável e não possui fosfato, ajudando a preservar rios e oceanos, além de economizar água, uma vez que precisa de apenas 1 enxágue. Além disso, é um produto sustentável e com rendimento eficiente, pois necessita de apenas um enxágue e permite lavar uma máquina cheia com apenas uma tampa de sabão. Sua embalagem é 100% reciclável. Faça o descarte consciente. Quando você escolhe OMO, você escolhe um mundo melhor. Juntos, sOMOs a transformação positiva para o meio ambiente. Mantenha o produto fora do alcance de crianças e dos animais domésticos. Leia o rótulo antes de usar o produto. Para saber mais sobre a linha de produtos OMO, OMO Tira Manchas e OMO Desinfetantes, acesse o site. *Comparado com detergentes do mesmo fabricante. **Remove manchas como suco de laranja, sobremesa de chocolate e óleo de fritura, tecido algodão. ***Reduzindo de 2 ou mais enxágues para apenas 1. Tampa com 100 ml. Máquina de abertura superior.</t>
+          <t>O Chá MATTE Limão Leão é um dos tipos de chás preferido dos consumidores. A marca Chá Mate Leão está presente no mercado há mais de 100 anos, sendo a marca de chá mais vendida e tradicional. Produzido com extrato aquoso de mate, açúcar e suco de limão, o Chá MATTE LEÃO Limão é a opção ideal para refrescar o seu dia! Compre e compartilhe com amigos e familiares!</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>38.99</v>
+        <v>7.69</v>
       </c>
       <c r="F2" t="n">
-        <v>41.99</v>
+        <v>8.99</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2020-10-06T00:00:00Z</t>
+          <t>2020-10-01T00:00:00Z</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4191006/VF4qT-qqCUAAAAAAAAjPOg.jpg?v=638876264865530000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3704455/VF4qT-qqCUAAAAAAAAcePQ.jpg?v=638609291270100000</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -567,21 +567,21 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>11540</t>
+          <t>8711</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>11563</t>
+          <t>8723</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>OMO</t>
+          <t>LEAO</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>2000046</v>
+        <v>2000010</v>
       </c>
       <c r="P2" t="n">
         <v>99999</v>
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3.39</v>
+        <v>2.49</v>
       </c>
       <c r="F3" t="n">
         <v>3.39</v>
@@ -734,43 +734,43 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>matte-leao-limao-pet-1-5l-118222</t>
+          <t>papel-higienico-neve-folha-dupla-toque-de-seda-com-12-unidades-1153285</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Matte Leão Limão Pet 1,5L</t>
+          <t>Papel Higiênico Neve Folha Dupla Toque de Seda com 12 Unidades</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>118222</t>
+          <t>1153285</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>O Chá MATTE Limão Leão é um dos tipos de chás preferido dos consumidores. A marca Chá Mate Leão está presente no mercado há mais de 100 anos, sendo a marca de chá mais vendida e tradicional. Produzido com extrato aquoso de mate, açúcar e suco de limão, o Chá MATTE LEÃO Limão é a opção ideal para refrescar o seu dia! Compre e compartilhe com amigos e familiares!</t>
+          <t>O Papel Higiênico Folha Dupla Neve é a opção ideal para quem busca conforto e praticidade no dia a dia. Com folhas macias que proporcionam uma limpeza suave e eficiente, ele traz muito mais conforto e bem-estar. Além disso, seu formato em rolos com 20 metros de comprimento garante longa duração, evitando o desperdício. Cada pacote contém 12 rolos, o que permite estoque para uso contínuo. Produzido com matéria-prima de alta qualidade, o Papel Higiênico Folha Dupla Neve dissolve facilmente na água, o que evita entupimentos e garante higiene. É uma ótima pedida para uso doméstico ou comercial.</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7.69</v>
+        <v>15.89</v>
       </c>
       <c r="F5" t="n">
-        <v>8.99</v>
+        <v>19.89</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>14</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2020-10-01T00:00:00Z</t>
+          <t>2024-10-16T00:00:00Z</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3704455/VF4qT-qqCUAAAAAAAAcePQ.jpg?v=638609291270100000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3798203/VF4qT-qqCUAAAAAAAAdSuw.jpg?v=638649029489970000</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -783,21 +783,21 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>8711</t>
+          <t>37914</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>8723</t>
+          <t>37841</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>LEAO</t>
+          <t>NEVE</t>
         </is>
       </c>
       <c r="O5" t="n">
-        <v>2000010</v>
+        <v>2000291</v>
       </c>
       <c r="P5" t="n">
         <v>99999</v>
@@ -806,43 +806,39 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>papel-higienico-neve-folha-dupla-toque-de-seda-com-12-unidades-1153285</t>
+          <t>creme-de-leite-nestle-10--gratis-200g-1165151</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Papel Higiênico Neve Folha Dupla Toque de Seda com 12 Unidades</t>
+          <t>Creme de Leite Nestlé 10% Grátis 200g</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1153285</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>O Papel Higiênico Folha Dupla Neve é a opção ideal para quem busca conforto e praticidade no dia a dia. Com folhas macias que proporcionam uma limpeza suave e eficiente, ele traz muito mais conforto e bem-estar. Além disso, seu formato em rolos com 20 metros de comprimento garante longa duração, evitando o desperdício. Cada pacote contém 12 rolos, o que permite estoque para uso contínuo. Produzido com matéria-prima de alta qualidade, o Papel Higiênico Folha Dupla Neve dissolve facilmente na água, o que evita entupimentos e garante higiene. É uma ótima pedida para uso doméstico ou comercial.</t>
-        </is>
-      </c>
+          <t>1165151</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>19.89</v>
+        <v>4.29</v>
       </c>
       <c r="F6" t="n">
-        <v>19.89</v>
+        <v>5.99</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>71</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2024-10-16T00:00:00Z</t>
+          <t>2025-02-20T00:00:00Z</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3798203/VF4qT-qqCUAAAAAAAAdSuw.jpg?v=638649029489970000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4395976/VF4qT-qqCUAAAAAAAAoEeQ.jpg?v=638984266226730000</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -855,24 +851,24 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>37914</t>
+          <t>40151</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>37841</t>
+          <t>40078</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>NEVE</t>
+          <t>NESTLE</t>
         </is>
       </c>
       <c r="O6" t="n">
-        <v>2000291</v>
+        <v>2000043</v>
       </c>
       <c r="P6" t="n">
-        <v>100</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="7">
@@ -897,7 +893,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>8.789999999999999</v>
+        <v>7.99</v>
       </c>
       <c r="F7" t="n">
         <v>8.789999999999999</v>
@@ -1041,7 +1037,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>11.99</v>
+        <v>7.89</v>
       </c>
       <c r="F9" t="n">
         <v>11.99</v>
@@ -1094,39 +1090,43 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>creme-de-leite-nestle-10--gratis-200g-1165151</t>
+          <t>agua-mineral-com-gas-sao-lourenco-pet-1-26-l-140805</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Creme de Leite Nestlé 10% Grátis 200g</t>
+          <t>Água Mineral Com Gás São Lourenço Pet 1,26 L</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1165151</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
+          <t>140805</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Água Mineral Com Gás São Lourenço Pet 1,26 L</t>
+        </is>
+      </c>
       <c r="E10" t="n">
-        <v>4.29</v>
+        <v>5.29</v>
       </c>
       <c r="F10" t="n">
-        <v>5.99</v>
+        <v>5.29</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>18</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-02-20T00:00:00Z</t>
+          <t>2020-09-25T00:00:00Z</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4395976/VF4qT-qqCUAAAAAAAAoEeQ.jpg?v=638984266226730000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3076277/VF4qT-qqCUAAAAAAAAHMBQ.jpg?v=637877821166370000</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1139,21 +1139,21 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>40151</t>
+          <t>3915</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>40078</t>
+          <t>3929</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>NESTLE</t>
+          <t>SAO LOURENCO</t>
         </is>
       </c>
       <c r="O10" t="n">
-        <v>2000043</v>
+        <v>2000145</v>
       </c>
       <c r="P10" t="n">
         <v>99999</v>
@@ -1162,43 +1162,43 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>guardanapo-folha-dupla-scott-grand-hotel-238cm×218cm-50-unidades-129879</t>
+          <t>tomate-italiano-unidade-495212</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Guardanapo Folha Dupla Scott Grand Hotel 23,8cm×21,8cm 50 Unidades</t>
+          <t>Tomate Italiano Unidade</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>129879</t>
+          <t>495212</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Guardanapo Folha Dupla Scott Grand Hotel 23,8cm×21,8cm 50 Unidades</t>
+          <t>Tomate Italiano Unidade</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6.19</v>
+        <v>0.84</v>
       </c>
       <c r="F11" t="n">
-        <v>6.19</v>
+        <v>1.53</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>53</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2020-10-05T00:00:00Z</t>
+          <t>2020-09-27T00:00:00Z</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3239421/VF4qT-qqCUAAAAAAAAVSfw.jpg?v=638362188224230000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3094266/VF4qT-qqCUAAAAAAAASLmg.jpg?v=638191532599970000</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1211,21 +1211,21 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>9426</t>
+          <t>6965</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>9438</t>
+          <t>6983</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>GRANDE HOTEL</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O11" t="n">
-        <v>2001400</v>
+        <v>2000015</v>
       </c>
       <c r="P11" t="n">
         <v>99999</v>
@@ -1234,43 +1234,43 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>tomate-italiano-unidade-495212</t>
+          <t>cheiro-verde-unidade-201049</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Tomate Italiano Unidade</t>
+          <t>Cheiro Verde Unidade</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>495212</t>
+          <t>201049</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Tomate Italiano Unidade</t>
+          <t>O cheiro verde é a combinação da cebolinha e salsinha .Como conservar:Em geladeira por até 5 dias em saco ou vasilha de plástico.Como consumir:Podem ser adicionadas cruas, em saladas e recheios de sanduíches e como ingredientes em marinadas.</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1.53</v>
+        <v>2.49</v>
       </c>
       <c r="F12" t="n">
-        <v>1.53</v>
+        <v>3.39</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2020-09-27T00:00:00Z</t>
+          <t>2020-09-28T00:00:00Z</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3094266/VF4qT-qqCUAAAAAAAASLmg.jpg?v=638191532599970000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3457712/VF4qT-qqCUAAAAAAAAXvTg.jpg?v=638507335658200000</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1283,12 +1283,12 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>6965</t>
+          <t>7411</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>6983</t>
+          <t>7430</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1306,43 +1306,43 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>cheiro-verde-unidade-201049</t>
+          <t>guardanapo-folha-dupla-scott-grand-hotel-238cm×218cm-50-unidades-129879</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Cheiro Verde Unidade</t>
+          <t>Guardanapo Folha Dupla Scott Grand Hotel 23,8cm×21,8cm 50 Unidades</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>201049</t>
+          <t>129879</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>O cheiro verde é a combinação da cebolinha e salsinha .Como conservar:Em geladeira por até 5 dias em saco ou vasilha de plástico.Como consumir:Podem ser adicionadas cruas, em saladas e recheios de sanduíches e como ingredientes em marinadas.</t>
+          <t>Guardanapo Folha Dupla Scott Grand Hotel 23,8cm×21,8cm 50 Unidades</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>3.39</v>
+        <v>6.19</v>
       </c>
       <c r="F13" t="n">
-        <v>3.39</v>
+        <v>6.19</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>111</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2020-09-28T00:00:00Z</t>
+          <t>2020-10-05T00:00:00Z</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3457712/VF4qT-qqCUAAAAAAAAXvTg.jpg?v=638507335658200000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3239421/VF4qT-qqCUAAAAAAAAVSfw.jpg?v=638362188224230000</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1355,21 +1355,21 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>7411</t>
+          <t>9426</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>7430</t>
+          <t>9438</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>GRANDE HOTEL</t>
         </is>
       </c>
       <c r="O13" t="n">
-        <v>2000015</v>
+        <v>2001400</v>
       </c>
       <c r="P13" t="n">
         <v>99999</v>
@@ -1378,43 +1378,43 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>agua-mineral-com-gas-sao-lourenco-pet-1-26-l-140805</t>
+          <t>cafe-torrado-e-moido-pilao-tradicional-500g-828025</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Água Mineral Com Gás São Lourenço Pet 1,26 L</t>
+          <t>Café Torrado E Moído Pilão Tradicional Fresh Pack 500g</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>140805</t>
+          <t>828025</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Água Mineral Com Gás São Lourenço Pet 1,26 L</t>
+          <t>Tem um ponto de torra acentuado e um processo de moagem fina e uniforme, que garantem e preservam seu sabor forte e encorpado.É perfeito para servir em dia de casa cheia, pois seu sabor tradicional agrada a todo mundo.</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5.29</v>
+        <v>32.98</v>
       </c>
       <c r="F14" t="n">
-        <v>5.29</v>
+        <v>43.9</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>59</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2020-09-25T00:00:00Z</t>
+          <t>2020-09-15T00:00:00Z</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3076277/VF4qT-qqCUAAAAAAAAHMBQ.jpg?v=637877821166370000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3051146/VF4qT-qqCUAAAAAAAAG1sQ.jpg?v=637793369863530000</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1427,21 +1427,21 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>3915</t>
+          <t>130</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>3929</t>
+          <t>135</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>SAO LOURENCO</t>
+          <t>PILAO</t>
         </is>
       </c>
       <c r="O14" t="n">
-        <v>2000145</v>
+        <v>2000070</v>
       </c>
       <c r="P14" t="n">
         <v>99999</v>
@@ -1450,43 +1450,43 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>cafe-torrado-e-moido-pilao-tradicional-500g-828025</t>
+          <t>ovos-vermelhos-mantiqueira-happy-eggs-com-10-unidades-5106753</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Café Torrado E Moído Pilão Tradicional Fresh Pack 500g</t>
+          <t>Ovos Vermelhos Mantiqueira Happy Eggs com 10 Unidades</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>828025</t>
+          <t>5106753</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Tem um ponto de torra acentuado e um processo de moagem fina e uniforme, que garantem e preservam seu sabor forte e encorpado.É perfeito para servir em dia de casa cheia, pois seu sabor tradicional agrada a todo mundo.</t>
+          <t>Produzidos por galinhas criadas livres de gaiolas. Garantia de Bem-Estar Animal. Ovos Vermelhos Tipo Grande Categoria A. Embalagem com 10 unidades.</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>32.98</v>
+        <v>7.95</v>
       </c>
       <c r="F15" t="n">
-        <v>43.9</v>
+        <v>11.99</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2020-09-15T00:00:00Z</t>
+          <t>2021-01-11T00:00:00Z</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3051146/VF4qT-qqCUAAAAAAAAG1sQ.jpg?v=637793369863530000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4222023/VF4qT-qqCUAAAAAAAAStHA.jpg?v=638894405636230000</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1499,21 +1499,21 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>18105</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>17997</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>PILAO</t>
+          <t>HAPPY EGGS</t>
         </is>
       </c>
       <c r="O15" t="n">
-        <v>2000070</v>
+        <v>2003319</v>
       </c>
       <c r="P15" t="n">
         <v>99999</v>
@@ -1522,43 +1522,43 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ovos-vermelhos-mantiqueira-happy-eggs-com-10-unidades-5106753</t>
+          <t>couve-flor-unidade-189111</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Ovos Vermelhos Mantiqueira Happy Eggs com 10 Unidades</t>
+          <t>Couve Flor Unidade</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>5106753</t>
+          <t>189111</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Produzidos por galinhas criadas livres de gaiolas. Garantia de Bem-Estar Animal. Ovos Vermelhos Tipo Grande Categoria A. Embalagem com 10 unidades.</t>
+          <t>A couveflor é uma hortaliça rica em cálcio e fósforo e fonte de ácido fólico e vitamina C . Como Conservar:Na geladeira pode ser conservada por 3 a 5 dias, dentro de saco plástico perfurado. Antes de guardar, remova as partes escuras e folhas, mas não lave a cabeça.Como Consumir:Pode ser consumida assada, frita ou cozinhe em água e sal. [Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>11.99</v>
+        <v>7.99</v>
       </c>
       <c r="F16" t="n">
-        <v>11.99</v>
+        <v>9.99</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>53</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2021-01-11T00:00:00Z</t>
+          <t>2020-09-28T00:00:00Z</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4222023/VF4qT-qqCUAAAAAAAAStHA.jpg?v=638894405636230000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3041615/VF4qT-qqCUAAAAAAAAGF4Q.jpg?v=637792579893500000</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1571,21 +1571,21 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>18105</t>
+          <t>7446</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>17997</t>
+          <t>7465</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>HAPPY EGGS</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O16" t="n">
-        <v>2003319</v>
+        <v>2000015</v>
       </c>
       <c r="P16" t="n">
         <v>99999</v>
@@ -1594,43 +1594,43 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>couve-flor-unidade-189111</t>
+          <t>manga-palmer-unidade-5130760</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Couve Flor Unidade</t>
+          <t>Manga Palmer Unidade</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>189111</t>
+          <t>5130760</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>A couveflor é uma hortaliça rica em cálcio e fósforo e fonte de ácido fólico e vitamina C . Como Conservar:Na geladeira pode ser conservada por 3 a 5 dias, dentro de saco plástico perfurado. Antes de guardar, remova as partes escuras e folhas, mas não lave a cabeça.Como Consumir:Pode ser consumida assada, frita ou cozinhe em água e sal. [Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
+          <t>Manga Palmer Unidade</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>8.789999999999999</v>
+        <v>5.39</v>
       </c>
       <c r="F17" t="n">
-        <v>9.99</v>
+        <v>5.39</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2020-09-28T00:00:00Z</t>
+          <t>2023-02-16T00:00:00Z</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3041615/VF4qT-qqCUAAAAAAAAGF4Q.jpg?v=637792579893500000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3153453/VF4qT-qqCUAAAAAAAAUnKA.jpg?v=638319847497670000</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1643,12 +1643,12 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>7446</t>
+          <t>31977</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>7465</t>
+          <t>31902</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1666,43 +1666,43 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>manga-palmer-unidade-5130760</t>
+          <t>pao-de-forma-plus-vita-tradicional-500-g-252921</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Manga Palmer Unidade</t>
+          <t>Pão de Forma Tradicional Plusvita 480g</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>5130760</t>
+          <t>252921</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Manga Palmer Unidade</t>
+          <t>Versátil, prático e para qualquer momento, trazendo a energia necessária para o seu dia. Perfeito para sanduíches, torradas, receitas para o café da manhã, café da tarde, almoço e jantar</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>5.39</v>
+        <v>9.98</v>
       </c>
       <c r="F18" t="n">
-        <v>5.39</v>
+        <v>9.98</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>183</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2023-02-16T00:00:00Z</t>
+          <t>2020-10-05T00:00:00Z</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3153453/VF4qT-qqCUAAAAAAAAUnKA.jpg?v=638319847497670000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3663691/VF4qT-qqCUAAAAAAAAb-gA.jpg?v=638592874910030000</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1715,21 +1715,21 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>31977</t>
+          <t>9715</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>31902</t>
+          <t>9727</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>PLUS VITA</t>
         </is>
       </c>
       <c r="O18" t="n">
-        <v>2000015</v>
+        <v>2000316</v>
       </c>
       <c r="P18" t="n">
         <v>99999</v>
@@ -1738,43 +1738,43 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>pao-de-forma-plus-vita-tradicional-500-g-252921</t>
+          <t>abacaxi-unidade-221</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Pão de Forma Tradicional Plusvita 480g</t>
+          <t>Abacaxi Unidade</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>252921</t>
+          <t>221</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Versátil, prático e para qualquer momento, trazendo a energia necessária para o seu dia. Perfeito para sanduíches, torradas, receitas para o café da manhã, café da tarde, almoço e jantar</t>
+          <t>Peso Aproximado 1,61,8Kg / Unidade.O Abacaxi é rico em Vitaminas A, B5, B6, C, BetaCaroteno, Tiamina, Antioxidantes e Fibras, auxiliando na saciedade e regulação do peso. É uma Importante fonte de energia póstreino. Auxilia nos processos antiinflamatórios por conter Bromelina, enzima encontrada principalmente no talo da fruta. Como preparar: no seu estado natural cortado, em saladas, assado, grelhado, sucos, geleias, sorvetes e chás.</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>9.98</v>
+        <v>8.99</v>
       </c>
       <c r="F19" t="n">
-        <v>9.98</v>
+        <v>10.99</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2020-10-05T00:00:00Z</t>
+          <t>2020-09-26T00:00:00Z</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3663691/VF4qT-qqCUAAAAAAAAb-gA.jpg?v=638592874910030000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3041923/VF4qT-qqCUAAAAAAAAFtXw.jpg?v=637792593143530000</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1787,71 +1787,71 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>9715</t>
+          <t>4959</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>9727</t>
+          <t>4975</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>PLUS VITA</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O19" t="n">
-        <v>2000316</v>
+        <v>2000015</v>
       </c>
       <c r="P19" t="n">
-        <v>99999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>abacaxi-unidade-221</t>
+          <t>limao-cariorta-1kg-98981</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Abacaxi Unidade</t>
+          <t>Limão Cariorta 1Kg</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>98981</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Peso Aproximado 1,61,8Kg / Unidade.O Abacaxi é rico em Vitaminas A, B5, B6, C, BetaCaroteno, Tiamina, Antioxidantes e Fibras, auxiliando na saciedade e regulação do peso. É uma Importante fonte de energia póstreino. Auxilia nos processos antiinflamatórios por conter Bromelina, enzima encontrada principalmente no talo da fruta. Como preparar: no seu estado natural cortado, em saladas, assado, grelhado, sucos, geleias, sorvetes e chás.</t>
+          <t>Cariorta selecionados de coração.</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>10.99</v>
+        <v>11.99</v>
       </c>
       <c r="F20" t="n">
-        <v>10.99</v>
+        <v>11.99</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>482</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2020-09-26T00:00:00Z</t>
+          <t>2020-05-20T00:00:00Z</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3041923/VF4qT-qqCUAAAAAAAAFtXw.jpg?v=637792593143530000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3084385/VF4qT-qqCUAAAAAAAAOgIg.jpg?v=638000868147970000</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K20" t="n">
@@ -1859,24 +1859,24 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>4959</t>
+          <t>24698</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>4975</t>
+          <t>24622</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>CARIORTA</t>
         </is>
       </c>
       <c r="O20" t="n">
-        <v>2000015</v>
+        <v>2001012</v>
       </c>
       <c r="P20" t="n">
-        <v>100</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="21">
@@ -2026,48 +2026,48 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>limao-cariorta-1kg-98981</t>
+          <t>morango-250g-289612</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Limão Cariorta 1Kg</t>
+          <t>Morango 250g</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>98981</t>
+          <t>289612</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Cariorta selecionados de coração.</t>
+          <t>Embalagem com 250g "O morango é rico em vitamina C e, por isso, o consumo da fruta evita a fragilidade dos ossos e a má formação dos dentes. Ele também dá resistência aos tecidos, age contra infecções ajudando na cicatrização. O morango também possui, em menor quantidade, vitamina B5, conhecida como niacina. Ela tem a função de evitar problemas de pele, do aparelho digestivo e do sistema nervoso. Na fruta, também é encontrado ferro, que faz parte da formação do sangue."</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>11.99</v>
+        <v>8.99</v>
       </c>
       <c r="F23" t="n">
-        <v>11.99</v>
+        <v>9.99</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2020-05-20T00:00:00Z</t>
+          <t>2020-09-26T00:00:00Z</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3084385/VF4qT-qqCUAAAAAAAAOgIg.jpg?v=638000868147970000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3226559/VF4qT-qqCUAAAAAAAAHKNA.jpg?v=638352676547800000</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K23" t="n">
@@ -2075,21 +2075,21 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>24698</t>
+          <t>5152</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>24622</t>
+          <t>5168</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>CARIORTA</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O23" t="n">
-        <v>2001012</v>
+        <v>2000015</v>
       </c>
       <c r="P23" t="n">
         <v>99999</v>
@@ -2098,70 +2098,66 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>morango-250g-289612</t>
+          <t>pao-frances-panetto-60g-com-4-unidades-96318</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Morango 250g</t>
+          <t>Pão Francês Panetto  60g Com 4 unidades</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>289612</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Embalagem com 250g "O morango é rico em vitamina C e, por isso, o consumo da fruta evita a fragilidade dos ossos e a má formação dos dentes. Ele também dá resistência aos tecidos, age contra infecções ajudando na cicatrização. O morango também possui, em menor quantidade, vitamina B5, conhecida como niacina. Ela tem a função de evitar problemas de pele, do aparelho digestivo e do sistema nervoso. Na fruta, também é encontrado ferro, que faz parte da formação do sangue."</t>
-        </is>
-      </c>
+          <t>96318</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="n">
-        <v>9.99</v>
+        <v>23.98</v>
       </c>
       <c r="F24" t="n">
-        <v>9.99</v>
+        <v>23.98</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>89</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2020-09-26T00:00:00Z</t>
+          <t>2024-01-31T00:00:00Z</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3226559/VF4qT-qqCUAAAAAAAAHKNA.jpg?v=638352676547800000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3307700/VF4qT-qqCUAAAAAAAAWnXQ.jpg?v=638932898013670000</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K24" t="n">
-        <v>1</v>
+        <v>0.24</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>5152</t>
+          <t>35477</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>5168</t>
+          <t>35404</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>PANETTO</t>
         </is>
       </c>
       <c r="O24" t="n">
-        <v>2000015</v>
+        <v>2000307</v>
       </c>
       <c r="P24" t="n">
         <v>99999</v>
@@ -2170,39 +2166,43 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ovos-vermelhos-caipira-happy-eggs-com-20-unidades-370550</t>
+          <t>detergente-para-loucas-odd-clear-500ml-982911</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Ovos Vermelhos Caipira Happy Eggs Com 20 Unidades</t>
+          <t>Detergente Para Louças Odd Clear 500ml</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>370550</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
+          <t>982911</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>ODD voltou!Alto rendimento , controle de odor.</t>
+        </is>
+      </c>
       <c r="E25" t="n">
-        <v>24.99</v>
+        <v>1.9</v>
       </c>
       <c r="F25" t="n">
-        <v>24.99</v>
+        <v>2.49</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>76</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2020-09-27T00:00:00Z</t>
+          <t>2020-10-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4343192/VF4qT-qqCUAAAAAAAAn9QA.jpg?v=638956617627730000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3056732/VF4qT-qqCUAAAAAAAAHzRQ.jpg?v=637793635376800000</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2215,21 +2215,21 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>6939</t>
+          <t>11872</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>6957</t>
+          <t>11898</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>HAPPY EGGS</t>
+          <t>LIMPPANO</t>
         </is>
       </c>
       <c r="O25" t="n">
-        <v>2003319</v>
+        <v>2001341</v>
       </c>
       <c r="P25" t="n">
         <v>99999</v>
@@ -2238,66 +2238,66 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>pao-frances-panetto-60g-com-4-unidades-96318</t>
+          <t>ovos-vermelhos-caipira-happy-eggs-com-20-unidades-370550</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Pão Francês Panetto  60g Com 4 unidades</t>
+          <t>Ovos Vermelhos Caipira Happy Eggs Com 20 Unidades</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>96318</t>
+          <t>370550</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="n">
-        <v>23.98</v>
+        <v>24.99</v>
       </c>
       <c r="F26" t="n">
-        <v>23.98</v>
+        <v>24.99</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2024-01-31T00:00:00Z</t>
+          <t>2020-09-27T00:00:00Z</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3307700/VF4qT-qqCUAAAAAAAAWnXQ.jpg?v=638932898013670000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4343192/VF4qT-qqCUAAAAAAAAn9QA.jpg?v=638956617627730000</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K26" t="n">
-        <v>0.24</v>
+        <v>1</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>35477</t>
+          <t>6939</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>35404</t>
+          <t>6957</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>PANETTO</t>
+          <t>HAPPY EGGS</t>
         </is>
       </c>
       <c r="O26" t="n">
-        <v>2000307</v>
+        <v>2003319</v>
       </c>
       <c r="P26" t="n">
         <v>99999</v>
@@ -2378,43 +2378,43 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>detergente-para-loucas-odd-clear-500ml-982911</t>
+          <t>guardanapo-folha-dupla-scott-grand-hotel-jantar-33×33-cm-com-50-unidades-129887</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Detergente Para Louças Odd Clear 500ml</t>
+          <t>Guardanapo Folha Dupla Scott Grand Hotel Jantar 33×33 Cm Com 50 Unidades</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>982911</t>
+          <t>129887</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>ODD voltou!Alto rendimento , controle de odor.</t>
+          <t>O Guardanapo Grand Hotel folha tripla é mais sofisticado e garante uma maciez superior para todos os momentos. Contém 50 folhas de tamanho 31,8x32,8 cm cada.</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1.9</v>
+        <v>12.99</v>
       </c>
       <c r="F28" t="n">
-        <v>2.49</v>
+        <v>12.99</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>111</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2020-10-06T00:00:00Z</t>
+          <t>2020-10-05T00:00:00Z</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3056732/VF4qT-qqCUAAAAAAAAHzRQ.jpg?v=637793635376800000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3078100/129887_1.jpg?v=637895346534630000</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2427,21 +2427,21 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>11872</t>
+          <t>9427</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>11898</t>
+          <t>9439</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>LIMPPANO</t>
+          <t>GRANDE HOTEL</t>
         </is>
       </c>
       <c r="O28" t="n">
-        <v>2001341</v>
+        <v>2001401</v>
       </c>
       <c r="P28" t="n">
         <v>99999</v>
@@ -2450,43 +2450,43 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>guardanapo-folha-dupla-scott-grand-hotel-jantar-33×33-cm-com-50-unidades-129887</t>
+          <t>saponaceo-cremoso-cif-gratis-20-450-ml-839264</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Guardanapo Folha Dupla Scott Grand Hotel Jantar 33×33 Cm Com 50 Unidades</t>
+          <t>Saponáceo Cremoso Cif Grátis 20% 450ml</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>129887</t>
+          <t>839264</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>O Guardanapo Grand Hotel folha tripla é mais sofisticado e garante uma maciez superior para todos os momentos. Contém 50 folhas de tamanho 31,8x32,8 cm cada.</t>
+          <t>• Multiuso Cremoso • 1 gota remove 100% da sujeira difícil • Limpa sem riscar com micropartículas de origem natural • Poderoso na limpeza, imbatível no cuidado • Use também em couro sintético, plástico, porcelana e borracha • Para toda casa CIF Multiuso Cremoso Original, possui uma fórmula exclusiva que limpa profundamente, removendo 100% da sujeira difícil, com apenas 1 gota. O limpador CIF Cremoso é mais concentrado e por isso pode render até 7 garrafas * dos limpadores comuns encontrados no mercado. Com sua tecnologia, o limpador de casa CIF Multiuso Cremoso Original é poderoso na limpeza e imbatível no cuidado. Sua formula com micropartículas de origem natural limpam, sem riscar, removendo toda a sujeira desde a mais pesada até a manutenção do dia a dia, deixando um brilho imbatível. Limpe toda sua casa usando o limpador multiuso CIF Multiuso Cremoso, que limpa mais de 100 objetos **, como fogão, micro-ondas, chinelos, panelas, geladeira, potes plásticos, pias, torneiras, sofá, máquina de lavar, brinquedos das crianças, persianas, utensílios de churrasco, talheres, ventilador e até ajuda a deixar aquele cabo de carregador de celular como novo! CIF é muito mais do que uma linha de produtos de limpeza, CIF é cuidado com a sua casa. A família de multiuso CIF Cremoso possui uma variedade de fragrâncias, sendo elas: Original, Laranja e Limão, todas super refrescantes e se adaptam ao seu estilo e à sua casa. CIF Multiuso Cremoso é um grande aliado na limpeza de casa, para mantê-la sempre limpa, bonita e bem cuidada, do jeito que você e sua família merecem. CIF é poderoso na limpeza e imbatível no cuidado pois sabemos que cada cantinho da sua casa merece limpeza e cuidado.</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>12.99</v>
+        <v>9.99</v>
       </c>
       <c r="F29" t="n">
-        <v>12.99</v>
+        <v>14.99</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>74</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2020-10-05T00:00:00Z</t>
+          <t>2020-10-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3078100/129887_1.jpg?v=637895346534630000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3077844/839264_17.jpg?v=637895340530470000</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2499,21 +2499,21 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>9427</t>
+          <t>12274</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>9439</t>
+          <t>12301</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>GRANDE HOTEL</t>
+          <t>CIF</t>
         </is>
       </c>
       <c r="O29" t="n">
-        <v>2001401</v>
+        <v>2000541</v>
       </c>
       <c r="P29" t="n">
         <v>99999</v>
@@ -2522,70 +2522,70 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>saponaceo-cremoso-cif-gratis-20-450-ml-839264</t>
+          <t>abobora-japonesa-pedaco-500g-38229</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Saponáceo Cremoso Cif Grátis 20% 450ml</t>
+          <t>Abóbora Japonesa Pedaço 500g</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>839264</t>
+          <t>38229</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>• Multiuso Cremoso • 1 gota remove 100% da sujeira difícil • Limpa sem riscar com micropartículas de origem natural • Poderoso na limpeza, imbatível no cuidado • Use também em couro sintético, plástico, porcelana e borracha • Para toda casa CIF Multiuso Cremoso Original, possui uma fórmula exclusiva que limpa profundamente, removendo 100% da sujeira difícil, com apenas 1 gota. O limpador CIF Cremoso é mais concentrado e por isso pode render até 7 garrafas * dos limpadores comuns encontrados no mercado. Com sua tecnologia, o limpador de casa CIF Multiuso Cremoso Original é poderoso na limpeza e imbatível no cuidado. Sua formula com micropartículas de origem natural limpam, sem riscar, removendo toda a sujeira desde a mais pesada até a manutenção do dia a dia, deixando um brilho imbatível. Limpe toda sua casa usando o limpador multiuso CIF Multiuso Cremoso, que limpa mais de 100 objetos **, como fogão, micro-ondas, chinelos, panelas, geladeira, potes plásticos, pias, torneiras, sofá, máquina de lavar, brinquedos das crianças, persianas, utensílios de churrasco, talheres, ventilador e até ajuda a deixar aquele cabo de carregador de celular como novo! CIF é muito mais do que uma linha de produtos de limpeza, CIF é cuidado com a sua casa. A família de multiuso CIF Cremoso possui uma variedade de fragrâncias, sendo elas: Original, Laranja e Limão, todas super refrescantes e se adaptam ao seu estilo e à sua casa. CIF Multiuso Cremoso é um grande aliado na limpeza de casa, para mantê-la sempre limpa, bonita e bem cuidada, do jeito que você e sua família merecem. CIF é poderoso na limpeza e imbatível no cuidado pois sabemos que cada cantinho da sua casa merece limpeza e cuidado.</t>
+          <t>Embalagem com 1 pedaço.</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>9.99</v>
+        <v>4.99</v>
       </c>
       <c r="F30" t="n">
-        <v>14.99</v>
+        <v>4.99</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>53</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2020-10-06T00:00:00Z</t>
+          <t>2020-09-26T00:00:00Z</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3077844/839264_17.jpg?v=637895340530470000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3096862/VF4qT-qqCUAAAAAAAAS9Tw.jpg?v=638235593168230000</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K30" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>12274</t>
+          <t>5593</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>12301</t>
+          <t>5609</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>CIF</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O30" t="n">
-        <v>2000541</v>
+        <v>2000015</v>
       </c>
       <c r="P30" t="n">
         <v>99999</v>
@@ -2594,43 +2594,43 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>abobora-japonesa-pedaco-500g-38229</t>
+          <t>mamao-papaia-cariorta-12kg-99007</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Abóbora Japonesa Pedaço 500g</t>
+          <t>Mamão Papaia Cariorta 1,2kg</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>38229</t>
+          <t>99007</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Embalagem com 1 pedaço.</t>
+          <t>Cariorta selecionados de coração.</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>4.99</v>
+        <v>15.99</v>
       </c>
       <c r="F31" t="n">
-        <v>4.99</v>
+        <v>15.99</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>482</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2020-09-26T00:00:00Z</t>
+          <t>2020-05-20T00:00:00Z</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3096862/VF4qT-qqCUAAAAAAAAS9Tw.jpg?v=638235593168230000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3082688/VF4qT-qqCUAAAAAAAAOOog.jpg?v=637980006057500000</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -2639,25 +2639,25 @@
         </is>
       </c>
       <c r="K31" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>5593</t>
+          <t>24413</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>5609</t>
+          <t>24337</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>CARIORTA</t>
         </is>
       </c>
       <c r="O31" t="n">
-        <v>2000015</v>
+        <v>2001012</v>
       </c>
       <c r="P31" t="n">
         <v>99999</v>
@@ -2666,115 +2666,115 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>mamao-papaia-cariorta-12kg-99007</t>
+          <t>la-de-aco-bombril-com-6-unidades-45g-1180320</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Mamão Papaia Cariorta 1,2kg</t>
+          <t>Lã de Aço Bombril com 6 Unidades 45g</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>99007</t>
+          <t>1180320</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Cariorta selecionados de coração.</t>
+          <t>Uso: Ideal para limpeza de panelas, utensílios de cozinha, superfícies metálicas e outras áreas que necessitam de uma limpeza mais intensa.Remove sujeiras difíceis, incluindo resíduos de alimentos queimados e ferrugem.</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>15.99</v>
+        <v>2.09</v>
       </c>
       <c r="F32" t="n">
-        <v>15.99</v>
+        <v>2.99</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>78</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2020-05-20T00:00:00Z</t>
+          <t>2025-07-17T00:00:00Z</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3082688/VF4qT-qqCUAAAAAAAAOOog.jpg?v=637980006057500000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4216409/VF4qT-qqCUAAAAAAAAko5g.jpg?v=638889221726300000</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K32" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>24413</t>
+          <t>41130</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>24337</t>
+          <t>41057</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>CARIORTA</t>
+          <t>BOMBRIL</t>
         </is>
       </c>
       <c r="O32" t="n">
-        <v>2001012</v>
+        <v>2001389</v>
       </c>
       <c r="P32" t="n">
-        <v>99999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>la-de-aco-bombril-com-6-unidades-45g-1180320</t>
+          <t>detergente-para-loucas-biodegradavel-limpol-neutro-500-ml-100510</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Lã de Aço Bombril com 6 Unidades 45g</t>
+          <t>Detergente Para Louças Biodegradável Limpol Neutro 500ml</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1180320</t>
+          <t>100510</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Uso: Ideal para limpeza de panelas, utensílios de cozinha, superfícies metálicas e outras áreas que necessitam de uma limpeza mais intensa.Remove sujeiras difíceis, incluindo resíduos de alimentos queimados e ferrugem.</t>
+          <t>O Lava-Louças Limpol é eficiente no poder da limpeza, remoção da gordura e sujeiras e no combate aos maus odores indesejados da cozinha. Sua fórmula é dermatologicamente testada e contém glicerina, tornando-a mais suave para as mãos.</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>2.99</v>
+        <v>2.79</v>
       </c>
       <c r="F33" t="n">
-        <v>2.99</v>
+        <v>2.79</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>76</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-07-17T00:00:00Z</t>
+          <t>2020-10-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4216409/VF4qT-qqCUAAAAAAAAko5g.jpg?v=638889221726300000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3269221/12054_1.jpg?v=638386029717470000</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2787,21 +2787,21 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>41130</t>
+          <t>12054</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>41057</t>
+          <t>12081</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>BOMBRIL</t>
+          <t>LIMPOL</t>
         </is>
       </c>
       <c r="O33" t="n">
-        <v>2001389</v>
+        <v>2001413</v>
       </c>
       <c r="P33" t="n">
         <v>99999</v>
@@ -2810,43 +2810,43 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>oleo-de-soja-liza-900ml-127310</t>
+          <t>refrigerante-coca-cola-sem-acucar-pet-600-ml-429392</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Óleo De Soja Liza 900ml</t>
+          <t>Refrigerante Coca Cola Sem Açúcar Pet 600ml</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>127310</t>
+          <t>429392</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Óleo De Soja Liza 900ml</t>
+          <t>A Coca-Cola Sem Açúcar é um refrigerante que não contém calorias! Com certeza você já se perguntou: “Então, de onde vem aquele gostinho doce? ” A Coca-Cola Sem Açúcar é produzida especialmente com adoçantes para manter o delicioso sabor de Coca-Cola porém com 0% Açucar. Perfeita para matar sua sede a qualquer hora do dia!</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>8.59</v>
+        <v>5.69</v>
       </c>
       <c r="F34" t="n">
-        <v>8.59</v>
+        <v>5.69</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2020-09-15T00:00:00Z</t>
+          <t>2020-10-01T00:00:00Z</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3075849/VF4qT-qqCUAAAAAAAAIxqw.jpg?v=637877802666600000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4313186/VF4qT-qqCUAAAAAAAAn3Vg.jpg?v=638939337183900000</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2859,21 +2859,21 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>8816</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>8828</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>LIZA</t>
+          <t>COCA COLA</t>
         </is>
       </c>
       <c r="O34" t="n">
-        <v>2000067</v>
+        <v>2000027</v>
       </c>
       <c r="P34" t="n">
         <v>99999</v>
@@ -2882,43 +2882,43 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>refrigerante-coca-cola-sem-acucar-pet-600-ml-429392</t>
+          <t>espinafre-unidade-200948</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Refrigerante Coca Cola Sem Açúcar Pet 600ml</t>
+          <t>Espinafre Unidade</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>429392</t>
+          <t>200948</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>A Coca-Cola Sem Açúcar é um refrigerante que não contém calorias! Com certeza você já se perguntou: “Então, de onde vem aquele gostinho doce? ” A Coca-Cola Sem Açúcar é produzida especialmente com adoçantes para manter o delicioso sabor de Coca-Cola porém com 0% Açucar. Perfeita para matar sua sede a qualquer hora do dia!</t>
+          <t>O espinafre é uma hortaliça saborosa, rica em ferro e também é fonte de vitamina A e B2, além de fornecer cálcio, fósforo, potássio e magnésio, é indicado também para pessoas com anemia e desnutrição.Como conservar :Sob refrigeração, pode ser mantido por no máximo 5 dias. Antes de colocálo na geladeira, lave as folhas, escorra o excesso de água e coloqueo em sacos de plástico perfurados ou em vasilha de plástico.Como consumir :O espinafre também pode ser usado em saladas, sopas,suflês omeletes. É ótimo como recheio ou acompanhamento de massas como macarrão, quiche, tortas, pastéis e assados. [Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>5.69</v>
+        <v>2.49</v>
       </c>
       <c r="F35" t="n">
-        <v>5.69</v>
+        <v>3.39</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2020-10-01T00:00:00Z</t>
+          <t>2020-09-28T00:00:00Z</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4313186/VF4qT-qqCUAAAAAAAAn3Vg.jpg?v=638939337183900000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3076729/VF4qT-qqCUAAAAAAAAKBdQ.jpg?v=637877840409270000</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2931,21 +2931,21 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>8816</t>
+          <t>7464</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>8828</t>
+          <t>7483</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>COCA COLA</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O35" t="n">
-        <v>2000027</v>
+        <v>2000015</v>
       </c>
       <c r="P35" t="n">
         <v>99999</v>
@@ -2954,43 +2954,43 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>detergente-para-loucas-biodegradavel-limpol-neutro-500-ml-100510</t>
+          <t>sal-refinado-iodado-ita-1kg-117293</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Detergente Para Louças Biodegradável Limpol Neutro 500ml</t>
+          <t>Sal Refinado Iodado Ita 1kg</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>100510</t>
+          <t>117293</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>O Lava-Louças Limpol é eficiente no poder da limpeza, remoção da gordura e sujeiras e no combate aos maus odores indesejados da cozinha. Sua fórmula é dermatologicamente testada e contém glicerina, tornando-a mais suave para as mãos.</t>
+          <t>Sal Refinado Iodado Ita 1kg</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>2.79</v>
+        <v>3.65</v>
       </c>
       <c r="F36" t="n">
-        <v>2.79</v>
+        <v>3.65</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2020-10-06T00:00:00Z</t>
+          <t>2020-09-15T00:00:00Z</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3269221/12054_1.jpg?v=638386029717470000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3076051/VF4qT-qqCUAAAAAAAAKZcQ.jpg?v=637877811480070000</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -3003,21 +3003,21 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>12054</t>
+          <t>126</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>12081</t>
+          <t>131</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>LIMPOL</t>
+          <t>ITA</t>
         </is>
       </c>
       <c r="O36" t="n">
-        <v>2001413</v>
+        <v>2000066</v>
       </c>
       <c r="P36" t="n">
         <v>99999</v>
@@ -3026,43 +3026,43 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>espinafre-unidade-200948</t>
+          <t>oleo-de-soja-liza-900ml-127310</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Espinafre Unidade</t>
+          <t>Óleo De Soja Liza 900ml</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>200948</t>
+          <t>127310</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>O espinafre é uma hortaliça saborosa, rica em ferro e também é fonte de vitamina A e B2, além de fornecer cálcio, fósforo, potássio e magnésio, é indicado também para pessoas com anemia e desnutrição.Como conservar :Sob refrigeração, pode ser mantido por no máximo 5 dias. Antes de colocálo na geladeira, lave as folhas, escorra o excesso de água e coloqueo em sacos de plástico perfurados ou em vasilha de plástico.Como consumir :O espinafre também pode ser usado em saladas, sopas,suflês omeletes. É ótimo como recheio ou acompanhamento de massas como macarrão, quiche, tortas, pastéis e assados. [Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
+          <t>Óleo De Soja Liza 900ml</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>3.39</v>
+        <v>8.59</v>
       </c>
       <c r="F37" t="n">
-        <v>3.39</v>
+        <v>8.59</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>576</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2020-09-28T00:00:00Z</t>
+          <t>2020-09-15T00:00:00Z</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3076729/VF4qT-qqCUAAAAAAAAKBdQ.jpg?v=637877840409270000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3075849/VF4qT-qqCUAAAAAAAAIxqw.jpg?v=637877802666600000</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -3075,21 +3075,21 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>7464</t>
+          <t>127</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>7483</t>
+          <t>132</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>LIZA</t>
         </is>
       </c>
       <c r="O37" t="n">
-        <v>2000015</v>
+        <v>2000067</v>
       </c>
       <c r="P37" t="n">
         <v>99999</v>
@@ -3170,43 +3170,43 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>sal-refinado-iodado-ita-1kg-117293</t>
+          <t>coentro-unidade-200930</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Sal Refinado Iodado Ita 1kg</t>
+          <t>Coentro Unidade</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>117293</t>
+          <t>200930</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Sal Refinado Iodado Ita 1kg</t>
+          <t>Coentro Unidade</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>3.65</v>
+        <v>2.49</v>
       </c>
       <c r="F39" t="n">
-        <v>3.65</v>
+        <v>3.39</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2020-09-15T00:00:00Z</t>
+          <t>2020-09-28T00:00:00Z</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3076051/VF4qT-qqCUAAAAAAAAKZcQ.jpg?v=637877811480070000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3076728/VF4qT-qqCUAAAAAAAAGF4g.jpg?v=637877840364830000</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -3219,84 +3219,84 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>7408</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>7427</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>ITA</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O39" t="n">
-        <v>2000066</v>
+        <v>2000015</v>
       </c>
       <c r="P39" t="n">
-        <v>100</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>coentro-unidade-200930</t>
+          <t>pessego-nacional-500g-12408</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Coentro Unidade</t>
+          <t>Pêssego Nacional 600g</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>200930</t>
+          <t>12408</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Coentro Unidade</t>
+          <t>Pêssego Nacional 500g</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>3.39</v>
+        <v>8.99</v>
       </c>
       <c r="F40" t="n">
-        <v>3.39</v>
+        <v>9.99</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2020-09-28T00:00:00Z</t>
+          <t>2020-09-26T00:00:00Z</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3076728/VF4qT-qqCUAAAAAAAAGF4g.jpg?v=637877840364830000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3092387/VF4qT-qqCUAAAAAAAAFvOA.jpg?v=638151904193130000</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K40" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>7408</t>
+          <t>5122</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>7427</t>
+          <t>5138</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -3308,121 +3308,121 @@
         <v>2000015</v>
       </c>
       <c r="P40" t="n">
-        <v>99999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>pessego-nacional-500g-12408</t>
+          <t>biscoito-cream-cracker-piraque-pacote-184g-1105795</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Pêssego Nacional 600g</t>
+          <t>Biscoito Cream Cracker Piraquê Pacote 184g</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>12408</t>
+          <t>1105795</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Pêssego Nacional 500g</t>
+          <t>Biscoito Salgado Cream Cracker Piraquê Pacote 184g</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>9.99</v>
+        <v>3.99</v>
       </c>
       <c r="F41" t="n">
-        <v>9.99</v>
+        <v>5.99</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>31</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2020-09-26T00:00:00Z</t>
+          <t>2023-07-26T00:00:00Z</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3092387/VF4qT-qqCUAAAAAAAAFvOA.jpg?v=638151904193130000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3099416/VF4qT-qqCUAAAAAAAATd0w.jpg?v=638264204522930000</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K41" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>5122</t>
+          <t>33955</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>5138</t>
+          <t>33882</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>PIRAQUE</t>
         </is>
       </c>
       <c r="O41" t="n">
-        <v>2000015</v>
+        <v>2000017</v>
       </c>
       <c r="P41" t="n">
-        <v>100</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>biscoito-cream-cracker-piraque-pacote-184g-1105795</t>
+          <t>pao-de-queijo-forno-de-minas-tradicional--400-g-456110</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Biscoito Cream Cracker Piraquê Pacote 184g</t>
+          <t>Pão De Queijo Forno De Minas Tradicional 400g</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>1105795</t>
+          <t>456110</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Biscoito Salgado Cream Cracker Piraquê Pacote 184g</t>
+          <t>Pão De Queijo Forno De Minas Tradicional 400g</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>3.99</v>
+        <v>18.99</v>
       </c>
       <c r="F42" t="n">
-        <v>5.99</v>
+        <v>21.99</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>119</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2023-07-26T00:00:00Z</t>
+          <t>2020-10-20T00:00:00Z</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3099416/VF4qT-qqCUAAAAAAAATd0w.jpg?v=638264204522930000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3041185/VF4qT-qqCUAAAAAAAAHIag.jpg?v=637792557833470000</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -3435,21 +3435,21 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>33955</t>
+          <t>13544</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>33882</t>
+          <t>13564</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>PIRAQUE</t>
+          <t>FORNO MINAS</t>
         </is>
       </c>
       <c r="O42" t="n">
-        <v>2000017</v>
+        <v>2001500</v>
       </c>
       <c r="P42" t="n">
         <v>99999</v>
@@ -3458,43 +3458,43 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>pao-de-queijo-forno-de-minas-tradicional--400-g-456110</t>
+          <t>couve-manteiga-unidade-201235</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Pão De Queijo Forno De Minas Tradicional 400g</t>
+          <t>Couve Manteiga Unidade</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>456110</t>
+          <t>201235</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Pão De Queijo Forno De Minas Tradicional 400g</t>
+          <t>A couve é uma hortaliça muito rica em nutriente,cálcio, ferro e vitaminas A,C, K e B5.Como conservar:Em geladeira, inteira ou picada deve ser mantida em saco plástico fechado ou em vasilha de plástico tampada.Como consumir:Pode ser consumida crua, em saladas e sucos, refogada ou como ingrediente de sopas, farofas e cozidos.[ Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>18.99</v>
+        <v>2.49</v>
       </c>
       <c r="F43" t="n">
-        <v>21.99</v>
+        <v>3.39</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2020-10-20T00:00:00Z</t>
+          <t>2020-09-28T00:00:00Z</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3041185/VF4qT-qqCUAAAAAAAAHIag.jpg?v=637792557833470000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3083631/VF4qT-qqCUAAAAAAAAOZOA.jpg?v=637994955185970000</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -3507,93 +3507,93 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>13544</t>
+          <t>7445</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>13564</t>
+          <t>7464</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>FORNO MINAS</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O43" t="n">
-        <v>2001500</v>
+        <v>2000015</v>
       </c>
       <c r="P43" t="n">
-        <v>100</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>couve-manteiga-unidade-201235</t>
+          <t>alho-roxo-cariorta-4-a-5-unidades-250g-99279</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Couve Manteiga Unidade</t>
+          <t>Alho Roxo Cariorta 4 a 5 unidades 250g</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>201235</t>
+          <t>99279</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>A couve é uma hortaliça muito rica em nutriente,cálcio, ferro e vitaminas A,C, K e B5.Como conservar:Em geladeira, inteira ou picada deve ser mantida em saco plástico fechado ou em vasilha de plástico tampada.Como consumir:Pode ser consumida crua, em saladas e sucos, refogada ou como ingrediente de sopas, farofas e cozidos.[ Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
+          <t>Cariorta selecionados de coração.</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>3.39</v>
+        <v>59.99</v>
       </c>
       <c r="F44" t="n">
-        <v>3.39</v>
+        <v>59.99</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>480</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2020-09-28T00:00:00Z</t>
+          <t>2020-05-27T00:00:00Z</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3083631/VF4qT-qqCUAAAAAAAAOZOA.jpg?v=637994955185970000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3082698/VF4qT-qqCUAAAAAAAAOOtg.jpg?v=637980006345970000</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K44" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>7445</t>
+          <t>24684</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>7464</t>
+          <t>24608</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>CARIORTA</t>
         </is>
       </c>
       <c r="O44" t="n">
-        <v>2000015</v>
+        <v>2001012</v>
       </c>
       <c r="P44" t="n">
         <v>99999</v>
@@ -3602,70 +3602,70 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>creme-de-leite-piracanjuba-tetra-pak-200g-818640</t>
+          <t>cereja-chilena-300g-13463</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Creme de Leite Piracanjuba Tetra Pak 200g</t>
+          <t>Cereja Chilena 300g</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>818640</t>
+          <t>13463</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>O sabor é incomparável e com textura aveludada. O resultado não poderia ser melhor: receitas perfeitas e deliciosas. Você pode ter dúvida quanto à receita, mas o Creme de Leite é Piracanjuba. Modo de conservação: Mantenha em local seco e arejado. Antes do uso, não necessita de refrigeração. Após aberto, manter em geladeira (1°C - 10°C) e consumir em até 2 dias. Ingredientes: Creme de leite padronizado a 17% de gordura, leite em pó desnatado, estabilizantes celulose microcristalina e citrato de sódio e espessantes carboximetilcelulose sódica, goma xantana e carragena. Alergênicos: CONTÉM LEITE E DERIVADOS. CONTÉM LACTOSE. NÃO CONTÉM GLÚTEN. Porção de 15 g (1 colher e 1/2 de sopa) = 26 kcal</t>
+          <t>As cerejas chilenas vão deleitar seu paladar com seu doce e suculento sabor. Sua cor intensa, que varia do vermelho vibrante a tonalidades mais escuras, é um banquete para os olhos e o sinal dos inúmeros benefícios à saúde. Essa pequena fruta é uma fonte nutricional completa, com vitaminas essenciais como a C e a E, além de minerais como o ferro, potássio e magnésio. A cerejas podem ser consumidas frescas, no preparo de conservas, sobremesas e tortas e são classificadas por tamanho e nós só trazemos as mais graúdas especialmente para você!</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>4.99</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="F45" t="n">
-        <v>4.99</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2020-11-26T00:00:00Z</t>
+          <t>2020-09-26T00:00:00Z</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3296613/VF4qT-qqCUAAAAAAAAWc6A.jpg?v=638413165673100000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4434078/VF4qT-qqCUAAAAAAAAoONQ.jpg?v=639019170859200000</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K45" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>15104</t>
+          <t>5090</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>14992</t>
+          <t>5106</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>PIRACANJUBA</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O45" t="n">
-        <v>2002038</v>
+        <v>2000015</v>
       </c>
       <c r="P45" t="n">
         <v>99999</v>
@@ -3674,43 +3674,39 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>alho-roxo-cariorta-4-a-5-unidades-250g-99279</t>
+          <t>file-mignon-resfriado-sem-cordao-2-2kg-44822</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Alho Roxo Cariorta 4 a 5 unidades 250g</t>
+          <t>Filé Mignon Resfriado Sem Cordão 2,2kg</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>99279</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Cariorta selecionados de coração.</t>
-        </is>
-      </c>
+          <t>44822</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
       <c r="E46" t="n">
-        <v>59.99</v>
+        <v>79.98999999999999</v>
       </c>
       <c r="F46" t="n">
-        <v>59.99</v>
+        <v>99.98999999999999</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>124</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2020-05-27T00:00:00Z</t>
+          <t>2020-09-28T00:00:00Z</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3082698/VF4qT-qqCUAAAAAAAAOOtg.jpg?v=637980006345970000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4340142/VF4qT-qqCUAAAAAAAAJRsQ.jpg?v=638954025546430000</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -3719,25 +3715,25 @@
         </is>
       </c>
       <c r="K46" t="n">
-        <v>0.25</v>
+        <v>2.2</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>24684</t>
+          <t>7539</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>24608</t>
+          <t>7558</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>CARIORTA</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O46" t="n">
-        <v>2001012</v>
+        <v>2000015</v>
       </c>
       <c r="P46" t="n">
         <v>99999</v>
@@ -3746,39 +3742,39 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>file-mignon-resfriado-sem-cordao-2-2kg-44822</t>
+          <t>abobrinha-italiana-cariorta-1kg-98663</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Filé Mignon Resfriado Sem Cordão 2,2kg</t>
+          <t>Abobrinha Italiana Cariorta 1Kg</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>44822</t>
+          <t>98663</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="n">
-        <v>99.98999999999999</v>
+        <v>7.99</v>
       </c>
       <c r="F47" t="n">
-        <v>99.98999999999999</v>
+        <v>7.99</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>483</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2020-09-28T00:00:00Z</t>
+          <t>2020-12-16T00:00:00Z</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4340142/VF4qT-qqCUAAAAAAAAJRsQ.jpg?v=638954025546430000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3082667/VF4qT-qqCUAAAAAAAAOOdQ.jpg?v=637979987909700000</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -3787,25 +3783,25 @@
         </is>
       </c>
       <c r="K47" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>7539</t>
+          <t>16567</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>7558</t>
+          <t>16458</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>CARIORTA</t>
         </is>
       </c>
       <c r="O47" t="n">
-        <v>2000015</v>
+        <v>2001012</v>
       </c>
       <c r="P47" t="n">
         <v>99999</v>
@@ -3886,70 +3882,70 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>cereja-chilena-300g-13463</t>
+          <t>azeite-italiano-extra-virgem-due-500ml-5472040</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Cereja Chilena 300g</t>
+          <t>Azeite Italiano Extravirgem Due 500ml</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>13463</t>
+          <t>5472040</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>As cerejas chilenas vão deleitar seu paladar com seu doce e suculento sabor. Sua cor intensa, que varia do vermelho vibrante a tonalidades mais escuras, é um banquete para os olhos e o sinal dos inúmeros benefícios à saúde. Essa pequena fruta é uma fonte nutricional completa, com vitaminas essenciais como a C e a E, além de minerais como o ferro, potássio e magnésio. A cerejas podem ser consumidas frescas, no preparo de conservas, sobremesas e tortas e são classificadas por tamanho e nós só trazemos as mais graúdas especialmente para você!</t>
+          <t>O azeite Due é um blend de azeites do Mediterrâneo que confere um resultado clássico e ideal para o cotidiano da cozinha. Sua elaboração conta com uma seleção cautelosamente realizada pelo Expert em Azeites e Temperos Marcelo Scofano, que anualmente viaja à Toscana (Itália), onde o azeite é produzido, para cuidar de cada detalhe pessoalmente.Due é um azeite clássico, ideal para o dia a dia da cozinha: marinados, refogados, emulsão de molhos, finalização de saladas, massas e pratos do cotidiano. O azeite clássico é extraído de azeitonas maduras. Possui sabor amendoado, com notas amargas e picantes em equilíbrio.O azeite Due faz parte da grupo de marcas exclusivas Zona Sul, criada e pensada com carinho para os cariocas de coração. O planejamento de cada produto exclusivo conta com a participação dos Experts Zona Sul em todo o processo, até chegar na sua mesa. E com a linha Due não é diferente!</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>79.90000000000001</v>
+        <v>36.9</v>
       </c>
       <c r="F49" t="n">
-        <v>79.90000000000001</v>
+        <v>36.9</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>597</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2020-09-26T00:00:00Z</t>
+          <t>2025-05-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4434078/VF4qT-qqCUAAAAAAAAoONQ.jpg?v=639019170859200000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4116721/VF4qT-qqCUAAAAAAAAiyjQ.jpg?v=638846625781330000</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K49" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>5090</t>
+          <t>40224</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>5106</t>
+          <t>40151</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>DUE</t>
         </is>
       </c>
       <c r="O49" t="n">
-        <v>2000015</v>
+        <v>2005138</v>
       </c>
       <c r="P49" t="n">
         <v>99999</v>

--- a/zonasul.xlsx
+++ b/zonasul.xlsx
@@ -518,43 +518,43 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>matte-leao-limao-pet-1-5l-118222</t>
+          <t>papel-higienico-neve-folha-dupla-toque-de-seda-com-12-unidades-1153285</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Matte Leão Limão Pet 1,5L</t>
+          <t>Papel Higiênico Neve Folha Dupla Toque de Seda com 12 Unidades</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>118222</t>
+          <t>1153285</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>O Chá MATTE Limão Leão é um dos tipos de chás preferido dos consumidores. A marca Chá Mate Leão está presente no mercado há mais de 100 anos, sendo a marca de chá mais vendida e tradicional. Produzido com extrato aquoso de mate, açúcar e suco de limão, o Chá MATTE LEÃO Limão é a opção ideal para refrescar o seu dia! Compre e compartilhe com amigos e familiares!</t>
+          <t>O Papel Higiênico Folha Dupla Neve é a opção ideal para quem busca conforto e praticidade no dia a dia. Com folhas macias que proporcionam uma limpeza suave e eficiente, ele traz muito mais conforto e bem-estar. Além disso, seu formato em rolos com 20 metros de comprimento garante longa duração, evitando o desperdício. Cada pacote contém 12 rolos, o que permite estoque para uso contínuo. Produzido com matéria-prima de alta qualidade, o Papel Higiênico Folha Dupla Neve dissolve facilmente na água, o que evita entupimentos e garante higiene. É uma ótima pedida para uso doméstico ou comercial.</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7.69</v>
+        <v>15.89</v>
       </c>
       <c r="F2" t="n">
-        <v>8.99</v>
+        <v>19.89</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>14</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2020-10-01T00:00:00Z</t>
+          <t>2024-10-16T00:00:00Z</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3704455/VF4qT-qqCUAAAAAAAAcePQ.jpg?v=638609291270100000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3798203/VF4qT-qqCUAAAAAAAAdSuw.jpg?v=638649029489970000</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -567,21 +567,21 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>8711</t>
+          <t>37914</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>8723</t>
+          <t>37841</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>LEAO</t>
+          <t>NEVE</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>2000010</v>
+        <v>2000291</v>
       </c>
       <c r="P2" t="n">
         <v>99999</v>
@@ -590,43 +590,43 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>rucula-unidade-201006</t>
+          <t>matte-leao-limao-pet-1-5l-118222</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rúcula Unidade</t>
+          <t>Matte Leão Limão Pet 1,5L</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>201006</t>
+          <t>118222</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A rúcula é uma hortaliça rica em sais minerais e vitaminas A e C, tem o sabor picante e cheiro agradável e acentuado. Como Conservar:A hortaliça pode ser mantida no máximo por um dia, desde que colocando em local fresco, com a parte de baixo em uma vasilha com água .Em Geladeira o produto deve ser condicionado em saco de plástico ou vasilha tampada.Como Consumir : A rúcula é tradicionalmente consumida crua em saladas, temperada com azeite, sal e limão. Também pode ser consumida como ingredientes de torta,quiche, lasanha, sanduíches e bolinhos. [ Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
+          <t>O Chá MATTE Limão Leão é um dos tipos de chás preferido dos consumidores. A marca Chá Mate Leão está presente no mercado há mais de 100 anos, sendo a marca de chá mais vendida e tradicional. Produzido com extrato aquoso de mate, açúcar e suco de limão, o Chá MATTE LEÃO Limão é a opção ideal para refrescar o seu dia! Compre e compartilhe com amigos e familiares!</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2.49</v>
+        <v>8.99</v>
       </c>
       <c r="F3" t="n">
-        <v>3.39</v>
+        <v>8.99</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2020-09-28T00:00:00Z</t>
+          <t>2020-10-01T00:00:00Z</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3040890/VF4qT-qqCUAAAAAAAAHLpQ.jpg?v=637792545082200000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3704455/VF4qT-qqCUAAAAAAAAcePQ.jpg?v=638609291270100000</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -639,21 +639,21 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>7467</t>
+          <t>8711</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>7486</t>
+          <t>8723</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>LEAO</t>
         </is>
       </c>
       <c r="O3" t="n">
-        <v>2000015</v>
+        <v>2000010</v>
       </c>
       <c r="P3" t="n">
         <v>99999</v>
@@ -662,43 +662,43 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>leite-uht-piracanjuba-integral-1l-865427</t>
+          <t>rucula-unidade-201006</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Leite Uht Piracanjuba Integral 1L</t>
+          <t>Rúcula Unidade</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>865427</t>
+          <t>201006</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>No café da manhã, em um delicioso lanche da tarde ou até mesmo antes de dormir, o Leite Piracanjuba cumpre bem o seu papel principal: trazer mais sabor para os seus momentos especiais e para as suas receitas. Mais sabor para todos os momentos.</t>
+          <t>A rúcula é uma hortaliça rica em sais minerais e vitaminas A e C, tem o sabor picante e cheiro agradável e acentuado. Como Conservar:A hortaliça pode ser mantida no máximo por um dia, desde que colocando em local fresco, com a parte de baixo em uma vasilha com água .Em Geladeira o produto deve ser condicionado em saco de plástico ou vasilha tampada.Como Consumir : A rúcula é tradicionalmente consumida crua em saladas, temperada com azeite, sal e limão. Também pode ser consumida como ingredientes de torta,quiche, lasanha, sanduíches e bolinhos. [ Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5.29</v>
+        <v>2.49</v>
       </c>
       <c r="F4" t="n">
-        <v>5.29</v>
+        <v>3.39</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2017-04-12T00:00:00Z</t>
+          <t>2020-09-28T00:00:00Z</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3294485/VF4qT-qqCUAAAAAAAAWbgQ.jpg?v=638412300289570000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3040890/VF4qT-qqCUAAAAAAAAHLpQ.jpg?v=637792545082200000</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -711,21 +711,21 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>23232</t>
+          <t>7467</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>23158</t>
+          <t>7486</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>PIRACANJUBA</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O4" t="n">
-        <v>2002038</v>
+        <v>2000015</v>
       </c>
       <c r="P4" t="n">
         <v>99999</v>
@@ -734,43 +734,43 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>papel-higienico-neve-folha-dupla-toque-de-seda-com-12-unidades-1153285</t>
+          <t>leite-uht-piracanjuba-integral-1l-865427</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Papel Higiênico Neve Folha Dupla Toque de Seda com 12 Unidades</t>
+          <t>Leite Uht Piracanjuba Integral 1L</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1153285</t>
+          <t>865427</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>O Papel Higiênico Folha Dupla Neve é a opção ideal para quem busca conforto e praticidade no dia a dia. Com folhas macias que proporcionam uma limpeza suave e eficiente, ele traz muito mais conforto e bem-estar. Além disso, seu formato em rolos com 20 metros de comprimento garante longa duração, evitando o desperdício. Cada pacote contém 12 rolos, o que permite estoque para uso contínuo. Produzido com matéria-prima de alta qualidade, o Papel Higiênico Folha Dupla Neve dissolve facilmente na água, o que evita entupimentos e garante higiene. É uma ótima pedida para uso doméstico ou comercial.</t>
+          <t>No café da manhã, em um delicioso lanche da tarde ou até mesmo antes de dormir, o Leite Piracanjuba cumpre bem o seu papel principal: trazer mais sabor para os seus momentos especiais e para as suas receitas. Mais sabor para todos os momentos.</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>15.89</v>
+        <v>5.29</v>
       </c>
       <c r="F5" t="n">
-        <v>19.89</v>
+        <v>5.29</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>130</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2024-10-16T00:00:00Z</t>
+          <t>2017-04-12T00:00:00Z</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3798203/VF4qT-qqCUAAAAAAAAdSuw.jpg?v=638649029489970000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3294485/VF4qT-qqCUAAAAAAAAWbgQ.jpg?v=638412300289570000</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -783,21 +783,21 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>37914</t>
+          <t>23232</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>37841</t>
+          <t>23158</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>NEVE</t>
+          <t>PIRACANJUBA</t>
         </is>
       </c>
       <c r="O5" t="n">
-        <v>2000291</v>
+        <v>2002038</v>
       </c>
       <c r="P5" t="n">
         <v>99999</v>
@@ -874,43 +874,43 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>alcool-montenegro-46-1-l-780570</t>
+          <t>uva-preta-sem-semente-500-g-674583</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Álcool Montenegro 46% 1 L</t>
+          <t>Uva Preta Sem Semente 500g</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>780570</t>
+          <t>674583</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Álcool Montenegro 46% 1 L</t>
+          <t>Eventualmente, devido à variações climáticas, essa variedade pode apresentar traços de sementes comestíveis As uvas são, sem dúvidas, uma das frutas mais nutritivas de todas. Apesar de seu tamanho relativamente pequeno, elas são extremamente poderosas nutricionalmente e consumilas é muito importante para o bom funcionamento do corpo.As calorias presentes nas uvas também são poucas: apenas 90 em cerca de 150g. Por isso, é uma ótima opção também para aqueles que estão em processo de redução da massa corporal, desde que consumida com cautela.Rica em antioxidantes que são responsáveis por ‘’limpar’’ e proteger as nossas células dos chamados radicais livres, compostos potencialmente perigosos que podem danificar essas estruturas.Os antioxidantes estão mais comumente presentes na casca da fruta, o que é indicado pela coloração delas. Quanto mais escuras, maior é a concentração desses compostos na uva. Os principais exemplos são os polifenois, e o mais famoso deles chamase resveratrol.</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>7.99</v>
+        <v>7.89</v>
       </c>
       <c r="F7" t="n">
-        <v>8.789999999999999</v>
+        <v>11.99</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2020-10-06T10:47:00Z</t>
+          <t>2020-09-26T00:00:00Z</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3051579/VF4qT-qqCUAAAAAAAAG3pQ.jpg?v=637793390624870000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3047035/VF4qT-qqCUAAAAAAAAGXCQ.jpg?v=637793205627670000</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -923,21 +923,21 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>11598</t>
+          <t>5264</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>11621</t>
+          <t>5280</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>MONTENEGRO</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O7" t="n">
-        <v>2000527</v>
+        <v>2000015</v>
       </c>
       <c r="P7" t="n">
         <v>99999</v>
@@ -1018,43 +1018,43 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>uva-preta-sem-semente-500-g-674583</t>
+          <t>alcool-montenegro-46-1-l-780570</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Uva Preta Sem Semente 500g</t>
+          <t>Álcool Montenegro 46% 1 L</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>674583</t>
+          <t>780570</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Eventualmente, devido à variações climáticas, essa variedade pode apresentar traços de sementes comestíveis As uvas são, sem dúvidas, uma das frutas mais nutritivas de todas. Apesar de seu tamanho relativamente pequeno, elas são extremamente poderosas nutricionalmente e consumilas é muito importante para o bom funcionamento do corpo.As calorias presentes nas uvas também são poucas: apenas 90 em cerca de 150g. Por isso, é uma ótima opção também para aqueles que estão em processo de redução da massa corporal, desde que consumida com cautela.Rica em antioxidantes que são responsáveis por ‘’limpar’’ e proteger as nossas células dos chamados radicais livres, compostos potencialmente perigosos que podem danificar essas estruturas.Os antioxidantes estão mais comumente presentes na casca da fruta, o que é indicado pela coloração delas. Quanto mais escuras, maior é a concentração desses compostos na uva. Os principais exemplos são os polifenois, e o mais famoso deles chamase resveratrol.</t>
+          <t>Álcool Montenegro 46% 1 L</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>7.89</v>
+        <v>7.99</v>
       </c>
       <c r="F9" t="n">
-        <v>11.99</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>74</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2020-09-26T00:00:00Z</t>
+          <t>2020-10-06T10:47:00Z</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3047035/VF4qT-qqCUAAAAAAAAGXCQ.jpg?v=637793205627670000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3051579/VF4qT-qqCUAAAAAAAAG3pQ.jpg?v=637793390624870000</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1067,21 +1067,21 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>5264</t>
+          <t>11598</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>5280</t>
+          <t>11621</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>MONTENEGRO</t>
         </is>
       </c>
       <c r="O9" t="n">
-        <v>2000015</v>
+        <v>2000527</v>
       </c>
       <c r="P9" t="n">
         <v>99999</v>
@@ -1090,43 +1090,43 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>agua-mineral-com-gas-sao-lourenco-pet-1-26-l-140805</t>
+          <t>tomate-italiano-unidade-495212</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Água Mineral Com Gás São Lourenço Pet 1,26 L</t>
+          <t>Tomate Italiano Unidade</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>140805</t>
+          <t>495212</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Água Mineral Com Gás São Lourenço Pet 1,26 L</t>
+          <t>Tomate Italiano Unidade</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5.29</v>
+        <v>0.84</v>
       </c>
       <c r="F10" t="n">
-        <v>5.29</v>
+        <v>1.53</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>53</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2020-09-25T00:00:00Z</t>
+          <t>2020-09-27T00:00:00Z</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3076277/VF4qT-qqCUAAAAAAAAHMBQ.jpg?v=637877821166370000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3094266/VF4qT-qqCUAAAAAAAASLmg.jpg?v=638191532599970000</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1139,21 +1139,21 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>3915</t>
+          <t>6965</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>3929</t>
+          <t>6983</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>SAO LOURENCO</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O10" t="n">
-        <v>2000145</v>
+        <v>2000015</v>
       </c>
       <c r="P10" t="n">
         <v>99999</v>
@@ -1162,43 +1162,43 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>tomate-italiano-unidade-495212</t>
+          <t>cheiro-verde-unidade-201049</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Tomate Italiano Unidade</t>
+          <t>Cheiro Verde Unidade</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>495212</t>
+          <t>201049</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Tomate Italiano Unidade</t>
+          <t>O cheiro verde é a combinação da cebolinha e salsinha .Como conservar:Em geladeira por até 5 dias em saco ou vasilha de plástico.Como consumir:Podem ser adicionadas cruas, em saladas e recheios de sanduíches e como ingredientes em marinadas.</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.84</v>
+        <v>2.49</v>
       </c>
       <c r="F11" t="n">
-        <v>1.53</v>
+        <v>3.39</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2020-09-27T00:00:00Z</t>
+          <t>2020-09-28T00:00:00Z</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3094266/VF4qT-qqCUAAAAAAAASLmg.jpg?v=638191532599970000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3457712/VF4qT-qqCUAAAAAAAAXvTg.jpg?v=638507335658200000</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1211,12 +1211,12 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>6965</t>
+          <t>7411</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>6983</t>
+          <t>7430</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1234,43 +1234,43 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>cheiro-verde-unidade-201049</t>
+          <t>agua-mineral-com-gas-sao-lourenco-pet-1-26-l-140805</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Cheiro Verde Unidade</t>
+          <t>Água Mineral Com Gás São Lourenço Pet 1,26 L</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>201049</t>
+          <t>140805</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>O cheiro verde é a combinação da cebolinha e salsinha .Como conservar:Em geladeira por até 5 dias em saco ou vasilha de plástico.Como consumir:Podem ser adicionadas cruas, em saladas e recheios de sanduíches e como ingredientes em marinadas.</t>
+          <t>Água Mineral Com Gás São Lourenço Pet 1,26 L</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2.49</v>
+        <v>5.29</v>
       </c>
       <c r="F12" t="n">
-        <v>3.39</v>
+        <v>5.29</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>18</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2020-09-28T00:00:00Z</t>
+          <t>2020-09-25T00:00:00Z</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3457712/VF4qT-qqCUAAAAAAAAXvTg.jpg?v=638507335658200000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3076277/VF4qT-qqCUAAAAAAAAHMBQ.jpg?v=637877821166370000</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1283,21 +1283,21 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>7411</t>
+          <t>3915</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>7430</t>
+          <t>3929</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>SAO LOURENCO</t>
         </is>
       </c>
       <c r="O12" t="n">
-        <v>2000015</v>
+        <v>2000145</v>
       </c>
       <c r="P12" t="n">
         <v>99999</v>
@@ -1306,43 +1306,43 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>guardanapo-folha-dupla-scott-grand-hotel-238cm×218cm-50-unidades-129879</t>
+          <t>ovos-vermelhos-mantiqueira-happy-eggs-com-10-unidades-5106753</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Guardanapo Folha Dupla Scott Grand Hotel 23,8cm×21,8cm 50 Unidades</t>
+          <t>Ovos Vermelhos Mantiqueira Happy Eggs com 10 Unidades</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>129879</t>
+          <t>5106753</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Guardanapo Folha Dupla Scott Grand Hotel 23,8cm×21,8cm 50 Unidades</t>
+          <t>Produzidos por galinhas criadas livres de gaiolas. Garantia de Bem-Estar Animal. Ovos Vermelhos Tipo Grande Categoria A. Embalagem com 10 unidades.</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6.19</v>
+        <v>7.95</v>
       </c>
       <c r="F13" t="n">
-        <v>6.19</v>
+        <v>11.99</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2020-10-05T00:00:00Z</t>
+          <t>2021-01-11T00:00:00Z</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3239421/VF4qT-qqCUAAAAAAAAVSfw.jpg?v=638362188224230000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4222023/VF4qT-qqCUAAAAAAAAStHA.jpg?v=638894405636230000</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1355,21 +1355,21 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>9426</t>
+          <t>18105</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>9438</t>
+          <t>17997</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>GRANDE HOTEL</t>
+          <t>HAPPY EGGS</t>
         </is>
       </c>
       <c r="O13" t="n">
-        <v>2001400</v>
+        <v>2003319</v>
       </c>
       <c r="P13" t="n">
         <v>99999</v>
@@ -1378,43 +1378,43 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>cafe-torrado-e-moido-pilao-tradicional-500g-828025</t>
+          <t>guardanapo-folha-dupla-scott-grand-hotel-238cm×218cm-50-unidades-129879</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Café Torrado E Moído Pilão Tradicional Fresh Pack 500g</t>
+          <t>Guardanapo Folha Dupla Scott Grand Hotel 23,8cm×21,8cm 50 Unidades</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>828025</t>
+          <t>129879</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Tem um ponto de torra acentuado e um processo de moagem fina e uniforme, que garantem e preservam seu sabor forte e encorpado.É perfeito para servir em dia de casa cheia, pois seu sabor tradicional agrada a todo mundo.</t>
+          <t>Guardanapo Folha Dupla Scott Grand Hotel 23,8cm×21,8cm 50 Unidades</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>32.98</v>
+        <v>6.19</v>
       </c>
       <c r="F14" t="n">
-        <v>43.9</v>
+        <v>6.19</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>111</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2020-09-15T00:00:00Z</t>
+          <t>2020-10-05T00:00:00Z</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3051146/VF4qT-qqCUAAAAAAAAG1sQ.jpg?v=637793369863530000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3239421/VF4qT-qqCUAAAAAAAAVSfw.jpg?v=638362188224230000</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1427,21 +1427,21 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>9426</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>9438</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>PILAO</t>
+          <t>GRANDE HOTEL</t>
         </is>
       </c>
       <c r="O14" t="n">
-        <v>2000070</v>
+        <v>2001400</v>
       </c>
       <c r="P14" t="n">
         <v>99999</v>
@@ -1450,43 +1450,43 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ovos-vermelhos-mantiqueira-happy-eggs-com-10-unidades-5106753</t>
+          <t>cafe-torrado-e-moido-pilao-tradicional-500g-828025</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Ovos Vermelhos Mantiqueira Happy Eggs com 10 Unidades</t>
+          <t>Café Torrado E Moído Pilão Tradicional Fresh Pack 500g</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>5106753</t>
+          <t>828025</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Produzidos por galinhas criadas livres de gaiolas. Garantia de Bem-Estar Animal. Ovos Vermelhos Tipo Grande Categoria A. Embalagem com 10 unidades.</t>
+          <t>Tem um ponto de torra acentuado e um processo de moagem fina e uniforme, que garantem e preservam seu sabor forte e encorpado.É perfeito para servir em dia de casa cheia, pois seu sabor tradicional agrada a todo mundo.</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>7.95</v>
+        <v>43.9</v>
       </c>
       <c r="F15" t="n">
-        <v>11.99</v>
+        <v>43.9</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>59</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2021-01-11T00:00:00Z</t>
+          <t>2020-09-15T00:00:00Z</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4222023/VF4qT-qqCUAAAAAAAAStHA.jpg?v=638894405636230000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3051146/VF4qT-qqCUAAAAAAAAG1sQ.jpg?v=637793369863530000</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1499,21 +1499,21 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>18105</t>
+          <t>130</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>17997</t>
+          <t>135</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>HAPPY EGGS</t>
+          <t>PILAO</t>
         </is>
       </c>
       <c r="O15" t="n">
-        <v>2003319</v>
+        <v>2000070</v>
       </c>
       <c r="P15" t="n">
         <v>99999</v>
@@ -1613,7 +1613,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5.39</v>
+        <v>4.79</v>
       </c>
       <c r="F17" t="n">
         <v>5.39</v>
@@ -1666,43 +1666,43 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>pao-de-forma-plus-vita-tradicional-500-g-252921</t>
+          <t>abacaxi-unidade-221</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Pão de Forma Tradicional Plusvita 480g</t>
+          <t>Abacaxi Unidade</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>252921</t>
+          <t>221</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Versátil, prático e para qualquer momento, trazendo a energia necessária para o seu dia. Perfeito para sanduíches, torradas, receitas para o café da manhã, café da tarde, almoço e jantar</t>
+          <t>Peso Aproximado 1,61,8Kg / Unidade.O Abacaxi é rico em Vitaminas A, B5, B6, C, BetaCaroteno, Tiamina, Antioxidantes e Fibras, auxiliando na saciedade e regulação do peso. É uma Importante fonte de energia póstreino. Auxilia nos processos antiinflamatórios por conter Bromelina, enzima encontrada principalmente no talo da fruta. Como preparar: no seu estado natural cortado, em saladas, assado, grelhado, sucos, geleias, sorvetes e chás.</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>9.98</v>
+        <v>8.99</v>
       </c>
       <c r="F18" t="n">
-        <v>9.98</v>
+        <v>10.99</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2020-10-05T00:00:00Z</t>
+          <t>2020-09-26T00:00:00Z</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3663691/VF4qT-qqCUAAAAAAAAb-gA.jpg?v=638592874910030000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3041923/VF4qT-qqCUAAAAAAAAFtXw.jpg?v=637792593143530000</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1715,66 +1715,66 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>9715</t>
+          <t>4959</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>9727</t>
+          <t>4975</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>PLUS VITA</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O18" t="n">
-        <v>2000316</v>
+        <v>2000015</v>
       </c>
       <c r="P18" t="n">
-        <v>99999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>abacaxi-unidade-221</t>
+          <t>pao-de-forma-plus-vita-tradicional-500-g-252921</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Abacaxi Unidade</t>
+          <t>Pão de Forma Tradicional Plusvita 480g</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>252921</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Peso Aproximado 1,61,8Kg / Unidade.O Abacaxi é rico em Vitaminas A, B5, B6, C, BetaCaroteno, Tiamina, Antioxidantes e Fibras, auxiliando na saciedade e regulação do peso. É uma Importante fonte de energia póstreino. Auxilia nos processos antiinflamatórios por conter Bromelina, enzima encontrada principalmente no talo da fruta. Como preparar: no seu estado natural cortado, em saladas, assado, grelhado, sucos, geleias, sorvetes e chás.</t>
+          <t>Versátil, prático e para qualquer momento, trazendo a energia necessária para o seu dia. Perfeito para sanduíches, torradas, receitas para o café da manhã, café da tarde, almoço e jantar</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>8.99</v>
+        <v>9.98</v>
       </c>
       <c r="F19" t="n">
-        <v>10.99</v>
+        <v>9.98</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>183</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2020-09-26T00:00:00Z</t>
+          <t>2020-10-05T00:00:00Z</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3041923/VF4qT-qqCUAAAAAAAAFtXw.jpg?v=637792593143530000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3663691/VF4qT-qqCUAAAAAAAAb-gA.jpg?v=638592874910030000</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1787,24 +1787,24 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>4959</t>
+          <t>9715</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>4975</t>
+          <t>9727</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>PLUS VITA</t>
         </is>
       </c>
       <c r="O19" t="n">
-        <v>2000015</v>
+        <v>2000316</v>
       </c>
       <c r="P19" t="n">
-        <v>100</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="20">
@@ -1882,43 +1882,43 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>file-de-peito-de-frango-sadia-bandeja-1kg-290564</t>
+          <t>morango-250g-289612</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Filé de Peito de Frango Sadia Bandeja 1kg</t>
+          <t>Morango 250g</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>290564</t>
+          <t>289612</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Peito De Frango Em Filés Sadia Bandeja 1kg</t>
+          <t>Embalagem com 250g "O morango é rico em vitamina C e, por isso, o consumo da fruta evita a fragilidade dos ossos e a má formação dos dentes. Ele também dá resistência aos tecidos, age contra infecções ajudando na cicatrização. O morango também possui, em menor quantidade, vitamina B5, conhecida como niacina. Ela tem a função de evitar problemas de pele, do aparelho digestivo e do sistema nervoso. Na fruta, também é encontrado ferro, que faz parte da formação do sangue."</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>24.99</v>
+        <v>8.99</v>
       </c>
       <c r="F21" t="n">
-        <v>26.99</v>
+        <v>9.99</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2020-09-29T00:00:00Z</t>
+          <t>2020-09-26T00:00:00Z</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3538840/VF4qT-qqCUAAAAAAAAa5gg.jpg?v=638550537679130000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3226559/VF4qT-qqCUAAAAAAAAHKNA.jpg?v=638352676547800000</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1931,21 +1931,21 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5152</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5168</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>SADIA</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O21" t="n">
-        <v>2000057</v>
+        <v>2000015</v>
       </c>
       <c r="P21" t="n">
         <v>99999</v>
@@ -1973,7 +1973,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>5.99</v>
+        <v>7.99</v>
       </c>
       <c r="F22" t="n">
         <v>7.99</v>
@@ -2026,43 +2026,43 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>morango-250g-289612</t>
+          <t>file-de-peito-de-frango-sadia-bandeja-1kg-290564</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Morango 250g</t>
+          <t>Filé de Peito de Frango Sadia Bandeja 1kg</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>289612</t>
+          <t>290564</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Embalagem com 250g "O morango é rico em vitamina C e, por isso, o consumo da fruta evita a fragilidade dos ossos e a má formação dos dentes. Ele também dá resistência aos tecidos, age contra infecções ajudando na cicatrização. O morango também possui, em menor quantidade, vitamina B5, conhecida como niacina. Ela tem a função de evitar problemas de pele, do aparelho digestivo e do sistema nervoso. Na fruta, também é encontrado ferro, que faz parte da formação do sangue."</t>
+          <t>Peito De Frango Em Filés Sadia Bandeja 1kg</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>8.99</v>
+        <v>26.99</v>
       </c>
       <c r="F23" t="n">
-        <v>9.99</v>
+        <v>26.99</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>125</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2020-09-26T00:00:00Z</t>
+          <t>2020-09-29T00:00:00Z</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3226559/VF4qT-qqCUAAAAAAAAHKNA.jpg?v=638352676547800000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3538840/VF4qT-qqCUAAAAAAAAa5gg.jpg?v=638550537679130000</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -2075,21 +2075,21 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>5152</t>
+          <t>7</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>5168</t>
+          <t>7</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>SADIA</t>
         </is>
       </c>
       <c r="O23" t="n">
-        <v>2000015</v>
+        <v>2000057</v>
       </c>
       <c r="P23" t="n">
         <v>99999</v>
@@ -2098,66 +2098,70 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>pao-frances-panetto-60g-com-4-unidades-96318</t>
+          <t>detergente-para-loucas-odd-clear-500ml-982911</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Pão Francês Panetto  60g Com 4 unidades</t>
+          <t>Detergente Para Louças Odd Clear 500ml</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>96318</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
+          <t>982911</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>ODD voltou!Alto rendimento , controle de odor.</t>
+        </is>
+      </c>
       <c r="E24" t="n">
-        <v>23.98</v>
+        <v>1.9</v>
       </c>
       <c r="F24" t="n">
-        <v>23.98</v>
+        <v>2.49</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>76</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2024-01-31T00:00:00Z</t>
+          <t>2020-10-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3307700/VF4qT-qqCUAAAAAAAAWnXQ.jpg?v=638932898013670000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3056732/VF4qT-qqCUAAAAAAAAHzRQ.jpg?v=637793635376800000</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K24" t="n">
-        <v>0.24</v>
+        <v>1</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>35477</t>
+          <t>11872</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>35404</t>
+          <t>11898</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>PANETTO</t>
+          <t>LIMPPANO</t>
         </is>
       </c>
       <c r="O24" t="n">
-        <v>2000307</v>
+        <v>2001341</v>
       </c>
       <c r="P24" t="n">
         <v>99999</v>
@@ -2166,70 +2170,66 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>detergente-para-loucas-odd-clear-500ml-982911</t>
+          <t>pao-frances-panetto-60g-com-4-unidades-96318</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Detergente Para Louças Odd Clear 500ml</t>
+          <t>Pão Francês Panetto  60g Com 4 unidades</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>982911</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>ODD voltou!Alto rendimento , controle de odor.</t>
-        </is>
-      </c>
+          <t>96318</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="n">
-        <v>1.9</v>
+        <v>23.98</v>
       </c>
       <c r="F25" t="n">
-        <v>2.49</v>
+        <v>23.98</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>89</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2020-10-06T00:00:00Z</t>
+          <t>2024-01-31T00:00:00Z</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3056732/VF4qT-qqCUAAAAAAAAHzRQ.jpg?v=637793635376800000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3307700/VF4qT-qqCUAAAAAAAAWnXQ.jpg?v=638932898013670000</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K25" t="n">
-        <v>1</v>
+        <v>0.24</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>11872</t>
+          <t>35477</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>11898</t>
+          <t>35404</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>LIMPPANO</t>
+          <t>PANETTO</t>
         </is>
       </c>
       <c r="O25" t="n">
-        <v>2001341</v>
+        <v>2000307</v>
       </c>
       <c r="P25" t="n">
         <v>99999</v>
@@ -2238,39 +2238,43 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ovos-vermelhos-caipira-happy-eggs-com-20-unidades-370550</t>
+          <t>abobrinha-italiana-unidade-423513</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Ovos Vermelhos Caipira Happy Eggs Com 20 Unidades</t>
+          <t>Abobrinha Italiana Unidade</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>370550</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
+          <t>423513</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Abobrinha Italiana Unidade</t>
+        </is>
+      </c>
       <c r="E26" t="n">
-        <v>24.99</v>
+        <v>2.1</v>
       </c>
       <c r="F26" t="n">
-        <v>24.99</v>
+        <v>2.1</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>53</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2020-09-27T00:00:00Z</t>
+          <t>2020-12-07T00:00:00Z</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4343192/VF4qT-qqCUAAAAAAAAn9QA.jpg?v=638956617627730000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3095398/VF4qT-qqCUAAAAAAAASlGA.jpg?v=638211351178300000</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2283,21 +2287,21 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>6939</t>
+          <t>16065</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>6957</t>
+          <t>15956</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>HAPPY EGGS</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O26" t="n">
-        <v>2003319</v>
+        <v>2000015</v>
       </c>
       <c r="P26" t="n">
         <v>99999</v>
@@ -2306,43 +2310,39 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>abobrinha-italiana-unidade-423513</t>
+          <t>ovos-vermelhos-caipira-happy-eggs-com-20-unidades-370550</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Abobrinha Italiana Unidade</t>
+          <t>Ovos Vermelhos Caipira Happy Eggs Com 20 Unidades</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>423513</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Abobrinha Italiana Unidade</t>
-        </is>
-      </c>
+          <t>370550</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="n">
-        <v>2.1</v>
+        <v>24.99</v>
       </c>
       <c r="F27" t="n">
-        <v>2.1</v>
+        <v>24.99</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2020-12-07T00:00:00Z</t>
+          <t>2020-09-27T00:00:00Z</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3095398/VF4qT-qqCUAAAAAAAASlGA.jpg?v=638211351178300000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4343192/VF4qT-qqCUAAAAAAAAn9QA.jpg?v=638956617627730000</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -2355,21 +2355,21 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>16065</t>
+          <t>6939</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>15956</t>
+          <t>6957</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>HAPPY EGGS</t>
         </is>
       </c>
       <c r="O27" t="n">
-        <v>2000015</v>
+        <v>2003319</v>
       </c>
       <c r="P27" t="n">
         <v>99999</v>
@@ -2450,70 +2450,70 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>saponaceo-cremoso-cif-gratis-20-450-ml-839264</t>
+          <t>abobora-japonesa-pedaco-500g-38229</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Saponáceo Cremoso Cif Grátis 20% 450ml</t>
+          <t>Abóbora Japonesa Pedaço 500g</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>839264</t>
+          <t>38229</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>• Multiuso Cremoso • 1 gota remove 100% da sujeira difícil • Limpa sem riscar com micropartículas de origem natural • Poderoso na limpeza, imbatível no cuidado • Use também em couro sintético, plástico, porcelana e borracha • Para toda casa CIF Multiuso Cremoso Original, possui uma fórmula exclusiva que limpa profundamente, removendo 100% da sujeira difícil, com apenas 1 gota. O limpador CIF Cremoso é mais concentrado e por isso pode render até 7 garrafas * dos limpadores comuns encontrados no mercado. Com sua tecnologia, o limpador de casa CIF Multiuso Cremoso Original é poderoso na limpeza e imbatível no cuidado. Sua formula com micropartículas de origem natural limpam, sem riscar, removendo toda a sujeira desde a mais pesada até a manutenção do dia a dia, deixando um brilho imbatível. Limpe toda sua casa usando o limpador multiuso CIF Multiuso Cremoso, que limpa mais de 100 objetos **, como fogão, micro-ondas, chinelos, panelas, geladeira, potes plásticos, pias, torneiras, sofá, máquina de lavar, brinquedos das crianças, persianas, utensílios de churrasco, talheres, ventilador e até ajuda a deixar aquele cabo de carregador de celular como novo! CIF é muito mais do que uma linha de produtos de limpeza, CIF é cuidado com a sua casa. A família de multiuso CIF Cremoso possui uma variedade de fragrâncias, sendo elas: Original, Laranja e Limão, todas super refrescantes e se adaptam ao seu estilo e à sua casa. CIF Multiuso Cremoso é um grande aliado na limpeza de casa, para mantê-la sempre limpa, bonita e bem cuidada, do jeito que você e sua família merecem. CIF é poderoso na limpeza e imbatível no cuidado pois sabemos que cada cantinho da sua casa merece limpeza e cuidado.</t>
+          <t>Embalagem com 1 pedaço.</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>9.99</v>
+        <v>4.99</v>
       </c>
       <c r="F29" t="n">
-        <v>14.99</v>
+        <v>4.99</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>53</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2020-10-06T00:00:00Z</t>
+          <t>2020-09-26T00:00:00Z</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3077844/839264_17.jpg?v=637895340530470000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3096862/VF4qT-qqCUAAAAAAAAS9Tw.jpg?v=638235593168230000</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K29" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>12274</t>
+          <t>5593</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>12301</t>
+          <t>5609</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>CIF</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O29" t="n">
-        <v>2000541</v>
+        <v>2000015</v>
       </c>
       <c r="P29" t="n">
         <v>99999</v>
@@ -2522,33 +2522,33 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>abobora-japonesa-pedaco-500g-38229</t>
+          <t>cebola-roxa-400g-38393</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Abóbora Japonesa Pedaço 500g</t>
+          <t>Cebola Roxa 400g</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>38229</t>
+          <t>38393</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Embalagem com 1 pedaço.</t>
+          <t>Embalagem com 2 a 3 unidades. Melhor para comer cru; Use : no guacamole, em conserva, na salada, no sanduíche.</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>4.99</v>
+        <v>7.69</v>
       </c>
       <c r="F30" t="n">
-        <v>4.99</v>
+        <v>7.69</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -2558,7 +2558,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3096862/VF4qT-qqCUAAAAAAAAS9Tw.jpg?v=638235593168230000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3081506/VF4qT-qqCUAAAAAAAAOBng.jpg?v=637947101712670000</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -2567,16 +2567,16 @@
         </is>
       </c>
       <c r="K30" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>5593</t>
+          <t>5543</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>5609</t>
+          <t>5559</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -2588,76 +2588,76 @@
         <v>2000015</v>
       </c>
       <c r="P30" t="n">
-        <v>99999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>mamao-papaia-cariorta-12kg-99007</t>
+          <t>saponaceo-cremoso-cif-gratis-20-450-ml-839264</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Mamão Papaia Cariorta 1,2kg</t>
+          <t>Saponáceo Cremoso Cif Grátis 20% 450ml</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>99007</t>
+          <t>839264</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Cariorta selecionados de coração.</t>
+          <t>• Multiuso Cremoso • 1 gota remove 100% da sujeira difícil • Limpa sem riscar com micropartículas de origem natural • Poderoso na limpeza, imbatível no cuidado • Use também em couro sintético, plástico, porcelana e borracha • Para toda casa CIF Multiuso Cremoso Original, possui uma fórmula exclusiva que limpa profundamente, removendo 100% da sujeira difícil, com apenas 1 gota. O limpador CIF Cremoso é mais concentrado e por isso pode render até 7 garrafas * dos limpadores comuns encontrados no mercado. Com sua tecnologia, o limpador de casa CIF Multiuso Cremoso Original é poderoso na limpeza e imbatível no cuidado. Sua formula com micropartículas de origem natural limpam, sem riscar, removendo toda a sujeira desde a mais pesada até a manutenção do dia a dia, deixando um brilho imbatível. Limpe toda sua casa usando o limpador multiuso CIF Multiuso Cremoso, que limpa mais de 100 objetos **, como fogão, micro-ondas, chinelos, panelas, geladeira, potes plásticos, pias, torneiras, sofá, máquina de lavar, brinquedos das crianças, persianas, utensílios de churrasco, talheres, ventilador e até ajuda a deixar aquele cabo de carregador de celular como novo! CIF é muito mais do que uma linha de produtos de limpeza, CIF é cuidado com a sua casa. A família de multiuso CIF Cremoso possui uma variedade de fragrâncias, sendo elas: Original, Laranja e Limão, todas super refrescantes e se adaptam ao seu estilo e à sua casa. CIF Multiuso Cremoso é um grande aliado na limpeza de casa, para mantê-la sempre limpa, bonita e bem cuidada, do jeito que você e sua família merecem. CIF é poderoso na limpeza e imbatível no cuidado pois sabemos que cada cantinho da sua casa merece limpeza e cuidado.</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>15.99</v>
+        <v>14.99</v>
       </c>
       <c r="F31" t="n">
-        <v>15.99</v>
+        <v>14.99</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>74</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2020-05-20T00:00:00Z</t>
+          <t>2020-10-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3082688/VF4qT-qqCUAAAAAAAAOOog.jpg?v=637980006057500000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3077844/839264_17.jpg?v=637895340530470000</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K31" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>24413</t>
+          <t>12274</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>24337</t>
+          <t>12301</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>CARIORTA</t>
+          <t>CIF</t>
         </is>
       </c>
       <c r="O31" t="n">
-        <v>2001012</v>
+        <v>2000541</v>
       </c>
       <c r="P31" t="n">
         <v>99999</v>
@@ -2666,115 +2666,115 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>la-de-aco-bombril-com-6-unidades-45g-1180320</t>
+          <t>mamao-papaia-cariorta-12kg-99007</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Lã de Aço Bombril com 6 Unidades 45g</t>
+          <t>Mamão Papaia Cariorta 1,2kg</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1180320</t>
+          <t>99007</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Uso: Ideal para limpeza de panelas, utensílios de cozinha, superfícies metálicas e outras áreas que necessitam de uma limpeza mais intensa.Remove sujeiras difíceis, incluindo resíduos de alimentos queimados e ferrugem.</t>
+          <t>Cariorta selecionados de coração.</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>2.09</v>
+        <v>15.99</v>
       </c>
       <c r="F32" t="n">
-        <v>2.99</v>
+        <v>15.99</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>482</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-07-17T00:00:00Z</t>
+          <t>2020-05-20T00:00:00Z</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4216409/VF4qT-qqCUAAAAAAAAko5g.jpg?v=638889221726300000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3082688/VF4qT-qqCUAAAAAAAAOOog.jpg?v=637980006057500000</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K32" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>41130</t>
+          <t>24413</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>41057</t>
+          <t>24337</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>BOMBRIL</t>
+          <t>CARIORTA</t>
         </is>
       </c>
       <c r="O32" t="n">
-        <v>2001389</v>
+        <v>2001012</v>
       </c>
       <c r="P32" t="n">
-        <v>100</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>detergente-para-loucas-biodegradavel-limpol-neutro-500-ml-100510</t>
+          <t>espinafre-unidade-200948</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Detergente Para Louças Biodegradável Limpol Neutro 500ml</t>
+          <t>Espinafre Unidade</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>100510</t>
+          <t>200948</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>O Lava-Louças Limpol é eficiente no poder da limpeza, remoção da gordura e sujeiras e no combate aos maus odores indesejados da cozinha. Sua fórmula é dermatologicamente testada e contém glicerina, tornando-a mais suave para as mãos.</t>
+          <t>O espinafre é uma hortaliça saborosa, rica em ferro e também é fonte de vitamina A e B2, além de fornecer cálcio, fósforo, potássio e magnésio, é indicado também para pessoas com anemia e desnutrição.Como conservar :Sob refrigeração, pode ser mantido por no máximo 5 dias. Antes de colocálo na geladeira, lave as folhas, escorra o excesso de água e coloqueo em sacos de plástico perfurados ou em vasilha de plástico.Como consumir :O espinafre também pode ser usado em saladas, sopas,suflês omeletes. É ótimo como recheio ou acompanhamento de massas como macarrão, quiche, tortas, pastéis e assados. [Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>2.79</v>
+        <v>2.49</v>
       </c>
       <c r="F33" t="n">
-        <v>2.79</v>
+        <v>3.39</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2020-10-06T00:00:00Z</t>
+          <t>2020-09-28T00:00:00Z</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3269221/12054_1.jpg?v=638386029717470000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3076729/VF4qT-qqCUAAAAAAAAKBdQ.jpg?v=637877840409270000</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2787,21 +2787,21 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>12054</t>
+          <t>7464</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>12081</t>
+          <t>7483</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>LIMPOL</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O33" t="n">
-        <v>2001413</v>
+        <v>2000015</v>
       </c>
       <c r="P33" t="n">
         <v>99999</v>
@@ -2810,43 +2810,43 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>refrigerante-coca-cola-sem-acucar-pet-600-ml-429392</t>
+          <t>detergente-para-loucas-biodegradavel-limpol-neutro-500-ml-100510</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Refrigerante Coca Cola Sem Açúcar Pet 600ml</t>
+          <t>Detergente Para Louças Biodegradável Limpol Neutro 500ml</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>429392</t>
+          <t>100510</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>A Coca-Cola Sem Açúcar é um refrigerante que não contém calorias! Com certeza você já se perguntou: “Então, de onde vem aquele gostinho doce? ” A Coca-Cola Sem Açúcar é produzida especialmente com adoçantes para manter o delicioso sabor de Coca-Cola porém com 0% Açucar. Perfeita para matar sua sede a qualquer hora do dia!</t>
+          <t>O Lava-Louças Limpol é eficiente no poder da limpeza, remoção da gordura e sujeiras e no combate aos maus odores indesejados da cozinha. Sua fórmula é dermatologicamente testada e contém glicerina, tornando-a mais suave para as mãos.</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>5.69</v>
+        <v>2.79</v>
       </c>
       <c r="F34" t="n">
-        <v>5.69</v>
+        <v>2.79</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>76</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2020-10-01T00:00:00Z</t>
+          <t>2020-10-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4313186/VF4qT-qqCUAAAAAAAAn3Vg.jpg?v=638939337183900000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3269221/12054_1.jpg?v=638386029717470000</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2859,21 +2859,21 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>8816</t>
+          <t>12054</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>8828</t>
+          <t>12081</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>COCA COLA</t>
+          <t>LIMPOL</t>
         </is>
       </c>
       <c r="O34" t="n">
-        <v>2000027</v>
+        <v>2001413</v>
       </c>
       <c r="P34" t="n">
         <v>99999</v>
@@ -2882,43 +2882,43 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>espinafre-unidade-200948</t>
+          <t>refrigerante-coca-cola-sem-acucar-pet-600-ml-429392</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Espinafre Unidade</t>
+          <t>Refrigerante Coca Cola Sem Açúcar Pet 600ml</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>200948</t>
+          <t>429392</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>O espinafre é uma hortaliça saborosa, rica em ferro e também é fonte de vitamina A e B2, além de fornecer cálcio, fósforo, potássio e magnésio, é indicado também para pessoas com anemia e desnutrição.Como conservar :Sob refrigeração, pode ser mantido por no máximo 5 dias. Antes de colocálo na geladeira, lave as folhas, escorra o excesso de água e coloqueo em sacos de plástico perfurados ou em vasilha de plástico.Como consumir :O espinafre também pode ser usado em saladas, sopas,suflês omeletes. É ótimo como recheio ou acompanhamento de massas como macarrão, quiche, tortas, pastéis e assados. [Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
+          <t>A Coca-Cola Sem Açúcar é um refrigerante que não contém calorias! Com certeza você já se perguntou: “Então, de onde vem aquele gostinho doce? ” A Coca-Cola Sem Açúcar é produzida especialmente com adoçantes para manter o delicioso sabor de Coca-Cola porém com 0% Açucar. Perfeita para matar sua sede a qualquer hora do dia!</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>2.49</v>
+        <v>5.69</v>
       </c>
       <c r="F35" t="n">
-        <v>3.39</v>
+        <v>5.69</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2020-09-28T00:00:00Z</t>
+          <t>2020-10-01T00:00:00Z</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3076729/VF4qT-qqCUAAAAAAAAKBdQ.jpg?v=637877840409270000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4313186/VF4qT-qqCUAAAAAAAAn3Vg.jpg?v=638939337183900000</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2931,21 +2931,21 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>7464</t>
+          <t>8816</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>7483</t>
+          <t>8828</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>COCA COLA</t>
         </is>
       </c>
       <c r="O35" t="n">
-        <v>2000015</v>
+        <v>2000027</v>
       </c>
       <c r="P35" t="n">
         <v>99999</v>
@@ -2954,43 +2954,43 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>sal-refinado-iodado-ita-1kg-117293</t>
+          <t>coentro-unidade-200930</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Sal Refinado Iodado Ita 1kg</t>
+          <t>Coentro Unidade</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>117293</t>
+          <t>200930</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Sal Refinado Iodado Ita 1kg</t>
+          <t>Coentro Unidade</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>3.65</v>
+        <v>2.49</v>
       </c>
       <c r="F36" t="n">
-        <v>3.65</v>
+        <v>3.39</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2020-09-15T00:00:00Z</t>
+          <t>2020-09-28T00:00:00Z</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3076051/VF4qT-qqCUAAAAAAAAKZcQ.jpg?v=637877811480070000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3076728/VF4qT-qqCUAAAAAAAAGF4g.jpg?v=637877840364830000</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -3003,21 +3003,21 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>7408</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>7427</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>ITA</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O36" t="n">
-        <v>2000066</v>
+        <v>2000015</v>
       </c>
       <c r="P36" t="n">
         <v>99999</v>
@@ -3026,33 +3026,33 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>oleo-de-soja-liza-900ml-127310</t>
+          <t>sal-refinado-iodado-ita-1kg-117293</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Óleo De Soja Liza 900ml</t>
+          <t>Sal Refinado Iodado Ita 1kg</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>127310</t>
+          <t>117293</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Óleo De Soja Liza 900ml</t>
+          <t>Sal Refinado Iodado Ita 1kg</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>8.59</v>
+        <v>3.65</v>
       </c>
       <c r="F37" t="n">
-        <v>8.59</v>
+        <v>3.65</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -3062,7 +3062,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3075849/VF4qT-qqCUAAAAAAAAIxqw.jpg?v=637877802666600000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3076051/VF4qT-qqCUAAAAAAAAKZcQ.jpg?v=637877811480070000</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -3075,24 +3075,24 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>126</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>131</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>LIZA</t>
+          <t>ITA</t>
         </is>
       </c>
       <c r="O37" t="n">
-        <v>2000067</v>
+        <v>2000066</v>
       </c>
       <c r="P37" t="n">
-        <v>99999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38">
@@ -3170,43 +3170,43 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>coentro-unidade-200930</t>
+          <t>oleo-de-soja-liza-900ml-127310</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Coentro Unidade</t>
+          <t>Óleo De Soja Liza 900ml</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>200930</t>
+          <t>127310</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Coentro Unidade</t>
+          <t>Óleo De Soja Liza 900ml</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>2.49</v>
+        <v>8.59</v>
       </c>
       <c r="F39" t="n">
-        <v>3.39</v>
+        <v>8.59</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>576</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2020-09-28T00:00:00Z</t>
+          <t>2020-09-15T00:00:00Z</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3076728/VF4qT-qqCUAAAAAAAAGF4g.jpg?v=637877840364830000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3075849/VF4qT-qqCUAAAAAAAAIxqw.jpg?v=637877802666600000</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -3219,21 +3219,21 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>7408</t>
+          <t>127</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>7427</t>
+          <t>132</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>LIZA</t>
         </is>
       </c>
       <c r="O39" t="n">
-        <v>2000015</v>
+        <v>2000067</v>
       </c>
       <c r="P39" t="n">
         <v>99999</v>
@@ -3314,43 +3314,43 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>biscoito-cream-cracker-piraque-pacote-184g-1105795</t>
+          <t>pao-de-queijo-forno-de-minas-tradicional--400-g-456110</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Biscoito Cream Cracker Piraquê Pacote 184g</t>
+          <t>Pão De Queijo Forno De Minas Tradicional 400g</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>1105795</t>
+          <t>456110</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Biscoito Salgado Cream Cracker Piraquê Pacote 184g</t>
+          <t>Pão De Queijo Forno De Minas Tradicional 400g</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>3.99</v>
+        <v>21.99</v>
       </c>
       <c r="F41" t="n">
-        <v>5.99</v>
+        <v>21.99</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>119</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2023-07-26T00:00:00Z</t>
+          <t>2020-10-20T00:00:00Z</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3099416/VF4qT-qqCUAAAAAAAATd0w.jpg?v=638264204522930000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3041185/VF4qT-qqCUAAAAAAAAHIag.jpg?v=637792557833470000</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -3363,66 +3363,66 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>33955</t>
+          <t>13544</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>33882</t>
+          <t>13564</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>PIRAQUE</t>
+          <t>FORNO MINAS</t>
         </is>
       </c>
       <c r="O41" t="n">
-        <v>2000017</v>
+        <v>2001500</v>
       </c>
       <c r="P41" t="n">
-        <v>99999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>pao-de-queijo-forno-de-minas-tradicional--400-g-456110</t>
+          <t>biscoito-cream-cracker-piraque-pacote-184g-1105795</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Pão De Queijo Forno De Minas Tradicional 400g</t>
+          <t>Biscoito Cream Cracker Piraquê Pacote 184g</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>456110</t>
+          <t>1105795</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Pão De Queijo Forno De Minas Tradicional 400g</t>
+          <t>Biscoito Salgado Cream Cracker Piraquê Pacote 184g</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>18.99</v>
+        <v>3.89</v>
       </c>
       <c r="F42" t="n">
-        <v>21.99</v>
+        <v>5.99</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>31</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2020-10-20T00:00:00Z</t>
+          <t>2023-07-26T00:00:00Z</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3041185/VF4qT-qqCUAAAAAAAAHIag.jpg?v=637792557833470000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3099416/VF4qT-qqCUAAAAAAAATd0w.jpg?v=638264204522930000</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -3435,21 +3435,21 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>13544</t>
+          <t>33955</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>13564</t>
+          <t>33882</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>FORNO MINAS</t>
+          <t>PIRAQUE</t>
         </is>
       </c>
       <c r="O42" t="n">
-        <v>2001500</v>
+        <v>2000017</v>
       </c>
       <c r="P42" t="n">
         <v>99999</v>
@@ -3602,43 +3602,39 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>cereja-chilena-300g-13463</t>
+          <t>file-mignon-resfriado-sem-cordao-2-2kg-44822</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Cereja Chilena 300g</t>
+          <t>Filé Mignon Resfriado Sem Cordão 2,2kg</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>13463</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>As cerejas chilenas vão deleitar seu paladar com seu doce e suculento sabor. Sua cor intensa, que varia do vermelho vibrante a tonalidades mais escuras, é um banquete para os olhos e o sinal dos inúmeros benefícios à saúde. Essa pequena fruta é uma fonte nutricional completa, com vitaminas essenciais como a C e a E, além de minerais como o ferro, potássio e magnésio. A cerejas podem ser consumidas frescas, no preparo de conservas, sobremesas e tortas e são classificadas por tamanho e nós só trazemos as mais graúdas especialmente para você!</t>
-        </is>
-      </c>
+          <t>44822</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
       <c r="E45" t="n">
-        <v>69.90000000000001</v>
+        <v>99.98999999999999</v>
       </c>
       <c r="F45" t="n">
-        <v>79.90000000000001</v>
+        <v>99.98999999999999</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>124</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2020-09-26T00:00:00Z</t>
+          <t>2020-09-28T00:00:00Z</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4434078/VF4qT-qqCUAAAAAAAAoONQ.jpg?v=639019170859200000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4340142/VF4qT-qqCUAAAAAAAAJRsQ.jpg?v=638954025546430000</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -3647,16 +3643,16 @@
         </is>
       </c>
       <c r="K45" t="n">
-        <v>0.3</v>
+        <v>2.2</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>5090</t>
+          <t>7539</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>5106</t>
+          <t>7558</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -3674,39 +3670,43 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>file-mignon-resfriado-sem-cordao-2-2kg-44822</t>
+          <t>cereja-chilena-300g-13463</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Filé Mignon Resfriado Sem Cordão 2,2kg</t>
+          <t>Cereja Chilena 300g</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>44822</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr"/>
+          <t>13463</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>As cerejas chilenas vão deleitar seu paladar com seu doce e suculento sabor. Sua cor intensa, que varia do vermelho vibrante a tonalidades mais escuras, é um banquete para os olhos e o sinal dos inúmeros benefícios à saúde. Essa pequena fruta é uma fonte nutricional completa, com vitaminas essenciais como a C e a E, além de minerais como o ferro, potássio e magnésio. A cerejas podem ser consumidas frescas, no preparo de conservas, sobremesas e tortas e são classificadas por tamanho e nós só trazemos as mais graúdas especialmente para você!</t>
+        </is>
+      </c>
       <c r="E46" t="n">
-        <v>79.98999999999999</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="F46" t="n">
-        <v>99.98999999999999</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2020-09-28T00:00:00Z</t>
+          <t>2020-09-26T00:00:00Z</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4340142/VF4qT-qqCUAAAAAAAAJRsQ.jpg?v=638954025546430000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4434078/VF4qT-qqCUAAAAAAAAoONQ.jpg?v=639019170859200000</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -3715,16 +3715,16 @@
         </is>
       </c>
       <c r="K46" t="n">
-        <v>2.2</v>
+        <v>0.3</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>7539</t>
+          <t>5090</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>7558</t>
+          <t>5106</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -3742,44 +3742,48 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>abobrinha-italiana-cariorta-1kg-98663</t>
+          <t>cafe-torrado-e-moido-melitta-a-vacuo-500g-103845</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Abobrinha Italiana Cariorta 1Kg</t>
+          <t>Café Torrado e Moído Melitta A Vácuo 500g</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>98663</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr"/>
+          <t>103845</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Feitos com uma cuidadosa seleção dos grãos que passam por um processo de torra a ar quente que resultam em cafés marcantes e fortes.</t>
+        </is>
+      </c>
       <c r="E47" t="n">
-        <v>7.99</v>
+        <v>39.9</v>
       </c>
       <c r="F47" t="n">
-        <v>7.99</v>
+        <v>39.9</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>59</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2020-12-16T00:00:00Z</t>
+          <t>2020-07-13T00:00:00Z</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3082667/VF4qT-qqCUAAAAAAAAOOdQ.jpg?v=637979987909700000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3038677/VF4qT-qqCUAAAAAAAAGwhg.jpg?v=637792444870400000</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K47" t="n">
@@ -3787,21 +3791,21 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>16567</t>
+          <t>53</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>16458</t>
+          <t>56</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>CARIORTA</t>
+          <t>MELITTA</t>
         </is>
       </c>
       <c r="O47" t="n">
-        <v>2001012</v>
+        <v>2001329</v>
       </c>
       <c r="P47" t="n">
         <v>99999</v>
@@ -3810,48 +3814,44 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>cafe-torrado-e-moido-melitta-a-vacuo-500g-103845</t>
+          <t>abobrinha-italiana-cariorta-1kg-98663</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Café Torrado e Moído Melitta A Vácuo 500g</t>
+          <t>Abobrinha Italiana Cariorta 1Kg</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>103845</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Feitos com uma cuidadosa seleção dos grãos que passam por um processo de torra a ar quente que resultam em cafés marcantes e fortes.</t>
-        </is>
-      </c>
+          <t>98663</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
       <c r="E48" t="n">
-        <v>32.98</v>
+        <v>7.99</v>
       </c>
       <c r="F48" t="n">
-        <v>39.9</v>
+        <v>7.99</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>483</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2020-07-13T00:00:00Z</t>
+          <t>2020-12-16T00:00:00Z</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3038677/VF4qT-qqCUAAAAAAAAGwhg.jpg?v=637792444870400000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3082667/VF4qT-qqCUAAAAAAAAOOdQ.jpg?v=637979987909700000</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K48" t="n">
@@ -3859,21 +3859,21 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>16567</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>16458</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>MELITTA</t>
+          <t>CARIORTA</t>
         </is>
       </c>
       <c r="O48" t="n">
-        <v>2001329</v>
+        <v>2001012</v>
       </c>
       <c r="P48" t="n">
         <v>99999</v>
@@ -3882,43 +3882,43 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>azeite-italiano-extra-virgem-due-500ml-5472040</t>
+          <t>saponaceo-cremoso-cif-limpeza-milagrosa-450ml-781266</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Azeite Italiano Extravirgem Due 500ml</t>
+          <t>CIF Cremoso Limpeza Milagrosa remove 100% da sujeira 450 ml</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>5472040</t>
+          <t>781266</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>O azeite Due é um blend de azeites do Mediterrâneo que confere um resultado clássico e ideal para o cotidiano da cozinha. Sua elaboração conta com uma seleção cautelosamente realizada pelo Expert em Azeites e Temperos Marcelo Scofano, que anualmente viaja à Toscana (Itália), onde o azeite é produzido, para cuidar de cada detalhe pessoalmente.Due é um azeite clássico, ideal para o dia a dia da cozinha: marinados, refogados, emulsão de molhos, finalização de saladas, massas e pratos do cotidiano. O azeite clássico é extraído de azeitonas maduras. Possui sabor amendoado, com notas amargas e picantes em equilíbrio.O azeite Due faz parte da grupo de marcas exclusivas Zona Sul, criada e pensada com carinho para os cariocas de coração. O planejamento de cada produto exclusivo conta com a participação dos Experts Zona Sul em todo o processo, até chegar na sua mesa. E com a linha Due não é diferente!</t>
+          <t>• Cif Cremoso Original é o produto de limpeza milagrosa que limpa fácil e dá brilho em mais de 100 superfícies*, removendo 100% da sujeira difícil, sem esforço • O Cif Cremoso Original possui um perfume suave, é mais concentrado e rende 7 garrafas do limpador comum • Fórmula com tecnologia poderosa que limpa sem riscar, removendo toda a sujeira desde a mais pesada até a limpeza de casa do dia a dia, deixando um brilho imbatível • Com o Cif, a limpeza nunca foi tão fácil e versátil. Cif Cremoso possui três variantes: Original, Limão e Laranja • Cif Cremoso Original é o produto de limpeza milagrosa para todo tipo de objeto como: eletrodomésticos, pias, couro sintético, borracha, plástico, porcelana e serve até como limpador de pisos • Cif promove uma limpeza milagrosa completa, com produtos versáteis que atendem a todas as suas necessidades. Cif. Sinta a limpeza acontecer! Cif Cremoso Original 450 ml é o produto de limpeza milagroso que limpa fácil e dá brilho em mais de 100 superfícies*, removendo 100% da sujeira difícil, sem esforço. O higienizador de casa cremoso é mais concentrado e rende 7 garrafas do limpador comum**. Sua fórmula, poderosa, limpa sem riscar***, removendo toda a sujeira desde a mais pesada até a limpeza de casa do dia a dia, deixando um brilho imbatível. Limpe toda sua casa usando o Cif Cremoso Original, que limpa todo tipo de objeto, como eletrodomésticos, potes plásticos, pias, brinquedos das crianças, persianas, pisos e até ajuda a deixar aquele cabo de carregador de celular como novo! Com o Limpador Cif, a limpeza nunca foi tão fácil e versátil. A linha do milagroso Cif Cremoso possui outras variedades de perfumes, como Laranja e Limão, que se adaptam ao seu estilo. Conheça a linha completa de produtos de limpeza Cif que não podem ficar de fora da sua lista de material de limpeza. Use também: Cif Cozinha, Cif Derrete Gordura, Cif Banheiro, Cif Tira Limo Com Cloro, Cif Vidros, Cif Cremoso e muito mais. Cif: Sinta a limpeza acontecer! Modo de usar: 1. Agite antes de usar. 2. Aplique uma pequena quantidade do produto sobre uma esponja ou pano úmido. 3. Esfregue a superfície suavemente até eliminar a sujeira. 4. Passe um pano úmido para finalizar. 5. Feche a embalagem após o uso. *Consulte lista das superfícies em www.ciflimpadores.com.br **Manchas de sabão e gordura queimada, comparado com limpadores comuns do mercado. Consulte a diferença de preços entre produtos. ***Não usar esponja ácida, como palha de aço, para a limpeza de vidros. A imagem do produto é meramente ilustrativa e o rótulo pode variar. Será enviada a embalagem disponível no momento da compra.</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>36.9</v>
+        <v>18.99</v>
       </c>
       <c r="F49" t="n">
-        <v>36.9</v>
+        <v>18.99</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>74</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2025-05-06T00:00:00Z</t>
+          <t>2020-10-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4116721/VF4qT-qqCUAAAAAAAAiyjQ.jpg?v=638846625781330000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3640099/VF4qT-qqCUAAAAAAAAbyew.jpg?v=638585098972800000</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -3931,24 +3931,24 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>40224</t>
+          <t>11602</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>40151</t>
+          <t>11625</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>DUE</t>
+          <t>CIF</t>
         </is>
       </c>
       <c r="O49" t="n">
-        <v>2005138</v>
+        <v>2000541</v>
       </c>
       <c r="P49" t="n">
-        <v>99999</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/zonasul.xlsx
+++ b/zonasul.xlsx
@@ -518,70 +518,70 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>papel-higienico-neve-folha-dupla-toque-de-seda-com-12-unidades-1153285</t>
+          <t>batata-inglesa-cariorta-12kg-98698</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Papel Higiênico Neve Folha Dupla Toque de Seda com 12 Unidades</t>
+          <t>Batata Inglesa Cariorta 1,2Kg</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1153285</t>
+          <t>98698</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>O Papel Higiênico Folha Dupla Neve é a opção ideal para quem busca conforto e praticidade no dia a dia. Com folhas macias que proporcionam uma limpeza suave e eficiente, ele traz muito mais conforto e bem-estar. Além disso, seu formato em rolos com 20 metros de comprimento garante longa duração, evitando o desperdício. Cada pacote contém 12 rolos, o que permite estoque para uso contínuo. Produzido com matéria-prima de alta qualidade, o Papel Higiênico Folha Dupla Neve dissolve facilmente na água, o que evita entupimentos e garante higiene. É uma ótima pedida para uso doméstico ou comercial.</t>
+          <t>Cariorta selecionados de coração.</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>15.89</v>
+        <v>7.99</v>
       </c>
       <c r="F2" t="n">
-        <v>19.89</v>
+        <v>7.99</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>483</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2024-10-16T00:00:00Z</t>
+          <t>2020-12-16T00:00:00Z</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3798203/VF4qT-qqCUAAAAAAAAdSuw.jpg?v=638649029489970000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3082670/VF4qT-qqCUAAAAAAAAOOew.jpg?v=637979987993130000</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>37914</t>
+          <t>16570</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>37841</t>
+          <t>16461</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>NEVE</t>
+          <t>CARIORTA</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>2000291</v>
+        <v>2001012</v>
       </c>
       <c r="P2" t="n">
         <v>99999</v>
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>8.99</v>
+        <v>7.69</v>
       </c>
       <c r="F3" t="n">
         <v>8.99</v>
@@ -681,7 +681,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2.49</v>
+        <v>3.39</v>
       </c>
       <c r="F4" t="n">
         <v>3.39</v>
@@ -734,43 +734,39 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>leite-uht-piracanjuba-integral-1l-865427</t>
+          <t>creme-de-leite-nestle-10--gratis-200g-1165151</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Leite Uht Piracanjuba Integral 1L</t>
+          <t>Creme de Leite Nestlé 10% Grátis 200g</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>865427</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>No café da manhã, em um delicioso lanche da tarde ou até mesmo antes de dormir, o Leite Piracanjuba cumpre bem o seu papel principal: trazer mais sabor para os seus momentos especiais e para as suas receitas. Mais sabor para todos os momentos.</t>
-        </is>
-      </c>
+          <t>1165151</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>5.29</v>
+        <v>4.29</v>
       </c>
       <c r="F5" t="n">
-        <v>5.29</v>
+        <v>5.99</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>71</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2017-04-12T00:00:00Z</t>
+          <t>2025-02-20T00:00:00Z</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3294485/VF4qT-qqCUAAAAAAAAWbgQ.jpg?v=638412300289570000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4395976/VF4qT-qqCUAAAAAAAAoEeQ.jpg?v=638984266226730000</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -783,21 +779,21 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>23232</t>
+          <t>40151</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>23158</t>
+          <t>40078</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>PIRACANJUBA</t>
+          <t>NESTLE</t>
         </is>
       </c>
       <c r="O5" t="n">
-        <v>2002038</v>
+        <v>2000043</v>
       </c>
       <c r="P5" t="n">
         <v>99999</v>
@@ -806,39 +802,43 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>creme-de-leite-nestle-10--gratis-200g-1165151</t>
+          <t>leite-uht-piracanjuba-integral-1l-865427</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Creme de Leite Nestlé 10% Grátis 200g</t>
+          <t>Leite Uht Piracanjuba Integral 1L</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1165151</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
+          <t>865427</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>No café da manhã, em um delicioso lanche da tarde ou até mesmo antes de dormir, o Leite Piracanjuba cumpre bem o seu papel principal: trazer mais sabor para os seus momentos especiais e para as suas receitas. Mais sabor para todos os momentos.</t>
+        </is>
+      </c>
       <c r="E6" t="n">
-        <v>4.29</v>
+        <v>5.29</v>
       </c>
       <c r="F6" t="n">
-        <v>5.99</v>
+        <v>5.29</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>130</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-02-20T00:00:00Z</t>
+          <t>2017-04-12T00:00:00Z</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4395976/VF4qT-qqCUAAAAAAAAoEeQ.jpg?v=638984266226730000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3294485/VF4qT-qqCUAAAAAAAAWbgQ.jpg?v=638412300289570000</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -851,21 +851,21 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>40151</t>
+          <t>23232</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>40078</t>
+          <t>23158</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>NESTLE</t>
+          <t>PIRACANJUBA</t>
         </is>
       </c>
       <c r="O6" t="n">
-        <v>2000043</v>
+        <v>2002038</v>
       </c>
       <c r="P6" t="n">
         <v>99999</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>7.89</v>
+        <v>11.99</v>
       </c>
       <c r="F7" t="n">
         <v>11.99</v>
@@ -946,70 +946,70 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>mucarela-em-fatias-92363</t>
+          <t>alcool-montenegro-46-1-l-780570</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Muçarela  em Fatias 200g</t>
+          <t>Álcool Montenegro 46% 1 L</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>92363</t>
+          <t>780570</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Muçarela em Fatias</t>
+          <t>Álcool Montenegro 46% 1 L</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>59.9</v>
+        <v>7.98</v>
       </c>
       <c r="F8" t="n">
-        <v>59.9</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>74</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2020-09-27T00:00:00Z</t>
+          <t>2020-10-06T10:47:00Z</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3052070/VF4qT-qqCUAAAAAAAAI4-w.jpg?v=637793416889100000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3051579/VF4qT-qqCUAAAAAAAAG3pQ.jpg?v=637793390624870000</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>1361</t>
+          <t>11598</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>1368</t>
+          <t>11621</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>MONTENEGRO</t>
         </is>
       </c>
       <c r="O8" t="n">
-        <v>2000015</v>
+        <v>2000527</v>
       </c>
       <c r="P8" t="n">
         <v>99999</v>
@@ -1018,70 +1018,70 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>alcool-montenegro-46-1-l-780570</t>
+          <t>mucarela-em-fatias-92363</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Álcool Montenegro 46% 1 L</t>
+          <t>Muçarela  em Fatias 200g</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>780570</t>
+          <t>92363</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Álcool Montenegro 46% 1 L</t>
+          <t>Muçarela em Fatias</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>7.99</v>
+        <v>59.9</v>
       </c>
       <c r="F9" t="n">
-        <v>8.789999999999999</v>
+        <v>59.9</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>83</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2020-10-06T10:47:00Z</t>
+          <t>2020-09-27T00:00:00Z</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3051579/VF4qT-qqCUAAAAAAAAG3pQ.jpg?v=637793390624870000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3052070/VF4qT-qqCUAAAAAAAAI4-w.jpg?v=637793416889100000</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>11598</t>
+          <t>1361</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>11621</t>
+          <t>1368</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>MONTENEGRO</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O9" t="n">
-        <v>2000527</v>
+        <v>2000015</v>
       </c>
       <c r="P9" t="n">
         <v>99999</v>
@@ -1090,43 +1090,43 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>tomate-italiano-unidade-495212</t>
+          <t>cheiro-verde-unidade-201049</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Tomate Italiano Unidade</t>
+          <t>Cheiro Verde Unidade</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>495212</t>
+          <t>201049</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Tomate Italiano Unidade</t>
+          <t>O cheiro verde é a combinação da cebolinha e salsinha .Como conservar:Em geladeira por até 5 dias em saco ou vasilha de plástico.Como consumir:Podem ser adicionadas cruas, em saladas e recheios de sanduíches e como ingredientes em marinadas.</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.84</v>
+        <v>3.39</v>
       </c>
       <c r="F10" t="n">
-        <v>1.53</v>
+        <v>3.39</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2020-09-27T00:00:00Z</t>
+          <t>2020-09-28T00:00:00Z</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3094266/VF4qT-qqCUAAAAAAAASLmg.jpg?v=638191532599970000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3457712/VF4qT-qqCUAAAAAAAAXvTg.jpg?v=638507335658200000</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1139,12 +1139,12 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>6965</t>
+          <t>7411</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>6983</t>
+          <t>7430</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1162,43 +1162,43 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>cheiro-verde-unidade-201049</t>
+          <t>tomate-italiano-unidade-495212</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Cheiro Verde Unidade</t>
+          <t>Tomate Italiano Unidade</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>201049</t>
+          <t>495212</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>O cheiro verde é a combinação da cebolinha e salsinha .Como conservar:Em geladeira por até 5 dias em saco ou vasilha de plástico.Como consumir:Podem ser adicionadas cruas, em saladas e recheios de sanduíches e como ingredientes em marinadas.</t>
+          <t>Tomate Italiano Unidade</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2.49</v>
+        <v>1.53</v>
       </c>
       <c r="F11" t="n">
-        <v>3.39</v>
+        <v>1.53</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>53</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2020-09-28T00:00:00Z</t>
+          <t>2020-09-27T00:00:00Z</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3457712/VF4qT-qqCUAAAAAAAAXvTg.jpg?v=638507335658200000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3094266/VF4qT-qqCUAAAAAAAASLmg.jpg?v=638191532599970000</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1211,12 +1211,12 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>7411</t>
+          <t>6965</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>7430</t>
+          <t>6983</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1234,43 +1234,43 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>agua-mineral-com-gas-sao-lourenco-pet-1-26-l-140805</t>
+          <t>ovos-vermelhos-mantiqueira-happy-eggs-com-10-unidades-5106753</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Água Mineral Com Gás São Lourenço Pet 1,26 L</t>
+          <t>Ovos Vermelhos Mantiqueira Happy Eggs com 10 Unidades</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>140805</t>
+          <t>5106753</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Água Mineral Com Gás São Lourenço Pet 1,26 L</t>
+          <t>Produzidos por galinhas criadas livres de gaiolas. Garantia de Bem-Estar Animal. Ovos Vermelhos Tipo Grande Categoria A. Embalagem com 10 unidades.</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5.29</v>
+        <v>11.99</v>
       </c>
       <c r="F12" t="n">
-        <v>5.29</v>
+        <v>11.99</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2020-09-25T00:00:00Z</t>
+          <t>2021-01-11T00:00:00Z</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3076277/VF4qT-qqCUAAAAAAAAHMBQ.jpg?v=637877821166370000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4222023/VF4qT-qqCUAAAAAAAAStHA.jpg?v=638894405636230000</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1283,21 +1283,21 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>3915</t>
+          <t>18105</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>3929</t>
+          <t>17997</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>SAO LOURENCO</t>
+          <t>HAPPY EGGS</t>
         </is>
       </c>
       <c r="O12" t="n">
-        <v>2000145</v>
+        <v>2003319</v>
       </c>
       <c r="P12" t="n">
         <v>99999</v>
@@ -1306,43 +1306,43 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ovos-vermelhos-mantiqueira-happy-eggs-com-10-unidades-5106753</t>
+          <t>agua-mineral-com-gas-sao-lourenco-pet-1-26-l-140805</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Ovos Vermelhos Mantiqueira Happy Eggs com 10 Unidades</t>
+          <t>Água Mineral Com Gás São Lourenço Pet 1,26 L</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>5106753</t>
+          <t>140805</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Produzidos por galinhas criadas livres de gaiolas. Garantia de Bem-Estar Animal. Ovos Vermelhos Tipo Grande Categoria A. Embalagem com 10 unidades.</t>
+          <t>Água Mineral Com Gás São Lourenço Pet 1,26 L</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>7.95</v>
+        <v>5.29</v>
       </c>
       <c r="F13" t="n">
-        <v>11.99</v>
+        <v>5.29</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>18</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2021-01-11T00:00:00Z</t>
+          <t>2020-09-25T00:00:00Z</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4222023/VF4qT-qqCUAAAAAAAAStHA.jpg?v=638894405636230000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3076277/VF4qT-qqCUAAAAAAAAHMBQ.jpg?v=637877821166370000</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1355,21 +1355,21 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>18105</t>
+          <t>3915</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>17997</t>
+          <t>3929</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>HAPPY EGGS</t>
+          <t>SAO LOURENCO</t>
         </is>
       </c>
       <c r="O13" t="n">
-        <v>2003319</v>
+        <v>2000145</v>
       </c>
       <c r="P13" t="n">
         <v>99999</v>
@@ -1378,43 +1378,43 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>guardanapo-folha-dupla-scott-grand-hotel-238cm×218cm-50-unidades-129879</t>
+          <t>cafe-torrado-e-moido-pilao-tradicional-500g-828025</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Guardanapo Folha Dupla Scott Grand Hotel 23,8cm×21,8cm 50 Unidades</t>
+          <t>Café Torrado E Moído Pilão Tradicional Fresh Pack 500g</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>129879</t>
+          <t>828025</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Guardanapo Folha Dupla Scott Grand Hotel 23,8cm×21,8cm 50 Unidades</t>
+          <t>Tem um ponto de torra acentuado e um processo de moagem fina e uniforme, que garantem e preservam seu sabor forte e encorpado.É perfeito para servir em dia de casa cheia, pois seu sabor tradicional agrada a todo mundo.</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6.19</v>
+        <v>29.98</v>
       </c>
       <c r="F14" t="n">
-        <v>6.19</v>
+        <v>43.9</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>59</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2020-10-05T00:00:00Z</t>
+          <t>2020-09-15T00:00:00Z</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3239421/VF4qT-qqCUAAAAAAAAVSfw.jpg?v=638362188224230000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3051146/VF4qT-qqCUAAAAAAAAG1sQ.jpg?v=637793369863530000</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1427,21 +1427,21 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>9426</t>
+          <t>130</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>9438</t>
+          <t>135</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>GRANDE HOTEL</t>
+          <t>PILAO</t>
         </is>
       </c>
       <c r="O14" t="n">
-        <v>2001400</v>
+        <v>2000070</v>
       </c>
       <c r="P14" t="n">
         <v>99999</v>
@@ -1450,43 +1450,43 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>cafe-torrado-e-moido-pilao-tradicional-500g-828025</t>
+          <t>guardanapo-folha-dupla-scott-grand-hotel-238cm×218cm-50-unidades-129879</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Café Torrado E Moído Pilão Tradicional Fresh Pack 500g</t>
+          <t>Guardanapo Folha Dupla Scott Grand Hotel 23,8cm×21,8cm 50 Unidades</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>828025</t>
+          <t>129879</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Tem um ponto de torra acentuado e um processo de moagem fina e uniforme, que garantem e preservam seu sabor forte e encorpado.É perfeito para servir em dia de casa cheia, pois seu sabor tradicional agrada a todo mundo.</t>
+          <t>Guardanapo Folha Dupla Scott Grand Hotel 23,8cm×21,8cm 50 Unidades</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>43.9</v>
+        <v>6.19</v>
       </c>
       <c r="F15" t="n">
-        <v>43.9</v>
+        <v>6.19</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>111</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2020-09-15T00:00:00Z</t>
+          <t>2020-10-05T00:00:00Z</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3051146/VF4qT-qqCUAAAAAAAAG1sQ.jpg?v=637793369863530000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3239421/VF4qT-qqCUAAAAAAAAVSfw.jpg?v=638362188224230000</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1499,21 +1499,21 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>9426</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>9438</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>PILAO</t>
+          <t>GRANDE HOTEL</t>
         </is>
       </c>
       <c r="O15" t="n">
-        <v>2000070</v>
+        <v>2001400</v>
       </c>
       <c r="P15" t="n">
         <v>99999</v>
@@ -1522,43 +1522,43 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>couve-flor-unidade-189111</t>
+          <t>manga-palmer-unidade-5130760</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Couve Flor Unidade</t>
+          <t>Manga Palmer Unidade</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>189111</t>
+          <t>5130760</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>A couveflor é uma hortaliça rica em cálcio e fósforo e fonte de ácido fólico e vitamina C . Como Conservar:Na geladeira pode ser conservada por 3 a 5 dias, dentro de saco plástico perfurado. Antes de guardar, remova as partes escuras e folhas, mas não lave a cabeça.Como Consumir:Pode ser consumida assada, frita ou cozinhe em água e sal. [Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
+          <t>Manga Palmer Unidade</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>7.99</v>
+        <v>5.39</v>
       </c>
       <c r="F16" t="n">
-        <v>9.99</v>
+        <v>5.39</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2020-09-28T00:00:00Z</t>
+          <t>2023-02-16T00:00:00Z</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3041615/VF4qT-qqCUAAAAAAAAGF4Q.jpg?v=637792579893500000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3153453/VF4qT-qqCUAAAAAAAAUnKA.jpg?v=638319847497670000</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1571,12 +1571,12 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>7446</t>
+          <t>31977</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>7465</t>
+          <t>31902</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1594,43 +1594,43 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>manga-palmer-unidade-5130760</t>
+          <t>couve-flor-unidade-189111</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Manga Palmer Unidade</t>
+          <t>Couve Flor Unidade</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>5130760</t>
+          <t>189111</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Manga Palmer Unidade</t>
+          <t>A couveflor é uma hortaliça rica em cálcio e fósforo e fonte de ácido fólico e vitamina C . Como Conservar:Na geladeira pode ser conservada por 3 a 5 dias, dentro de saco plástico perfurado. Antes de guardar, remova as partes escuras e folhas, mas não lave a cabeça.Como Consumir:Pode ser consumida assada, frita ou cozinhe em água e sal. [Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4.79</v>
+        <v>9.99</v>
       </c>
       <c r="F17" t="n">
-        <v>5.39</v>
+        <v>9.99</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>53</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2023-02-16T00:00:00Z</t>
+          <t>2020-09-28T00:00:00Z</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3153453/VF4qT-qqCUAAAAAAAAUnKA.jpg?v=638319847497670000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3041615/VF4qT-qqCUAAAAAAAAGF4Q.jpg?v=637792579893500000</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1643,12 +1643,12 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>31977</t>
+          <t>7446</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>31902</t>
+          <t>7465</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>8.99</v>
+        <v>10.99</v>
       </c>
       <c r="F18" t="n">
         <v>10.99</v>
@@ -1804,7 +1804,7 @@
         <v>2000316</v>
       </c>
       <c r="P19" t="n">
-        <v>99999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20">
@@ -1901,7 +1901,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>8.99</v>
+        <v>9.99</v>
       </c>
       <c r="F21" t="n">
         <v>9.99</v>
@@ -2045,7 +2045,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>26.99</v>
+        <v>24.99</v>
       </c>
       <c r="F23" t="n">
         <v>26.99</v>
@@ -2522,43 +2522,43 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>cebola-roxa-400g-38393</t>
+          <t>mamao-papaia-cariorta-12kg-99007</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Cebola Roxa 400g</t>
+          <t>Mamão Papaia Cariorta 1,2kg</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>38393</t>
+          <t>99007</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Embalagem com 2 a 3 unidades. Melhor para comer cru; Use : no guacamole, em conserva, na salada, no sanduíche.</t>
+          <t>Cariorta selecionados de coração.</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>7.69</v>
+        <v>15.99</v>
       </c>
       <c r="F30" t="n">
-        <v>7.69</v>
+        <v>15.99</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>482</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2020-09-26T00:00:00Z</t>
+          <t>2020-05-20T00:00:00Z</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3081506/VF4qT-qqCUAAAAAAAAOBng.jpg?v=637947101712670000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3082688/VF4qT-qqCUAAAAAAAAOOog.jpg?v=637980006057500000</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -2567,28 +2567,28 @@
         </is>
       </c>
       <c r="K30" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>5543</t>
+          <t>24413</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>5559</t>
+          <t>24337</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>CARIORTA</t>
         </is>
       </c>
       <c r="O30" t="n">
-        <v>2000015</v>
+        <v>2001012</v>
       </c>
       <c r="P30" t="n">
-        <v>100</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="31">
@@ -2666,70 +2666,70 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>mamao-papaia-cariorta-12kg-99007</t>
+          <t>espinafre-unidade-200948</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Mamão Papaia Cariorta 1,2kg</t>
+          <t>Espinafre Unidade</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>99007</t>
+          <t>200948</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Cariorta selecionados de coração.</t>
+          <t>O espinafre é uma hortaliça saborosa, rica em ferro e também é fonte de vitamina A e B2, além de fornecer cálcio, fósforo, potássio e magnésio, é indicado também para pessoas com anemia e desnutrição.Como conservar :Sob refrigeração, pode ser mantido por no máximo 5 dias. Antes de colocálo na geladeira, lave as folhas, escorra o excesso de água e coloqueo em sacos de plástico perfurados ou em vasilha de plástico.Como consumir :O espinafre também pode ser usado em saladas, sopas,suflês omeletes. É ótimo como recheio ou acompanhamento de massas como macarrão, quiche, tortas, pastéis e assados. [Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>15.99</v>
+        <v>3.39</v>
       </c>
       <c r="F32" t="n">
-        <v>15.99</v>
+        <v>3.39</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2020-05-20T00:00:00Z</t>
+          <t>2020-09-28T00:00:00Z</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3082688/VF4qT-qqCUAAAAAAAAOOog.jpg?v=637980006057500000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3076729/VF4qT-qqCUAAAAAAAAKBdQ.jpg?v=637877840409270000</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K32" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>24413</t>
+          <t>7464</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>24337</t>
+          <t>7483</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>CARIORTA</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O32" t="n">
-        <v>2001012</v>
+        <v>2000015</v>
       </c>
       <c r="P32" t="n">
         <v>99999</v>
@@ -2738,43 +2738,43 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>espinafre-unidade-200948</t>
+          <t>la-de-aco-bombril-com-6-unidades-45g-1180320</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Espinafre Unidade</t>
+          <t>Lã de Aço Bombril com 6 Unidades 45g</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>200948</t>
+          <t>1180320</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>O espinafre é uma hortaliça saborosa, rica em ferro e também é fonte de vitamina A e B2, além de fornecer cálcio, fósforo, potássio e magnésio, é indicado também para pessoas com anemia e desnutrição.Como conservar :Sob refrigeração, pode ser mantido por no máximo 5 dias. Antes de colocálo na geladeira, lave as folhas, escorra o excesso de água e coloqueo em sacos de plástico perfurados ou em vasilha de plástico.Como consumir :O espinafre também pode ser usado em saladas, sopas,suflês omeletes. É ótimo como recheio ou acompanhamento de massas como macarrão, quiche, tortas, pastéis e assados. [Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
+          <t>Uso: Ideal para limpeza de panelas, utensílios de cozinha, superfícies metálicas e outras áreas que necessitam de uma limpeza mais intensa.Remove sujeiras difíceis, incluindo resíduos de alimentos queimados e ferrugem.</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>2.49</v>
+        <v>2.09</v>
       </c>
       <c r="F33" t="n">
-        <v>3.39</v>
+        <v>2.99</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>78</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2020-09-28T00:00:00Z</t>
+          <t>2025-07-17T00:00:00Z</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3076729/VF4qT-qqCUAAAAAAAAKBdQ.jpg?v=637877840409270000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4216409/VF4qT-qqCUAAAAAAAAko5g.jpg?v=638889221726300000</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2787,21 +2787,21 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>7464</t>
+          <t>41130</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>7483</t>
+          <t>41057</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>BOMBRIL</t>
         </is>
       </c>
       <c r="O33" t="n">
-        <v>2000015</v>
+        <v>2001389</v>
       </c>
       <c r="P33" t="n">
         <v>99999</v>
@@ -2882,43 +2882,43 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>refrigerante-coca-cola-sem-acucar-pet-600-ml-429392</t>
+          <t>coentro-unidade-200930</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Refrigerante Coca Cola Sem Açúcar Pet 600ml</t>
+          <t>Coentro Unidade</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>429392</t>
+          <t>200930</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>A Coca-Cola Sem Açúcar é um refrigerante que não contém calorias! Com certeza você já se perguntou: “Então, de onde vem aquele gostinho doce? ” A Coca-Cola Sem Açúcar é produzida especialmente com adoçantes para manter o delicioso sabor de Coca-Cola porém com 0% Açucar. Perfeita para matar sua sede a qualquer hora do dia!</t>
+          <t>Coentro Unidade</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>5.69</v>
+        <v>3.39</v>
       </c>
       <c r="F35" t="n">
-        <v>5.69</v>
+        <v>3.39</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2020-10-01T00:00:00Z</t>
+          <t>2020-09-28T00:00:00Z</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4313186/VF4qT-qqCUAAAAAAAAn3Vg.jpg?v=638939337183900000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3076728/VF4qT-qqCUAAAAAAAAGF4g.jpg?v=637877840364830000</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2931,21 +2931,21 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>8816</t>
+          <t>7408</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>8828</t>
+          <t>7427</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>COCA COLA</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O35" t="n">
-        <v>2000027</v>
+        <v>2000015</v>
       </c>
       <c r="P35" t="n">
         <v>99999</v>
@@ -2954,43 +2954,43 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>coentro-unidade-200930</t>
+          <t>refrigerante-coca-cola-sem-acucar-pet-600-ml-429392</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Coentro Unidade</t>
+          <t>Refrigerante Coca Cola Sem Açúcar Pet 600ml</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>200930</t>
+          <t>429392</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Coentro Unidade</t>
+          <t>A Coca-Cola Sem Açúcar é um refrigerante que não contém calorias! Com certeza você já se perguntou: “Então, de onde vem aquele gostinho doce? ” A Coca-Cola Sem Açúcar é produzida especialmente com adoçantes para manter o delicioso sabor de Coca-Cola porém com 0% Açucar. Perfeita para matar sua sede a qualquer hora do dia!</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>2.49</v>
+        <v>5.69</v>
       </c>
       <c r="F36" t="n">
-        <v>3.39</v>
+        <v>5.69</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2020-09-28T00:00:00Z</t>
+          <t>2020-10-01T00:00:00Z</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3076728/VF4qT-qqCUAAAAAAAAGF4g.jpg?v=637877840364830000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4483407/VF4qT-qqCUAAAAAAAAoapA.jpg?v=639052524553700000</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -3003,21 +3003,21 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>7408</t>
+          <t>8816</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>7427</t>
+          <t>8828</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>COCA COLA</t>
         </is>
       </c>
       <c r="O36" t="n">
-        <v>2000015</v>
+        <v>2000027</v>
       </c>
       <c r="P36" t="n">
         <v>99999</v>
@@ -3098,43 +3098,43 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>papel-higienico-folha-tripla-neve-supreme-dermacare-pacote-leve-16-pague-15-unidades-981168</t>
+          <t>oleo-de-soja-liza-900ml-127310</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Papel Higiênico Folha Tripla Neve Supreme Dermacare Pacote Leve 16 Pague 15 Unidades</t>
+          <t>Óleo De Soja Liza 900ml</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>981168</t>
+          <t>127310</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Papel higiênico neutro folha tripla de alta qualidade. Neve quer ajudar as pessoas a cuidarem de si, por isso desenvolveu um produto que proporciona maciez insuperável com mais absorção e resistência.</t>
+          <t>Óleo De Soja Liza 900ml</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>32.19</v>
+        <v>8.59</v>
       </c>
       <c r="F38" t="n">
-        <v>32.19</v>
+        <v>8.59</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>576</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2020-09-22T00:00:00Z</t>
+          <t>2020-09-15T00:00:00Z</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4430737/VF4qT-qqCUAAAAAAAAoMMw.jpg?v=639014499358300000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3075849/VF4qT-qqCUAAAAAAAAIxqw.jpg?v=637877802666600000</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -3147,21 +3147,21 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>1262</t>
+          <t>127</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>1269</t>
+          <t>132</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>NEVE</t>
+          <t>LIZA</t>
         </is>
       </c>
       <c r="O38" t="n">
-        <v>2000291</v>
+        <v>2000067</v>
       </c>
       <c r="P38" t="n">
         <v>99999</v>
@@ -3170,43 +3170,43 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>oleo-de-soja-liza-900ml-127310</t>
+          <t>papel-higienico-folha-tripla-neve-supreme-dermacare-pacote-leve-16-pague-15-unidades-981168</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Óleo De Soja Liza 900ml</t>
+          <t>Papel Higiênico Folha Tripla Neve Supreme Dermacare Pacote Leve 16 Pague 15 Unidades</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>127310</t>
+          <t>981168</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Óleo De Soja Liza 900ml</t>
+          <t>Papel higiênico neutro folha tripla de alta qualidade. Neve quer ajudar as pessoas a cuidarem de si, por isso desenvolveu um produto que proporciona maciez insuperável com mais absorção e resistência.</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>8.59</v>
+        <v>28.98</v>
       </c>
       <c r="F39" t="n">
-        <v>8.59</v>
+        <v>32.19</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>14</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2020-09-15T00:00:00Z</t>
+          <t>2020-09-22T00:00:00Z</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3075849/VF4qT-qqCUAAAAAAAAIxqw.jpg?v=637877802666600000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4430737/VF4qT-qqCUAAAAAAAAoMMw.jpg?v=639014499358300000</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -3219,21 +3219,21 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>1262</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>1269</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>LIZA</t>
+          <t>NEVE</t>
         </is>
       </c>
       <c r="O39" t="n">
-        <v>2000067</v>
+        <v>2000291</v>
       </c>
       <c r="P39" t="n">
         <v>99999</v>
@@ -3261,7 +3261,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>8.99</v>
+        <v>9.99</v>
       </c>
       <c r="F40" t="n">
         <v>9.99</v>
@@ -3308,7 +3308,7 @@
         <v>2000015</v>
       </c>
       <c r="P40" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41">
@@ -3380,7 +3380,7 @@
         <v>2001500</v>
       </c>
       <c r="P41" t="n">
-        <v>100</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="42">
@@ -3477,7 +3477,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>2.49</v>
+        <v>3.39</v>
       </c>
       <c r="F43" t="n">
         <v>3.39</v>
@@ -3602,66 +3602,70 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>file-mignon-resfriado-sem-cordao-2-2kg-44822</t>
+          <t>azeite-italiano-extra-virgem-due-500ml-5472040</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Filé Mignon Resfriado Sem Cordão 2,2kg</t>
+          <t>Azeite Italiano Extravirgem Due 500ml</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>44822</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
+          <t>5472040</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>O azeite Due é um blend de azeites do Mediterrâneo que confere um resultado clássico e ideal para o cotidiano da cozinha. Sua elaboração conta com uma seleção cautelosamente realizada pelo Expert em Azeites e Temperos Marcelo Scofano, que anualmente viaja à Toscana (Itália), onde o azeite é produzido, para cuidar de cada detalhe pessoalmente.Due é um azeite clássico, ideal para o dia a dia da cozinha: marinados, refogados, emulsão de molhos, finalização de saladas, massas e pratos do cotidiano. O azeite clássico é extraído de azeitonas maduras. Possui sabor amendoado, com notas amargas e picantes em equilíbrio.O azeite Due faz parte da grupo de marcas exclusivas Zona Sul, criada e pensada com carinho para os cariocas de coração. O planejamento de cada produto exclusivo conta com a participação dos Experts Zona Sul em todo o processo, até chegar na sua mesa. E com a linha Due não é diferente!</t>
+        </is>
+      </c>
       <c r="E45" t="n">
-        <v>99.98999999999999</v>
+        <v>29.98</v>
       </c>
       <c r="F45" t="n">
-        <v>99.98999999999999</v>
+        <v>36.9</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>597</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2020-09-28T00:00:00Z</t>
+          <t>2025-05-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4340142/VF4qT-qqCUAAAAAAAAJRsQ.jpg?v=638954025546430000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4116721/VF4qT-qqCUAAAAAAAAiyjQ.jpg?v=638846625781330000</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K45" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>7539</t>
+          <t>40224</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>7558</t>
+          <t>40151</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>DUE</t>
         </is>
       </c>
       <c r="O45" t="n">
-        <v>2000015</v>
+        <v>2005138</v>
       </c>
       <c r="P45" t="n">
         <v>99999</v>
@@ -3689,7 +3693,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>69.90000000000001</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="F46" t="n">
         <v>79.90000000000001</v>
@@ -3742,116 +3746,116 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>cafe-torrado-e-moido-melitta-a-vacuo-500g-103845</t>
+          <t>file-mignon-resfriado-sem-cordao-2-2kg-44822</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Café Torrado e Moído Melitta A Vácuo 500g</t>
+          <t>Filé Mignon Resfriado Sem Cordão 2,2kg</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>103845</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Feitos com uma cuidadosa seleção dos grãos que passam por um processo de torra a ar quente que resultam em cafés marcantes e fortes.</t>
-        </is>
-      </c>
+          <t>44822</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
       <c r="E47" t="n">
-        <v>39.9</v>
+        <v>99.98999999999999</v>
       </c>
       <c r="F47" t="n">
-        <v>39.9</v>
+        <v>99.98999999999999</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>124</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2020-07-13T00:00:00Z</t>
+          <t>2020-09-28T00:00:00Z</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3038677/VF4qT-qqCUAAAAAAAAGwhg.jpg?v=637792444870400000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4340142/VF4qT-qqCUAAAAAAAAJRsQ.jpg?v=638954025546430000</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K47" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>7539</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>7558</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>MELITTA</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O47" t="n">
-        <v>2001329</v>
+        <v>2000015</v>
       </c>
       <c r="P47" t="n">
-        <v>99999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>abobrinha-italiana-cariorta-1kg-98663</t>
+          <t>saponaceo-cremoso-cif-limpeza-milagrosa-450ml-781266</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Abobrinha Italiana Cariorta 1Kg</t>
+          <t>CIF Cremoso Limpeza Milagrosa remove 100% da sujeira 450 ml</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>98663</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr"/>
+          <t>781266</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>• Cif Cremoso Original é o produto de limpeza milagrosa que limpa fácil e dá brilho em mais de 100 superfícies*, removendo 100% da sujeira difícil, sem esforço • O Cif Cremoso Original possui um perfume suave, é mais concentrado e rende 7 garrafas do limpador comum • Fórmula com tecnologia poderosa que limpa sem riscar, removendo toda a sujeira desde a mais pesada até a limpeza de casa do dia a dia, deixando um brilho imbatível • Com o Cif, a limpeza nunca foi tão fácil e versátil. Cif Cremoso possui três variantes: Original, Limão e Laranja • Cif Cremoso Original é o produto de limpeza milagrosa para todo tipo de objeto como: eletrodomésticos, pias, couro sintético, borracha, plástico, porcelana e serve até como limpador de pisos • Cif promove uma limpeza milagrosa completa, com produtos versáteis que atendem a todas as suas necessidades. Cif. Sinta a limpeza acontecer! Cif Cremoso Original 450 ml é o produto de limpeza milagroso que limpa fácil e dá brilho em mais de 100 superfícies*, removendo 100% da sujeira difícil, sem esforço. O higienizador de casa cremoso é mais concentrado e rende 7 garrafas do limpador comum**. Sua fórmula, poderosa, limpa sem riscar***, removendo toda a sujeira desde a mais pesada até a limpeza de casa do dia a dia, deixando um brilho imbatível. Limpe toda sua casa usando o Cif Cremoso Original, que limpa todo tipo de objeto, como eletrodomésticos, potes plásticos, pias, brinquedos das crianças, persianas, pisos e até ajuda a deixar aquele cabo de carregador de celular como novo! Com o Limpador Cif, a limpeza nunca foi tão fácil e versátil. A linha do milagroso Cif Cremoso possui outras variedades de perfumes, como Laranja e Limão, que se adaptam ao seu estilo. Conheça a linha completa de produtos de limpeza Cif que não podem ficar de fora da sua lista de material de limpeza. Use também: Cif Cozinha, Cif Derrete Gordura, Cif Banheiro, Cif Tira Limo Com Cloro, Cif Vidros, Cif Cremoso e muito mais. Cif: Sinta a limpeza acontecer! Modo de usar: 1. Agite antes de usar. 2. Aplique uma pequena quantidade do produto sobre uma esponja ou pano úmido. 3. Esfregue a superfície suavemente até eliminar a sujeira. 4. Passe um pano úmido para finalizar. 5. Feche a embalagem após o uso. *Consulte lista das superfícies em www.ciflimpadores.com.br **Manchas de sabão e gordura queimada, comparado com limpadores comuns do mercado. Consulte a diferença de preços entre produtos. ***Não usar esponja ácida, como palha de aço, para a limpeza de vidros. A imagem do produto é meramente ilustrativa e o rótulo pode variar. Será enviada a embalagem disponível no momento da compra.</t>
+        </is>
+      </c>
       <c r="E48" t="n">
-        <v>7.99</v>
+        <v>13.29</v>
       </c>
       <c r="F48" t="n">
-        <v>7.99</v>
+        <v>18.99</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>74</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2020-12-16T00:00:00Z</t>
+          <t>2020-10-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3082667/VF4qT-qqCUAAAAAAAAOOdQ.jpg?v=637979987909700000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3640099/VF4qT-qqCUAAAAAAAAbyew.jpg?v=638585098972800000</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K48" t="n">
@@ -3859,21 +3863,21 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>16567</t>
+          <t>11602</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>16458</t>
+          <t>11625</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>CARIORTA</t>
+          <t>CIF</t>
         </is>
       </c>
       <c r="O48" t="n">
-        <v>2001012</v>
+        <v>2000541</v>
       </c>
       <c r="P48" t="n">
         <v>99999</v>
@@ -3882,43 +3886,43 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>saponaceo-cremoso-cif-limpeza-milagrosa-450ml-781266</t>
+          <t>cafe-torrado-e-moido-melitta-a-vacuo-500g-103845</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>CIF Cremoso Limpeza Milagrosa remove 100% da sujeira 450 ml</t>
+          <t>Café Torrado e Moído Melitta A Vácuo 500g</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>781266</t>
+          <t>103845</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>• Cif Cremoso Original é o produto de limpeza milagrosa que limpa fácil e dá brilho em mais de 100 superfícies*, removendo 100% da sujeira difícil, sem esforço • O Cif Cremoso Original possui um perfume suave, é mais concentrado e rende 7 garrafas do limpador comum • Fórmula com tecnologia poderosa que limpa sem riscar, removendo toda a sujeira desde a mais pesada até a limpeza de casa do dia a dia, deixando um brilho imbatível • Com o Cif, a limpeza nunca foi tão fácil e versátil. Cif Cremoso possui três variantes: Original, Limão e Laranja • Cif Cremoso Original é o produto de limpeza milagrosa para todo tipo de objeto como: eletrodomésticos, pias, couro sintético, borracha, plástico, porcelana e serve até como limpador de pisos • Cif promove uma limpeza milagrosa completa, com produtos versáteis que atendem a todas as suas necessidades. Cif. Sinta a limpeza acontecer! Cif Cremoso Original 450 ml é o produto de limpeza milagroso que limpa fácil e dá brilho em mais de 100 superfícies*, removendo 100% da sujeira difícil, sem esforço. O higienizador de casa cremoso é mais concentrado e rende 7 garrafas do limpador comum**. Sua fórmula, poderosa, limpa sem riscar***, removendo toda a sujeira desde a mais pesada até a limpeza de casa do dia a dia, deixando um brilho imbatível. Limpe toda sua casa usando o Cif Cremoso Original, que limpa todo tipo de objeto, como eletrodomésticos, potes plásticos, pias, brinquedos das crianças, persianas, pisos e até ajuda a deixar aquele cabo de carregador de celular como novo! Com o Limpador Cif, a limpeza nunca foi tão fácil e versátil. A linha do milagroso Cif Cremoso possui outras variedades de perfumes, como Laranja e Limão, que se adaptam ao seu estilo. Conheça a linha completa de produtos de limpeza Cif que não podem ficar de fora da sua lista de material de limpeza. Use também: Cif Cozinha, Cif Derrete Gordura, Cif Banheiro, Cif Tira Limo Com Cloro, Cif Vidros, Cif Cremoso e muito mais. Cif: Sinta a limpeza acontecer! Modo de usar: 1. Agite antes de usar. 2. Aplique uma pequena quantidade do produto sobre uma esponja ou pano úmido. 3. Esfregue a superfície suavemente até eliminar a sujeira. 4. Passe um pano úmido para finalizar. 5. Feche a embalagem após o uso. *Consulte lista das superfícies em www.ciflimpadores.com.br **Manchas de sabão e gordura queimada, comparado com limpadores comuns do mercado. Consulte a diferença de preços entre produtos. ***Não usar esponja ácida, como palha de aço, para a limpeza de vidros. A imagem do produto é meramente ilustrativa e o rótulo pode variar. Será enviada a embalagem disponível no momento da compra.</t>
+          <t>Feitos com uma cuidadosa seleção dos grãos que passam por um processo de torra a ar quente que resultam em cafés marcantes e fortes.</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>18.99</v>
+        <v>39.9</v>
       </c>
       <c r="F49" t="n">
-        <v>18.99</v>
+        <v>39.9</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>59</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2020-10-06T00:00:00Z</t>
+          <t>2020-07-13T00:00:00Z</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3640099/VF4qT-qqCUAAAAAAAAbyew.jpg?v=638585098972800000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3038677/VF4qT-qqCUAAAAAAAAGwhg.jpg?v=637792444870400000</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -3931,24 +3935,24 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>11602</t>
+          <t>53</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>11625</t>
+          <t>56</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>CIF</t>
+          <t>MELITTA</t>
         </is>
       </c>
       <c r="O49" t="n">
-        <v>2000541</v>
+        <v>2001329</v>
       </c>
       <c r="P49" t="n">
-        <v>100</v>
+        <v>99999</v>
       </c>
     </row>
   </sheetData>

--- a/zonasul.xlsx
+++ b/zonasul.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P49"/>
+  <dimension ref="A1:P50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,70 +518,70 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>batata-inglesa-cariorta-12kg-98698</t>
+          <t>matte-leao-limao-pet-1-5l-118222</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Batata Inglesa Cariorta 1,2Kg</t>
+          <t>Matte Leão Limão Pet 1,5L</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>98698</t>
+          <t>118222</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Cariorta selecionados de coração.</t>
+          <t>O Chá MATTE Limão Leão é um dos tipos de chás preferido dos consumidores. A marca Chá Mate Leão está presente no mercado há mais de 100 anos, sendo a marca de chá mais vendida e tradicional. Produzido com extrato aquoso de mate, açúcar e suco de limão, o Chá MATTE LEÃO Limão é a opção ideal para refrescar o seu dia! Compre e compartilhe com amigos e familiares!</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7.99</v>
+        <v>7.69</v>
       </c>
       <c r="F2" t="n">
-        <v>7.99</v>
+        <v>8.99</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2020-12-16T00:00:00Z</t>
+          <t>2020-10-01T00:00:00Z</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3082670/VF4qT-qqCUAAAAAAAAOOew.jpg?v=637979987993130000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3704455/VF4qT-qqCUAAAAAAAAcePQ.jpg?v=638609291270100000</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>16570</t>
+          <t>8711</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>16461</t>
+          <t>8723</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>CARIORTA</t>
+          <t>LEAO</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>2001012</v>
+        <v>2000010</v>
       </c>
       <c r="P2" t="n">
         <v>99999</v>
@@ -590,43 +590,39 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>matte-leao-limao-pet-1-5l-118222</t>
+          <t>creme-de-leite-nestle-10--gratis-200g-1165151</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Matte Leão Limão Pet 1,5L</t>
+          <t>Creme de Leite Nestlé 10% Grátis 200g</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>118222</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>O Chá MATTE Limão Leão é um dos tipos de chás preferido dos consumidores. A marca Chá Mate Leão está presente no mercado há mais de 100 anos, sendo a marca de chá mais vendida e tradicional. Produzido com extrato aquoso de mate, açúcar e suco de limão, o Chá MATTE LEÃO Limão é a opção ideal para refrescar o seu dia! Compre e compartilhe com amigos e familiares!</t>
-        </is>
-      </c>
+          <t>1165151</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
-        <v>7.69</v>
+        <v>4.29</v>
       </c>
       <c r="F3" t="n">
-        <v>8.99</v>
+        <v>5.99</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>71</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2020-10-01T00:00:00Z</t>
+          <t>2025-02-20T00:00:00Z</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3704455/VF4qT-qqCUAAAAAAAAcePQ.jpg?v=638609291270100000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4395976/VF4qT-qqCUAAAAAAAAoEeQ.jpg?v=638984266226730000</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -639,21 +635,21 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>8711</t>
+          <t>40151</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>8723</t>
+          <t>40078</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>LEAO</t>
+          <t>NESTLE</t>
         </is>
       </c>
       <c r="O3" t="n">
-        <v>2000010</v>
+        <v>2000043</v>
       </c>
       <c r="P3" t="n">
         <v>99999</v>
@@ -662,43 +658,43 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>rucula-unidade-201006</t>
+          <t>uva-preta-sem-semente-500-g-674583</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Rúcula Unidade</t>
+          <t>Uva Preta Sem Semente 500g</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>201006</t>
+          <t>674583</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>A rúcula é uma hortaliça rica em sais minerais e vitaminas A e C, tem o sabor picante e cheiro agradável e acentuado. Como Conservar:A hortaliça pode ser mantida no máximo por um dia, desde que colocando em local fresco, com a parte de baixo em uma vasilha com água .Em Geladeira o produto deve ser condicionado em saco de plástico ou vasilha tampada.Como Consumir : A rúcula é tradicionalmente consumida crua em saladas, temperada com azeite, sal e limão. Também pode ser consumida como ingredientes de torta,quiche, lasanha, sanduíches e bolinhos. [ Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
+          <t>Eventualmente, devido à variações climáticas, essa variedade pode apresentar traços de sementes comestíveis As uvas são, sem dúvidas, uma das frutas mais nutritivas de todas. Apesar de seu tamanho relativamente pequeno, elas são extremamente poderosas nutricionalmente e consumilas é muito importante para o bom funcionamento do corpo.As calorias presentes nas uvas também são poucas: apenas 90 em cerca de 150g. Por isso, é uma ótima opção também para aqueles que estão em processo de redução da massa corporal, desde que consumida com cautela.Rica em antioxidantes que são responsáveis por ‘’limpar’’ e proteger as nossas células dos chamados radicais livres, compostos potencialmente perigosos que podem danificar essas estruturas.Os antioxidantes estão mais comumente presentes na casca da fruta, o que é indicado pela coloração delas. Quanto mais escuras, maior é a concentração desses compostos na uva. Os principais exemplos são os polifenois, e o mais famoso deles chamase resveratrol.</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3.39</v>
+        <v>11.99</v>
       </c>
       <c r="F4" t="n">
-        <v>3.39</v>
+        <v>11.99</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2020-09-28T00:00:00Z</t>
+          <t>2020-09-26T00:00:00Z</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3040890/VF4qT-qqCUAAAAAAAAHLpQ.jpg?v=637792545082200000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3047035/VF4qT-qqCUAAAAAAAAGXCQ.jpg?v=637793205627670000</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -711,12 +707,12 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>7467</t>
+          <t>5264</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>7486</t>
+          <t>5280</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -734,39 +730,43 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>creme-de-leite-nestle-10--gratis-200g-1165151</t>
+          <t>alcool-montenegro-46-1-l-780570</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Creme de Leite Nestlé 10% Grátis 200g</t>
+          <t>Álcool Montenegro 46% 1 L</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1165151</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
+          <t>780570</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Álcool Montenegro 46% 1 L</t>
+        </is>
+      </c>
       <c r="E5" t="n">
-        <v>4.29</v>
+        <v>7.98</v>
       </c>
       <c r="F5" t="n">
-        <v>5.99</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>74</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-02-20T00:00:00Z</t>
+          <t>2020-10-06T10:47:00Z</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4395976/VF4qT-qqCUAAAAAAAAoEeQ.jpg?v=638984266226730000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3051579/VF4qT-qqCUAAAAAAAAG3pQ.jpg?v=637793390624870000</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -779,21 +779,21 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>40151</t>
+          <t>11598</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>40078</t>
+          <t>11621</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>NESTLE</t>
+          <t>MONTENEGRO</t>
         </is>
       </c>
       <c r="O5" t="n">
-        <v>2000043</v>
+        <v>2000527</v>
       </c>
       <c r="P5" t="n">
         <v>99999</v>
@@ -874,61 +874,57 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>uva-preta-sem-semente-500-g-674583</t>
+          <t>mucarela-em-fatias-92363</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Uva Preta Sem Semente 500g</t>
+          <t>Muçarela  em Fatias 200g</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>674583</t>
+          <t>92363</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Eventualmente, devido à variações climáticas, essa variedade pode apresentar traços de sementes comestíveis As uvas são, sem dúvidas, uma das frutas mais nutritivas de todas. Apesar de seu tamanho relativamente pequeno, elas são extremamente poderosas nutricionalmente e consumilas é muito importante para o bom funcionamento do corpo.As calorias presentes nas uvas também são poucas: apenas 90 em cerca de 150g. Por isso, é uma ótima opção também para aqueles que estão em processo de redução da massa corporal, desde que consumida com cautela.Rica em antioxidantes que são responsáveis por ‘’limpar’’ e proteger as nossas células dos chamados radicais livres, compostos potencialmente perigosos que podem danificar essas estruturas.Os antioxidantes estão mais comumente presentes na casca da fruta, o que é indicado pela coloração delas. Quanto mais escuras, maior é a concentração desses compostos na uva. Os principais exemplos são os polifenois, e o mais famoso deles chamase resveratrol.</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>11.99</v>
-      </c>
-      <c r="F7" t="n">
-        <v>11.99</v>
-      </c>
+          <t>Muçarela em Fatias</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>83</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2020-09-26T00:00:00Z</t>
+          <t>2020-09-27T00:00:00Z</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3047035/VF4qT-qqCUAAAAAAAAGXCQ.jpg?v=637793205627670000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3052070/VF4qT-qqCUAAAAAAAAI4-w.jpg?v=637793416889100000</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>5264</t>
+          <t>1361</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>5280</t>
+          <t>1368</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -940,49 +936,49 @@
         <v>2000015</v>
       </c>
       <c r="P7" t="n">
-        <v>99999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>alcool-montenegro-46-1-l-780570</t>
+          <t>cheiro-verde-unidade-201049</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Álcool Montenegro 46% 1 L</t>
+          <t>Cheiro Verde Unidade</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>780570</t>
+          <t>201049</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Álcool Montenegro 46% 1 L</t>
+          <t>O cheiro verde é a combinação da cebolinha e salsinha .Como conservar:Em geladeira por até 5 dias em saco ou vasilha de plástico.Como consumir:Podem ser adicionadas cruas, em saladas e recheios de sanduíches e como ingredientes em marinadas.</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7.98</v>
+        <v>2.49</v>
       </c>
       <c r="F8" t="n">
-        <v>8.789999999999999</v>
+        <v>3.39</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2020-10-06T10:47:00Z</t>
+          <t>2020-09-28T00:00:00Z</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3051579/VF4qT-qqCUAAAAAAAAG3pQ.jpg?v=637793390624870000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3457712/VF4qT-qqCUAAAAAAAAXvTg.jpg?v=638507335658200000</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -995,21 +991,21 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>11598</t>
+          <t>7411</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>11621</t>
+          <t>7430</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>MONTENEGRO</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O8" t="n">
-        <v>2000527</v>
+        <v>2000015</v>
       </c>
       <c r="P8" t="n">
         <v>99999</v>
@@ -1018,33 +1014,33 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>mucarela-em-fatias-92363</t>
+          <t>tomate-italiano-unidade-495212</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Muçarela  em Fatias 200g</t>
+          <t>Tomate Italiano Unidade</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>92363</t>
+          <t>495212</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Muçarela em Fatias</t>
+          <t>Tomate Italiano Unidade</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>59.9</v>
+        <v>1.36</v>
       </c>
       <c r="F9" t="n">
-        <v>59.9</v>
+        <v>1.53</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>53</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1054,25 +1050,25 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3052070/VF4qT-qqCUAAAAAAAAI4-w.jpg?v=637793416889100000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3094266/VF4qT-qqCUAAAAAAAASLmg.jpg?v=638191532599970000</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K9" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>1361</t>
+          <t>6965</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>1368</t>
+          <t>6983</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1090,43 +1086,43 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>cheiro-verde-unidade-201049</t>
+          <t>ovos-vermelhos-mantiqueira-happy-eggs-com-10-unidades-5106753</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Cheiro Verde Unidade</t>
+          <t>Ovos Vermelhos Mantiqueira Happy Eggs com 10 Unidades</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>201049</t>
+          <t>5106753</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>O cheiro verde é a combinação da cebolinha e salsinha .Como conservar:Em geladeira por até 5 dias em saco ou vasilha de plástico.Como consumir:Podem ser adicionadas cruas, em saladas e recheios de sanduíches e como ingredientes em marinadas.</t>
+          <t>Produzidos por galinhas criadas livres de gaiolas. Garantia de Bem-Estar Animal. Ovos Vermelhos Tipo Grande Categoria A. Embalagem com 10 unidades.</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3.39</v>
+        <v>11.99</v>
       </c>
       <c r="F10" t="n">
-        <v>3.39</v>
+        <v>11.99</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2020-09-28T00:00:00Z</t>
+          <t>2021-01-11T00:00:00Z</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3457712/VF4qT-qqCUAAAAAAAAXvTg.jpg?v=638507335658200000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4222023/VF4qT-qqCUAAAAAAAAStHA.jpg?v=638894405636230000</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1139,21 +1135,21 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>7411</t>
+          <t>18105</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>7430</t>
+          <t>17997</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>HAPPY EGGS</t>
         </is>
       </c>
       <c r="O10" t="n">
-        <v>2000015</v>
+        <v>2003319</v>
       </c>
       <c r="P10" t="n">
         <v>99999</v>
@@ -1162,43 +1158,43 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>tomate-italiano-unidade-495212</t>
+          <t>agua-mineral-com-gas-sao-lourenco-pet-1-26-l-140805</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Tomate Italiano Unidade</t>
+          <t>Água Mineral Com Gás São Lourenço Pet 1,26 L</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>495212</t>
+          <t>140805</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Tomate Italiano Unidade</t>
+          <t>Água Mineral Com Gás São Lourenço Pet 1,26 L</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1.53</v>
+        <v>5.29</v>
       </c>
       <c r="F11" t="n">
-        <v>1.53</v>
+        <v>5.29</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>18</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2020-09-27T00:00:00Z</t>
+          <t>2020-09-25T00:00:00Z</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3094266/VF4qT-qqCUAAAAAAAASLmg.jpg?v=638191532599970000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3076277/VF4qT-qqCUAAAAAAAAHMBQ.jpg?v=637877821166370000</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1211,21 +1207,21 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>6965</t>
+          <t>3915</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>6983</t>
+          <t>3929</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>SAO LOURENCO</t>
         </is>
       </c>
       <c r="O11" t="n">
-        <v>2000015</v>
+        <v>2000145</v>
       </c>
       <c r="P11" t="n">
         <v>99999</v>
@@ -1234,43 +1230,43 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ovos-vermelhos-mantiqueira-happy-eggs-com-10-unidades-5106753</t>
+          <t>cafe-torrado-e-moido-pilao-tradicional-500g-828025</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Ovos Vermelhos Mantiqueira Happy Eggs com 10 Unidades</t>
+          <t>Café Torrado E Moído Pilão Tradicional Fresh Pack 500g</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>5106753</t>
+          <t>828025</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Produzidos por galinhas criadas livres de gaiolas. Garantia de Bem-Estar Animal. Ovos Vermelhos Tipo Grande Categoria A. Embalagem com 10 unidades.</t>
+          <t>Tem um ponto de torra acentuado e um processo de moagem fina e uniforme, que garantem e preservam seu sabor forte e encorpado.É perfeito para servir em dia de casa cheia, pois seu sabor tradicional agrada a todo mundo.</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>11.99</v>
+        <v>29.98</v>
       </c>
       <c r="F12" t="n">
-        <v>11.99</v>
+        <v>43.9</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>59</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2021-01-11T00:00:00Z</t>
+          <t>2020-09-15T00:00:00Z</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4222023/VF4qT-qqCUAAAAAAAAStHA.jpg?v=638894405636230000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3051146/VF4qT-qqCUAAAAAAAAG1sQ.jpg?v=637793369863530000</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1283,21 +1279,21 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>18105</t>
+          <t>130</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>17997</t>
+          <t>135</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>HAPPY EGGS</t>
+          <t>PILAO</t>
         </is>
       </c>
       <c r="O12" t="n">
-        <v>2003319</v>
+        <v>2000070</v>
       </c>
       <c r="P12" t="n">
         <v>99999</v>
@@ -1306,43 +1302,43 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>agua-mineral-com-gas-sao-lourenco-pet-1-26-l-140805</t>
+          <t>guardanapo-folha-dupla-scott-grand-hotel-238cm×218cm-50-unidades-129879</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Água Mineral Com Gás São Lourenço Pet 1,26 L</t>
+          <t>Guardanapo Folha Dupla Scott Grand Hotel 23,8cm×21,8cm 50 Unidades</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>140805</t>
+          <t>129879</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Água Mineral Com Gás São Lourenço Pet 1,26 L</t>
+          <t>Guardanapo Folha Dupla Scott Grand Hotel 23,8cm×21,8cm 50 Unidades</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5.29</v>
+        <v>6.19</v>
       </c>
       <c r="F13" t="n">
-        <v>5.29</v>
+        <v>6.19</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>111</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2020-09-25T00:00:00Z</t>
+          <t>2020-10-05T00:00:00Z</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3076277/VF4qT-qqCUAAAAAAAAHMBQ.jpg?v=637877821166370000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3239421/VF4qT-qqCUAAAAAAAAVSfw.jpg?v=638362188224230000</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1355,21 +1351,21 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>3915</t>
+          <t>9426</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>3929</t>
+          <t>9438</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>SAO LOURENCO</t>
+          <t>GRANDE HOTEL</t>
         </is>
       </c>
       <c r="O13" t="n">
-        <v>2000145</v>
+        <v>2001400</v>
       </c>
       <c r="P13" t="n">
         <v>99999</v>
@@ -1378,43 +1374,43 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>cafe-torrado-e-moido-pilao-tradicional-500g-828025</t>
+          <t>manga-palmer-unidade-5130760</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Café Torrado E Moído Pilão Tradicional Fresh Pack 500g</t>
+          <t>Manga Palmer Unidade</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>828025</t>
+          <t>5130760</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Tem um ponto de torra acentuado e um processo de moagem fina e uniforme, que garantem e preservam seu sabor forte e encorpado.É perfeito para servir em dia de casa cheia, pois seu sabor tradicional agrada a todo mundo.</t>
+          <t>Manga Palmer Unidade</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>29.98</v>
+        <v>4.79</v>
       </c>
       <c r="F14" t="n">
-        <v>43.9</v>
+        <v>5.39</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2020-09-15T00:00:00Z</t>
+          <t>2023-02-16T00:00:00Z</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3051146/VF4qT-qqCUAAAAAAAAG1sQ.jpg?v=637793369863530000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3153453/VF4qT-qqCUAAAAAAAAUnKA.jpg?v=638319847497670000</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1427,21 +1423,21 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>31977</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>31902</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>PILAO</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O14" t="n">
-        <v>2000070</v>
+        <v>2000015</v>
       </c>
       <c r="P14" t="n">
         <v>99999</v>
@@ -1450,43 +1446,43 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>guardanapo-folha-dupla-scott-grand-hotel-238cm×218cm-50-unidades-129879</t>
+          <t>couve-flor-unidade-189111</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Guardanapo Folha Dupla Scott Grand Hotel 23,8cm×21,8cm 50 Unidades</t>
+          <t>Couve Flor Unidade</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>129879</t>
+          <t>189111</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Guardanapo Folha Dupla Scott Grand Hotel 23,8cm×21,8cm 50 Unidades</t>
+          <t>A couveflor é uma hortaliça rica em cálcio e fósforo e fonte de ácido fólico e vitamina C . Como Conservar:Na geladeira pode ser conservada por 3 a 5 dias, dentro de saco plástico perfurado. Antes de guardar, remova as partes escuras e folhas, mas não lave a cabeça.Como Consumir:Pode ser consumida assada, frita ou cozinhe em água e sal. [Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6.19</v>
+        <v>7.99</v>
       </c>
       <c r="F15" t="n">
-        <v>6.19</v>
+        <v>9.99</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>53</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2020-10-05T00:00:00Z</t>
+          <t>2020-09-28T00:00:00Z</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3239421/VF4qT-qqCUAAAAAAAAVSfw.jpg?v=638362188224230000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3041615/VF4qT-qqCUAAAAAAAAGF4Q.jpg?v=637792579893500000</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1499,21 +1495,21 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>9426</t>
+          <t>7446</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>9438</t>
+          <t>7465</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>GRANDE HOTEL</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O15" t="n">
-        <v>2001400</v>
+        <v>2000015</v>
       </c>
       <c r="P15" t="n">
         <v>99999</v>
@@ -1522,29 +1518,29 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>manga-palmer-unidade-5130760</t>
+          <t>abacaxi-unidade-221</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Manga Palmer Unidade</t>
+          <t>Abacaxi Unidade</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>5130760</t>
+          <t>221</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Manga Palmer Unidade</t>
+          <t>Peso Aproximado 1,61,8Kg / Unidade.O Abacaxi é rico em Vitaminas A, B5, B6, C, BetaCaroteno, Tiamina, Antioxidantes e Fibras, auxiliando na saciedade e regulação do peso. É uma Importante fonte de energia póstreino. Auxilia nos processos antiinflamatórios por conter Bromelina, enzima encontrada principalmente no talo da fruta. Como preparar: no seu estado natural cortado, em saladas, assado, grelhado, sucos, geleias, sorvetes e chás.</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5.39</v>
+        <v>9.99</v>
       </c>
       <c r="F16" t="n">
-        <v>5.39</v>
+        <v>10.99</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1553,12 +1549,12 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2023-02-16T00:00:00Z</t>
+          <t>2020-09-26T00:00:00Z</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3153453/VF4qT-qqCUAAAAAAAAUnKA.jpg?v=638319847497670000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3041923/VF4qT-qqCUAAAAAAAAFtXw.jpg?v=637792593143530000</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1571,12 +1567,12 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>31977</t>
+          <t>4959</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>31902</t>
+          <t>4975</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1588,54 +1584,54 @@
         <v>2000015</v>
       </c>
       <c r="P16" t="n">
-        <v>99999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>couve-flor-unidade-189111</t>
+          <t>limao-cariorta-1kg-98981</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Couve Flor Unidade</t>
+          <t>Limão Cariorta 1Kg</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>189111</t>
+          <t>98981</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>A couveflor é uma hortaliça rica em cálcio e fósforo e fonte de ácido fólico e vitamina C . Como Conservar:Na geladeira pode ser conservada por 3 a 5 dias, dentro de saco plástico perfurado. Antes de guardar, remova as partes escuras e folhas, mas não lave a cabeça.Como Consumir:Pode ser consumida assada, frita ou cozinhe em água e sal. [Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
+          <t>Cariorta selecionados de coração.</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>9.99</v>
+        <v>11.99</v>
       </c>
       <c r="F17" t="n">
-        <v>9.99</v>
+        <v>11.99</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>482</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2020-09-28T00:00:00Z</t>
+          <t>2020-05-20T00:00:00Z</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3041615/VF4qT-qqCUAAAAAAAAGF4Q.jpg?v=637792579893500000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3084385/VF4qT-qqCUAAAAAAAAOgIg.jpg?v=638000868147970000</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K17" t="n">
@@ -1643,21 +1639,21 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>7446</t>
+          <t>24698</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>7465</t>
+          <t>24622</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>CARIORTA</t>
         </is>
       </c>
       <c r="O17" t="n">
-        <v>2000015</v>
+        <v>2001012</v>
       </c>
       <c r="P17" t="n">
         <v>99999</v>
@@ -1666,29 +1662,29 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>abacaxi-unidade-221</t>
+          <t>morango-250g-289612</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Abacaxi Unidade</t>
+          <t>Morango 250g</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>289612</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Peso Aproximado 1,61,8Kg / Unidade.O Abacaxi é rico em Vitaminas A, B5, B6, C, BetaCaroteno, Tiamina, Antioxidantes e Fibras, auxiliando na saciedade e regulação do peso. É uma Importante fonte de energia póstreino. Auxilia nos processos antiinflamatórios por conter Bromelina, enzima encontrada principalmente no talo da fruta. Como preparar: no seu estado natural cortado, em saladas, assado, grelhado, sucos, geleias, sorvetes e chás.</t>
+          <t>Embalagem com 250g "O morango é rico em vitamina C e, por isso, o consumo da fruta evita a fragilidade dos ossos e a má formação dos dentes. Ele também dá resistência aos tecidos, age contra infecções ajudando na cicatrização. O morango também possui, em menor quantidade, vitamina B5, conhecida como niacina. Ela tem a função de evitar problemas de pele, do aparelho digestivo e do sistema nervoso. Na fruta, também é encontrado ferro, que faz parte da formação do sangue."</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>10.99</v>
+        <v>9.99</v>
       </c>
       <c r="F18" t="n">
-        <v>10.99</v>
+        <v>9.99</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1702,7 +1698,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3041923/VF4qT-qqCUAAAAAAAAFtXw.jpg?v=637792593143530000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3226559/VF4qT-qqCUAAAAAAAAHKNA.jpg?v=638352676547800000</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1715,12 +1711,12 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>4959</t>
+          <t>5152</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>4975</t>
+          <t>5168</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -1732,49 +1728,49 @@
         <v>2000015</v>
       </c>
       <c r="P18" t="n">
-        <v>100</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>pao-de-forma-plus-vita-tradicional-500-g-252921</t>
+          <t>detergente-para-loucas-odd-clear-500ml-982911</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Pão de Forma Tradicional Plusvita 480g</t>
+          <t>Detergente Para Louças Odd Clear 500ml</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>252921</t>
+          <t>982911</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Versátil, prático e para qualquer momento, trazendo a energia necessária para o seu dia. Perfeito para sanduíches, torradas, receitas para o café da manhã, café da tarde, almoço e jantar</t>
+          <t>ODD voltou!Alto rendimento , controle de odor.</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>9.98</v>
+        <v>1.9</v>
       </c>
       <c r="F19" t="n">
-        <v>9.98</v>
+        <v>2.49</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>76</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2020-10-05T00:00:00Z</t>
+          <t>2020-10-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3663691/VF4qT-qqCUAAAAAAAAb-gA.jpg?v=638592874910030000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3056732/VF4qT-qqCUAAAAAAAAHzRQ.jpg?v=637793635376800000</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1787,71 +1783,71 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>9715</t>
+          <t>11872</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>9727</t>
+          <t>11898</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>PLUS VITA</t>
+          <t>LIMPPANO</t>
         </is>
       </c>
       <c r="O19" t="n">
-        <v>2000316</v>
+        <v>2001341</v>
       </c>
       <c r="P19" t="n">
-        <v>100</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>limao-cariorta-1kg-98981</t>
+          <t>file-de-peito-de-frango-sadia-bandeja-1kg-290564</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Limão Cariorta 1Kg</t>
+          <t>Filé de Peito de Frango Sadia Bandeja 1kg</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>98981</t>
+          <t>290564</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Cariorta selecionados de coração.</t>
+          <t>Peito De Frango Em Filés Sadia Bandeja 1kg</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>11.99</v>
+        <v>24.99</v>
       </c>
       <c r="F20" t="n">
-        <v>11.99</v>
+        <v>26.99</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>125</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2020-05-20T00:00:00Z</t>
+          <t>2020-09-29T00:00:00Z</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3084385/VF4qT-qqCUAAAAAAAAOgIg.jpg?v=638000868147970000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3538840/VF4qT-qqCUAAAAAAAAa5gg.jpg?v=638550537679130000</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K20" t="n">
@@ -1859,66 +1855,66 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>24698</t>
+          <t>7</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>24622</t>
+          <t>7</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>CARIORTA</t>
+          <t>SADIA</t>
         </is>
       </c>
       <c r="O20" t="n">
-        <v>2001012</v>
+        <v>2000057</v>
       </c>
       <c r="P20" t="n">
-        <v>99999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>morango-250g-289612</t>
+          <t>farinha-de-trigo-dona-benta-1kg-105287</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Morango 250g</t>
+          <t>Farinha De Trigo Dona Benta 1kg</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>289612</t>
+          <t>105287</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Embalagem com 250g "O morango é rico em vitamina C e, por isso, o consumo da fruta evita a fragilidade dos ossos e a má formação dos dentes. Ele também dá resistência aos tecidos, age contra infecções ajudando na cicatrização. O morango também possui, em menor quantidade, vitamina B5, conhecida como niacina. Ela tem a função de evitar problemas de pele, do aparelho digestivo e do sistema nervoso. Na fruta, também é encontrado ferro, que faz parte da formação do sangue."</t>
+          <t>Farinha De Trigo Dona Benta 1kg</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>9.99</v>
+        <v>7.99</v>
       </c>
       <c r="F21" t="n">
-        <v>9.99</v>
+        <v>7.99</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>63</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2020-09-26T00:00:00Z</t>
+          <t>2020-07-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3226559/VF4qT-qqCUAAAAAAAAHKNA.jpg?v=638352676547800000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3079291/VF4qT-qqCUAAAAAAAANuog.jpg?v=637897755804270000</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1931,93 +1927,89 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>5152</t>
+          <t>31</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>5168</t>
+          <t>31</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>DONA BENTA</t>
         </is>
       </c>
       <c r="O21" t="n">
-        <v>2000015</v>
+        <v>2000701</v>
       </c>
       <c r="P21" t="n">
-        <v>99999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>farinha-de-trigo-dona-benta-1kg-105287</t>
+          <t>pao-frances-panetto-60g-com-4-unidades-96318</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Farinha De Trigo Dona Benta 1kg</t>
+          <t>Pão Francês Panetto  60g Com 4 unidades</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>105287</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Farinha De Trigo Dona Benta 1kg</t>
-        </is>
-      </c>
+          <t>96318</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="n">
-        <v>7.99</v>
+        <v>23.98</v>
       </c>
       <c r="F22" t="n">
-        <v>7.99</v>
+        <v>23.98</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>89</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2020-07-06T00:00:00Z</t>
+          <t>2024-01-31T00:00:00Z</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3079291/VF4qT-qqCUAAAAAAAANuog.jpg?v=637897755804270000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3307700/VF4qT-qqCUAAAAAAAAWnXQ.jpg?v=638932898013670000</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>0.24</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>35477</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>35404</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>DONA BENTA</t>
+          <t>PANETTO</t>
         </is>
       </c>
       <c r="O22" t="n">
-        <v>2000701</v>
+        <v>2000307</v>
       </c>
       <c r="P22" t="n">
         <v>99999</v>
@@ -2026,43 +2018,39 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>file-de-peito-de-frango-sadia-bandeja-1kg-290564</t>
+          <t>ovos-vermelhos-caipira-happy-eggs-com-20-unidades-370550</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Filé de Peito de Frango Sadia Bandeja 1kg</t>
+          <t>Ovos Vermelhos Caipira Happy Eggs Com 20 Unidades</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>290564</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Peito De Frango Em Filés Sadia Bandeja 1kg</t>
-        </is>
-      </c>
+          <t>370550</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="n">
         <v>24.99</v>
       </c>
       <c r="F23" t="n">
-        <v>26.99</v>
+        <v>24.99</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2020-09-29T00:00:00Z</t>
+          <t>2020-09-27T00:00:00Z</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3538840/VF4qT-qqCUAAAAAAAAa5gg.jpg?v=638550537679130000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4343192/VF4qT-qqCUAAAAAAAAn9QA.jpg?v=638956617627730000</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -2075,21 +2063,21 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6939</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6957</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>SADIA</t>
+          <t>HAPPY EGGS</t>
         </is>
       </c>
       <c r="O23" t="n">
-        <v>2000057</v>
+        <v>2003319</v>
       </c>
       <c r="P23" t="n">
         <v>99999</v>
@@ -2098,43 +2086,43 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>detergente-para-loucas-odd-clear-500ml-982911</t>
+          <t>abobrinha-italiana-unidade-423513</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Detergente Para Louças Odd Clear 500ml</t>
+          <t>Abobrinha Italiana Unidade</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>982911</t>
+          <t>423513</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>ODD voltou!Alto rendimento , controle de odor.</t>
+          <t>Abobrinha Italiana Unidade</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="F24" t="n">
-        <v>2.49</v>
+        <v>2.1</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>53</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2020-10-06T00:00:00Z</t>
+          <t>2020-12-07T00:00:00Z</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3056732/VF4qT-qqCUAAAAAAAAHzRQ.jpg?v=637793635376800000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3095398/VF4qT-qqCUAAAAAAAASlGA.jpg?v=638211351178300000</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -2147,21 +2135,21 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>11872</t>
+          <t>16065</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>11898</t>
+          <t>15956</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>LIMPPANO</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O24" t="n">
-        <v>2001341</v>
+        <v>2000015</v>
       </c>
       <c r="P24" t="n">
         <v>99999</v>
@@ -2170,66 +2158,70 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>pao-frances-panetto-60g-com-4-unidades-96318</t>
+          <t>guardanapo-folha-dupla-scott-grand-hotel-jantar-33×33-cm-com-50-unidades-129887</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Pão Francês Panetto  60g Com 4 unidades</t>
+          <t>Guardanapo Folha Dupla Scott Grand Hotel Jantar 33×33 Cm Com 50 Unidades</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>96318</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
+          <t>129887</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>O Guardanapo Grand Hotel folha tripla é mais sofisticado e garante uma maciez superior para todos os momentos. Contém 50 folhas de tamanho 31,8x32,8 cm cada.</t>
+        </is>
+      </c>
       <c r="E25" t="n">
-        <v>23.98</v>
+        <v>12.99</v>
       </c>
       <c r="F25" t="n">
-        <v>23.98</v>
+        <v>12.99</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>111</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2024-01-31T00:00:00Z</t>
+          <t>2020-10-05T00:00:00Z</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3307700/VF4qT-qqCUAAAAAAAAWnXQ.jpg?v=638932898013670000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3078100/129887_1.jpg?v=637895346534630000</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K25" t="n">
-        <v>0.24</v>
+        <v>1</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>35477</t>
+          <t>9427</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>35404</t>
+          <t>9439</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>PANETTO</t>
+          <t>GRANDE HOTEL</t>
         </is>
       </c>
       <c r="O25" t="n">
-        <v>2000307</v>
+        <v>2001401</v>
       </c>
       <c r="P25" t="n">
         <v>99999</v>
@@ -2238,29 +2230,29 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>abobrinha-italiana-unidade-423513</t>
+          <t>abobora-japonesa-pedaco-500g-38229</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Abobrinha Italiana Unidade</t>
+          <t>Abóbora Japonesa Pedaço 500g</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>423513</t>
+          <t>38229</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Abobrinha Italiana Unidade</t>
+          <t>Embalagem com 1 pedaço.</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>2.1</v>
+        <v>4.99</v>
       </c>
       <c r="F26" t="n">
-        <v>2.1</v>
+        <v>4.99</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -2269,30 +2261,30 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2020-12-07T00:00:00Z</t>
+          <t>2020-09-26T00:00:00Z</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3095398/VF4qT-qqCUAAAAAAAASlGA.jpg?v=638211351178300000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3096862/VF4qT-qqCUAAAAAAAAS9Tw.jpg?v=638235593168230000</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K26" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>16065</t>
+          <t>5593</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>15956</t>
+          <t>5609</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -2310,66 +2302,70 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ovos-vermelhos-caipira-happy-eggs-com-20-unidades-370550</t>
+          <t>cebola-roxa-400g-38393</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Ovos Vermelhos Caipira Happy Eggs Com 20 Unidades</t>
+          <t>Cebola Roxa 400g</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>370550</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
+          <t>38393</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Embalagem com 2 a 3 unidades. Melhor para comer cru; Use : no guacamole, em conserva, na salada, no sanduíche.</t>
+        </is>
+      </c>
       <c r="E27" t="n">
-        <v>24.99</v>
+        <v>7.69</v>
       </c>
       <c r="F27" t="n">
-        <v>24.99</v>
+        <v>7.69</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2020-09-27T00:00:00Z</t>
+          <t>2020-09-26T00:00:00Z</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4343192/VF4qT-qqCUAAAAAAAAn9QA.jpg?v=638956617627730000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3081506/VF4qT-qqCUAAAAAAAAOBng.jpg?v=637947101712670000</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K27" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>6939</t>
+          <t>5543</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>6957</t>
+          <t>5559</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>HAPPY EGGS</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O27" t="n">
-        <v>2003319</v>
+        <v>2000015</v>
       </c>
       <c r="P27" t="n">
         <v>99999</v>
@@ -2378,70 +2374,70 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>guardanapo-folha-dupla-scott-grand-hotel-jantar-33×33-cm-com-50-unidades-129887</t>
+          <t>mamao-papaia-cariorta-12kg-99007</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Guardanapo Folha Dupla Scott Grand Hotel Jantar 33×33 Cm Com 50 Unidades</t>
+          <t>Mamão Papaia Cariorta 1,2kg</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>129887</t>
+          <t>99007</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>O Guardanapo Grand Hotel folha tripla é mais sofisticado e garante uma maciez superior para todos os momentos. Contém 50 folhas de tamanho 31,8x32,8 cm cada.</t>
+          <t>Cariorta selecionados de coração.</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>12.99</v>
+        <v>15.99</v>
       </c>
       <c r="F28" t="n">
-        <v>12.99</v>
+        <v>15.99</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>482</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2020-10-05T00:00:00Z</t>
+          <t>2020-05-20T00:00:00Z</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3078100/129887_1.jpg?v=637895346534630000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3082688/VF4qT-qqCUAAAAAAAAOOog.jpg?v=637980006057500000</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K28" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>9427</t>
+          <t>24413</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>9439</t>
+          <t>24337</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>GRANDE HOTEL</t>
+          <t>CARIORTA</t>
         </is>
       </c>
       <c r="O28" t="n">
-        <v>2001401</v>
+        <v>2001012</v>
       </c>
       <c r="P28" t="n">
         <v>99999</v>
@@ -2450,61 +2446,61 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>abobora-japonesa-pedaco-500g-38229</t>
+          <t>espinafre-unidade-200948</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Abóbora Japonesa Pedaço 500g</t>
+          <t>Espinafre Unidade</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>38229</t>
+          <t>200948</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Embalagem com 1 pedaço.</t>
+          <t>O espinafre é uma hortaliça saborosa, rica em ferro e também é fonte de vitamina A e B2, além de fornecer cálcio, fósforo, potássio e magnésio, é indicado também para pessoas com anemia e desnutrição.Como conservar :Sob refrigeração, pode ser mantido por no máximo 5 dias. Antes de colocálo na geladeira, lave as folhas, escorra o excesso de água e coloqueo em sacos de plástico perfurados ou em vasilha de plástico.Como consumir :O espinafre também pode ser usado em saladas, sopas,suflês omeletes. É ótimo como recheio ou acompanhamento de massas como macarrão, quiche, tortas, pastéis e assados. [Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>4.99</v>
+        <v>2.49</v>
       </c>
       <c r="F29" t="n">
-        <v>4.99</v>
+        <v>3.39</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2020-09-26T00:00:00Z</t>
+          <t>2020-09-28T00:00:00Z</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3096862/VF4qT-qqCUAAAAAAAAS9Tw.jpg?v=638235593168230000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3076729/VF4qT-qqCUAAAAAAAAKBdQ.jpg?v=637877840409270000</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K29" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>5593</t>
+          <t>7464</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>5609</t>
+          <t>7483</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -2522,70 +2518,70 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>mamao-papaia-cariorta-12kg-99007</t>
+          <t>la-de-aco-bombril-com-6-unidades-45g-1180320</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Mamão Papaia Cariorta 1,2kg</t>
+          <t>Lã de Aço Bombril com 6 Unidades 45g</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>99007</t>
+          <t>1180320</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Cariorta selecionados de coração.</t>
+          <t>Uso: Ideal para limpeza de panelas, utensílios de cozinha, superfícies metálicas e outras áreas que necessitam de uma limpeza mais intensa.Remove sujeiras difíceis, incluindo resíduos de alimentos queimados e ferrugem.</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>15.99</v>
+        <v>2.09</v>
       </c>
       <c r="F30" t="n">
-        <v>15.99</v>
+        <v>2.99</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>78</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2020-05-20T00:00:00Z</t>
+          <t>2025-07-17T00:00:00Z</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3082688/VF4qT-qqCUAAAAAAAAOOog.jpg?v=637980006057500000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4216409/VF4qT-qqCUAAAAAAAAko5g.jpg?v=638889221726300000</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K30" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>24413</t>
+          <t>41130</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>24337</t>
+          <t>41057</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>CARIORTA</t>
+          <t>BOMBRIL</t>
         </is>
       </c>
       <c r="O30" t="n">
-        <v>2001012</v>
+        <v>2001389</v>
       </c>
       <c r="P30" t="n">
         <v>99999</v>
@@ -2594,43 +2590,43 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>saponaceo-cremoso-cif-gratis-20-450-ml-839264</t>
+          <t>coentro-unidade-200930</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Saponáceo Cremoso Cif Grátis 20% 450ml</t>
+          <t>Coentro Unidade</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>839264</t>
+          <t>200930</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>• Multiuso Cremoso • 1 gota remove 100% da sujeira difícil • Limpa sem riscar com micropartículas de origem natural • Poderoso na limpeza, imbatível no cuidado • Use também em couro sintético, plástico, porcelana e borracha • Para toda casa CIF Multiuso Cremoso Original, possui uma fórmula exclusiva que limpa profundamente, removendo 100% da sujeira difícil, com apenas 1 gota. O limpador CIF Cremoso é mais concentrado e por isso pode render até 7 garrafas * dos limpadores comuns encontrados no mercado. Com sua tecnologia, o limpador de casa CIF Multiuso Cremoso Original é poderoso na limpeza e imbatível no cuidado. Sua formula com micropartículas de origem natural limpam, sem riscar, removendo toda a sujeira desde a mais pesada até a manutenção do dia a dia, deixando um brilho imbatível. Limpe toda sua casa usando o limpador multiuso CIF Multiuso Cremoso, que limpa mais de 100 objetos **, como fogão, micro-ondas, chinelos, panelas, geladeira, potes plásticos, pias, torneiras, sofá, máquina de lavar, brinquedos das crianças, persianas, utensílios de churrasco, talheres, ventilador e até ajuda a deixar aquele cabo de carregador de celular como novo! CIF é muito mais do que uma linha de produtos de limpeza, CIF é cuidado com a sua casa. A família de multiuso CIF Cremoso possui uma variedade de fragrâncias, sendo elas: Original, Laranja e Limão, todas super refrescantes e se adaptam ao seu estilo e à sua casa. CIF Multiuso Cremoso é um grande aliado na limpeza de casa, para mantê-la sempre limpa, bonita e bem cuidada, do jeito que você e sua família merecem. CIF é poderoso na limpeza e imbatível no cuidado pois sabemos que cada cantinho da sua casa merece limpeza e cuidado.</t>
+          <t>Coentro Unidade</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>14.99</v>
+        <v>2.49</v>
       </c>
       <c r="F31" t="n">
-        <v>14.99</v>
+        <v>3.39</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2020-10-06T00:00:00Z</t>
+          <t>2020-09-28T00:00:00Z</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3077844/839264_17.jpg?v=637895340530470000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3076728/VF4qT-qqCUAAAAAAAAGF4g.jpg?v=637877840364830000</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -2643,21 +2639,21 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>12274</t>
+          <t>7408</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>12301</t>
+          <t>7427</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>CIF</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O31" t="n">
-        <v>2000541</v>
+        <v>2000015</v>
       </c>
       <c r="P31" t="n">
         <v>99999</v>
@@ -2666,43 +2662,43 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>espinafre-unidade-200948</t>
+          <t>saponaceo-cremoso-cif-gratis-20-450-ml-839264</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Espinafre Unidade</t>
+          <t>Saponáceo Cremoso Cif Grátis 20% 450ml</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>200948</t>
+          <t>839264</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>O espinafre é uma hortaliça saborosa, rica em ferro e também é fonte de vitamina A e B2, além de fornecer cálcio, fósforo, potássio e magnésio, é indicado também para pessoas com anemia e desnutrição.Como conservar :Sob refrigeração, pode ser mantido por no máximo 5 dias. Antes de colocálo na geladeira, lave as folhas, escorra o excesso de água e coloqueo em sacos de plástico perfurados ou em vasilha de plástico.Como consumir :O espinafre também pode ser usado em saladas, sopas,suflês omeletes. É ótimo como recheio ou acompanhamento de massas como macarrão, quiche, tortas, pastéis e assados. [Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
+          <t>• Multiuso Cremoso • 1 gota remove 100% da sujeira difícil • Limpa sem riscar com micropartículas de origem natural • Poderoso na limpeza, imbatível no cuidado • Use também em couro sintético, plástico, porcelana e borracha • Para toda casa CIF Multiuso Cremoso Original, possui uma fórmula exclusiva que limpa profundamente, removendo 100% da sujeira difícil, com apenas 1 gota. O limpador CIF Cremoso é mais concentrado e por isso pode render até 7 garrafas * dos limpadores comuns encontrados no mercado. Com sua tecnologia, o limpador de casa CIF Multiuso Cremoso Original é poderoso na limpeza e imbatível no cuidado. Sua formula com micropartículas de origem natural limpam, sem riscar, removendo toda a sujeira desde a mais pesada até a manutenção do dia a dia, deixando um brilho imbatível. Limpe toda sua casa usando o limpador multiuso CIF Multiuso Cremoso, que limpa mais de 100 objetos **, como fogão, micro-ondas, chinelos, panelas, geladeira, potes plásticos, pias, torneiras, sofá, máquina de lavar, brinquedos das crianças, persianas, utensílios de churrasco, talheres, ventilador e até ajuda a deixar aquele cabo de carregador de celular como novo! CIF é muito mais do que uma linha de produtos de limpeza, CIF é cuidado com a sua casa. A família de multiuso CIF Cremoso possui uma variedade de fragrâncias, sendo elas: Original, Laranja e Limão, todas super refrescantes e se adaptam ao seu estilo e à sua casa. CIF Multiuso Cremoso é um grande aliado na limpeza de casa, para mantê-la sempre limpa, bonita e bem cuidada, do jeito que você e sua família merecem. CIF é poderoso na limpeza e imbatível no cuidado pois sabemos que cada cantinho da sua casa merece limpeza e cuidado.</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>3.39</v>
+        <v>14.99</v>
       </c>
       <c r="F32" t="n">
-        <v>3.39</v>
+        <v>14.99</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>74</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2020-09-28T00:00:00Z</t>
+          <t>2020-10-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3076729/VF4qT-qqCUAAAAAAAAKBdQ.jpg?v=637877840409270000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3077844/839264_17.jpg?v=637895340530470000</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2715,21 +2711,21 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>7464</t>
+          <t>12274</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>7483</t>
+          <t>12301</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>CIF</t>
         </is>
       </c>
       <c r="O32" t="n">
-        <v>2000015</v>
+        <v>2000541</v>
       </c>
       <c r="P32" t="n">
         <v>99999</v>
@@ -2738,43 +2734,43 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>la-de-aco-bombril-com-6-unidades-45g-1180320</t>
+          <t>papel-higienico-folha-tripla-neve-supreme-dermacare-pacote-leve-16-pague-15-unidades-981168</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Lã de Aço Bombril com 6 Unidades 45g</t>
+          <t>Papel Higiênico Folha Tripla Neve Supreme Dermacare Pacote Leve 16 Pague 15 Unidades</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1180320</t>
+          <t>981168</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Uso: Ideal para limpeza de panelas, utensílios de cozinha, superfícies metálicas e outras áreas que necessitam de uma limpeza mais intensa.Remove sujeiras difíceis, incluindo resíduos de alimentos queimados e ferrugem.</t>
+          <t>Papel higiênico neutro folha tripla de alta qualidade. Neve quer ajudar as pessoas a cuidarem de si, por isso desenvolveu um produto que proporciona maciez insuperável com mais absorção e resistência.</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>2.09</v>
+        <v>28.98</v>
       </c>
       <c r="F33" t="n">
-        <v>2.99</v>
+        <v>32.19</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>14</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-07-17T00:00:00Z</t>
+          <t>2020-09-22T00:00:00Z</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4216409/VF4qT-qqCUAAAAAAAAko5g.jpg?v=638889221726300000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4430737/VF4qT-qqCUAAAAAAAAoMMw.jpg?v=639014499358300000</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2787,21 +2783,21 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>41130</t>
+          <t>1262</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>41057</t>
+          <t>1269</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>BOMBRIL</t>
+          <t>NEVE</t>
         </is>
       </c>
       <c r="O33" t="n">
-        <v>2001389</v>
+        <v>2000291</v>
       </c>
       <c r="P33" t="n">
         <v>99999</v>
@@ -2810,43 +2806,43 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>detergente-para-loucas-biodegradavel-limpol-neutro-500-ml-100510</t>
+          <t>refrigerante-coca-cola-sem-acucar-pet-600-ml-429392</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Detergente Para Louças Biodegradável Limpol Neutro 500ml</t>
+          <t>Refrigerante Coca Cola Sem Açúcar Pet 600ml</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>100510</t>
+          <t>429392</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>O Lava-Louças Limpol é eficiente no poder da limpeza, remoção da gordura e sujeiras e no combate aos maus odores indesejados da cozinha. Sua fórmula é dermatologicamente testada e contém glicerina, tornando-a mais suave para as mãos.</t>
+          <t>A Coca-Cola Sem Açúcar é um refrigerante que não contém calorias! Com certeza você já se perguntou: “Então, de onde vem aquele gostinho doce? ” A Coca-Cola Sem Açúcar é produzida especialmente com adoçantes para manter o delicioso sabor de Coca-Cola porém com 0% Açucar. Perfeita para matar sua sede a qualquer hora do dia!</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>2.79</v>
+        <v>5.69</v>
       </c>
       <c r="F34" t="n">
-        <v>2.79</v>
+        <v>5.69</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2020-10-06T00:00:00Z</t>
+          <t>2020-10-01T00:00:00Z</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3269221/12054_1.jpg?v=638386029717470000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4483407/VF4qT-qqCUAAAAAAAAoapA.jpg?v=639052524553700000</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2859,21 +2855,21 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>12054</t>
+          <t>8816</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>12081</t>
+          <t>8828</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>LIMPOL</t>
+          <t>COCA COLA</t>
         </is>
       </c>
       <c r="O34" t="n">
-        <v>2001413</v>
+        <v>2000027</v>
       </c>
       <c r="P34" t="n">
         <v>99999</v>
@@ -2882,43 +2878,43 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>coentro-unidade-200930</t>
+          <t>oleo-de-soja-liza-900ml-127310</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Coentro Unidade</t>
+          <t>Óleo De Soja Liza 900ml</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>200930</t>
+          <t>127310</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Coentro Unidade</t>
+          <t>Óleo De Soja Liza 900ml</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>3.39</v>
+        <v>8.59</v>
       </c>
       <c r="F35" t="n">
-        <v>3.39</v>
+        <v>8.59</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>576</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2020-09-28T00:00:00Z</t>
+          <t>2020-09-15T00:00:00Z</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3076728/VF4qT-qqCUAAAAAAAAGF4g.jpg?v=637877840364830000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3075849/VF4qT-qqCUAAAAAAAAIxqw.jpg?v=637877802666600000</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2931,21 +2927,21 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>7408</t>
+          <t>127</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>7427</t>
+          <t>132</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>LIZA</t>
         </is>
       </c>
       <c r="O35" t="n">
-        <v>2000015</v>
+        <v>2000067</v>
       </c>
       <c r="P35" t="n">
         <v>99999</v>
@@ -2954,43 +2950,43 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>refrigerante-coca-cola-sem-acucar-pet-600-ml-429392</t>
+          <t>sal-refinado-iodado-ita-1kg-117293</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Refrigerante Coca Cola Sem Açúcar Pet 600ml</t>
+          <t>Sal Refinado Iodado Ita 1kg</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>429392</t>
+          <t>117293</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>A Coca-Cola Sem Açúcar é um refrigerante que não contém calorias! Com certeza você já se perguntou: “Então, de onde vem aquele gostinho doce? ” A Coca-Cola Sem Açúcar é produzida especialmente com adoçantes para manter o delicioso sabor de Coca-Cola porém com 0% Açucar. Perfeita para matar sua sede a qualquer hora do dia!</t>
+          <t>Sal Refinado Iodado Ita 1kg</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>5.69</v>
+        <v>3.65</v>
       </c>
       <c r="F36" t="n">
-        <v>5.69</v>
+        <v>3.65</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2020-10-01T00:00:00Z</t>
+          <t>2020-09-15T00:00:00Z</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4483407/VF4qT-qqCUAAAAAAAAoapA.jpg?v=639052524553700000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3076051/VF4qT-qqCUAAAAAAAAKZcQ.jpg?v=637877811480070000</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -3003,66 +2999,66 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>8816</t>
+          <t>126</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>8828</t>
+          <t>131</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>COCA COLA</t>
+          <t>ITA</t>
         </is>
       </c>
       <c r="O36" t="n">
-        <v>2000027</v>
+        <v>2000066</v>
       </c>
       <c r="P36" t="n">
-        <v>99999</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>sal-refinado-iodado-ita-1kg-117293</t>
+          <t>detergente-para-loucas-biodegradavel-limpol-neutro-500-ml-100510</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Sal Refinado Iodado Ita 1kg</t>
+          <t>Detergente Para Louças Biodegradável Limpol Neutro 500ml</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>117293</t>
+          <t>100510</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Sal Refinado Iodado Ita 1kg</t>
+          <t>O Lava-Louças Limpol é eficiente no poder da limpeza, remoção da gordura e sujeiras e no combate aos maus odores indesejados da cozinha. Sua fórmula é dermatologicamente testada e contém glicerina, tornando-a mais suave para as mãos.</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>3.65</v>
+        <v>2.79</v>
       </c>
       <c r="F37" t="n">
-        <v>3.65</v>
+        <v>2.79</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>76</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2020-09-15T00:00:00Z</t>
+          <t>2020-10-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3076051/VF4qT-qqCUAAAAAAAAKZcQ.jpg?v=637877811480070000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3269221/12054_1.jpg?v=638386029717470000</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -3075,138 +3071,138 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>12054</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>12081</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>ITA</t>
+          <t>LIMPOL</t>
         </is>
       </c>
       <c r="O37" t="n">
-        <v>2000066</v>
+        <v>2001413</v>
       </c>
       <c r="P37" t="n">
-        <v>100</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>oleo-de-soja-liza-900ml-127310</t>
+          <t>pessego-nacional-500g-12408</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Óleo De Soja Liza 900ml</t>
+          <t>Pêssego Nacional 600g</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>127310</t>
+          <t>12408</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Óleo De Soja Liza 900ml</t>
+          <t>Pêssego Nacional 500g</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>8.59</v>
+        <v>9.99</v>
       </c>
       <c r="F38" t="n">
-        <v>8.59</v>
+        <v>10.99</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2020-09-15T00:00:00Z</t>
+          <t>2020-09-26T00:00:00Z</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3075849/VF4qT-qqCUAAAAAAAAIxqw.jpg?v=637877802666600000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3092387/VF4qT-qqCUAAAAAAAAFvOA.jpg?v=638151904193130000</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K38" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>5122</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>5138</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>LIZA</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O38" t="n">
-        <v>2000067</v>
+        <v>2000015</v>
       </c>
       <c r="P38" t="n">
-        <v>99999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>papel-higienico-folha-tripla-neve-supreme-dermacare-pacote-leve-16-pague-15-unidades-981168</t>
+          <t>pao-de-queijo-forno-de-minas-tradicional--400-g-456110</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Papel Higiênico Folha Tripla Neve Supreme Dermacare Pacote Leve 16 Pague 15 Unidades</t>
+          <t>Pão De Queijo Forno De Minas Tradicional 400g</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>981168</t>
+          <t>456110</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Papel higiênico neutro folha tripla de alta qualidade. Neve quer ajudar as pessoas a cuidarem de si, por isso desenvolveu um produto que proporciona maciez insuperável com mais absorção e resistência.</t>
+          <t>Pão De Queijo Forno De Minas Tradicional 400g</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>28.98</v>
+        <v>21.99</v>
       </c>
       <c r="F39" t="n">
-        <v>32.19</v>
+        <v>21.99</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>119</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2020-09-22T00:00:00Z</t>
+          <t>2020-10-20T00:00:00Z</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4430737/VF4qT-qqCUAAAAAAAAoMMw.jpg?v=639014499358300000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3041185/VF4qT-qqCUAAAAAAAAHIag.jpg?v=637792557833470000</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -3219,138 +3215,134 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>1262</t>
+          <t>13544</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>1269</t>
+          <t>13564</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>NEVE</t>
+          <t>FORNO MINAS</t>
         </is>
       </c>
       <c r="O39" t="n">
-        <v>2000291</v>
+        <v>2001500</v>
       </c>
       <c r="P39" t="n">
-        <v>99999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>pessego-nacional-500g-12408</t>
+          <t>azeite-italiano-extra-virgem-due-500ml-5472040</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Pêssego Nacional 600g</t>
+          <t>Azeite Italiano Extravirgem Due 500ml</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>12408</t>
+          <t>5472040</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Pêssego Nacional 500g</t>
+          <t>O azeite Due é um blend de azeites do Mediterrâneo que confere um resultado clássico e ideal para o cotidiano da cozinha. Sua elaboração conta com uma seleção cautelosamente realizada pelo Expert em Azeites e Temperos Marcelo Scofano, que anualmente viaja à Toscana (Itália), onde o azeite é produzido, para cuidar de cada detalhe pessoalmente.Due é um azeite clássico, ideal para o dia a dia da cozinha: marinados, refogados, emulsão de molhos, finalização de saladas, massas e pratos do cotidiano. O azeite clássico é extraído de azeitonas maduras. Possui sabor amendoado, com notas amargas e picantes em equilíbrio.O azeite Due faz parte da grupo de marcas exclusivas Zona Sul, criada e pensada com carinho para os cariocas de coração. O planejamento de cada produto exclusivo conta com a participação dos Experts Zona Sul em todo o processo, até chegar na sua mesa. E com a linha Due não é diferente!</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>9.99</v>
+        <v>29.98</v>
       </c>
       <c r="F40" t="n">
-        <v>9.99</v>
+        <v>36.9</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>597</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2020-09-26T00:00:00Z</t>
+          <t>2025-05-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3092387/VF4qT-qqCUAAAAAAAAFvOA.jpg?v=638151904193130000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4116721/VF4qT-qqCUAAAAAAAAiyjQ.jpg?v=638846625781330000</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K40" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>5122</t>
+          <t>40224</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>5138</t>
+          <t>40151</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>DUE</t>
         </is>
       </c>
       <c r="O40" t="n">
-        <v>2000015</v>
+        <v>2005138</v>
       </c>
       <c r="P40" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>pao-de-queijo-forno-de-minas-tradicional--400-g-456110</t>
+          <t>couve-manteiga-unidade-201235</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Pão De Queijo Forno De Minas Tradicional 400g</t>
+          <t>Couve Manteiga Unidade</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>456110</t>
+          <t>201235</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Pão De Queijo Forno De Minas Tradicional 400g</t>
-        </is>
-      </c>
-      <c r="E41" t="n">
-        <v>21.99</v>
-      </c>
-      <c r="F41" t="n">
-        <v>21.99</v>
-      </c>
+          <t>A couve é uma hortaliça muito rica em nutriente,cálcio, ferro e vitaminas A,C, K e B5.Como conservar:Em geladeira, inteira ou picada deve ser mantida em saco plástico fechado ou em vasilha de plástico tampada.Como consumir:Pode ser consumida crua, em saladas e sucos, refogada ou como ingrediente de sopas, farofas e cozidos.[ Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2020-10-20T00:00:00Z</t>
+          <t>2020-09-28T00:00:00Z</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3041185/VF4qT-qqCUAAAAAAAAHIag.jpg?v=637792557833470000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3083631/VF4qT-qqCUAAAAAAAAOZOA.jpg?v=637994955185970000</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -3363,138 +3355,134 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>13544</t>
+          <t>7445</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>13564</t>
+          <t>7464</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>FORNO MINAS</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O41" t="n">
-        <v>2001500</v>
+        <v>2000015</v>
       </c>
       <c r="P41" t="n">
-        <v>99999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>biscoito-cream-cracker-piraque-pacote-184g-1105795</t>
+          <t>alho-roxo-cariorta-4-a-5-unidades-250g-99279</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Biscoito Cream Cracker Piraquê Pacote 184g</t>
+          <t>Alho Roxo Cariorta 4 a 5 unidades 250g</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>1105795</t>
+          <t>99279</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Biscoito Salgado Cream Cracker Piraquê Pacote 184g</t>
-        </is>
-      </c>
-      <c r="E42" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="F42" t="n">
-        <v>5.99</v>
-      </c>
+          <t>Cariorta selecionados de coração.</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>480</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2023-07-26T00:00:00Z</t>
+          <t>2020-05-27T00:00:00Z</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3099416/VF4qT-qqCUAAAAAAAATd0w.jpg?v=638264204522930000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3082698/VF4qT-qqCUAAAAAAAAOOtg.jpg?v=637980006345970000</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K42" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>33955</t>
+          <t>24684</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>33882</t>
+          <t>24608</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>PIRAQUE</t>
+          <t>CARIORTA</t>
         </is>
       </c>
       <c r="O42" t="n">
-        <v>2000017</v>
+        <v>2001012</v>
       </c>
       <c r="P42" t="n">
-        <v>99999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>couve-manteiga-unidade-201235</t>
+          <t>saponaceo-cremoso-cif-limpeza-milagrosa-450ml-781266</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Couve Manteiga Unidade</t>
+          <t>CIF Cremoso Limpeza Milagrosa remove 100% da sujeira 450 ml</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>201235</t>
+          <t>781266</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>A couve é uma hortaliça muito rica em nutriente,cálcio, ferro e vitaminas A,C, K e B5.Como conservar:Em geladeira, inteira ou picada deve ser mantida em saco plástico fechado ou em vasilha de plástico tampada.Como consumir:Pode ser consumida crua, em saladas e sucos, refogada ou como ingrediente de sopas, farofas e cozidos.[ Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
+          <t>• Cif Cremoso Original é o produto de limpeza milagrosa que limpa fácil e dá brilho em mais de 100 superfícies*, removendo 100% da sujeira difícil, sem esforço • O Cif Cremoso Original possui um perfume suave, é mais concentrado e rende 7 garrafas do limpador comum • Fórmula com tecnologia poderosa que limpa sem riscar, removendo toda a sujeira desde a mais pesada até a limpeza de casa do dia a dia, deixando um brilho imbatível • Com o Cif, a limpeza nunca foi tão fácil e versátil. Cif Cremoso possui três variantes: Original, Limão e Laranja • Cif Cremoso Original é o produto de limpeza milagrosa para todo tipo de objeto como: eletrodomésticos, pias, couro sintético, borracha, plástico, porcelana e serve até como limpador de pisos • Cif promove uma limpeza milagrosa completa, com produtos versáteis que atendem a todas as suas necessidades. Cif. Sinta a limpeza acontecer! Cif Cremoso Original 450 ml é o produto de limpeza milagroso que limpa fácil e dá brilho em mais de 100 superfícies*, removendo 100% da sujeira difícil, sem esforço. O higienizador de casa cremoso é mais concentrado e rende 7 garrafas do limpador comum**. Sua fórmula, poderosa, limpa sem riscar***, removendo toda a sujeira desde a mais pesada até a limpeza de casa do dia a dia, deixando um brilho imbatível. Limpe toda sua casa usando o Cif Cremoso Original, que limpa todo tipo de objeto, como eletrodomésticos, potes plásticos, pias, brinquedos das crianças, persianas, pisos e até ajuda a deixar aquele cabo de carregador de celular como novo! Com o Limpador Cif, a limpeza nunca foi tão fácil e versátil. A linha do milagroso Cif Cremoso possui outras variedades de perfumes, como Laranja e Limão, que se adaptam ao seu estilo. Conheça a linha completa de produtos de limpeza Cif que não podem ficar de fora da sua lista de material de limpeza. Use também: Cif Cozinha, Cif Derrete Gordura, Cif Banheiro, Cif Tira Limo Com Cloro, Cif Vidros, Cif Cremoso e muito mais. Cif: Sinta a limpeza acontecer! Modo de usar: 1. Agite antes de usar. 2. Aplique uma pequena quantidade do produto sobre uma esponja ou pano úmido. 3. Esfregue a superfície suavemente até eliminar a sujeira. 4. Passe um pano úmido para finalizar. 5. Feche a embalagem após o uso. *Consulte lista das superfícies em www.ciflimpadores.com.br **Manchas de sabão e gordura queimada, comparado com limpadores comuns do mercado. Consulte a diferença de preços entre produtos. ***Não usar esponja ácida, como palha de aço, para a limpeza de vidros. A imagem do produto é meramente ilustrativa e o rótulo pode variar. Será enviada a embalagem disponível no momento da compra.</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>3.39</v>
+        <v>13.29</v>
       </c>
       <c r="F43" t="n">
-        <v>3.39</v>
+        <v>18.99</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>74</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2020-09-28T00:00:00Z</t>
+          <t>2020-10-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3083631/VF4qT-qqCUAAAAAAAAOZOA.jpg?v=637994955185970000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3640099/VF4qT-qqCUAAAAAAAAbyew.jpg?v=638585098972800000</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -3507,66 +3495,66 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>7445</t>
+          <t>11602</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>7464</t>
+          <t>11625</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>CIF</t>
         </is>
       </c>
       <c r="O43" t="n">
-        <v>2000015</v>
+        <v>2000541</v>
       </c>
       <c r="P43" t="n">
-        <v>99999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>alho-roxo-cariorta-4-a-5-unidades-250g-99279</t>
+          <t>cereja-chilena-300g-13463</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Alho Roxo Cariorta 4 a 5 unidades 250g</t>
+          <t>Cereja Chilena 300g</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>99279</t>
+          <t>13463</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Cariorta selecionados de coração.</t>
+          <t>As cerejas chilenas vão deleitar seu paladar com seu doce e suculento sabor. Sua cor intensa, que varia do vermelho vibrante a tonalidades mais escuras, é um banquete para os olhos e o sinal dos inúmeros benefícios à saúde. Essa pequena fruta é uma fonte nutricional completa, com vitaminas essenciais como a C e a E, além de minerais como o ferro, potássio e magnésio. A cerejas podem ser consumidas frescas, no preparo de conservas, sobremesas e tortas e são classificadas por tamanho e nós só trazemos as mais graúdas especialmente para você!</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>59.99</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="F44" t="n">
-        <v>59.99</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2020-05-27T00:00:00Z</t>
+          <t>2020-09-26T00:00:00Z</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3082698/VF4qT-qqCUAAAAAAAAOOtg.jpg?v=637980006345970000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4434078/VF4qT-qqCUAAAAAAAAoONQ.jpg?v=639019170859200000</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -3575,25 +3563,25 @@
         </is>
       </c>
       <c r="K44" t="n">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>24684</t>
+          <t>5090</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>24608</t>
+          <t>5106</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>CARIORTA</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O44" t="n">
-        <v>2001012</v>
+        <v>2000015</v>
       </c>
       <c r="P44" t="n">
         <v>99999</v>
@@ -3602,70 +3590,66 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>azeite-italiano-extra-virgem-due-500ml-5472040</t>
+          <t>file-mignon-resfriado-sem-cordao-2-2kg-44822</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Azeite Italiano Extravirgem Due 500ml</t>
+          <t>Filé Mignon Resfriado Sem Cordão 2,2kg</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>5472040</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>O azeite Due é um blend de azeites do Mediterrâneo que confere um resultado clássico e ideal para o cotidiano da cozinha. Sua elaboração conta com uma seleção cautelosamente realizada pelo Expert em Azeites e Temperos Marcelo Scofano, que anualmente viaja à Toscana (Itália), onde o azeite é produzido, para cuidar de cada detalhe pessoalmente.Due é um azeite clássico, ideal para o dia a dia da cozinha: marinados, refogados, emulsão de molhos, finalização de saladas, massas e pratos do cotidiano. O azeite clássico é extraído de azeitonas maduras. Possui sabor amendoado, com notas amargas e picantes em equilíbrio.O azeite Due faz parte da grupo de marcas exclusivas Zona Sul, criada e pensada com carinho para os cariocas de coração. O planejamento de cada produto exclusivo conta com a participação dos Experts Zona Sul em todo o processo, até chegar na sua mesa. E com a linha Due não é diferente!</t>
-        </is>
-      </c>
+          <t>44822</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
       <c r="E45" t="n">
-        <v>29.98</v>
+        <v>99.98999999999999</v>
       </c>
       <c r="F45" t="n">
-        <v>36.9</v>
+        <v>99.98999999999999</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>124</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2025-05-06T00:00:00Z</t>
+          <t>2020-09-28T00:00:00Z</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4116721/VF4qT-qqCUAAAAAAAAiyjQ.jpg?v=638846625781330000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4340142/VF4qT-qqCUAAAAAAAAJRsQ.jpg?v=638954025546430000</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K45" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>40224</t>
+          <t>7539</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>40151</t>
+          <t>7558</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>DUE</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O45" t="n">
-        <v>2005138</v>
+        <v>2000015</v>
       </c>
       <c r="P45" t="n">
         <v>99999</v>
@@ -3674,70 +3658,70 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>cereja-chilena-300g-13463</t>
+          <t>matte-leao-natural-pet-15l-118214</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Cereja Chilena 300g</t>
+          <t>Matte Leão Natural Pet 1,5L</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>13463</t>
+          <t>118214</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>As cerejas chilenas vão deleitar seu paladar com seu doce e suculento sabor. Sua cor intensa, que varia do vermelho vibrante a tonalidades mais escuras, é um banquete para os olhos e o sinal dos inúmeros benefícios à saúde. Essa pequena fruta é uma fonte nutricional completa, com vitaminas essenciais como a C e a E, além de minerais como o ferro, potássio e magnésio. A cerejas podem ser consumidas frescas, no preparo de conservas, sobremesas e tortas e são classificadas por tamanho e nós só trazemos as mais graúdas especialmente para você!</t>
+          <t>Renove seu humor, recicle seu ritmo e siga em frente. Experimente combinar o seu dia com o sabor inconfundível de Matte Leão.Matte Leão é feito com folhas de ervamate selecionadas e tostadas num processo único, especialmente para você.Porção de 200 mL (1 copo) = 68 kcal.</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>79.90000000000001</v>
+        <v>7.69</v>
       </c>
       <c r="F46" t="n">
-        <v>79.90000000000001</v>
+        <v>8.99</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2020-09-26T00:00:00Z</t>
+          <t>2020-10-01T00:00:00Z</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4434078/VF4qT-qqCUAAAAAAAAoONQ.jpg?v=639019170859200000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3704453/VF4qT-qqCUAAAAAAAAGyOQ.jpg?v=638609291247270000</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K46" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>5090</t>
+          <t>8709</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>5106</t>
+          <t>8721</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>LEAO</t>
         </is>
       </c>
       <c r="O46" t="n">
-        <v>2000015</v>
+        <v>2000010</v>
       </c>
       <c r="P46" t="n">
         <v>99999</v>
@@ -3746,39 +3730,39 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>file-mignon-resfriado-sem-cordao-2-2kg-44822</t>
+          <t>abobrinha-italiana-cariorta-1kg-98663</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Filé Mignon Resfriado Sem Cordão 2,2kg</t>
+          <t>Abobrinha Italiana Cariorta 1Kg</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>44822</t>
+          <t>98663</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="n">
-        <v>99.98999999999999</v>
+        <v>7.99</v>
       </c>
       <c r="F47" t="n">
-        <v>99.98999999999999</v>
+        <v>7.99</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>483</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2020-09-28T00:00:00Z</t>
+          <t>2020-12-16T00:00:00Z</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4340142/VF4qT-qqCUAAAAAAAAJRsQ.jpg?v=638954025546430000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3082667/VF4qT-qqCUAAAAAAAAOOdQ.jpg?v=637979987909700000</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -3787,70 +3771,70 @@
         </is>
       </c>
       <c r="K47" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>7539</t>
+          <t>16567</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>7558</t>
+          <t>16458</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>CARIORTA</t>
         </is>
       </c>
       <c r="O47" t="n">
-        <v>2000015</v>
+        <v>2001012</v>
       </c>
       <c r="P47" t="n">
-        <v>100</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>saponaceo-cremoso-cif-limpeza-milagrosa-450ml-781266</t>
+          <t>papel-aluminio-rolitto-30cm-x-75-m-897795</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>CIF Cremoso Limpeza Milagrosa remove 100% da sujeira 450 ml</t>
+          <t>Papel Alumínio Rolitto 30Cm X 7,5 M</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>781266</t>
+          <t>897795</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>• Cif Cremoso Original é o produto de limpeza milagrosa que limpa fácil e dá brilho em mais de 100 superfícies*, removendo 100% da sujeira difícil, sem esforço • O Cif Cremoso Original possui um perfume suave, é mais concentrado e rende 7 garrafas do limpador comum • Fórmula com tecnologia poderosa que limpa sem riscar, removendo toda a sujeira desde a mais pesada até a limpeza de casa do dia a dia, deixando um brilho imbatível • Com o Cif, a limpeza nunca foi tão fácil e versátil. Cif Cremoso possui três variantes: Original, Limão e Laranja • Cif Cremoso Original é o produto de limpeza milagrosa para todo tipo de objeto como: eletrodomésticos, pias, couro sintético, borracha, plástico, porcelana e serve até como limpador de pisos • Cif promove uma limpeza milagrosa completa, com produtos versáteis que atendem a todas as suas necessidades. Cif. Sinta a limpeza acontecer! Cif Cremoso Original 450 ml é o produto de limpeza milagroso que limpa fácil e dá brilho em mais de 100 superfícies*, removendo 100% da sujeira difícil, sem esforço. O higienizador de casa cremoso é mais concentrado e rende 7 garrafas do limpador comum**. Sua fórmula, poderosa, limpa sem riscar***, removendo toda a sujeira desde a mais pesada até a limpeza de casa do dia a dia, deixando um brilho imbatível. Limpe toda sua casa usando o Cif Cremoso Original, que limpa todo tipo de objeto, como eletrodomésticos, potes plásticos, pias, brinquedos das crianças, persianas, pisos e até ajuda a deixar aquele cabo de carregador de celular como novo! Com o Limpador Cif, a limpeza nunca foi tão fácil e versátil. A linha do milagroso Cif Cremoso possui outras variedades de perfumes, como Laranja e Limão, que se adaptam ao seu estilo. Conheça a linha completa de produtos de limpeza Cif que não podem ficar de fora da sua lista de material de limpeza. Use também: Cif Cozinha, Cif Derrete Gordura, Cif Banheiro, Cif Tira Limo Com Cloro, Cif Vidros, Cif Cremoso e muito mais. Cif: Sinta a limpeza acontecer! Modo de usar: 1. Agite antes de usar. 2. Aplique uma pequena quantidade do produto sobre uma esponja ou pano úmido. 3. Esfregue a superfície suavemente até eliminar a sujeira. 4. Passe um pano úmido para finalizar. 5. Feche a embalagem após o uso. *Consulte lista das superfícies em www.ciflimpadores.com.br **Manchas de sabão e gordura queimada, comparado com limpadores comuns do mercado. Consulte a diferença de preços entre produtos. ***Não usar esponja ácida, como palha de aço, para a limpeza de vidros. A imagem do produto é meramente ilustrativa e o rótulo pode variar. Será enviada a embalagem disponível no momento da compra.</t>
+          <t>Envolve , protege e conserva.</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>13.29</v>
+        <v>6.99</v>
       </c>
       <c r="F48" t="n">
-        <v>18.99</v>
+        <v>6.99</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>111</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2020-10-06T00:00:00Z</t>
+          <t>2020-10-05T00:00:00Z</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3640099/VF4qT-qqCUAAAAAAAAbyew.jpg?v=638585098972800000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3061098/VF4qT-qqCUAAAAAAAAGpfA.jpg?v=637794125591230000</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -3863,21 +3847,21 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>11602</t>
+          <t>9853</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>11625</t>
+          <t>9866</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>CIF</t>
+          <t>KENTINHA</t>
         </is>
       </c>
       <c r="O48" t="n">
-        <v>2000541</v>
+        <v>2001532</v>
       </c>
       <c r="P48" t="n">
         <v>99999</v>
@@ -3952,6 +3936,78 @@
         <v>2001329</v>
       </c>
       <c r="P49" t="n">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>pao-frances-panetto-60g-com-8-unidades-96504</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Pão Francês Panetto 60g Com 8 Unidades</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>96504</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Pão Francês Panetto é feito com farinha de qualidade superior, sua massa é cuidadosamente elaborada para garantir uma textura crocante por fora e um interior macio e arejado. Cada mordida revela a combinação perfeita entre crocância e suavidade, tornando-o ideal para acompanhar seu café da manhã e lanche da tarde.</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>23.98</v>
+      </c>
+      <c r="F50" t="n">
+        <v>23.98</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>2024-02-01T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3310764/VF4qT-qqCUAAAAAAAAWu8Q.jpg?v=638932897909230000</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>35484</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>35411</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>PANETTO</t>
+        </is>
+      </c>
+      <c r="O50" t="n">
+        <v>2000307</v>
+      </c>
+      <c r="P50" t="n">
         <v>99999</v>
       </c>
     </row>

--- a/zonasul.xlsx
+++ b/zonasul.xlsx
@@ -590,66 +590,70 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>creme-de-leite-nestle-10--gratis-200g-1165151</t>
+          <t>batata-inglesa-cariorta-12kg-98698</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Creme de Leite Nestlé 10% Grátis 200g</t>
+          <t>Batata Inglesa Cariorta 1,2Kg</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1165151</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
+          <t>98698</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Cariorta selecionados de coração.</t>
+        </is>
+      </c>
       <c r="E3" t="n">
-        <v>4.29</v>
+        <v>8.99</v>
       </c>
       <c r="F3" t="n">
-        <v>5.99</v>
+        <v>8.99</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>483</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-02-20T00:00:00Z</t>
+          <t>2020-12-16T00:00:00Z</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4395976/VF4qT-qqCUAAAAAAAAoEeQ.jpg?v=638984266226730000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3082670/VF4qT-qqCUAAAAAAAAOOew.jpg?v=637979987993130000</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>40151</t>
+          <t>16570</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>40078</t>
+          <t>16461</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>NESTLE</t>
+          <t>CARIORTA</t>
         </is>
       </c>
       <c r="O3" t="n">
-        <v>2000043</v>
+        <v>2001012</v>
       </c>
       <c r="P3" t="n">
         <v>99999</v>
@@ -658,43 +662,39 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>uva-preta-sem-semente-500-g-674583</t>
+          <t>creme-de-leite-nestle-10--gratis-200g-1165151</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Uva Preta Sem Semente 500g</t>
+          <t>Creme de Leite Nestlé 10% Grátis 200g</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>674583</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Eventualmente, devido à variações climáticas, essa variedade pode apresentar traços de sementes comestíveis As uvas são, sem dúvidas, uma das frutas mais nutritivas de todas. Apesar de seu tamanho relativamente pequeno, elas são extremamente poderosas nutricionalmente e consumilas é muito importante para o bom funcionamento do corpo.As calorias presentes nas uvas também são poucas: apenas 90 em cerca de 150g. Por isso, é uma ótima opção também para aqueles que estão em processo de redução da massa corporal, desde que consumida com cautela.Rica em antioxidantes que são responsáveis por ‘’limpar’’ e proteger as nossas células dos chamados radicais livres, compostos potencialmente perigosos que podem danificar essas estruturas.Os antioxidantes estão mais comumente presentes na casca da fruta, o que é indicado pela coloração delas. Quanto mais escuras, maior é a concentração desses compostos na uva. Os principais exemplos são os polifenois, e o mais famoso deles chamase resveratrol.</t>
-        </is>
-      </c>
+          <t>1165151</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>11.99</v>
+        <v>4.29</v>
       </c>
       <c r="F4" t="n">
-        <v>11.99</v>
+        <v>5.99</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>71</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2020-09-26T00:00:00Z</t>
+          <t>2025-02-20T00:00:00Z</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3047035/VF4qT-qqCUAAAAAAAAGXCQ.jpg?v=637793205627670000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4395976/VF4qT-qqCUAAAAAAAAoEeQ.jpg?v=638984266226730000</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -707,21 +707,21 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>5264</t>
+          <t>40151</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>5280</t>
+          <t>40078</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>NESTLE</t>
         </is>
       </c>
       <c r="O4" t="n">
-        <v>2000015</v>
+        <v>2000043</v>
       </c>
       <c r="P4" t="n">
         <v>99999</v>
@@ -730,43 +730,43 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>alcool-montenegro-46-1-l-780570</t>
+          <t>uva-preta-sem-semente-500-g-674583</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Álcool Montenegro 46% 1 L</t>
+          <t>Uva Preta Sem Semente 500g</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>780570</t>
+          <t>674583</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Álcool Montenegro 46% 1 L</t>
+          <t>Eventualmente, devido à variações climáticas, essa variedade pode apresentar traços de sementes comestíveis As uvas são, sem dúvidas, uma das frutas mais nutritivas de todas. Apesar de seu tamanho relativamente pequeno, elas são extremamente poderosas nutricionalmente e consumilas é muito importante para o bom funcionamento do corpo.As calorias presentes nas uvas também são poucas: apenas 90 em cerca de 150g. Por isso, é uma ótima opção também para aqueles que estão em processo de redução da massa corporal, desde que consumida com cautela.Rica em antioxidantes que são responsáveis por ‘’limpar’’ e proteger as nossas células dos chamados radicais livres, compostos potencialmente perigosos que podem danificar essas estruturas.Os antioxidantes estão mais comumente presentes na casca da fruta, o que é indicado pela coloração delas. Quanto mais escuras, maior é a concentração desses compostos na uva. Os principais exemplos são os polifenois, e o mais famoso deles chamase resveratrol.</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7.98</v>
+        <v>11.99</v>
       </c>
       <c r="F5" t="n">
-        <v>8.789999999999999</v>
+        <v>11.99</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2020-10-06T10:47:00Z</t>
+          <t>2020-09-26T00:00:00Z</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3051579/VF4qT-qqCUAAAAAAAAG3pQ.jpg?v=637793390624870000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3047035/VF4qT-qqCUAAAAAAAAGXCQ.jpg?v=637793205627670000</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -779,21 +779,21 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>11598</t>
+          <t>5264</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>11621</t>
+          <t>5280</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>MONTENEGRO</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O5" t="n">
-        <v>2000527</v>
+        <v>2000015</v>
       </c>
       <c r="P5" t="n">
         <v>99999</v>
@@ -802,43 +802,43 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>leite-uht-piracanjuba-integral-1l-865427</t>
+          <t>alcool-montenegro-46-1-l-780570</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Leite Uht Piracanjuba Integral 1L</t>
+          <t>Álcool Montenegro 46% 1 L</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>865427</t>
+          <t>780570</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>No café da manhã, em um delicioso lanche da tarde ou até mesmo antes de dormir, o Leite Piracanjuba cumpre bem o seu papel principal: trazer mais sabor para os seus momentos especiais e para as suas receitas. Mais sabor para todos os momentos.</t>
+          <t>Álcool Montenegro 46% 1 L</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5.29</v>
+        <v>7.98</v>
       </c>
       <c r="F6" t="n">
-        <v>5.29</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>74</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2017-04-12T00:00:00Z</t>
+          <t>2020-10-06T10:47:00Z</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3294485/VF4qT-qqCUAAAAAAAAWbgQ.jpg?v=638412300289570000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3051579/VF4qT-qqCUAAAAAAAAG3pQ.jpg?v=637793390624870000</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -851,21 +851,21 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>23232</t>
+          <t>11598</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>23158</t>
+          <t>11621</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>PIRACANJUBA</t>
+          <t>MONTENEGRO</t>
         </is>
       </c>
       <c r="O6" t="n">
-        <v>2002038</v>
+        <v>2000527</v>
       </c>
       <c r="P6" t="n">
         <v>99999</v>
@@ -892,8 +892,12 @@
           <t>Muçarela em Fatias</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>59.9</v>
+      </c>
+      <c r="F7" t="n">
+        <v>59.9</v>
+      </c>
       <c r="G7" t="inlineStr">
         <is>
           <t>83</t>
@@ -936,49 +940,49 @@
         <v>2000015</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>cheiro-verde-unidade-201049</t>
+          <t>leite-uht-piracanjuba-integral-1l-865427</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Cheiro Verde Unidade</t>
+          <t>Leite Uht Piracanjuba Integral 1L</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>201049</t>
+          <t>865427</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>O cheiro verde é a combinação da cebolinha e salsinha .Como conservar:Em geladeira por até 5 dias em saco ou vasilha de plástico.Como consumir:Podem ser adicionadas cruas, em saladas e recheios de sanduíches e como ingredientes em marinadas.</t>
+          <t>No café da manhã, em um delicioso lanche da tarde ou até mesmo antes de dormir, o Leite Piracanjuba cumpre bem o seu papel principal: trazer mais sabor para os seus momentos especiais e para as suas receitas. Mais sabor para todos os momentos.</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2.49</v>
+        <v>5.59</v>
       </c>
       <c r="F8" t="n">
-        <v>3.39</v>
+        <v>5.59</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>130</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2020-09-28T00:00:00Z</t>
+          <t>2017-04-12T00:00:00Z</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3457712/VF4qT-qqCUAAAAAAAAXvTg.jpg?v=638507335658200000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3294485/VF4qT-qqCUAAAAAAAAWbgQ.jpg?v=638412300289570000</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -991,21 +995,21 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>7411</t>
+          <t>23232</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>7430</t>
+          <t>23158</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>PIRACANJUBA</t>
         </is>
       </c>
       <c r="O8" t="n">
-        <v>2000015</v>
+        <v>2002038</v>
       </c>
       <c r="P8" t="n">
         <v>99999</v>
@@ -1014,43 +1018,43 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>tomate-italiano-unidade-495212</t>
+          <t>cheiro-verde-unidade-201049</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Tomate Italiano Unidade</t>
+          <t>Cheiro Verde Unidade</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>495212</t>
+          <t>201049</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Tomate Italiano Unidade</t>
+          <t>O cheiro verde é a combinação da cebolinha e salsinha .Como conservar:Em geladeira por até 5 dias em saco ou vasilha de plástico.Como consumir:Podem ser adicionadas cruas, em saladas e recheios de sanduíches e como ingredientes em marinadas.</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1.36</v>
+        <v>3.39</v>
       </c>
       <c r="F9" t="n">
-        <v>1.53</v>
+        <v>3.39</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2020-09-27T00:00:00Z</t>
+          <t>2020-09-28T00:00:00Z</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3094266/VF4qT-qqCUAAAAAAAASLmg.jpg?v=638191532599970000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3457712/VF4qT-qqCUAAAAAAAAXvTg.jpg?v=638507335658200000</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1063,12 +1067,12 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>6965</t>
+          <t>7411</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>6983</t>
+          <t>7430</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1086,43 +1090,43 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ovos-vermelhos-mantiqueira-happy-eggs-com-10-unidades-5106753</t>
+          <t>tomate-italiano-unidade-495212</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ovos Vermelhos Mantiqueira Happy Eggs com 10 Unidades</t>
+          <t>Tomate Italiano Unidade</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>5106753</t>
+          <t>495212</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Produzidos por galinhas criadas livres de gaiolas. Garantia de Bem-Estar Animal. Ovos Vermelhos Tipo Grande Categoria A. Embalagem com 10 unidades.</t>
+          <t>Tomate Italiano Unidade</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>11.99</v>
+        <v>1.53</v>
       </c>
       <c r="F10" t="n">
-        <v>11.99</v>
+        <v>1.53</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>53</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2021-01-11T00:00:00Z</t>
+          <t>2020-09-27T00:00:00Z</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4222023/VF4qT-qqCUAAAAAAAAStHA.jpg?v=638894405636230000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3094266/VF4qT-qqCUAAAAAAAASLmg.jpg?v=638191532599970000</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1135,21 +1139,21 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>18105</t>
+          <t>6965</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>17997</t>
+          <t>6983</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>HAPPY EGGS</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O10" t="n">
-        <v>2003319</v>
+        <v>2000015</v>
       </c>
       <c r="P10" t="n">
         <v>99999</v>
@@ -1158,43 +1162,43 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>agua-mineral-com-gas-sao-lourenco-pet-1-26-l-140805</t>
+          <t>ovos-vermelhos-mantiqueira-happy-eggs-com-10-unidades-5106753</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Água Mineral Com Gás São Lourenço Pet 1,26 L</t>
+          <t>Ovos Vermelhos Mantiqueira Happy Eggs com 10 Unidades</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>140805</t>
+          <t>5106753</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Água Mineral Com Gás São Lourenço Pet 1,26 L</t>
+          <t>Produzidos por galinhas criadas livres de gaiolas. Garantia de Bem-Estar Animal. Ovos Vermelhos Tipo Grande Categoria A. Embalagem com 10 unidades.</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5.29</v>
+        <v>11.99</v>
       </c>
       <c r="F11" t="n">
-        <v>5.29</v>
+        <v>11.99</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2020-09-25T00:00:00Z</t>
+          <t>2021-01-11T00:00:00Z</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3076277/VF4qT-qqCUAAAAAAAAHMBQ.jpg?v=637877821166370000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4222023/VF4qT-qqCUAAAAAAAAStHA.jpg?v=638894405636230000</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1207,21 +1211,21 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>3915</t>
+          <t>18105</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>3929</t>
+          <t>17997</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>SAO LOURENCO</t>
+          <t>HAPPY EGGS</t>
         </is>
       </c>
       <c r="O11" t="n">
-        <v>2000145</v>
+        <v>2003319</v>
       </c>
       <c r="P11" t="n">
         <v>99999</v>
@@ -1230,43 +1234,39 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>cafe-torrado-e-moido-pilao-tradicional-500g-828025</t>
+          <t>papel-toalha-coquetel-19cm-x-19cm-com-2-rolos-com-60-folhas-cada-783242</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Café Torrado E Moído Pilão Tradicional Fresh Pack 500g</t>
+          <t>Papel Toalha Coquetel 19Cm X 19Cm com 2 Rolos com 60 Folhas Cada</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>828025</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Tem um ponto de torra acentuado e um processo de moagem fina e uniforme, que garantem e preservam seu sabor forte e encorpado.É perfeito para servir em dia de casa cheia, pois seu sabor tradicional agrada a todo mundo.</t>
-        </is>
-      </c>
+          <t>783242</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
-        <v>29.98</v>
+        <v>6.99</v>
       </c>
       <c r="F12" t="n">
-        <v>43.9</v>
+        <v>6.99</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>111</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2020-09-15T00:00:00Z</t>
+          <t>2020-10-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3051146/VF4qT-qqCUAAAAAAAAG1sQ.jpg?v=637793369863530000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3050348/VF4qT-qqCUAAAAAAAAJRgg.jpg?v=637793335676500000</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1279,21 +1279,21 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>11627</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>11650</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>PILAO</t>
+          <t>COQUETEL</t>
         </is>
       </c>
       <c r="O12" t="n">
-        <v>2000070</v>
+        <v>2001855</v>
       </c>
       <c r="P12" t="n">
         <v>99999</v>
@@ -1302,43 +1302,43 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>guardanapo-folha-dupla-scott-grand-hotel-238cm×218cm-50-unidades-129879</t>
+          <t>agua-mineral-com-gas-sao-lourenco-pet-1-26-l-140805</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Guardanapo Folha Dupla Scott Grand Hotel 23,8cm×21,8cm 50 Unidades</t>
+          <t>Água Mineral Com Gás São Lourenço Pet 1,26 L</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>129879</t>
+          <t>140805</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Guardanapo Folha Dupla Scott Grand Hotel 23,8cm×21,8cm 50 Unidades</t>
+          <t>Água Mineral Com Gás São Lourenço Pet 1,26 L</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6.19</v>
+        <v>5.29</v>
       </c>
       <c r="F13" t="n">
-        <v>6.19</v>
+        <v>5.29</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>18</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2020-10-05T00:00:00Z</t>
+          <t>2020-09-25T00:00:00Z</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3239421/VF4qT-qqCUAAAAAAAAVSfw.jpg?v=638362188224230000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3076277/VF4qT-qqCUAAAAAAAAHMBQ.jpg?v=637877821166370000</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1351,21 +1351,21 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>9426</t>
+          <t>3915</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>9438</t>
+          <t>3929</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>GRANDE HOTEL</t>
+          <t>SAO LOURENCO</t>
         </is>
       </c>
       <c r="O13" t="n">
-        <v>2001400</v>
+        <v>2000145</v>
       </c>
       <c r="P13" t="n">
         <v>99999</v>
@@ -1374,43 +1374,43 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>manga-palmer-unidade-5130760</t>
+          <t>cafe-torrado-e-moido-pilao-tradicional-500g-828025</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Manga Palmer Unidade</t>
+          <t>Café Torrado E Moído Pilão Tradicional Fresh Pack 500g</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>5130760</t>
+          <t>828025</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Manga Palmer Unidade</t>
+          <t>Tem um ponto de torra acentuado e um processo de moagem fina e uniforme, que garantem e preservam seu sabor forte e encorpado.É perfeito para servir em dia de casa cheia, pois seu sabor tradicional agrada a todo mundo.</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4.79</v>
+        <v>29.98</v>
       </c>
       <c r="F14" t="n">
-        <v>5.39</v>
+        <v>43.9</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>59</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2023-02-16T00:00:00Z</t>
+          <t>2020-09-15T00:00:00Z</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3153453/VF4qT-qqCUAAAAAAAAUnKA.jpg?v=638319847497670000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3051146/VF4qT-qqCUAAAAAAAAG1sQ.jpg?v=637793369863530000</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1423,21 +1423,21 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>31977</t>
+          <t>130</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>31902</t>
+          <t>135</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>PILAO</t>
         </is>
       </c>
       <c r="O14" t="n">
-        <v>2000015</v>
+        <v>2000070</v>
       </c>
       <c r="P14" t="n">
         <v>99999</v>
@@ -1446,43 +1446,43 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>couve-flor-unidade-189111</t>
+          <t>manga-palmer-unidade-5130760</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Couve Flor Unidade</t>
+          <t>Manga Palmer Unidade</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>189111</t>
+          <t>5130760</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>A couveflor é uma hortaliça rica em cálcio e fósforo e fonte de ácido fólico e vitamina C . Como Conservar:Na geladeira pode ser conservada por 3 a 5 dias, dentro de saco plástico perfurado. Antes de guardar, remova as partes escuras e folhas, mas não lave a cabeça.Como Consumir:Pode ser consumida assada, frita ou cozinhe em água e sal. [Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
+          <t>Manga Palmer Unidade</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>7.99</v>
+        <v>5.39</v>
       </c>
       <c r="F15" t="n">
-        <v>9.99</v>
+        <v>5.39</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2020-09-28T00:00:00Z</t>
+          <t>2023-02-16T00:00:00Z</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3041615/VF4qT-qqCUAAAAAAAAGF4Q.jpg?v=637792579893500000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3153453/VF4qT-qqCUAAAAAAAAUnKA.jpg?v=638319847497670000</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1495,12 +1495,12 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>7446</t>
+          <t>31977</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>7465</t>
+          <t>31902</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1518,43 +1518,43 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>abacaxi-unidade-221</t>
+          <t>guardanapo-folha-dupla-scott-grand-hotel-238cm×218cm-50-unidades-129879</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Abacaxi Unidade</t>
+          <t>Guardanapo Folha Dupla Scott Grand Hotel 23,8cm×21,8cm 50 Unidades</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>129879</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Peso Aproximado 1,61,8Kg / Unidade.O Abacaxi é rico em Vitaminas A, B5, B6, C, BetaCaroteno, Tiamina, Antioxidantes e Fibras, auxiliando na saciedade e regulação do peso. É uma Importante fonte de energia póstreino. Auxilia nos processos antiinflamatórios por conter Bromelina, enzima encontrada principalmente no talo da fruta. Como preparar: no seu estado natural cortado, em saladas, assado, grelhado, sucos, geleias, sorvetes e chás.</t>
+          <t>Guardanapo Folha Dupla Scott Grand Hotel 23,8cm×21,8cm 50 Unidades</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>9.99</v>
+        <v>6.19</v>
       </c>
       <c r="F16" t="n">
-        <v>10.99</v>
+        <v>6.19</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>111</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2020-09-26T00:00:00Z</t>
+          <t>2020-10-05T00:00:00Z</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3041923/VF4qT-qqCUAAAAAAAAFtXw.jpg?v=637792593143530000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3239421/VF4qT-qqCUAAAAAAAAVSfw.jpg?v=638362188224230000</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1567,71 +1567,71 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>4959</t>
+          <t>9426</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>4975</t>
+          <t>9438</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>GRANDE HOTEL</t>
         </is>
       </c>
       <c r="O16" t="n">
-        <v>2000015</v>
+        <v>2001400</v>
       </c>
       <c r="P16" t="n">
-        <v>100</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>limao-cariorta-1kg-98981</t>
+          <t>couve-flor-unidade-189111</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Limão Cariorta 1Kg</t>
+          <t>Couve Flor Unidade</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>98981</t>
+          <t>189111</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Cariorta selecionados de coração.</t>
+          <t>A couveflor é uma hortaliça rica em cálcio e fósforo e fonte de ácido fólico e vitamina C . Como Conservar:Na geladeira pode ser conservada por 3 a 5 dias, dentro de saco plástico perfurado. Antes de guardar, remova as partes escuras e folhas, mas não lave a cabeça.Como Consumir:Pode ser consumida assada, frita ou cozinhe em água e sal. [Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>11.99</v>
+        <v>9.99</v>
       </c>
       <c r="F17" t="n">
-        <v>11.99</v>
+        <v>9.99</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>53</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2020-05-20T00:00:00Z</t>
+          <t>2020-09-28T00:00:00Z</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3084385/VF4qT-qqCUAAAAAAAAOgIg.jpg?v=638000868147970000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3041615/VF4qT-qqCUAAAAAAAAGF4Q.jpg?v=637792579893500000</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K17" t="n">
@@ -1639,21 +1639,21 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>24698</t>
+          <t>7446</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>24622</t>
+          <t>7465</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>CARIORTA</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O17" t="n">
-        <v>2001012</v>
+        <v>2000015</v>
       </c>
       <c r="P17" t="n">
         <v>99999</v>
@@ -1662,29 +1662,29 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>morango-250g-289612</t>
+          <t>abacaxi-unidade-221</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Morango 250g</t>
+          <t>Abacaxi Unidade</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>289612</t>
+          <t>221</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Embalagem com 250g "O morango é rico em vitamina C e, por isso, o consumo da fruta evita a fragilidade dos ossos e a má formação dos dentes. Ele também dá resistência aos tecidos, age contra infecções ajudando na cicatrização. O morango também possui, em menor quantidade, vitamina B5, conhecida como niacina. Ela tem a função de evitar problemas de pele, do aparelho digestivo e do sistema nervoso. Na fruta, também é encontrado ferro, que faz parte da formação do sangue."</t>
+          <t>Peso Aproximado 1,61,8Kg / Unidade.O Abacaxi é rico em Vitaminas A, B5, B6, C, BetaCaroteno, Tiamina, Antioxidantes e Fibras, auxiliando na saciedade e regulação do peso. É uma Importante fonte de energia póstreino. Auxilia nos processos antiinflamatórios por conter Bromelina, enzima encontrada principalmente no talo da fruta. Como preparar: no seu estado natural cortado, em saladas, assado, grelhado, sucos, geleias, sorvetes e chás.</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>9.99</v>
+        <v>10.99</v>
       </c>
       <c r="F18" t="n">
-        <v>9.99</v>
+        <v>10.99</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3226559/VF4qT-qqCUAAAAAAAAHKNA.jpg?v=638352676547800000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3041923/VF4qT-qqCUAAAAAAAAFtXw.jpg?v=637792593143530000</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1711,12 +1711,12 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>5152</t>
+          <t>4959</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>5168</t>
+          <t>4975</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -1728,54 +1728,54 @@
         <v>2000015</v>
       </c>
       <c r="P18" t="n">
-        <v>99999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>detergente-para-loucas-odd-clear-500ml-982911</t>
+          <t>limao-cariorta-1kg-98981</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Detergente Para Louças Odd Clear 500ml</t>
+          <t>Limão Cariorta 1Kg</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>982911</t>
+          <t>98981</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>ODD voltou!Alto rendimento , controle de odor.</t>
+          <t>Cariorta selecionados de coração.</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1.9</v>
+        <v>11.99</v>
       </c>
       <c r="F19" t="n">
-        <v>2.49</v>
+        <v>11.99</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>482</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2020-10-06T00:00:00Z</t>
+          <t>2020-05-20T00:00:00Z</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3056732/VF4qT-qqCUAAAAAAAAHzRQ.jpg?v=637793635376800000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3084385/VF4qT-qqCUAAAAAAAAOgIg.jpg?v=638000868147970000</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K19" t="n">
@@ -1783,21 +1783,21 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>11872</t>
+          <t>24698</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>11898</t>
+          <t>24622</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>LIMPPANO</t>
+          <t>CARIORTA</t>
         </is>
       </c>
       <c r="O19" t="n">
-        <v>2001341</v>
+        <v>2001012</v>
       </c>
       <c r="P19" t="n">
         <v>99999</v>
@@ -1806,43 +1806,43 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>file-de-peito-de-frango-sadia-bandeja-1kg-290564</t>
+          <t>morango-250g-289612</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Filé de Peito de Frango Sadia Bandeja 1kg</t>
+          <t>Morango 250g</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>290564</t>
+          <t>289612</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Peito De Frango Em Filés Sadia Bandeja 1kg</t>
+          <t>Embalagem com 250g "O morango é rico em vitamina C e, por isso, o consumo da fruta evita a fragilidade dos ossos e a má formação dos dentes. Ele também dá resistência aos tecidos, age contra infecções ajudando na cicatrização. O morango também possui, em menor quantidade, vitamina B5, conhecida como niacina. Ela tem a função de evitar problemas de pele, do aparelho digestivo e do sistema nervoso. Na fruta, também é encontrado ferro, que faz parte da formação do sangue."</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>24.99</v>
+        <v>9.99</v>
       </c>
       <c r="F20" t="n">
-        <v>26.99</v>
+        <v>9.99</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2020-09-29T00:00:00Z</t>
+          <t>2020-09-26T00:00:00Z</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3538840/VF4qT-qqCUAAAAAAAAa5gg.jpg?v=638550537679130000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3226559/VF4qT-qqCUAAAAAAAAHKNA.jpg?v=638352676547800000</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1855,66 +1855,66 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5152</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5168</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>SADIA</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O20" t="n">
-        <v>2000057</v>
+        <v>2000015</v>
       </c>
       <c r="P20" t="n">
-        <v>100</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>farinha-de-trigo-dona-benta-1kg-105287</t>
+          <t>detergente-para-loucas-odd-clear-500ml-982911</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Farinha De Trigo Dona Benta 1kg</t>
+          <t>Detergente Para Louças Odd Clear 500ml</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>105287</t>
+          <t>982911</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Farinha De Trigo Dona Benta 1kg</t>
+          <t>ODD voltou!Alto rendimento , controle de odor.</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>7.99</v>
+        <v>1.9</v>
       </c>
       <c r="F21" t="n">
-        <v>7.99</v>
+        <v>2.49</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>76</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2020-07-06T00:00:00Z</t>
+          <t>2020-10-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3079291/VF4qT-qqCUAAAAAAAANuog.jpg?v=637897755804270000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3056732/VF4qT-qqCUAAAAAAAAHzRQ.jpg?v=637793635376800000</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1927,24 +1927,24 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11872</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11898</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>DONA BENTA</t>
+          <t>LIMPPANO</t>
         </is>
       </c>
       <c r="O21" t="n">
-        <v>2000701</v>
+        <v>2001341</v>
       </c>
       <c r="P21" t="n">
-        <v>100</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="22">
@@ -2018,39 +2018,43 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ovos-vermelhos-caipira-happy-eggs-com-20-unidades-370550</t>
+          <t>file-de-peito-de-frango-sadia-bandeja-1kg-290564</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Ovos Vermelhos Caipira Happy Eggs Com 20 Unidades</t>
+          <t>Filé de Peito de Frango Sadia Bandeja 1kg</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>370550</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
+          <t>290564</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Peito De Frango Em Filés Sadia Bandeja 1kg</t>
+        </is>
+      </c>
       <c r="E23" t="n">
         <v>24.99</v>
       </c>
       <c r="F23" t="n">
-        <v>24.99</v>
+        <v>26.99</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>125</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2020-09-27T00:00:00Z</t>
+          <t>2020-09-29T00:00:00Z</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4343192/VF4qT-qqCUAAAAAAAAn9QA.jpg?v=638956617627730000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3538840/VF4qT-qqCUAAAAAAAAa5gg.jpg?v=638550537679130000</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -2063,21 +2067,21 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>6939</t>
+          <t>7</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>6957</t>
+          <t>7</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>HAPPY EGGS</t>
+          <t>SADIA</t>
         </is>
       </c>
       <c r="O23" t="n">
-        <v>2003319</v>
+        <v>2000057</v>
       </c>
       <c r="P23" t="n">
         <v>99999</v>
@@ -2086,43 +2090,43 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>abobrinha-italiana-unidade-423513</t>
+          <t>farinha-de-trigo-dona-benta-1kg-105287</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Abobrinha Italiana Unidade</t>
+          <t>Farinha De Trigo Dona Benta 1kg</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>423513</t>
+          <t>105287</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Abobrinha Italiana Unidade</t>
+          <t>Farinha De Trigo Dona Benta 1kg</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>2.1</v>
+        <v>7.99</v>
       </c>
       <c r="F24" t="n">
-        <v>2.1</v>
+        <v>7.99</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>63</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2020-12-07T00:00:00Z</t>
+          <t>2020-07-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3095398/VF4qT-qqCUAAAAAAAASlGA.jpg?v=638211351178300000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3079291/VF4qT-qqCUAAAAAAAANuog.jpg?v=637897755804270000</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -2135,21 +2139,21 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>16065</t>
+          <t>31</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>15956</t>
+          <t>31</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>DONA BENTA</t>
         </is>
       </c>
       <c r="O24" t="n">
-        <v>2000015</v>
+        <v>2000701</v>
       </c>
       <c r="P24" t="n">
         <v>99999</v>
@@ -2158,43 +2162,39 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>guardanapo-folha-dupla-scott-grand-hotel-jantar-33×33-cm-com-50-unidades-129887</t>
+          <t>ovos-vermelhos-caipira-happy-eggs-com-20-unidades-370550</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Guardanapo Folha Dupla Scott Grand Hotel Jantar 33×33 Cm Com 50 Unidades</t>
+          <t>Ovos Vermelhos Caipira Happy Eggs Com 20 Unidades</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>129887</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>O Guardanapo Grand Hotel folha tripla é mais sofisticado e garante uma maciez superior para todos os momentos. Contém 50 folhas de tamanho 31,8x32,8 cm cada.</t>
-        </is>
-      </c>
+          <t>370550</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="n">
-        <v>12.99</v>
+        <v>24.99</v>
       </c>
       <c r="F25" t="n">
-        <v>12.99</v>
+        <v>24.99</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2020-10-05T00:00:00Z</t>
+          <t>2020-09-27T00:00:00Z</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3078100/129887_1.jpg?v=637895346534630000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4343192/VF4qT-qqCUAAAAAAAAn9QA.jpg?v=638956617627730000</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2207,21 +2207,21 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>9427</t>
+          <t>6939</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>9439</t>
+          <t>6957</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>GRANDE HOTEL</t>
+          <t>HAPPY EGGS</t>
         </is>
       </c>
       <c r="O25" t="n">
-        <v>2001401</v>
+        <v>2003319</v>
       </c>
       <c r="P25" t="n">
         <v>99999</v>
@@ -2230,29 +2230,29 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>abobora-japonesa-pedaco-500g-38229</t>
+          <t>abobrinha-italiana-unidade-423513</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Abóbora Japonesa Pedaço 500g</t>
+          <t>Abobrinha Italiana Unidade</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>38229</t>
+          <t>423513</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Embalagem com 1 pedaço.</t>
+          <t>Abobrinha Italiana Unidade</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>4.99</v>
+        <v>2.1</v>
       </c>
       <c r="F26" t="n">
-        <v>4.99</v>
+        <v>2.1</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -2261,30 +2261,30 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2020-09-26T00:00:00Z</t>
+          <t>2020-12-07T00:00:00Z</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3096862/VF4qT-qqCUAAAAAAAAS9Tw.jpg?v=638235593168230000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3095398/VF4qT-qqCUAAAAAAAASlGA.jpg?v=638211351178300000</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K26" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>5593</t>
+          <t>16065</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>5609</t>
+          <t>15956</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -2302,70 +2302,70 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>cebola-roxa-400g-38393</t>
+          <t>guardanapo-folha-dupla-scott-grand-hotel-jantar-33×33-cm-com-50-unidades-129887</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Cebola Roxa 400g</t>
+          <t>Guardanapo Folha Dupla Scott Grand Hotel Jantar 33×33 Cm Com 50 Unidades</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>38393</t>
+          <t>129887</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Embalagem com 2 a 3 unidades. Melhor para comer cru; Use : no guacamole, em conserva, na salada, no sanduíche.</t>
+          <t>O Guardanapo Grand Hotel folha tripla é mais sofisticado e garante uma maciez superior para todos os momentos. Contém 50 folhas de tamanho 31,8x32,8 cm cada.</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>7.69</v>
+        <v>12.99</v>
       </c>
       <c r="F27" t="n">
-        <v>7.69</v>
+        <v>12.99</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>111</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2020-09-26T00:00:00Z</t>
+          <t>2020-10-05T00:00:00Z</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3081506/VF4qT-qqCUAAAAAAAAOBng.jpg?v=637947101712670000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3078100/129887_1.jpg?v=637895346534630000</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K27" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>5543</t>
+          <t>9427</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>5559</t>
+          <t>9439</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>GRANDE HOTEL</t>
         </is>
       </c>
       <c r="O27" t="n">
-        <v>2000015</v>
+        <v>2001401</v>
       </c>
       <c r="P27" t="n">
         <v>99999</v>
@@ -2374,43 +2374,43 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>mamao-papaia-cariorta-12kg-99007</t>
+          <t>abobora-japonesa-pedaco-500g-38229</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Mamão Papaia Cariorta 1,2kg</t>
+          <t>Abóbora Japonesa Pedaço 500g</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>99007</t>
+          <t>38229</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Cariorta selecionados de coração.</t>
+          <t>Embalagem com 1 pedaço.</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>15.99</v>
+        <v>5.29</v>
       </c>
       <c r="F28" t="n">
-        <v>15.99</v>
+        <v>5.29</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>53</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2020-05-20T00:00:00Z</t>
+          <t>2020-09-26T00:00:00Z</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3082688/VF4qT-qqCUAAAAAAAAOOog.jpg?v=637980006057500000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3096862/VF4qT-qqCUAAAAAAAAS9Tw.jpg?v=638235593168230000</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2419,25 +2419,25 @@
         </is>
       </c>
       <c r="K28" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>24413</t>
+          <t>5593</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>24337</t>
+          <t>5609</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>CARIORTA</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O28" t="n">
-        <v>2001012</v>
+        <v>2000015</v>
       </c>
       <c r="P28" t="n">
         <v>99999</v>
@@ -2446,70 +2446,70 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>espinafre-unidade-200948</t>
+          <t>mamao-papaia-cariorta-12kg-99007</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Espinafre Unidade</t>
+          <t>Mamão Papaia Cariorta 1,2kg</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>200948</t>
+          <t>99007</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>O espinafre é uma hortaliça saborosa, rica em ferro e também é fonte de vitamina A e B2, além de fornecer cálcio, fósforo, potássio e magnésio, é indicado também para pessoas com anemia e desnutrição.Como conservar :Sob refrigeração, pode ser mantido por no máximo 5 dias. Antes de colocálo na geladeira, lave as folhas, escorra o excesso de água e coloqueo em sacos de plástico perfurados ou em vasilha de plástico.Como consumir :O espinafre também pode ser usado em saladas, sopas,suflês omeletes. É ótimo como recheio ou acompanhamento de massas como macarrão, quiche, tortas, pastéis e assados. [Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
+          <t>Cariorta selecionados de coração.</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>2.49</v>
+        <v>15.99</v>
       </c>
       <c r="F29" t="n">
-        <v>3.39</v>
+        <v>15.99</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>482</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2020-09-28T00:00:00Z</t>
+          <t>2020-05-20T00:00:00Z</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3076729/VF4qT-qqCUAAAAAAAAKBdQ.jpg?v=637877840409270000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3082688/VF4qT-qqCUAAAAAAAAOOog.jpg?v=637980006057500000</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K29" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>7464</t>
+          <t>24413</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>7483</t>
+          <t>24337</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>CARIORTA</t>
         </is>
       </c>
       <c r="O29" t="n">
-        <v>2000015</v>
+        <v>2001012</v>
       </c>
       <c r="P29" t="n">
         <v>99999</v>
@@ -2518,73 +2518,73 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>la-de-aco-bombril-com-6-unidades-45g-1180320</t>
+          <t>cebola-roxa-400g-38393</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Lã de Aço Bombril com 6 Unidades 45g</t>
+          <t>Cebola Roxa 400g</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1180320</t>
+          <t>38393</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Uso: Ideal para limpeza de panelas, utensílios de cozinha, superfícies metálicas e outras áreas que necessitam de uma limpeza mais intensa.Remove sujeiras difíceis, incluindo resíduos de alimentos queimados e ferrugem.</t>
+          <t>Embalagem com 2 a 3 unidades. Melhor para comer cru; Use : no guacamole, em conserva, na salada, no sanduíche.</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>2.09</v>
+        <v>7.69</v>
       </c>
       <c r="F30" t="n">
-        <v>2.99</v>
+        <v>7.69</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-07-17T00:00:00Z</t>
+          <t>2020-09-26T00:00:00Z</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4216409/VF4qT-qqCUAAAAAAAAko5g.jpg?v=638889221726300000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3081506/VF4qT-qqCUAAAAAAAAOBng.jpg?v=637947101712670000</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K30" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>41130</t>
+          <t>5543</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>41057</t>
+          <t>5559</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>BOMBRIL</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O30" t="n">
-        <v>2001389</v>
+        <v>2000015</v>
       </c>
       <c r="P30" t="n">
-        <v>99999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31">
@@ -2609,7 +2609,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>2.49</v>
+        <v>3.39</v>
       </c>
       <c r="F31" t="n">
         <v>3.39</v>
@@ -2662,43 +2662,43 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>saponaceo-cremoso-cif-gratis-20-450-ml-839264</t>
+          <t>la-de-aco-bombril-com-6-unidades-45g-1180320</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Saponáceo Cremoso Cif Grátis 20% 450ml</t>
+          <t>Lã de Aço Bombril com 6 Unidades 45g</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>839264</t>
+          <t>1180320</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>• Multiuso Cremoso • 1 gota remove 100% da sujeira difícil • Limpa sem riscar com micropartículas de origem natural • Poderoso na limpeza, imbatível no cuidado • Use também em couro sintético, plástico, porcelana e borracha • Para toda casa CIF Multiuso Cremoso Original, possui uma fórmula exclusiva que limpa profundamente, removendo 100% da sujeira difícil, com apenas 1 gota. O limpador CIF Cremoso é mais concentrado e por isso pode render até 7 garrafas * dos limpadores comuns encontrados no mercado. Com sua tecnologia, o limpador de casa CIF Multiuso Cremoso Original é poderoso na limpeza e imbatível no cuidado. Sua formula com micropartículas de origem natural limpam, sem riscar, removendo toda a sujeira desde a mais pesada até a manutenção do dia a dia, deixando um brilho imbatível. Limpe toda sua casa usando o limpador multiuso CIF Multiuso Cremoso, que limpa mais de 100 objetos **, como fogão, micro-ondas, chinelos, panelas, geladeira, potes plásticos, pias, torneiras, sofá, máquina de lavar, brinquedos das crianças, persianas, utensílios de churrasco, talheres, ventilador e até ajuda a deixar aquele cabo de carregador de celular como novo! CIF é muito mais do que uma linha de produtos de limpeza, CIF é cuidado com a sua casa. A família de multiuso CIF Cremoso possui uma variedade de fragrâncias, sendo elas: Original, Laranja e Limão, todas super refrescantes e se adaptam ao seu estilo e à sua casa. CIF Multiuso Cremoso é um grande aliado na limpeza de casa, para mantê-la sempre limpa, bonita e bem cuidada, do jeito que você e sua família merecem. CIF é poderoso na limpeza e imbatível no cuidado pois sabemos que cada cantinho da sua casa merece limpeza e cuidado.</t>
+          <t>Uso: Ideal para limpeza de panelas, utensílios de cozinha, superfícies metálicas e outras áreas que necessitam de uma limpeza mais intensa.Remove sujeiras difíceis, incluindo resíduos de alimentos queimados e ferrugem.</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>14.99</v>
+        <v>2.09</v>
       </c>
       <c r="F32" t="n">
-        <v>14.99</v>
+        <v>2.99</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>78</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2020-10-06T00:00:00Z</t>
+          <t>2025-07-17T00:00:00Z</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3077844/839264_17.jpg?v=637895340530470000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4216409/VF4qT-qqCUAAAAAAAAko5g.jpg?v=638889221726300000</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2711,21 +2711,21 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>12274</t>
+          <t>41130</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>12301</t>
+          <t>41057</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>CIF</t>
+          <t>BOMBRIL</t>
         </is>
       </c>
       <c r="O32" t="n">
-        <v>2000541</v>
+        <v>2001389</v>
       </c>
       <c r="P32" t="n">
         <v>99999</v>
@@ -2734,43 +2734,43 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>papel-higienico-folha-tripla-neve-supreme-dermacare-pacote-leve-16-pague-15-unidades-981168</t>
+          <t>espinafre-unidade-200948</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Papel Higiênico Folha Tripla Neve Supreme Dermacare Pacote Leve 16 Pague 15 Unidades</t>
+          <t>Espinafre Unidade</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>981168</t>
+          <t>200948</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Papel higiênico neutro folha tripla de alta qualidade. Neve quer ajudar as pessoas a cuidarem de si, por isso desenvolveu um produto que proporciona maciez insuperável com mais absorção e resistência.</t>
+          <t>O espinafre é uma hortaliça saborosa, rica em ferro e também é fonte de vitamina A e B2, além de fornecer cálcio, fósforo, potássio e magnésio, é indicado também para pessoas com anemia e desnutrição.Como conservar :Sob refrigeração, pode ser mantido por no máximo 5 dias. Antes de colocálo na geladeira, lave as folhas, escorra o excesso de água e coloqueo em sacos de plástico perfurados ou em vasilha de plástico.Como consumir :O espinafre também pode ser usado em saladas, sopas,suflês omeletes. É ótimo como recheio ou acompanhamento de massas como macarrão, quiche, tortas, pastéis e assados. [Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>28.98</v>
+        <v>3.39</v>
       </c>
       <c r="F33" t="n">
-        <v>32.19</v>
+        <v>3.39</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2020-09-22T00:00:00Z</t>
+          <t>2020-09-28T00:00:00Z</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4430737/VF4qT-qqCUAAAAAAAAoMMw.jpg?v=639014499358300000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3076729/VF4qT-qqCUAAAAAAAAKBdQ.jpg?v=637877840409270000</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2783,21 +2783,21 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>1262</t>
+          <t>7464</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>1269</t>
+          <t>7483</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>NEVE</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O33" t="n">
-        <v>2000291</v>
+        <v>2000015</v>
       </c>
       <c r="P33" t="n">
         <v>99999</v>
@@ -2806,43 +2806,43 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>refrigerante-coca-cola-sem-acucar-pet-600-ml-429392</t>
+          <t>papel-higienico-folha-tripla-neve-supreme-dermacare-pacote-leve-16-pague-15-unidades-981168</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Refrigerante Coca Cola Sem Açúcar Pet 600ml</t>
+          <t>Papel Higiênico Folha Tripla Neve Supreme Dermacare Pacote Leve 16 Pague 15 Unidades</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>429392</t>
+          <t>981168</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>A Coca-Cola Sem Açúcar é um refrigerante que não contém calorias! Com certeza você já se perguntou: “Então, de onde vem aquele gostinho doce? ” A Coca-Cola Sem Açúcar é produzida especialmente com adoçantes para manter o delicioso sabor de Coca-Cola porém com 0% Açucar. Perfeita para matar sua sede a qualquer hora do dia!</t>
+          <t>Papel higiênico neutro folha tripla de alta qualidade. Neve quer ajudar as pessoas a cuidarem de si, por isso desenvolveu um produto que proporciona maciez insuperável com mais absorção e resistência.</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>5.69</v>
+        <v>28.98</v>
       </c>
       <c r="F34" t="n">
-        <v>5.69</v>
+        <v>32.19</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>14</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2020-10-01T00:00:00Z</t>
+          <t>2020-09-22T00:00:00Z</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4483407/VF4qT-qqCUAAAAAAAAoapA.jpg?v=639052524553700000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4430737/VF4qT-qqCUAAAAAAAAoMMw.jpg?v=639014499358300000</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2855,21 +2855,21 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>8816</t>
+          <t>1262</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>8828</t>
+          <t>1269</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>COCA COLA</t>
+          <t>NEVE</t>
         </is>
       </c>
       <c r="O34" t="n">
-        <v>2000027</v>
+        <v>2000291</v>
       </c>
       <c r="P34" t="n">
         <v>99999</v>
@@ -2878,33 +2878,33 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>oleo-de-soja-liza-900ml-127310</t>
+          <t>sal-refinado-iodado-ita-1kg-117293</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Óleo De Soja Liza 900ml</t>
+          <t>Sal Refinado Iodado Ita 1kg</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>127310</t>
+          <t>117293</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Óleo De Soja Liza 900ml</t>
+          <t>Sal Refinado Iodado Ita 1kg</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>8.59</v>
+        <v>3.65</v>
       </c>
       <c r="F35" t="n">
-        <v>8.59</v>
+        <v>3.65</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2914,7 +2914,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3075849/VF4qT-qqCUAAAAAAAAIxqw.jpg?v=637877802666600000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3076051/VF4qT-qqCUAAAAAAAAKZcQ.jpg?v=637877811480070000</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2927,21 +2927,21 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>126</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>131</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>LIZA</t>
+          <t>ITA</t>
         </is>
       </c>
       <c r="O35" t="n">
-        <v>2000067</v>
+        <v>2000066</v>
       </c>
       <c r="P35" t="n">
         <v>99999</v>
@@ -2950,115 +2950,111 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>sal-refinado-iodado-ita-1kg-117293</t>
+          <t>pessego-nacional-500g-12408</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Sal Refinado Iodado Ita 1kg</t>
+          <t>Pêssego Nacional 600g</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>117293</t>
+          <t>12408</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Sal Refinado Iodado Ita 1kg</t>
-        </is>
-      </c>
-      <c r="E36" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="F36" t="n">
-        <v>3.65</v>
-      </c>
+          <t>Pêssego Nacional 500g</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2020-09-15T00:00:00Z</t>
+          <t>2020-09-26T00:00:00Z</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3076051/VF4qT-qqCUAAAAAAAAKZcQ.jpg?v=637877811480070000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3092387/VF4qT-qqCUAAAAAAAAFvOA.jpg?v=638151904193130000</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K36" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>5122</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>5138</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>ITA</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O36" t="n">
-        <v>2000066</v>
+        <v>2000015</v>
       </c>
       <c r="P36" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>detergente-para-loucas-biodegradavel-limpol-neutro-500-ml-100510</t>
+          <t>oleo-de-soja-liza-900ml-127310</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Detergente Para Louças Biodegradável Limpol Neutro 500ml</t>
+          <t>Óleo De Soja Liza 900ml</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>100510</t>
+          <t>127310</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>O Lava-Louças Limpol é eficiente no poder da limpeza, remoção da gordura e sujeiras e no combate aos maus odores indesejados da cozinha. Sua fórmula é dermatologicamente testada e contém glicerina, tornando-a mais suave para as mãos.</t>
+          <t>Óleo De Soja Liza 900ml</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>2.79</v>
+        <v>8.59</v>
       </c>
       <c r="F37" t="n">
-        <v>2.79</v>
+        <v>8.59</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>576</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2020-10-06T00:00:00Z</t>
+          <t>2020-09-15T00:00:00Z</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3269221/12054_1.jpg?v=638386029717470000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3075849/VF4qT-qqCUAAAAAAAAIxqw.jpg?v=637877802666600000</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -3071,21 +3067,21 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>12054</t>
+          <t>127</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>12081</t>
+          <t>132</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>LIMPOL</t>
+          <t>LIZA</t>
         </is>
       </c>
       <c r="O37" t="n">
-        <v>2001413</v>
+        <v>2000067</v>
       </c>
       <c r="P37" t="n">
         <v>99999</v>
@@ -3094,115 +3090,115 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>pessego-nacional-500g-12408</t>
+          <t>detergente-para-loucas-biodegradavel-limpol-neutro-500-ml-100510</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Pêssego Nacional 600g</t>
+          <t>Detergente Para Louças Biodegradável Limpol Neutro 500ml</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>12408</t>
+          <t>100510</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Pêssego Nacional 500g</t>
+          <t>O Lava-Louças Limpol é eficiente no poder da limpeza, remoção da gordura e sujeiras e no combate aos maus odores indesejados da cozinha. Sua fórmula é dermatologicamente testada e contém glicerina, tornando-a mais suave para as mãos.</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>9.99</v>
+        <v>2.79</v>
       </c>
       <c r="F38" t="n">
-        <v>10.99</v>
+        <v>2.79</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>76</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2020-09-26T00:00:00Z</t>
+          <t>2020-10-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3092387/VF4qT-qqCUAAAAAAAAFvOA.jpg?v=638151904193130000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3269221/12054_1.jpg?v=638386029717470000</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K38" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>5122</t>
+          <t>12054</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>5138</t>
+          <t>12081</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>LIMPOL</t>
         </is>
       </c>
       <c r="O38" t="n">
-        <v>2000015</v>
+        <v>2001413</v>
       </c>
       <c r="P38" t="n">
-        <v>100</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>pao-de-queijo-forno-de-minas-tradicional--400-g-456110</t>
+          <t>azeite-italiano-extra-virgem-due-500ml-5472040</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Pão De Queijo Forno De Minas Tradicional 400g</t>
+          <t>Azeite Italiano Extravirgem Due 500ml</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>456110</t>
+          <t>5472040</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Pão De Queijo Forno De Minas Tradicional 400g</t>
+          <t>O azeite Due é um blend de azeites do Mediterrâneo que confere um resultado clássico e ideal para o cotidiano da cozinha. Sua elaboração conta com uma seleção cautelosamente realizada pelo Expert em Azeites e Temperos Marcelo Scofano, que anualmente viaja à Toscana (Itália), onde o azeite é produzido, para cuidar de cada detalhe pessoalmente.Due é um azeite clássico, ideal para o dia a dia da cozinha: marinados, refogados, emulsão de molhos, finalização de saladas, massas e pratos do cotidiano. O azeite clássico é extraído de azeitonas maduras. Possui sabor amendoado, com notas amargas e picantes em equilíbrio.O azeite Due faz parte da grupo de marcas exclusivas Zona Sul, criada e pensada com carinho para os cariocas de coração. O planejamento de cada produto exclusivo conta com a participação dos Experts Zona Sul em todo o processo, até chegar na sua mesa. E com a linha Due não é diferente!</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>21.99</v>
+        <v>29.98</v>
       </c>
       <c r="F39" t="n">
-        <v>21.99</v>
+        <v>36.9</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>597</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2020-10-20T00:00:00Z</t>
+          <t>2025-05-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3041185/VF4qT-qqCUAAAAAAAAHIag.jpg?v=637792557833470000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4116721/VF4qT-qqCUAAAAAAAAiyjQ.jpg?v=638846625781330000</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -3215,66 +3211,66 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>13544</t>
+          <t>40224</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>13564</t>
+          <t>40151</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>FORNO MINAS</t>
+          <t>DUE</t>
         </is>
       </c>
       <c r="O39" t="n">
-        <v>2001500</v>
+        <v>2005138</v>
       </c>
       <c r="P39" t="n">
-        <v>100</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>azeite-italiano-extra-virgem-due-500ml-5472040</t>
+          <t>pao-de-queijo-forno-de-minas-tradicional--400-g-456110</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Azeite Italiano Extravirgem Due 500ml</t>
+          <t>Pão De Queijo Forno De Minas Tradicional 400g</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>5472040</t>
+          <t>456110</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>O azeite Due é um blend de azeites do Mediterrâneo que confere um resultado clássico e ideal para o cotidiano da cozinha. Sua elaboração conta com uma seleção cautelosamente realizada pelo Expert em Azeites e Temperos Marcelo Scofano, que anualmente viaja à Toscana (Itália), onde o azeite é produzido, para cuidar de cada detalhe pessoalmente.Due é um azeite clássico, ideal para o dia a dia da cozinha: marinados, refogados, emulsão de molhos, finalização de saladas, massas e pratos do cotidiano. O azeite clássico é extraído de azeitonas maduras. Possui sabor amendoado, com notas amargas e picantes em equilíbrio.O azeite Due faz parte da grupo de marcas exclusivas Zona Sul, criada e pensada com carinho para os cariocas de coração. O planejamento de cada produto exclusivo conta com a participação dos Experts Zona Sul em todo o processo, até chegar na sua mesa. E com a linha Due não é diferente!</t>
+          <t>Pão De Queijo Forno De Minas Tradicional 400g</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>29.98</v>
+        <v>21.99</v>
       </c>
       <c r="F40" t="n">
-        <v>36.9</v>
+        <v>21.99</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>119</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2025-05-06T00:00:00Z</t>
+          <t>2020-10-20T00:00:00Z</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4116721/VF4qT-qqCUAAAAAAAAiyjQ.jpg?v=638846625781330000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3041185/VF4qT-qqCUAAAAAAAAHIag.jpg?v=637792557833470000</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -3287,21 +3283,21 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>40224</t>
+          <t>13544</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>40151</t>
+          <t>13564</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>DUE</t>
+          <t>FORNO MINAS</t>
         </is>
       </c>
       <c r="O40" t="n">
-        <v>2005138</v>
+        <v>2001500</v>
       </c>
       <c r="P40" t="n">
         <v>100</v>
@@ -3310,39 +3306,43 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>couve-manteiga-unidade-201235</t>
+          <t>biscoito-cream-cracker-piraque-pacote-184g-1105795</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Couve Manteiga Unidade</t>
+          <t>Biscoito Cream Cracker Piraquê Pacote 184g</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>201235</t>
+          <t>1105795</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>A couve é uma hortaliça muito rica em nutriente,cálcio, ferro e vitaminas A,C, K e B5.Como conservar:Em geladeira, inteira ou picada deve ser mantida em saco plástico fechado ou em vasilha de plástico tampada.Como consumir:Pode ser consumida crua, em saladas e sucos, refogada ou como ingrediente de sopas, farofas e cozidos.[ Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
+          <t>Biscoito Salgado Cream Cracker Piraquê Pacote 184g</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="F41" t="n">
+        <v>5.99</v>
+      </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>31</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2020-09-28T00:00:00Z</t>
+          <t>2023-07-26T00:00:00Z</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3083631/VF4qT-qqCUAAAAAAAAOZOA.jpg?v=637994955185970000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3099416/VF4qT-qqCUAAAAAAAATd0w.jpg?v=638264204522930000</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -3355,92 +3355,96 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>7445</t>
+          <t>33955</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>7464</t>
+          <t>33882</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>PIRAQUE</t>
         </is>
       </c>
       <c r="O41" t="n">
-        <v>2000015</v>
+        <v>2000017</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>alho-roxo-cariorta-4-a-5-unidades-250g-99279</t>
+          <t>couve-manteiga-unidade-201235</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Alho Roxo Cariorta 4 a 5 unidades 250g</t>
+          <t>Couve Manteiga Unidade</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>99279</t>
+          <t>201235</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Cariorta selecionados de coração.</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
+          <t>A couve é uma hortaliça muito rica em nutriente,cálcio, ferro e vitaminas A,C, K e B5.Como conservar:Em geladeira, inteira ou picada deve ser mantida em saco plástico fechado ou em vasilha de plástico tampada.Como consumir:Pode ser consumida crua, em saladas e sucos, refogada ou como ingrediente de sopas, farofas e cozidos.[ Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="F42" t="n">
+        <v>3.39</v>
+      </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2020-05-27T00:00:00Z</t>
+          <t>2020-09-28T00:00:00Z</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3082698/VF4qT-qqCUAAAAAAAAOOtg.jpg?v=637980006345970000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3083631/VF4qT-qqCUAAAAAAAAOZOA.jpg?v=637994955185970000</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K42" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>24684</t>
+          <t>7445</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>24608</t>
+          <t>7464</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>CARIORTA</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O42" t="n">
-        <v>2001012</v>
+        <v>2000015</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="43">
@@ -3512,49 +3516,49 @@
         <v>2000541</v>
       </c>
       <c r="P43" t="n">
-        <v>100</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>cereja-chilena-300g-13463</t>
+          <t>alho-roxo-cariorta-4-a-5-unidades-250g-99279</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Cereja Chilena 300g</t>
+          <t>Alho Roxo Cariorta 4 a 5 unidades 250g</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>13463</t>
+          <t>99279</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>As cerejas chilenas vão deleitar seu paladar com seu doce e suculento sabor. Sua cor intensa, que varia do vermelho vibrante a tonalidades mais escuras, é um banquete para os olhos e o sinal dos inúmeros benefícios à saúde. Essa pequena fruta é uma fonte nutricional completa, com vitaminas essenciais como a C e a E, além de minerais como o ferro, potássio e magnésio. A cerejas podem ser consumidas frescas, no preparo de conservas, sobremesas e tortas e são classificadas por tamanho e nós só trazemos as mais graúdas especialmente para você!</t>
+          <t>Cariorta selecionados de coração.</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>64.90000000000001</v>
+        <v>59.99</v>
       </c>
       <c r="F44" t="n">
-        <v>69.90000000000001</v>
+        <v>59.99</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>480</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2020-09-26T00:00:00Z</t>
+          <t>2020-05-27T00:00:00Z</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4434078/VF4qT-qqCUAAAAAAAAoONQ.jpg?v=639019170859200000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3082698/VF4qT-qqCUAAAAAAAAOOtg.jpg?v=637980006345970000</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -3563,25 +3567,25 @@
         </is>
       </c>
       <c r="K44" t="n">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>5090</t>
+          <t>24684</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>5106</t>
+          <t>24608</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>CARIORTA</t>
         </is>
       </c>
       <c r="O44" t="n">
-        <v>2000015</v>
+        <v>2001012</v>
       </c>
       <c r="P44" t="n">
         <v>99999</v>
@@ -3590,39 +3594,43 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>file-mignon-resfriado-sem-cordao-2-2kg-44822</t>
+          <t>cereja-chilena-300g-13463</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Filé Mignon Resfriado Sem Cordão 2,2kg</t>
+          <t>Cereja Chilena 300g</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>44822</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
+          <t>13463</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>As cerejas chilenas vão deleitar seu paladar com seu doce e suculento sabor. Sua cor intensa, que varia do vermelho vibrante a tonalidades mais escuras, é um banquete para os olhos e o sinal dos inúmeros benefícios à saúde. Essa pequena fruta é uma fonte nutricional completa, com vitaminas essenciais como a C e a E, além de minerais como o ferro, potássio e magnésio. A cerejas podem ser consumidas frescas, no preparo de conservas, sobremesas e tortas e são classificadas por tamanho e nós só trazemos as mais graúdas especialmente para você!</t>
+        </is>
+      </c>
       <c r="E45" t="n">
-        <v>99.98999999999999</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="F45" t="n">
-        <v>99.98999999999999</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2020-09-28T00:00:00Z</t>
+          <t>2020-09-26T00:00:00Z</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4340142/VF4qT-qqCUAAAAAAAAJRsQ.jpg?v=638954025546430000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4434078/VF4qT-qqCUAAAAAAAAoONQ.jpg?v=639019170859200000</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -3631,16 +3639,16 @@
         </is>
       </c>
       <c r="K45" t="n">
-        <v>2.2</v>
+        <v>0.3</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>7539</t>
+          <t>5090</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>7558</t>
+          <t>5106</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -3658,43 +3666,43 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>matte-leao-natural-pet-15l-118214</t>
+          <t>papel-aluminio-rolitto-30cm-x-75-m-897795</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Matte Leão Natural Pet 1,5L</t>
+          <t>Papel Alumínio Rolitto 30Cm X 7,5 M</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>118214</t>
+          <t>897795</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Renove seu humor, recicle seu ritmo e siga em frente. Experimente combinar o seu dia com o sabor inconfundível de Matte Leão.Matte Leão é feito com folhas de ervamate selecionadas e tostadas num processo único, especialmente para você.Porção de 200 mL (1 copo) = 68 kcal.</t>
+          <t>Envolve , protege e conserva.</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>7.69</v>
+        <v>6.99</v>
       </c>
       <c r="F46" t="n">
-        <v>8.99</v>
+        <v>6.99</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>111</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2020-10-01T00:00:00Z</t>
+          <t>2020-10-05T00:00:00Z</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3704453/VF4qT-qqCUAAAAAAAAGyOQ.jpg?v=638609291247270000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3061098/VF4qT-qqCUAAAAAAAAGpfA.jpg?v=637794125591230000</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -3707,21 +3715,21 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>8709</t>
+          <t>9853</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>8721</t>
+          <t>9866</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>LEAO</t>
+          <t>KENTINHA</t>
         </is>
       </c>
       <c r="O46" t="n">
-        <v>2000010</v>
+        <v>2001532</v>
       </c>
       <c r="P46" t="n">
         <v>99999</v>
@@ -3730,44 +3738,48 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>abobrinha-italiana-cariorta-1kg-98663</t>
+          <t>matte-leao-natural-pet-15l-118214</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Abobrinha Italiana Cariorta 1Kg</t>
+          <t>Matte Leão Natural Pet 1,5L</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>98663</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr"/>
+          <t>118214</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Renove seu humor, recicle seu ritmo e siga em frente. Experimente combinar o seu dia com o sabor inconfundível de Matte Leão.Matte Leão é feito com folhas de ervamate selecionadas e tostadas num processo único, especialmente para você.Porção de 200 mL (1 copo) = 68 kcal.</t>
+        </is>
+      </c>
       <c r="E47" t="n">
-        <v>7.99</v>
+        <v>7.69</v>
       </c>
       <c r="F47" t="n">
-        <v>7.99</v>
+        <v>8.99</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2020-12-16T00:00:00Z</t>
+          <t>2020-10-01T00:00:00Z</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3082667/VF4qT-qqCUAAAAAAAAOOdQ.jpg?v=637979987909700000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3704453/VF4qT-qqCUAAAAAAAAGyOQ.jpg?v=638609291247270000</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K47" t="n">
@@ -3775,21 +3787,21 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>16567</t>
+          <t>8709</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>16458</t>
+          <t>8721</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>CARIORTA</t>
+          <t>LEAO</t>
         </is>
       </c>
       <c r="O47" t="n">
-        <v>2001012</v>
+        <v>2000010</v>
       </c>
       <c r="P47" t="n">
         <v>99999</v>
@@ -3798,43 +3810,43 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>papel-aluminio-rolitto-30cm-x-75-m-897795</t>
+          <t>cafe-torrado-e-moido-melitta-a-vacuo-500g-103845</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Papel Alumínio Rolitto 30Cm X 7,5 M</t>
+          <t>Café Torrado e Moído Melitta A Vácuo 500g</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>897795</t>
+          <t>103845</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Envolve , protege e conserva.</t>
+          <t>Feitos com uma cuidadosa seleção dos grãos que passam por um processo de torra a ar quente que resultam em cafés marcantes e fortes.</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>6.99</v>
+        <v>250</v>
       </c>
       <c r="F48" t="n">
-        <v>6.99</v>
+        <v>300</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>59</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2020-10-05T00:00:00Z</t>
+          <t>2020-07-13T00:00:00Z</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3061098/VF4qT-qqCUAAAAAAAAGpfA.jpg?v=637794125591230000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3038677/VF4qT-qqCUAAAAAAAAGwhg.jpg?v=637792444870400000</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -3847,21 +3859,21 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>9853</t>
+          <t>53</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>9866</t>
+          <t>56</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>KENTINHA</t>
+          <t>MELITTA</t>
         </is>
       </c>
       <c r="O48" t="n">
-        <v>2001532</v>
+        <v>2001329</v>
       </c>
       <c r="P48" t="n">
         <v>99999</v>
@@ -3870,48 +3882,44 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>cafe-torrado-e-moido-melitta-a-vacuo-500g-103845</t>
+          <t>abobrinha-italiana-cariorta-1kg-98663</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Café Torrado e Moído Melitta A Vácuo 500g</t>
+          <t>Abobrinha Italiana Cariorta 1Kg</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>103845</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Feitos com uma cuidadosa seleção dos grãos que passam por um processo de torra a ar quente que resultam em cafés marcantes e fortes.</t>
-        </is>
-      </c>
+          <t>98663</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
       <c r="E49" t="n">
-        <v>39.9</v>
+        <v>6.99</v>
       </c>
       <c r="F49" t="n">
-        <v>39.9</v>
+        <v>6.99</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>483</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2020-07-13T00:00:00Z</t>
+          <t>2020-12-16T00:00:00Z</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3038677/VF4qT-qqCUAAAAAAAAGwhg.jpg?v=637792444870400000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3082667/VF4qT-qqCUAAAAAAAAOOdQ.jpg?v=637979987909700000</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K49" t="n">
@@ -3919,21 +3927,21 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>16567</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>16458</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>MELITTA</t>
+          <t>CARIORTA</t>
         </is>
       </c>
       <c r="O49" t="n">
-        <v>2001329</v>
+        <v>2001012</v>
       </c>
       <c r="P49" t="n">
         <v>99999</v>
@@ -3942,70 +3950,70 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>pao-frances-panetto-60g-com-8-unidades-96504</t>
+          <t>rucula-unidade-201006</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Pão Francês Panetto 60g Com 8 Unidades</t>
+          <t>Rúcula Unidade</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>96504</t>
+          <t>201006</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Pão Francês Panetto é feito com farinha de qualidade superior, sua massa é cuidadosamente elaborada para garantir uma textura crocante por fora e um interior macio e arejado. Cada mordida revela a combinação perfeita entre crocância e suavidade, tornando-o ideal para acompanhar seu café da manhã e lanche da tarde.</t>
+          <t>A rúcula é uma hortaliça rica em sais minerais e vitaminas A e C, tem o sabor picante e cheiro agradável e acentuado. Como Conservar:A hortaliça pode ser mantida no máximo por um dia, desde que colocando em local fresco, com a parte de baixo em uma vasilha com água .Em Geladeira o produto deve ser condicionado em saco de plástico ou vasilha tampada.Como Consumir : A rúcula é tradicionalmente consumida crua em saladas, temperada com azeite, sal e limão. Também pode ser consumida como ingredientes de torta,quiche, lasanha, sanduíches e bolinhos. [ Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>23.98</v>
+        <v>3.39</v>
       </c>
       <c r="F50" t="n">
-        <v>23.98</v>
+        <v>3.39</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2024-02-01T00:00:00Z</t>
+          <t>2020-09-28T00:00:00Z</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3310764/VF4qT-qqCUAAAAAAAAWu8Q.jpg?v=638932897909230000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3040890/VF4qT-qqCUAAAAAAAAHLpQ.jpg?v=637792545082200000</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K50" t="n">
-        <v>0.48</v>
+        <v>1</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>35484</t>
+          <t>7467</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>35411</t>
+          <t>7486</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>PANETTO</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O50" t="n">
-        <v>2000307</v>
+        <v>2000015</v>
       </c>
       <c r="P50" t="n">
         <v>99999</v>

--- a/zonasul.xlsx
+++ b/zonasul.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P50"/>
+  <dimension ref="A1:P49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,43 +518,43 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>matte-leao-limao-pet-1-5l-118222</t>
+          <t>rucula-unidade-201006</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Matte Leão Limão Pet 1,5L</t>
+          <t>Rúcula Unidade</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>118222</t>
+          <t>201006</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>O Chá MATTE Limão Leão é um dos tipos de chás preferido dos consumidores. A marca Chá Mate Leão está presente no mercado há mais de 100 anos, sendo a marca de chá mais vendida e tradicional. Produzido com extrato aquoso de mate, açúcar e suco de limão, o Chá MATTE LEÃO Limão é a opção ideal para refrescar o seu dia! Compre e compartilhe com amigos e familiares!</t>
+          <t>A rúcula é uma hortaliça rica em sais minerais e vitaminas A e C, tem o sabor picante e cheiro agradável e acentuado. Como Conservar:A hortaliça pode ser mantida no máximo por um dia, desde que colocando em local fresco, com a parte de baixo em uma vasilha com água .Em Geladeira o produto deve ser condicionado em saco de plástico ou vasilha tampada.Como Consumir : A rúcula é tradicionalmente consumida crua em saladas, temperada com azeite, sal e limão. Também pode ser consumida como ingredientes de torta,quiche, lasanha, sanduíches e bolinhos. [ Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7.69</v>
+        <v>3.39</v>
       </c>
       <c r="F2" t="n">
-        <v>8.99</v>
+        <v>3.39</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2020-10-01T00:00:00Z</t>
+          <t>2020-09-28T00:00:00Z</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3704455/VF4qT-qqCUAAAAAAAAcePQ.jpg?v=638609291270100000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3040890/VF4qT-qqCUAAAAAAAAHLpQ.jpg?v=637792545082200000</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -567,21 +567,21 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>8711</t>
+          <t>7467</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>8723</t>
+          <t>7486</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>LEAO</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>2000010</v>
+        <v>2000015</v>
       </c>
       <c r="P2" t="n">
         <v>99999</v>
@@ -590,70 +590,70 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>batata-inglesa-cariorta-12kg-98698</t>
+          <t>matte-leao-limao-pet-1-5l-118222</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Batata Inglesa Cariorta 1,2Kg</t>
+          <t>Matte Leão Limão Pet 1,5L</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>98698</t>
+          <t>118222</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Cariorta selecionados de coração.</t>
+          <t>O Chá MATTE Limão Leão é um dos tipos de chás preferido dos consumidores. A marca Chá Mate Leão está presente no mercado há mais de 100 anos, sendo a marca de chá mais vendida e tradicional. Produzido com extrato aquoso de mate, açúcar e suco de limão, o Chá MATTE LEÃO Limão é a opção ideal para refrescar o seu dia! Compre e compartilhe com amigos e familiares!</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>8.99</v>
+        <v>7.69</v>
       </c>
       <c r="F3" t="n">
         <v>8.99</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2020-12-16T00:00:00Z</t>
+          <t>2020-10-01T00:00:00Z</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3082670/VF4qT-qqCUAAAAAAAAOOew.jpg?v=637979987993130000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3704455/VF4qT-qqCUAAAAAAAAcePQ.jpg?v=638609291270100000</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>16570</t>
+          <t>8711</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>16461</t>
+          <t>8723</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>CARIORTA</t>
+          <t>LEAO</t>
         </is>
       </c>
       <c r="O3" t="n">
-        <v>2001012</v>
+        <v>2000010</v>
       </c>
       <c r="P3" t="n">
         <v>99999</v>
@@ -662,39 +662,43 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>creme-de-leite-nestle-10--gratis-200g-1165151</t>
+          <t>refrigerante-coca-cola-sem-acucar-lata-350-ml-429376</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Creme de Leite Nestlé 10% Grátis 200g</t>
+          <t>Refrigerante Coca Cola Sem Açúcar Lata 350ml</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1165151</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
+          <t>429376</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>A Coca-Cola Sem Açúcar é um refrigerante que não contém calorias! Com certeza você já se perguntou: “Então, de onde vem aquele gostinho doce? ” A Coca-Cola Sem Açúcar é produzida especialmente com adoçantes para manter o delicioso sabor de Coca-Cola porém com 0% Açucar. Uma Lata de Coca-Cola Sem Perfeita para matar sua sede a qualquer hora do dia!</t>
+        </is>
+      </c>
       <c r="E4" t="n">
-        <v>4.29</v>
+        <v>3.99</v>
       </c>
       <c r="F4" t="n">
-        <v>5.99</v>
+        <v>3.99</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-02-20T00:00:00Z</t>
+          <t>2020-10-01T00:00:00Z</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4395976/VF4qT-qqCUAAAAAAAAoEeQ.jpg?v=638984266226730000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4483405/VF4qT-qqCUAAAAAAAAoaow.jpg?v=639052524439630000</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -707,21 +711,21 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>40151</t>
+          <t>8817</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>40078</t>
+          <t>8829</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>NESTLE</t>
+          <t>COCA COLA</t>
         </is>
       </c>
       <c r="O4" t="n">
-        <v>2000043</v>
+        <v>2000027</v>
       </c>
       <c r="P4" t="n">
         <v>99999</v>
@@ -730,43 +734,39 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>uva-preta-sem-semente-500-g-674583</t>
+          <t>creme-de-leite-nestle-10--gratis-200g-1165151</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Uva Preta Sem Semente 500g</t>
+          <t>Creme de Leite Nestlé 10% Grátis 200g</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>674583</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Eventualmente, devido à variações climáticas, essa variedade pode apresentar traços de sementes comestíveis As uvas são, sem dúvidas, uma das frutas mais nutritivas de todas. Apesar de seu tamanho relativamente pequeno, elas são extremamente poderosas nutricionalmente e consumilas é muito importante para o bom funcionamento do corpo.As calorias presentes nas uvas também são poucas: apenas 90 em cerca de 150g. Por isso, é uma ótima opção também para aqueles que estão em processo de redução da massa corporal, desde que consumida com cautela.Rica em antioxidantes que são responsáveis por ‘’limpar’’ e proteger as nossas células dos chamados radicais livres, compostos potencialmente perigosos que podem danificar essas estruturas.Os antioxidantes estão mais comumente presentes na casca da fruta, o que é indicado pela coloração delas. Quanto mais escuras, maior é a concentração desses compostos na uva. Os principais exemplos são os polifenois, e o mais famoso deles chamase resveratrol.</t>
-        </is>
-      </c>
+          <t>1165151</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>11.99</v>
+        <v>5.99</v>
       </c>
       <c r="F5" t="n">
-        <v>11.99</v>
+        <v>5.99</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>71</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2020-09-26T00:00:00Z</t>
+          <t>2025-02-20T00:00:00Z</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3047035/VF4qT-qqCUAAAAAAAAGXCQ.jpg?v=637793205627670000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4395976/VF4qT-qqCUAAAAAAAAoEeQ.jpg?v=638984266226730000</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -779,21 +779,21 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>5264</t>
+          <t>40151</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>5280</t>
+          <t>40078</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>NESTLE</t>
         </is>
       </c>
       <c r="O5" t="n">
-        <v>2000015</v>
+        <v>2000043</v>
       </c>
       <c r="P5" t="n">
         <v>99999</v>
@@ -802,70 +802,70 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>alcool-montenegro-46-1-l-780570</t>
+          <t>batata-inglesa-cariorta-12kg-98698</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Álcool Montenegro 46% 1 L</t>
+          <t>Batata Inglesa Cariorta 1,2Kg</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>780570</t>
+          <t>98698</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Álcool Montenegro 46% 1 L</t>
+          <t>Cariorta selecionados de coração.</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>7.98</v>
+        <v>8.99</v>
       </c>
       <c r="F6" t="n">
-        <v>8.789999999999999</v>
+        <v>8.99</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>483</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2020-10-06T10:47:00Z</t>
+          <t>2020-12-16T00:00:00Z</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3051579/VF4qT-qqCUAAAAAAAAG3pQ.jpg?v=637793390624870000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3082670/VF4qT-qqCUAAAAAAAAOOew.jpg?v=637979987993130000</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>11598</t>
+          <t>16570</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>11621</t>
+          <t>16461</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>MONTENEGRO</t>
+          <t>CARIORTA</t>
         </is>
       </c>
       <c r="O6" t="n">
-        <v>2000527</v>
+        <v>2001012</v>
       </c>
       <c r="P6" t="n">
         <v>99999</v>
@@ -874,61 +874,61 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>mucarela-em-fatias-92363</t>
+          <t>uva-preta-sem-semente-500-g-674583</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Muçarela  em Fatias 200g</t>
+          <t>Uva Preta Sem Semente 500g</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>92363</t>
+          <t>674583</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Muçarela em Fatias</t>
+          <t>Eventualmente, devido à variações climáticas, essa variedade pode apresentar traços de sementes comestíveis As uvas são, sem dúvidas, uma das frutas mais nutritivas de todas. Apesar de seu tamanho relativamente pequeno, elas são extremamente poderosas nutricionalmente e consumilas é muito importante para o bom funcionamento do corpo.As calorias presentes nas uvas também são poucas: apenas 90 em cerca de 150g. Por isso, é uma ótima opção também para aqueles que estão em processo de redução da massa corporal, desde que consumida com cautela.Rica em antioxidantes que são responsáveis por ‘’limpar’’ e proteger as nossas células dos chamados radicais livres, compostos potencialmente perigosos que podem danificar essas estruturas.Os antioxidantes estão mais comumente presentes na casca da fruta, o que é indicado pela coloração delas. Quanto mais escuras, maior é a concentração desses compostos na uva. Os principais exemplos são os polifenois, e o mais famoso deles chamase resveratrol.</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>59.9</v>
+        <v>11.99</v>
       </c>
       <c r="F7" t="n">
-        <v>59.9</v>
+        <v>11.99</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2020-09-27T00:00:00Z</t>
+          <t>2020-09-26T00:00:00Z</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3052070/VF4qT-qqCUAAAAAAAAI4-w.jpg?v=637793416889100000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3047035/VF4qT-qqCUAAAAAAAAGXCQ.jpg?v=637793205627670000</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>1361</t>
+          <t>5264</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>1368</t>
+          <t>5280</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -946,43 +946,43 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>leite-uht-piracanjuba-integral-1l-865427</t>
+          <t>alcool-montenegro-46-1-l-780570</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Leite Uht Piracanjuba Integral 1L</t>
+          <t>Álcool Montenegro 46% 1 L</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>865427</t>
+          <t>780570</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>No café da manhã, em um delicioso lanche da tarde ou até mesmo antes de dormir, o Leite Piracanjuba cumpre bem o seu papel principal: trazer mais sabor para os seus momentos especiais e para as suas receitas. Mais sabor para todos os momentos.</t>
+          <t>Álcool Montenegro 46% 1 L</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5.59</v>
+        <v>7.98</v>
       </c>
       <c r="F8" t="n">
-        <v>5.59</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>74</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2017-04-12T00:00:00Z</t>
+          <t>2020-10-06T10:47:00Z</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3294485/VF4qT-qqCUAAAAAAAAWbgQ.jpg?v=638412300289570000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3051579/VF4qT-qqCUAAAAAAAAG3pQ.jpg?v=637793390624870000</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -995,21 +995,21 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>23232</t>
+          <t>11598</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>23158</t>
+          <t>11621</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>PIRACANJUBA</t>
+          <t>MONTENEGRO</t>
         </is>
       </c>
       <c r="O8" t="n">
-        <v>2002038</v>
+        <v>2000527</v>
       </c>
       <c r="P8" t="n">
         <v>99999</v>
@@ -1018,61 +1018,61 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>cheiro-verde-unidade-201049</t>
+          <t>mucarela-em-fatias-92363</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Cheiro Verde Unidade</t>
+          <t>Muçarela  em Fatias 200g</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>201049</t>
+          <t>92363</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>O cheiro verde é a combinação da cebolinha e salsinha .Como conservar:Em geladeira por até 5 dias em saco ou vasilha de plástico.Como consumir:Podem ser adicionadas cruas, em saladas e recheios de sanduíches e como ingredientes em marinadas.</t>
+          <t>Muçarela em Fatias</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3.39</v>
+        <v>59.9</v>
       </c>
       <c r="F9" t="n">
-        <v>3.39</v>
+        <v>59.9</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>83</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2020-09-28T00:00:00Z</t>
+          <t>2020-09-27T00:00:00Z</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3457712/VF4qT-qqCUAAAAAAAAXvTg.jpg?v=638507335658200000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3052070/VF4qT-qqCUAAAAAAAAI4-w.jpg?v=637793416889100000</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>7411</t>
+          <t>1361</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>7430</t>
+          <t>1368</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1090,43 +1090,43 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>tomate-italiano-unidade-495212</t>
+          <t>leite-uht-piracanjuba-integral-1l-865427</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Tomate Italiano Unidade</t>
+          <t>Leite Uht Piracanjuba Integral 1L</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>495212</t>
+          <t>865427</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Tomate Italiano Unidade</t>
+          <t>No café da manhã, em um delicioso lanche da tarde ou até mesmo antes de dormir, o Leite Piracanjuba cumpre bem o seu papel principal: trazer mais sabor para os seus momentos especiais e para as suas receitas. Mais sabor para todos os momentos.</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1.53</v>
+        <v>5.59</v>
       </c>
       <c r="F10" t="n">
-        <v>1.53</v>
+        <v>5.59</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>130</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2020-09-27T00:00:00Z</t>
+          <t>2017-04-12T00:00:00Z</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3094266/VF4qT-qqCUAAAAAAAASLmg.jpg?v=638191532599970000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3294485/VF4qT-qqCUAAAAAAAAWbgQ.jpg?v=638412300289570000</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1139,21 +1139,21 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>6965</t>
+          <t>23232</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>6983</t>
+          <t>23158</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>PIRACANJUBA</t>
         </is>
       </c>
       <c r="O10" t="n">
-        <v>2000015</v>
+        <v>2002038</v>
       </c>
       <c r="P10" t="n">
         <v>99999</v>
@@ -1162,43 +1162,43 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ovos-vermelhos-mantiqueira-happy-eggs-com-10-unidades-5106753</t>
+          <t>cheiro-verde-unidade-201049</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ovos Vermelhos Mantiqueira Happy Eggs com 10 Unidades</t>
+          <t>Cheiro Verde Unidade</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>5106753</t>
+          <t>201049</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Produzidos por galinhas criadas livres de gaiolas. Garantia de Bem-Estar Animal. Ovos Vermelhos Tipo Grande Categoria A. Embalagem com 10 unidades.</t>
+          <t>O cheiro verde é a combinação da cebolinha e salsinha .Como conservar:Em geladeira por até 5 dias em saco ou vasilha de plástico.Como consumir:Podem ser adicionadas cruas, em saladas e recheios de sanduíches e como ingredientes em marinadas.</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>11.99</v>
+        <v>3.39</v>
       </c>
       <c r="F11" t="n">
-        <v>11.99</v>
+        <v>3.39</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2021-01-11T00:00:00Z</t>
+          <t>2020-09-28T00:00:00Z</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4222023/VF4qT-qqCUAAAAAAAAStHA.jpg?v=638894405636230000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3457712/VF4qT-qqCUAAAAAAAAXvTg.jpg?v=638507335658200000</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1211,21 +1211,21 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>18105</t>
+          <t>7411</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>17997</t>
+          <t>7430</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>HAPPY EGGS</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O11" t="n">
-        <v>2003319</v>
+        <v>2000015</v>
       </c>
       <c r="P11" t="n">
         <v>99999</v>
@@ -1234,39 +1234,43 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>papel-toalha-coquetel-19cm-x-19cm-com-2-rolos-com-60-folhas-cada-783242</t>
+          <t>tomate-italiano-unidade-495212</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Papel Toalha Coquetel 19Cm X 19Cm com 2 Rolos com 60 Folhas Cada</t>
+          <t>Tomate Italiano Unidade</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>783242</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
+          <t>495212</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Tomate Italiano Unidade</t>
+        </is>
+      </c>
       <c r="E12" t="n">
-        <v>6.99</v>
+        <v>1.53</v>
       </c>
       <c r="F12" t="n">
-        <v>6.99</v>
+        <v>1.53</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>53</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2020-10-06T00:00:00Z</t>
+          <t>2020-09-27T00:00:00Z</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3050348/VF4qT-qqCUAAAAAAAAJRgg.jpg?v=637793335676500000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3094266/VF4qT-qqCUAAAAAAAASLmg.jpg?v=638191532599970000</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1279,21 +1283,21 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>11627</t>
+          <t>6965</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>11650</t>
+          <t>6983</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>COQUETEL</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O12" t="n">
-        <v>2001855</v>
+        <v>2000015</v>
       </c>
       <c r="P12" t="n">
         <v>99999</v>
@@ -1302,43 +1306,43 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>agua-mineral-com-gas-sao-lourenco-pet-1-26-l-140805</t>
+          <t>ovos-vermelhos-mantiqueira-happy-eggs-com-10-unidades-5106753</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Água Mineral Com Gás São Lourenço Pet 1,26 L</t>
+          <t>Ovos Vermelhos Mantiqueira Happy Eggs com 10 Unidades</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>140805</t>
+          <t>5106753</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Água Mineral Com Gás São Lourenço Pet 1,26 L</t>
+          <t>Produzidos por galinhas criadas livres de gaiolas. Garantia de Bem-Estar Animal. Ovos Vermelhos Tipo Grande Categoria A. Embalagem com 10 unidades.</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5.29</v>
+        <v>11.99</v>
       </c>
       <c r="F13" t="n">
-        <v>5.29</v>
+        <v>11.99</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2020-09-25T00:00:00Z</t>
+          <t>2021-01-11T00:00:00Z</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3076277/VF4qT-qqCUAAAAAAAAHMBQ.jpg?v=637877821166370000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4222023/VF4qT-qqCUAAAAAAAAStHA.jpg?v=638894405636230000</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1351,21 +1355,21 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>3915</t>
+          <t>18105</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>3929</t>
+          <t>17997</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>SAO LOURENCO</t>
+          <t>HAPPY EGGS</t>
         </is>
       </c>
       <c r="O13" t="n">
-        <v>2000145</v>
+        <v>2003319</v>
       </c>
       <c r="P13" t="n">
         <v>99999</v>
@@ -1374,43 +1378,43 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>cafe-torrado-e-moido-pilao-tradicional-500g-828025</t>
+          <t>agua-mineral-com-gas-sao-lourenco-pet-1-26-l-140805</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Café Torrado E Moído Pilão Tradicional Fresh Pack 500g</t>
+          <t>Água Mineral Com Gás São Lourenço Pet 1,26 L</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>828025</t>
+          <t>140805</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Tem um ponto de torra acentuado e um processo de moagem fina e uniforme, que garantem e preservam seu sabor forte e encorpado.É perfeito para servir em dia de casa cheia, pois seu sabor tradicional agrada a todo mundo.</t>
+          <t>Água Mineral Com Gás São Lourenço Pet 1,26 L</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>29.98</v>
+        <v>5.29</v>
       </c>
       <c r="F14" t="n">
-        <v>43.9</v>
+        <v>5.29</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>18</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2020-09-15T00:00:00Z</t>
+          <t>2020-09-25T00:00:00Z</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3051146/VF4qT-qqCUAAAAAAAAG1sQ.jpg?v=637793369863530000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3076277/VF4qT-qqCUAAAAAAAAHMBQ.jpg?v=637877821166370000</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1423,21 +1427,21 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>3915</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>3929</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>PILAO</t>
+          <t>SAO LOURENCO</t>
         </is>
       </c>
       <c r="O14" t="n">
-        <v>2000070</v>
+        <v>2000145</v>
       </c>
       <c r="P14" t="n">
         <v>99999</v>
@@ -1518,43 +1522,43 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>guardanapo-folha-dupla-scott-grand-hotel-238cm×218cm-50-unidades-129879</t>
+          <t>cafe-torrado-e-moido-pilao-tradicional-500g-828025</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Guardanapo Folha Dupla Scott Grand Hotel 23,8cm×21,8cm 50 Unidades</t>
+          <t>Café Torrado E Moído Pilão Tradicional Fresh Pack 500g</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>129879</t>
+          <t>828025</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Guardanapo Folha Dupla Scott Grand Hotel 23,8cm×21,8cm 50 Unidades</t>
+          <t>Tem um ponto de torra acentuado e um processo de moagem fina e uniforme, que garantem e preservam seu sabor forte e encorpado.É perfeito para servir em dia de casa cheia, pois seu sabor tradicional agrada a todo mundo.</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6.19</v>
+        <v>29.98</v>
       </c>
       <c r="F16" t="n">
-        <v>6.19</v>
+        <v>43.9</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>59</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2020-10-05T00:00:00Z</t>
+          <t>2020-09-15T00:00:00Z</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3239421/VF4qT-qqCUAAAAAAAAVSfw.jpg?v=638362188224230000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3051146/VF4qT-qqCUAAAAAAAAG1sQ.jpg?v=637793369863530000</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1567,21 +1571,21 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>9426</t>
+          <t>130</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>9438</t>
+          <t>135</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>GRANDE HOTEL</t>
+          <t>PILAO</t>
         </is>
       </c>
       <c r="O16" t="n">
-        <v>2001400</v>
+        <v>2000070</v>
       </c>
       <c r="P16" t="n">
         <v>99999</v>
@@ -1590,43 +1594,39 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>couve-flor-unidade-189111</t>
+          <t>papel-toalha-coquetel-19cm-x-19cm-com-2-rolos-com-60-folhas-cada-783242</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Couve Flor Unidade</t>
+          <t>Papel Toalha Coquetel 19Cm X 19Cm com 2 Rolos com 60 Folhas Cada</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>189111</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>A couveflor é uma hortaliça rica em cálcio e fósforo e fonte de ácido fólico e vitamina C . Como Conservar:Na geladeira pode ser conservada por 3 a 5 dias, dentro de saco plástico perfurado. Antes de guardar, remova as partes escuras e folhas, mas não lave a cabeça.Como Consumir:Pode ser consumida assada, frita ou cozinhe em água e sal. [Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
-        </is>
-      </c>
+          <t>783242</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="n">
-        <v>9.99</v>
+        <v>6.99</v>
       </c>
       <c r="F17" t="n">
-        <v>9.99</v>
+        <v>6.99</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>111</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2020-09-28T00:00:00Z</t>
+          <t>2020-10-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3041615/VF4qT-qqCUAAAAAAAAGF4Q.jpg?v=637792579893500000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3050348/VF4qT-qqCUAAAAAAAAJRgg.jpg?v=637793335676500000</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1639,21 +1639,21 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>7446</t>
+          <t>11627</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>7465</t>
+          <t>11650</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>COQUETEL</t>
         </is>
       </c>
       <c r="O17" t="n">
-        <v>2000015</v>
+        <v>2001855</v>
       </c>
       <c r="P17" t="n">
         <v>99999</v>
@@ -1662,43 +1662,43 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>abacaxi-unidade-221</t>
+          <t>couve-flor-unidade-189111</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Abacaxi Unidade</t>
+          <t>Couve Flor Unidade</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>189111</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Peso Aproximado 1,61,8Kg / Unidade.O Abacaxi é rico em Vitaminas A, B5, B6, C, BetaCaroteno, Tiamina, Antioxidantes e Fibras, auxiliando na saciedade e regulação do peso. É uma Importante fonte de energia póstreino. Auxilia nos processos antiinflamatórios por conter Bromelina, enzima encontrada principalmente no talo da fruta. Como preparar: no seu estado natural cortado, em saladas, assado, grelhado, sucos, geleias, sorvetes e chás.</t>
+          <t>A couveflor é uma hortaliça rica em cálcio e fósforo e fonte de ácido fólico e vitamina C . Como Conservar:Na geladeira pode ser conservada por 3 a 5 dias, dentro de saco plástico perfurado. Antes de guardar, remova as partes escuras e folhas, mas não lave a cabeça.Como Consumir:Pode ser consumida assada, frita ou cozinhe em água e sal. [Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>10.99</v>
+        <v>9.99</v>
       </c>
       <c r="F18" t="n">
-        <v>10.99</v>
+        <v>9.99</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>53</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2020-09-26T00:00:00Z</t>
+          <t>2020-09-28T00:00:00Z</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3041923/VF4qT-qqCUAAAAAAAAFtXw.jpg?v=637792593143530000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3041615/VF4qT-qqCUAAAAAAAAGF4Q.jpg?v=637792579893500000</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1711,12 +1711,12 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>4959</t>
+          <t>7446</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>4975</t>
+          <t>7465</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -1728,54 +1728,54 @@
         <v>2000015</v>
       </c>
       <c r="P18" t="n">
-        <v>100</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>limao-cariorta-1kg-98981</t>
+          <t>guardanapo-folha-dupla-scott-grand-hotel-238cm×218cm-50-unidades-129879</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Limão Cariorta 1Kg</t>
+          <t>Guardanapo Folha Dupla Scott Grand Hotel 23,8cm×21,8cm 50 Unidades</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>98981</t>
+          <t>129879</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Cariorta selecionados de coração.</t>
+          <t>Guardanapo Folha Dupla Scott Grand Hotel 23,8cm×21,8cm 50 Unidades</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>11.99</v>
+        <v>6.19</v>
       </c>
       <c r="F19" t="n">
-        <v>11.99</v>
+        <v>6.19</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>111</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2020-05-20T00:00:00Z</t>
+          <t>2020-10-05T00:00:00Z</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3084385/VF4qT-qqCUAAAAAAAAOgIg.jpg?v=638000868147970000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3239421/VF4qT-qqCUAAAAAAAAVSfw.jpg?v=638362188224230000</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K19" t="n">
@@ -1783,21 +1783,21 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>24698</t>
+          <t>9426</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>24622</t>
+          <t>9438</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>CARIORTA</t>
+          <t>GRANDE HOTEL</t>
         </is>
       </c>
       <c r="O19" t="n">
-        <v>2001012</v>
+        <v>2001400</v>
       </c>
       <c r="P19" t="n">
         <v>99999</v>
@@ -1806,29 +1806,29 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>morango-250g-289612</t>
+          <t>abacaxi-unidade-221</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Morango 250g</t>
+          <t>Abacaxi Unidade</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>289612</t>
+          <t>221</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Embalagem com 250g "O morango é rico em vitamina C e, por isso, o consumo da fruta evita a fragilidade dos ossos e a má formação dos dentes. Ele também dá resistência aos tecidos, age contra infecções ajudando na cicatrização. O morango também possui, em menor quantidade, vitamina B5, conhecida como niacina. Ela tem a função de evitar problemas de pele, do aparelho digestivo e do sistema nervoso. Na fruta, também é encontrado ferro, que faz parte da formação do sangue."</t>
+          <t>Peso Aproximado 1,61,8Kg / Unidade.O Abacaxi é rico em Vitaminas A, B5, B6, C, BetaCaroteno, Tiamina, Antioxidantes e Fibras, auxiliando na saciedade e regulação do peso. É uma Importante fonte de energia póstreino. Auxilia nos processos antiinflamatórios por conter Bromelina, enzima encontrada principalmente no talo da fruta. Como preparar: no seu estado natural cortado, em saladas, assado, grelhado, sucos, geleias, sorvetes e chás.</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>9.99</v>
+        <v>10.99</v>
       </c>
       <c r="F20" t="n">
-        <v>9.99</v>
+        <v>10.99</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3226559/VF4qT-qqCUAAAAAAAAHKNA.jpg?v=638352676547800000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3041923/VF4qT-qqCUAAAAAAAAFtXw.jpg?v=637792593143530000</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1855,12 +1855,12 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>5152</t>
+          <t>4959</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>5168</t>
+          <t>4975</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -1872,54 +1872,54 @@
         <v>2000015</v>
       </c>
       <c r="P20" t="n">
-        <v>99999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>detergente-para-loucas-odd-clear-500ml-982911</t>
+          <t>limao-cariorta-1kg-98981</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Detergente Para Louças Odd Clear 500ml</t>
+          <t>Limão Cariorta 1Kg</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>982911</t>
+          <t>98981</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>ODD voltou!Alto rendimento , controle de odor.</t>
+          <t>Cariorta selecionados de coração.</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1.9</v>
+        <v>11.99</v>
       </c>
       <c r="F21" t="n">
-        <v>2.49</v>
+        <v>11.99</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>482</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2020-10-06T00:00:00Z</t>
+          <t>2020-05-20T00:00:00Z</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3056732/VF4qT-qqCUAAAAAAAAHzRQ.jpg?v=637793635376800000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3084385/VF4qT-qqCUAAAAAAAAOgIg.jpg?v=638000868147970000</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K21" t="n">
@@ -1927,21 +1927,21 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>11872</t>
+          <t>24698</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>11898</t>
+          <t>24622</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>LIMPPANO</t>
+          <t>CARIORTA</t>
         </is>
       </c>
       <c r="O21" t="n">
-        <v>2001341</v>
+        <v>2001012</v>
       </c>
       <c r="P21" t="n">
         <v>99999</v>
@@ -1950,66 +1950,70 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>pao-frances-panetto-60g-com-4-unidades-96318</t>
+          <t>morango-250g-289612</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Pão Francês Panetto  60g Com 4 unidades</t>
+          <t>Morango 250g</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>96318</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
+          <t>289612</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Embalagem com 250g "O morango é rico em vitamina C e, por isso, o consumo da fruta evita a fragilidade dos ossos e a má formação dos dentes. Ele também dá resistência aos tecidos, age contra infecções ajudando na cicatrização. O morango também possui, em menor quantidade, vitamina B5, conhecida como niacina. Ela tem a função de evitar problemas de pele, do aparelho digestivo e do sistema nervoso. Na fruta, também é encontrado ferro, que faz parte da formação do sangue."</t>
+        </is>
+      </c>
       <c r="E22" t="n">
-        <v>23.98</v>
+        <v>9.99</v>
       </c>
       <c r="F22" t="n">
-        <v>23.98</v>
+        <v>9.99</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2024-01-31T00:00:00Z</t>
+          <t>2020-09-26T00:00:00Z</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3307700/VF4qT-qqCUAAAAAAAAWnXQ.jpg?v=638932898013670000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3226559/VF4qT-qqCUAAAAAAAAHKNA.jpg?v=638352676547800000</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K22" t="n">
-        <v>0.24</v>
+        <v>1</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>35477</t>
+          <t>5152</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>35404</t>
+          <t>5168</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>PANETTO</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O22" t="n">
-        <v>2000307</v>
+        <v>2000015</v>
       </c>
       <c r="P22" t="n">
         <v>99999</v>
@@ -2018,43 +2022,43 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>file-de-peito-de-frango-sadia-bandeja-1kg-290564</t>
+          <t>detergente-para-loucas-odd-clear-500ml-982911</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Filé de Peito de Frango Sadia Bandeja 1kg</t>
+          <t>Detergente Para Louças Odd Clear 500ml</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>290564</t>
+          <t>982911</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Peito De Frango Em Filés Sadia Bandeja 1kg</t>
+          <t>ODD voltou!Alto rendimento , controle de odor.</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>24.99</v>
+        <v>1.9</v>
       </c>
       <c r="F23" t="n">
-        <v>26.99</v>
+        <v>2.49</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>76</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2020-09-29T00:00:00Z</t>
+          <t>2020-10-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3538840/VF4qT-qqCUAAAAAAAAa5gg.jpg?v=638550537679130000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3056732/VF4qT-qqCUAAAAAAAAHzRQ.jpg?v=637793635376800000</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -2067,21 +2071,21 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>11872</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>11898</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>SADIA</t>
+          <t>LIMPPANO</t>
         </is>
       </c>
       <c r="O23" t="n">
-        <v>2000057</v>
+        <v>2001341</v>
       </c>
       <c r="P23" t="n">
         <v>99999</v>
@@ -2090,70 +2094,66 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>farinha-de-trigo-dona-benta-1kg-105287</t>
+          <t>pao-frances-panetto-60g-com-4-unidades-96318</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Farinha De Trigo Dona Benta 1kg</t>
+          <t>Pão Francês Panetto  60g Com 4 unidades</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>105287</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Farinha De Trigo Dona Benta 1kg</t>
-        </is>
-      </c>
+          <t>96318</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="n">
-        <v>7.99</v>
+        <v>23.98</v>
       </c>
       <c r="F24" t="n">
-        <v>7.99</v>
+        <v>23.98</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>89</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2020-07-06T00:00:00Z</t>
+          <t>2024-01-31T00:00:00Z</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3079291/VF4qT-qqCUAAAAAAAANuog.jpg?v=637897755804270000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3307700/VF4qT-qqCUAAAAAAAAWnXQ.jpg?v=638932898013670000</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K24" t="n">
-        <v>1</v>
+        <v>0.24</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>35477</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>35404</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>DONA BENTA</t>
+          <t>PANETTO</t>
         </is>
       </c>
       <c r="O24" t="n">
-        <v>2000701</v>
+        <v>2000307</v>
       </c>
       <c r="P24" t="n">
         <v>99999</v>
@@ -2230,43 +2230,43 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>abobrinha-italiana-unidade-423513</t>
+          <t>file-de-peito-de-frango-sadia-bandeja-1kg-290564</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Abobrinha Italiana Unidade</t>
+          <t>Filé de Peito de Frango Sadia Bandeja 1kg</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>423513</t>
+          <t>290564</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Abobrinha Italiana Unidade</t>
+          <t>Peito De Frango Em Filés Sadia Bandeja 1kg</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>2.1</v>
+        <v>24.99</v>
       </c>
       <c r="F26" t="n">
-        <v>2.1</v>
+        <v>26.99</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>125</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2020-12-07T00:00:00Z</t>
+          <t>2020-09-29T00:00:00Z</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3095398/VF4qT-qqCUAAAAAAAASlGA.jpg?v=638211351178300000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3538840/VF4qT-qqCUAAAAAAAAa5gg.jpg?v=638550537679130000</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2279,21 +2279,21 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>16065</t>
+          <t>7</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>15956</t>
+          <t>7</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>SADIA</t>
         </is>
       </c>
       <c r="O26" t="n">
-        <v>2000015</v>
+        <v>2000057</v>
       </c>
       <c r="P26" t="n">
         <v>99999</v>
@@ -2302,43 +2302,43 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>guardanapo-folha-dupla-scott-grand-hotel-jantar-33×33-cm-com-50-unidades-129887</t>
+          <t>farinha-de-trigo-dona-benta-1kg-105287</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Guardanapo Folha Dupla Scott Grand Hotel Jantar 33×33 Cm Com 50 Unidades</t>
+          <t>Farinha De Trigo Dona Benta 1kg</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>129887</t>
+          <t>105287</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>O Guardanapo Grand Hotel folha tripla é mais sofisticado e garante uma maciez superior para todos os momentos. Contém 50 folhas de tamanho 31,8x32,8 cm cada.</t>
+          <t>Farinha De Trigo Dona Benta 1kg</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>12.99</v>
+        <v>7.99</v>
       </c>
       <c r="F27" t="n">
-        <v>12.99</v>
+        <v>7.99</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>63</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2020-10-05T00:00:00Z</t>
+          <t>2020-07-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3078100/129887_1.jpg?v=637895346534630000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3079291/VF4qT-qqCUAAAAAAAANuog.jpg?v=637897755804270000</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -2351,21 +2351,21 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>9427</t>
+          <t>31</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>9439</t>
+          <t>31</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>GRANDE HOTEL</t>
+          <t>DONA BENTA</t>
         </is>
       </c>
       <c r="O27" t="n">
-        <v>2001401</v>
+        <v>2000701</v>
       </c>
       <c r="P27" t="n">
         <v>99999</v>
@@ -2374,29 +2374,29 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>abobora-japonesa-pedaco-500g-38229</t>
+          <t>abobrinha-italiana-unidade-423513</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Abóbora Japonesa Pedaço 500g</t>
+          <t>Abobrinha Italiana Unidade</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>38229</t>
+          <t>423513</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Embalagem com 1 pedaço.</t>
+          <t>Abobrinha Italiana Unidade</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>5.29</v>
+        <v>2.1</v>
       </c>
       <c r="F28" t="n">
-        <v>5.29</v>
+        <v>2.1</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -2405,30 +2405,30 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2020-09-26T00:00:00Z</t>
+          <t>2020-12-07T00:00:00Z</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3096862/VF4qT-qqCUAAAAAAAAS9Tw.jpg?v=638235593168230000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3095398/VF4qT-qqCUAAAAAAAASlGA.jpg?v=638211351178300000</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K28" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>5593</t>
+          <t>16065</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>5609</t>
+          <t>15956</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -2446,70 +2446,70 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>mamao-papaia-cariorta-12kg-99007</t>
+          <t>guardanapo-folha-dupla-scott-grand-hotel-jantar-33×33-cm-com-50-unidades-129887</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Mamão Papaia Cariorta 1,2kg</t>
+          <t>Guardanapo Folha Dupla Scott Grand Hotel Jantar 33×33 Cm Com 50 Unidades</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>99007</t>
+          <t>129887</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Cariorta selecionados de coração.</t>
+          <t>O Guardanapo Grand Hotel folha tripla é mais sofisticado e garante uma maciez superior para todos os momentos. Contém 50 folhas de tamanho 31,8x32,8 cm cada.</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>15.99</v>
+        <v>12.99</v>
       </c>
       <c r="F29" t="n">
-        <v>15.99</v>
+        <v>12.99</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>111</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2020-05-20T00:00:00Z</t>
+          <t>2020-10-05T00:00:00Z</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3082688/VF4qT-qqCUAAAAAAAAOOog.jpg?v=637980006057500000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3078100/129887_1.jpg?v=637895346534630000</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K29" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>24413</t>
+          <t>9427</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>24337</t>
+          <t>9439</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>CARIORTA</t>
+          <t>GRANDE HOTEL</t>
         </is>
       </c>
       <c r="O29" t="n">
-        <v>2001012</v>
+        <v>2001401</v>
       </c>
       <c r="P29" t="n">
         <v>99999</v>
@@ -2590,61 +2590,61 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>coentro-unidade-200930</t>
+          <t>abobora-japonesa-pedaco-500g-38229</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Coentro Unidade</t>
+          <t>Abóbora Japonesa Pedaço 500g</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>200930</t>
+          <t>38229</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Coentro Unidade</t>
+          <t>Embalagem com 1 pedaço.</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>3.39</v>
+        <v>5.29</v>
       </c>
       <c r="F31" t="n">
-        <v>3.39</v>
+        <v>5.29</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>53</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2020-09-28T00:00:00Z</t>
+          <t>2020-09-26T00:00:00Z</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3076728/VF4qT-qqCUAAAAAAAAGF4g.jpg?v=637877840364830000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3096862/VF4qT-qqCUAAAAAAAAS9Tw.jpg?v=638235593168230000</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K31" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>7408</t>
+          <t>5593</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>7427</t>
+          <t>5609</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -2662,70 +2662,70 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>la-de-aco-bombril-com-6-unidades-45g-1180320</t>
+          <t>mamao-papaia-cariorta-12kg-99007</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Lã de Aço Bombril com 6 Unidades 45g</t>
+          <t>Mamão Papaia Cariorta 1,2kg</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1180320</t>
+          <t>99007</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Uso: Ideal para limpeza de panelas, utensílios de cozinha, superfícies metálicas e outras áreas que necessitam de uma limpeza mais intensa.Remove sujeiras difíceis, incluindo resíduos de alimentos queimados e ferrugem.</t>
+          <t>Cariorta selecionados de coração.</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>2.09</v>
+        <v>15.99</v>
       </c>
       <c r="F32" t="n">
-        <v>2.99</v>
+        <v>15.99</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>482</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-07-17T00:00:00Z</t>
+          <t>2020-05-20T00:00:00Z</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4216409/VF4qT-qqCUAAAAAAAAko5g.jpg?v=638889221726300000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3082688/VF4qT-qqCUAAAAAAAAOOog.jpg?v=637980006057500000</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K32" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>41130</t>
+          <t>24413</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>41057</t>
+          <t>24337</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>BOMBRIL</t>
+          <t>CARIORTA</t>
         </is>
       </c>
       <c r="O32" t="n">
-        <v>2001389</v>
+        <v>2001012</v>
       </c>
       <c r="P32" t="n">
         <v>99999</v>
@@ -2734,43 +2734,43 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>espinafre-unidade-200948</t>
+          <t>azeite-italiano-extra-virgem-due-500ml-5472040</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Espinafre Unidade</t>
+          <t>Azeite Italiano Extravirgem Due 500ml</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>200948</t>
+          <t>5472040</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>O espinafre é uma hortaliça saborosa, rica em ferro e também é fonte de vitamina A e B2, além de fornecer cálcio, fósforo, potássio e magnésio, é indicado também para pessoas com anemia e desnutrição.Como conservar :Sob refrigeração, pode ser mantido por no máximo 5 dias. Antes de colocálo na geladeira, lave as folhas, escorra o excesso de água e coloqueo em sacos de plástico perfurados ou em vasilha de plástico.Como consumir :O espinafre também pode ser usado em saladas, sopas,suflês omeletes. É ótimo como recheio ou acompanhamento de massas como macarrão, quiche, tortas, pastéis e assados. [Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
+          <t>O azeite Due é um blend de azeites do Mediterrâneo que confere um resultado clássico e ideal para o cotidiano da cozinha. Sua elaboração conta com uma seleção cautelosamente realizada pelo Expert em Azeites e Temperos Marcelo Scofano, que anualmente viaja à Toscana (Itália), onde o azeite é produzido, para cuidar de cada detalhe pessoalmente.Due é um azeite clássico, ideal para o dia a dia da cozinha: marinados, refogados, emulsão de molhos, finalização de saladas, massas e pratos do cotidiano. O azeite clássico é extraído de azeitonas maduras. Possui sabor amendoado, com notas amargas e picantes em equilíbrio.O azeite Due faz parte da grupo de marcas exclusivas Zona Sul, criada e pensada com carinho para os cariocas de coração. O planejamento de cada produto exclusivo conta com a participação dos Experts Zona Sul em todo o processo, até chegar na sua mesa. E com a linha Due não é diferente!</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>3.39</v>
+        <v>29.98</v>
       </c>
       <c r="F33" t="n">
-        <v>3.39</v>
+        <v>36.9</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>597</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2020-09-28T00:00:00Z</t>
+          <t>2025-05-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3076729/VF4qT-qqCUAAAAAAAAKBdQ.jpg?v=637877840409270000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4116721/VF4qT-qqCUAAAAAAAAiyjQ.jpg?v=638846625781330000</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2783,66 +2783,66 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>7464</t>
+          <t>40224</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>7483</t>
+          <t>40151</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>DUE</t>
         </is>
       </c>
       <c r="O33" t="n">
-        <v>2000015</v>
+        <v>2005138</v>
       </c>
       <c r="P33" t="n">
-        <v>99999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>papel-higienico-folha-tripla-neve-supreme-dermacare-pacote-leve-16-pague-15-unidades-981168</t>
+          <t>la-de-aco-bombril-com-6-unidades-45g-1180320</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Papel Higiênico Folha Tripla Neve Supreme Dermacare Pacote Leve 16 Pague 15 Unidades</t>
+          <t>Lã de Aço Bombril com 6 Unidades 45g</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>981168</t>
+          <t>1180320</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Papel higiênico neutro folha tripla de alta qualidade. Neve quer ajudar as pessoas a cuidarem de si, por isso desenvolveu um produto que proporciona maciez insuperável com mais absorção e resistência.</t>
+          <t>Uso: Ideal para limpeza de panelas, utensílios de cozinha, superfícies metálicas e outras áreas que necessitam de uma limpeza mais intensa.Remove sujeiras difíceis, incluindo resíduos de alimentos queimados e ferrugem.</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>28.98</v>
+        <v>2.09</v>
       </c>
       <c r="F34" t="n">
-        <v>32.19</v>
+        <v>2.99</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>78</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2020-09-22T00:00:00Z</t>
+          <t>2025-07-17T00:00:00Z</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4430737/VF4qT-qqCUAAAAAAAAoMMw.jpg?v=639014499358300000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4216409/VF4qT-qqCUAAAAAAAAko5g.jpg?v=638889221726300000</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2855,21 +2855,21 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>1262</t>
+          <t>41130</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>1269</t>
+          <t>41057</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>NEVE</t>
+          <t>BOMBRIL</t>
         </is>
       </c>
       <c r="O34" t="n">
-        <v>2000291</v>
+        <v>2001389</v>
       </c>
       <c r="P34" t="n">
         <v>99999</v>
@@ -2878,43 +2878,43 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>sal-refinado-iodado-ita-1kg-117293</t>
+          <t>espinafre-unidade-200948</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Sal Refinado Iodado Ita 1kg</t>
+          <t>Espinafre Unidade</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>117293</t>
+          <t>200948</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Sal Refinado Iodado Ita 1kg</t>
+          <t>O espinafre é uma hortaliça saborosa, rica em ferro e também é fonte de vitamina A e B2, além de fornecer cálcio, fósforo, potássio e magnésio, é indicado também para pessoas com anemia e desnutrição.Como conservar :Sob refrigeração, pode ser mantido por no máximo 5 dias. Antes de colocálo na geladeira, lave as folhas, escorra o excesso de água e coloqueo em sacos de plástico perfurados ou em vasilha de plástico.Como consumir :O espinafre também pode ser usado em saladas, sopas,suflês omeletes. É ótimo como recheio ou acompanhamento de massas como macarrão, quiche, tortas, pastéis e assados. [Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>3.65</v>
+        <v>3.39</v>
       </c>
       <c r="F35" t="n">
-        <v>3.65</v>
+        <v>3.39</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2020-09-15T00:00:00Z</t>
+          <t>2020-09-28T00:00:00Z</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3076051/VF4qT-qqCUAAAAAAAAKZcQ.jpg?v=637877811480070000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3076729/VF4qT-qqCUAAAAAAAAKBdQ.jpg?v=637877840409270000</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2927,21 +2927,21 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>7464</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>7483</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>ITA</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O35" t="n">
-        <v>2000066</v>
+        <v>2000015</v>
       </c>
       <c r="P35" t="n">
         <v>99999</v>
@@ -2950,57 +2950,61 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>pessego-nacional-500g-12408</t>
+          <t>coentro-unidade-200930</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Pêssego Nacional 600g</t>
+          <t>Coentro Unidade</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>12408</t>
+          <t>200930</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Pêssego Nacional 500g</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
+          <t>Coentro Unidade</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="F36" t="n">
+        <v>3.39</v>
+      </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2020-09-26T00:00:00Z</t>
+          <t>2020-09-28T00:00:00Z</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3092387/VF4qT-qqCUAAAAAAAAFvOA.jpg?v=638151904193130000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3076728/VF4qT-qqCUAAAAAAAAGF4g.jpg?v=637877840364830000</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K36" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>5122</t>
+          <t>7408</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>5138</t>
+          <t>7427</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -3012,76 +3016,76 @@
         <v>2000015</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>oleo-de-soja-liza-900ml-127310</t>
+          <t>pessego-nacional-500g-12408</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Óleo De Soja Liza 900ml</t>
+          <t>Pêssego Nacional 600g</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>127310</t>
+          <t>12408</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Óleo De Soja Liza 900ml</t>
+          <t>Pêssego Nacional 500g</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>8.59</v>
+        <v>10.99</v>
       </c>
       <c r="F37" t="n">
-        <v>8.59</v>
+        <v>10.99</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2020-09-15T00:00:00Z</t>
+          <t>2020-09-26T00:00:00Z</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3075849/VF4qT-qqCUAAAAAAAAIxqw.jpg?v=637877802666600000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3092387/VF4qT-qqCUAAAAAAAAFvOA.jpg?v=638151904193130000</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K37" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>5122</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>5138</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>LIZA</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O37" t="n">
-        <v>2000067</v>
+        <v>2000015</v>
       </c>
       <c r="P37" t="n">
         <v>99999</v>
@@ -3090,43 +3094,43 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>detergente-para-loucas-biodegradavel-limpol-neutro-500-ml-100510</t>
+          <t>papel-higienico-folha-tripla-neve-supreme-dermacare-pacote-leve-16-pague-15-unidades-981168</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Detergente Para Louças Biodegradável Limpol Neutro 500ml</t>
+          <t>Papel Higiênico Folha Tripla Neve Supreme Dermacare Pacote Leve 16 Pague 15 Unidades</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>100510</t>
+          <t>981168</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>O Lava-Louças Limpol é eficiente no poder da limpeza, remoção da gordura e sujeiras e no combate aos maus odores indesejados da cozinha. Sua fórmula é dermatologicamente testada e contém glicerina, tornando-a mais suave para as mãos.</t>
+          <t>Papel higiênico neutro folha tripla de alta qualidade. Neve quer ajudar as pessoas a cuidarem de si, por isso desenvolveu um produto que proporciona maciez insuperável com mais absorção e resistência.</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>2.79</v>
+        <v>28.98</v>
       </c>
       <c r="F38" t="n">
-        <v>2.79</v>
+        <v>32.19</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>14</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2020-10-06T00:00:00Z</t>
+          <t>2020-09-22T00:00:00Z</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3269221/12054_1.jpg?v=638386029717470000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4430737/VF4qT-qqCUAAAAAAAAoMMw.jpg?v=639014499358300000</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -3139,21 +3143,21 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>12054</t>
+          <t>1262</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>12081</t>
+          <t>1269</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>LIMPOL</t>
+          <t>NEVE</t>
         </is>
       </c>
       <c r="O38" t="n">
-        <v>2001413</v>
+        <v>2000291</v>
       </c>
       <c r="P38" t="n">
         <v>99999</v>
@@ -3162,43 +3166,43 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>azeite-italiano-extra-virgem-due-500ml-5472040</t>
+          <t>refrigerante-coca-cola-sem-acucar-pet-600-ml-429392</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Azeite Italiano Extravirgem Due 500ml</t>
+          <t>Refrigerante Coca Cola Sem Açúcar Pet 600ml</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>5472040</t>
+          <t>429392</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>O azeite Due é um blend de azeites do Mediterrâneo que confere um resultado clássico e ideal para o cotidiano da cozinha. Sua elaboração conta com uma seleção cautelosamente realizada pelo Expert em Azeites e Temperos Marcelo Scofano, que anualmente viaja à Toscana (Itália), onde o azeite é produzido, para cuidar de cada detalhe pessoalmente.Due é um azeite clássico, ideal para o dia a dia da cozinha: marinados, refogados, emulsão de molhos, finalização de saladas, massas e pratos do cotidiano. O azeite clássico é extraído de azeitonas maduras. Possui sabor amendoado, com notas amargas e picantes em equilíbrio.O azeite Due faz parte da grupo de marcas exclusivas Zona Sul, criada e pensada com carinho para os cariocas de coração. O planejamento de cada produto exclusivo conta com a participação dos Experts Zona Sul em todo o processo, até chegar na sua mesa. E com a linha Due não é diferente!</t>
+          <t>A Coca-Cola Sem Açúcar é um refrigerante que não contém calorias! Com certeza você já se perguntou: “Então, de onde vem aquele gostinho doce? ” A Coca-Cola Sem Açúcar é produzida especialmente com adoçantes para manter o delicioso sabor de Coca-Cola porém com 0% Açucar. Perfeita para matar sua sede a qualquer hora do dia!</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>29.98</v>
+        <v>5.69</v>
       </c>
       <c r="F39" t="n">
-        <v>36.9</v>
+        <v>5.69</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-05-06T00:00:00Z</t>
+          <t>2020-10-01T00:00:00Z</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4116721/VF4qT-qqCUAAAAAAAAiyjQ.jpg?v=638846625781330000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4483407/VF4qT-qqCUAAAAAAAAoapA.jpg?v=639052524553700000</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -3211,21 +3215,21 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>40224</t>
+          <t>8816</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>40151</t>
+          <t>8828</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>DUE</t>
+          <t>COCA COLA</t>
         </is>
       </c>
       <c r="O39" t="n">
-        <v>2005138</v>
+        <v>2000027</v>
       </c>
       <c r="P39" t="n">
         <v>99999</v>
@@ -3234,43 +3238,43 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>pao-de-queijo-forno-de-minas-tradicional--400-g-456110</t>
+          <t>oleo-de-soja-liza-900ml-127310</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Pão De Queijo Forno De Minas Tradicional 400g</t>
+          <t>Óleo De Soja Liza 900ml</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>456110</t>
+          <t>127310</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Pão De Queijo Forno De Minas Tradicional 400g</t>
+          <t>Óleo De Soja Liza 900ml</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>21.99</v>
+        <v>8.59</v>
       </c>
       <c r="F40" t="n">
-        <v>21.99</v>
+        <v>8.59</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>576</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2020-10-20T00:00:00Z</t>
+          <t>2020-09-15T00:00:00Z</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3041185/VF4qT-qqCUAAAAAAAAHIag.jpg?v=637792557833470000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3075849/VF4qT-qqCUAAAAAAAAIxqw.jpg?v=637877802666600000</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -3283,66 +3287,66 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>13544</t>
+          <t>127</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>13564</t>
+          <t>132</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>FORNO MINAS</t>
+          <t>LIZA</t>
         </is>
       </c>
       <c r="O40" t="n">
-        <v>2001500</v>
+        <v>2000067</v>
       </c>
       <c r="P40" t="n">
-        <v>100</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>biscoito-cream-cracker-piraque-pacote-184g-1105795</t>
+          <t>sal-refinado-iodado-ita-1kg-117293</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Biscoito Cream Cracker Piraquê Pacote 184g</t>
+          <t>Sal Refinado Iodado Ita 1kg</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>1105795</t>
+          <t>117293</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Biscoito Salgado Cream Cracker Piraquê Pacote 184g</t>
+          <t>Sal Refinado Iodado Ita 1kg</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>3.89</v>
+        <v>3.65</v>
       </c>
       <c r="F41" t="n">
-        <v>5.99</v>
+        <v>3.65</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2023-07-26T00:00:00Z</t>
+          <t>2020-09-15T00:00:00Z</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3099416/VF4qT-qqCUAAAAAAAATd0w.jpg?v=638264204522930000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3076051/VF4qT-qqCUAAAAAAAAKZcQ.jpg?v=637877811480070000</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -3355,21 +3359,21 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>33955</t>
+          <t>126</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>33882</t>
+          <t>131</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>PIRAQUE</t>
+          <t>ITA</t>
         </is>
       </c>
       <c r="O41" t="n">
-        <v>2000017</v>
+        <v>2000066</v>
       </c>
       <c r="P41" t="n">
         <v>99999</v>
@@ -3378,43 +3382,43 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>couve-manteiga-unidade-201235</t>
+          <t>pao-de-queijo-forno-de-minas-tradicional--400-g-456110</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Couve Manteiga Unidade</t>
+          <t>Pão De Queijo Forno De Minas Tradicional 400g</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>201235</t>
+          <t>456110</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>A couve é uma hortaliça muito rica em nutriente,cálcio, ferro e vitaminas A,C, K e B5.Como conservar:Em geladeira, inteira ou picada deve ser mantida em saco plástico fechado ou em vasilha de plástico tampada.Como consumir:Pode ser consumida crua, em saladas e sucos, refogada ou como ingrediente de sopas, farofas e cozidos.[ Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
+          <t>Pão De Queijo Forno De Minas Tradicional 400g</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>3.39</v>
+        <v>21.99</v>
       </c>
       <c r="F42" t="n">
-        <v>3.39</v>
+        <v>21.99</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>119</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2020-09-28T00:00:00Z</t>
+          <t>2020-10-20T00:00:00Z</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3083631/VF4qT-qqCUAAAAAAAAOZOA.jpg?v=637994955185970000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3041185/VF4qT-qqCUAAAAAAAAHIag.jpg?v=637792557833470000</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -3427,21 +3431,21 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>7445</t>
+          <t>13544</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>7464</t>
+          <t>13564</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>FORNO MINAS</t>
         </is>
       </c>
       <c r="O42" t="n">
-        <v>2000015</v>
+        <v>2001500</v>
       </c>
       <c r="P42" t="n">
         <v>99999</v>
@@ -3450,29 +3454,29 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>saponaceo-cremoso-cif-limpeza-milagrosa-450ml-781266</t>
+          <t>saponaceo-cremoso-cif-gratis-20-450-ml-839264</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>CIF Cremoso Limpeza Milagrosa remove 100% da sujeira 450 ml</t>
+          <t>Saponáceo Cremoso Cif Grátis 20% 450ml</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>781266</t>
+          <t>839264</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>• Cif Cremoso Original é o produto de limpeza milagrosa que limpa fácil e dá brilho em mais de 100 superfícies*, removendo 100% da sujeira difícil, sem esforço • O Cif Cremoso Original possui um perfume suave, é mais concentrado e rende 7 garrafas do limpador comum • Fórmula com tecnologia poderosa que limpa sem riscar, removendo toda a sujeira desde a mais pesada até a limpeza de casa do dia a dia, deixando um brilho imbatível • Com o Cif, a limpeza nunca foi tão fácil e versátil. Cif Cremoso possui três variantes: Original, Limão e Laranja • Cif Cremoso Original é o produto de limpeza milagrosa para todo tipo de objeto como: eletrodomésticos, pias, couro sintético, borracha, plástico, porcelana e serve até como limpador de pisos • Cif promove uma limpeza milagrosa completa, com produtos versáteis que atendem a todas as suas necessidades. Cif. Sinta a limpeza acontecer! Cif Cremoso Original 450 ml é o produto de limpeza milagroso que limpa fácil e dá brilho em mais de 100 superfícies*, removendo 100% da sujeira difícil, sem esforço. O higienizador de casa cremoso é mais concentrado e rende 7 garrafas do limpador comum**. Sua fórmula, poderosa, limpa sem riscar***, removendo toda a sujeira desde a mais pesada até a limpeza de casa do dia a dia, deixando um brilho imbatível. Limpe toda sua casa usando o Cif Cremoso Original, que limpa todo tipo de objeto, como eletrodomésticos, potes plásticos, pias, brinquedos das crianças, persianas, pisos e até ajuda a deixar aquele cabo de carregador de celular como novo! Com o Limpador Cif, a limpeza nunca foi tão fácil e versátil. A linha do milagroso Cif Cremoso possui outras variedades de perfumes, como Laranja e Limão, que se adaptam ao seu estilo. Conheça a linha completa de produtos de limpeza Cif que não podem ficar de fora da sua lista de material de limpeza. Use também: Cif Cozinha, Cif Derrete Gordura, Cif Banheiro, Cif Tira Limo Com Cloro, Cif Vidros, Cif Cremoso e muito mais. Cif: Sinta a limpeza acontecer! Modo de usar: 1. Agite antes de usar. 2. Aplique uma pequena quantidade do produto sobre uma esponja ou pano úmido. 3. Esfregue a superfície suavemente até eliminar a sujeira. 4. Passe um pano úmido para finalizar. 5. Feche a embalagem após o uso. *Consulte lista das superfícies em www.ciflimpadores.com.br **Manchas de sabão e gordura queimada, comparado com limpadores comuns do mercado. Consulte a diferença de preços entre produtos. ***Não usar esponja ácida, como palha de aço, para a limpeza de vidros. A imagem do produto é meramente ilustrativa e o rótulo pode variar. Será enviada a embalagem disponível no momento da compra.</t>
+          <t>• Multiuso Cremoso • 1 gota remove 100% da sujeira difícil • Limpa sem riscar com micropartículas de origem natural • Poderoso na limpeza, imbatível no cuidado • Use também em couro sintético, plástico, porcelana e borracha • Para toda casa CIF Multiuso Cremoso Original, possui uma fórmula exclusiva que limpa profundamente, removendo 100% da sujeira difícil, com apenas 1 gota. O limpador CIF Cremoso é mais concentrado e por isso pode render até 7 garrafas * dos limpadores comuns encontrados no mercado. Com sua tecnologia, o limpador de casa CIF Multiuso Cremoso Original é poderoso na limpeza e imbatível no cuidado. Sua formula com micropartículas de origem natural limpam, sem riscar, removendo toda a sujeira desde a mais pesada até a manutenção do dia a dia, deixando um brilho imbatível. Limpe toda sua casa usando o limpador multiuso CIF Multiuso Cremoso, que limpa mais de 100 objetos **, como fogão, micro-ondas, chinelos, panelas, geladeira, potes plásticos, pias, torneiras, sofá, máquina de lavar, brinquedos das crianças, persianas, utensílios de churrasco, talheres, ventilador e até ajuda a deixar aquele cabo de carregador de celular como novo! CIF é muito mais do que uma linha de produtos de limpeza, CIF é cuidado com a sua casa. A família de multiuso CIF Cremoso possui uma variedade de fragrâncias, sendo elas: Original, Laranja e Limão, todas super refrescantes e se adaptam ao seu estilo e à sua casa. CIF Multiuso Cremoso é um grande aliado na limpeza de casa, para mantê-la sempre limpa, bonita e bem cuidada, do jeito que você e sua família merecem. CIF é poderoso na limpeza e imbatível no cuidado pois sabemos que cada cantinho da sua casa merece limpeza e cuidado.</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>13.29</v>
+        <v>14.99</v>
       </c>
       <c r="F43" t="n">
-        <v>18.99</v>
+        <v>14.99</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -3486,7 +3490,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3640099/VF4qT-qqCUAAAAAAAAbyew.jpg?v=638585098972800000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3077844/839264_17.jpg?v=637895340530470000</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -3499,12 +3503,12 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>11602</t>
+          <t>12274</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>11625</t>
+          <t>12301</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -3522,70 +3526,70 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>alho-roxo-cariorta-4-a-5-unidades-250g-99279</t>
+          <t>detergente-para-loucas-biodegradavel-limpol-neutro-500-ml-100510</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Alho Roxo Cariorta 4 a 5 unidades 250g</t>
+          <t>Detergente Para Louças Biodegradável Limpol Neutro 500ml</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>99279</t>
+          <t>100510</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Cariorta selecionados de coração.</t>
+          <t>O Lava-Louças Limpol é eficiente no poder da limpeza, remoção da gordura e sujeiras e no combate aos maus odores indesejados da cozinha. Sua fórmula é dermatologicamente testada e contém glicerina, tornando-a mais suave para as mãos.</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>59.99</v>
+        <v>2.79</v>
       </c>
       <c r="F44" t="n">
-        <v>59.99</v>
+        <v>2.79</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>76</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2020-05-27T00:00:00Z</t>
+          <t>2020-10-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3082698/VF4qT-qqCUAAAAAAAAOOtg.jpg?v=637980006345970000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3269221/12054_1.jpg?v=638386029717470000</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K44" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>24684</t>
+          <t>12054</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>24608</t>
+          <t>12081</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>CARIORTA</t>
+          <t>LIMPOL</t>
         </is>
       </c>
       <c r="O44" t="n">
-        <v>2001012</v>
+        <v>2001413</v>
       </c>
       <c r="P44" t="n">
         <v>99999</v>
@@ -3594,70 +3598,70 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>cereja-chilena-300g-13463</t>
+          <t>biscoito-cream-cracker-piraque-pacote-184g-1105795</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Cereja Chilena 300g</t>
+          <t>Biscoito Cream Cracker Piraquê Pacote 184g</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>13463</t>
+          <t>1105795</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>As cerejas chilenas vão deleitar seu paladar com seu doce e suculento sabor. Sua cor intensa, que varia do vermelho vibrante a tonalidades mais escuras, é um banquete para os olhos e o sinal dos inúmeros benefícios à saúde. Essa pequena fruta é uma fonte nutricional completa, com vitaminas essenciais como a C e a E, além de minerais como o ferro, potássio e magnésio. A cerejas podem ser consumidas frescas, no preparo de conservas, sobremesas e tortas e são classificadas por tamanho e nós só trazemos as mais graúdas especialmente para você!</t>
+          <t>Biscoito Salgado Cream Cracker Piraquê Pacote 184g</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>69.90000000000001</v>
+        <v>3.89</v>
       </c>
       <c r="F45" t="n">
-        <v>69.90000000000001</v>
+        <v>5.99</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>31</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2020-09-26T00:00:00Z</t>
+          <t>2023-07-26T00:00:00Z</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4434078/VF4qT-qqCUAAAAAAAAoONQ.jpg?v=639019170859200000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3099416/VF4qT-qqCUAAAAAAAATd0w.jpg?v=638264204522930000</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K45" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>5090</t>
+          <t>33955</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>5106</t>
+          <t>33882</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>PIRAQUE</t>
         </is>
       </c>
       <c r="O45" t="n">
-        <v>2000015</v>
+        <v>2000017</v>
       </c>
       <c r="P45" t="n">
         <v>99999</v>
@@ -3666,70 +3670,70 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>papel-aluminio-rolitto-30cm-x-75-m-897795</t>
+          <t>cereja-chilena-300g-13463</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Papel Alumínio Rolitto 30Cm X 7,5 M</t>
+          <t>Cereja Chilena 300g</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>897795</t>
+          <t>13463</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Envolve , protege e conserva.</t>
+          <t>As cerejas chilenas vão deleitar seu paladar com seu doce e suculento sabor. Sua cor intensa, que varia do vermelho vibrante a tonalidades mais escuras, é um banquete para os olhos e o sinal dos inúmeros benefícios à saúde. Essa pequena fruta é uma fonte nutricional completa, com vitaminas essenciais como a C e a E, além de minerais como o ferro, potássio e magnésio. A cerejas podem ser consumidas frescas, no preparo de conservas, sobremesas e tortas e são classificadas por tamanho e nós só trazemos as mais graúdas especialmente para você!</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6.99</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="F46" t="n">
-        <v>6.99</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2020-10-05T00:00:00Z</t>
+          <t>2020-09-26T00:00:00Z</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3061098/VF4qT-qqCUAAAAAAAAGpfA.jpg?v=637794125591230000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4434078/VF4qT-qqCUAAAAAAAAoONQ.jpg?v=639019170859200000</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K46" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>9853</t>
+          <t>5090</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>9866</t>
+          <t>5106</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>KENTINHA</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O46" t="n">
-        <v>2001532</v>
+        <v>2000015</v>
       </c>
       <c r="P46" t="n">
         <v>99999</v>
@@ -3738,43 +3742,43 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>matte-leao-natural-pet-15l-118214</t>
+          <t>couve-manteiga-unidade-201235</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Matte Leão Natural Pet 1,5L</t>
+          <t>Couve Manteiga Unidade</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>118214</t>
+          <t>201235</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Renove seu humor, recicle seu ritmo e siga em frente. Experimente combinar o seu dia com o sabor inconfundível de Matte Leão.Matte Leão é feito com folhas de ervamate selecionadas e tostadas num processo único, especialmente para você.Porção de 200 mL (1 copo) = 68 kcal.</t>
+          <t>A couve é uma hortaliça muito rica em nutriente,cálcio, ferro e vitaminas A,C, K e B5.Como conservar:Em geladeira, inteira ou picada deve ser mantida em saco plástico fechado ou em vasilha de plástico tampada.Como consumir:Pode ser consumida crua, em saladas e sucos, refogada ou como ingrediente de sopas, farofas e cozidos.[ Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>7.69</v>
+        <v>3.39</v>
       </c>
       <c r="F47" t="n">
-        <v>8.99</v>
+        <v>3.39</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2020-10-01T00:00:00Z</t>
+          <t>2020-09-28T00:00:00Z</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3704453/VF4qT-qqCUAAAAAAAAGyOQ.jpg?v=638609291247270000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3083631/VF4qT-qqCUAAAAAAAAOZOA.jpg?v=637994955185970000</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -3787,21 +3791,21 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>8709</t>
+          <t>7445</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>8721</t>
+          <t>7464</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>LEAO</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O47" t="n">
-        <v>2000010</v>
+        <v>2000015</v>
       </c>
       <c r="P47" t="n">
         <v>99999</v>
@@ -3810,43 +3814,43 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>cafe-torrado-e-moido-melitta-a-vacuo-500g-103845</t>
+          <t>saponaceo-cremoso-cif-limpeza-milagrosa-450ml-781266</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Café Torrado e Moído Melitta A Vácuo 500g</t>
+          <t>CIF Cremoso Limpeza Milagrosa remove 100% da sujeira 450 ml</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>103845</t>
+          <t>781266</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Feitos com uma cuidadosa seleção dos grãos que passam por um processo de torra a ar quente que resultam em cafés marcantes e fortes.</t>
+          <t>• Cif Cremoso Original é o produto de limpeza milagrosa que limpa fácil e dá brilho em mais de 100 superfícies*, removendo 100% da sujeira difícil, sem esforço • O Cif Cremoso Original possui um perfume suave, é mais concentrado e rende 7 garrafas do limpador comum • Fórmula com tecnologia poderosa que limpa sem riscar, removendo toda a sujeira desde a mais pesada até a limpeza de casa do dia a dia, deixando um brilho imbatível • Com o Cif, a limpeza nunca foi tão fácil e versátil. Cif Cremoso possui três variantes: Original, Limão e Laranja • Cif Cremoso Original é o produto de limpeza milagrosa para todo tipo de objeto como: eletrodomésticos, pias, couro sintético, borracha, plástico, porcelana e serve até como limpador de pisos • Cif promove uma limpeza milagrosa completa, com produtos versáteis que atendem a todas as suas necessidades. Cif. Sinta a limpeza acontecer! Cif Cremoso Original 450 ml é o produto de limpeza milagroso que limpa fácil e dá brilho em mais de 100 superfícies*, removendo 100% da sujeira difícil, sem esforço. O higienizador de casa cremoso é mais concentrado e rende 7 garrafas do limpador comum**. Sua fórmula, poderosa, limpa sem riscar***, removendo toda a sujeira desde a mais pesada até a limpeza de casa do dia a dia, deixando um brilho imbatível. Limpe toda sua casa usando o Cif Cremoso Original, que limpa todo tipo de objeto, como eletrodomésticos, potes plásticos, pias, brinquedos das crianças, persianas, pisos e até ajuda a deixar aquele cabo de carregador de celular como novo! Com o Limpador Cif, a limpeza nunca foi tão fácil e versátil. A linha do milagroso Cif Cremoso possui outras variedades de perfumes, como Laranja e Limão, que se adaptam ao seu estilo. Conheça a linha completa de produtos de limpeza Cif que não podem ficar de fora da sua lista de material de limpeza. Use também: Cif Cozinha, Cif Derrete Gordura, Cif Banheiro, Cif Tira Limo Com Cloro, Cif Vidros, Cif Cremoso e muito mais. Cif: Sinta a limpeza acontecer! Modo de usar: 1. Agite antes de usar. 2. Aplique uma pequena quantidade do produto sobre uma esponja ou pano úmido. 3. Esfregue a superfície suavemente até eliminar a sujeira. 4. Passe um pano úmido para finalizar. 5. Feche a embalagem após o uso. *Consulte lista das superfícies em www.ciflimpadores.com.br **Manchas de sabão e gordura queimada, comparado com limpadores comuns do mercado. Consulte a diferença de preços entre produtos. ***Não usar esponja ácida, como palha de aço, para a limpeza de vidros. A imagem do produto é meramente ilustrativa e o rótulo pode variar. Será enviada a embalagem disponível no momento da compra.</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>250</v>
+        <v>13.29</v>
       </c>
       <c r="F48" t="n">
-        <v>300</v>
+        <v>18.99</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>74</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2020-07-13T00:00:00Z</t>
+          <t>2020-10-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3038677/VF4qT-qqCUAAAAAAAAGwhg.jpg?v=637792444870400000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3640099/VF4qT-qqCUAAAAAAAAbyew.jpg?v=638585098972800000</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -3859,21 +3863,21 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>11602</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>11625</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>MELITTA</t>
+          <t>CIF</t>
         </is>
       </c>
       <c r="O48" t="n">
-        <v>2001329</v>
+        <v>2000541</v>
       </c>
       <c r="P48" t="n">
         <v>99999</v>
@@ -3882,39 +3886,43 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>abobrinha-italiana-cariorta-1kg-98663</t>
+          <t>alho-roxo-cariorta-4-a-5-unidades-250g-99279</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Abobrinha Italiana Cariorta 1Kg</t>
+          <t>Alho Roxo Cariorta 4 a 5 unidades 250g</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>98663</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr"/>
+          <t>99279</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Cariorta selecionados de coração.</t>
+        </is>
+      </c>
       <c r="E49" t="n">
-        <v>6.99</v>
+        <v>59.99</v>
       </c>
       <c r="F49" t="n">
-        <v>6.99</v>
+        <v>59.99</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>480</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2020-12-16T00:00:00Z</t>
+          <t>2020-05-27T00:00:00Z</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3082667/VF4qT-qqCUAAAAAAAAOOdQ.jpg?v=637979987909700000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3082698/VF4qT-qqCUAAAAAAAAOOtg.jpg?v=637980006345970000</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -3923,16 +3931,16 @@
         </is>
       </c>
       <c r="K49" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>16567</t>
+          <t>24684</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>16458</t>
+          <t>24608</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -3944,78 +3952,6 @@
         <v>2001012</v>
       </c>
       <c r="P49" t="n">
-        <v>99999</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>rucula-unidade-201006</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Rúcula Unidade</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>201006</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>A rúcula é uma hortaliça rica em sais minerais e vitaminas A e C, tem o sabor picante e cheiro agradável e acentuado. Como Conservar:A hortaliça pode ser mantida no máximo por um dia, desde que colocando em local fresco, com a parte de baixo em uma vasilha com água .Em Geladeira o produto deve ser condicionado em saco de plástico ou vasilha tampada.Como Consumir : A rúcula é tradicionalmente consumida crua em saladas, temperada com azeite, sal e limão. Também pode ser consumida como ingredientes de torta,quiche, lasanha, sanduíches e bolinhos. [ Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
-        </is>
-      </c>
-      <c r="E50" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="F50" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2020-09-28T00:00:00Z</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3040890/VF4qT-qqCUAAAAAAAAHLpQ.jpg?v=637792545082200000</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>un</t>
-        </is>
-      </c>
-      <c r="K50" t="n">
-        <v>1</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>7467</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>7486</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>Zona Sul</t>
-        </is>
-      </c>
-      <c r="O50" t="n">
-        <v>2000015</v>
-      </c>
-      <c r="P50" t="n">
         <v>99999</v>
       </c>
     </row>

--- a/zonasul.xlsx
+++ b/zonasul.xlsx
@@ -518,43 +518,43 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>rucula-unidade-201006</t>
+          <t>matte-leao-limao-pet-1-5l-118222</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rúcula Unidade</t>
+          <t>Matte Leão Limão Pet 1,5L</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>201006</t>
+          <t>118222</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A rúcula é uma hortaliça rica em sais minerais e vitaminas A e C, tem o sabor picante e cheiro agradável e acentuado. Como Conservar:A hortaliça pode ser mantida no máximo por um dia, desde que colocando em local fresco, com a parte de baixo em uma vasilha com água .Em Geladeira o produto deve ser condicionado em saco de plástico ou vasilha tampada.Como Consumir : A rúcula é tradicionalmente consumida crua em saladas, temperada com azeite, sal e limão. Também pode ser consumida como ingredientes de torta,quiche, lasanha, sanduíches e bolinhos. [ Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
+          <t>O Chá MATTE Limão Leão é um dos tipos de chás preferido dos consumidores. A marca Chá Mate Leão está presente no mercado há mais de 100 anos, sendo a marca de chá mais vendida e tradicional. Produzido com extrato aquoso de mate, açúcar e suco de limão, o Chá MATTE LEÃO Limão é a opção ideal para refrescar o seu dia! Compre e compartilhe com amigos e familiares!</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3.39</v>
+        <v>7.69</v>
       </c>
       <c r="F2" t="n">
-        <v>3.39</v>
+        <v>8.99</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2020-09-28T00:00:00Z</t>
+          <t>2020-10-01T00:00:00Z</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3040890/VF4qT-qqCUAAAAAAAAHLpQ.jpg?v=637792545082200000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3704455/VF4qT-qqCUAAAAAAAAcePQ.jpg?v=638609291270100000</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -567,21 +567,21 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>7467</t>
+          <t>8711</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>7486</t>
+          <t>8723</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>LEAO</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>2000015</v>
+        <v>2000010</v>
       </c>
       <c r="P2" t="n">
         <v>99999</v>
@@ -590,43 +590,43 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>matte-leao-limao-pet-1-5l-118222</t>
+          <t>rucula-unidade-201006</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Matte Leão Limão Pet 1,5L</t>
+          <t>Rúcula Unidade</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>118222</t>
+          <t>201006</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>O Chá MATTE Limão Leão é um dos tipos de chás preferido dos consumidores. A marca Chá Mate Leão está presente no mercado há mais de 100 anos, sendo a marca de chá mais vendida e tradicional. Produzido com extrato aquoso de mate, açúcar e suco de limão, o Chá MATTE LEÃO Limão é a opção ideal para refrescar o seu dia! Compre e compartilhe com amigos e familiares!</t>
+          <t>A rúcula é uma hortaliça rica em sais minerais e vitaminas A e C, tem o sabor picante e cheiro agradável e acentuado. Como Conservar:A hortaliça pode ser mantida no máximo por um dia, desde que colocando em local fresco, com a parte de baixo em uma vasilha com água .Em Geladeira o produto deve ser condicionado em saco de plástico ou vasilha tampada.Como Consumir : A rúcula é tradicionalmente consumida crua em saladas, temperada com azeite, sal e limão. Também pode ser consumida como ingredientes de torta,quiche, lasanha, sanduíches e bolinhos. [ Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>7.69</v>
+        <v>3.39</v>
       </c>
       <c r="F3" t="n">
-        <v>8.99</v>
+        <v>3.39</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2020-10-01T00:00:00Z</t>
+          <t>2020-09-28T00:00:00Z</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3704455/VF4qT-qqCUAAAAAAAAcePQ.jpg?v=638609291270100000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3040890/VF4qT-qqCUAAAAAAAAHLpQ.jpg?v=637792545082200000</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -639,21 +639,21 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>8711</t>
+          <t>7467</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>8723</t>
+          <t>7486</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>LEAO</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O3" t="n">
-        <v>2000010</v>
+        <v>2000015</v>
       </c>
       <c r="P3" t="n">
         <v>99999</v>
@@ -662,43 +662,39 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>refrigerante-coca-cola-sem-acucar-lata-350-ml-429376</t>
+          <t>creme-de-leite-nestle-10--gratis-200g-1165151</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Refrigerante Coca Cola Sem Açúcar Lata 350ml</t>
+          <t>Creme de Leite Nestlé 10% Grátis 200g</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>429376</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>A Coca-Cola Sem Açúcar é um refrigerante que não contém calorias! Com certeza você já se perguntou: “Então, de onde vem aquele gostinho doce? ” A Coca-Cola Sem Açúcar é produzida especialmente com adoçantes para manter o delicioso sabor de Coca-Cola porém com 0% Açucar. Uma Lata de Coca-Cola Sem Perfeita para matar sua sede a qualquer hora do dia!</t>
-        </is>
-      </c>
+          <t>1165151</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>3.99</v>
+        <v>5.99</v>
       </c>
       <c r="F4" t="n">
-        <v>3.99</v>
+        <v>5.99</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>71</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2020-10-01T00:00:00Z</t>
+          <t>2025-02-20T00:00:00Z</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4483405/VF4qT-qqCUAAAAAAAAoaow.jpg?v=639052524439630000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4395976/VF4qT-qqCUAAAAAAAAoEeQ.jpg?v=638984266226730000</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -711,21 +707,21 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>8817</t>
+          <t>40151</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>8829</t>
+          <t>40078</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>COCA COLA</t>
+          <t>NESTLE</t>
         </is>
       </c>
       <c r="O4" t="n">
-        <v>2000027</v>
+        <v>2000043</v>
       </c>
       <c r="P4" t="n">
         <v>99999</v>
@@ -734,39 +730,43 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>creme-de-leite-nestle-10--gratis-200g-1165151</t>
+          <t>refrigerante-coca-cola-sem-acucar-lata-350-ml-429376</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Creme de Leite Nestlé 10% Grátis 200g</t>
+          <t>Refrigerante Coca Cola Sem Açúcar Lata 350ml</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1165151</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
+          <t>429376</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>A Coca-Cola Sem Açúcar é um refrigerante que não contém calorias! Com certeza você já se perguntou: “Então, de onde vem aquele gostinho doce? ” A Coca-Cola Sem Açúcar é produzida especialmente com adoçantes para manter o delicioso sabor de Coca-Cola porém com 0% Açucar. Uma Lata de Coca-Cola Sem Perfeita para matar sua sede a qualquer hora do dia!</t>
+        </is>
+      </c>
       <c r="E5" t="n">
-        <v>5.99</v>
+        <v>3.99</v>
       </c>
       <c r="F5" t="n">
-        <v>5.99</v>
+        <v>3.99</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-02-20T00:00:00Z</t>
+          <t>2020-10-01T00:00:00Z</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4395976/VF4qT-qqCUAAAAAAAAoEeQ.jpg?v=638984266226730000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4483405/VF4qT-qqCUAAAAAAAAoaow.jpg?v=639052524439630000</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -779,21 +779,21 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>40151</t>
+          <t>8817</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>40078</t>
+          <t>8829</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>NESTLE</t>
+          <t>COCA COLA</t>
         </is>
       </c>
       <c r="O5" t="n">
-        <v>2000043</v>
+        <v>2000027</v>
       </c>
       <c r="P5" t="n">
         <v>99999</v>
@@ -802,70 +802,70 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>batata-inglesa-cariorta-12kg-98698</t>
+          <t>uva-preta-sem-semente-500-g-674583</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Batata Inglesa Cariorta 1,2Kg</t>
+          <t>Uva Preta Sem Semente 500g</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>98698</t>
+          <t>674583</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Cariorta selecionados de coração.</t>
+          <t>Eventualmente, devido à variações climáticas, essa variedade pode apresentar traços de sementes comestíveis As uvas são, sem dúvidas, uma das frutas mais nutritivas de todas. Apesar de seu tamanho relativamente pequeno, elas são extremamente poderosas nutricionalmente e consumilas é muito importante para o bom funcionamento do corpo.As calorias presentes nas uvas também são poucas: apenas 90 em cerca de 150g. Por isso, é uma ótima opção também para aqueles que estão em processo de redução da massa corporal, desde que consumida com cautela.Rica em antioxidantes que são responsáveis por ‘’limpar’’ e proteger as nossas células dos chamados radicais livres, compostos potencialmente perigosos que podem danificar essas estruturas.Os antioxidantes estão mais comumente presentes na casca da fruta, o que é indicado pela coloração delas. Quanto mais escuras, maior é a concentração desses compostos na uva. Os principais exemplos são os polifenois, e o mais famoso deles chamase resveratrol.</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>8.99</v>
+        <v>11.99</v>
       </c>
       <c r="F6" t="n">
-        <v>8.99</v>
+        <v>11.99</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2020-12-16T00:00:00Z</t>
+          <t>2020-09-26T00:00:00Z</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3082670/VF4qT-qqCUAAAAAAAAOOew.jpg?v=637979987993130000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3047035/VF4qT-qqCUAAAAAAAAGXCQ.jpg?v=637793205627670000</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K6" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>16570</t>
+          <t>5264</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>16461</t>
+          <t>5280</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>CARIORTA</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O6" t="n">
-        <v>2001012</v>
+        <v>2000015</v>
       </c>
       <c r="P6" t="n">
         <v>99999</v>
@@ -874,43 +874,43 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>uva-preta-sem-semente-500-g-674583</t>
+          <t>alcool-montenegro-46-1-l-780570</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Uva Preta Sem Semente 500g</t>
+          <t>Álcool Montenegro 46% 1 L</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>674583</t>
+          <t>780570</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Eventualmente, devido à variações climáticas, essa variedade pode apresentar traços de sementes comestíveis As uvas são, sem dúvidas, uma das frutas mais nutritivas de todas. Apesar de seu tamanho relativamente pequeno, elas são extremamente poderosas nutricionalmente e consumilas é muito importante para o bom funcionamento do corpo.As calorias presentes nas uvas também são poucas: apenas 90 em cerca de 150g. Por isso, é uma ótima opção também para aqueles que estão em processo de redução da massa corporal, desde que consumida com cautela.Rica em antioxidantes que são responsáveis por ‘’limpar’’ e proteger as nossas células dos chamados radicais livres, compostos potencialmente perigosos que podem danificar essas estruturas.Os antioxidantes estão mais comumente presentes na casca da fruta, o que é indicado pela coloração delas. Quanto mais escuras, maior é a concentração desses compostos na uva. Os principais exemplos são os polifenois, e o mais famoso deles chamase resveratrol.</t>
+          <t>Álcool Montenegro 46% 1 L</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>11.99</v>
+        <v>7.98</v>
       </c>
       <c r="F7" t="n">
-        <v>11.99</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>74</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2020-09-26T00:00:00Z</t>
+          <t>2020-10-06T10:47:00Z</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3047035/VF4qT-qqCUAAAAAAAAGXCQ.jpg?v=637793205627670000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3051579/VF4qT-qqCUAAAAAAAAG3pQ.jpg?v=637793390624870000</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -923,21 +923,21 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>5264</t>
+          <t>11598</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>5280</t>
+          <t>11621</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>MONTENEGRO</t>
         </is>
       </c>
       <c r="O7" t="n">
-        <v>2000015</v>
+        <v>2000527</v>
       </c>
       <c r="P7" t="n">
         <v>99999</v>
@@ -946,70 +946,70 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>alcool-montenegro-46-1-l-780570</t>
+          <t>mucarela-em-fatias-92363</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Álcool Montenegro 46% 1 L</t>
+          <t>Muçarela  em Fatias 200g</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>780570</t>
+          <t>92363</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Álcool Montenegro 46% 1 L</t>
+          <t>Muçarela em Fatias</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7.98</v>
+        <v>59.9</v>
       </c>
       <c r="F8" t="n">
-        <v>8.789999999999999</v>
+        <v>59.9</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>83</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2020-10-06T10:47:00Z</t>
+          <t>2020-09-27T00:00:00Z</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3051579/VF4qT-qqCUAAAAAAAAG3pQ.jpg?v=637793390624870000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3052070/VF4qT-qqCUAAAAAAAAI4-w.jpg?v=637793416889100000</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>11598</t>
+          <t>1361</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>11621</t>
+          <t>1368</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>MONTENEGRO</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O8" t="n">
-        <v>2000527</v>
+        <v>2000015</v>
       </c>
       <c r="P8" t="n">
         <v>99999</v>
@@ -1018,43 +1018,43 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>mucarela-em-fatias-92363</t>
+          <t>batata-inglesa-cariorta-12kg-98698</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Muçarela  em Fatias 200g</t>
+          <t>Batata Inglesa Cariorta 1,2Kg</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>92363</t>
+          <t>98698</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Muçarela em Fatias</t>
+          <t>Cariorta selecionados de coração.</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>59.9</v>
+        <v>8.99</v>
       </c>
       <c r="F9" t="n">
-        <v>59.9</v>
+        <v>8.99</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>483</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2020-09-27T00:00:00Z</t>
+          <t>2020-12-16T00:00:00Z</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3052070/VF4qT-qqCUAAAAAAAAI4-w.jpg?v=637793416889100000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3082670/VF4qT-qqCUAAAAAAAAOOew.jpg?v=637979987993130000</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1063,25 +1063,25 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>0.2</v>
+        <v>1.2</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>1361</t>
+          <t>16570</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>1368</t>
+          <t>16461</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>CARIORTA</t>
         </is>
       </c>
       <c r="O9" t="n">
-        <v>2000015</v>
+        <v>2001012</v>
       </c>
       <c r="P9" t="n">
         <v>99999</v>
@@ -1234,43 +1234,43 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>tomate-italiano-unidade-495212</t>
+          <t>agua-mineral-com-gas-sao-lourenco-pet-1-26-l-140805</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Tomate Italiano Unidade</t>
+          <t>Água Mineral Com Gás São Lourenço Pet 1,26 L</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>495212</t>
+          <t>140805</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Tomate Italiano Unidade</t>
+          <t>Água Mineral Com Gás São Lourenço Pet 1,26 L</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1.53</v>
+        <v>5.29</v>
       </c>
       <c r="F12" t="n">
-        <v>1.53</v>
+        <v>5.29</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>18</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2020-09-27T00:00:00Z</t>
+          <t>2020-09-25T00:00:00Z</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3094266/VF4qT-qqCUAAAAAAAASLmg.jpg?v=638191532599970000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3076277/VF4qT-qqCUAAAAAAAAHMBQ.jpg?v=637877821166370000</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1283,21 +1283,21 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>6965</t>
+          <t>3915</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>6983</t>
+          <t>3929</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>SAO LOURENCO</t>
         </is>
       </c>
       <c r="O12" t="n">
-        <v>2000015</v>
+        <v>2000145</v>
       </c>
       <c r="P12" t="n">
         <v>99999</v>
@@ -1306,43 +1306,43 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ovos-vermelhos-mantiqueira-happy-eggs-com-10-unidades-5106753</t>
+          <t>tomate-italiano-unidade-495212</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Ovos Vermelhos Mantiqueira Happy Eggs com 10 Unidades</t>
+          <t>Tomate Italiano Unidade</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>5106753</t>
+          <t>495212</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Produzidos por galinhas criadas livres de gaiolas. Garantia de Bem-Estar Animal. Ovos Vermelhos Tipo Grande Categoria A. Embalagem com 10 unidades.</t>
+          <t>Tomate Italiano Unidade</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>11.99</v>
+        <v>1.53</v>
       </c>
       <c r="F13" t="n">
-        <v>11.99</v>
+        <v>1.53</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>53</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2021-01-11T00:00:00Z</t>
+          <t>2020-09-27T00:00:00Z</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4222023/VF4qT-qqCUAAAAAAAAStHA.jpg?v=638894405636230000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3094266/VF4qT-qqCUAAAAAAAASLmg.jpg?v=638191532599970000</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1355,21 +1355,21 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>18105</t>
+          <t>6965</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>17997</t>
+          <t>6983</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>HAPPY EGGS</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O13" t="n">
-        <v>2003319</v>
+        <v>2000015</v>
       </c>
       <c r="P13" t="n">
         <v>99999</v>
@@ -1378,43 +1378,43 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>agua-mineral-com-gas-sao-lourenco-pet-1-26-l-140805</t>
+          <t>ovos-vermelhos-mantiqueira-happy-eggs-com-10-unidades-5106753</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Água Mineral Com Gás São Lourenço Pet 1,26 L</t>
+          <t>Ovos Vermelhos Mantiqueira Happy Eggs com 10 Unidades</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>140805</t>
+          <t>5106753</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Água Mineral Com Gás São Lourenço Pet 1,26 L</t>
+          <t>Produzidos por galinhas criadas livres de gaiolas. Garantia de Bem-Estar Animal. Ovos Vermelhos Tipo Grande Categoria A. Embalagem com 10 unidades.</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5.29</v>
+        <v>11.99</v>
       </c>
       <c r="F14" t="n">
-        <v>5.29</v>
+        <v>11.99</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2020-09-25T00:00:00Z</t>
+          <t>2021-01-11T00:00:00Z</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3076277/VF4qT-qqCUAAAAAAAAHMBQ.jpg?v=637877821166370000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4222023/VF4qT-qqCUAAAAAAAAStHA.jpg?v=638894405636230000</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1427,21 +1427,21 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>3915</t>
+          <t>18105</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>3929</t>
+          <t>17997</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>SAO LOURENCO</t>
+          <t>HAPPY EGGS</t>
         </is>
       </c>
       <c r="O14" t="n">
-        <v>2000145</v>
+        <v>2003319</v>
       </c>
       <c r="P14" t="n">
         <v>99999</v>
@@ -1522,43 +1522,43 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>cafe-torrado-e-moido-pilao-tradicional-500g-828025</t>
+          <t>couve-flor-unidade-189111</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Café Torrado E Moído Pilão Tradicional Fresh Pack 500g</t>
+          <t>Couve Flor Unidade</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>828025</t>
+          <t>189111</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Tem um ponto de torra acentuado e um processo de moagem fina e uniforme, que garantem e preservam seu sabor forte e encorpado.É perfeito para servir em dia de casa cheia, pois seu sabor tradicional agrada a todo mundo.</t>
+          <t>A couveflor é uma hortaliça rica em cálcio e fósforo e fonte de ácido fólico e vitamina C . Como Conservar:Na geladeira pode ser conservada por 3 a 5 dias, dentro de saco plástico perfurado. Antes de guardar, remova as partes escuras e folhas, mas não lave a cabeça.Como Consumir:Pode ser consumida assada, frita ou cozinhe em água e sal. [Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>29.98</v>
+        <v>9.99</v>
       </c>
       <c r="F16" t="n">
-        <v>43.9</v>
+        <v>9.99</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>53</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2020-09-15T00:00:00Z</t>
+          <t>2020-09-28T00:00:00Z</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3051146/VF4qT-qqCUAAAAAAAAG1sQ.jpg?v=637793369863530000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3041615/VF4qT-qqCUAAAAAAAAGF4Q.jpg?v=637792579893500000</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1571,21 +1571,21 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>7446</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>7465</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>PILAO</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O16" t="n">
-        <v>2000070</v>
+        <v>2000015</v>
       </c>
       <c r="P16" t="n">
         <v>99999</v>
@@ -1594,39 +1594,43 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>papel-toalha-coquetel-19cm-x-19cm-com-2-rolos-com-60-folhas-cada-783242</t>
+          <t>cafe-torrado-e-moido-pilao-tradicional-500g-828025</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Papel Toalha Coquetel 19Cm X 19Cm com 2 Rolos com 60 Folhas Cada</t>
+          <t>Café Torrado E Moído Pilão Tradicional Fresh Pack 500g</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>783242</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
+          <t>828025</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Tem um ponto de torra acentuado e um processo de moagem fina e uniforme, que garantem e preservam seu sabor forte e encorpado.É perfeito para servir em dia de casa cheia, pois seu sabor tradicional agrada a todo mundo.</t>
+        </is>
+      </c>
       <c r="E17" t="n">
-        <v>6.99</v>
+        <v>29.98</v>
       </c>
       <c r="F17" t="n">
-        <v>6.99</v>
+        <v>43.9</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>59</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2020-10-06T00:00:00Z</t>
+          <t>2020-09-15T00:00:00Z</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3050348/VF4qT-qqCUAAAAAAAAJRgg.jpg?v=637793335676500000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3051146/VF4qT-qqCUAAAAAAAAG1sQ.jpg?v=637793369863530000</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1639,21 +1643,21 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>11627</t>
+          <t>130</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>11650</t>
+          <t>135</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>COQUETEL</t>
+          <t>PILAO</t>
         </is>
       </c>
       <c r="O17" t="n">
-        <v>2001855</v>
+        <v>2000070</v>
       </c>
       <c r="P17" t="n">
         <v>99999</v>
@@ -1662,43 +1666,43 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>couve-flor-unidade-189111</t>
+          <t>guardanapo-folha-dupla-scott-grand-hotel-238cm×218cm-50-unidades-129879</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Couve Flor Unidade</t>
+          <t>Guardanapo Folha Dupla Scott Grand Hotel 23,8cm×21,8cm 50 Unidades</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>189111</t>
+          <t>129879</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>A couveflor é uma hortaliça rica em cálcio e fósforo e fonte de ácido fólico e vitamina C . Como Conservar:Na geladeira pode ser conservada por 3 a 5 dias, dentro de saco plástico perfurado. Antes de guardar, remova as partes escuras e folhas, mas não lave a cabeça.Como Consumir:Pode ser consumida assada, frita ou cozinhe em água e sal. [Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
+          <t>Guardanapo Folha Dupla Scott Grand Hotel 23,8cm×21,8cm 50 Unidades</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>9.99</v>
+        <v>6.19</v>
       </c>
       <c r="F18" t="n">
-        <v>9.99</v>
+        <v>6.19</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>111</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2020-09-28T00:00:00Z</t>
+          <t>2020-10-05T00:00:00Z</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3041615/VF4qT-qqCUAAAAAAAAGF4Q.jpg?v=637792579893500000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3239421/VF4qT-qqCUAAAAAAAAVSfw.jpg?v=638362188224230000</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1711,21 +1715,21 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>7446</t>
+          <t>9426</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>7465</t>
+          <t>9438</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>GRANDE HOTEL</t>
         </is>
       </c>
       <c r="O18" t="n">
-        <v>2000015</v>
+        <v>2001400</v>
       </c>
       <c r="P18" t="n">
         <v>99999</v>
@@ -1734,29 +1738,25 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>guardanapo-folha-dupla-scott-grand-hotel-238cm×218cm-50-unidades-129879</t>
+          <t>papel-toalha-coquetel-19cm-x-19cm-com-2-rolos-com-60-folhas-cada-783242</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Guardanapo Folha Dupla Scott Grand Hotel 23,8cm×21,8cm 50 Unidades</t>
+          <t>Papel Toalha Coquetel 19Cm X 19Cm com 2 Rolos com 60 Folhas Cada</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>129879</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Guardanapo Folha Dupla Scott Grand Hotel 23,8cm×21,8cm 50 Unidades</t>
-        </is>
-      </c>
+          <t>783242</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="n">
-        <v>6.19</v>
+        <v>6.99</v>
       </c>
       <c r="F19" t="n">
-        <v>6.19</v>
+        <v>6.99</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1765,12 +1765,12 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2020-10-05T00:00:00Z</t>
+          <t>2020-10-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3239421/VF4qT-qqCUAAAAAAAAVSfw.jpg?v=638362188224230000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3050348/VF4qT-qqCUAAAAAAAAJRgg.jpg?v=637793335676500000</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1783,24 +1783,24 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>9426</t>
+          <t>11627</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>9438</t>
+          <t>11650</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>GRANDE HOTEL</t>
+          <t>COQUETEL</t>
         </is>
       </c>
       <c r="O19" t="n">
-        <v>2001400</v>
+        <v>2001855</v>
       </c>
       <c r="P19" t="n">
-        <v>99999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20">
@@ -1950,43 +1950,43 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>morango-250g-289612</t>
+          <t>detergente-para-loucas-odd-clear-500ml-982911</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Morango 250g</t>
+          <t>Detergente Para Louças Odd Clear 500ml</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>289612</t>
+          <t>982911</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Embalagem com 250g "O morango é rico em vitamina C e, por isso, o consumo da fruta evita a fragilidade dos ossos e a má formação dos dentes. Ele também dá resistência aos tecidos, age contra infecções ajudando na cicatrização. O morango também possui, em menor quantidade, vitamina B5, conhecida como niacina. Ela tem a função de evitar problemas de pele, do aparelho digestivo e do sistema nervoso. Na fruta, também é encontrado ferro, que faz parte da formação do sangue."</t>
+          <t>ODD voltou!Alto rendimento , controle de odor.</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>9.99</v>
+        <v>1.9</v>
       </c>
       <c r="F22" t="n">
-        <v>9.99</v>
+        <v>2.49</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>76</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2020-09-26T00:00:00Z</t>
+          <t>2020-10-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3226559/VF4qT-qqCUAAAAAAAAHKNA.jpg?v=638352676547800000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3056732/VF4qT-qqCUAAAAAAAAHzRQ.jpg?v=637793635376800000</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1999,21 +1999,21 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>5152</t>
+          <t>11872</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>5168</t>
+          <t>11898</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>LIMPPANO</t>
         </is>
       </c>
       <c r="O22" t="n">
-        <v>2000015</v>
+        <v>2001341</v>
       </c>
       <c r="P22" t="n">
         <v>99999</v>
@@ -2022,70 +2022,66 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>detergente-para-loucas-odd-clear-500ml-982911</t>
+          <t>pao-frances-panetto-60g-com-4-unidades-96318</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Detergente Para Louças Odd Clear 500ml</t>
+          <t>Pão Francês Panetto  60g Com 4 unidades</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>982911</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>ODD voltou!Alto rendimento , controle de odor.</t>
-        </is>
-      </c>
+          <t>96318</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="n">
-        <v>1.9</v>
+        <v>24.99</v>
       </c>
       <c r="F23" t="n">
-        <v>2.49</v>
+        <v>24.99</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>89</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2020-10-06T00:00:00Z</t>
+          <t>2024-01-31T00:00:00Z</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3056732/VF4qT-qqCUAAAAAAAAHzRQ.jpg?v=637793635376800000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3307700/VF4qT-qqCUAAAAAAAAWnXQ.jpg?v=638932898013670000</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K23" t="n">
-        <v>1</v>
+        <v>0.24</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>11872</t>
+          <t>35477</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>11898</t>
+          <t>35404</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>LIMPPANO</t>
+          <t>PANETTO</t>
         </is>
       </c>
       <c r="O23" t="n">
-        <v>2001341</v>
+        <v>2000307</v>
       </c>
       <c r="P23" t="n">
         <v>99999</v>
@@ -2094,66 +2090,66 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>pao-frances-panetto-60g-com-4-unidades-96318</t>
+          <t>ovos-vermelhos-caipira-happy-eggs-com-20-unidades-370550</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Pão Francês Panetto  60g Com 4 unidades</t>
+          <t>Ovos Vermelhos Caipira Happy Eggs Com 20 Unidades</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>96318</t>
+          <t>370550</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="n">
-        <v>23.98</v>
+        <v>24.99</v>
       </c>
       <c r="F24" t="n">
-        <v>23.98</v>
+        <v>24.99</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2024-01-31T00:00:00Z</t>
+          <t>2020-09-27T00:00:00Z</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3307700/VF4qT-qqCUAAAAAAAAWnXQ.jpg?v=638932898013670000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4343192/VF4qT-qqCUAAAAAAAAn9QA.jpg?v=638956617627730000</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K24" t="n">
-        <v>0.24</v>
+        <v>1</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>35477</t>
+          <t>6939</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>35404</t>
+          <t>6957</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>PANETTO</t>
+          <t>HAPPY EGGS</t>
         </is>
       </c>
       <c r="O24" t="n">
-        <v>2000307</v>
+        <v>2003319</v>
       </c>
       <c r="P24" t="n">
         <v>99999</v>
@@ -2162,39 +2158,43 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ovos-vermelhos-caipira-happy-eggs-com-20-unidades-370550</t>
+          <t>morango-250g-289612</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Ovos Vermelhos Caipira Happy Eggs Com 20 Unidades</t>
+          <t>Morango 250g</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>370550</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
+          <t>289612</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Embalagem com 250g "O morango é rico em vitamina C e, por isso, o consumo da fruta evita a fragilidade dos ossos e a má formação dos dentes. Ele também dá resistência aos tecidos, age contra infecções ajudando na cicatrização. O morango também possui, em menor quantidade, vitamina B5, conhecida como niacina. Ela tem a função de evitar problemas de pele, do aparelho digestivo e do sistema nervoso. Na fruta, também é encontrado ferro, que faz parte da formação do sangue."</t>
+        </is>
+      </c>
       <c r="E25" t="n">
-        <v>24.99</v>
+        <v>9.99</v>
       </c>
       <c r="F25" t="n">
-        <v>24.99</v>
+        <v>9.99</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2020-09-27T00:00:00Z</t>
+          <t>2020-09-26T00:00:00Z</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4343192/VF4qT-qqCUAAAAAAAAn9QA.jpg?v=638956617627730000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3226559/VF4qT-qqCUAAAAAAAAHKNA.jpg?v=638352676547800000</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2207,21 +2207,21 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>6939</t>
+          <t>5152</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>6957</t>
+          <t>5168</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>HAPPY EGGS</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O25" t="n">
-        <v>2003319</v>
+        <v>2000015</v>
       </c>
       <c r="P25" t="n">
         <v>99999</v>
@@ -2446,43 +2446,43 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>guardanapo-folha-dupla-scott-grand-hotel-jantar-33×33-cm-com-50-unidades-129887</t>
+          <t>azeite-italiano-extra-virgem-due-500ml-5472040</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Guardanapo Folha Dupla Scott Grand Hotel Jantar 33×33 Cm Com 50 Unidades</t>
+          <t>Azeite Italiano Extravirgem Due 500ml</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>129887</t>
+          <t>5472040</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>O Guardanapo Grand Hotel folha tripla é mais sofisticado e garante uma maciez superior para todos os momentos. Contém 50 folhas de tamanho 31,8x32,8 cm cada.</t>
+          <t>O azeite Due é um blend de azeites do Mediterrâneo que confere um resultado clássico e ideal para o cotidiano da cozinha. Sua elaboração conta com uma seleção cautelosamente realizada pelo Expert em Azeites e Temperos Marcelo Scofano, que anualmente viaja à Toscana (Itália), onde o azeite é produzido, para cuidar de cada detalhe pessoalmente.Due é um azeite clássico, ideal para o dia a dia da cozinha: marinados, refogados, emulsão de molhos, finalização de saladas, massas e pratos do cotidiano. O azeite clássico é extraído de azeitonas maduras. Possui sabor amendoado, com notas amargas e picantes em equilíbrio.O azeite Due faz parte da grupo de marcas exclusivas Zona Sul, criada e pensada com carinho para os cariocas de coração. O planejamento de cada produto exclusivo conta com a participação dos Experts Zona Sul em todo o processo, até chegar na sua mesa. E com a linha Due não é diferente!</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>12.99</v>
+        <v>29.98</v>
       </c>
       <c r="F29" t="n">
-        <v>12.99</v>
+        <v>36.9</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>597</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2020-10-05T00:00:00Z</t>
+          <t>2025-05-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3078100/129887_1.jpg?v=637895346534630000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4116721/VF4qT-qqCUAAAAAAAAiyjQ.jpg?v=638846625781330000</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2495,128 +2495,128 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>9427</t>
+          <t>40224</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>9439</t>
+          <t>40151</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>GRANDE HOTEL</t>
+          <t>DUE</t>
         </is>
       </c>
       <c r="O29" t="n">
-        <v>2001401</v>
+        <v>2005138</v>
       </c>
       <c r="P29" t="n">
-        <v>99999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>cebola-roxa-400g-38393</t>
+          <t>guardanapo-folha-dupla-scott-grand-hotel-jantar-33×33-cm-com-50-unidades-129887</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Cebola Roxa 400g</t>
+          <t>Guardanapo Folha Dupla Scott Grand Hotel Jantar 33×33 Cm Com 50 Unidades</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>38393</t>
+          <t>129887</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Embalagem com 2 a 3 unidades. Melhor para comer cru; Use : no guacamole, em conserva, na salada, no sanduíche.</t>
+          <t>O Guardanapo Grand Hotel folha tripla é mais sofisticado e garante uma maciez superior para todos os momentos. Contém 50 folhas de tamanho 31,8x32,8 cm cada.</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>7.69</v>
+        <v>12.99</v>
       </c>
       <c r="F30" t="n">
-        <v>7.69</v>
+        <v>12.99</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>111</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2020-09-26T00:00:00Z</t>
+          <t>2020-10-05T00:00:00Z</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3081506/VF4qT-qqCUAAAAAAAAOBng.jpg?v=637947101712670000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3078100/129887_1.jpg?v=637895346534630000</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K30" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>5543</t>
+          <t>9427</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>5559</t>
+          <t>9439</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>GRANDE HOTEL</t>
         </is>
       </c>
       <c r="O30" t="n">
-        <v>2000015</v>
+        <v>2001401</v>
       </c>
       <c r="P30" t="n">
-        <v>100</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>abobora-japonesa-pedaco-500g-38229</t>
+          <t>cebola-roxa-400g-38393</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Abóbora Japonesa Pedaço 500g</t>
+          <t>Cebola Roxa 400g</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>38229</t>
+          <t>38393</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Embalagem com 1 pedaço.</t>
+          <t>Embalagem com 2 a 3 unidades. Melhor para comer cru; Use : no guacamole, em conserva, na salada, no sanduíche.</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>5.29</v>
+        <v>7.69</v>
       </c>
       <c r="F31" t="n">
-        <v>5.29</v>
+        <v>7.69</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -2626,7 +2626,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3096862/VF4qT-qqCUAAAAAAAAS9Tw.jpg?v=638235593168230000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3081506/VF4qT-qqCUAAAAAAAAOBng.jpg?v=637947101712670000</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -2635,16 +2635,16 @@
         </is>
       </c>
       <c r="K31" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>5593</t>
+          <t>5543</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>5609</t>
+          <t>5559</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -2656,7 +2656,7 @@
         <v>2000015</v>
       </c>
       <c r="P31" t="n">
-        <v>99999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32">
@@ -2734,70 +2734,70 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>azeite-italiano-extra-virgem-due-500ml-5472040</t>
+          <t>pessego-nacional-500g-12408</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Azeite Italiano Extravirgem Due 500ml</t>
+          <t>Pêssego Nacional 600g</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>5472040</t>
+          <t>12408</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>O azeite Due é um blend de azeites do Mediterrâneo que confere um resultado clássico e ideal para o cotidiano da cozinha. Sua elaboração conta com uma seleção cautelosamente realizada pelo Expert em Azeites e Temperos Marcelo Scofano, que anualmente viaja à Toscana (Itália), onde o azeite é produzido, para cuidar de cada detalhe pessoalmente.Due é um azeite clássico, ideal para o dia a dia da cozinha: marinados, refogados, emulsão de molhos, finalização de saladas, massas e pratos do cotidiano. O azeite clássico é extraído de azeitonas maduras. Possui sabor amendoado, com notas amargas e picantes em equilíbrio.O azeite Due faz parte da grupo de marcas exclusivas Zona Sul, criada e pensada com carinho para os cariocas de coração. O planejamento de cada produto exclusivo conta com a participação dos Experts Zona Sul em todo o processo, até chegar na sua mesa. E com a linha Due não é diferente!</t>
+          <t>Pêssego Nacional 500g</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>29.98</v>
+        <v>10.99</v>
       </c>
       <c r="F33" t="n">
-        <v>36.9</v>
+        <v>10.99</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-05-06T00:00:00Z</t>
+          <t>2020-09-26T00:00:00Z</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4116721/VF4qT-qqCUAAAAAAAAiyjQ.jpg?v=638846625781330000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3092387/VF4qT-qqCUAAAAAAAAFvOA.jpg?v=638151904193130000</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K33" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>40224</t>
+          <t>5122</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>40151</t>
+          <t>5138</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>DUE</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O33" t="n">
-        <v>2005138</v>
+        <v>2000015</v>
       </c>
       <c r="P33" t="n">
         <v>100</v>
@@ -2825,7 +2825,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>2.09</v>
+        <v>2.99</v>
       </c>
       <c r="F34" t="n">
         <v>2.99</v>
@@ -2872,49 +2872,49 @@
         <v>2001389</v>
       </c>
       <c r="P34" t="n">
-        <v>99999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>espinafre-unidade-200948</t>
+          <t>papel-higienico-folha-tripla-neve-supreme-dermacare-pacote-leve-16-pague-15-unidades-981168</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Espinafre Unidade</t>
+          <t>Papel Higiênico Folha Tripla Neve Supreme Dermacare Pacote Leve 16 Pague 15 Unidades</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>200948</t>
+          <t>981168</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>O espinafre é uma hortaliça saborosa, rica em ferro e também é fonte de vitamina A e B2, além de fornecer cálcio, fósforo, potássio e magnésio, é indicado também para pessoas com anemia e desnutrição.Como conservar :Sob refrigeração, pode ser mantido por no máximo 5 dias. Antes de colocálo na geladeira, lave as folhas, escorra o excesso de água e coloqueo em sacos de plástico perfurados ou em vasilha de plástico.Como consumir :O espinafre também pode ser usado em saladas, sopas,suflês omeletes. É ótimo como recheio ou acompanhamento de massas como macarrão, quiche, tortas, pastéis e assados. [Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
+          <t>Papel higiênico neutro folha tripla de alta qualidade. Neve quer ajudar as pessoas a cuidarem de si, por isso desenvolveu um produto que proporciona maciez insuperável com mais absorção e resistência.</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>3.39</v>
+        <v>28.98</v>
       </c>
       <c r="F35" t="n">
-        <v>3.39</v>
+        <v>32.19</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>14</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2020-09-28T00:00:00Z</t>
+          <t>2020-09-22T00:00:00Z</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3076729/VF4qT-qqCUAAAAAAAAKBdQ.jpg?v=637877840409270000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4430737/VF4qT-qqCUAAAAAAAAoMMw.jpg?v=639014499358300000</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2927,21 +2927,21 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>7464</t>
+          <t>1262</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>7483</t>
+          <t>1269</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>NEVE</t>
         </is>
       </c>
       <c r="O35" t="n">
-        <v>2000015</v>
+        <v>2000291</v>
       </c>
       <c r="P35" t="n">
         <v>99999</v>
@@ -2950,43 +2950,43 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>coentro-unidade-200930</t>
+          <t>oleo-de-soja-liza-900ml-127310</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Coentro Unidade</t>
+          <t>Óleo De Soja Liza 900ml</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>200930</t>
+          <t>127310</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Coentro Unidade</t>
+          <t>Óleo De Soja Liza 900ml</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>3.39</v>
+        <v>8.59</v>
       </c>
       <c r="F36" t="n">
-        <v>3.39</v>
+        <v>8.59</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>576</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2020-09-28T00:00:00Z</t>
+          <t>2020-09-15T00:00:00Z</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3076728/VF4qT-qqCUAAAAAAAAGF4g.jpg?v=637877840364830000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3075849/VF4qT-qqCUAAAAAAAAIxqw.jpg?v=637877802666600000</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2999,21 +2999,21 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>7408</t>
+          <t>127</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>7427</t>
+          <t>132</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>LIZA</t>
         </is>
       </c>
       <c r="O36" t="n">
-        <v>2000015</v>
+        <v>2000067</v>
       </c>
       <c r="P36" t="n">
         <v>99999</v>
@@ -3022,33 +3022,33 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>pessego-nacional-500g-12408</t>
+          <t>abobora-japonesa-pedaco-500g-38229</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Pêssego Nacional 600g</t>
+          <t>Abóbora Japonesa Pedaço 500g</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>12408</t>
+          <t>38229</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Pêssego Nacional 500g</t>
+          <t>Embalagem com 1 pedaço.</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>10.99</v>
+        <v>5.29</v>
       </c>
       <c r="F37" t="n">
-        <v>10.99</v>
+        <v>5.29</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>53</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -3058,7 +3058,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3092387/VF4qT-qqCUAAAAAAAAFvOA.jpg?v=638151904193130000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3096862/VF4qT-qqCUAAAAAAAAS9Tw.jpg?v=638235593168230000</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -3067,16 +3067,16 @@
         </is>
       </c>
       <c r="K37" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>5122</t>
+          <t>5593</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>5138</t>
+          <t>5609</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -3094,43 +3094,43 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>papel-higienico-folha-tripla-neve-supreme-dermacare-pacote-leve-16-pague-15-unidades-981168</t>
+          <t>coentro-unidade-200930</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Papel Higiênico Folha Tripla Neve Supreme Dermacare Pacote Leve 16 Pague 15 Unidades</t>
+          <t>Coentro Unidade</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>981168</t>
+          <t>200930</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Papel higiênico neutro folha tripla de alta qualidade. Neve quer ajudar as pessoas a cuidarem de si, por isso desenvolveu um produto que proporciona maciez insuperável com mais absorção e resistência.</t>
+          <t>Coentro Unidade</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>28.98</v>
+        <v>3.39</v>
       </c>
       <c r="F38" t="n">
-        <v>32.19</v>
+        <v>3.39</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2020-09-22T00:00:00Z</t>
+          <t>2020-09-28T00:00:00Z</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4430737/VF4qT-qqCUAAAAAAAAoMMw.jpg?v=639014499358300000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3076728/VF4qT-qqCUAAAAAAAAGF4g.jpg?v=637877840364830000</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -3143,21 +3143,21 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>1262</t>
+          <t>7408</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>1269</t>
+          <t>7427</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>NEVE</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O38" t="n">
-        <v>2000291</v>
+        <v>2000015</v>
       </c>
       <c r="P38" t="n">
         <v>99999</v>
@@ -3166,43 +3166,43 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>refrigerante-coca-cola-sem-acucar-pet-600-ml-429392</t>
+          <t>espinafre-unidade-200948</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Refrigerante Coca Cola Sem Açúcar Pet 600ml</t>
+          <t>Espinafre Unidade</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>429392</t>
+          <t>200948</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>A Coca-Cola Sem Açúcar é um refrigerante que não contém calorias! Com certeza você já se perguntou: “Então, de onde vem aquele gostinho doce? ” A Coca-Cola Sem Açúcar é produzida especialmente com adoçantes para manter o delicioso sabor de Coca-Cola porém com 0% Açucar. Perfeita para matar sua sede a qualquer hora do dia!</t>
+          <t>O espinafre é uma hortaliça saborosa, rica em ferro e também é fonte de vitamina A e B2, além de fornecer cálcio, fósforo, potássio e magnésio, é indicado também para pessoas com anemia e desnutrição.Como conservar :Sob refrigeração, pode ser mantido por no máximo 5 dias. Antes de colocálo na geladeira, lave as folhas, escorra o excesso de água e coloqueo em sacos de plástico perfurados ou em vasilha de plástico.Como consumir :O espinafre também pode ser usado em saladas, sopas,suflês omeletes. É ótimo como recheio ou acompanhamento de massas como macarrão, quiche, tortas, pastéis e assados. [Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>5.69</v>
+        <v>3.39</v>
       </c>
       <c r="F39" t="n">
-        <v>5.69</v>
+        <v>3.39</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2020-10-01T00:00:00Z</t>
+          <t>2020-09-28T00:00:00Z</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4483407/VF4qT-qqCUAAAAAAAAoapA.jpg?v=639052524553700000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3076729/VF4qT-qqCUAAAAAAAAKBdQ.jpg?v=637877840409270000</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -3215,21 +3215,21 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>8816</t>
+          <t>7464</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>8828</t>
+          <t>7483</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>COCA COLA</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O39" t="n">
-        <v>2000027</v>
+        <v>2000015</v>
       </c>
       <c r="P39" t="n">
         <v>99999</v>
@@ -3238,43 +3238,43 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>oleo-de-soja-liza-900ml-127310</t>
+          <t>refrigerante-coca-cola-sem-acucar-pet-600-ml-429392</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Óleo De Soja Liza 900ml</t>
+          <t>Refrigerante Coca Cola Sem Açúcar Pet 600ml</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>127310</t>
+          <t>429392</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Óleo De Soja Liza 900ml</t>
+          <t>A Coca-Cola Sem Açúcar é um refrigerante que não contém calorias! Com certeza você já se perguntou: “Então, de onde vem aquele gostinho doce? ” A Coca-Cola Sem Açúcar é produzida especialmente com adoçantes para manter o delicioso sabor de Coca-Cola porém com 0% Açucar. Perfeita para matar sua sede a qualquer hora do dia!</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>8.59</v>
+        <v>5.69</v>
       </c>
       <c r="F40" t="n">
-        <v>8.59</v>
+        <v>5.69</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2020-09-15T00:00:00Z</t>
+          <t>2020-10-01T00:00:00Z</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3075849/VF4qT-qqCUAAAAAAAAIxqw.jpg?v=637877802666600000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4483407/VF4qT-qqCUAAAAAAAAoapA.jpg?v=639052524553700000</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -3287,21 +3287,21 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>8816</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>8828</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>LIZA</t>
+          <t>COCA COLA</t>
         </is>
       </c>
       <c r="O40" t="n">
-        <v>2000067</v>
+        <v>2000027</v>
       </c>
       <c r="P40" t="n">
         <v>99999</v>
@@ -3310,43 +3310,43 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>sal-refinado-iodado-ita-1kg-117293</t>
+          <t>pao-de-queijo-forno-de-minas-tradicional--400-g-456110</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Sal Refinado Iodado Ita 1kg</t>
+          <t>Pão De Queijo Forno De Minas Tradicional 400g</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>117293</t>
+          <t>456110</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Sal Refinado Iodado Ita 1kg</t>
+          <t>Pão De Queijo Forno De Minas Tradicional 400g</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>3.65</v>
+        <v>21.99</v>
       </c>
       <c r="F41" t="n">
-        <v>3.65</v>
+        <v>21.99</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>119</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2020-09-15T00:00:00Z</t>
+          <t>2020-10-20T00:00:00Z</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3076051/VF4qT-qqCUAAAAAAAAKZcQ.jpg?v=637877811480070000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3041185/VF4qT-qqCUAAAAAAAAHIag.jpg?v=637792557833470000</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -3359,21 +3359,21 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>13544</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>13564</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>ITA</t>
+          <t>FORNO MINAS</t>
         </is>
       </c>
       <c r="O41" t="n">
-        <v>2000066</v>
+        <v>2001500</v>
       </c>
       <c r="P41" t="n">
         <v>99999</v>
@@ -3382,43 +3382,43 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>pao-de-queijo-forno-de-minas-tradicional--400-g-456110</t>
+          <t>detergente-para-loucas-biodegradavel-limpol-neutro-500-ml-100510</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Pão De Queijo Forno De Minas Tradicional 400g</t>
+          <t>Detergente Para Louças Biodegradável Limpol Neutro 500ml</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>456110</t>
+          <t>100510</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Pão De Queijo Forno De Minas Tradicional 400g</t>
+          <t>O Lava-Louças Limpol é eficiente no poder da limpeza, remoção da gordura e sujeiras e no combate aos maus odores indesejados da cozinha. Sua fórmula é dermatologicamente testada e contém glicerina, tornando-a mais suave para as mãos.</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>21.99</v>
+        <v>2.79</v>
       </c>
       <c r="F42" t="n">
-        <v>21.99</v>
+        <v>2.79</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>76</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2020-10-20T00:00:00Z</t>
+          <t>2020-10-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3041185/VF4qT-qqCUAAAAAAAAHIag.jpg?v=637792557833470000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3269221/12054_1.jpg?v=638386029717470000</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -3431,21 +3431,21 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>13544</t>
+          <t>12054</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>13564</t>
+          <t>12081</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>FORNO MINAS</t>
+          <t>LIMPOL</t>
         </is>
       </c>
       <c r="O42" t="n">
-        <v>2001500</v>
+        <v>2001413</v>
       </c>
       <c r="P42" t="n">
         <v>99999</v>
@@ -3454,43 +3454,43 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>saponaceo-cremoso-cif-gratis-20-450-ml-839264</t>
+          <t>sal-refinado-iodado-ita-1kg-117293</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Saponáceo Cremoso Cif Grátis 20% 450ml</t>
+          <t>Sal Refinado Iodado Ita 1kg</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>839264</t>
+          <t>117293</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>• Multiuso Cremoso • 1 gota remove 100% da sujeira difícil • Limpa sem riscar com micropartículas de origem natural • Poderoso na limpeza, imbatível no cuidado • Use também em couro sintético, plástico, porcelana e borracha • Para toda casa CIF Multiuso Cremoso Original, possui uma fórmula exclusiva que limpa profundamente, removendo 100% da sujeira difícil, com apenas 1 gota. O limpador CIF Cremoso é mais concentrado e por isso pode render até 7 garrafas * dos limpadores comuns encontrados no mercado. Com sua tecnologia, o limpador de casa CIF Multiuso Cremoso Original é poderoso na limpeza e imbatível no cuidado. Sua formula com micropartículas de origem natural limpam, sem riscar, removendo toda a sujeira desde a mais pesada até a manutenção do dia a dia, deixando um brilho imbatível. Limpe toda sua casa usando o limpador multiuso CIF Multiuso Cremoso, que limpa mais de 100 objetos **, como fogão, micro-ondas, chinelos, panelas, geladeira, potes plásticos, pias, torneiras, sofá, máquina de lavar, brinquedos das crianças, persianas, utensílios de churrasco, talheres, ventilador e até ajuda a deixar aquele cabo de carregador de celular como novo! CIF é muito mais do que uma linha de produtos de limpeza, CIF é cuidado com a sua casa. A família de multiuso CIF Cremoso possui uma variedade de fragrâncias, sendo elas: Original, Laranja e Limão, todas super refrescantes e se adaptam ao seu estilo e à sua casa. CIF Multiuso Cremoso é um grande aliado na limpeza de casa, para mantê-la sempre limpa, bonita e bem cuidada, do jeito que você e sua família merecem. CIF é poderoso na limpeza e imbatível no cuidado pois sabemos que cada cantinho da sua casa merece limpeza e cuidado.</t>
+          <t>Sal Refinado Iodado Ita 1kg</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>14.99</v>
+        <v>3.65</v>
       </c>
       <c r="F43" t="n">
-        <v>14.99</v>
+        <v>3.65</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2020-10-06T00:00:00Z</t>
+          <t>2020-09-15T00:00:00Z</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3077844/839264_17.jpg?v=637895340530470000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3076051/VF4qT-qqCUAAAAAAAAKZcQ.jpg?v=637877811480070000</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -3503,21 +3503,21 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>12274</t>
+          <t>126</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>12301</t>
+          <t>131</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>CIF</t>
+          <t>ITA</t>
         </is>
       </c>
       <c r="O43" t="n">
-        <v>2000541</v>
+        <v>2000066</v>
       </c>
       <c r="P43" t="n">
         <v>99999</v>
@@ -3526,43 +3526,43 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>detergente-para-loucas-biodegradavel-limpol-neutro-500-ml-100510</t>
+          <t>biscoito-cream-cracker-piraque-pacote-184g-1105795</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Detergente Para Louças Biodegradável Limpol Neutro 500ml</t>
+          <t>Biscoito Cream Cracker Piraquê Pacote 184g</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>100510</t>
+          <t>1105795</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>O Lava-Louças Limpol é eficiente no poder da limpeza, remoção da gordura e sujeiras e no combate aos maus odores indesejados da cozinha. Sua fórmula é dermatologicamente testada e contém glicerina, tornando-a mais suave para as mãos.</t>
+          <t>Biscoito Salgado Cream Cracker Piraquê Pacote 184g</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>2.79</v>
+        <v>3.89</v>
       </c>
       <c r="F44" t="n">
-        <v>2.79</v>
+        <v>5.99</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>31</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2020-10-06T00:00:00Z</t>
+          <t>2023-07-26T00:00:00Z</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3269221/12054_1.jpg?v=638386029717470000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3099416/VF4qT-qqCUAAAAAAAATd0w.jpg?v=638264204522930000</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -3575,21 +3575,21 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>12054</t>
+          <t>33955</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>12081</t>
+          <t>33882</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>LIMPOL</t>
+          <t>PIRAQUE</t>
         </is>
       </c>
       <c r="O44" t="n">
-        <v>2001413</v>
+        <v>2000017</v>
       </c>
       <c r="P44" t="n">
         <v>99999</v>
@@ -3598,70 +3598,70 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>biscoito-cream-cracker-piraque-pacote-184g-1105795</t>
+          <t>cereja-chilena-300g-13463</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Biscoito Cream Cracker Piraquê Pacote 184g</t>
+          <t>Cereja Chilena 300g</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1105795</t>
+          <t>13463</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Biscoito Salgado Cream Cracker Piraquê Pacote 184g</t>
+          <t>As cerejas chilenas vão deleitar seu paladar com seu doce e suculento sabor. Sua cor intensa, que varia do vermelho vibrante a tonalidades mais escuras, é um banquete para os olhos e o sinal dos inúmeros benefícios à saúde. Essa pequena fruta é uma fonte nutricional completa, com vitaminas essenciais como a C e a E, além de minerais como o ferro, potássio e magnésio. A cerejas podem ser consumidas frescas, no preparo de conservas, sobremesas e tortas e são classificadas por tamanho e nós só trazemos as mais graúdas especialmente para você!</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>3.89</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="F45" t="n">
-        <v>5.99</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2023-07-26T00:00:00Z</t>
+          <t>2020-09-26T00:00:00Z</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3099416/VF4qT-qqCUAAAAAAAATd0w.jpg?v=638264204522930000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4434078/VF4qT-qqCUAAAAAAAAoONQ.jpg?v=639019170859200000</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K45" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>33955</t>
+          <t>5090</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>33882</t>
+          <t>5106</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>PIRAQUE</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O45" t="n">
-        <v>2000017</v>
+        <v>2000015</v>
       </c>
       <c r="P45" t="n">
         <v>99999</v>
@@ -3670,70 +3670,70 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>cereja-chilena-300g-13463</t>
+          <t>saponaceo-cremoso-cif-limpeza-milagrosa-450ml-781266</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Cereja Chilena 300g</t>
+          <t>CIF Cremoso Limpeza Milagrosa remove 100% da sujeira 450 ml</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>13463</t>
+          <t>781266</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>As cerejas chilenas vão deleitar seu paladar com seu doce e suculento sabor. Sua cor intensa, que varia do vermelho vibrante a tonalidades mais escuras, é um banquete para os olhos e o sinal dos inúmeros benefícios à saúde. Essa pequena fruta é uma fonte nutricional completa, com vitaminas essenciais como a C e a E, além de minerais como o ferro, potássio e magnésio. A cerejas podem ser consumidas frescas, no preparo de conservas, sobremesas e tortas e são classificadas por tamanho e nós só trazemos as mais graúdas especialmente para você!</t>
+          <t>• Cif Cremoso Original é o produto de limpeza milagrosa que limpa fácil e dá brilho em mais de 100 superfícies*, removendo 100% da sujeira difícil, sem esforço • O Cif Cremoso Original possui um perfume suave, é mais concentrado e rende 7 garrafas do limpador comum • Fórmula com tecnologia poderosa que limpa sem riscar, removendo toda a sujeira desde a mais pesada até a limpeza de casa do dia a dia, deixando um brilho imbatível • Com o Cif, a limpeza nunca foi tão fácil e versátil. Cif Cremoso possui três variantes: Original, Limão e Laranja • Cif Cremoso Original é o produto de limpeza milagrosa para todo tipo de objeto como: eletrodomésticos, pias, couro sintético, borracha, plástico, porcelana e serve até como limpador de pisos • Cif promove uma limpeza milagrosa completa, com produtos versáteis que atendem a todas as suas necessidades. Cif. Sinta a limpeza acontecer! Cif Cremoso Original 450 ml é o produto de limpeza milagroso que limpa fácil e dá brilho em mais de 100 superfícies*, removendo 100% da sujeira difícil, sem esforço. O higienizador de casa cremoso é mais concentrado e rende 7 garrafas do limpador comum**. Sua fórmula, poderosa, limpa sem riscar***, removendo toda a sujeira desde a mais pesada até a limpeza de casa do dia a dia, deixando um brilho imbatível. Limpe toda sua casa usando o Cif Cremoso Original, que limpa todo tipo de objeto, como eletrodomésticos, potes plásticos, pias, brinquedos das crianças, persianas, pisos e até ajuda a deixar aquele cabo de carregador de celular como novo! Com o Limpador Cif, a limpeza nunca foi tão fácil e versátil. A linha do milagroso Cif Cremoso possui outras variedades de perfumes, como Laranja e Limão, que se adaptam ao seu estilo. Conheça a linha completa de produtos de limpeza Cif que não podem ficar de fora da sua lista de material de limpeza. Use também: Cif Cozinha, Cif Derrete Gordura, Cif Banheiro, Cif Tira Limo Com Cloro, Cif Vidros, Cif Cremoso e muito mais. Cif: Sinta a limpeza acontecer! Modo de usar: 1. Agite antes de usar. 2. Aplique uma pequena quantidade do produto sobre uma esponja ou pano úmido. 3. Esfregue a superfície suavemente até eliminar a sujeira. 4. Passe um pano úmido para finalizar. 5. Feche a embalagem após o uso. *Consulte lista das superfícies em www.ciflimpadores.com.br **Manchas de sabão e gordura queimada, comparado com limpadores comuns do mercado. Consulte a diferença de preços entre produtos. ***Não usar esponja ácida, como palha de aço, para a limpeza de vidros. A imagem do produto é meramente ilustrativa e o rótulo pode variar. Será enviada a embalagem disponível no momento da compra.</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>69.90000000000001</v>
+        <v>18.99</v>
       </c>
       <c r="F46" t="n">
-        <v>69.90000000000001</v>
+        <v>18.99</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>74</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2020-09-26T00:00:00Z</t>
+          <t>2020-10-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4434078/VF4qT-qqCUAAAAAAAAoONQ.jpg?v=639019170859200000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3640099/VF4qT-qqCUAAAAAAAAbyew.jpg?v=638585098972800000</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K46" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>5090</t>
+          <t>11602</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>5106</t>
+          <t>11625</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>CIF</t>
         </is>
       </c>
       <c r="O46" t="n">
-        <v>2000015</v>
+        <v>2000541</v>
       </c>
       <c r="P46" t="n">
         <v>99999</v>
@@ -3742,70 +3742,70 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>couve-manteiga-unidade-201235</t>
+          <t>alho-roxo-cariorta-4-a-5-unidades-250g-99279</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Couve Manteiga Unidade</t>
+          <t>Alho Roxo Cariorta 4 a 5 unidades 250g</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>201235</t>
+          <t>99279</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>A couve é uma hortaliça muito rica em nutriente,cálcio, ferro e vitaminas A,C, K e B5.Como conservar:Em geladeira, inteira ou picada deve ser mantida em saco plástico fechado ou em vasilha de plástico tampada.Como consumir:Pode ser consumida crua, em saladas e sucos, refogada ou como ingrediente de sopas, farofas e cozidos.[ Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
+          <t>Cariorta selecionados de coração.</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>3.39</v>
+        <v>59.99</v>
       </c>
       <c r="F47" t="n">
-        <v>3.39</v>
+        <v>59.99</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>480</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2020-09-28T00:00:00Z</t>
+          <t>2020-05-27T00:00:00Z</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3083631/VF4qT-qqCUAAAAAAAAOZOA.jpg?v=637994955185970000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3082698/VF4qT-qqCUAAAAAAAAOOtg.jpg?v=637980006345970000</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K47" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>7445</t>
+          <t>24684</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>7464</t>
+          <t>24608</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>CARIORTA</t>
         </is>
       </c>
       <c r="O47" t="n">
-        <v>2000015</v>
+        <v>2001012</v>
       </c>
       <c r="P47" t="n">
         <v>99999</v>
@@ -3814,29 +3814,29 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>saponaceo-cremoso-cif-limpeza-milagrosa-450ml-781266</t>
+          <t>saponaceo-cremoso-cif-gratis-20-450-ml-839264</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>CIF Cremoso Limpeza Milagrosa remove 100% da sujeira 450 ml</t>
+          <t>Saponáceo Cremoso Cif Grátis 20% 450ml</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>781266</t>
+          <t>839264</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>• Cif Cremoso Original é o produto de limpeza milagrosa que limpa fácil e dá brilho em mais de 100 superfícies*, removendo 100% da sujeira difícil, sem esforço • O Cif Cremoso Original possui um perfume suave, é mais concentrado e rende 7 garrafas do limpador comum • Fórmula com tecnologia poderosa que limpa sem riscar, removendo toda a sujeira desde a mais pesada até a limpeza de casa do dia a dia, deixando um brilho imbatível • Com o Cif, a limpeza nunca foi tão fácil e versátil. Cif Cremoso possui três variantes: Original, Limão e Laranja • Cif Cremoso Original é o produto de limpeza milagrosa para todo tipo de objeto como: eletrodomésticos, pias, couro sintético, borracha, plástico, porcelana e serve até como limpador de pisos • Cif promove uma limpeza milagrosa completa, com produtos versáteis que atendem a todas as suas necessidades. Cif. Sinta a limpeza acontecer! Cif Cremoso Original 450 ml é o produto de limpeza milagroso que limpa fácil e dá brilho em mais de 100 superfícies*, removendo 100% da sujeira difícil, sem esforço. O higienizador de casa cremoso é mais concentrado e rende 7 garrafas do limpador comum**. Sua fórmula, poderosa, limpa sem riscar***, removendo toda a sujeira desde a mais pesada até a limpeza de casa do dia a dia, deixando um brilho imbatível. Limpe toda sua casa usando o Cif Cremoso Original, que limpa todo tipo de objeto, como eletrodomésticos, potes plásticos, pias, brinquedos das crianças, persianas, pisos e até ajuda a deixar aquele cabo de carregador de celular como novo! Com o Limpador Cif, a limpeza nunca foi tão fácil e versátil. A linha do milagroso Cif Cremoso possui outras variedades de perfumes, como Laranja e Limão, que se adaptam ao seu estilo. Conheça a linha completa de produtos de limpeza Cif que não podem ficar de fora da sua lista de material de limpeza. Use também: Cif Cozinha, Cif Derrete Gordura, Cif Banheiro, Cif Tira Limo Com Cloro, Cif Vidros, Cif Cremoso e muito mais. Cif: Sinta a limpeza acontecer! Modo de usar: 1. Agite antes de usar. 2. Aplique uma pequena quantidade do produto sobre uma esponja ou pano úmido. 3. Esfregue a superfície suavemente até eliminar a sujeira. 4. Passe um pano úmido para finalizar. 5. Feche a embalagem após o uso. *Consulte lista das superfícies em www.ciflimpadores.com.br **Manchas de sabão e gordura queimada, comparado com limpadores comuns do mercado. Consulte a diferença de preços entre produtos. ***Não usar esponja ácida, como palha de aço, para a limpeza de vidros. A imagem do produto é meramente ilustrativa e o rótulo pode variar. Será enviada a embalagem disponível no momento da compra.</t>
+          <t>• Multiuso Cremoso • 1 gota remove 100% da sujeira difícil • Limpa sem riscar com micropartículas de origem natural • Poderoso na limpeza, imbatível no cuidado • Use também em couro sintético, plástico, porcelana e borracha • Para toda casa CIF Multiuso Cremoso Original, possui uma fórmula exclusiva que limpa profundamente, removendo 100% da sujeira difícil, com apenas 1 gota. O limpador CIF Cremoso é mais concentrado e por isso pode render até 7 garrafas * dos limpadores comuns encontrados no mercado. Com sua tecnologia, o limpador de casa CIF Multiuso Cremoso Original é poderoso na limpeza e imbatível no cuidado. Sua formula com micropartículas de origem natural limpam, sem riscar, removendo toda a sujeira desde a mais pesada até a manutenção do dia a dia, deixando um brilho imbatível. Limpe toda sua casa usando o limpador multiuso CIF Multiuso Cremoso, que limpa mais de 100 objetos **, como fogão, micro-ondas, chinelos, panelas, geladeira, potes plásticos, pias, torneiras, sofá, máquina de lavar, brinquedos das crianças, persianas, utensílios de churrasco, talheres, ventilador e até ajuda a deixar aquele cabo de carregador de celular como novo! CIF é muito mais do que uma linha de produtos de limpeza, CIF é cuidado com a sua casa. A família de multiuso CIF Cremoso possui uma variedade de fragrâncias, sendo elas: Original, Laranja e Limão, todas super refrescantes e se adaptam ao seu estilo e à sua casa. CIF Multiuso Cremoso é um grande aliado na limpeza de casa, para mantê-la sempre limpa, bonita e bem cuidada, do jeito que você e sua família merecem. CIF é poderoso na limpeza e imbatível no cuidado pois sabemos que cada cantinho da sua casa merece limpeza e cuidado.</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>13.29</v>
+        <v>14.99</v>
       </c>
       <c r="F48" t="n">
-        <v>18.99</v>
+        <v>14.99</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -3850,7 +3850,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3640099/VF4qT-qqCUAAAAAAAAbyew.jpg?v=638585098972800000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3077844/839264_17.jpg?v=637895340530470000</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -3863,12 +3863,12 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>11602</t>
+          <t>12274</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>11625</t>
+          <t>12301</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -3886,70 +3886,70 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>alho-roxo-cariorta-4-a-5-unidades-250g-99279</t>
+          <t>couve-manteiga-unidade-201235</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Alho Roxo Cariorta 4 a 5 unidades 250g</t>
+          <t>Couve Manteiga Unidade</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>99279</t>
+          <t>201235</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Cariorta selecionados de coração.</t>
+          <t>A couve é uma hortaliça muito rica em nutriente,cálcio, ferro e vitaminas A,C, K e B5.Como conservar:Em geladeira, inteira ou picada deve ser mantida em saco plástico fechado ou em vasilha de plástico tampada.Como consumir:Pode ser consumida crua, em saladas e sucos, refogada ou como ingrediente de sopas, farofas e cozidos.[ Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>59.99</v>
+        <v>3.39</v>
       </c>
       <c r="F49" t="n">
-        <v>59.99</v>
+        <v>3.39</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2020-05-27T00:00:00Z</t>
+          <t>2020-09-28T00:00:00Z</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3082698/VF4qT-qqCUAAAAAAAAOOtg.jpg?v=637980006345970000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3083631/VF4qT-qqCUAAAAAAAAOZOA.jpg?v=637994955185970000</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K49" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>24684</t>
+          <t>7445</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>24608</t>
+          <t>7464</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>CARIORTA</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O49" t="n">
-        <v>2001012</v>
+        <v>2000015</v>
       </c>
       <c r="P49" t="n">
         <v>99999</v>

--- a/zonasul.xlsx
+++ b/zonasul.xlsx
@@ -518,43 +518,39 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>matte-leao-limao-pet-1-5l-118222</t>
+          <t>creme-de-leite-nestle-10--gratis-200g-1165151</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Matte Leão Limão Pet 1,5L</t>
+          <t>Creme de Leite Nestlé 10% Grátis 200g</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>118222</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>O Chá MATTE Limão Leão é um dos tipos de chás preferido dos consumidores. A marca Chá Mate Leão está presente no mercado há mais de 100 anos, sendo a marca de chá mais vendida e tradicional. Produzido com extrato aquoso de mate, açúcar e suco de limão, o Chá MATTE LEÃO Limão é a opção ideal para refrescar o seu dia! Compre e compartilhe com amigos e familiares!</t>
-        </is>
-      </c>
+          <t>1165151</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="n">
-        <v>7.69</v>
+        <v>5.99</v>
       </c>
       <c r="F2" t="n">
-        <v>8.99</v>
+        <v>5.99</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>71</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2020-10-01T00:00:00Z</t>
+          <t>2025-02-20T00:00:00Z</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3704455/VF4qT-qqCUAAAAAAAAcePQ.jpg?v=638609291270100000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4395976/VF4qT-qqCUAAAAAAAAoEeQ.jpg?v=638984266226730000</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -567,21 +563,21 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>8711</t>
+          <t>40151</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>8723</t>
+          <t>40078</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>LEAO</t>
+          <t>NESTLE</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>2000010</v>
+        <v>2000043</v>
       </c>
       <c r="P2" t="n">
         <v>99999</v>
@@ -609,7 +605,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3.39</v>
+        <v>2.49</v>
       </c>
       <c r="F3" t="n">
         <v>3.39</v>
@@ -662,39 +658,43 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>creme-de-leite-nestle-10--gratis-200g-1165151</t>
+          <t>refrigerante-coca-cola-sem-acucar-lata-350-ml-429376</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Creme de Leite Nestlé 10% Grátis 200g</t>
+          <t>Refrigerante Coca Cola Sem Açúcar Lata 350ml</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1165151</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
+          <t>429376</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>A Coca-Cola Sem Açúcar é um refrigerante que não contém calorias! Com certeza você já se perguntou: “Então, de onde vem aquele gostinho doce? ” A Coca-Cola Sem Açúcar é produzida especialmente com adoçantes para manter o delicioso sabor de Coca-Cola porém com 0% Açucar. Uma Lata de Coca-Cola Sem Perfeita para matar sua sede a qualquer hora do dia!</t>
+        </is>
+      </c>
       <c r="E4" t="n">
-        <v>5.99</v>
+        <v>3.99</v>
       </c>
       <c r="F4" t="n">
-        <v>5.99</v>
+        <v>3.99</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-02-20T00:00:00Z</t>
+          <t>2020-10-01T00:00:00Z</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4395976/VF4qT-qqCUAAAAAAAAoEeQ.jpg?v=638984266226730000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4483405/VF4qT-qqCUAAAAAAAAoaow.jpg?v=639052524439630000</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -707,21 +707,21 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>40151</t>
+          <t>8817</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>40078</t>
+          <t>8829</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>NESTLE</t>
+          <t>COCA COLA</t>
         </is>
       </c>
       <c r="O4" t="n">
-        <v>2000043</v>
+        <v>2000027</v>
       </c>
       <c r="P4" t="n">
         <v>99999</v>
@@ -730,43 +730,43 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>refrigerante-coca-cola-sem-acucar-lata-350-ml-429376</t>
+          <t>alcool-montenegro-46-1-l-780570</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Refrigerante Coca Cola Sem Açúcar Lata 350ml</t>
+          <t>Álcool Montenegro 46% 1 L</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>429376</t>
+          <t>780570</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>A Coca-Cola Sem Açúcar é um refrigerante que não contém calorias! Com certeza você já se perguntou: “Então, de onde vem aquele gostinho doce? ” A Coca-Cola Sem Açúcar é produzida especialmente com adoçantes para manter o delicioso sabor de Coca-Cola porém com 0% Açucar. Uma Lata de Coca-Cola Sem Perfeita para matar sua sede a qualquer hora do dia!</t>
+          <t>Álcool Montenegro 46% 1 L</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3.99</v>
+        <v>7.98</v>
       </c>
       <c r="F5" t="n">
-        <v>3.99</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>74</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2020-10-01T00:00:00Z</t>
+          <t>2020-10-06T10:47:00Z</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4483405/VF4qT-qqCUAAAAAAAAoaow.jpg?v=639052524439630000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3051579/VF4qT-qqCUAAAAAAAAG3pQ.jpg?v=637793390624870000</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -779,21 +779,21 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>8817</t>
+          <t>11598</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>8829</t>
+          <t>11621</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>COCA COLA</t>
+          <t>MONTENEGRO</t>
         </is>
       </c>
       <c r="O5" t="n">
-        <v>2000027</v>
+        <v>2000527</v>
       </c>
       <c r="P5" t="n">
         <v>99999</v>
@@ -802,70 +802,70 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>uva-preta-sem-semente-500-g-674583</t>
+          <t>batata-inglesa-cariorta-12kg-98698</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Uva Preta Sem Semente 500g</t>
+          <t>Batata Inglesa Cariorta 1,2Kg</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>674583</t>
+          <t>98698</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Eventualmente, devido à variações climáticas, essa variedade pode apresentar traços de sementes comestíveis As uvas são, sem dúvidas, uma das frutas mais nutritivas de todas. Apesar de seu tamanho relativamente pequeno, elas são extremamente poderosas nutricionalmente e consumilas é muito importante para o bom funcionamento do corpo.As calorias presentes nas uvas também são poucas: apenas 90 em cerca de 150g. Por isso, é uma ótima opção também para aqueles que estão em processo de redução da massa corporal, desde que consumida com cautela.Rica em antioxidantes que são responsáveis por ‘’limpar’’ e proteger as nossas células dos chamados radicais livres, compostos potencialmente perigosos que podem danificar essas estruturas.Os antioxidantes estão mais comumente presentes na casca da fruta, o que é indicado pela coloração delas. Quanto mais escuras, maior é a concentração desses compostos na uva. Os principais exemplos são os polifenois, e o mais famoso deles chamase resveratrol.</t>
+          <t>Cariorta selecionados de coração.</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>11.99</v>
+        <v>8.99</v>
       </c>
       <c r="F6" t="n">
-        <v>11.99</v>
+        <v>8.99</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>483</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2020-09-26T00:00:00Z</t>
+          <t>2020-12-16T00:00:00Z</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3047035/VF4qT-qqCUAAAAAAAAGXCQ.jpg?v=637793205627670000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3082670/VF4qT-qqCUAAAAAAAAOOew.jpg?v=637979987993130000</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>5264</t>
+          <t>16570</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>5280</t>
+          <t>16461</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>CARIORTA</t>
         </is>
       </c>
       <c r="O6" t="n">
-        <v>2000015</v>
+        <v>2001012</v>
       </c>
       <c r="P6" t="n">
         <v>99999</v>
@@ -874,43 +874,43 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>alcool-montenegro-46-1-l-780570</t>
+          <t>uva-preta-sem-semente-500-g-674583</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Álcool Montenegro 46% 1 L</t>
+          <t>Uva Preta Sem Semente 500g</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>780570</t>
+          <t>674583</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Álcool Montenegro 46% 1 L</t>
+          <t>Eventualmente, devido à variações climáticas, essa variedade pode apresentar traços de sementes comestíveis As uvas são, sem dúvidas, uma das frutas mais nutritivas de todas. Apesar de seu tamanho relativamente pequeno, elas são extremamente poderosas nutricionalmente e consumilas é muito importante para o bom funcionamento do corpo.As calorias presentes nas uvas também são poucas: apenas 90 em cerca de 150g. Por isso, é uma ótima opção também para aqueles que estão em processo de redução da massa corporal, desde que consumida com cautela.Rica em antioxidantes que são responsáveis por ‘’limpar’’ e proteger as nossas células dos chamados radicais livres, compostos potencialmente perigosos que podem danificar essas estruturas.Os antioxidantes estão mais comumente presentes na casca da fruta, o que é indicado pela coloração delas. Quanto mais escuras, maior é a concentração desses compostos na uva. Os principais exemplos são os polifenois, e o mais famoso deles chamase resveratrol.</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>7.98</v>
+        <v>10.99</v>
       </c>
       <c r="F7" t="n">
-        <v>8.789999999999999</v>
+        <v>11.99</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2020-10-06T10:47:00Z</t>
+          <t>2020-09-26T00:00:00Z</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3051579/VF4qT-qqCUAAAAAAAAG3pQ.jpg?v=637793390624870000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3047035/VF4qT-qqCUAAAAAAAAGXCQ.jpg?v=637793205627670000</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -923,21 +923,21 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>11598</t>
+          <t>5264</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>11621</t>
+          <t>5280</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>MONTENEGRO</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O7" t="n">
-        <v>2000527</v>
+        <v>2000015</v>
       </c>
       <c r="P7" t="n">
         <v>99999</v>
@@ -1018,70 +1018,70 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>batata-inglesa-cariorta-12kg-98698</t>
+          <t>agua-mineral-com-gas-sao-lourenco-pet-1-26-l-140805</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Batata Inglesa Cariorta 1,2Kg</t>
+          <t>Água Mineral Com Gás São Lourenço Pet 1,26 L</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>98698</t>
+          <t>140805</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Cariorta selecionados de coração.</t>
+          <t>Água Mineral Com Gás São Lourenço Pet 1,26 L</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>8.99</v>
+        <v>5.29</v>
       </c>
       <c r="F9" t="n">
-        <v>8.99</v>
+        <v>5.29</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>18</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2020-12-16T00:00:00Z</t>
+          <t>2020-09-25T00:00:00Z</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3082670/VF4qT-qqCUAAAAAAAAOOew.jpg?v=637979987993130000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3076277/VF4qT-qqCUAAAAAAAAHMBQ.jpg?v=637877821166370000</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K9" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>16570</t>
+          <t>3915</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>16461</t>
+          <t>3929</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>CARIORTA</t>
+          <t>SAO LOURENCO</t>
         </is>
       </c>
       <c r="O9" t="n">
-        <v>2001012</v>
+        <v>2000145</v>
       </c>
       <c r="P9" t="n">
         <v>99999</v>
@@ -1181,7 +1181,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3.39</v>
+        <v>2.49</v>
       </c>
       <c r="F11" t="n">
         <v>3.39</v>
@@ -1234,43 +1234,43 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>agua-mineral-com-gas-sao-lourenco-pet-1-26-l-140805</t>
+          <t>tomate-italiano-unidade-495212</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Água Mineral Com Gás São Lourenço Pet 1,26 L</t>
+          <t>Tomate Italiano Unidade</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>140805</t>
+          <t>495212</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Água Mineral Com Gás São Lourenço Pet 1,26 L</t>
+          <t>Tomate Italiano Unidade</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5.29</v>
+        <v>1.18</v>
       </c>
       <c r="F12" t="n">
-        <v>5.29</v>
+        <v>1.53</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>53</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2020-09-25T00:00:00Z</t>
+          <t>2020-09-27T00:00:00Z</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3076277/VF4qT-qqCUAAAAAAAAHMBQ.jpg?v=637877821166370000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3094266/VF4qT-qqCUAAAAAAAASLmg.jpg?v=638191532599970000</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1283,21 +1283,21 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>3915</t>
+          <t>6965</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>3929</t>
+          <t>6983</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>SAO LOURENCO</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O12" t="n">
-        <v>2000145</v>
+        <v>2000015</v>
       </c>
       <c r="P12" t="n">
         <v>99999</v>
@@ -1306,43 +1306,43 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>tomate-italiano-unidade-495212</t>
+          <t>cafe-torrado-e-moido-pilao-tradicional-500g-828025</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Tomate Italiano Unidade</t>
+          <t>Café Torrado E Moído Pilão Tradicional Fresh Pack 500g</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>495212</t>
+          <t>828025</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Tomate Italiano Unidade</t>
+          <t>Tem um ponto de torra acentuado e um processo de moagem fina e uniforme, que garantem e preservam seu sabor forte e encorpado.É perfeito para servir em dia de casa cheia, pois seu sabor tradicional agrada a todo mundo.</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1.53</v>
+        <v>29.98</v>
       </c>
       <c r="F13" t="n">
-        <v>1.53</v>
+        <v>43.9</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>59</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2020-09-27T00:00:00Z</t>
+          <t>2020-09-15T00:00:00Z</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3094266/VF4qT-qqCUAAAAAAAASLmg.jpg?v=638191532599970000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3051146/VF4qT-qqCUAAAAAAAAG1sQ.jpg?v=637793369863530000</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1355,21 +1355,21 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>6965</t>
+          <t>130</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>6983</t>
+          <t>135</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>PILAO</t>
         </is>
       </c>
       <c r="O13" t="n">
-        <v>2000015</v>
+        <v>2000070</v>
       </c>
       <c r="P13" t="n">
         <v>99999</v>
@@ -1378,43 +1378,43 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ovos-vermelhos-mantiqueira-happy-eggs-com-10-unidades-5106753</t>
+          <t>manga-palmer-unidade-5130760</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Ovos Vermelhos Mantiqueira Happy Eggs com 10 Unidades</t>
+          <t>Manga Palmer Unidade</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>5106753</t>
+          <t>5130760</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Produzidos por galinhas criadas livres de gaiolas. Garantia de Bem-Estar Animal. Ovos Vermelhos Tipo Grande Categoria A. Embalagem com 10 unidades.</t>
+          <t>Manga Palmer Unidade</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>11.99</v>
+        <v>4.79</v>
       </c>
       <c r="F14" t="n">
-        <v>11.99</v>
+        <v>5.39</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2021-01-11T00:00:00Z</t>
+          <t>2023-02-16T00:00:00Z</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4222023/VF4qT-qqCUAAAAAAAAStHA.jpg?v=638894405636230000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3153453/VF4qT-qqCUAAAAAAAAUnKA.jpg?v=638319847497670000</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1427,21 +1427,21 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>18105</t>
+          <t>31977</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>17997</t>
+          <t>31902</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>HAPPY EGGS</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O14" t="n">
-        <v>2003319</v>
+        <v>2000015</v>
       </c>
       <c r="P14" t="n">
         <v>99999</v>
@@ -1450,43 +1450,43 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>manga-palmer-unidade-5130760</t>
+          <t>ovos-vermelhos-mantiqueira-happy-eggs-com-10-unidades-5106753</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Manga Palmer Unidade</t>
+          <t>Ovos Vermelhos Mantiqueira Happy Eggs com 10 Unidades</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>5130760</t>
+          <t>5106753</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Manga Palmer Unidade</t>
+          <t>Produzidos por galinhas criadas livres de gaiolas. Garantia de Bem-Estar Animal. Ovos Vermelhos Tipo Grande Categoria A. Embalagem com 10 unidades.</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5.39</v>
+        <v>11.99</v>
       </c>
       <c r="F15" t="n">
-        <v>5.39</v>
+        <v>11.99</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2023-02-16T00:00:00Z</t>
+          <t>2021-01-11T00:00:00Z</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3153453/VF4qT-qqCUAAAAAAAAUnKA.jpg?v=638319847497670000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4222023/VF4qT-qqCUAAAAAAAAStHA.jpg?v=638894405636230000</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1499,21 +1499,21 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>31977</t>
+          <t>18105</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>31902</t>
+          <t>17997</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>HAPPY EGGS</t>
         </is>
       </c>
       <c r="O15" t="n">
-        <v>2000015</v>
+        <v>2003319</v>
       </c>
       <c r="P15" t="n">
         <v>99999</v>
@@ -1541,7 +1541,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>9.99</v>
+        <v>7.99</v>
       </c>
       <c r="F16" t="n">
         <v>9.99</v>
@@ -1594,43 +1594,43 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>cafe-torrado-e-moido-pilao-tradicional-500g-828025</t>
+          <t>guardanapo-folha-dupla-scott-grand-hotel-238cm×218cm-50-unidades-129879</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Café Torrado E Moído Pilão Tradicional Fresh Pack 500g</t>
+          <t>Guardanapo Folha Dupla Scott Grand Hotel 23,8cm×21,8cm 50 Unidades</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>828025</t>
+          <t>129879</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Tem um ponto de torra acentuado e um processo de moagem fina e uniforme, que garantem e preservam seu sabor forte e encorpado.É perfeito para servir em dia de casa cheia, pois seu sabor tradicional agrada a todo mundo.</t>
+          <t>Guardanapo Folha Dupla Scott Grand Hotel 23,8cm×21,8cm 50 Unidades</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>29.98</v>
+        <v>6.19</v>
       </c>
       <c r="F17" t="n">
-        <v>43.9</v>
+        <v>6.19</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>111</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2020-09-15T00:00:00Z</t>
+          <t>2020-10-05T00:00:00Z</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3051146/VF4qT-qqCUAAAAAAAAG1sQ.jpg?v=637793369863530000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3239421/VF4qT-qqCUAAAAAAAAVSfw.jpg?v=638362188224230000</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1643,21 +1643,21 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>9426</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>9438</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>PILAO</t>
+          <t>GRANDE HOTEL</t>
         </is>
       </c>
       <c r="O17" t="n">
-        <v>2000070</v>
+        <v>2001400</v>
       </c>
       <c r="P17" t="n">
         <v>99999</v>
@@ -1666,43 +1666,43 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>guardanapo-folha-dupla-scott-grand-hotel-238cm×218cm-50-unidades-129879</t>
+          <t>abacaxi-unidade-221</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Guardanapo Folha Dupla Scott Grand Hotel 23,8cm×21,8cm 50 Unidades</t>
+          <t>Abacaxi Unidade</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>129879</t>
+          <t>221</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Guardanapo Folha Dupla Scott Grand Hotel 23,8cm×21,8cm 50 Unidades</t>
+          <t>Peso Aproximado 1,61,8Kg / Unidade.O Abacaxi é rico em Vitaminas A, B5, B6, C, BetaCaroteno, Tiamina, Antioxidantes e Fibras, auxiliando na saciedade e regulação do peso. É uma Importante fonte de energia póstreino. Auxilia nos processos antiinflamatórios por conter Bromelina, enzima encontrada principalmente no talo da fruta. Como preparar: no seu estado natural cortado, em saladas, assado, grelhado, sucos, geleias, sorvetes e chás.</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6.19</v>
+        <v>8.99</v>
       </c>
       <c r="F18" t="n">
-        <v>6.19</v>
+        <v>10.99</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2020-10-05T00:00:00Z</t>
+          <t>2020-09-26T00:00:00Z</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3239421/VF4qT-qqCUAAAAAAAAVSfw.jpg?v=638362188224230000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3041923/VF4qT-qqCUAAAAAAAAFtXw.jpg?v=637792593143530000</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1715,21 +1715,21 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>9426</t>
+          <t>4959</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>9438</t>
+          <t>4975</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>GRANDE HOTEL</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O18" t="n">
-        <v>2001400</v>
+        <v>2000015</v>
       </c>
       <c r="P18" t="n">
         <v>99999</v>
@@ -1738,44 +1738,48 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>papel-toalha-coquetel-19cm-x-19cm-com-2-rolos-com-60-folhas-cada-783242</t>
+          <t>limao-cariorta-1kg-98981</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Papel Toalha Coquetel 19Cm X 19Cm com 2 Rolos com 60 Folhas Cada</t>
+          <t>Limão Cariorta 1Kg</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>783242</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
+          <t>98981</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Cariorta selecionados de coração.</t>
+        </is>
+      </c>
       <c r="E19" t="n">
-        <v>6.99</v>
+        <v>11.99</v>
       </c>
       <c r="F19" t="n">
-        <v>6.99</v>
+        <v>11.99</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>482</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2020-10-06T00:00:00Z</t>
+          <t>2020-05-20T00:00:00Z</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3050348/VF4qT-qqCUAAAAAAAAJRgg.jpg?v=637793335676500000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3084385/VF4qT-qqCUAAAAAAAAOgIg.jpg?v=638000868147970000</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K19" t="n">
@@ -1783,66 +1787,62 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>11627</t>
+          <t>24698</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>11650</t>
+          <t>24622</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>COQUETEL</t>
+          <t>CARIORTA</t>
         </is>
       </c>
       <c r="O19" t="n">
-        <v>2001855</v>
+        <v>2001012</v>
       </c>
       <c r="P19" t="n">
-        <v>100</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>abacaxi-unidade-221</t>
+          <t>papel-toalha-coquetel-19cm-x-19cm-com-2-rolos-com-60-folhas-cada-783242</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Abacaxi Unidade</t>
+          <t>Papel Toalha Coquetel 19Cm X 19Cm com 2 Rolos com 60 Folhas Cada</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>221</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Peso Aproximado 1,61,8Kg / Unidade.O Abacaxi é rico em Vitaminas A, B5, B6, C, BetaCaroteno, Tiamina, Antioxidantes e Fibras, auxiliando na saciedade e regulação do peso. É uma Importante fonte de energia póstreino. Auxilia nos processos antiinflamatórios por conter Bromelina, enzima encontrada principalmente no talo da fruta. Como preparar: no seu estado natural cortado, em saladas, assado, grelhado, sucos, geleias, sorvetes e chás.</t>
-        </is>
-      </c>
+          <t>783242</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="n">
-        <v>10.99</v>
+        <v>6.99</v>
       </c>
       <c r="F20" t="n">
-        <v>10.99</v>
+        <v>6.99</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>111</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2020-09-26T00:00:00Z</t>
+          <t>2020-10-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3041923/VF4qT-qqCUAAAAAAAAFtXw.jpg?v=637792593143530000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3050348/VF4qT-qqCUAAAAAAAAJRgg.jpg?v=637793335676500000</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1855,66 +1855,62 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>4959</t>
+          <t>11627</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>4975</t>
+          <t>11650</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>COQUETEL</t>
         </is>
       </c>
       <c r="O20" t="n">
-        <v>2000015</v>
+        <v>2001855</v>
       </c>
       <c r="P20" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>limao-cariorta-1kg-98981</t>
+          <t>pao-frances-panetto-60g-com-4-unidades-96318</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Limão Cariorta 1Kg</t>
+          <t>Pão Francês Panetto  60g Com 4 unidades</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>98981</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Cariorta selecionados de coração.</t>
-        </is>
-      </c>
+          <t>96318</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="n">
-        <v>11.99</v>
+        <v>24.99</v>
       </c>
       <c r="F21" t="n">
-        <v>11.99</v>
+        <v>24.99</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>89</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2020-05-20T00:00:00Z</t>
+          <t>2024-01-31T00:00:00Z</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3084385/VF4qT-qqCUAAAAAAAAOgIg.jpg?v=638000868147970000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3307700/VF4qT-qqCUAAAAAAAAWnXQ.jpg?v=638932898013670000</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1923,25 +1919,25 @@
         </is>
       </c>
       <c r="K21" t="n">
-        <v>1</v>
+        <v>0.24</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>24698</t>
+          <t>35477</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>24622</t>
+          <t>35404</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>CARIORTA</t>
+          <t>PANETTO</t>
         </is>
       </c>
       <c r="O21" t="n">
-        <v>2001012</v>
+        <v>2000307</v>
       </c>
       <c r="P21" t="n">
         <v>99999</v>
@@ -2022,17 +2018,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>pao-frances-panetto-60g-com-4-unidades-96318</t>
+          <t>ovos-vermelhos-caipira-happy-eggs-com-20-unidades-370550</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Pão Francês Panetto  60g Com 4 unidades</t>
+          <t>Ovos Vermelhos Caipira Happy Eggs Com 20 Unidades</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>96318</t>
+          <t>370550</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
@@ -2044,44 +2040,44 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2024-01-31T00:00:00Z</t>
+          <t>2020-09-27T00:00:00Z</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3307700/VF4qT-qqCUAAAAAAAAWnXQ.jpg?v=638932898013670000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4343192/VF4qT-qqCUAAAAAAAAn9QA.jpg?v=638956617627730000</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K23" t="n">
-        <v>0.24</v>
+        <v>1</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>35477</t>
+          <t>6939</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>35404</t>
+          <t>6957</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>PANETTO</t>
+          <t>HAPPY EGGS</t>
         </is>
       </c>
       <c r="O23" t="n">
-        <v>2000307</v>
+        <v>2003319</v>
       </c>
       <c r="P23" t="n">
         <v>99999</v>
@@ -2090,39 +2086,43 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ovos-vermelhos-caipira-happy-eggs-com-20-unidades-370550</t>
+          <t>pao-de-forma-plus-vita-tradicional-500-g-252921</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Ovos Vermelhos Caipira Happy Eggs Com 20 Unidades</t>
+          <t>Pão de Forma Tradicional Plusvita 480g</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>370550</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
+          <t>252921</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Versátil, prático e para qualquer momento, trazendo a energia necessária para o seu dia. Perfeito para sanduíches, torradas, receitas para o café da manhã, café da tarde, almoço e jantar</t>
+        </is>
+      </c>
       <c r="E24" t="n">
-        <v>24.99</v>
+        <v>9.98</v>
       </c>
       <c r="F24" t="n">
-        <v>24.99</v>
+        <v>9.98</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>183</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2020-09-27T00:00:00Z</t>
+          <t>2020-10-05T00:00:00Z</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4343192/VF4qT-qqCUAAAAAAAAn9QA.jpg?v=638956617627730000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3663691/VF4qT-qqCUAAAAAAAAb-gA.jpg?v=638592874910030000</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -2135,21 +2135,21 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>6939</t>
+          <t>9715</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>6957</t>
+          <t>9727</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>HAPPY EGGS</t>
+          <t>PLUS VITA</t>
         </is>
       </c>
       <c r="O24" t="n">
-        <v>2003319</v>
+        <v>2000316</v>
       </c>
       <c r="P24" t="n">
         <v>99999</v>
@@ -2158,43 +2158,43 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>morango-250g-289612</t>
+          <t>file-de-peito-de-frango-sadia-bandeja-1kg-290564</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Morango 250g</t>
+          <t>Filé de Peito de Frango Sadia Bandeja 1kg</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>289612</t>
+          <t>290564</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Embalagem com 250g "O morango é rico em vitamina C e, por isso, o consumo da fruta evita a fragilidade dos ossos e a má formação dos dentes. Ele também dá resistência aos tecidos, age contra infecções ajudando na cicatrização. O morango também possui, em menor quantidade, vitamina B5, conhecida como niacina. Ela tem a função de evitar problemas de pele, do aparelho digestivo e do sistema nervoso. Na fruta, também é encontrado ferro, que faz parte da formação do sangue."</t>
+          <t>Peito De Frango Em Filés Sadia Bandeja 1kg</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>9.99</v>
+        <v>24.99</v>
       </c>
       <c r="F25" t="n">
-        <v>9.99</v>
+        <v>26.99</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>125</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2020-09-26T00:00:00Z</t>
+          <t>2020-09-29T00:00:00Z</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3226559/VF4qT-qqCUAAAAAAAAHKNA.jpg?v=638352676547800000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3538840/VF4qT-qqCUAAAAAAAAa5gg.jpg?v=638550537679130000</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2207,21 +2207,21 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>5152</t>
+          <t>7</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>5168</t>
+          <t>7</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>SADIA</t>
         </is>
       </c>
       <c r="O25" t="n">
-        <v>2000015</v>
+        <v>2000057</v>
       </c>
       <c r="P25" t="n">
         <v>99999</v>
@@ -2230,43 +2230,43 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>file-de-peito-de-frango-sadia-bandeja-1kg-290564</t>
+          <t>morango-250g-289612</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Filé de Peito de Frango Sadia Bandeja 1kg</t>
+          <t>Morango 250g</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>290564</t>
+          <t>289612</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Peito De Frango Em Filés Sadia Bandeja 1kg</t>
+          <t>Embalagem com 250g "O morango é rico em vitamina C e, por isso, o consumo da fruta evita a fragilidade dos ossos e a má formação dos dentes. Ele também dá resistência aos tecidos, age contra infecções ajudando na cicatrização. O morango também possui, em menor quantidade, vitamina B5, conhecida como niacina. Ela tem a função de evitar problemas de pele, do aparelho digestivo e do sistema nervoso. Na fruta, também é encontrado ferro, que faz parte da formação do sangue."</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>24.99</v>
+        <v>8.99</v>
       </c>
       <c r="F26" t="n">
-        <v>26.99</v>
+        <v>9.99</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2020-09-29T00:00:00Z</t>
+          <t>2020-09-26T00:00:00Z</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3538840/VF4qT-qqCUAAAAAAAAa5gg.jpg?v=638550537679130000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3226559/VF4qT-qqCUAAAAAAAAHKNA.jpg?v=638352676547800000</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2279,21 +2279,21 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5152</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5168</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>SADIA</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O26" t="n">
-        <v>2000057</v>
+        <v>2000015</v>
       </c>
       <c r="P26" t="n">
         <v>99999</v>
@@ -2302,43 +2302,43 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>farinha-de-trigo-dona-benta-1kg-105287</t>
+          <t>azeite-italiano-extra-virgem-due-500ml-5472040</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Farinha De Trigo Dona Benta 1kg</t>
+          <t>Azeite Italiano Extravirgem Due 500ml</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>105287</t>
+          <t>5472040</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Farinha De Trigo Dona Benta 1kg</t>
+          <t>O azeite Due é um blend de azeites do Mediterrâneo que confere um resultado clássico e ideal para o cotidiano da cozinha. Sua elaboração conta com uma seleção cautelosamente realizada pelo Expert em Azeites e Temperos Marcelo Scofano, que anualmente viaja à Toscana (Itália), onde o azeite é produzido, para cuidar de cada detalhe pessoalmente.Due é um azeite clássico, ideal para o dia a dia da cozinha: marinados, refogados, emulsão de molhos, finalização de saladas, massas e pratos do cotidiano. O azeite clássico é extraído de azeitonas maduras. Possui sabor amendoado, com notas amargas e picantes em equilíbrio.O azeite Due faz parte da grupo de marcas exclusivas Zona Sul, criada e pensada com carinho para os cariocas de coração. O planejamento de cada produto exclusivo conta com a participação dos Experts Zona Sul em todo o processo, até chegar na sua mesa. E com a linha Due não é diferente!</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>7.99</v>
+        <v>29.98</v>
       </c>
       <c r="F27" t="n">
-        <v>7.99</v>
+        <v>36.9</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>597</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2020-07-06T00:00:00Z</t>
+          <t>2025-05-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3079291/VF4qT-qqCUAAAAAAAANuog.jpg?v=637897755804270000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4116721/VF4qT-qqCUAAAAAAAAiyjQ.jpg?v=638846625781330000</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -2351,21 +2351,21 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>40224</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>40151</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>DONA BENTA</t>
+          <t>DUE</t>
         </is>
       </c>
       <c r="O27" t="n">
-        <v>2000701</v>
+        <v>2005138</v>
       </c>
       <c r="P27" t="n">
         <v>99999</v>
@@ -2374,43 +2374,43 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>abobrinha-italiana-unidade-423513</t>
+          <t>farinha-de-trigo-dona-benta-1kg-105287</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Abobrinha Italiana Unidade</t>
+          <t>Farinha De Trigo Dona Benta 1kg</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>423513</t>
+          <t>105287</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Abobrinha Italiana Unidade</t>
+          <t>Farinha De Trigo Dona Benta 1kg</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>2.1</v>
+        <v>7.99</v>
       </c>
       <c r="F28" t="n">
-        <v>2.1</v>
+        <v>7.99</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>63</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2020-12-07T00:00:00Z</t>
+          <t>2020-07-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3095398/VF4qT-qqCUAAAAAAAASlGA.jpg?v=638211351178300000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3079291/VF4qT-qqCUAAAAAAAANuog.jpg?v=637897755804270000</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2423,21 +2423,21 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>16065</t>
+          <t>31</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>15956</t>
+          <t>31</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>DONA BENTA</t>
         </is>
       </c>
       <c r="O28" t="n">
-        <v>2000015</v>
+        <v>2000701</v>
       </c>
       <c r="P28" t="n">
         <v>99999</v>
@@ -2446,43 +2446,43 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>azeite-italiano-extra-virgem-due-500ml-5472040</t>
+          <t>abobrinha-italiana-unidade-423513</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Azeite Italiano Extravirgem Due 500ml</t>
+          <t>Abobrinha Italiana Unidade</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>5472040</t>
+          <t>423513</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>O azeite Due é um blend de azeites do Mediterrâneo que confere um resultado clássico e ideal para o cotidiano da cozinha. Sua elaboração conta com uma seleção cautelosamente realizada pelo Expert em Azeites e Temperos Marcelo Scofano, que anualmente viaja à Toscana (Itália), onde o azeite é produzido, para cuidar de cada detalhe pessoalmente.Due é um azeite clássico, ideal para o dia a dia da cozinha: marinados, refogados, emulsão de molhos, finalização de saladas, massas e pratos do cotidiano. O azeite clássico é extraído de azeitonas maduras. Possui sabor amendoado, com notas amargas e picantes em equilíbrio.O azeite Due faz parte da grupo de marcas exclusivas Zona Sul, criada e pensada com carinho para os cariocas de coração. O planejamento de cada produto exclusivo conta com a participação dos Experts Zona Sul em todo o processo, até chegar na sua mesa. E com a linha Due não é diferente!</t>
+          <t>Abobrinha Italiana Unidade</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>29.98</v>
+        <v>1.75</v>
       </c>
       <c r="F29" t="n">
-        <v>36.9</v>
+        <v>2.1</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>53</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-05-06T00:00:00Z</t>
+          <t>2020-12-07T00:00:00Z</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4116721/VF4qT-qqCUAAAAAAAAiyjQ.jpg?v=638846625781330000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3095398/VF4qT-qqCUAAAAAAAASlGA.jpg?v=638211351178300000</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2495,24 +2495,24 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>40224</t>
+          <t>16065</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>40151</t>
+          <t>15956</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>DUE</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O29" t="n">
-        <v>2005138</v>
+        <v>2000015</v>
       </c>
       <c r="P29" t="n">
-        <v>100</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="30">
@@ -2590,73 +2590,73 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>cebola-roxa-400g-38393</t>
+          <t>papel-higienico-folha-tripla-neve-supreme-dermacare-pacote-leve-16-pague-15-unidades-981168</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Cebola Roxa 400g</t>
+          <t>Papel Higiênico Folha Tripla Neve Supreme Dermacare Pacote Leve 16 Pague 15 Unidades</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>38393</t>
+          <t>981168</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Embalagem com 2 a 3 unidades. Melhor para comer cru; Use : no guacamole, em conserva, na salada, no sanduíche.</t>
+          <t>Papel higiênico neutro folha tripla de alta qualidade. Neve quer ajudar as pessoas a cuidarem de si, por isso desenvolveu um produto que proporciona maciez insuperável com mais absorção e resistência.</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>7.69</v>
+        <v>28.98</v>
       </c>
       <c r="F31" t="n">
-        <v>7.69</v>
+        <v>32.19</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>14</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2020-09-26T00:00:00Z</t>
+          <t>2020-09-22T00:00:00Z</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3081506/VF4qT-qqCUAAAAAAAAOBng.jpg?v=637947101712670000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4430737/VF4qT-qqCUAAAAAAAAoMMw.jpg?v=639014499358300000</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K31" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>5543</t>
+          <t>1262</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>5559</t>
+          <t>1269</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>NEVE</t>
         </is>
       </c>
       <c r="O31" t="n">
-        <v>2000015</v>
+        <v>2000291</v>
       </c>
       <c r="P31" t="n">
-        <v>100</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="32">
@@ -2734,33 +2734,33 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>pessego-nacional-500g-12408</t>
+          <t>cebola-roxa-400g-38393</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Pêssego Nacional 600g</t>
+          <t>Cebola Roxa 400g</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>12408</t>
+          <t>38393</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Pêssego Nacional 500g</t>
+          <t>Embalagem com 2 a 3 unidades. Melhor para comer cru; Use : no guacamole, em conserva, na salada, no sanduíche.</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>10.99</v>
+        <v>7.69</v>
       </c>
       <c r="F33" t="n">
-        <v>10.99</v>
+        <v>7.69</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -2770,7 +2770,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3092387/VF4qT-qqCUAAAAAAAAFvOA.jpg?v=638151904193130000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3081506/VF4qT-qqCUAAAAAAAAOBng.jpg?v=637947101712670000</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2779,16 +2779,16 @@
         </is>
       </c>
       <c r="K33" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>5122</t>
+          <t>5543</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>5138</t>
+          <t>5559</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -2806,43 +2806,43 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>la-de-aco-bombril-com-6-unidades-45g-1180320</t>
+          <t>oleo-de-soja-liza-900ml-127310</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Lã de Aço Bombril com 6 Unidades 45g</t>
+          <t>Óleo De Soja Liza 900ml</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1180320</t>
+          <t>127310</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Uso: Ideal para limpeza de panelas, utensílios de cozinha, superfícies metálicas e outras áreas que necessitam de uma limpeza mais intensa.Remove sujeiras difíceis, incluindo resíduos de alimentos queimados e ferrugem.</t>
+          <t>Óleo De Soja Liza 900ml</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>2.99</v>
+        <v>8.59</v>
       </c>
       <c r="F34" t="n">
-        <v>2.99</v>
+        <v>8.59</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>576</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-07-17T00:00:00Z</t>
+          <t>2020-09-15T00:00:00Z</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4216409/VF4qT-qqCUAAAAAAAAko5g.jpg?v=638889221726300000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3075849/VF4qT-qqCUAAAAAAAAIxqw.jpg?v=637877802666600000</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2855,138 +2855,138 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>41130</t>
+          <t>127</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>41057</t>
+          <t>132</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>BOMBRIL</t>
+          <t>LIZA</t>
         </is>
       </c>
       <c r="O34" t="n">
-        <v>2001389</v>
+        <v>2000067</v>
       </c>
       <c r="P34" t="n">
-        <v>100</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>papel-higienico-folha-tripla-neve-supreme-dermacare-pacote-leve-16-pague-15-unidades-981168</t>
+          <t>pessego-nacional-500g-12408</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Papel Higiênico Folha Tripla Neve Supreme Dermacare Pacote Leve 16 Pague 15 Unidades</t>
+          <t>Pêssego Nacional 600g</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>981168</t>
+          <t>12408</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Papel higiênico neutro folha tripla de alta qualidade. Neve quer ajudar as pessoas a cuidarem de si, por isso desenvolveu um produto que proporciona maciez insuperável com mais absorção e resistência.</t>
+          <t>Pêssego Nacional 500g</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>28.98</v>
+        <v>8.99</v>
       </c>
       <c r="F35" t="n">
-        <v>32.19</v>
+        <v>10.99</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2020-09-22T00:00:00Z</t>
+          <t>2020-09-26T00:00:00Z</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4430737/VF4qT-qqCUAAAAAAAAoMMw.jpg?v=639014499358300000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3092387/VF4qT-qqCUAAAAAAAAFvOA.jpg?v=638151904193130000</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K35" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>1262</t>
+          <t>5122</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>1269</t>
+          <t>5138</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>NEVE</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O35" t="n">
-        <v>2000291</v>
+        <v>2000015</v>
       </c>
       <c r="P35" t="n">
-        <v>99999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>oleo-de-soja-liza-900ml-127310</t>
+          <t>coentro-unidade-200930</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Óleo De Soja Liza 900ml</t>
+          <t>Coentro Unidade</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>127310</t>
+          <t>200930</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Óleo De Soja Liza 900ml</t>
+          <t>Coentro Unidade</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>8.59</v>
+        <v>2.49</v>
       </c>
       <c r="F36" t="n">
-        <v>8.59</v>
+        <v>3.39</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2020-09-15T00:00:00Z</t>
+          <t>2020-09-28T00:00:00Z</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3075849/VF4qT-qqCUAAAAAAAAIxqw.jpg?v=637877802666600000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3076728/VF4qT-qqCUAAAAAAAAGF4g.jpg?v=637877840364830000</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2999,21 +2999,21 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>7408</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>7427</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>LIZA</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O36" t="n">
-        <v>2000067</v>
+        <v>2000015</v>
       </c>
       <c r="P36" t="n">
         <v>99999</v>
@@ -3022,70 +3022,70 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>abobora-japonesa-pedaco-500g-38229</t>
+          <t>la-de-aco-bombril-com-6-unidades-45g-1180320</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Abóbora Japonesa Pedaço 500g</t>
+          <t>Lã de Aço Bombril com 6 Unidades 45g</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>38229</t>
+          <t>1180320</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Embalagem com 1 pedaço.</t>
+          <t>Uso: Ideal para limpeza de panelas, utensílios de cozinha, superfícies metálicas e outras áreas que necessitam de uma limpeza mais intensa.Remove sujeiras difíceis, incluindo resíduos de alimentos queimados e ferrugem.</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>5.29</v>
+        <v>2.99</v>
       </c>
       <c r="F37" t="n">
-        <v>5.29</v>
+        <v>2.99</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>78</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2020-09-26T00:00:00Z</t>
+          <t>2025-07-17T00:00:00Z</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3096862/VF4qT-qqCUAAAAAAAAS9Tw.jpg?v=638235593168230000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4216409/VF4qT-qqCUAAAAAAAAko5g.jpg?v=638889221726300000</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K37" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>5593</t>
+          <t>41130</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>5609</t>
+          <t>41057</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>BOMBRIL</t>
         </is>
       </c>
       <c r="O37" t="n">
-        <v>2000015</v>
+        <v>2001389</v>
       </c>
       <c r="P37" t="n">
         <v>99999</v>
@@ -3094,26 +3094,26 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>coentro-unidade-200930</t>
+          <t>espinafre-unidade-200948</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Coentro Unidade</t>
+          <t>Espinafre Unidade</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>200930</t>
+          <t>200948</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Coentro Unidade</t>
+          <t>O espinafre é uma hortaliça saborosa, rica em ferro e também é fonte de vitamina A e B2, além de fornecer cálcio, fósforo, potássio e magnésio, é indicado também para pessoas com anemia e desnutrição.Como conservar :Sob refrigeração, pode ser mantido por no máximo 5 dias. Antes de colocálo na geladeira, lave as folhas, escorra o excesso de água e coloqueo em sacos de plástico perfurados ou em vasilha de plástico.Como consumir :O espinafre também pode ser usado em saladas, sopas,suflês omeletes. É ótimo como recheio ou acompanhamento de massas como macarrão, quiche, tortas, pastéis e assados. [Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>3.39</v>
+        <v>2.49</v>
       </c>
       <c r="F38" t="n">
         <v>3.39</v>
@@ -3130,7 +3130,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3076728/VF4qT-qqCUAAAAAAAAGF4g.jpg?v=637877840364830000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3076729/VF4qT-qqCUAAAAAAAAKBdQ.jpg?v=637877840409270000</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -3143,12 +3143,12 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>7408</t>
+          <t>7464</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>7427</t>
+          <t>7483</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -3166,43 +3166,43 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>espinafre-unidade-200948</t>
+          <t>detergente-para-loucas-biodegradavel-limpol-neutro-500-ml-100510</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Espinafre Unidade</t>
+          <t>Detergente Para Louças Biodegradável Limpol Neutro 500ml</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>200948</t>
+          <t>100510</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>O espinafre é uma hortaliça saborosa, rica em ferro e também é fonte de vitamina A e B2, além de fornecer cálcio, fósforo, potássio e magnésio, é indicado também para pessoas com anemia e desnutrição.Como conservar :Sob refrigeração, pode ser mantido por no máximo 5 dias. Antes de colocálo na geladeira, lave as folhas, escorra o excesso de água e coloqueo em sacos de plástico perfurados ou em vasilha de plástico.Como consumir :O espinafre também pode ser usado em saladas, sopas,suflês omeletes. É ótimo como recheio ou acompanhamento de massas como macarrão, quiche, tortas, pastéis e assados. [Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
+          <t>O Lava-Louças Limpol é eficiente no poder da limpeza, remoção da gordura e sujeiras e no combate aos maus odores indesejados da cozinha. Sua fórmula é dermatologicamente testada e contém glicerina, tornando-a mais suave para as mãos.</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>3.39</v>
+        <v>2.79</v>
       </c>
       <c r="F39" t="n">
-        <v>3.39</v>
+        <v>2.79</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>76</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2020-09-28T00:00:00Z</t>
+          <t>2020-10-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3076729/VF4qT-qqCUAAAAAAAAKBdQ.jpg?v=637877840409270000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3269221/12054_1.jpg?v=638386029717470000</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -3215,21 +3215,21 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>7464</t>
+          <t>12054</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>7483</t>
+          <t>12081</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>LIMPOL</t>
         </is>
       </c>
       <c r="O39" t="n">
-        <v>2000015</v>
+        <v>2001413</v>
       </c>
       <c r="P39" t="n">
         <v>99999</v>
@@ -3238,70 +3238,70 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>refrigerante-coca-cola-sem-acucar-pet-600-ml-429392</t>
+          <t>abobora-japonesa-pedaco-500g-38229</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Refrigerante Coca Cola Sem Açúcar Pet 600ml</t>
+          <t>Abóbora Japonesa Pedaço 500g</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>429392</t>
+          <t>38229</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>A Coca-Cola Sem Açúcar é um refrigerante que não contém calorias! Com certeza você já se perguntou: “Então, de onde vem aquele gostinho doce? ” A Coca-Cola Sem Açúcar é produzida especialmente com adoçantes para manter o delicioso sabor de Coca-Cola porém com 0% Açucar. Perfeita para matar sua sede a qualquer hora do dia!</t>
+          <t>Embalagem com 1 pedaço.</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>5.69</v>
+        <v>5.29</v>
       </c>
       <c r="F40" t="n">
-        <v>5.69</v>
+        <v>5.29</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>53</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2020-10-01T00:00:00Z</t>
+          <t>2020-09-26T00:00:00Z</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4483407/VF4qT-qqCUAAAAAAAAoapA.jpg?v=639052524553700000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3096862/VF4qT-qqCUAAAAAAAAS9Tw.jpg?v=638235593168230000</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K40" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>8816</t>
+          <t>5593</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>8828</t>
+          <t>5609</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>COCA COLA</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O40" t="n">
-        <v>2000027</v>
+        <v>2000015</v>
       </c>
       <c r="P40" t="n">
         <v>99999</v>
@@ -3310,43 +3310,43 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>pao-de-queijo-forno-de-minas-tradicional--400-g-456110</t>
+          <t>refrigerante-coca-cola-sem-acucar-pet-600-ml-429392</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Pão De Queijo Forno De Minas Tradicional 400g</t>
+          <t>Refrigerante Coca Cola Sem Açúcar Pet 600ml</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>456110</t>
+          <t>429392</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Pão De Queijo Forno De Minas Tradicional 400g</t>
+          <t>A Coca-Cola Sem Açúcar é um refrigerante que não contém calorias! Com certeza você já se perguntou: “Então, de onde vem aquele gostinho doce? ” A Coca-Cola Sem Açúcar é produzida especialmente com adoçantes para manter o delicioso sabor de Coca-Cola porém com 0% Açucar. Perfeita para matar sua sede a qualquer hora do dia!</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>21.99</v>
+        <v>5.69</v>
       </c>
       <c r="F41" t="n">
-        <v>21.99</v>
+        <v>5.69</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2020-10-20T00:00:00Z</t>
+          <t>2020-10-01T00:00:00Z</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3041185/VF4qT-qqCUAAAAAAAAHIag.jpg?v=637792557833470000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4483407/VF4qT-qqCUAAAAAAAAoapA.jpg?v=639052524553700000</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -3359,21 +3359,21 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>13544</t>
+          <t>8816</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>13564</t>
+          <t>8828</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>FORNO MINAS</t>
+          <t>COCA COLA</t>
         </is>
       </c>
       <c r="O41" t="n">
-        <v>2001500</v>
+        <v>2000027</v>
       </c>
       <c r="P41" t="n">
         <v>99999</v>
@@ -3382,43 +3382,43 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>detergente-para-loucas-biodegradavel-limpol-neutro-500-ml-100510</t>
+          <t>pao-de-queijo-forno-de-minas-tradicional--400-g-456110</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Detergente Para Louças Biodegradável Limpol Neutro 500ml</t>
+          <t>Pão De Queijo Forno De Minas Tradicional 400g</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>100510</t>
+          <t>456110</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>O Lava-Louças Limpol é eficiente no poder da limpeza, remoção da gordura e sujeiras e no combate aos maus odores indesejados da cozinha. Sua fórmula é dermatologicamente testada e contém glicerina, tornando-a mais suave para as mãos.</t>
+          <t>Pão De Queijo Forno De Minas Tradicional 400g</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>2.79</v>
+        <v>21.99</v>
       </c>
       <c r="F42" t="n">
-        <v>2.79</v>
+        <v>21.99</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>119</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2020-10-06T00:00:00Z</t>
+          <t>2020-10-20T00:00:00Z</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3269221/12054_1.jpg?v=638386029717470000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3041185/VF4qT-qqCUAAAAAAAAHIag.jpg?v=637792557833470000</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -3431,24 +3431,24 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>12054</t>
+          <t>13544</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>12081</t>
+          <t>13564</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>LIMPOL</t>
+          <t>FORNO MINAS</t>
         </is>
       </c>
       <c r="O42" t="n">
-        <v>2001413</v>
+        <v>2001500</v>
       </c>
       <c r="P42" t="n">
-        <v>99999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43">
@@ -3598,43 +3598,43 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>cereja-chilena-300g-13463</t>
+          <t>alho-roxo-cariorta-4-a-5-unidades-250g-99279</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Cereja Chilena 300g</t>
+          <t>Alho Roxo Cariorta 4 a 5 unidades 250g</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>13463</t>
+          <t>99279</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>As cerejas chilenas vão deleitar seu paladar com seu doce e suculento sabor. Sua cor intensa, que varia do vermelho vibrante a tonalidades mais escuras, é um banquete para os olhos e o sinal dos inúmeros benefícios à saúde. Essa pequena fruta é uma fonte nutricional completa, com vitaminas essenciais como a C e a E, além de minerais como o ferro, potássio e magnésio. A cerejas podem ser consumidas frescas, no preparo de conservas, sobremesas e tortas e são classificadas por tamanho e nós só trazemos as mais graúdas especialmente para você!</t>
+          <t>Cariorta selecionados de coração.</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>69.90000000000001</v>
+        <v>59.99</v>
       </c>
       <c r="F45" t="n">
-        <v>69.90000000000001</v>
+        <v>59.99</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>480</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2020-09-26T00:00:00Z</t>
+          <t>2020-05-27T00:00:00Z</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4434078/VF4qT-qqCUAAAAAAAAoONQ.jpg?v=639019170859200000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3082698/VF4qT-qqCUAAAAAAAAOOtg.jpg?v=637980006345970000</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -3643,25 +3643,25 @@
         </is>
       </c>
       <c r="K45" t="n">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>5090</t>
+          <t>24684</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>5106</t>
+          <t>24608</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>CARIORTA</t>
         </is>
       </c>
       <c r="O45" t="n">
-        <v>2000015</v>
+        <v>2001012</v>
       </c>
       <c r="P45" t="n">
         <v>99999</v>
@@ -3670,70 +3670,70 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>saponaceo-cremoso-cif-limpeza-milagrosa-450ml-781266</t>
+          <t>cereja-chilena-300g-13463</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>CIF Cremoso Limpeza Milagrosa remove 100% da sujeira 450 ml</t>
+          <t>Cereja Chilena 300g</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>781266</t>
+          <t>13463</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>• Cif Cremoso Original é o produto de limpeza milagrosa que limpa fácil e dá brilho em mais de 100 superfícies*, removendo 100% da sujeira difícil, sem esforço • O Cif Cremoso Original possui um perfume suave, é mais concentrado e rende 7 garrafas do limpador comum • Fórmula com tecnologia poderosa que limpa sem riscar, removendo toda a sujeira desde a mais pesada até a limpeza de casa do dia a dia, deixando um brilho imbatível • Com o Cif, a limpeza nunca foi tão fácil e versátil. Cif Cremoso possui três variantes: Original, Limão e Laranja • Cif Cremoso Original é o produto de limpeza milagrosa para todo tipo de objeto como: eletrodomésticos, pias, couro sintético, borracha, plástico, porcelana e serve até como limpador de pisos • Cif promove uma limpeza milagrosa completa, com produtos versáteis que atendem a todas as suas necessidades. Cif. Sinta a limpeza acontecer! Cif Cremoso Original 450 ml é o produto de limpeza milagroso que limpa fácil e dá brilho em mais de 100 superfícies*, removendo 100% da sujeira difícil, sem esforço. O higienizador de casa cremoso é mais concentrado e rende 7 garrafas do limpador comum**. Sua fórmula, poderosa, limpa sem riscar***, removendo toda a sujeira desde a mais pesada até a limpeza de casa do dia a dia, deixando um brilho imbatível. Limpe toda sua casa usando o Cif Cremoso Original, que limpa todo tipo de objeto, como eletrodomésticos, potes plásticos, pias, brinquedos das crianças, persianas, pisos e até ajuda a deixar aquele cabo de carregador de celular como novo! Com o Limpador Cif, a limpeza nunca foi tão fácil e versátil. A linha do milagroso Cif Cremoso possui outras variedades de perfumes, como Laranja e Limão, que se adaptam ao seu estilo. Conheça a linha completa de produtos de limpeza Cif que não podem ficar de fora da sua lista de material de limpeza. Use também: Cif Cozinha, Cif Derrete Gordura, Cif Banheiro, Cif Tira Limo Com Cloro, Cif Vidros, Cif Cremoso e muito mais. Cif: Sinta a limpeza acontecer! Modo de usar: 1. Agite antes de usar. 2. Aplique uma pequena quantidade do produto sobre uma esponja ou pano úmido. 3. Esfregue a superfície suavemente até eliminar a sujeira. 4. Passe um pano úmido para finalizar. 5. Feche a embalagem após o uso. *Consulte lista das superfícies em www.ciflimpadores.com.br **Manchas de sabão e gordura queimada, comparado com limpadores comuns do mercado. Consulte a diferença de preços entre produtos. ***Não usar esponja ácida, como palha de aço, para a limpeza de vidros. A imagem do produto é meramente ilustrativa e o rótulo pode variar. Será enviada a embalagem disponível no momento da compra.</t>
+          <t>As cerejas chilenas vão deleitar seu paladar com seu doce e suculento sabor. Sua cor intensa, que varia do vermelho vibrante a tonalidades mais escuras, é um banquete para os olhos e o sinal dos inúmeros benefícios à saúde. Essa pequena fruta é uma fonte nutricional completa, com vitaminas essenciais como a C e a E, além de minerais como o ferro, potássio e magnésio. A cerejas podem ser consumidas frescas, no preparo de conservas, sobremesas e tortas e são classificadas por tamanho e nós só trazemos as mais graúdas especialmente para você!</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>18.99</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="F46" t="n">
-        <v>18.99</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2020-10-06T00:00:00Z</t>
+          <t>2020-09-26T00:00:00Z</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3640099/VF4qT-qqCUAAAAAAAAbyew.jpg?v=638585098972800000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4434078/VF4qT-qqCUAAAAAAAAoONQ.jpg?v=639019170859200000</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K46" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>11602</t>
+          <t>5090</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>11625</t>
+          <t>5106</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>CIF</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O46" t="n">
-        <v>2000541</v>
+        <v>2000015</v>
       </c>
       <c r="P46" t="n">
         <v>99999</v>
@@ -3742,115 +3742,115 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>alho-roxo-cariorta-4-a-5-unidades-250g-99279</t>
+          <t>saponaceo-cremoso-cif-limpeza-milagrosa-450ml-781266</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Alho Roxo Cariorta 4 a 5 unidades 250g</t>
+          <t>CIF Cremoso Limpeza Milagrosa remove 100% da sujeira 450 ml</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>99279</t>
+          <t>781266</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Cariorta selecionados de coração.</t>
+          <t>• Cif Cremoso Original é o produto de limpeza milagrosa que limpa fácil e dá brilho em mais de 100 superfícies*, removendo 100% da sujeira difícil, sem esforço • O Cif Cremoso Original possui um perfume suave, é mais concentrado e rende 7 garrafas do limpador comum • Fórmula com tecnologia poderosa que limpa sem riscar, removendo toda a sujeira desde a mais pesada até a limpeza de casa do dia a dia, deixando um brilho imbatível • Com o Cif, a limpeza nunca foi tão fácil e versátil. Cif Cremoso possui três variantes: Original, Limão e Laranja • Cif Cremoso Original é o produto de limpeza milagrosa para todo tipo de objeto como: eletrodomésticos, pias, couro sintético, borracha, plástico, porcelana e serve até como limpador de pisos • Cif promove uma limpeza milagrosa completa, com produtos versáteis que atendem a todas as suas necessidades. Cif. Sinta a limpeza acontecer! Cif Cremoso Original 450 ml é o produto de limpeza milagroso que limpa fácil e dá brilho em mais de 100 superfícies*, removendo 100% da sujeira difícil, sem esforço. O higienizador de casa cremoso é mais concentrado e rende 7 garrafas do limpador comum**. Sua fórmula, poderosa, limpa sem riscar***, removendo toda a sujeira desde a mais pesada até a limpeza de casa do dia a dia, deixando um brilho imbatível. Limpe toda sua casa usando o Cif Cremoso Original, que limpa todo tipo de objeto, como eletrodomésticos, potes plásticos, pias, brinquedos das crianças, persianas, pisos e até ajuda a deixar aquele cabo de carregador de celular como novo! Com o Limpador Cif, a limpeza nunca foi tão fácil e versátil. A linha do milagroso Cif Cremoso possui outras variedades de perfumes, como Laranja e Limão, que se adaptam ao seu estilo. Conheça a linha completa de produtos de limpeza Cif que não podem ficar de fora da sua lista de material de limpeza. Use também: Cif Cozinha, Cif Derrete Gordura, Cif Banheiro, Cif Tira Limo Com Cloro, Cif Vidros, Cif Cremoso e muito mais. Cif: Sinta a limpeza acontecer! Modo de usar: 1. Agite antes de usar. 2. Aplique uma pequena quantidade do produto sobre uma esponja ou pano úmido. 3. Esfregue a superfície suavemente até eliminar a sujeira. 4. Passe um pano úmido para finalizar. 5. Feche a embalagem após o uso. *Consulte lista das superfícies em www.ciflimpadores.com.br **Manchas de sabão e gordura queimada, comparado com limpadores comuns do mercado. Consulte a diferença de preços entre produtos. ***Não usar esponja ácida, como palha de aço, para a limpeza de vidros. A imagem do produto é meramente ilustrativa e o rótulo pode variar. Será enviada a embalagem disponível no momento da compra.</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>59.99</v>
+        <v>18.99</v>
       </c>
       <c r="F47" t="n">
-        <v>59.99</v>
+        <v>18.99</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>74</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2020-05-27T00:00:00Z</t>
+          <t>2020-10-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3082698/VF4qT-qqCUAAAAAAAAOOtg.jpg?v=637980006345970000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3640099/VF4qT-qqCUAAAAAAAAbyew.jpg?v=638585098972800000</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K47" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>24684</t>
+          <t>11602</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>24608</t>
+          <t>11625</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>CARIORTA</t>
+          <t>CIF</t>
         </is>
       </c>
       <c r="O47" t="n">
-        <v>2001012</v>
+        <v>2000541</v>
       </c>
       <c r="P47" t="n">
-        <v>99999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>saponaceo-cremoso-cif-gratis-20-450-ml-839264</t>
+          <t>couve-manteiga-unidade-201235</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Saponáceo Cremoso Cif Grátis 20% 450ml</t>
+          <t>Couve Manteiga Unidade</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>839264</t>
+          <t>201235</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>• Multiuso Cremoso • 1 gota remove 100% da sujeira difícil • Limpa sem riscar com micropartículas de origem natural • Poderoso na limpeza, imbatível no cuidado • Use também em couro sintético, plástico, porcelana e borracha • Para toda casa CIF Multiuso Cremoso Original, possui uma fórmula exclusiva que limpa profundamente, removendo 100% da sujeira difícil, com apenas 1 gota. O limpador CIF Cremoso é mais concentrado e por isso pode render até 7 garrafas * dos limpadores comuns encontrados no mercado. Com sua tecnologia, o limpador de casa CIF Multiuso Cremoso Original é poderoso na limpeza e imbatível no cuidado. Sua formula com micropartículas de origem natural limpam, sem riscar, removendo toda a sujeira desde a mais pesada até a manutenção do dia a dia, deixando um brilho imbatível. Limpe toda sua casa usando o limpador multiuso CIF Multiuso Cremoso, que limpa mais de 100 objetos **, como fogão, micro-ondas, chinelos, panelas, geladeira, potes plásticos, pias, torneiras, sofá, máquina de lavar, brinquedos das crianças, persianas, utensílios de churrasco, talheres, ventilador e até ajuda a deixar aquele cabo de carregador de celular como novo! CIF é muito mais do que uma linha de produtos de limpeza, CIF é cuidado com a sua casa. A família de multiuso CIF Cremoso possui uma variedade de fragrâncias, sendo elas: Original, Laranja e Limão, todas super refrescantes e se adaptam ao seu estilo e à sua casa. CIF Multiuso Cremoso é um grande aliado na limpeza de casa, para mantê-la sempre limpa, bonita e bem cuidada, do jeito que você e sua família merecem. CIF é poderoso na limpeza e imbatível no cuidado pois sabemos que cada cantinho da sua casa merece limpeza e cuidado.</t>
+          <t>A couve é uma hortaliça muito rica em nutriente,cálcio, ferro e vitaminas A,C, K e B5.Como conservar:Em geladeira, inteira ou picada deve ser mantida em saco plástico fechado ou em vasilha de plástico tampada.Como consumir:Pode ser consumida crua, em saladas e sucos, refogada ou como ingrediente de sopas, farofas e cozidos.[ Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>14.99</v>
+        <v>2.49</v>
       </c>
       <c r="F48" t="n">
-        <v>14.99</v>
+        <v>3.39</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2020-10-06T00:00:00Z</t>
+          <t>2020-09-28T00:00:00Z</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3077844/839264_17.jpg?v=637895340530470000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3083631/VF4qT-qqCUAAAAAAAAOZOA.jpg?v=637994955185970000</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -3863,21 +3863,21 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>12274</t>
+          <t>7445</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>12301</t>
+          <t>7464</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>CIF</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O48" t="n">
-        <v>2000541</v>
+        <v>2000015</v>
       </c>
       <c r="P48" t="n">
         <v>99999</v>
@@ -3886,43 +3886,43 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>couve-manteiga-unidade-201235</t>
+          <t>saponaceo-cremoso-cif-gratis-20-450-ml-839264</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Couve Manteiga Unidade</t>
+          <t>Saponáceo Cremoso Cif Grátis 20% 450ml</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>201235</t>
+          <t>839264</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>A couve é uma hortaliça muito rica em nutriente,cálcio, ferro e vitaminas A,C, K e B5.Como conservar:Em geladeira, inteira ou picada deve ser mantida em saco plástico fechado ou em vasilha de plástico tampada.Como consumir:Pode ser consumida crua, em saladas e sucos, refogada ou como ingrediente de sopas, farofas e cozidos.[ Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
+          <t>• Multiuso Cremoso • 1 gota remove 100% da sujeira difícil • Limpa sem riscar com micropartículas de origem natural • Poderoso na limpeza, imbatível no cuidado • Use também em couro sintético, plástico, porcelana e borracha • Para toda casa CIF Multiuso Cremoso Original, possui uma fórmula exclusiva que limpa profundamente, removendo 100% da sujeira difícil, com apenas 1 gota. O limpador CIF Cremoso é mais concentrado e por isso pode render até 7 garrafas * dos limpadores comuns encontrados no mercado. Com sua tecnologia, o limpador de casa CIF Multiuso Cremoso Original é poderoso na limpeza e imbatível no cuidado. Sua formula com micropartículas de origem natural limpam, sem riscar, removendo toda a sujeira desde a mais pesada até a manutenção do dia a dia, deixando um brilho imbatível. Limpe toda sua casa usando o limpador multiuso CIF Multiuso Cremoso, que limpa mais de 100 objetos **, como fogão, micro-ondas, chinelos, panelas, geladeira, potes plásticos, pias, torneiras, sofá, máquina de lavar, brinquedos das crianças, persianas, utensílios de churrasco, talheres, ventilador e até ajuda a deixar aquele cabo de carregador de celular como novo! CIF é muito mais do que uma linha de produtos de limpeza, CIF é cuidado com a sua casa. A família de multiuso CIF Cremoso possui uma variedade de fragrâncias, sendo elas: Original, Laranja e Limão, todas super refrescantes e se adaptam ao seu estilo e à sua casa. CIF Multiuso Cremoso é um grande aliado na limpeza de casa, para mantê-la sempre limpa, bonita e bem cuidada, do jeito que você e sua família merecem. CIF é poderoso na limpeza e imbatível no cuidado pois sabemos que cada cantinho da sua casa merece limpeza e cuidado.</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>3.39</v>
+        <v>14.99</v>
       </c>
       <c r="F49" t="n">
-        <v>3.39</v>
+        <v>14.99</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>74</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2020-09-28T00:00:00Z</t>
+          <t>2020-10-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3083631/VF4qT-qqCUAAAAAAAAOZOA.jpg?v=637994955185970000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3077844/839264_17.jpg?v=637895340530470000</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -3935,21 +3935,21 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>7445</t>
+          <t>12274</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>7464</t>
+          <t>12301</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>CIF</t>
         </is>
       </c>
       <c r="O49" t="n">
-        <v>2000015</v>
+        <v>2000541</v>
       </c>
       <c r="P49" t="n">
         <v>99999</v>

--- a/zonasul.xlsx
+++ b/zonasul.xlsx
@@ -518,39 +518,43 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>creme-de-leite-nestle-10--gratis-200g-1165151</t>
+          <t>matte-leao-limao-pet-1-5l-118222</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Creme de Leite Nestlé 10% Grátis 200g</t>
+          <t>Matte Leão Limão Pet 1,5L</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1165151</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
+          <t>118222</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>O Chá MATTE Limão Leão é um dos tipos de chás preferido dos consumidores. A marca Chá Mate Leão está presente no mercado há mais de 100 anos, sendo a marca de chá mais vendida e tradicional. Produzido com extrato aquoso de mate, açúcar e suco de limão, o Chá MATTE LEÃO Limão é a opção ideal para refrescar o seu dia! Compre e compartilhe com amigos e familiares!</t>
+        </is>
+      </c>
       <c r="E2" t="n">
-        <v>5.99</v>
+        <v>7.69</v>
       </c>
       <c r="F2" t="n">
-        <v>5.99</v>
+        <v>8.99</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-02-20T00:00:00Z</t>
+          <t>2020-10-01T00:00:00Z</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4395976/VF4qT-qqCUAAAAAAAAoEeQ.jpg?v=638984266226730000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3704455/VF4qT-qqCUAAAAAAAAcePQ.jpg?v=638609291270100000</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -563,21 +567,21 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>40151</t>
+          <t>8711</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>40078</t>
+          <t>8723</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>NESTLE</t>
+          <t>LEAO</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>2000043</v>
+        <v>2000010</v>
       </c>
       <c r="P2" t="n">
         <v>99999</v>
@@ -586,43 +590,39 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>rucula-unidade-201006</t>
+          <t>creme-de-leite-nestle-10--gratis-200g-1165151</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rúcula Unidade</t>
+          <t>Creme de Leite Nestlé 10% Grátis 200g</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>201006</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>A rúcula é uma hortaliça rica em sais minerais e vitaminas A e C, tem o sabor picante e cheiro agradável e acentuado. Como Conservar:A hortaliça pode ser mantida no máximo por um dia, desde que colocando em local fresco, com a parte de baixo em uma vasilha com água .Em Geladeira o produto deve ser condicionado em saco de plástico ou vasilha tampada.Como Consumir : A rúcula é tradicionalmente consumida crua em saladas, temperada com azeite, sal e limão. Também pode ser consumida como ingredientes de torta,quiche, lasanha, sanduíches e bolinhos. [ Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
-        </is>
-      </c>
+          <t>1165151</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
-        <v>2.49</v>
+        <v>5.99</v>
       </c>
       <c r="F3" t="n">
-        <v>3.39</v>
+        <v>5.99</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>71</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2020-09-28T00:00:00Z</t>
+          <t>2025-02-20T00:00:00Z</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3040890/VF4qT-qqCUAAAAAAAAHLpQ.jpg?v=637792545082200000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4395976/VF4qT-qqCUAAAAAAAAoEeQ.jpg?v=638984266226730000</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -635,21 +635,21 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>7467</t>
+          <t>40151</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>7486</t>
+          <t>40078</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>NESTLE</t>
         </is>
       </c>
       <c r="O3" t="n">
-        <v>2000015</v>
+        <v>2000043</v>
       </c>
       <c r="P3" t="n">
         <v>99999</v>
@@ -658,43 +658,43 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>refrigerante-coca-cola-sem-acucar-lata-350-ml-429376</t>
+          <t>alcool-montenegro-46-1-l-780570</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Refrigerante Coca Cola Sem Açúcar Lata 350ml</t>
+          <t>Álcool Montenegro 46% 1 L</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>429376</t>
+          <t>780570</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>A Coca-Cola Sem Açúcar é um refrigerante que não contém calorias! Com certeza você já se perguntou: “Então, de onde vem aquele gostinho doce? ” A Coca-Cola Sem Açúcar é produzida especialmente com adoçantes para manter o delicioso sabor de Coca-Cola porém com 0% Açucar. Uma Lata de Coca-Cola Sem Perfeita para matar sua sede a qualquer hora do dia!</t>
+          <t>Álcool Montenegro 46% 1 L</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3.99</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>3.99</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>74</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2020-10-01T00:00:00Z</t>
+          <t>2020-10-06T10:47:00Z</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4483405/VF4qT-qqCUAAAAAAAAoaow.jpg?v=639052524439630000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3051579/VF4qT-qqCUAAAAAAAAG3pQ.jpg?v=637793390624870000</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -707,21 +707,21 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>8817</t>
+          <t>11598</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>8829</t>
+          <t>11621</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>COCA COLA</t>
+          <t>MONTENEGRO</t>
         </is>
       </c>
       <c r="O4" t="n">
-        <v>2000027</v>
+        <v>2000527</v>
       </c>
       <c r="P4" t="n">
         <v>99999</v>
@@ -730,43 +730,43 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>alcool-montenegro-46-1-l-780570</t>
+          <t>refrigerante-coca-cola-sem-acucar-lata-350-ml-429376</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Álcool Montenegro 46% 1 L</t>
+          <t>Refrigerante Coca Cola Sem Açúcar Lata 350ml</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>780570</t>
+          <t>429376</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Álcool Montenegro 46% 1 L</t>
+          <t>A Coca-Cola Sem Açúcar é um refrigerante que não contém calorias! Com certeza você já se perguntou: “Então, de onde vem aquele gostinho doce? ” A Coca-Cola Sem Açúcar é produzida especialmente com adoçantes para manter o delicioso sabor de Coca-Cola porém com 0% Açucar. Uma Lata de Coca-Cola Sem Perfeita para matar sua sede a qualquer hora do dia!</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7.98</v>
+        <v>3.99</v>
       </c>
       <c r="F5" t="n">
-        <v>8.789999999999999</v>
+        <v>3.99</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2020-10-06T10:47:00Z</t>
+          <t>2020-10-01T00:00:00Z</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3051579/VF4qT-qqCUAAAAAAAAG3pQ.jpg?v=637793390624870000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4483405/VF4qT-qqCUAAAAAAAAoaow.jpg?v=639052524439630000</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -779,21 +779,21 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>11598</t>
+          <t>8817</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>11621</t>
+          <t>8829</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>MONTENEGRO</t>
+          <t>COCA COLA</t>
         </is>
       </c>
       <c r="O5" t="n">
-        <v>2000527</v>
+        <v>2000027</v>
       </c>
       <c r="P5" t="n">
         <v>99999</v>
@@ -874,61 +874,61 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>uva-preta-sem-semente-500-g-674583</t>
+          <t>mucarela-em-fatias-92363</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Uva Preta Sem Semente 500g</t>
+          <t>Muçarela  em Fatias 200g</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>674583</t>
+          <t>92363</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Eventualmente, devido à variações climáticas, essa variedade pode apresentar traços de sementes comestíveis As uvas são, sem dúvidas, uma das frutas mais nutritivas de todas. Apesar de seu tamanho relativamente pequeno, elas são extremamente poderosas nutricionalmente e consumilas é muito importante para o bom funcionamento do corpo.As calorias presentes nas uvas também são poucas: apenas 90 em cerca de 150g. Por isso, é uma ótima opção também para aqueles que estão em processo de redução da massa corporal, desde que consumida com cautela.Rica em antioxidantes que são responsáveis por ‘’limpar’’ e proteger as nossas células dos chamados radicais livres, compostos potencialmente perigosos que podem danificar essas estruturas.Os antioxidantes estão mais comumente presentes na casca da fruta, o que é indicado pela coloração delas. Quanto mais escuras, maior é a concentração desses compostos na uva. Os principais exemplos são os polifenois, e o mais famoso deles chamase resveratrol.</t>
+          <t>Muçarela em Fatias</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>10.99</v>
+        <v>59.9</v>
       </c>
       <c r="F7" t="n">
-        <v>11.99</v>
+        <v>59.9</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>83</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2020-09-26T00:00:00Z</t>
+          <t>2020-09-27T00:00:00Z</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3047035/VF4qT-qqCUAAAAAAAAGXCQ.jpg?v=637793205627670000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3052070/VF4qT-qqCUAAAAAAAAI4-w.jpg?v=637793416889100000</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>5264</t>
+          <t>1361</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>5280</t>
+          <t>1368</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -946,61 +946,61 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>mucarela-em-fatias-92363</t>
+          <t>uva-preta-sem-semente-500-g-674583</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Muçarela  em Fatias 200g</t>
+          <t>Uva Preta Sem Semente 500g</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>92363</t>
+          <t>674583</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Muçarela em Fatias</t>
+          <t>Eventualmente, devido à variações climáticas, essa variedade pode apresentar traços de sementes comestíveis As uvas são, sem dúvidas, uma das frutas mais nutritivas de todas. Apesar de seu tamanho relativamente pequeno, elas são extremamente poderosas nutricionalmente e consumilas é muito importante para o bom funcionamento do corpo.As calorias presentes nas uvas também são poucas: apenas 90 em cerca de 150g. Por isso, é uma ótima opção também para aqueles que estão em processo de redução da massa corporal, desde que consumida com cautela.Rica em antioxidantes que são responsáveis por ‘’limpar’’ e proteger as nossas células dos chamados radicais livres, compostos potencialmente perigosos que podem danificar essas estruturas.Os antioxidantes estão mais comumente presentes na casca da fruta, o que é indicado pela coloração delas. Quanto mais escuras, maior é a concentração desses compostos na uva. Os principais exemplos são os polifenois, e o mais famoso deles chamase resveratrol.</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>59.9</v>
+        <v>10.99</v>
       </c>
       <c r="F8" t="n">
-        <v>59.9</v>
+        <v>11.99</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2020-09-27T00:00:00Z</t>
+          <t>2020-09-26T00:00:00Z</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3052070/VF4qT-qqCUAAAAAAAAI4-w.jpg?v=637793416889100000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3047035/VF4qT-qqCUAAAAAAAAGXCQ.jpg?v=637793205627670000</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>1361</t>
+          <t>5264</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>1368</t>
+          <t>5280</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1037,7 +1037,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5.29</v>
+        <v>3.89</v>
       </c>
       <c r="F9" t="n">
         <v>5.29</v>
@@ -1090,43 +1090,43 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>leite-uht-piracanjuba-integral-1l-865427</t>
+          <t>tomate-italiano-unidade-495212</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Leite Uht Piracanjuba Integral 1L</t>
+          <t>Tomate Italiano Unidade</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>865427</t>
+          <t>495212</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>No café da manhã, em um delicioso lanche da tarde ou até mesmo antes de dormir, o Leite Piracanjuba cumpre bem o seu papel principal: trazer mais sabor para os seus momentos especiais e para as suas receitas. Mais sabor para todos os momentos.</t>
+          <t>Tomate Italiano Unidade</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5.59</v>
+        <v>1.18</v>
       </c>
       <c r="F10" t="n">
-        <v>5.59</v>
+        <v>1.53</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>53</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2017-04-12T00:00:00Z</t>
+          <t>2020-09-27T00:00:00Z</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3294485/VF4qT-qqCUAAAAAAAAWbgQ.jpg?v=638412300289570000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3094266/VF4qT-qqCUAAAAAAAASLmg.jpg?v=638191532599970000</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1139,21 +1139,21 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>23232</t>
+          <t>6965</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>23158</t>
+          <t>6983</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>PIRACANJUBA</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O10" t="n">
-        <v>2002038</v>
+        <v>2000015</v>
       </c>
       <c r="P10" t="n">
         <v>99999</v>
@@ -1234,43 +1234,43 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>tomate-italiano-unidade-495212</t>
+          <t>leite-uht-piracanjuba-integral-1l-865427</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Tomate Italiano Unidade</t>
+          <t>Leite Uht Piracanjuba Integral 1L</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>495212</t>
+          <t>865427</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Tomate Italiano Unidade</t>
+          <t>No café da manhã, em um delicioso lanche da tarde ou até mesmo antes de dormir, o Leite Piracanjuba cumpre bem o seu papel principal: trazer mais sabor para os seus momentos especiais e para as suas receitas. Mais sabor para todos os momentos.</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1.18</v>
+        <v>5.59</v>
       </c>
       <c r="F12" t="n">
-        <v>1.53</v>
+        <v>5.59</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>130</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2020-09-27T00:00:00Z</t>
+          <t>2017-04-12T00:00:00Z</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3094266/VF4qT-qqCUAAAAAAAASLmg.jpg?v=638191532599970000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3294485/VF4qT-qqCUAAAAAAAAWbgQ.jpg?v=638412300289570000</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1283,21 +1283,21 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>6965</t>
+          <t>23232</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>6983</t>
+          <t>23158</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>PIRACANJUBA</t>
         </is>
       </c>
       <c r="O12" t="n">
-        <v>2000015</v>
+        <v>2002038</v>
       </c>
       <c r="P12" t="n">
         <v>99999</v>
@@ -1306,43 +1306,43 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>cafe-torrado-e-moido-pilao-tradicional-500g-828025</t>
+          <t>manga-palmer-unidade-5130760</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Café Torrado E Moído Pilão Tradicional Fresh Pack 500g</t>
+          <t>Manga Palmer Unidade</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>828025</t>
+          <t>5130760</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Tem um ponto de torra acentuado e um processo de moagem fina e uniforme, que garantem e preservam seu sabor forte e encorpado.É perfeito para servir em dia de casa cheia, pois seu sabor tradicional agrada a todo mundo.</t>
+          <t>Manga Palmer Unidade</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>29.98</v>
+        <v>4.79</v>
       </c>
       <c r="F13" t="n">
-        <v>43.9</v>
+        <v>5.39</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2020-09-15T00:00:00Z</t>
+          <t>2023-02-16T00:00:00Z</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3051146/VF4qT-qqCUAAAAAAAAG1sQ.jpg?v=637793369863530000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3153453/VF4qT-qqCUAAAAAAAAUnKA.jpg?v=638319847497670000</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1355,21 +1355,21 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>31977</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>31902</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>PILAO</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O13" t="n">
-        <v>2000070</v>
+        <v>2000015</v>
       </c>
       <c r="P13" t="n">
         <v>99999</v>
@@ -1378,43 +1378,43 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>manga-palmer-unidade-5130760</t>
+          <t>guardanapo-folha-dupla-scott-grand-hotel-238cm×218cm-50-unidades-129879</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Manga Palmer Unidade</t>
+          <t>Guardanapo Folha Dupla Scott Grand Hotel 23,8cm×21,8cm 50 Unidades</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>5130760</t>
+          <t>129879</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Manga Palmer Unidade</t>
+          <t>Guardanapo Folha Dupla Scott Grand Hotel 23,8cm×21,8cm 50 Unidades</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4.79</v>
+        <v>6.19</v>
       </c>
       <c r="F14" t="n">
-        <v>5.39</v>
+        <v>6.19</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>111</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2023-02-16T00:00:00Z</t>
+          <t>2020-10-05T00:00:00Z</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3153453/VF4qT-qqCUAAAAAAAAUnKA.jpg?v=638319847497670000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3239421/VF4qT-qqCUAAAAAAAAVSfw.jpg?v=638362188224230000</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1427,21 +1427,21 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>31977</t>
+          <t>9426</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>31902</t>
+          <t>9438</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>GRANDE HOTEL</t>
         </is>
       </c>
       <c r="O14" t="n">
-        <v>2000015</v>
+        <v>2001400</v>
       </c>
       <c r="P14" t="n">
         <v>99999</v>
@@ -1450,43 +1450,43 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ovos-vermelhos-mantiqueira-happy-eggs-com-10-unidades-5106753</t>
+          <t>couve-flor-unidade-189111</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Ovos Vermelhos Mantiqueira Happy Eggs com 10 Unidades</t>
+          <t>Couve Flor Unidade</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>5106753</t>
+          <t>189111</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Produzidos por galinhas criadas livres de gaiolas. Garantia de Bem-Estar Animal. Ovos Vermelhos Tipo Grande Categoria A. Embalagem com 10 unidades.</t>
+          <t>A couveflor é uma hortaliça rica em cálcio e fósforo e fonte de ácido fólico e vitamina C . Como Conservar:Na geladeira pode ser conservada por 3 a 5 dias, dentro de saco plástico perfurado. Antes de guardar, remova as partes escuras e folhas, mas não lave a cabeça.Como Consumir:Pode ser consumida assada, frita ou cozinhe em água e sal. [Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>11.99</v>
+        <v>7.99</v>
       </c>
       <c r="F15" t="n">
-        <v>11.99</v>
+        <v>9.99</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>53</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2021-01-11T00:00:00Z</t>
+          <t>2020-09-28T00:00:00Z</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4222023/VF4qT-qqCUAAAAAAAAStHA.jpg?v=638894405636230000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3041615/VF4qT-qqCUAAAAAAAAGF4Q.jpg?v=637792579893500000</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1499,21 +1499,21 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>18105</t>
+          <t>7446</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>17997</t>
+          <t>7465</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>HAPPY EGGS</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O15" t="n">
-        <v>2003319</v>
+        <v>2000015</v>
       </c>
       <c r="P15" t="n">
         <v>99999</v>
@@ -1522,43 +1522,43 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>couve-flor-unidade-189111</t>
+          <t>ovos-vermelhos-mantiqueira-happy-eggs-com-10-unidades-5106753</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Couve Flor Unidade</t>
+          <t>Ovos Vermelhos Mantiqueira Happy Eggs com 10 Unidades</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>189111</t>
+          <t>5106753</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>A couveflor é uma hortaliça rica em cálcio e fósforo e fonte de ácido fólico e vitamina C . Como Conservar:Na geladeira pode ser conservada por 3 a 5 dias, dentro de saco plástico perfurado. Antes de guardar, remova as partes escuras e folhas, mas não lave a cabeça.Como Consumir:Pode ser consumida assada, frita ou cozinhe em água e sal. [Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
+          <t>Produzidos por galinhas criadas livres de gaiolas. Garantia de Bem-Estar Animal. Ovos Vermelhos Tipo Grande Categoria A. Embalagem com 10 unidades.</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>7.99</v>
+        <v>11.99</v>
       </c>
       <c r="F16" t="n">
-        <v>9.99</v>
+        <v>11.99</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2020-09-28T00:00:00Z</t>
+          <t>2021-01-11T00:00:00Z</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3041615/VF4qT-qqCUAAAAAAAAGF4Q.jpg?v=637792579893500000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4222023/VF4qT-qqCUAAAAAAAAStHA.jpg?v=638894405636230000</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1571,21 +1571,21 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>7446</t>
+          <t>18105</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>7465</t>
+          <t>17997</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>HAPPY EGGS</t>
         </is>
       </c>
       <c r="O16" t="n">
-        <v>2000015</v>
+        <v>2003319</v>
       </c>
       <c r="P16" t="n">
         <v>99999</v>
@@ -1594,43 +1594,43 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>guardanapo-folha-dupla-scott-grand-hotel-238cm×218cm-50-unidades-129879</t>
+          <t>abacaxi-unidade-221</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Guardanapo Folha Dupla Scott Grand Hotel 23,8cm×21,8cm 50 Unidades</t>
+          <t>Abacaxi Unidade</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>129879</t>
+          <t>221</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Guardanapo Folha Dupla Scott Grand Hotel 23,8cm×21,8cm 50 Unidades</t>
+          <t>Peso Aproximado 1,61,8Kg / Unidade.O Abacaxi é rico em Vitaminas A, B5, B6, C, BetaCaroteno, Tiamina, Antioxidantes e Fibras, auxiliando na saciedade e regulação do peso. É uma Importante fonte de energia póstreino. Auxilia nos processos antiinflamatórios por conter Bromelina, enzima encontrada principalmente no talo da fruta. Como preparar: no seu estado natural cortado, em saladas, assado, grelhado, sucos, geleias, sorvetes e chás.</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6.19</v>
+        <v>8.99</v>
       </c>
       <c r="F17" t="n">
-        <v>6.19</v>
+        <v>10.99</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2020-10-05T00:00:00Z</t>
+          <t>2020-09-26T00:00:00Z</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3239421/VF4qT-qqCUAAAAAAAAVSfw.jpg?v=638362188224230000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3041923/VF4qT-qqCUAAAAAAAAFtXw.jpg?v=637792593143530000</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1643,21 +1643,21 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>9426</t>
+          <t>4959</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>9438</t>
+          <t>4975</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>GRANDE HOTEL</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O17" t="n">
-        <v>2001400</v>
+        <v>2000015</v>
       </c>
       <c r="P17" t="n">
         <v>99999</v>
@@ -1666,48 +1666,48 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>abacaxi-unidade-221</t>
+          <t>limao-cariorta-1kg-98981</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Abacaxi Unidade</t>
+          <t>Limão Cariorta 1Kg</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>98981</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Peso Aproximado 1,61,8Kg / Unidade.O Abacaxi é rico em Vitaminas A, B5, B6, C, BetaCaroteno, Tiamina, Antioxidantes e Fibras, auxiliando na saciedade e regulação do peso. É uma Importante fonte de energia póstreino. Auxilia nos processos antiinflamatórios por conter Bromelina, enzima encontrada principalmente no talo da fruta. Como preparar: no seu estado natural cortado, em saladas, assado, grelhado, sucos, geleias, sorvetes e chás.</t>
+          <t>Cariorta selecionados de coração.</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>8.99</v>
+        <v>11.99</v>
       </c>
       <c r="F18" t="n">
-        <v>10.99</v>
+        <v>11.99</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>482</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2020-09-26T00:00:00Z</t>
+          <t>2020-05-20T00:00:00Z</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3041923/VF4qT-qqCUAAAAAAAAFtXw.jpg?v=637792593143530000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3084385/VF4qT-qqCUAAAAAAAAOgIg.jpg?v=638000868147970000</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K18" t="n">
@@ -1715,21 +1715,21 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>4959</t>
+          <t>24698</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>4975</t>
+          <t>24622</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>CARIORTA</t>
         </is>
       </c>
       <c r="O18" t="n">
-        <v>2000015</v>
+        <v>2001012</v>
       </c>
       <c r="P18" t="n">
         <v>99999</v>
@@ -1738,48 +1738,48 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>limao-cariorta-1kg-98981</t>
+          <t>detergente-para-loucas-odd-clear-500ml-982911</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Limão Cariorta 1Kg</t>
+          <t>Detergente Para Louças Odd Clear 500ml</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>98981</t>
+          <t>982911</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Cariorta selecionados de coração.</t>
+          <t>ODD voltou!Alto rendimento , controle de odor.</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>11.99</v>
+        <v>1.9</v>
       </c>
       <c r="F19" t="n">
-        <v>11.99</v>
+        <v>2.49</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>76</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2020-05-20T00:00:00Z</t>
+          <t>2020-10-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3084385/VF4qT-qqCUAAAAAAAAOgIg.jpg?v=638000868147970000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3056732/VF4qT-qqCUAAAAAAAAHzRQ.jpg?v=637793635376800000</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K19" t="n">
@@ -1787,21 +1787,21 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>24698</t>
+          <t>11872</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>24622</t>
+          <t>11898</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>CARIORTA</t>
+          <t>LIMPPANO</t>
         </is>
       </c>
       <c r="O19" t="n">
-        <v>2001012</v>
+        <v>2001341</v>
       </c>
       <c r="P19" t="n">
         <v>99999</v>
@@ -1810,85 +1810,85 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>papel-toalha-coquetel-19cm-x-19cm-com-2-rolos-com-60-folhas-cada-783242</t>
+          <t>pao-frances-panetto-60g-com-4-unidades-96318</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Papel Toalha Coquetel 19Cm X 19Cm com 2 Rolos com 60 Folhas Cada</t>
+          <t>Pão Francês Panetto  60g Com 4 unidades</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>783242</t>
+          <t>96318</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="n">
-        <v>6.99</v>
+        <v>24.99</v>
       </c>
       <c r="F20" t="n">
-        <v>6.99</v>
+        <v>24.99</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>89</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2020-10-06T00:00:00Z</t>
+          <t>2024-01-31T00:00:00Z</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3050348/VF4qT-qqCUAAAAAAAAJRgg.jpg?v=637793335676500000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3307700/VF4qT-qqCUAAAAAAAAWnXQ.jpg?v=638932898013670000</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K20" t="n">
-        <v>1</v>
+        <v>0.24</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>11627</t>
+          <t>35477</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>11650</t>
+          <t>35404</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>COQUETEL</t>
+          <t>PANETTO</t>
         </is>
       </c>
       <c r="O20" t="n">
-        <v>2001855</v>
+        <v>2000307</v>
       </c>
       <c r="P20" t="n">
-        <v>1</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>pao-frances-panetto-60g-com-4-unidades-96318</t>
+          <t>ovos-vermelhos-caipira-happy-eggs-com-20-unidades-370550</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Pão Francês Panetto  60g Com 4 unidades</t>
+          <t>Ovos Vermelhos Caipira Happy Eggs Com 20 Unidades</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>96318</t>
+          <t>370550</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
@@ -1900,44 +1900,44 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2024-01-31T00:00:00Z</t>
+          <t>2020-09-27T00:00:00Z</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3307700/VF4qT-qqCUAAAAAAAAWnXQ.jpg?v=638932898013670000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4343192/VF4qT-qqCUAAAAAAAAn9QA.jpg?v=638956617627730000</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K21" t="n">
-        <v>0.24</v>
+        <v>1</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>35477</t>
+          <t>6939</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>35404</t>
+          <t>6957</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>PANETTO</t>
+          <t>HAPPY EGGS</t>
         </is>
       </c>
       <c r="O21" t="n">
-        <v>2000307</v>
+        <v>2003319</v>
       </c>
       <c r="P21" t="n">
         <v>99999</v>
@@ -1946,43 +1946,43 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>detergente-para-loucas-odd-clear-500ml-982911</t>
+          <t>azeite-italiano-extra-virgem-due-500ml-5472040</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Detergente Para Louças Odd Clear 500ml</t>
+          <t>Azeite Italiano Extravirgem Due 500ml</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>982911</t>
+          <t>5472040</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>ODD voltou!Alto rendimento , controle de odor.</t>
+          <t>O azeite Due é um blend de azeites do Mediterrâneo que confere um resultado clássico e ideal para o cotidiano da cozinha. Sua elaboração conta com uma seleção cautelosamente realizada pelo Expert em Azeites e Temperos Marcelo Scofano, que anualmente viaja à Toscana (Itália), onde o azeite é produzido, para cuidar de cada detalhe pessoalmente.Due é um azeite clássico, ideal para o dia a dia da cozinha: marinados, refogados, emulsão de molhos, finalização de saladas, massas e pratos do cotidiano. O azeite clássico é extraído de azeitonas maduras. Possui sabor amendoado, com notas amargas e picantes em equilíbrio.O azeite Due faz parte da grupo de marcas exclusivas Zona Sul, criada e pensada com carinho para os cariocas de coração. O planejamento de cada produto exclusivo conta com a participação dos Experts Zona Sul em todo o processo, até chegar na sua mesa. E com a linha Due não é diferente!</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1.9</v>
+        <v>36.9</v>
       </c>
       <c r="F22" t="n">
-        <v>2.49</v>
+        <v>36.9</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>597</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2020-10-06T00:00:00Z</t>
+          <t>2025-05-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3056732/VF4qT-qqCUAAAAAAAAHzRQ.jpg?v=637793635376800000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4116721/VF4qT-qqCUAAAAAAAAiyjQ.jpg?v=638846625781330000</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1995,21 +1995,21 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>11872</t>
+          <t>40224</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>11898</t>
+          <t>40151</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>LIMPPANO</t>
+          <t>DUE</t>
         </is>
       </c>
       <c r="O22" t="n">
-        <v>2001341</v>
+        <v>2005138</v>
       </c>
       <c r="P22" t="n">
         <v>99999</v>
@@ -2018,39 +2018,43 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ovos-vermelhos-caipira-happy-eggs-com-20-unidades-370550</t>
+          <t>file-de-peito-de-frango-sadia-bandeja-1kg-290564</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Ovos Vermelhos Caipira Happy Eggs Com 20 Unidades</t>
+          <t>Filé de Peito de Frango Sadia Bandeja 1kg</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>370550</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
+          <t>290564</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Peito De Frango Em Filés Sadia Bandeja 1kg</t>
+        </is>
+      </c>
       <c r="E23" t="n">
         <v>24.99</v>
       </c>
       <c r="F23" t="n">
-        <v>24.99</v>
+        <v>26.99</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>125</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2020-09-27T00:00:00Z</t>
+          <t>2020-09-29T00:00:00Z</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4343192/VF4qT-qqCUAAAAAAAAn9QA.jpg?v=638956617627730000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3538840/VF4qT-qqCUAAAAAAAAa5gg.jpg?v=638550537679130000</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -2063,21 +2067,21 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>6939</t>
+          <t>7</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>6957</t>
+          <t>7</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>HAPPY EGGS</t>
+          <t>SADIA</t>
         </is>
       </c>
       <c r="O23" t="n">
-        <v>2003319</v>
+        <v>2000057</v>
       </c>
       <c r="P23" t="n">
         <v>99999</v>
@@ -2158,43 +2162,39 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>file-de-peito-de-frango-sadia-bandeja-1kg-290564</t>
+          <t>papel-toalha-coquetel-19cm-x-19cm-com-2-rolos-com-60-folhas-cada-783242</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Filé de Peito de Frango Sadia Bandeja 1kg</t>
+          <t>Papel Toalha Coquetel 19Cm X 19Cm com 2 Rolos com 60 Folhas Cada</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>290564</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Peito De Frango Em Filés Sadia Bandeja 1kg</t>
-        </is>
-      </c>
+          <t>783242</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="n">
-        <v>24.99</v>
+        <v>6.99</v>
       </c>
       <c r="F25" t="n">
-        <v>26.99</v>
+        <v>6.99</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>111</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2020-09-29T00:00:00Z</t>
+          <t>2020-10-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3538840/VF4qT-qqCUAAAAAAAAa5gg.jpg?v=638550537679130000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3050348/VF4qT-qqCUAAAAAAAAJRgg.jpg?v=637793335676500000</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2207,66 +2207,66 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>11627</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>11650</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>SADIA</t>
+          <t>COQUETEL</t>
         </is>
       </c>
       <c r="O25" t="n">
-        <v>2000057</v>
+        <v>2001855</v>
       </c>
       <c r="P25" t="n">
-        <v>99999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>morango-250g-289612</t>
+          <t>farinha-de-trigo-dona-benta-1kg-105287</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Morango 250g</t>
+          <t>Farinha De Trigo Dona Benta 1kg</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>289612</t>
+          <t>105287</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Embalagem com 250g "O morango é rico em vitamina C e, por isso, o consumo da fruta evita a fragilidade dos ossos e a má formação dos dentes. Ele também dá resistência aos tecidos, age contra infecções ajudando na cicatrização. O morango também possui, em menor quantidade, vitamina B5, conhecida como niacina. Ela tem a função de evitar problemas de pele, do aparelho digestivo e do sistema nervoso. Na fruta, também é encontrado ferro, que faz parte da formação do sangue."</t>
+          <t>Farinha De Trigo Dona Benta 1kg</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>8.99</v>
+        <v>7.99</v>
       </c>
       <c r="F26" t="n">
-        <v>9.99</v>
+        <v>7.99</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>63</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2020-09-26T00:00:00Z</t>
+          <t>2020-07-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3226559/VF4qT-qqCUAAAAAAAAHKNA.jpg?v=638352676547800000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3079291/VF4qT-qqCUAAAAAAAANuog.jpg?v=637897755804270000</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2279,66 +2279,66 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>5152</t>
+          <t>31</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>5168</t>
+          <t>31</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>DONA BENTA</t>
         </is>
       </c>
       <c r="O26" t="n">
-        <v>2000015</v>
+        <v>2000701</v>
       </c>
       <c r="P26" t="n">
-        <v>99999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>azeite-italiano-extra-virgem-due-500ml-5472040</t>
+          <t>morango-250g-289612</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Azeite Italiano Extravirgem Due 500ml</t>
+          <t>Morango 250g</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>5472040</t>
+          <t>289612</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>O azeite Due é um blend de azeites do Mediterrâneo que confere um resultado clássico e ideal para o cotidiano da cozinha. Sua elaboração conta com uma seleção cautelosamente realizada pelo Expert em Azeites e Temperos Marcelo Scofano, que anualmente viaja à Toscana (Itália), onde o azeite é produzido, para cuidar de cada detalhe pessoalmente.Due é um azeite clássico, ideal para o dia a dia da cozinha: marinados, refogados, emulsão de molhos, finalização de saladas, massas e pratos do cotidiano. O azeite clássico é extraído de azeitonas maduras. Possui sabor amendoado, com notas amargas e picantes em equilíbrio.O azeite Due faz parte da grupo de marcas exclusivas Zona Sul, criada e pensada com carinho para os cariocas de coração. O planejamento de cada produto exclusivo conta com a participação dos Experts Zona Sul em todo o processo, até chegar na sua mesa. E com a linha Due não é diferente!</t>
+          <t>Embalagem com 250g "O morango é rico em vitamina C e, por isso, o consumo da fruta evita a fragilidade dos ossos e a má formação dos dentes. Ele também dá resistência aos tecidos, age contra infecções ajudando na cicatrização. O morango também possui, em menor quantidade, vitamina B5, conhecida como niacina. Ela tem a função de evitar problemas de pele, do aparelho digestivo e do sistema nervoso. Na fruta, também é encontrado ferro, que faz parte da formação do sangue."</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>29.98</v>
+        <v>8.99</v>
       </c>
       <c r="F27" t="n">
-        <v>36.9</v>
+        <v>9.99</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-06T00:00:00Z</t>
+          <t>2020-09-26T00:00:00Z</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4116721/VF4qT-qqCUAAAAAAAAiyjQ.jpg?v=638846625781330000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3226559/VF4qT-qqCUAAAAAAAAHKNA.jpg?v=638352676547800000</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -2351,21 +2351,21 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>40224</t>
+          <t>5152</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>40151</t>
+          <t>5168</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>DUE</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O27" t="n">
-        <v>2005138</v>
+        <v>2000015</v>
       </c>
       <c r="P27" t="n">
         <v>99999</v>
@@ -2374,43 +2374,43 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>farinha-de-trigo-dona-benta-1kg-105287</t>
+          <t>abobrinha-italiana-unidade-423513</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Farinha De Trigo Dona Benta 1kg</t>
+          <t>Abobrinha Italiana Unidade</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>105287</t>
+          <t>423513</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Farinha De Trigo Dona Benta 1kg</t>
+          <t>Abobrinha Italiana Unidade</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>7.99</v>
+        <v>1.75</v>
       </c>
       <c r="F28" t="n">
-        <v>7.99</v>
+        <v>2.1</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>53</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2020-07-06T00:00:00Z</t>
+          <t>2020-12-07T00:00:00Z</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3079291/VF4qT-qqCUAAAAAAAANuog.jpg?v=637897755804270000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3095398/VF4qT-qqCUAAAAAAAASlGA.jpg?v=638211351178300000</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2423,21 +2423,21 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>16065</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>15956</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>DONA BENTA</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O28" t="n">
-        <v>2000701</v>
+        <v>2000015</v>
       </c>
       <c r="P28" t="n">
         <v>99999</v>
@@ -2446,43 +2446,43 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>abobrinha-italiana-unidade-423513</t>
+          <t>guardanapo-folha-dupla-scott-grand-hotel-jantar-33×33-cm-com-50-unidades-129887</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Abobrinha Italiana Unidade</t>
+          <t>Guardanapo Folha Dupla Scott Grand Hotel Jantar 33×33 Cm Com 50 Unidades</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>423513</t>
+          <t>129887</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Abobrinha Italiana Unidade</t>
+          <t>O Guardanapo Grand Hotel folha tripla é mais sofisticado e garante uma maciez superior para todos os momentos. Contém 50 folhas de tamanho 31,8x32,8 cm cada.</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1.75</v>
+        <v>12.99</v>
       </c>
       <c r="F29" t="n">
-        <v>2.1</v>
+        <v>12.99</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>111</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2020-12-07T00:00:00Z</t>
+          <t>2020-10-05T00:00:00Z</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3095398/VF4qT-qqCUAAAAAAAASlGA.jpg?v=638211351178300000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3078100/129887_1.jpg?v=637895346534630000</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2495,21 +2495,21 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>16065</t>
+          <t>9427</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>15956</t>
+          <t>9439</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>GRANDE HOTEL</t>
         </is>
       </c>
       <c r="O29" t="n">
-        <v>2000015</v>
+        <v>2001401</v>
       </c>
       <c r="P29" t="n">
         <v>99999</v>
@@ -2518,43 +2518,43 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>guardanapo-folha-dupla-scott-grand-hotel-jantar-33×33-cm-com-50-unidades-129887</t>
+          <t>papel-higienico-folha-tripla-neve-supreme-dermacare-pacote-leve-16-pague-15-unidades-981168</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Guardanapo Folha Dupla Scott Grand Hotel Jantar 33×33 Cm Com 50 Unidades</t>
+          <t>Papel Higiênico Folha Tripla Neve Supreme Dermacare Pacote Leve 16 Pague 15 Unidades</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>129887</t>
+          <t>981168</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>O Guardanapo Grand Hotel folha tripla é mais sofisticado e garante uma maciez superior para todos os momentos. Contém 50 folhas de tamanho 31,8x32,8 cm cada.</t>
+          <t>Papel higiênico neutro folha tripla de alta qualidade. Neve quer ajudar as pessoas a cuidarem de si, por isso desenvolveu um produto que proporciona maciez insuperável com mais absorção e resistência.</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>12.99</v>
+        <v>32.19</v>
       </c>
       <c r="F30" t="n">
-        <v>12.99</v>
+        <v>32.19</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>14</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2020-10-05T00:00:00Z</t>
+          <t>2020-09-22T00:00:00Z</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3078100/129887_1.jpg?v=637895346534630000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4430737/VF4qT-qqCUAAAAAAAAoMMw.jpg?v=639014499358300000</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -2567,21 +2567,21 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>9427</t>
+          <t>1262</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>9439</t>
+          <t>1269</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>GRANDE HOTEL</t>
+          <t>NEVE</t>
         </is>
       </c>
       <c r="O30" t="n">
-        <v>2001401</v>
+        <v>2000291</v>
       </c>
       <c r="P30" t="n">
         <v>99999</v>
@@ -2590,70 +2590,70 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>papel-higienico-folha-tripla-neve-supreme-dermacare-pacote-leve-16-pague-15-unidades-981168</t>
+          <t>cebola-roxa-400g-38393</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Papel Higiênico Folha Tripla Neve Supreme Dermacare Pacote Leve 16 Pague 15 Unidades</t>
+          <t>Cebola Roxa 400g</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>981168</t>
+          <t>38393</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Papel higiênico neutro folha tripla de alta qualidade. Neve quer ajudar as pessoas a cuidarem de si, por isso desenvolveu um produto que proporciona maciez insuperável com mais absorção e resistência.</t>
+          <t>Embalagem com 2 a 3 unidades. Melhor para comer cru; Use : no guacamole, em conserva, na salada, no sanduíche.</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>28.98</v>
+        <v>7.69</v>
       </c>
       <c r="F31" t="n">
-        <v>32.19</v>
+        <v>7.69</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2020-09-22T00:00:00Z</t>
+          <t>2020-09-26T00:00:00Z</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4430737/VF4qT-qqCUAAAAAAAAoMMw.jpg?v=639014499358300000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3081506/VF4qT-qqCUAAAAAAAAOBng.jpg?v=637947101712670000</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K31" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>1262</t>
+          <t>5543</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>1269</t>
+          <t>5559</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>NEVE</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O31" t="n">
-        <v>2000291</v>
+        <v>2000015</v>
       </c>
       <c r="P31" t="n">
         <v>99999</v>
@@ -2734,259 +2734,259 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>cebola-roxa-400g-38393</t>
+          <t>la-de-aco-bombril-com-6-unidades-45g-1180320</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Cebola Roxa 400g</t>
+          <t>Lã de Aço Bombril com 6 Unidades 45g</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>38393</t>
+          <t>1180320</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Embalagem com 2 a 3 unidades. Melhor para comer cru; Use : no guacamole, em conserva, na salada, no sanduíche.</t>
+          <t>Uso: Ideal para limpeza de panelas, utensílios de cozinha, superfícies metálicas e outras áreas que necessitam de uma limpeza mais intensa.Remove sujeiras difíceis, incluindo resíduos de alimentos queimados e ferrugem.</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>7.69</v>
+        <v>2.19</v>
       </c>
       <c r="F33" t="n">
-        <v>7.69</v>
+        <v>2.99</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>78</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2020-09-26T00:00:00Z</t>
+          <t>2025-07-17T00:00:00Z</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3081506/VF4qT-qqCUAAAAAAAAOBng.jpg?v=637947101712670000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4216409/VF4qT-qqCUAAAAAAAAko5g.jpg?v=638889221726300000</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K33" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>5543</t>
+          <t>41130</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>5559</t>
+          <t>41057</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>BOMBRIL</t>
         </is>
       </c>
       <c r="O33" t="n">
-        <v>2000015</v>
+        <v>2001389</v>
       </c>
       <c r="P33" t="n">
-        <v>100</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>oleo-de-soja-liza-900ml-127310</t>
+          <t>pessego-nacional-500g-12408</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Óleo De Soja Liza 900ml</t>
+          <t>Pêssego Nacional 600g</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>127310</t>
+          <t>12408</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Óleo De Soja Liza 900ml</t>
+          <t>Pêssego Nacional 500g</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>8.59</v>
+        <v>8.99</v>
       </c>
       <c r="F34" t="n">
-        <v>8.59</v>
+        <v>10.99</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2020-09-15T00:00:00Z</t>
+          <t>2020-09-26T00:00:00Z</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3075849/VF4qT-qqCUAAAAAAAAIxqw.jpg?v=637877802666600000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3092387/VF4qT-qqCUAAAAAAAAFvOA.jpg?v=638151904193130000</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K34" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>5122</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>5138</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>LIZA</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O34" t="n">
-        <v>2000067</v>
+        <v>2000015</v>
       </c>
       <c r="P34" t="n">
-        <v>99999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>pessego-nacional-500g-12408</t>
+          <t>oleo-de-soja-liza-900ml-127310</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Pêssego Nacional 600g</t>
+          <t>Óleo De Soja Liza 900ml</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>12408</t>
+          <t>127310</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Pêssego Nacional 500g</t>
+          <t>Óleo De Soja Liza 900ml</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>8.99</v>
+        <v>8.59</v>
       </c>
       <c r="F35" t="n">
-        <v>10.99</v>
+        <v>8.59</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>576</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2020-09-26T00:00:00Z</t>
+          <t>2020-09-15T00:00:00Z</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3092387/VF4qT-qqCUAAAAAAAAFvOA.jpg?v=638151904193130000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3075849/VF4qT-qqCUAAAAAAAAIxqw.jpg?v=637877802666600000</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K35" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>5122</t>
+          <t>127</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>5138</t>
+          <t>132</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>LIZA</t>
         </is>
       </c>
       <c r="O35" t="n">
-        <v>2000015</v>
+        <v>2000067</v>
       </c>
       <c r="P35" t="n">
-        <v>100</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>coentro-unidade-200930</t>
+          <t>detergente-para-loucas-biodegradavel-limpol-neutro-500-ml-100510</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Coentro Unidade</t>
+          <t>Detergente Para Louças Biodegradável Limpol Neutro 500ml</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>200930</t>
+          <t>100510</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Coentro Unidade</t>
+          <t>O Lava-Louças Limpol é eficiente no poder da limpeza, remoção da gordura e sujeiras e no combate aos maus odores indesejados da cozinha. Sua fórmula é dermatologicamente testada e contém glicerina, tornando-a mais suave para as mãos.</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>2.49</v>
+        <v>2.79</v>
       </c>
       <c r="F36" t="n">
-        <v>3.39</v>
+        <v>2.79</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>76</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2020-09-28T00:00:00Z</t>
+          <t>2020-10-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3076728/VF4qT-qqCUAAAAAAAAGF4g.jpg?v=637877840364830000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3269221/12054_1.jpg?v=638386029717470000</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2999,21 +2999,21 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>7408</t>
+          <t>12054</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>7427</t>
+          <t>12081</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>LIMPOL</t>
         </is>
       </c>
       <c r="O36" t="n">
-        <v>2000015</v>
+        <v>2001413</v>
       </c>
       <c r="P36" t="n">
         <v>99999</v>
@@ -3022,43 +3022,43 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>la-de-aco-bombril-com-6-unidades-45g-1180320</t>
+          <t>coentro-unidade-200930</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Lã de Aço Bombril com 6 Unidades 45g</t>
+          <t>Coentro Unidade</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>1180320</t>
+          <t>200930</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Uso: Ideal para limpeza de panelas, utensílios de cozinha, superfícies metálicas e outras áreas que necessitam de uma limpeza mais intensa.Remove sujeiras difíceis, incluindo resíduos de alimentos queimados e ferrugem.</t>
+          <t>Coentro Unidade</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>2.99</v>
+        <v>2.49</v>
       </c>
       <c r="F37" t="n">
-        <v>2.99</v>
+        <v>3.39</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-07-17T00:00:00Z</t>
+          <t>2020-09-28T00:00:00Z</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4216409/VF4qT-qqCUAAAAAAAAko5g.jpg?v=638889221726300000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3076728/VF4qT-qqCUAAAAAAAAGF4g.jpg?v=637877840364830000</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -3071,21 +3071,21 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>41130</t>
+          <t>7408</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>41057</t>
+          <t>7427</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>BOMBRIL</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O37" t="n">
-        <v>2001389</v>
+        <v>2000015</v>
       </c>
       <c r="P37" t="n">
         <v>99999</v>
@@ -3166,70 +3166,70 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>detergente-para-loucas-biodegradavel-limpol-neutro-500-ml-100510</t>
+          <t>abobora-japonesa-pedaco-500g-38229</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Detergente Para Louças Biodegradável Limpol Neutro 500ml</t>
+          <t>Abóbora Japonesa Pedaço 500g</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>100510</t>
+          <t>38229</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>O Lava-Louças Limpol é eficiente no poder da limpeza, remoção da gordura e sujeiras e no combate aos maus odores indesejados da cozinha. Sua fórmula é dermatologicamente testada e contém glicerina, tornando-a mais suave para as mãos.</t>
+          <t>Embalagem com 1 pedaço.</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>2.79</v>
+        <v>5.29</v>
       </c>
       <c r="F39" t="n">
-        <v>2.79</v>
+        <v>5.29</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>53</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2020-10-06T00:00:00Z</t>
+          <t>2020-09-26T00:00:00Z</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3269221/12054_1.jpg?v=638386029717470000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3096862/VF4qT-qqCUAAAAAAAAS9Tw.jpg?v=638235593168230000</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K39" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>12054</t>
+          <t>5593</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>12081</t>
+          <t>5609</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>LIMPOL</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O39" t="n">
-        <v>2001413</v>
+        <v>2000015</v>
       </c>
       <c r="P39" t="n">
         <v>99999</v>
@@ -3238,70 +3238,70 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>abobora-japonesa-pedaco-500g-38229</t>
+          <t>pao-de-queijo-forno-de-minas-tradicional--400-g-456110</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Abóbora Japonesa Pedaço 500g</t>
+          <t>Pão De Queijo Forno De Minas Tradicional 400g</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>38229</t>
+          <t>456110</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Embalagem com 1 pedaço.</t>
+          <t>Pão De Queijo Forno De Minas Tradicional 400g</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>5.29</v>
+        <v>21.99</v>
       </c>
       <c r="F40" t="n">
-        <v>5.29</v>
+        <v>21.99</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>119</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2020-09-26T00:00:00Z</t>
+          <t>2020-10-20T00:00:00Z</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3096862/VF4qT-qqCUAAAAAAAAS9Tw.jpg?v=638235593168230000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3041185/VF4qT-qqCUAAAAAAAAHIag.jpg?v=637792557833470000</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K40" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>5593</t>
+          <t>13544</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>5609</t>
+          <t>13564</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>FORNO MINAS</t>
         </is>
       </c>
       <c r="O40" t="n">
-        <v>2000015</v>
+        <v>2001500</v>
       </c>
       <c r="P40" t="n">
         <v>99999</v>
@@ -3382,43 +3382,43 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>pao-de-queijo-forno-de-minas-tradicional--400-g-456110</t>
+          <t>sal-refinado-iodado-ita-1kg-117293</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Pão De Queijo Forno De Minas Tradicional 400g</t>
+          <t>Sal Refinado Iodado Ita 1kg</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>456110</t>
+          <t>117293</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Pão De Queijo Forno De Minas Tradicional 400g</t>
+          <t>Sal Refinado Iodado Ita 1kg</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>21.99</v>
+        <v>3.65</v>
       </c>
       <c r="F42" t="n">
-        <v>21.99</v>
+        <v>3.65</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2020-10-20T00:00:00Z</t>
+          <t>2020-09-15T00:00:00Z</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3041185/VF4qT-qqCUAAAAAAAAHIag.jpg?v=637792557833470000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3076051/VF4qT-qqCUAAAAAAAAKZcQ.jpg?v=637877811480070000</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -3431,93 +3431,93 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>13544</t>
+          <t>126</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>13564</t>
+          <t>131</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>FORNO MINAS</t>
+          <t>ITA</t>
         </is>
       </c>
       <c r="O42" t="n">
-        <v>2001500</v>
+        <v>2000066</v>
       </c>
       <c r="P42" t="n">
-        <v>100</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>sal-refinado-iodado-ita-1kg-117293</t>
+          <t>alho-roxo-cariorta-4-a-5-unidades-250g-99279</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Sal Refinado Iodado Ita 1kg</t>
+          <t>Alho Roxo Cariorta 4 a 5 unidades 250g</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>117293</t>
+          <t>99279</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Sal Refinado Iodado Ita 1kg</t>
+          <t>Cariorta selecionados de coração.</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>3.65</v>
+        <v>59.99</v>
       </c>
       <c r="F43" t="n">
-        <v>3.65</v>
+        <v>59.99</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>480</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2020-09-15T00:00:00Z</t>
+          <t>2020-05-27T00:00:00Z</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3076051/VF4qT-qqCUAAAAAAAAKZcQ.jpg?v=637877811480070000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3082698/VF4qT-qqCUAAAAAAAAOOtg.jpg?v=637980006345970000</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K43" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>24684</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>24608</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>ITA</t>
+          <t>CARIORTA</t>
         </is>
       </c>
       <c r="O43" t="n">
-        <v>2000066</v>
+        <v>2001012</v>
       </c>
       <c r="P43" t="n">
         <v>99999</v>
@@ -3545,7 +3545,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>3.89</v>
+        <v>3.95</v>
       </c>
       <c r="F44" t="n">
         <v>5.99</v>
@@ -3598,43 +3598,43 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>alho-roxo-cariorta-4-a-5-unidades-250g-99279</t>
+          <t>cereja-chilena-300g-13463</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Alho Roxo Cariorta 4 a 5 unidades 250g</t>
+          <t>Cereja Chilena 300g</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>99279</t>
+          <t>13463</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Cariorta selecionados de coração.</t>
+          <t>As cerejas chilenas vão deleitar seu paladar com seu doce e suculento sabor. Sua cor intensa, que varia do vermelho vibrante a tonalidades mais escuras, é um banquete para os olhos e o sinal dos inúmeros benefícios à saúde. Essa pequena fruta é uma fonte nutricional completa, com vitaminas essenciais como a C e a E, além de minerais como o ferro, potássio e magnésio. A cerejas podem ser consumidas frescas, no preparo de conservas, sobremesas e tortas e são classificadas por tamanho e nós só trazemos as mais graúdas especialmente para você!</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>59.99</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="F45" t="n">
-        <v>59.99</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2020-05-27T00:00:00Z</t>
+          <t>2020-09-26T00:00:00Z</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3082698/VF4qT-qqCUAAAAAAAAOOtg.jpg?v=637980006345970000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4434078/VF4qT-qqCUAAAAAAAAoONQ.jpg?v=639019170859200000</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -3643,25 +3643,25 @@
         </is>
       </c>
       <c r="K45" t="n">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>24684</t>
+          <t>5090</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>24608</t>
+          <t>5106</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>CARIORTA</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O45" t="n">
-        <v>2001012</v>
+        <v>2000015</v>
       </c>
       <c r="P45" t="n">
         <v>99999</v>
@@ -3670,115 +3670,115 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>cereja-chilena-300g-13463</t>
+          <t>saponaceo-cremoso-cif-limpeza-milagrosa-450ml-781266</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Cereja Chilena 300g</t>
+          <t>CIF Cremoso Limpeza Milagrosa remove 100% da sujeira 450 ml</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>13463</t>
+          <t>781266</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>As cerejas chilenas vão deleitar seu paladar com seu doce e suculento sabor. Sua cor intensa, que varia do vermelho vibrante a tonalidades mais escuras, é um banquete para os olhos e o sinal dos inúmeros benefícios à saúde. Essa pequena fruta é uma fonte nutricional completa, com vitaminas essenciais como a C e a E, além de minerais como o ferro, potássio e magnésio. A cerejas podem ser consumidas frescas, no preparo de conservas, sobremesas e tortas e são classificadas por tamanho e nós só trazemos as mais graúdas especialmente para você!</t>
+          <t>• Cif Cremoso Original é o produto de limpeza milagrosa que limpa fácil e dá brilho em mais de 100 superfícies*, removendo 100% da sujeira difícil, sem esforço • O Cif Cremoso Original possui um perfume suave, é mais concentrado e rende 7 garrafas do limpador comum • Fórmula com tecnologia poderosa que limpa sem riscar, removendo toda a sujeira desde a mais pesada até a limpeza de casa do dia a dia, deixando um brilho imbatível • Com o Cif, a limpeza nunca foi tão fácil e versátil. Cif Cremoso possui três variantes: Original, Limão e Laranja • Cif Cremoso Original é o produto de limpeza milagrosa para todo tipo de objeto como: eletrodomésticos, pias, couro sintético, borracha, plástico, porcelana e serve até como limpador de pisos • Cif promove uma limpeza milagrosa completa, com produtos versáteis que atendem a todas as suas necessidades. Cif. Sinta a limpeza acontecer! Cif Cremoso Original 450 ml é o produto de limpeza milagroso que limpa fácil e dá brilho em mais de 100 superfícies*, removendo 100% da sujeira difícil, sem esforço. O higienizador de casa cremoso é mais concentrado e rende 7 garrafas do limpador comum**. Sua fórmula, poderosa, limpa sem riscar***, removendo toda a sujeira desde a mais pesada até a limpeza de casa do dia a dia, deixando um brilho imbatível. Limpe toda sua casa usando o Cif Cremoso Original, que limpa todo tipo de objeto, como eletrodomésticos, potes plásticos, pias, brinquedos das crianças, persianas, pisos e até ajuda a deixar aquele cabo de carregador de celular como novo! Com o Limpador Cif, a limpeza nunca foi tão fácil e versátil. A linha do milagroso Cif Cremoso possui outras variedades de perfumes, como Laranja e Limão, que se adaptam ao seu estilo. Conheça a linha completa de produtos de limpeza Cif que não podem ficar de fora da sua lista de material de limpeza. Use também: Cif Cozinha, Cif Derrete Gordura, Cif Banheiro, Cif Tira Limo Com Cloro, Cif Vidros, Cif Cremoso e muito mais. Cif: Sinta a limpeza acontecer! Modo de usar: 1. Agite antes de usar. 2. Aplique uma pequena quantidade do produto sobre uma esponja ou pano úmido. 3. Esfregue a superfície suavemente até eliminar a sujeira. 4. Passe um pano úmido para finalizar. 5. Feche a embalagem após o uso. *Consulte lista das superfícies em www.ciflimpadores.com.br **Manchas de sabão e gordura queimada, comparado com limpadores comuns do mercado. Consulte a diferença de preços entre produtos. ***Não usar esponja ácida, como palha de aço, para a limpeza de vidros. A imagem do produto é meramente ilustrativa e o rótulo pode variar. Será enviada a embalagem disponível no momento da compra.</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>64.90000000000001</v>
+        <v>18.99</v>
       </c>
       <c r="F46" t="n">
-        <v>69.90000000000001</v>
+        <v>18.99</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>74</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2020-09-26T00:00:00Z</t>
+          <t>2020-10-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4434078/VF4qT-qqCUAAAAAAAAoONQ.jpg?v=639019170859200000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3640099/VF4qT-qqCUAAAAAAAAbyew.jpg?v=638585098972800000</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K46" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>5090</t>
+          <t>11602</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>5106</t>
+          <t>11625</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>CIF</t>
         </is>
       </c>
       <c r="O46" t="n">
-        <v>2000015</v>
+        <v>2000541</v>
       </c>
       <c r="P46" t="n">
-        <v>99999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>saponaceo-cremoso-cif-limpeza-milagrosa-450ml-781266</t>
+          <t>couve-manteiga-unidade-201235</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>CIF Cremoso Limpeza Milagrosa remove 100% da sujeira 450 ml</t>
+          <t>Couve Manteiga Unidade</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>781266</t>
+          <t>201235</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>• Cif Cremoso Original é o produto de limpeza milagrosa que limpa fácil e dá brilho em mais de 100 superfícies*, removendo 100% da sujeira difícil, sem esforço • O Cif Cremoso Original possui um perfume suave, é mais concentrado e rende 7 garrafas do limpador comum • Fórmula com tecnologia poderosa que limpa sem riscar, removendo toda a sujeira desde a mais pesada até a limpeza de casa do dia a dia, deixando um brilho imbatível • Com o Cif, a limpeza nunca foi tão fácil e versátil. Cif Cremoso possui três variantes: Original, Limão e Laranja • Cif Cremoso Original é o produto de limpeza milagrosa para todo tipo de objeto como: eletrodomésticos, pias, couro sintético, borracha, plástico, porcelana e serve até como limpador de pisos • Cif promove uma limpeza milagrosa completa, com produtos versáteis que atendem a todas as suas necessidades. Cif. Sinta a limpeza acontecer! Cif Cremoso Original 450 ml é o produto de limpeza milagroso que limpa fácil e dá brilho em mais de 100 superfícies*, removendo 100% da sujeira difícil, sem esforço. O higienizador de casa cremoso é mais concentrado e rende 7 garrafas do limpador comum**. Sua fórmula, poderosa, limpa sem riscar***, removendo toda a sujeira desde a mais pesada até a limpeza de casa do dia a dia, deixando um brilho imbatível. Limpe toda sua casa usando o Cif Cremoso Original, que limpa todo tipo de objeto, como eletrodomésticos, potes plásticos, pias, brinquedos das crianças, persianas, pisos e até ajuda a deixar aquele cabo de carregador de celular como novo! Com o Limpador Cif, a limpeza nunca foi tão fácil e versátil. A linha do milagroso Cif Cremoso possui outras variedades de perfumes, como Laranja e Limão, que se adaptam ao seu estilo. Conheça a linha completa de produtos de limpeza Cif que não podem ficar de fora da sua lista de material de limpeza. Use também: Cif Cozinha, Cif Derrete Gordura, Cif Banheiro, Cif Tira Limo Com Cloro, Cif Vidros, Cif Cremoso e muito mais. Cif: Sinta a limpeza acontecer! Modo de usar: 1. Agite antes de usar. 2. Aplique uma pequena quantidade do produto sobre uma esponja ou pano úmido. 3. Esfregue a superfície suavemente até eliminar a sujeira. 4. Passe um pano úmido para finalizar. 5. Feche a embalagem após o uso. *Consulte lista das superfícies em www.ciflimpadores.com.br **Manchas de sabão e gordura queimada, comparado com limpadores comuns do mercado. Consulte a diferença de preços entre produtos. ***Não usar esponja ácida, como palha de aço, para a limpeza de vidros. A imagem do produto é meramente ilustrativa e o rótulo pode variar. Será enviada a embalagem disponível no momento da compra.</t>
+          <t>A couve é uma hortaliça muito rica em nutriente,cálcio, ferro e vitaminas A,C, K e B5.Como conservar:Em geladeira, inteira ou picada deve ser mantida em saco plástico fechado ou em vasilha de plástico tampada.Como consumir:Pode ser consumida crua, em saladas e sucos, refogada ou como ingrediente de sopas, farofas e cozidos.[ Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>18.99</v>
+        <v>2.49</v>
       </c>
       <c r="F47" t="n">
-        <v>18.99</v>
+        <v>3.39</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2020-10-06T00:00:00Z</t>
+          <t>2020-09-28T00:00:00Z</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3640099/VF4qT-qqCUAAAAAAAAbyew.jpg?v=638585098972800000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3083631/VF4qT-qqCUAAAAAAAAOZOA.jpg?v=637994955185970000</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -3791,56 +3791,52 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>11602</t>
+          <t>7445</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>11625</t>
+          <t>7464</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>CIF</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O47" t="n">
-        <v>2000541</v>
+        <v>2000015</v>
       </c>
       <c r="P47" t="n">
-        <v>100</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>couve-manteiga-unidade-201235</t>
+          <t>file-mignon-resfriado-sem-cordao-2-2kg-44822</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Couve Manteiga Unidade</t>
+          <t>Filé Mignon Resfriado Sem Cordão 2,2kg</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>201235</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>A couve é uma hortaliça muito rica em nutriente,cálcio, ferro e vitaminas A,C, K e B5.Como conservar:Em geladeira, inteira ou picada deve ser mantida em saco plástico fechado ou em vasilha de plástico tampada.Como consumir:Pode ser consumida crua, em saladas e sucos, refogada ou como ingrediente de sopas, farofas e cozidos.[ Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
-        </is>
-      </c>
+          <t>44822</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
       <c r="E48" t="n">
-        <v>2.49</v>
+        <v>99.98999999999999</v>
       </c>
       <c r="F48" t="n">
-        <v>3.39</v>
+        <v>99.98999999999999</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>124</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -3850,25 +3846,25 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3083631/VF4qT-qqCUAAAAAAAAOZOA.jpg?v=637994955185970000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4340142/VF4qT-qqCUAAAAAAAAJRsQ.jpg?v=638954025546430000</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K48" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>7445</t>
+          <t>7539</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>7464</t>
+          <t>7558</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -3880,49 +3876,49 @@
         <v>2000015</v>
       </c>
       <c r="P48" t="n">
-        <v>99999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>saponaceo-cremoso-cif-gratis-20-450-ml-839264</t>
+          <t>matte-leao-natural-pet-15l-118214</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Saponáceo Cremoso Cif Grátis 20% 450ml</t>
+          <t>Matte Leão Natural Pet 1,5L</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>839264</t>
+          <t>118214</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>• Multiuso Cremoso • 1 gota remove 100% da sujeira difícil • Limpa sem riscar com micropartículas de origem natural • Poderoso na limpeza, imbatível no cuidado • Use também em couro sintético, plástico, porcelana e borracha • Para toda casa CIF Multiuso Cremoso Original, possui uma fórmula exclusiva que limpa profundamente, removendo 100% da sujeira difícil, com apenas 1 gota. O limpador CIF Cremoso é mais concentrado e por isso pode render até 7 garrafas * dos limpadores comuns encontrados no mercado. Com sua tecnologia, o limpador de casa CIF Multiuso Cremoso Original é poderoso na limpeza e imbatível no cuidado. Sua formula com micropartículas de origem natural limpam, sem riscar, removendo toda a sujeira desde a mais pesada até a manutenção do dia a dia, deixando um brilho imbatível. Limpe toda sua casa usando o limpador multiuso CIF Multiuso Cremoso, que limpa mais de 100 objetos **, como fogão, micro-ondas, chinelos, panelas, geladeira, potes plásticos, pias, torneiras, sofá, máquina de lavar, brinquedos das crianças, persianas, utensílios de churrasco, talheres, ventilador e até ajuda a deixar aquele cabo de carregador de celular como novo! CIF é muito mais do que uma linha de produtos de limpeza, CIF é cuidado com a sua casa. A família de multiuso CIF Cremoso possui uma variedade de fragrâncias, sendo elas: Original, Laranja e Limão, todas super refrescantes e se adaptam ao seu estilo e à sua casa. CIF Multiuso Cremoso é um grande aliado na limpeza de casa, para mantê-la sempre limpa, bonita e bem cuidada, do jeito que você e sua família merecem. CIF é poderoso na limpeza e imbatível no cuidado pois sabemos que cada cantinho da sua casa merece limpeza e cuidado.</t>
+          <t>Renove seu humor, recicle seu ritmo e siga em frente. Experimente combinar o seu dia com o sabor inconfundível de Matte Leão.Matte Leão é feito com folhas de ervamate selecionadas e tostadas num processo único, especialmente para você.Porção de 200 mL (1 copo) = 68 kcal.</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>14.99</v>
+        <v>7.69</v>
       </c>
       <c r="F49" t="n">
-        <v>14.99</v>
+        <v>8.99</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2020-10-06T00:00:00Z</t>
+          <t>2020-10-01T00:00:00Z</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3077844/839264_17.jpg?v=637895340530470000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3704453/VF4qT-qqCUAAAAAAAAGyOQ.jpg?v=638609291247270000</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -3935,21 +3931,21 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>12274</t>
+          <t>8709</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>12301</t>
+          <t>8721</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>CIF</t>
+          <t>LEAO</t>
         </is>
       </c>
       <c r="O49" t="n">
-        <v>2000541</v>
+        <v>2000010</v>
       </c>
       <c r="P49" t="n">
         <v>99999</v>

--- a/zonasul.xlsx
+++ b/zonasul.xlsx
@@ -518,43 +518,43 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>matte-leao-limao-pet-1-5l-118222</t>
+          <t>ovos-brancos-jumbo-mantiqueira-com-10-unidades-437638</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Matte Leão Limão Pet 1,5L</t>
+          <t>Ovos Brancos Jumbo Mantiqueira Com 10 Unidades</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>118222</t>
+          <t>437638</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>O Chá MATTE Limão Leão é um dos tipos de chás preferido dos consumidores. A marca Chá Mate Leão está presente no mercado há mais de 100 anos, sendo a marca de chá mais vendida e tradicional. Produzido com extrato aquoso de mate, açúcar e suco de limão, o Chá MATTE LEÃO Limão é a opção ideal para refrescar o seu dia! Compre e compartilhe com amigos e familiares!</t>
+          <t>Os Ovos Jumbo Mantiqueira possuem maior tamanho, ideais para quem busca uma alimentação rica em vitaminas, proteínas e minerais, ou para quem gosta de um maior rendimento em suas receitas. Um único ovo contém quase todos os nutrientes necessários para manter o corpo saudável, fortalecendo os ossos e auxiliando em dietas para perda de peso ou ganho de massa.O Ovo Jumbo Mantiqueira é um produto da linha Especial da marca e possui a qualidade superior, passando por um moderno sistema de seleção, limpeza e embalagem sem contato de mãos humanas.Especificações:Ovos maiores, tamanho família.Embalagem com 10 unidades.Ovos brancos e vermelhos tipo jumbo categoria A.</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7.69</v>
+        <v>10.9</v>
       </c>
       <c r="F2" t="n">
-        <v>8.99</v>
+        <v>10.9</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2020-10-01T00:00:00Z</t>
+          <t>2020-09-27T00:00:00Z</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3704455/VF4qT-qqCUAAAAAAAAcePQ.jpg?v=638609291270100000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3976126/VF4qT-qqCUAAAAAAAAh4RA.jpg?v=638769994856100000</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -567,24 +567,24 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>8711</t>
+          <t>7002</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>8723</t>
+          <t>7020</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>LEAO</t>
+          <t>MANTIQUEIRA</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>2000010</v>
+        <v>2001056</v>
       </c>
       <c r="P2" t="n">
-        <v>99999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -874,61 +874,61 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>mucarela-em-fatias-92363</t>
+          <t>uva-preta-sem-semente-500-g-674583</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Muçarela  em Fatias 200g</t>
+          <t>Uva Preta Sem Semente 500g</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>92363</t>
+          <t>674583</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Muçarela em Fatias</t>
+          <t>Eventualmente, devido à variações climáticas, essa variedade pode apresentar traços de sementes comestíveis As uvas são, sem dúvidas, uma das frutas mais nutritivas de todas. Apesar de seu tamanho relativamente pequeno, elas são extremamente poderosas nutricionalmente e consumilas é muito importante para o bom funcionamento do corpo.As calorias presentes nas uvas também são poucas: apenas 90 em cerca de 150g. Por isso, é uma ótima opção também para aqueles que estão em processo de redução da massa corporal, desde que consumida com cautela.Rica em antioxidantes que são responsáveis por ‘’limpar’’ e proteger as nossas células dos chamados radicais livres, compostos potencialmente perigosos que podem danificar essas estruturas.Os antioxidantes estão mais comumente presentes na casca da fruta, o que é indicado pela coloração delas. Quanto mais escuras, maior é a concentração desses compostos na uva. Os principais exemplos são os polifenois, e o mais famoso deles chamase resveratrol.</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>59.9</v>
+        <v>11.99</v>
       </c>
       <c r="F7" t="n">
-        <v>59.9</v>
+        <v>11.99</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2020-09-27T00:00:00Z</t>
+          <t>2020-09-26T00:00:00Z</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3052070/VF4qT-qqCUAAAAAAAAI4-w.jpg?v=637793416889100000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3047035/VF4qT-qqCUAAAAAAAAGXCQ.jpg?v=637793205627670000</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>1361</t>
+          <t>5264</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>1368</t>
+          <t>5280</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -946,61 +946,61 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>uva-preta-sem-semente-500-g-674583</t>
+          <t>mucarela-em-fatias-92363</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Uva Preta Sem Semente 500g</t>
+          <t>Muçarela  em Fatias 200g</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>674583</t>
+          <t>92363</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Eventualmente, devido à variações climáticas, essa variedade pode apresentar traços de sementes comestíveis As uvas são, sem dúvidas, uma das frutas mais nutritivas de todas. Apesar de seu tamanho relativamente pequeno, elas são extremamente poderosas nutricionalmente e consumilas é muito importante para o bom funcionamento do corpo.As calorias presentes nas uvas também são poucas: apenas 90 em cerca de 150g. Por isso, é uma ótima opção também para aqueles que estão em processo de redução da massa corporal, desde que consumida com cautela.Rica em antioxidantes que são responsáveis por ‘’limpar’’ e proteger as nossas células dos chamados radicais livres, compostos potencialmente perigosos que podem danificar essas estruturas.Os antioxidantes estão mais comumente presentes na casca da fruta, o que é indicado pela coloração delas. Quanto mais escuras, maior é a concentração desses compostos na uva. Os principais exemplos são os polifenois, e o mais famoso deles chamase resveratrol.</t>
+          <t>Muçarela em Fatias</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>10.99</v>
+        <v>59.9</v>
       </c>
       <c r="F8" t="n">
-        <v>11.99</v>
+        <v>59.9</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>83</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2020-09-26T00:00:00Z</t>
+          <t>2020-09-27T00:00:00Z</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3047035/VF4qT-qqCUAAAAAAAAGXCQ.jpg?v=637793205627670000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3052070/VF4qT-qqCUAAAAAAAAI4-w.jpg?v=637793416889100000</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>5264</t>
+          <t>1361</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>5280</t>
+          <t>1368</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1109,7 +1109,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1.18</v>
+        <v>1.53</v>
       </c>
       <c r="F10" t="n">
         <v>1.53</v>
@@ -1181,7 +1181,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2.49</v>
+        <v>3.39</v>
       </c>
       <c r="F11" t="n">
         <v>3.39</v>
@@ -1325,7 +1325,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4.79</v>
+        <v>5.39</v>
       </c>
       <c r="F13" t="n">
         <v>5.39</v>
@@ -1469,7 +1469,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>7.99</v>
+        <v>9.99</v>
       </c>
       <c r="F15" t="n">
         <v>9.99</v>
@@ -1522,43 +1522,43 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ovos-vermelhos-mantiqueira-happy-eggs-com-10-unidades-5106753</t>
+          <t>abacaxi-unidade-221</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Ovos Vermelhos Mantiqueira Happy Eggs com 10 Unidades</t>
+          <t>Abacaxi Unidade</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>5106753</t>
+          <t>221</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Produzidos por galinhas criadas livres de gaiolas. Garantia de Bem-Estar Animal. Ovos Vermelhos Tipo Grande Categoria A. Embalagem com 10 unidades.</t>
+          <t>Peso Aproximado 1,61,8Kg / Unidade.O Abacaxi é rico em Vitaminas A, B5, B6, C, BetaCaroteno, Tiamina, Antioxidantes e Fibras, auxiliando na saciedade e regulação do peso. É uma Importante fonte de energia póstreino. Auxilia nos processos antiinflamatórios por conter Bromelina, enzima encontrada principalmente no talo da fruta. Como preparar: no seu estado natural cortado, em saladas, assado, grelhado, sucos, geleias, sorvetes e chás.</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>11.99</v>
+        <v>10.99</v>
       </c>
       <c r="F16" t="n">
-        <v>11.99</v>
+        <v>10.99</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2021-01-11T00:00:00Z</t>
+          <t>2020-09-26T00:00:00Z</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4222023/VF4qT-qqCUAAAAAAAAStHA.jpg?v=638894405636230000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3041923/VF4qT-qqCUAAAAAAAAFtXw.jpg?v=637792593143530000</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1571,71 +1571,71 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>18105</t>
+          <t>4959</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>17997</t>
+          <t>4975</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>HAPPY EGGS</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O16" t="n">
-        <v>2003319</v>
+        <v>2000015</v>
       </c>
       <c r="P16" t="n">
-        <v>99999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>abacaxi-unidade-221</t>
+          <t>limao-cariorta-1kg-98981</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Abacaxi Unidade</t>
+          <t>Limão Cariorta 1Kg</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>98981</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Peso Aproximado 1,61,8Kg / Unidade.O Abacaxi é rico em Vitaminas A, B5, B6, C, BetaCaroteno, Tiamina, Antioxidantes e Fibras, auxiliando na saciedade e regulação do peso. É uma Importante fonte de energia póstreino. Auxilia nos processos antiinflamatórios por conter Bromelina, enzima encontrada principalmente no talo da fruta. Como preparar: no seu estado natural cortado, em saladas, assado, grelhado, sucos, geleias, sorvetes e chás.</t>
+          <t>Cariorta selecionados de coração.</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>8.99</v>
+        <v>11.99</v>
       </c>
       <c r="F17" t="n">
-        <v>10.99</v>
+        <v>11.99</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>482</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2020-09-26T00:00:00Z</t>
+          <t>2020-05-20T00:00:00Z</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3041923/VF4qT-qqCUAAAAAAAAFtXw.jpg?v=637792593143530000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3084385/VF4qT-qqCUAAAAAAAAOgIg.jpg?v=638000868147970000</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K17" t="n">
@@ -1643,21 +1643,21 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>4959</t>
+          <t>24698</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>4975</t>
+          <t>24622</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>CARIORTA</t>
         </is>
       </c>
       <c r="O17" t="n">
-        <v>2000015</v>
+        <v>2001012</v>
       </c>
       <c r="P17" t="n">
         <v>99999</v>
@@ -1666,22 +1666,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>limao-cariorta-1kg-98981</t>
+          <t>ovos-vermelhos-mantiqueira-happy-eggs-com-10-unidades-5106753</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Limão Cariorta 1Kg</t>
+          <t>Ovos Vermelhos Mantiqueira Happy Eggs com 10 Unidades</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>98981</t>
+          <t>5106753</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Cariorta selecionados de coração.</t>
+          <t>Produzidos por galinhas criadas livres de gaiolas. Garantia de Bem-Estar Animal. Ovos Vermelhos Tipo Grande Categoria A. Embalagem com 10 unidades.</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -1692,22 +1692,22 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2020-05-20T00:00:00Z</t>
+          <t>2021-01-11T00:00:00Z</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3084385/VF4qT-qqCUAAAAAAAAOgIg.jpg?v=638000868147970000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4222023/VF4qT-qqCUAAAAAAAAStHA.jpg?v=638894405636230000</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K18" t="n">
@@ -1715,21 +1715,21 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>24698</t>
+          <t>18105</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>24622</t>
+          <t>17997</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>CARIORTA</t>
+          <t>HAPPY EGGS</t>
         </is>
       </c>
       <c r="O18" t="n">
-        <v>2001012</v>
+        <v>2003319</v>
       </c>
       <c r="P18" t="n">
         <v>99999</v>
@@ -2156,45 +2156,49 @@
         <v>2000316</v>
       </c>
       <c r="P24" t="n">
-        <v>99999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>papel-toalha-coquetel-19cm-x-19cm-com-2-rolos-com-60-folhas-cada-783242</t>
+          <t>farinha-de-trigo-dona-benta-1kg-105287</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Papel Toalha Coquetel 19Cm X 19Cm com 2 Rolos com 60 Folhas Cada</t>
+          <t>Farinha De Trigo Dona Benta 1kg</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>783242</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
+          <t>105287</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Farinha De Trigo Dona Benta 1kg</t>
+        </is>
+      </c>
       <c r="E25" t="n">
-        <v>6.99</v>
+        <v>7.99</v>
       </c>
       <c r="F25" t="n">
-        <v>6.99</v>
+        <v>7.99</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>63</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2020-10-06T00:00:00Z</t>
+          <t>2020-07-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3050348/VF4qT-qqCUAAAAAAAAJRgg.jpg?v=637793335676500000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3079291/VF4qT-qqCUAAAAAAAANuog.jpg?v=637897755804270000</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2207,21 +2211,21 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>11627</t>
+          <t>31</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>11650</t>
+          <t>31</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>COQUETEL</t>
+          <t>DONA BENTA</t>
         </is>
       </c>
       <c r="O25" t="n">
-        <v>2001855</v>
+        <v>2000701</v>
       </c>
       <c r="P25" t="n">
         <v>100</v>
@@ -2230,43 +2234,43 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>farinha-de-trigo-dona-benta-1kg-105287</t>
+          <t>abobrinha-italiana-unidade-423513</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Farinha De Trigo Dona Benta 1kg</t>
+          <t>Abobrinha Italiana Unidade</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>105287</t>
+          <t>423513</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Farinha De Trigo Dona Benta 1kg</t>
+          <t>Abobrinha Italiana Unidade</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>7.99</v>
+        <v>2.1</v>
       </c>
       <c r="F26" t="n">
-        <v>7.99</v>
+        <v>2.1</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>53</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2020-07-06T00:00:00Z</t>
+          <t>2020-12-07T00:00:00Z</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3079291/VF4qT-qqCUAAAAAAAANuog.jpg?v=637897755804270000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3095398/VF4qT-qqCUAAAAAAAASlGA.jpg?v=638211351178300000</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2279,24 +2283,24 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>16065</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>15956</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>DONA BENTA</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O26" t="n">
-        <v>2000701</v>
+        <v>2000015</v>
       </c>
       <c r="P26" t="n">
-        <v>100</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="27">
@@ -2321,7 +2325,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>8.99</v>
+        <v>9.99</v>
       </c>
       <c r="F27" t="n">
         <v>9.99</v>
@@ -2374,43 +2378,43 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>abobrinha-italiana-unidade-423513</t>
+          <t>guardanapo-folha-dupla-scott-grand-hotel-jantar-33×33-cm-com-50-unidades-129887</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Abobrinha Italiana Unidade</t>
+          <t>Guardanapo Folha Dupla Scott Grand Hotel Jantar 33×33 Cm Com 50 Unidades</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>423513</t>
+          <t>129887</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Abobrinha Italiana Unidade</t>
+          <t>O Guardanapo Grand Hotel folha tripla é mais sofisticado e garante uma maciez superior para todos os momentos. Contém 50 folhas de tamanho 31,8x32,8 cm cada.</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1.75</v>
+        <v>12.99</v>
       </c>
       <c r="F28" t="n">
-        <v>2.1</v>
+        <v>12.99</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>111</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2020-12-07T00:00:00Z</t>
+          <t>2020-10-05T00:00:00Z</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3095398/VF4qT-qqCUAAAAAAAASlGA.jpg?v=638211351178300000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3078100/129887_1.jpg?v=637895346534630000</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2423,21 +2427,21 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>16065</t>
+          <t>9427</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>15956</t>
+          <t>9439</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>GRANDE HOTEL</t>
         </is>
       </c>
       <c r="O28" t="n">
-        <v>2000015</v>
+        <v>2001401</v>
       </c>
       <c r="P28" t="n">
         <v>99999</v>
@@ -2446,43 +2450,43 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>guardanapo-folha-dupla-scott-grand-hotel-jantar-33×33-cm-com-50-unidades-129887</t>
+          <t>papel-higienico-folha-tripla-neve-supreme-dermacare-pacote-leve-16-pague-15-unidades-981168</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Guardanapo Folha Dupla Scott Grand Hotel Jantar 33×33 Cm Com 50 Unidades</t>
+          <t>Papel Higiênico Folha Tripla Neve Supreme Dermacare Pacote Leve 16 Pague 15 Unidades</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>129887</t>
+          <t>981168</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>O Guardanapo Grand Hotel folha tripla é mais sofisticado e garante uma maciez superior para todos os momentos. Contém 50 folhas de tamanho 31,8x32,8 cm cada.</t>
+          <t>Papel higiênico neutro folha tripla de alta qualidade. Neve quer ajudar as pessoas a cuidarem de si, por isso desenvolveu um produto que proporciona maciez insuperável com mais absorção e resistência.</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>12.99</v>
+        <v>32.19</v>
       </c>
       <c r="F29" t="n">
-        <v>12.99</v>
+        <v>32.19</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>14</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2020-10-05T00:00:00Z</t>
+          <t>2020-09-22T00:00:00Z</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3078100/129887_1.jpg?v=637895346534630000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4430737/VF4qT-qqCUAAAAAAAAoMMw.jpg?v=639014499358300000</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2495,66 +2499,66 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>9427</t>
+          <t>1262</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>9439</t>
+          <t>1269</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>GRANDE HOTEL</t>
+          <t>NEVE</t>
         </is>
       </c>
       <c r="O29" t="n">
-        <v>2001401</v>
+        <v>2000291</v>
       </c>
       <c r="P29" t="n">
-        <v>99999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>papel-higienico-folha-tripla-neve-supreme-dermacare-pacote-leve-16-pague-15-unidades-981168</t>
+          <t>la-de-aco-bombril-com-6-unidades-45g-1180320</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Papel Higiênico Folha Tripla Neve Supreme Dermacare Pacote Leve 16 Pague 15 Unidades</t>
+          <t>Lã de Aço Bombril com 6 Unidades 45g</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>981168</t>
+          <t>1180320</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Papel higiênico neutro folha tripla de alta qualidade. Neve quer ajudar as pessoas a cuidarem de si, por isso desenvolveu um produto que proporciona maciez insuperável com mais absorção e resistência.</t>
+          <t>Uso: Ideal para limpeza de panelas, utensílios de cozinha, superfícies metálicas e outras áreas que necessitam de uma limpeza mais intensa.Remove sujeiras difíceis, incluindo resíduos de alimentos queimados e ferrugem.</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>32.19</v>
+        <v>2.19</v>
       </c>
       <c r="F30" t="n">
-        <v>32.19</v>
+        <v>2.99</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>78</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2020-09-22T00:00:00Z</t>
+          <t>2025-07-17T00:00:00Z</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4430737/VF4qT-qqCUAAAAAAAAoMMw.jpg?v=639014499358300000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4216409/VF4qT-qqCUAAAAAAAAko5g.jpg?v=638889221726300000</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -2567,21 +2571,21 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>1262</t>
+          <t>41130</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>1269</t>
+          <t>41057</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>NEVE</t>
+          <t>BOMBRIL</t>
         </is>
       </c>
       <c r="O30" t="n">
-        <v>2000291</v>
+        <v>2001389</v>
       </c>
       <c r="P30" t="n">
         <v>99999</v>
@@ -2662,70 +2666,70 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>mamao-papaia-cariorta-12kg-99007</t>
+          <t>detergente-para-loucas-biodegradavel-limpol-neutro-500-ml-100510</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Mamão Papaia Cariorta 1,2kg</t>
+          <t>Detergente Para Louças Biodegradável Limpol Neutro 500ml</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>99007</t>
+          <t>100510</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Cariorta selecionados de coração.</t>
+          <t>O Lava-Louças Limpol é eficiente no poder da limpeza, remoção da gordura e sujeiras e no combate aos maus odores indesejados da cozinha. Sua fórmula é dermatologicamente testada e contém glicerina, tornando-a mais suave para as mãos.</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>15.99</v>
+        <v>2.79</v>
       </c>
       <c r="F32" t="n">
-        <v>15.99</v>
+        <v>2.79</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>76</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2020-05-20T00:00:00Z</t>
+          <t>2020-10-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3082688/VF4qT-qqCUAAAAAAAAOOog.jpg?v=637980006057500000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3269221/12054_1.jpg?v=638386029717470000</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K32" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>24413</t>
+          <t>12054</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>24337</t>
+          <t>12081</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>CARIORTA</t>
+          <t>LIMPOL</t>
         </is>
       </c>
       <c r="O32" t="n">
-        <v>2001012</v>
+        <v>2001413</v>
       </c>
       <c r="P32" t="n">
         <v>99999</v>
@@ -2734,70 +2738,70 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>la-de-aco-bombril-com-6-unidades-45g-1180320</t>
+          <t>mamao-papaia-cariorta-12kg-99007</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Lã de Aço Bombril com 6 Unidades 45g</t>
+          <t>Mamão Papaia Cariorta 1,2kg</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1180320</t>
+          <t>99007</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Uso: Ideal para limpeza de panelas, utensílios de cozinha, superfícies metálicas e outras áreas que necessitam de uma limpeza mais intensa.Remove sujeiras difíceis, incluindo resíduos de alimentos queimados e ferrugem.</t>
+          <t>Cariorta selecionados de coração.</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>2.19</v>
+        <v>15.99</v>
       </c>
       <c r="F33" t="n">
-        <v>2.99</v>
+        <v>15.99</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>482</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-07-17T00:00:00Z</t>
+          <t>2020-05-20T00:00:00Z</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4216409/VF4qT-qqCUAAAAAAAAko5g.jpg?v=638889221726300000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3082688/VF4qT-qqCUAAAAAAAAOOog.jpg?v=637980006057500000</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K33" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>41130</t>
+          <t>24413</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>41057</t>
+          <t>24337</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>BOMBRIL</t>
+          <t>CARIORTA</t>
         </is>
       </c>
       <c r="O33" t="n">
-        <v>2001389</v>
+        <v>2001012</v>
       </c>
       <c r="P33" t="n">
         <v>99999</v>
@@ -2806,61 +2810,61 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>pessego-nacional-500g-12408</t>
+          <t>coentro-unidade-200930</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Pêssego Nacional 600g</t>
+          <t>Coentro Unidade</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>12408</t>
+          <t>200930</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Pêssego Nacional 500g</t>
+          <t>Coentro Unidade</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>8.99</v>
+        <v>3.39</v>
       </c>
       <c r="F34" t="n">
-        <v>10.99</v>
+        <v>3.39</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2020-09-26T00:00:00Z</t>
+          <t>2020-09-28T00:00:00Z</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3092387/VF4qT-qqCUAAAAAAAAFvOA.jpg?v=638151904193130000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3076728/VF4qT-qqCUAAAAAAAAGF4g.jpg?v=637877840364830000</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K34" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>5122</t>
+          <t>7408</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>5138</t>
+          <t>7427</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -2872,49 +2876,49 @@
         <v>2000015</v>
       </c>
       <c r="P34" t="n">
-        <v>100</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>oleo-de-soja-liza-900ml-127310</t>
+          <t>espinafre-unidade-200948</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Óleo De Soja Liza 900ml</t>
+          <t>Espinafre Unidade</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>127310</t>
+          <t>200948</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Óleo De Soja Liza 900ml</t>
+          <t>O espinafre é uma hortaliça saborosa, rica em ferro e também é fonte de vitamina A e B2, além de fornecer cálcio, fósforo, potássio e magnésio, é indicado também para pessoas com anemia e desnutrição.Como conservar :Sob refrigeração, pode ser mantido por no máximo 5 dias. Antes de colocálo na geladeira, lave as folhas, escorra o excesso de água e coloqueo em sacos de plástico perfurados ou em vasilha de plástico.Como consumir :O espinafre também pode ser usado em saladas, sopas,suflês omeletes. É ótimo como recheio ou acompanhamento de massas como macarrão, quiche, tortas, pastéis e assados. [Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>8.59</v>
+        <v>3.39</v>
       </c>
       <c r="F35" t="n">
-        <v>8.59</v>
+        <v>3.39</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2020-09-15T00:00:00Z</t>
+          <t>2020-09-28T00:00:00Z</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3075849/VF4qT-qqCUAAAAAAAAIxqw.jpg?v=637877802666600000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3076729/VF4qT-qqCUAAAAAAAAKBdQ.jpg?v=637877840409270000</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2927,21 +2931,21 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>7464</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>7483</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>LIZA</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O35" t="n">
-        <v>2000067</v>
+        <v>2000015</v>
       </c>
       <c r="P35" t="n">
         <v>99999</v>
@@ -2950,43 +2954,43 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>detergente-para-loucas-biodegradavel-limpol-neutro-500-ml-100510</t>
+          <t>oleo-de-soja-liza-900ml-127310</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Detergente Para Louças Biodegradável Limpol Neutro 500ml</t>
+          <t>Óleo De Soja Liza 900ml</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>100510</t>
+          <t>127310</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>O Lava-Louças Limpol é eficiente no poder da limpeza, remoção da gordura e sujeiras e no combate aos maus odores indesejados da cozinha. Sua fórmula é dermatologicamente testada e contém glicerina, tornando-a mais suave para as mãos.</t>
+          <t>Óleo De Soja Liza 900ml</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>2.79</v>
+        <v>8.59</v>
       </c>
       <c r="F36" t="n">
-        <v>2.79</v>
+        <v>8.59</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>576</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2020-10-06T00:00:00Z</t>
+          <t>2020-09-15T00:00:00Z</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3269221/12054_1.jpg?v=638386029717470000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3075849/VF4qT-qqCUAAAAAAAAIxqw.jpg?v=637877802666600000</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2999,21 +3003,21 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>12054</t>
+          <t>127</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>12081</t>
+          <t>132</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>LIMPOL</t>
+          <t>LIZA</t>
         </is>
       </c>
       <c r="O36" t="n">
-        <v>2001413</v>
+        <v>2000067</v>
       </c>
       <c r="P36" t="n">
         <v>99999</v>
@@ -3022,61 +3026,61 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>coentro-unidade-200930</t>
+          <t>abobora-japonesa-pedaco-500g-38229</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Coentro Unidade</t>
+          <t>Abóbora Japonesa Pedaço 500g</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>200930</t>
+          <t>38229</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Coentro Unidade</t>
+          <t>Embalagem com 1 pedaço.</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>2.49</v>
+        <v>5.29</v>
       </c>
       <c r="F37" t="n">
-        <v>3.39</v>
+        <v>5.29</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>53</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2020-09-28T00:00:00Z</t>
+          <t>2020-09-26T00:00:00Z</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3076728/VF4qT-qqCUAAAAAAAAGF4g.jpg?v=637877840364830000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3096862/VF4qT-qqCUAAAAAAAAS9Tw.jpg?v=638235593168230000</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K37" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>7408</t>
+          <t>5593</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>7427</t>
+          <t>5609</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -3094,43 +3098,43 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>espinafre-unidade-200948</t>
+          <t>refrigerante-coca-cola-sem-acucar-pet-600-ml-429392</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Espinafre Unidade</t>
+          <t>Refrigerante Coca Cola Sem Açúcar Pet 600ml</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>200948</t>
+          <t>429392</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>O espinafre é uma hortaliça saborosa, rica em ferro e também é fonte de vitamina A e B2, além de fornecer cálcio, fósforo, potássio e magnésio, é indicado também para pessoas com anemia e desnutrição.Como conservar :Sob refrigeração, pode ser mantido por no máximo 5 dias. Antes de colocálo na geladeira, lave as folhas, escorra o excesso de água e coloqueo em sacos de plástico perfurados ou em vasilha de plástico.Como consumir :O espinafre também pode ser usado em saladas, sopas,suflês omeletes. É ótimo como recheio ou acompanhamento de massas como macarrão, quiche, tortas, pastéis e assados. [Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
+          <t>A Coca-Cola Sem Açúcar é um refrigerante que não contém calorias! Com certeza você já se perguntou: “Então, de onde vem aquele gostinho doce? ” A Coca-Cola Sem Açúcar é produzida especialmente com adoçantes para manter o delicioso sabor de Coca-Cola porém com 0% Açucar. Perfeita para matar sua sede a qualquer hora do dia!</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>2.49</v>
+        <v>5.69</v>
       </c>
       <c r="F38" t="n">
-        <v>3.39</v>
+        <v>5.69</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2020-09-28T00:00:00Z</t>
+          <t>2020-10-01T00:00:00Z</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3076729/VF4qT-qqCUAAAAAAAAKBdQ.jpg?v=637877840409270000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4483407/VF4qT-qqCUAAAAAAAAoapA.jpg?v=639052524553700000</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -3143,21 +3147,21 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>7464</t>
+          <t>8816</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>7483</t>
+          <t>8828</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>COCA COLA</t>
         </is>
       </c>
       <c r="O38" t="n">
-        <v>2000015</v>
+        <v>2000027</v>
       </c>
       <c r="P38" t="n">
         <v>99999</v>
@@ -3166,70 +3170,70 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>abobora-japonesa-pedaco-500g-38229</t>
+          <t>pao-de-queijo-forno-de-minas-tradicional--400-g-456110</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Abóbora Japonesa Pedaço 500g</t>
+          <t>Pão De Queijo Forno De Minas Tradicional 400g</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>38229</t>
+          <t>456110</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Embalagem com 1 pedaço.</t>
+          <t>Pão De Queijo Forno De Minas Tradicional 400g</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>5.29</v>
+        <v>21.99</v>
       </c>
       <c r="F39" t="n">
-        <v>5.29</v>
+        <v>21.99</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>119</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2020-09-26T00:00:00Z</t>
+          <t>2020-10-20T00:00:00Z</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3096862/VF4qT-qqCUAAAAAAAAS9Tw.jpg?v=638235593168230000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3041185/VF4qT-qqCUAAAAAAAAHIag.jpg?v=637792557833470000</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K39" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>5593</t>
+          <t>13544</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>5609</t>
+          <t>13564</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>FORNO MINAS</t>
         </is>
       </c>
       <c r="O39" t="n">
-        <v>2000015</v>
+        <v>2001500</v>
       </c>
       <c r="P39" t="n">
         <v>99999</v>
@@ -3238,43 +3242,43 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>pao-de-queijo-forno-de-minas-tradicional--400-g-456110</t>
+          <t>sal-refinado-iodado-ita-1kg-117293</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Pão De Queijo Forno De Minas Tradicional 400g</t>
+          <t>Sal Refinado Iodado Ita 1kg</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>456110</t>
+          <t>117293</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Pão De Queijo Forno De Minas Tradicional 400g</t>
+          <t>Sal Refinado Iodado Ita 1kg</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>21.99</v>
+        <v>3.65</v>
       </c>
       <c r="F40" t="n">
-        <v>21.99</v>
+        <v>3.65</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2020-10-20T00:00:00Z</t>
+          <t>2020-09-15T00:00:00Z</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3041185/VF4qT-qqCUAAAAAAAAHIag.jpg?v=637792557833470000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3076051/VF4qT-qqCUAAAAAAAAKZcQ.jpg?v=637877811480070000</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -3287,21 +3291,21 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>13544</t>
+          <t>126</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>13564</t>
+          <t>131</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>FORNO MINAS</t>
+          <t>ITA</t>
         </is>
       </c>
       <c r="O40" t="n">
-        <v>2001500</v>
+        <v>2000066</v>
       </c>
       <c r="P40" t="n">
         <v>99999</v>
@@ -3310,70 +3314,70 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>refrigerante-coca-cola-sem-acucar-pet-600-ml-429392</t>
+          <t>alho-roxo-cariorta-4-a-5-unidades-250g-99279</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Refrigerante Coca Cola Sem Açúcar Pet 600ml</t>
+          <t>Alho Roxo Cariorta 4 a 5 unidades 250g</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>429392</t>
+          <t>99279</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>A Coca-Cola Sem Açúcar é um refrigerante que não contém calorias! Com certeza você já se perguntou: “Então, de onde vem aquele gostinho doce? ” A Coca-Cola Sem Açúcar é produzida especialmente com adoçantes para manter o delicioso sabor de Coca-Cola porém com 0% Açucar. Perfeita para matar sua sede a qualquer hora do dia!</t>
+          <t>Cariorta selecionados de coração.</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>5.69</v>
+        <v>59.99</v>
       </c>
       <c r="F41" t="n">
-        <v>5.69</v>
+        <v>59.99</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>480</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2020-10-01T00:00:00Z</t>
+          <t>2020-05-27T00:00:00Z</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4483407/VF4qT-qqCUAAAAAAAAoapA.jpg?v=639052524553700000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3082698/VF4qT-qqCUAAAAAAAAOOtg.jpg?v=637980006345970000</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K41" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>8816</t>
+          <t>24684</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>8828</t>
+          <t>24608</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>COCA COLA</t>
+          <t>CARIORTA</t>
         </is>
       </c>
       <c r="O41" t="n">
-        <v>2000027</v>
+        <v>2001012</v>
       </c>
       <c r="P41" t="n">
         <v>99999</v>
@@ -3382,43 +3386,43 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>sal-refinado-iodado-ita-1kg-117293</t>
+          <t>couve-manteiga-unidade-201235</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Sal Refinado Iodado Ita 1kg</t>
+          <t>Couve Manteiga Unidade</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>117293</t>
+          <t>201235</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Sal Refinado Iodado Ita 1kg</t>
+          <t>A couve é uma hortaliça muito rica em nutriente,cálcio, ferro e vitaminas A,C, K e B5.Como conservar:Em geladeira, inteira ou picada deve ser mantida em saco plástico fechado ou em vasilha de plástico tampada.Como consumir:Pode ser consumida crua, em saladas e sucos, refogada ou como ingrediente de sopas, farofas e cozidos.[ Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>3.65</v>
+        <v>3.39</v>
       </c>
       <c r="F42" t="n">
-        <v>3.65</v>
+        <v>3.39</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2020-09-15T00:00:00Z</t>
+          <t>2020-09-28T00:00:00Z</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3076051/VF4qT-qqCUAAAAAAAAKZcQ.jpg?v=637877811480070000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3083631/VF4qT-qqCUAAAAAAAAOZOA.jpg?v=637994955185970000</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -3431,21 +3435,21 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>7445</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>7464</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>ITA</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O42" t="n">
-        <v>2000066</v>
+        <v>2000015</v>
       </c>
       <c r="P42" t="n">
         <v>99999</v>
@@ -3454,70 +3458,70 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>alho-roxo-cariorta-4-a-5-unidades-250g-99279</t>
+          <t>saponaceo-cremoso-cif-limpeza-milagrosa-450ml-781266</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Alho Roxo Cariorta 4 a 5 unidades 250g</t>
+          <t>CIF Cremoso Limpeza Milagrosa remove 100% da sujeira 450 ml</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>99279</t>
+          <t>781266</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Cariorta selecionados de coração.</t>
+          <t>• Cif Cremoso Original é o produto de limpeza milagrosa que limpa fácil e dá brilho em mais de 100 superfícies*, removendo 100% da sujeira difícil, sem esforço • O Cif Cremoso Original possui um perfume suave, é mais concentrado e rende 7 garrafas do limpador comum • Fórmula com tecnologia poderosa que limpa sem riscar, removendo toda a sujeira desde a mais pesada até a limpeza de casa do dia a dia, deixando um brilho imbatível • Com o Cif, a limpeza nunca foi tão fácil e versátil. Cif Cremoso possui três variantes: Original, Limão e Laranja • Cif Cremoso Original é o produto de limpeza milagrosa para todo tipo de objeto como: eletrodomésticos, pias, couro sintético, borracha, plástico, porcelana e serve até como limpador de pisos • Cif promove uma limpeza milagrosa completa, com produtos versáteis que atendem a todas as suas necessidades. Cif. Sinta a limpeza acontecer! Cif Cremoso Original 450 ml é o produto de limpeza milagroso que limpa fácil e dá brilho em mais de 100 superfícies*, removendo 100% da sujeira difícil, sem esforço. O higienizador de casa cremoso é mais concentrado e rende 7 garrafas do limpador comum**. Sua fórmula, poderosa, limpa sem riscar***, removendo toda a sujeira desde a mais pesada até a limpeza de casa do dia a dia, deixando um brilho imbatível. Limpe toda sua casa usando o Cif Cremoso Original, que limpa todo tipo de objeto, como eletrodomésticos, potes plásticos, pias, brinquedos das crianças, persianas, pisos e até ajuda a deixar aquele cabo de carregador de celular como novo! Com o Limpador Cif, a limpeza nunca foi tão fácil e versátil. A linha do milagroso Cif Cremoso possui outras variedades de perfumes, como Laranja e Limão, que se adaptam ao seu estilo. Conheça a linha completa de produtos de limpeza Cif que não podem ficar de fora da sua lista de material de limpeza. Use também: Cif Cozinha, Cif Derrete Gordura, Cif Banheiro, Cif Tira Limo Com Cloro, Cif Vidros, Cif Cremoso e muito mais. Cif: Sinta a limpeza acontecer! Modo de usar: 1. Agite antes de usar. 2. Aplique uma pequena quantidade do produto sobre uma esponja ou pano úmido. 3. Esfregue a superfície suavemente até eliminar a sujeira. 4. Passe um pano úmido para finalizar. 5. Feche a embalagem após o uso. *Consulte lista das superfícies em www.ciflimpadores.com.br **Manchas de sabão e gordura queimada, comparado com limpadores comuns do mercado. Consulte a diferença de preços entre produtos. ***Não usar esponja ácida, como palha de aço, para a limpeza de vidros. A imagem do produto é meramente ilustrativa e o rótulo pode variar. Será enviada a embalagem disponível no momento da compra.</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>59.99</v>
+        <v>18.99</v>
       </c>
       <c r="F43" t="n">
-        <v>59.99</v>
+        <v>18.99</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>74</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2020-05-27T00:00:00Z</t>
+          <t>2020-10-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3082698/VF4qT-qqCUAAAAAAAAOOtg.jpg?v=637980006345970000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3640099/VF4qT-qqCUAAAAAAAAbyew.jpg?v=638585098972800000</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K43" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>24684</t>
+          <t>11602</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>24608</t>
+          <t>11625</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>CARIORTA</t>
+          <t>CIF</t>
         </is>
       </c>
       <c r="O43" t="n">
-        <v>2001012</v>
+        <v>2000541</v>
       </c>
       <c r="P43" t="n">
         <v>99999</v>
@@ -3526,70 +3530,70 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>biscoito-cream-cracker-piraque-pacote-184g-1105795</t>
+          <t>cereja-chilena-300g-13463</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Biscoito Cream Cracker Piraquê Pacote 184g</t>
+          <t>Cereja Chilena 300g</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1105795</t>
+          <t>13463</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Biscoito Salgado Cream Cracker Piraquê Pacote 184g</t>
+          <t>As cerejas chilenas vão deleitar seu paladar com seu doce e suculento sabor. Sua cor intensa, que varia do vermelho vibrante a tonalidades mais escuras, é um banquete para os olhos e o sinal dos inúmeros benefícios à saúde. Essa pequena fruta é uma fonte nutricional completa, com vitaminas essenciais como a C e a E, além de minerais como o ferro, potássio e magnésio. A cerejas podem ser consumidas frescas, no preparo de conservas, sobremesas e tortas e são classificadas por tamanho e nós só trazemos as mais graúdas especialmente para você!</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>3.95</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="F44" t="n">
-        <v>5.99</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2023-07-26T00:00:00Z</t>
+          <t>2020-09-26T00:00:00Z</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3099416/VF4qT-qqCUAAAAAAAATd0w.jpg?v=638264204522930000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4434078/VF4qT-qqCUAAAAAAAAoONQ.jpg?v=639019170859200000</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K44" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>33955</t>
+          <t>5090</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>33882</t>
+          <t>5106</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>PIRAQUE</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O44" t="n">
-        <v>2000017</v>
+        <v>2000015</v>
       </c>
       <c r="P44" t="n">
         <v>99999</v>
@@ -3598,101 +3602,101 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>cereja-chilena-300g-13463</t>
+          <t>biscoito-cream-cracker-piraque-pacote-184g-1105795</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Cereja Chilena 300g</t>
+          <t>Biscoito Cream Cracker Piraquê Pacote 184g</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>13463</t>
+          <t>1105795</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>As cerejas chilenas vão deleitar seu paladar com seu doce e suculento sabor. Sua cor intensa, que varia do vermelho vibrante a tonalidades mais escuras, é um banquete para os olhos e o sinal dos inúmeros benefícios à saúde. Essa pequena fruta é uma fonte nutricional completa, com vitaminas essenciais como a C e a E, além de minerais como o ferro, potássio e magnésio. A cerejas podem ser consumidas frescas, no preparo de conservas, sobremesas e tortas e são classificadas por tamanho e nós só trazemos as mais graúdas especialmente para você!</t>
+          <t>Biscoito Salgado Cream Cracker Piraquê Pacote 184g</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>64.90000000000001</v>
+        <v>3.95</v>
       </c>
       <c r="F45" t="n">
-        <v>69.90000000000001</v>
+        <v>5.99</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>31</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2020-09-26T00:00:00Z</t>
+          <t>2023-07-26T00:00:00Z</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4434078/VF4qT-qqCUAAAAAAAAoONQ.jpg?v=639019170859200000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3099416/VF4qT-qqCUAAAAAAAATd0w.jpg?v=638264204522930000</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K45" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>5090</t>
+          <t>33955</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>5106</t>
+          <t>33882</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>PIRAQUE</t>
         </is>
       </c>
       <c r="O45" t="n">
-        <v>2000015</v>
+        <v>2000017</v>
       </c>
       <c r="P45" t="n">
-        <v>99999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>saponaceo-cremoso-cif-limpeza-milagrosa-450ml-781266</t>
+          <t>desinfetante-banheiro-tira-limo-veja-x-14-sache-400ml-refil-economico-1066404</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>CIF Cremoso Limpeza Milagrosa remove 100% da sujeira 450 ml</t>
+          <t>Desinfetante Banheiro Tira-Limo Veja X-14 Sachê 400ml Refil Econômico</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>781266</t>
+          <t>1066404</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>• Cif Cremoso Original é o produto de limpeza milagrosa que limpa fácil e dá brilho em mais de 100 superfícies*, removendo 100% da sujeira difícil, sem esforço • O Cif Cremoso Original possui um perfume suave, é mais concentrado e rende 7 garrafas do limpador comum • Fórmula com tecnologia poderosa que limpa sem riscar, removendo toda a sujeira desde a mais pesada até a limpeza de casa do dia a dia, deixando um brilho imbatível • Com o Cif, a limpeza nunca foi tão fácil e versátil. Cif Cremoso possui três variantes: Original, Limão e Laranja • Cif Cremoso Original é o produto de limpeza milagrosa para todo tipo de objeto como: eletrodomésticos, pias, couro sintético, borracha, plástico, porcelana e serve até como limpador de pisos • Cif promove uma limpeza milagrosa completa, com produtos versáteis que atendem a todas as suas necessidades. Cif. Sinta a limpeza acontecer! Cif Cremoso Original 450 ml é o produto de limpeza milagroso que limpa fácil e dá brilho em mais de 100 superfícies*, removendo 100% da sujeira difícil, sem esforço. O higienizador de casa cremoso é mais concentrado e rende 7 garrafas do limpador comum**. Sua fórmula, poderosa, limpa sem riscar***, removendo toda a sujeira desde a mais pesada até a limpeza de casa do dia a dia, deixando um brilho imbatível. Limpe toda sua casa usando o Cif Cremoso Original, que limpa todo tipo de objeto, como eletrodomésticos, potes plásticos, pias, brinquedos das crianças, persianas, pisos e até ajuda a deixar aquele cabo de carregador de celular como novo! Com o Limpador Cif, a limpeza nunca foi tão fácil e versátil. A linha do milagroso Cif Cremoso possui outras variedades de perfumes, como Laranja e Limão, que se adaptam ao seu estilo. Conheça a linha completa de produtos de limpeza Cif que não podem ficar de fora da sua lista de material de limpeza. Use também: Cif Cozinha, Cif Derrete Gordura, Cif Banheiro, Cif Tira Limo Com Cloro, Cif Vidros, Cif Cremoso e muito mais. Cif: Sinta a limpeza acontecer! Modo de usar: 1. Agite antes de usar. 2. Aplique uma pequena quantidade do produto sobre uma esponja ou pano úmido. 3. Esfregue a superfície suavemente até eliminar a sujeira. 4. Passe um pano úmido para finalizar. 5. Feche a embalagem após o uso. *Consulte lista das superfícies em www.ciflimpadores.com.br **Manchas de sabão e gordura queimada, comparado com limpadores comuns do mercado. Consulte a diferença de preços entre produtos. ***Não usar esponja ácida, como palha de aço, para a limpeza de vidros. A imagem do produto é meramente ilustrativa e o rótulo pode variar. Será enviada a embalagem disponível no momento da compra.</t>
+          <t>Desinfetante Banheiro Tira-Limo Veja X-14 Sachê 400ml Refil Econômico</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>18.99</v>
+        <v>9.9</v>
       </c>
       <c r="F46" t="n">
-        <v>18.99</v>
+        <v>11.99</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -3701,12 +3705,12 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2020-10-06T00:00:00Z</t>
+          <t>2022-08-11T00:00:00Z</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3640099/VF4qT-qqCUAAAAAAAAbyew.jpg?v=638585098972800000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3927710/VF4qT-qqCUAAAAAAAAOGFQ.jpg?v=638733705155570000</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -3719,66 +3723,66 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>11602</t>
+          <t>27159</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>11625</t>
+          <t>27083</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>CIF</t>
+          <t>VEJA</t>
         </is>
       </c>
       <c r="O46" t="n">
-        <v>2000541</v>
+        <v>2000523</v>
       </c>
       <c r="P46" t="n">
-        <v>100</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>couve-manteiga-unidade-201235</t>
+          <t>papel-aluminio-rolitto-30cm-x-75-m-897795</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Couve Manteiga Unidade</t>
+          <t>Papel Alumínio Rolitto 30Cm X 7,5 M</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>201235</t>
+          <t>897795</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>A couve é uma hortaliça muito rica em nutriente,cálcio, ferro e vitaminas A,C, K e B5.Como conservar:Em geladeira, inteira ou picada deve ser mantida em saco plástico fechado ou em vasilha de plástico tampada.Como consumir:Pode ser consumida crua, em saladas e sucos, refogada ou como ingrediente de sopas, farofas e cozidos.[ Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
+          <t>Envolve , protege e conserva.</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>2.49</v>
+        <v>5.99</v>
       </c>
       <c r="F47" t="n">
-        <v>3.39</v>
+        <v>6.99</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>111</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2020-09-28T00:00:00Z</t>
+          <t>2020-10-05T00:00:00Z</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3083631/VF4qT-qqCUAAAAAAAAOZOA.jpg?v=637994955185970000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3061098/VF4qT-qqCUAAAAAAAAGpfA.jpg?v=637794125591230000</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -3791,21 +3795,21 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>7445</t>
+          <t>9853</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>7464</t>
+          <t>9866</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>KENTINHA</t>
         </is>
       </c>
       <c r="O47" t="n">
-        <v>2000015</v>
+        <v>2001532</v>
       </c>
       <c r="P47" t="n">
         <v>99999</v>
@@ -3876,54 +3880,50 @@
         <v>2000015</v>
       </c>
       <c r="P48" t="n">
-        <v>100</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>matte-leao-natural-pet-15l-118214</t>
+          <t>abobrinha-italiana-cariorta-1kg-98663</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Matte Leão Natural Pet 1,5L</t>
+          <t>Abobrinha Italiana Cariorta 1Kg</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>118214</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Renove seu humor, recicle seu ritmo e siga em frente. Experimente combinar o seu dia com o sabor inconfundível de Matte Leão.Matte Leão é feito com folhas de ervamate selecionadas e tostadas num processo único, especialmente para você.Porção de 200 mL (1 copo) = 68 kcal.</t>
-        </is>
-      </c>
+          <t>98663</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
       <c r="E49" t="n">
-        <v>7.69</v>
+        <v>6.99</v>
       </c>
       <c r="F49" t="n">
-        <v>8.99</v>
+        <v>6.99</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>483</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2020-10-01T00:00:00Z</t>
+          <t>2020-12-16T00:00:00Z</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3704453/VF4qT-qqCUAAAAAAAAGyOQ.jpg?v=638609291247270000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3082667/VF4qT-qqCUAAAAAAAAOOdQ.jpg?v=637979987909700000</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K49" t="n">
@@ -3931,21 +3931,21 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>8709</t>
+          <t>16567</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>8721</t>
+          <t>16458</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>LEAO</t>
+          <t>CARIORTA</t>
         </is>
       </c>
       <c r="O49" t="n">
-        <v>2000010</v>
+        <v>2001012</v>
       </c>
       <c r="P49" t="n">
         <v>99999</v>

--- a/zonasul.xlsx
+++ b/zonasul.xlsx
@@ -518,43 +518,39 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ovos-brancos-jumbo-mantiqueira-com-10-unidades-437638</t>
+          <t>creme-de-leite-nestle-10--gratis-200g-1165151</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ovos Brancos Jumbo Mantiqueira Com 10 Unidades</t>
+          <t>Creme de Leite Nestlé 10% Grátis 200g</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>437638</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Os Ovos Jumbo Mantiqueira possuem maior tamanho, ideais para quem busca uma alimentação rica em vitaminas, proteínas e minerais, ou para quem gosta de um maior rendimento em suas receitas. Um único ovo contém quase todos os nutrientes necessários para manter o corpo saudável, fortalecendo os ossos e auxiliando em dietas para perda de peso ou ganho de massa.O Ovo Jumbo Mantiqueira é um produto da linha Especial da marca e possui a qualidade superior, passando por um moderno sistema de seleção, limpeza e embalagem sem contato de mãos humanas.Especificações:Ovos maiores, tamanho família.Embalagem com 10 unidades.Ovos brancos e vermelhos tipo jumbo categoria A.</t>
-        </is>
-      </c>
+          <t>1165151</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="n">
-        <v>10.9</v>
+        <v>5.99</v>
       </c>
       <c r="F2" t="n">
-        <v>10.9</v>
+        <v>5.99</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>71</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2020-09-27T00:00:00Z</t>
+          <t>2025-02-20T00:00:00Z</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3976126/VF4qT-qqCUAAAAAAAAh4RA.jpg?v=638769994856100000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4395976/VF4qT-qqCUAAAAAAAAoEeQ.jpg?v=638984266226730000</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -567,62 +563,66 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>7002</t>
+          <t>40151</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>7020</t>
+          <t>40078</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>MANTIQUEIRA</t>
+          <t>NESTLE</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>2001056</v>
+        <v>2000043</v>
       </c>
       <c r="P2" t="n">
-        <v>100</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>creme-de-leite-nestle-10--gratis-200g-1165151</t>
+          <t>ovos-brancos-jumbo-mantiqueira-com-10-unidades-437638</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Creme de Leite Nestlé 10% Grátis 200g</t>
+          <t>Ovos Brancos Jumbo Mantiqueira Com 10 Unidades</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1165151</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
+          <t>437638</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Os Ovos Jumbo Mantiqueira possuem maior tamanho, ideais para quem busca uma alimentação rica em vitaminas, proteínas e minerais, ou para quem gosta de um maior rendimento em suas receitas. Um único ovo contém quase todos os nutrientes necessários para manter o corpo saudável, fortalecendo os ossos e auxiliando em dietas para perda de peso ou ganho de massa.O Ovo Jumbo Mantiqueira é um produto da linha Especial da marca e possui a qualidade superior, passando por um moderno sistema de seleção, limpeza e embalagem sem contato de mãos humanas.Especificações:Ovos maiores, tamanho família.Embalagem com 10 unidades.Ovos brancos e vermelhos tipo jumbo categoria A.</t>
+        </is>
+      </c>
       <c r="E3" t="n">
-        <v>5.99</v>
+        <v>10.9</v>
       </c>
       <c r="F3" t="n">
-        <v>5.99</v>
+        <v>10.9</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-02-20T00:00:00Z</t>
+          <t>2020-09-27T00:00:00Z</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4395976/VF4qT-qqCUAAAAAAAAoEeQ.jpg?v=638984266226730000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3976126/VF4qT-qqCUAAAAAAAAh4RA.jpg?v=638769994856100000</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -635,24 +635,24 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>40151</t>
+          <t>7002</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>40078</t>
+          <t>7020</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>NESTLE</t>
+          <t>MANTIQUEIRA</t>
         </is>
       </c>
       <c r="O3" t="n">
-        <v>2000043</v>
+        <v>2001056</v>
       </c>
       <c r="P3" t="n">
-        <v>99999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
@@ -802,70 +802,70 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>batata-inglesa-cariorta-12kg-98698</t>
+          <t>uva-preta-sem-semente-500-g-674583</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Batata Inglesa Cariorta 1,2Kg</t>
+          <t>Uva Preta Sem Semente 500g</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>98698</t>
+          <t>674583</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Cariorta selecionados de coração.</t>
+          <t>Eventualmente, devido à variações climáticas, essa variedade pode apresentar traços de sementes comestíveis As uvas são, sem dúvidas, uma das frutas mais nutritivas de todas. Apesar de seu tamanho relativamente pequeno, elas são extremamente poderosas nutricionalmente e consumilas é muito importante para o bom funcionamento do corpo.As calorias presentes nas uvas também são poucas: apenas 90 em cerca de 150g. Por isso, é uma ótima opção também para aqueles que estão em processo de redução da massa corporal, desde que consumida com cautela.Rica em antioxidantes que são responsáveis por ‘’limpar’’ e proteger as nossas células dos chamados radicais livres, compostos potencialmente perigosos que podem danificar essas estruturas.Os antioxidantes estão mais comumente presentes na casca da fruta, o que é indicado pela coloração delas. Quanto mais escuras, maior é a concentração desses compostos na uva. Os principais exemplos são os polifenois, e o mais famoso deles chamase resveratrol.</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>8.99</v>
+        <v>11.99</v>
       </c>
       <c r="F6" t="n">
-        <v>8.99</v>
+        <v>11.99</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2020-12-16T00:00:00Z</t>
+          <t>2020-09-26T00:00:00Z</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3082670/VF4qT-qqCUAAAAAAAAOOew.jpg?v=637979987993130000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3047035/VF4qT-qqCUAAAAAAAAGXCQ.jpg?v=637793205627670000</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K6" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>16570</t>
+          <t>5264</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>16461</t>
+          <t>5280</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>CARIORTA</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O6" t="n">
-        <v>2001012</v>
+        <v>2000015</v>
       </c>
       <c r="P6" t="n">
         <v>99999</v>
@@ -874,70 +874,70 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>uva-preta-sem-semente-500-g-674583</t>
+          <t>batata-inglesa-cariorta-12kg-98698</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Uva Preta Sem Semente 500g</t>
+          <t>Batata Inglesa Cariorta 1,2Kg</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>674583</t>
+          <t>98698</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Eventualmente, devido à variações climáticas, essa variedade pode apresentar traços de sementes comestíveis As uvas são, sem dúvidas, uma das frutas mais nutritivas de todas. Apesar de seu tamanho relativamente pequeno, elas são extremamente poderosas nutricionalmente e consumilas é muito importante para o bom funcionamento do corpo.As calorias presentes nas uvas também são poucas: apenas 90 em cerca de 150g. Por isso, é uma ótima opção também para aqueles que estão em processo de redução da massa corporal, desde que consumida com cautela.Rica em antioxidantes que são responsáveis por ‘’limpar’’ e proteger as nossas células dos chamados radicais livres, compostos potencialmente perigosos que podem danificar essas estruturas.Os antioxidantes estão mais comumente presentes na casca da fruta, o que é indicado pela coloração delas. Quanto mais escuras, maior é a concentração desses compostos na uva. Os principais exemplos são os polifenois, e o mais famoso deles chamase resveratrol.</t>
+          <t>Cariorta selecionados de coração.</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>11.99</v>
+        <v>7.99</v>
       </c>
       <c r="F7" t="n">
-        <v>11.99</v>
+        <v>7.99</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>483</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2020-09-26T00:00:00Z</t>
+          <t>2020-12-16T00:00:00Z</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3047035/VF4qT-qqCUAAAAAAAAGXCQ.jpg?v=637793205627670000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3082670/VF4qT-qqCUAAAAAAAAOOew.jpg?v=637979987993130000</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>5264</t>
+          <t>16570</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>5280</t>
+          <t>16461</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>CARIORTA</t>
         </is>
       </c>
       <c r="O7" t="n">
-        <v>2000015</v>
+        <v>2001012</v>
       </c>
       <c r="P7" t="n">
         <v>99999</v>
@@ -1181,7 +1181,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3.39</v>
+        <v>2.49</v>
       </c>
       <c r="F11" t="n">
         <v>3.39</v>
@@ -1325,7 +1325,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5.39</v>
+        <v>4.79</v>
       </c>
       <c r="F13" t="n">
         <v>5.39</v>
@@ -1450,43 +1450,43 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>couve-flor-unidade-189111</t>
+          <t>abacaxi-unidade-221</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Couve Flor Unidade</t>
+          <t>Abacaxi Unidade</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>189111</t>
+          <t>221</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>A couveflor é uma hortaliça rica em cálcio e fósforo e fonte de ácido fólico e vitamina C . Como Conservar:Na geladeira pode ser conservada por 3 a 5 dias, dentro de saco plástico perfurado. Antes de guardar, remova as partes escuras e folhas, mas não lave a cabeça.Como Consumir:Pode ser consumida assada, frita ou cozinhe em água e sal. [Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
+          <t>Peso Aproximado 1,61,8Kg / Unidade.O Abacaxi é rico em Vitaminas A, B5, B6, C, BetaCaroteno, Tiamina, Antioxidantes e Fibras, auxiliando na saciedade e regulação do peso. É uma Importante fonte de energia póstreino. Auxilia nos processos antiinflamatórios por conter Bromelina, enzima encontrada principalmente no talo da fruta. Como preparar: no seu estado natural cortado, em saladas, assado, grelhado, sucos, geleias, sorvetes e chás.</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>9.99</v>
+        <v>8.99</v>
       </c>
       <c r="F15" t="n">
-        <v>9.99</v>
+        <v>10.99</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2020-09-28T00:00:00Z</t>
+          <t>2020-09-26T00:00:00Z</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3041615/VF4qT-qqCUAAAAAAAAGF4Q.jpg?v=637792579893500000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3041923/VF4qT-qqCUAAAAAAAAFtXw.jpg?v=637792593143530000</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1499,12 +1499,12 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>7446</t>
+          <t>4959</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>7465</t>
+          <t>4975</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1516,49 +1516,49 @@
         <v>2000015</v>
       </c>
       <c r="P15" t="n">
-        <v>99999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>abacaxi-unidade-221</t>
+          <t>cafe-torrado-e-moido-pilao-tradicional-500g-828025</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Abacaxi Unidade</t>
+          <t>Café Torrado E Moído Pilão Tradicional Fresh Pack 500g</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>828025</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Peso Aproximado 1,61,8Kg / Unidade.O Abacaxi é rico em Vitaminas A, B5, B6, C, BetaCaroteno, Tiamina, Antioxidantes e Fibras, auxiliando na saciedade e regulação do peso. É uma Importante fonte de energia póstreino. Auxilia nos processos antiinflamatórios por conter Bromelina, enzima encontrada principalmente no talo da fruta. Como preparar: no seu estado natural cortado, em saladas, assado, grelhado, sucos, geleias, sorvetes e chás.</t>
+          <t>Tem um ponto de torra acentuado e um processo de moagem fina e uniforme, que garantem e preservam seu sabor forte e encorpado.É perfeito para servir em dia de casa cheia, pois seu sabor tradicional agrada a todo mundo.</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>10.99</v>
+        <v>31.98</v>
       </c>
       <c r="F16" t="n">
-        <v>10.99</v>
+        <v>43.9</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>59</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2020-09-26T00:00:00Z</t>
+          <t>2020-09-15T00:00:00Z</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3041923/VF4qT-qqCUAAAAAAAAFtXw.jpg?v=637792593143530000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3051146/VF4qT-qqCUAAAAAAAAG1sQ.jpg?v=637793369863530000</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1571,21 +1571,21 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>4959</t>
+          <t>130</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>4975</t>
+          <t>135</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>PILAO</t>
         </is>
       </c>
       <c r="O16" t="n">
-        <v>2000015</v>
+        <v>2000070</v>
       </c>
       <c r="P16" t="n">
         <v>100</v>
@@ -1594,48 +1594,48 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>limao-cariorta-1kg-98981</t>
+          <t>couve-flor-unidade-189111</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Limão Cariorta 1Kg</t>
+          <t>Couve Flor Unidade</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>98981</t>
+          <t>189111</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Cariorta selecionados de coração.</t>
+          <t>A couveflor é uma hortaliça rica em cálcio e fósforo e fonte de ácido fólico e vitamina C . Como Conservar:Na geladeira pode ser conservada por 3 a 5 dias, dentro de saco plástico perfurado. Antes de guardar, remova as partes escuras e folhas, mas não lave a cabeça.Como Consumir:Pode ser consumida assada, frita ou cozinhe em água e sal. [Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>11.99</v>
+        <v>9.99</v>
       </c>
       <c r="F17" t="n">
-        <v>11.99</v>
+        <v>9.99</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>53</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2020-05-20T00:00:00Z</t>
+          <t>2020-09-28T00:00:00Z</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3084385/VF4qT-qqCUAAAAAAAAOgIg.jpg?v=638000868147970000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3041615/VF4qT-qqCUAAAAAAAAGF4Q.jpg?v=637792579893500000</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K17" t="n">
@@ -1643,21 +1643,21 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>24698</t>
+          <t>7446</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>24622</t>
+          <t>7465</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>CARIORTA</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O17" t="n">
-        <v>2001012</v>
+        <v>2000015</v>
       </c>
       <c r="P17" t="n">
         <v>99999</v>
@@ -1666,22 +1666,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ovos-vermelhos-mantiqueira-happy-eggs-com-10-unidades-5106753</t>
+          <t>limao-cariorta-1kg-98981</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Ovos Vermelhos Mantiqueira Happy Eggs com 10 Unidades</t>
+          <t>Limão Cariorta 1Kg</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>5106753</t>
+          <t>98981</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Produzidos por galinhas criadas livres de gaiolas. Garantia de Bem-Estar Animal. Ovos Vermelhos Tipo Grande Categoria A. Embalagem com 10 unidades.</t>
+          <t>Cariorta selecionados de coração.</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -1692,22 +1692,22 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>482</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2021-01-11T00:00:00Z</t>
+          <t>2020-05-20T00:00:00Z</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4222023/VF4qT-qqCUAAAAAAAAStHA.jpg?v=638894405636230000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3084385/VF4qT-qqCUAAAAAAAAOgIg.jpg?v=638000868147970000</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K18" t="n">
@@ -1715,21 +1715,21 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>18105</t>
+          <t>24698</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>17997</t>
+          <t>24622</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>HAPPY EGGS</t>
+          <t>CARIORTA</t>
         </is>
       </c>
       <c r="O18" t="n">
-        <v>2003319</v>
+        <v>2001012</v>
       </c>
       <c r="P18" t="n">
         <v>99999</v>
@@ -1738,43 +1738,43 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>detergente-para-loucas-odd-clear-500ml-982911</t>
+          <t>ovos-vermelhos-mantiqueira-happy-eggs-com-10-unidades-5106753</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Detergente Para Louças Odd Clear 500ml</t>
+          <t>Ovos Vermelhos Mantiqueira Happy Eggs com 10 Unidades</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>982911</t>
+          <t>5106753</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>ODD voltou!Alto rendimento , controle de odor.</t>
+          <t>Produzidos por galinhas criadas livres de gaiolas. Garantia de Bem-Estar Animal. Ovos Vermelhos Tipo Grande Categoria A. Embalagem com 10 unidades.</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1.9</v>
+        <v>11.99</v>
       </c>
       <c r="F19" t="n">
-        <v>2.49</v>
+        <v>11.99</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2020-10-06T00:00:00Z</t>
+          <t>2021-01-11T00:00:00Z</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3056732/VF4qT-qqCUAAAAAAAAHzRQ.jpg?v=637793635376800000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4222023/VF4qT-qqCUAAAAAAAAStHA.jpg?v=638894405636230000</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1787,21 +1787,21 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>11872</t>
+          <t>18105</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>11898</t>
+          <t>17997</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>LIMPPANO</t>
+          <t>HAPPY EGGS</t>
         </is>
       </c>
       <c r="O19" t="n">
-        <v>2001341</v>
+        <v>2003319</v>
       </c>
       <c r="P19" t="n">
         <v>99999</v>
@@ -1810,66 +1810,70 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>pao-frances-panetto-60g-com-4-unidades-96318</t>
+          <t>detergente-para-loucas-odd-clear-500ml-982911</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Pão Francês Panetto  60g Com 4 unidades</t>
+          <t>Detergente Para Louças Odd Clear 500ml</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>96318</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
+          <t>982911</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>ODD voltou!Alto rendimento , controle de odor.</t>
+        </is>
+      </c>
       <c r="E20" t="n">
-        <v>24.99</v>
+        <v>1.9</v>
       </c>
       <c r="F20" t="n">
-        <v>24.99</v>
+        <v>2.49</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>76</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2024-01-31T00:00:00Z</t>
+          <t>2020-10-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3307700/VF4qT-qqCUAAAAAAAAWnXQ.jpg?v=638932898013670000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3056732/VF4qT-qqCUAAAAAAAAHzRQ.jpg?v=637793635376800000</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K20" t="n">
-        <v>0.24</v>
+        <v>1</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>35477</t>
+          <t>11872</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>35404</t>
+          <t>11898</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>PANETTO</t>
+          <t>LIMPPANO</t>
         </is>
       </c>
       <c r="O20" t="n">
-        <v>2000307</v>
+        <v>2001341</v>
       </c>
       <c r="P20" t="n">
         <v>99999</v>
@@ -1946,70 +1950,66 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>azeite-italiano-extra-virgem-due-500ml-5472040</t>
+          <t>pao-frances-panetto-60g-com-4-unidades-96318</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Azeite Italiano Extravirgem Due 500ml</t>
+          <t>Pão Francês Panetto  60g Com 4 unidades</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>5472040</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>O azeite Due é um blend de azeites do Mediterrâneo que confere um resultado clássico e ideal para o cotidiano da cozinha. Sua elaboração conta com uma seleção cautelosamente realizada pelo Expert em Azeites e Temperos Marcelo Scofano, que anualmente viaja à Toscana (Itália), onde o azeite é produzido, para cuidar de cada detalhe pessoalmente.Due é um azeite clássico, ideal para o dia a dia da cozinha: marinados, refogados, emulsão de molhos, finalização de saladas, massas e pratos do cotidiano. O azeite clássico é extraído de azeitonas maduras. Possui sabor amendoado, com notas amargas e picantes em equilíbrio.O azeite Due faz parte da grupo de marcas exclusivas Zona Sul, criada e pensada com carinho para os cariocas de coração. O planejamento de cada produto exclusivo conta com a participação dos Experts Zona Sul em todo o processo, até chegar na sua mesa. E com a linha Due não é diferente!</t>
-        </is>
-      </c>
+          <t>96318</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="n">
-        <v>36.9</v>
+        <v>24.99</v>
       </c>
       <c r="F22" t="n">
-        <v>36.9</v>
+        <v>24.99</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>89</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-06T00:00:00Z</t>
+          <t>2024-01-31T00:00:00Z</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4116721/VF4qT-qqCUAAAAAAAAiyjQ.jpg?v=638846625781330000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3307700/VF4qT-qqCUAAAAAAAAWnXQ.jpg?v=638932898013670000</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>0.24</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>40224</t>
+          <t>35477</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>40151</t>
+          <t>35404</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>DUE</t>
+          <t>PANETTO</t>
         </is>
       </c>
       <c r="O22" t="n">
-        <v>2005138</v>
+        <v>2000307</v>
       </c>
       <c r="P22" t="n">
         <v>99999</v>
@@ -2018,43 +2018,43 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>file-de-peito-de-frango-sadia-bandeja-1kg-290564</t>
+          <t>azeite-italiano-extra-virgem-due-500ml-5472040</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Filé de Peito de Frango Sadia Bandeja 1kg</t>
+          <t>Azeite Italiano Extravirgem Due 500ml</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>290564</t>
+          <t>5472040</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Peito De Frango Em Filés Sadia Bandeja 1kg</t>
+          <t>O azeite Due é um blend de azeites do Mediterrâneo que confere um resultado clássico e ideal para o cotidiano da cozinha. Sua elaboração conta com uma seleção cautelosamente realizada pelo Expert em Azeites e Temperos Marcelo Scofano, que anualmente viaja à Toscana (Itália), onde o azeite é produzido, para cuidar de cada detalhe pessoalmente.Due é um azeite clássico, ideal para o dia a dia da cozinha: marinados, refogados, emulsão de molhos, finalização de saladas, massas e pratos do cotidiano. O azeite clássico é extraído de azeitonas maduras. Possui sabor amendoado, com notas amargas e picantes em equilíbrio.O azeite Due faz parte da grupo de marcas exclusivas Zona Sul, criada e pensada com carinho para os cariocas de coração. O planejamento de cada produto exclusivo conta com a participação dos Experts Zona Sul em todo o processo, até chegar na sua mesa. E com a linha Due não é diferente!</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>24.99</v>
+        <v>36.9</v>
       </c>
       <c r="F23" t="n">
-        <v>26.99</v>
+        <v>36.9</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>597</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2020-09-29T00:00:00Z</t>
+          <t>2025-05-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3538840/VF4qT-qqCUAAAAAAAAa5gg.jpg?v=638550537679130000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4116721/VF4qT-qqCUAAAAAAAAiyjQ.jpg?v=638846625781330000</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -2067,21 +2067,21 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>40224</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>40151</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>SADIA</t>
+          <t>DUE</t>
         </is>
       </c>
       <c r="O23" t="n">
-        <v>2000057</v>
+        <v>2005138</v>
       </c>
       <c r="P23" t="n">
         <v>99999</v>
@@ -2090,43 +2090,43 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>pao-de-forma-plus-vita-tradicional-500-g-252921</t>
+          <t>file-de-peito-de-frango-sadia-bandeja-1kg-290564</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Pão de Forma Tradicional Plusvita 480g</t>
+          <t>Filé de Peito de Frango Sadia Bandeja 1kg</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>252921</t>
+          <t>290564</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Versátil, prático e para qualquer momento, trazendo a energia necessária para o seu dia. Perfeito para sanduíches, torradas, receitas para o café da manhã, café da tarde, almoço e jantar</t>
+          <t>Peito De Frango Em Filés Sadia Bandeja 1kg</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>9.98</v>
+        <v>24.99</v>
       </c>
       <c r="F24" t="n">
-        <v>9.98</v>
+        <v>26.99</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>125</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2020-10-05T00:00:00Z</t>
+          <t>2020-09-29T00:00:00Z</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3663691/VF4qT-qqCUAAAAAAAAb-gA.jpg?v=638592874910030000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3538840/VF4qT-qqCUAAAAAAAAa5gg.jpg?v=638550537679130000</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -2139,24 +2139,24 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>9715</t>
+          <t>7</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>9727</t>
+          <t>7</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>PLUS VITA</t>
+          <t>SADIA</t>
         </is>
       </c>
       <c r="O24" t="n">
-        <v>2000316</v>
+        <v>2000057</v>
       </c>
       <c r="P24" t="n">
-        <v>100</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="25">
@@ -2234,43 +2234,43 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>abobrinha-italiana-unidade-423513</t>
+          <t>morango-250g-289612</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Abobrinha Italiana Unidade</t>
+          <t>Morango 250g</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>423513</t>
+          <t>289612</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Abobrinha Italiana Unidade</t>
+          <t>Embalagem com 250g "O morango é rico em vitamina C e, por isso, o consumo da fruta evita a fragilidade dos ossos e a má formação dos dentes. Ele também dá resistência aos tecidos, age contra infecções ajudando na cicatrização. O morango também possui, em menor quantidade, vitamina B5, conhecida como niacina. Ela tem a função de evitar problemas de pele, do aparelho digestivo e do sistema nervoso. Na fruta, também é encontrado ferro, que faz parte da formação do sangue."</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>2.1</v>
+        <v>9.99</v>
       </c>
       <c r="F26" t="n">
-        <v>2.1</v>
+        <v>9.99</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2020-12-07T00:00:00Z</t>
+          <t>2020-09-26T00:00:00Z</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3095398/VF4qT-qqCUAAAAAAAASlGA.jpg?v=638211351178300000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3226559/VF4qT-qqCUAAAAAAAAHKNA.jpg?v=638352676547800000</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2283,12 +2283,12 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>16065</t>
+          <t>5152</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>15956</t>
+          <t>5168</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -2306,43 +2306,43 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>morango-250g-289612</t>
+          <t>abobrinha-italiana-unidade-423513</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Morango 250g</t>
+          <t>Abobrinha Italiana Unidade</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>289612</t>
+          <t>423513</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Embalagem com 250g "O morango é rico em vitamina C e, por isso, o consumo da fruta evita a fragilidade dos ossos e a má formação dos dentes. Ele também dá resistência aos tecidos, age contra infecções ajudando na cicatrização. O morango também possui, em menor quantidade, vitamina B5, conhecida como niacina. Ela tem a função de evitar problemas de pele, do aparelho digestivo e do sistema nervoso. Na fruta, também é encontrado ferro, que faz parte da formação do sangue."</t>
+          <t>Abobrinha Italiana Unidade</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>9.99</v>
+        <v>2.1</v>
       </c>
       <c r="F27" t="n">
-        <v>9.99</v>
+        <v>2.45</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>53</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2020-09-26T00:00:00Z</t>
+          <t>2020-12-07T00:00:00Z</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3226559/VF4qT-qqCUAAAAAAAAHKNA.jpg?v=638352676547800000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3095398/VF4qT-qqCUAAAAAAAASlGA.jpg?v=638211351178300000</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -2355,12 +2355,12 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>5152</t>
+          <t>16065</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>5168</t>
+          <t>15956</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -2450,43 +2450,39 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>papel-higienico-folha-tripla-neve-supreme-dermacare-pacote-leve-16-pague-15-unidades-981168</t>
+          <t>papel-toalha-coquetel-19cm-x-19cm-com-2-rolos-com-60-folhas-cada-783242</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Papel Higiênico Folha Tripla Neve Supreme Dermacare Pacote Leve 16 Pague 15 Unidades</t>
+          <t>Papel Toalha Coquetel 19Cm X 19Cm com 2 Rolos com 60 Folhas Cada</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>981168</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Papel higiênico neutro folha tripla de alta qualidade. Neve quer ajudar as pessoas a cuidarem de si, por isso desenvolveu um produto que proporciona maciez insuperável com mais absorção e resistência.</t>
-        </is>
-      </c>
+          <t>783242</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="n">
-        <v>32.19</v>
+        <v>6.99</v>
       </c>
       <c r="F29" t="n">
-        <v>32.19</v>
+        <v>6.99</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>111</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2020-09-22T00:00:00Z</t>
+          <t>2020-10-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4430737/VF4qT-qqCUAAAAAAAAoMMw.jpg?v=639014499358300000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3050348/VF4qT-qqCUAAAAAAAAJRgg.jpg?v=637793335676500000</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2499,21 +2495,21 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>1262</t>
+          <t>11627</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>1269</t>
+          <t>11650</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>NEVE</t>
+          <t>COQUETEL</t>
         </is>
       </c>
       <c r="O29" t="n">
-        <v>2000291</v>
+        <v>2001855</v>
       </c>
       <c r="P29" t="n">
         <v>100</v>
@@ -2522,43 +2518,43 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>la-de-aco-bombril-com-6-unidades-45g-1180320</t>
+          <t>papel-higienico-folha-tripla-neve-supreme-dermacare-pacote-leve-16-pague-15-unidades-981168</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Lã de Aço Bombril com 6 Unidades 45g</t>
+          <t>Papel Higiênico Folha Tripla Neve Supreme Dermacare Pacote Leve 16 Pague 15 Unidades</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1180320</t>
+          <t>981168</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Uso: Ideal para limpeza de panelas, utensílios de cozinha, superfícies metálicas e outras áreas que necessitam de uma limpeza mais intensa.Remove sujeiras difíceis, incluindo resíduos de alimentos queimados e ferrugem.</t>
+          <t>Papel higiênico neutro folha tripla de alta qualidade. Neve quer ajudar as pessoas a cuidarem de si, por isso desenvolveu um produto que proporciona maciez insuperável com mais absorção e resistência.</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>2.19</v>
+        <v>32.19</v>
       </c>
       <c r="F30" t="n">
-        <v>2.99</v>
+        <v>32.19</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>14</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-07-17T00:00:00Z</t>
+          <t>2020-09-22T00:00:00Z</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4216409/VF4qT-qqCUAAAAAAAAko5g.jpg?v=638889221726300000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4430737/VF4qT-qqCUAAAAAAAAoMMw.jpg?v=639014499358300000</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -2571,21 +2567,21 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>41130</t>
+          <t>1262</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>41057</t>
+          <t>1269</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>BOMBRIL</t>
+          <t>NEVE</t>
         </is>
       </c>
       <c r="O30" t="n">
-        <v>2001389</v>
+        <v>2000291</v>
       </c>
       <c r="P30" t="n">
         <v>99999</v>
@@ -2594,70 +2590,70 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>cebola-roxa-400g-38393</t>
+          <t>detergente-para-loucas-biodegradavel-limpol-neutro-500-ml-100510</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Cebola Roxa 400g</t>
+          <t>Detergente Para Louças Biodegradável Limpol Neutro 500ml</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>38393</t>
+          <t>100510</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Embalagem com 2 a 3 unidades. Melhor para comer cru; Use : no guacamole, em conserva, na salada, no sanduíche.</t>
+          <t>O Lava-Louças Limpol é eficiente no poder da limpeza, remoção da gordura e sujeiras e no combate aos maus odores indesejados da cozinha. Sua fórmula é dermatologicamente testada e contém glicerina, tornando-a mais suave para as mãos.</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>7.69</v>
+        <v>2.79</v>
       </c>
       <c r="F31" t="n">
-        <v>7.69</v>
+        <v>2.79</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>76</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2020-09-26T00:00:00Z</t>
+          <t>2020-10-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3081506/VF4qT-qqCUAAAAAAAAOBng.jpg?v=637947101712670000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3269221/12054_1.jpg?v=638386029717470000</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K31" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>5543</t>
+          <t>12054</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>5559</t>
+          <t>12081</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>LIMPOL</t>
         </is>
       </c>
       <c r="O31" t="n">
-        <v>2000015</v>
+        <v>2001413</v>
       </c>
       <c r="P31" t="n">
         <v>99999</v>
@@ -2666,142 +2662,142 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>detergente-para-loucas-biodegradavel-limpol-neutro-500-ml-100510</t>
+          <t>cebola-roxa-400g-38393</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Detergente Para Louças Biodegradável Limpol Neutro 500ml</t>
+          <t>Cebola Roxa 400g</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>100510</t>
+          <t>38393</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>O Lava-Louças Limpol é eficiente no poder da limpeza, remoção da gordura e sujeiras e no combate aos maus odores indesejados da cozinha. Sua fórmula é dermatologicamente testada e contém glicerina, tornando-a mais suave para as mãos.</t>
+          <t>Embalagem com 2 a 3 unidades. Melhor para comer cru; Use : no guacamole, em conserva, na salada, no sanduíche.</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>2.79</v>
+        <v>7.69</v>
       </c>
       <c r="F32" t="n">
-        <v>2.79</v>
+        <v>7.69</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2020-10-06T00:00:00Z</t>
+          <t>2020-09-26T00:00:00Z</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3269221/12054_1.jpg?v=638386029717470000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3081506/VF4qT-qqCUAAAAAAAAOBng.jpg?v=637947101712670000</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K32" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>12054</t>
+          <t>5543</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>12081</t>
+          <t>5559</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>LIMPOL</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O32" t="n">
-        <v>2001413</v>
+        <v>2000015</v>
       </c>
       <c r="P32" t="n">
-        <v>99999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>mamao-papaia-cariorta-12kg-99007</t>
+          <t>la-de-aco-bombril-com-6-unidades-45g-1180320</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Mamão Papaia Cariorta 1,2kg</t>
+          <t>Lã de Aço Bombril com 6 Unidades 45g</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>99007</t>
+          <t>1180320</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Cariorta selecionados de coração.</t>
+          <t>Uso: Ideal para limpeza de panelas, utensílios de cozinha, superfícies metálicas e outras áreas que necessitam de uma limpeza mais intensa.Remove sujeiras difíceis, incluindo resíduos de alimentos queimados e ferrugem.</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>15.99</v>
+        <v>2.19</v>
       </c>
       <c r="F33" t="n">
-        <v>15.99</v>
+        <v>2.99</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>78</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2020-05-20T00:00:00Z</t>
+          <t>2025-07-17T00:00:00Z</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3082688/VF4qT-qqCUAAAAAAAAOOog.jpg?v=637980006057500000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4216409/VF4qT-qqCUAAAAAAAAko5g.jpg?v=638889221726300000</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K33" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>24413</t>
+          <t>41130</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>24337</t>
+          <t>41057</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>CARIORTA</t>
+          <t>BOMBRIL</t>
         </is>
       </c>
       <c r="O33" t="n">
-        <v>2001012</v>
+        <v>2001389</v>
       </c>
       <c r="P33" t="n">
         <v>99999</v>
@@ -2882,70 +2878,70 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>espinafre-unidade-200948</t>
+          <t>mamao-papaia-cariorta-12kg-99007</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Espinafre Unidade</t>
+          <t>Mamão Papaia Cariorta 1,2kg</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>200948</t>
+          <t>99007</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>O espinafre é uma hortaliça saborosa, rica em ferro e também é fonte de vitamina A e B2, além de fornecer cálcio, fósforo, potássio e magnésio, é indicado também para pessoas com anemia e desnutrição.Como conservar :Sob refrigeração, pode ser mantido por no máximo 5 dias. Antes de colocálo na geladeira, lave as folhas, escorra o excesso de água e coloqueo em sacos de plástico perfurados ou em vasilha de plástico.Como consumir :O espinafre também pode ser usado em saladas, sopas,suflês omeletes. É ótimo como recheio ou acompanhamento de massas como macarrão, quiche, tortas, pastéis e assados. [Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
+          <t>Cariorta selecionados de coração.</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>3.39</v>
+        <v>15.99</v>
       </c>
       <c r="F35" t="n">
-        <v>3.39</v>
+        <v>15.99</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>482</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2020-09-28T00:00:00Z</t>
+          <t>2020-05-20T00:00:00Z</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3076729/VF4qT-qqCUAAAAAAAAKBdQ.jpg?v=637877840409270000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3082688/VF4qT-qqCUAAAAAAAAOOog.jpg?v=637980006057500000</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K35" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>7464</t>
+          <t>24413</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>7483</t>
+          <t>24337</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>CARIORTA</t>
         </is>
       </c>
       <c r="O35" t="n">
-        <v>2000015</v>
+        <v>2001012</v>
       </c>
       <c r="P35" t="n">
         <v>99999</v>
@@ -3026,115 +3022,115 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>abobora-japonesa-pedaco-500g-38229</t>
+          <t>pao-de-queijo-forno-de-minas-tradicional--400-g-456110</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Abóbora Japonesa Pedaço 500g</t>
+          <t>Pão De Queijo Forno De Minas Tradicional 400g</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>38229</t>
+          <t>456110</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Embalagem com 1 pedaço.</t>
+          <t>Pão De Queijo Forno De Minas Tradicional 400g</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>5.29</v>
+        <v>21.99</v>
       </c>
       <c r="F37" t="n">
-        <v>5.29</v>
+        <v>21.99</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>119</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2020-09-26T00:00:00Z</t>
+          <t>2020-10-20T00:00:00Z</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3096862/VF4qT-qqCUAAAAAAAAS9Tw.jpg?v=638235593168230000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3041185/VF4qT-qqCUAAAAAAAAHIag.jpg?v=637792557833470000</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K37" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>5593</t>
+          <t>13544</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>5609</t>
+          <t>13564</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>FORNO MINAS</t>
         </is>
       </c>
       <c r="O37" t="n">
-        <v>2000015</v>
+        <v>2001500</v>
       </c>
       <c r="P37" t="n">
-        <v>99999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>refrigerante-coca-cola-sem-acucar-pet-600-ml-429392</t>
+          <t>espinafre-unidade-200948</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Refrigerante Coca Cola Sem Açúcar Pet 600ml</t>
+          <t>Espinafre Unidade</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>429392</t>
+          <t>200948</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>A Coca-Cola Sem Açúcar é um refrigerante que não contém calorias! Com certeza você já se perguntou: “Então, de onde vem aquele gostinho doce? ” A Coca-Cola Sem Açúcar é produzida especialmente com adoçantes para manter o delicioso sabor de Coca-Cola porém com 0% Açucar. Perfeita para matar sua sede a qualquer hora do dia!</t>
+          <t>O espinafre é uma hortaliça saborosa, rica em ferro e também é fonte de vitamina A e B2, além de fornecer cálcio, fósforo, potássio e magnésio, é indicado também para pessoas com anemia e desnutrição.Como conservar :Sob refrigeração, pode ser mantido por no máximo 5 dias. Antes de colocálo na geladeira, lave as folhas, escorra o excesso de água e coloqueo em sacos de plástico perfurados ou em vasilha de plástico.Como consumir :O espinafre também pode ser usado em saladas, sopas,suflês omeletes. É ótimo como recheio ou acompanhamento de massas como macarrão, quiche, tortas, pastéis e assados. [Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>5.69</v>
+        <v>2.49</v>
       </c>
       <c r="F38" t="n">
-        <v>5.69</v>
+        <v>3.39</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2020-10-01T00:00:00Z</t>
+          <t>2020-09-28T00:00:00Z</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4483407/VF4qT-qqCUAAAAAAAAoapA.jpg?v=639052524553700000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3076729/VF4qT-qqCUAAAAAAAAKBdQ.jpg?v=637877840409270000</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -3147,21 +3143,21 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>8816</t>
+          <t>7464</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>8828</t>
+          <t>7483</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>COCA COLA</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O38" t="n">
-        <v>2000027</v>
+        <v>2000015</v>
       </c>
       <c r="P38" t="n">
         <v>99999</v>
@@ -3170,43 +3166,43 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>pao-de-queijo-forno-de-minas-tradicional--400-g-456110</t>
+          <t>refrigerante-coca-cola-sem-acucar-pet-600-ml-429392</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Pão De Queijo Forno De Minas Tradicional 400g</t>
+          <t>Refrigerante Coca Cola Sem Açúcar Pet 600ml</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>456110</t>
+          <t>429392</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Pão De Queijo Forno De Minas Tradicional 400g</t>
+          <t>A Coca-Cola Sem Açúcar é um refrigerante que não contém calorias! Com certeza você já se perguntou: “Então, de onde vem aquele gostinho doce? ” A Coca-Cola Sem Açúcar é produzida especialmente com adoçantes para manter o delicioso sabor de Coca-Cola porém com 0% Açucar. Perfeita para matar sua sede a qualquer hora do dia!</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>21.99</v>
+        <v>5.69</v>
       </c>
       <c r="F39" t="n">
-        <v>21.99</v>
+        <v>5.69</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2020-10-20T00:00:00Z</t>
+          <t>2020-10-01T00:00:00Z</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3041185/VF4qT-qqCUAAAAAAAAHIag.jpg?v=637792557833470000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4483407/VF4qT-qqCUAAAAAAAAoapA.jpg?v=639052524553700000</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -3219,21 +3215,21 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>13544</t>
+          <t>8816</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>13564</t>
+          <t>8828</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>FORNO MINAS</t>
+          <t>COCA COLA</t>
         </is>
       </c>
       <c r="O39" t="n">
-        <v>2001500</v>
+        <v>2000027</v>
       </c>
       <c r="P39" t="n">
         <v>99999</v>
@@ -3314,43 +3310,43 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>alho-roxo-cariorta-4-a-5-unidades-250g-99279</t>
+          <t>abobora-japonesa-pedaco-500g-38229</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Alho Roxo Cariorta 4 a 5 unidades 250g</t>
+          <t>Abóbora Japonesa Pedaço 500g</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>99279</t>
+          <t>38229</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Cariorta selecionados de coração.</t>
+          <t>Embalagem com 1 pedaço.</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>59.99</v>
+        <v>5.29</v>
       </c>
       <c r="F41" t="n">
-        <v>59.99</v>
+        <v>5.29</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>53</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2020-05-27T00:00:00Z</t>
+          <t>2020-09-26T00:00:00Z</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3082698/VF4qT-qqCUAAAAAAAAOOtg.jpg?v=637980006345970000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3096862/VF4qT-qqCUAAAAAAAAS9Tw.jpg?v=638235593168230000</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -3359,25 +3355,25 @@
         </is>
       </c>
       <c r="K41" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>24684</t>
+          <t>5593</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>24608</t>
+          <t>5609</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>CARIORTA</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O41" t="n">
-        <v>2001012</v>
+        <v>2000015</v>
       </c>
       <c r="P41" t="n">
         <v>99999</v>
@@ -3386,43 +3382,43 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>couve-manteiga-unidade-201235</t>
+          <t>saponaceo-cremoso-cif-limpeza-milagrosa-450ml-781266</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Couve Manteiga Unidade</t>
+          <t>CIF Cremoso Limpeza Milagrosa remove 100% da sujeira 450 ml</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>201235</t>
+          <t>781266</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>A couve é uma hortaliça muito rica em nutriente,cálcio, ferro e vitaminas A,C, K e B5.Como conservar:Em geladeira, inteira ou picada deve ser mantida em saco plástico fechado ou em vasilha de plástico tampada.Como consumir:Pode ser consumida crua, em saladas e sucos, refogada ou como ingrediente de sopas, farofas e cozidos.[ Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
+          <t>• Cif Cremoso Original é o produto de limpeza milagrosa que limpa fácil e dá brilho em mais de 100 superfícies*, removendo 100% da sujeira difícil, sem esforço • O Cif Cremoso Original possui um perfume suave, é mais concentrado e rende 7 garrafas do limpador comum • Fórmula com tecnologia poderosa que limpa sem riscar, removendo toda a sujeira desde a mais pesada até a limpeza de casa do dia a dia, deixando um brilho imbatível • Com o Cif, a limpeza nunca foi tão fácil e versátil. Cif Cremoso possui três variantes: Original, Limão e Laranja • Cif Cremoso Original é o produto de limpeza milagrosa para todo tipo de objeto como: eletrodomésticos, pias, couro sintético, borracha, plástico, porcelana e serve até como limpador de pisos • Cif promove uma limpeza milagrosa completa, com produtos versáteis que atendem a todas as suas necessidades. Cif. Sinta a limpeza acontecer! Cif Cremoso Original 450 ml é o produto de limpeza milagroso que limpa fácil e dá brilho em mais de 100 superfícies*, removendo 100% da sujeira difícil, sem esforço. O higienizador de casa cremoso é mais concentrado e rende 7 garrafas do limpador comum**. Sua fórmula, poderosa, limpa sem riscar***, removendo toda a sujeira desde a mais pesada até a limpeza de casa do dia a dia, deixando um brilho imbatível. Limpe toda sua casa usando o Cif Cremoso Original, que limpa todo tipo de objeto, como eletrodomésticos, potes plásticos, pias, brinquedos das crianças, persianas, pisos e até ajuda a deixar aquele cabo de carregador de celular como novo! Com o Limpador Cif, a limpeza nunca foi tão fácil e versátil. A linha do milagroso Cif Cremoso possui outras variedades de perfumes, como Laranja e Limão, que se adaptam ao seu estilo. Conheça a linha completa de produtos de limpeza Cif que não podem ficar de fora da sua lista de material de limpeza. Use também: Cif Cozinha, Cif Derrete Gordura, Cif Banheiro, Cif Tira Limo Com Cloro, Cif Vidros, Cif Cremoso e muito mais. Cif: Sinta a limpeza acontecer! Modo de usar: 1. Agite antes de usar. 2. Aplique uma pequena quantidade do produto sobre uma esponja ou pano úmido. 3. Esfregue a superfície suavemente até eliminar a sujeira. 4. Passe um pano úmido para finalizar. 5. Feche a embalagem após o uso. *Consulte lista das superfícies em www.ciflimpadores.com.br **Manchas de sabão e gordura queimada, comparado com limpadores comuns do mercado. Consulte a diferença de preços entre produtos. ***Não usar esponja ácida, como palha de aço, para a limpeza de vidros. A imagem do produto é meramente ilustrativa e o rótulo pode variar. Será enviada a embalagem disponível no momento da compra.</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>3.39</v>
+        <v>18.99</v>
       </c>
       <c r="F42" t="n">
-        <v>3.39</v>
+        <v>18.99</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>74</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2020-09-28T00:00:00Z</t>
+          <t>2020-10-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3083631/VF4qT-qqCUAAAAAAAAOZOA.jpg?v=637994955185970000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3640099/VF4qT-qqCUAAAAAAAAbyew.jpg?v=638585098972800000</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -3435,21 +3431,21 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>7445</t>
+          <t>11602</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>7464</t>
+          <t>11625</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>CIF</t>
         </is>
       </c>
       <c r="O42" t="n">
-        <v>2000015</v>
+        <v>2000541</v>
       </c>
       <c r="P42" t="n">
         <v>99999</v>
@@ -3458,70 +3454,70 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>saponaceo-cremoso-cif-limpeza-milagrosa-450ml-781266</t>
+          <t>alho-roxo-cariorta-4-a-5-unidades-250g-99279</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>CIF Cremoso Limpeza Milagrosa remove 100% da sujeira 450 ml</t>
+          <t>Alho Roxo Cariorta 4 a 5 unidades 250g</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>781266</t>
+          <t>99279</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>• Cif Cremoso Original é o produto de limpeza milagrosa que limpa fácil e dá brilho em mais de 100 superfícies*, removendo 100% da sujeira difícil, sem esforço • O Cif Cremoso Original possui um perfume suave, é mais concentrado e rende 7 garrafas do limpador comum • Fórmula com tecnologia poderosa que limpa sem riscar, removendo toda a sujeira desde a mais pesada até a limpeza de casa do dia a dia, deixando um brilho imbatível • Com o Cif, a limpeza nunca foi tão fácil e versátil. Cif Cremoso possui três variantes: Original, Limão e Laranja • Cif Cremoso Original é o produto de limpeza milagrosa para todo tipo de objeto como: eletrodomésticos, pias, couro sintético, borracha, plástico, porcelana e serve até como limpador de pisos • Cif promove uma limpeza milagrosa completa, com produtos versáteis que atendem a todas as suas necessidades. Cif. Sinta a limpeza acontecer! Cif Cremoso Original 450 ml é o produto de limpeza milagroso que limpa fácil e dá brilho em mais de 100 superfícies*, removendo 100% da sujeira difícil, sem esforço. O higienizador de casa cremoso é mais concentrado e rende 7 garrafas do limpador comum**. Sua fórmula, poderosa, limpa sem riscar***, removendo toda a sujeira desde a mais pesada até a limpeza de casa do dia a dia, deixando um brilho imbatível. Limpe toda sua casa usando o Cif Cremoso Original, que limpa todo tipo de objeto, como eletrodomésticos, potes plásticos, pias, brinquedos das crianças, persianas, pisos e até ajuda a deixar aquele cabo de carregador de celular como novo! Com o Limpador Cif, a limpeza nunca foi tão fácil e versátil. A linha do milagroso Cif Cremoso possui outras variedades de perfumes, como Laranja e Limão, que se adaptam ao seu estilo. Conheça a linha completa de produtos de limpeza Cif que não podem ficar de fora da sua lista de material de limpeza. Use também: Cif Cozinha, Cif Derrete Gordura, Cif Banheiro, Cif Tira Limo Com Cloro, Cif Vidros, Cif Cremoso e muito mais. Cif: Sinta a limpeza acontecer! Modo de usar: 1. Agite antes de usar. 2. Aplique uma pequena quantidade do produto sobre uma esponja ou pano úmido. 3. Esfregue a superfície suavemente até eliminar a sujeira. 4. Passe um pano úmido para finalizar. 5. Feche a embalagem após o uso. *Consulte lista das superfícies em www.ciflimpadores.com.br **Manchas de sabão e gordura queimada, comparado com limpadores comuns do mercado. Consulte a diferença de preços entre produtos. ***Não usar esponja ácida, como palha de aço, para a limpeza de vidros. A imagem do produto é meramente ilustrativa e o rótulo pode variar. Será enviada a embalagem disponível no momento da compra.</t>
+          <t>Cariorta selecionados de coração.</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>18.99</v>
+        <v>59.99</v>
       </c>
       <c r="F43" t="n">
-        <v>18.99</v>
+        <v>59.99</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>480</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2020-10-06T00:00:00Z</t>
+          <t>2020-05-27T00:00:00Z</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3640099/VF4qT-qqCUAAAAAAAAbyew.jpg?v=638585098972800000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3082698/VF4qT-qqCUAAAAAAAAOOtg.jpg?v=637980006345970000</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K43" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>11602</t>
+          <t>24684</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>11625</t>
+          <t>24608</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>CIF</t>
+          <t>CARIORTA</t>
         </is>
       </c>
       <c r="O43" t="n">
-        <v>2000541</v>
+        <v>2001012</v>
       </c>
       <c r="P43" t="n">
         <v>99999</v>
@@ -3549,7 +3545,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>69.90000000000001</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="F44" t="n">
         <v>69.90000000000001</v>
@@ -3602,43 +3598,43 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>biscoito-cream-cracker-piraque-pacote-184g-1105795</t>
+          <t>couve-manteiga-unidade-201235</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Biscoito Cream Cracker Piraquê Pacote 184g</t>
+          <t>Couve Manteiga Unidade</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1105795</t>
+          <t>201235</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Biscoito Salgado Cream Cracker Piraquê Pacote 184g</t>
+          <t>A couve é uma hortaliça muito rica em nutriente,cálcio, ferro e vitaminas A,C, K e B5.Como conservar:Em geladeira, inteira ou picada deve ser mantida em saco plástico fechado ou em vasilha de plástico tampada.Como consumir:Pode ser consumida crua, em saladas e sucos, refogada ou como ingrediente de sopas, farofas e cozidos.[ Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>3.95</v>
+        <v>3.39</v>
       </c>
       <c r="F45" t="n">
-        <v>5.99</v>
+        <v>3.39</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2023-07-26T00:00:00Z</t>
+          <t>2020-09-28T00:00:00Z</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3099416/VF4qT-qqCUAAAAAAAATd0w.jpg?v=638264204522930000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3083631/VF4qT-qqCUAAAAAAAAOZOA.jpg?v=637994955185970000</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -3651,24 +3647,24 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>33955</t>
+          <t>7445</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>33882</t>
+          <t>7464</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>PIRAQUE</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O45" t="n">
-        <v>2000017</v>
+        <v>2000015</v>
       </c>
       <c r="P45" t="n">
-        <v>100</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="46">
@@ -3746,43 +3742,43 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>papel-aluminio-rolitto-30cm-x-75-m-897795</t>
+          <t>biscoito-cream-cracker-piraque-pacote-184g-1105795</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Papel Alumínio Rolitto 30Cm X 7,5 M</t>
+          <t>Biscoito Cream Cracker Piraquê Pacote 184g</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>897795</t>
+          <t>1105795</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Envolve , protege e conserva.</t>
+          <t>Biscoito Salgado Cream Cracker Piraquê Pacote 184g</t>
         </is>
       </c>
       <c r="E47" t="n">
         <v>5.99</v>
       </c>
       <c r="F47" t="n">
-        <v>6.99</v>
+        <v>5.99</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>31</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2020-10-05T00:00:00Z</t>
+          <t>2023-07-26T00:00:00Z</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3061098/VF4qT-qqCUAAAAAAAAGpfA.jpg?v=637794125591230000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3099416/VF4qT-qqCUAAAAAAAATd0w.jpg?v=638264204522930000</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -3795,21 +3791,21 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>9853</t>
+          <t>33955</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>9866</t>
+          <t>33882</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>KENTINHA</t>
+          <t>PIRAQUE</t>
         </is>
       </c>
       <c r="O47" t="n">
-        <v>2001532</v>
+        <v>2000017</v>
       </c>
       <c r="P47" t="n">
         <v>99999</v>
@@ -3818,66 +3814,70 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>file-mignon-resfriado-sem-cordao-2-2kg-44822</t>
+          <t>papel-aluminio-rolitto-30cm-x-75-m-897795</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Filé Mignon Resfriado Sem Cordão 2,2kg</t>
+          <t>Papel Alumínio Rolitto 30Cm X 7,5 M</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>44822</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr"/>
+          <t>897795</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Envolve , protege e conserva.</t>
+        </is>
+      </c>
       <c r="E48" t="n">
-        <v>99.98999999999999</v>
+        <v>5.99</v>
       </c>
       <c r="F48" t="n">
-        <v>99.98999999999999</v>
+        <v>6.99</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>111</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2020-09-28T00:00:00Z</t>
+          <t>2020-10-05T00:00:00Z</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4340142/VF4qT-qqCUAAAAAAAAJRsQ.jpg?v=638954025546430000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3061098/VF4qT-qqCUAAAAAAAAGpfA.jpg?v=637794125591230000</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K48" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>7539</t>
+          <t>9853</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>7558</t>
+          <t>9866</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>KENTINHA</t>
         </is>
       </c>
       <c r="O48" t="n">
-        <v>2000015</v>
+        <v>2001532</v>
       </c>
       <c r="P48" t="n">
         <v>99999</v>
@@ -3886,44 +3886,48 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>abobrinha-italiana-cariorta-1kg-98663</t>
+          <t>cafe-torrado-e-moido-melitta-a-vacuo-500g-103845</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Abobrinha Italiana Cariorta 1Kg</t>
+          <t>Café Torrado e Moído Melitta A Vácuo 500g</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>98663</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr"/>
+          <t>103845</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Feitos com uma cuidadosa seleção dos grãos que passam por um processo de torra a ar quente que resultam em cafés marcantes e fortes.</t>
+        </is>
+      </c>
       <c r="E49" t="n">
-        <v>6.99</v>
+        <v>32.98</v>
       </c>
       <c r="F49" t="n">
-        <v>6.99</v>
+        <v>39.9</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>59</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2020-12-16T00:00:00Z</t>
+          <t>2020-07-13T00:00:00Z</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3082667/VF4qT-qqCUAAAAAAAAOOdQ.jpg?v=637979987909700000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3038677/VF4qT-qqCUAAAAAAAAGwhg.jpg?v=637792444870400000</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K49" t="n">
@@ -3931,24 +3935,24 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>16567</t>
+          <t>53</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>16458</t>
+          <t>56</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>CARIORTA</t>
+          <t>MELITTA</t>
         </is>
       </c>
       <c r="O49" t="n">
-        <v>2001012</v>
+        <v>2001329</v>
       </c>
       <c r="P49" t="n">
-        <v>99999</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/zonasul.xlsx
+++ b/zonasul.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P49"/>
+  <dimension ref="A1:P51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,39 +518,43 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>creme-de-leite-nestle-10--gratis-200g-1165151</t>
+          <t>uva-preta-sem-semente-500-g-674583</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Creme de Leite Nestlé 10% Grátis 200g</t>
+          <t>Uva Preta Sem Semente 500g</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1165151</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
+          <t>674583</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Eventualmente, devido à variações climáticas, essa variedade pode apresentar traços de sementes comestíveis As uvas são, sem dúvidas, uma das frutas mais nutritivas de todas. Apesar de seu tamanho relativamente pequeno, elas são extremamente poderosas nutricionalmente e consumilas é muito importante para o bom funcionamento do corpo.As calorias presentes nas uvas também são poucas: apenas 90 em cerca de 150g. Por isso, é uma ótima opção também para aqueles que estão em processo de redução da massa corporal, desde que consumida com cautela.Rica em antioxidantes que são responsáveis por ‘’limpar’’ e proteger as nossas células dos chamados radicais livres, compostos potencialmente perigosos que podem danificar essas estruturas.Os antioxidantes estão mais comumente presentes na casca da fruta, o que é indicado pela coloração delas. Quanto mais escuras, maior é a concentração desses compostos na uva. Os principais exemplos são os polifenois, e o mais famoso deles chamase resveratrol.</t>
+        </is>
+      </c>
       <c r="E2" t="n">
-        <v>5.99</v>
+        <v>11.99</v>
       </c>
       <c r="F2" t="n">
-        <v>5.99</v>
+        <v>11.99</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-02-20T00:00:00Z</t>
+          <t>2020-09-26T00:00:00Z</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4395976/VF4qT-qqCUAAAAAAAAoEeQ.jpg?v=638984266226730000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3047035/VF4qT-qqCUAAAAAAAAGXCQ.jpg?v=637793205627670000</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -563,21 +567,21 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>40151</t>
+          <t>5264</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>40078</t>
+          <t>5280</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>NESTLE</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>2000043</v>
+        <v>2000015</v>
       </c>
       <c r="P2" t="n">
         <v>99999</v>
@@ -586,43 +590,43 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ovos-brancos-jumbo-mantiqueira-com-10-unidades-437638</t>
+          <t>refrigerante-coca-cola-sem-acucar-lata-350-ml-429376</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ovos Brancos Jumbo Mantiqueira Com 10 Unidades</t>
+          <t>Refrigerante Coca Cola Sem Açúcar Lata 350ml</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>437638</t>
+          <t>429376</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Os Ovos Jumbo Mantiqueira possuem maior tamanho, ideais para quem busca uma alimentação rica em vitaminas, proteínas e minerais, ou para quem gosta de um maior rendimento em suas receitas. Um único ovo contém quase todos os nutrientes necessários para manter o corpo saudável, fortalecendo os ossos e auxiliando em dietas para perda de peso ou ganho de massa.O Ovo Jumbo Mantiqueira é um produto da linha Especial da marca e possui a qualidade superior, passando por um moderno sistema de seleção, limpeza e embalagem sem contato de mãos humanas.Especificações:Ovos maiores, tamanho família.Embalagem com 10 unidades.Ovos brancos e vermelhos tipo jumbo categoria A.</t>
+          <t>A Coca-Cola Sem Açúcar é um refrigerante que não contém calorias! Com certeza você já se perguntou: “Então, de onde vem aquele gostinho doce? ” A Coca-Cola Sem Açúcar é produzida especialmente com adoçantes para manter o delicioso sabor de Coca-Cola porém com 0% Açucar. Uma Lata de Coca-Cola Sem Perfeita para matar sua sede a qualquer hora do dia!</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>10.9</v>
+        <v>3.99</v>
       </c>
       <c r="F3" t="n">
-        <v>10.9</v>
+        <v>3.99</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2020-09-27T00:00:00Z</t>
+          <t>2020-10-01T00:00:00Z</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3976126/VF4qT-qqCUAAAAAAAAh4RA.jpg?v=638769994856100000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4483405/VF4qT-qqCUAAAAAAAAoaow.jpg?v=639052524439630000</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -635,93 +639,93 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>7002</t>
+          <t>8817</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>7020</t>
+          <t>8829</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>MANTIQUEIRA</t>
+          <t>COCA COLA</t>
         </is>
       </c>
       <c r="O3" t="n">
-        <v>2001056</v>
+        <v>2000027</v>
       </c>
       <c r="P3" t="n">
-        <v>100</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>alcool-montenegro-46-1-l-780570</t>
+          <t>mucarela-em-fatias-92363</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Álcool Montenegro 46% 1 L</t>
+          <t>Muçarela  em Fatias 200g</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>780570</t>
+          <t>92363</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Álcool Montenegro 46% 1 L</t>
+          <t>Muçarela em Fatias</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>8.789999999999999</v>
+        <v>59.9</v>
       </c>
       <c r="F4" t="n">
-        <v>8.789999999999999</v>
+        <v>59.9</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>83</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2020-10-06T10:47:00Z</t>
+          <t>2020-09-27T00:00:00Z</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3051579/VF4qT-qqCUAAAAAAAAG3pQ.jpg?v=637793390624870000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3052070/VF4qT-qqCUAAAAAAAAI4-w.jpg?v=637793416889100000</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>11598</t>
+          <t>1361</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>11621</t>
+          <t>1368</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>MONTENEGRO</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O4" t="n">
-        <v>2000527</v>
+        <v>2000015</v>
       </c>
       <c r="P4" t="n">
         <v>99999</v>
@@ -730,70 +734,70 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>refrigerante-coca-cola-sem-acucar-lata-350-ml-429376</t>
+          <t>batata-inglesa-cariorta-12kg-98698</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Refrigerante Coca Cola Sem Açúcar Lata 350ml</t>
+          <t>Batata Inglesa Cariorta 1,2Kg</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>429376</t>
+          <t>98698</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>A Coca-Cola Sem Açúcar é um refrigerante que não contém calorias! Com certeza você já se perguntou: “Então, de onde vem aquele gostinho doce? ” A Coca-Cola Sem Açúcar é produzida especialmente com adoçantes para manter o delicioso sabor de Coca-Cola porém com 0% Açucar. Uma Lata de Coca-Cola Sem Perfeita para matar sua sede a qualquer hora do dia!</t>
+          <t>Cariorta selecionados de coração.</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3.99</v>
+        <v>7.99</v>
       </c>
       <c r="F5" t="n">
-        <v>3.99</v>
+        <v>7.99</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>483</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2020-10-01T00:00:00Z</t>
+          <t>2020-12-16T00:00:00Z</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4483405/VF4qT-qqCUAAAAAAAAoaow.jpg?v=639052524439630000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3082670/VF4qT-qqCUAAAAAAAAOOew.jpg?v=637979987993130000</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>8817</t>
+          <t>16570</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>8829</t>
+          <t>16461</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>COCA COLA</t>
+          <t>CARIORTA</t>
         </is>
       </c>
       <c r="O5" t="n">
-        <v>2000027</v>
+        <v>2001012</v>
       </c>
       <c r="P5" t="n">
         <v>99999</v>
@@ -802,43 +806,43 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>uva-preta-sem-semente-500-g-674583</t>
+          <t>agua-mineral-com-gas-sao-lourenco-pet-1-26-l-140805</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Uva Preta Sem Semente 500g</t>
+          <t>Água Mineral Com Gás São Lourenço Pet 1,26 L</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>674583</t>
+          <t>140805</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Eventualmente, devido à variações climáticas, essa variedade pode apresentar traços de sementes comestíveis As uvas são, sem dúvidas, uma das frutas mais nutritivas de todas. Apesar de seu tamanho relativamente pequeno, elas são extremamente poderosas nutricionalmente e consumilas é muito importante para o bom funcionamento do corpo.As calorias presentes nas uvas também são poucas: apenas 90 em cerca de 150g. Por isso, é uma ótima opção também para aqueles que estão em processo de redução da massa corporal, desde que consumida com cautela.Rica em antioxidantes que são responsáveis por ‘’limpar’’ e proteger as nossas células dos chamados radicais livres, compostos potencialmente perigosos que podem danificar essas estruturas.Os antioxidantes estão mais comumente presentes na casca da fruta, o que é indicado pela coloração delas. Quanto mais escuras, maior é a concentração desses compostos na uva. Os principais exemplos são os polifenois, e o mais famoso deles chamase resveratrol.</t>
+          <t>Água Mineral Com Gás São Lourenço Pet 1,26 L</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>11.99</v>
+        <v>3.89</v>
       </c>
       <c r="F6" t="n">
-        <v>11.99</v>
+        <v>5.29</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>18</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2020-09-26T00:00:00Z</t>
+          <t>2020-09-25T00:00:00Z</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3047035/VF4qT-qqCUAAAAAAAAGXCQ.jpg?v=637793205627670000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3076277/VF4qT-qqCUAAAAAAAAHMBQ.jpg?v=637877821166370000</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -851,21 +855,21 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>5264</t>
+          <t>3915</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>5280</t>
+          <t>3929</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>SAO LOURENCO</t>
         </is>
       </c>
       <c r="O6" t="n">
-        <v>2000015</v>
+        <v>2000145</v>
       </c>
       <c r="P6" t="n">
         <v>99999</v>
@@ -874,70 +878,70 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>batata-inglesa-cariorta-12kg-98698</t>
+          <t>tomate-italiano-unidade-495212</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Batata Inglesa Cariorta 1,2Kg</t>
+          <t>Tomate Italiano Unidade</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>98698</t>
+          <t>495212</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Cariorta selecionados de coração.</t>
+          <t>Tomate Italiano Unidade</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>7.99</v>
+        <v>1.53</v>
       </c>
       <c r="F7" t="n">
-        <v>7.99</v>
+        <v>1.53</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>53</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2020-12-16T00:00:00Z</t>
+          <t>2020-09-27T00:00:00Z</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3082670/VF4qT-qqCUAAAAAAAAOOew.jpg?v=637979987993130000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3094266/VF4qT-qqCUAAAAAAAASLmg.jpg?v=638191532599970000</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>16570</t>
+          <t>6965</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>16461</t>
+          <t>6983</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>CARIORTA</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O7" t="n">
-        <v>2001012</v>
+        <v>2000015</v>
       </c>
       <c r="P7" t="n">
         <v>99999</v>
@@ -946,61 +950,61 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>mucarela-em-fatias-92363</t>
+          <t>cheiro-verde-unidade-201049</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Muçarela  em Fatias 200g</t>
+          <t>Cheiro Verde Unidade</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>92363</t>
+          <t>201049</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Muçarela em Fatias</t>
+          <t>O cheiro verde é a combinação da cebolinha e salsinha .Como conservar:Em geladeira por até 5 dias em saco ou vasilha de plástico.Como consumir:Podem ser adicionadas cruas, em saladas e recheios de sanduíches e como ingredientes em marinadas.</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>59.9</v>
+        <v>3.39</v>
       </c>
       <c r="F8" t="n">
-        <v>59.9</v>
+        <v>3.39</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2020-09-27T00:00:00Z</t>
+          <t>2020-09-28T00:00:00Z</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3052070/VF4qT-qqCUAAAAAAAAI4-w.jpg?v=637793416889100000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3457712/VF4qT-qqCUAAAAAAAAXvTg.jpg?v=638507335658200000</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>1361</t>
+          <t>7411</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>1368</t>
+          <t>7430</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1018,43 +1022,43 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>agua-mineral-com-gas-sao-lourenco-pet-1-26-l-140805</t>
+          <t>manga-palmer-unidade-5130760</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Água Mineral Com Gás São Lourenço Pet 1,26 L</t>
+          <t>Manga Palmer Unidade</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>140805</t>
+          <t>5130760</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Água Mineral Com Gás São Lourenço Pet 1,26 L</t>
+          <t>Manga Palmer Unidade</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3.89</v>
+        <v>5.39</v>
       </c>
       <c r="F9" t="n">
-        <v>5.29</v>
+        <v>5.39</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2020-09-25T00:00:00Z</t>
+          <t>2023-02-16T00:00:00Z</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3076277/VF4qT-qqCUAAAAAAAAHMBQ.jpg?v=637877821166370000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3153453/VF4qT-qqCUAAAAAAAAUnKA.jpg?v=638319847497670000</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1067,21 +1071,21 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>3915</t>
+          <t>31977</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>3929</t>
+          <t>31902</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>SAO LOURENCO</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O9" t="n">
-        <v>2000145</v>
+        <v>2000015</v>
       </c>
       <c r="P9" t="n">
         <v>99999</v>
@@ -1090,43 +1094,43 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>tomate-italiano-unidade-495212</t>
+          <t>leite-uht-piracanjuba-integral-1l-865427</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Tomate Italiano Unidade</t>
+          <t>Leite Uht Piracanjuba Integral 1L</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>495212</t>
+          <t>865427</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Tomate Italiano Unidade</t>
+          <t>No café da manhã, em um delicioso lanche da tarde ou até mesmo antes de dormir, o Leite Piracanjuba cumpre bem o seu papel principal: trazer mais sabor para os seus momentos especiais e para as suas receitas. Mais sabor para todos os momentos.</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1.53</v>
+        <v>5.59</v>
       </c>
       <c r="F10" t="n">
-        <v>1.53</v>
+        <v>5.59</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>130</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2020-09-27T00:00:00Z</t>
+          <t>2017-04-12T00:00:00Z</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3094266/VF4qT-qqCUAAAAAAAASLmg.jpg?v=638191532599970000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3294485/VF4qT-qqCUAAAAAAAAWbgQ.jpg?v=638412300289570000</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1139,21 +1143,21 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>6965</t>
+          <t>23232</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>6983</t>
+          <t>23158</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>PIRACANJUBA</t>
         </is>
       </c>
       <c r="O10" t="n">
-        <v>2000015</v>
+        <v>2002038</v>
       </c>
       <c r="P10" t="n">
         <v>99999</v>
@@ -1162,43 +1166,43 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>cheiro-verde-unidade-201049</t>
+          <t>guardanapo-folha-dupla-scott-grand-hotel-238cm×218cm-50-unidades-129879</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Cheiro Verde Unidade</t>
+          <t>Guardanapo Folha Dupla Scott Grand Hotel 23,8cm×21,8cm 50 Unidades</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>201049</t>
+          <t>129879</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>O cheiro verde é a combinação da cebolinha e salsinha .Como conservar:Em geladeira por até 5 dias em saco ou vasilha de plástico.Como consumir:Podem ser adicionadas cruas, em saladas e recheios de sanduíches e como ingredientes em marinadas.</t>
+          <t>Guardanapo Folha Dupla Scott Grand Hotel 23,8cm×21,8cm 50 Unidades</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2.49</v>
+        <v>6.19</v>
       </c>
       <c r="F11" t="n">
-        <v>3.39</v>
+        <v>6.19</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>111</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2020-09-28T00:00:00Z</t>
+          <t>2020-10-05T00:00:00Z</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3457712/VF4qT-qqCUAAAAAAAAXvTg.jpg?v=638507335658200000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3239421/VF4qT-qqCUAAAAAAAAVSfw.jpg?v=638362188224230000</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1211,66 +1215,66 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>7411</t>
+          <t>9426</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>7430</t>
+          <t>9438</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>GRANDE HOTEL</t>
         </is>
       </c>
       <c r="O11" t="n">
-        <v>2000015</v>
+        <v>2001400</v>
       </c>
       <c r="P11" t="n">
-        <v>99999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>leite-uht-piracanjuba-integral-1l-865427</t>
+          <t>cafe-torrado-e-moido-pilao-tradicional-500g-828025</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Leite Uht Piracanjuba Integral 1L</t>
+          <t>Café Torrado E Moído Pilão Tradicional Fresh Pack 500g</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>865427</t>
+          <t>828025</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>No café da manhã, em um delicioso lanche da tarde ou até mesmo antes de dormir, o Leite Piracanjuba cumpre bem o seu papel principal: trazer mais sabor para os seus momentos especiais e para as suas receitas. Mais sabor para todos os momentos.</t>
+          <t>Tem um ponto de torra acentuado e um processo de moagem fina e uniforme, que garantem e preservam seu sabor forte e encorpado.É perfeito para servir em dia de casa cheia, pois seu sabor tradicional agrada a todo mundo.</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5.59</v>
+        <v>31.98</v>
       </c>
       <c r="F12" t="n">
-        <v>5.59</v>
+        <v>43.9</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>59</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2017-04-12T00:00:00Z</t>
+          <t>2020-09-15T00:00:00Z</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3294485/VF4qT-qqCUAAAAAAAAWbgQ.jpg?v=638412300289570000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3051146/VF4qT-qqCUAAAAAAAAG1sQ.jpg?v=637793369863530000</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1283,66 +1287,66 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>23232</t>
+          <t>130</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>23158</t>
+          <t>135</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>PIRACANJUBA</t>
+          <t>PILAO</t>
         </is>
       </c>
       <c r="O12" t="n">
-        <v>2002038</v>
+        <v>2000070</v>
       </c>
       <c r="P12" t="n">
-        <v>99999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>manga-palmer-unidade-5130760</t>
+          <t>couve-flor-unidade-189111</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Manga Palmer Unidade</t>
+          <t>Couve Flor Unidade</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>5130760</t>
+          <t>189111</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Manga Palmer Unidade</t>
+          <t>A couveflor é uma hortaliça rica em cálcio e fósforo e fonte de ácido fólico e vitamina C . Como Conservar:Na geladeira pode ser conservada por 3 a 5 dias, dentro de saco plástico perfurado. Antes de guardar, remova as partes escuras e folhas, mas não lave a cabeça.Como Consumir:Pode ser consumida assada, frita ou cozinhe em água e sal. [Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4.79</v>
+        <v>9.99</v>
       </c>
       <c r="F13" t="n">
-        <v>5.39</v>
+        <v>9.99</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>53</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2023-02-16T00:00:00Z</t>
+          <t>2020-09-28T00:00:00Z</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3153453/VF4qT-qqCUAAAAAAAAUnKA.jpg?v=638319847497670000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3041615/VF4qT-qqCUAAAAAAAAGF4Q.jpg?v=637792579893500000</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1355,12 +1359,12 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>31977</t>
+          <t>7446</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>31902</t>
+          <t>7465</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1378,43 +1382,43 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>guardanapo-folha-dupla-scott-grand-hotel-238cm×218cm-50-unidades-129879</t>
+          <t>detergente-para-loucas-odd-clear-500ml-982911</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Guardanapo Folha Dupla Scott Grand Hotel 23,8cm×21,8cm 50 Unidades</t>
+          <t>Detergente Para Louças Odd Clear 500ml</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>129879</t>
+          <t>982911</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Guardanapo Folha Dupla Scott Grand Hotel 23,8cm×21,8cm 50 Unidades</t>
+          <t>ODD voltou!Alto rendimento , controle de odor.</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6.19</v>
+        <v>1.9</v>
       </c>
       <c r="F14" t="n">
-        <v>6.19</v>
+        <v>2.49</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>76</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2020-10-05T00:00:00Z</t>
+          <t>2020-10-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3239421/VF4qT-qqCUAAAAAAAAVSfw.jpg?v=638362188224230000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3056732/VF4qT-qqCUAAAAAAAAHzRQ.jpg?v=637793635376800000</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1427,21 +1431,21 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>9426</t>
+          <t>11872</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>9438</t>
+          <t>11898</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>GRANDE HOTEL</t>
+          <t>LIMPPANO</t>
         </is>
       </c>
       <c r="O14" t="n">
-        <v>2001400</v>
+        <v>2001341</v>
       </c>
       <c r="P14" t="n">
         <v>99999</v>
@@ -1450,48 +1454,48 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>abacaxi-unidade-221</t>
+          <t>limao-cariorta-1kg-98981</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Abacaxi Unidade</t>
+          <t>Limão Cariorta 1Kg</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>98981</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Peso Aproximado 1,61,8Kg / Unidade.O Abacaxi é rico em Vitaminas A, B5, B6, C, BetaCaroteno, Tiamina, Antioxidantes e Fibras, auxiliando na saciedade e regulação do peso. É uma Importante fonte de energia póstreino. Auxilia nos processos antiinflamatórios por conter Bromelina, enzima encontrada principalmente no talo da fruta. Como preparar: no seu estado natural cortado, em saladas, assado, grelhado, sucos, geleias, sorvetes e chás.</t>
+          <t>Cariorta selecionados de coração.</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>8.99</v>
+        <v>11.99</v>
       </c>
       <c r="F15" t="n">
-        <v>10.99</v>
+        <v>11.99</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>482</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2020-09-26T00:00:00Z</t>
+          <t>2020-05-20T00:00:00Z</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3041923/VF4qT-qqCUAAAAAAAAFtXw.jpg?v=637792593143530000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3084385/VF4qT-qqCUAAAAAAAAOgIg.jpg?v=638000868147970000</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K15" t="n">
@@ -1499,66 +1503,66 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>4959</t>
+          <t>24698</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>4975</t>
+          <t>24622</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>CARIORTA</t>
         </is>
       </c>
       <c r="O15" t="n">
-        <v>2000015</v>
+        <v>2001012</v>
       </c>
       <c r="P15" t="n">
-        <v>100</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>cafe-torrado-e-moido-pilao-tradicional-500g-828025</t>
+          <t>ovos-vermelhos-mantiqueira-happy-eggs-com-10-unidades-5106753</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Café Torrado E Moído Pilão Tradicional Fresh Pack 500g</t>
+          <t>Ovos Vermelhos Mantiqueira Happy Eggs com 10 Unidades</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>828025</t>
+          <t>5106753</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Tem um ponto de torra acentuado e um processo de moagem fina e uniforme, que garantem e preservam seu sabor forte e encorpado.É perfeito para servir em dia de casa cheia, pois seu sabor tradicional agrada a todo mundo.</t>
+          <t>Produzidos por galinhas criadas livres de gaiolas. Garantia de Bem-Estar Animal. Ovos Vermelhos Tipo Grande Categoria A. Embalagem com 10 unidades.</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>31.98</v>
+        <v>11.99</v>
       </c>
       <c r="F16" t="n">
-        <v>43.9</v>
+        <v>11.99</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2020-09-15T00:00:00Z</t>
+          <t>2021-01-11T00:00:00Z</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3051146/VF4qT-qqCUAAAAAAAAG1sQ.jpg?v=637793369863530000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4222023/VF4qT-qqCUAAAAAAAAStHA.jpg?v=638894405636230000</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1571,66 +1575,62 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>18105</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>17997</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>PILAO</t>
+          <t>HAPPY EGGS</t>
         </is>
       </c>
       <c r="O16" t="n">
-        <v>2000070</v>
+        <v>2003319</v>
       </c>
       <c r="P16" t="n">
-        <v>100</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>couve-flor-unidade-189111</t>
+          <t>ovos-vermelhos-caipira-happy-eggs-com-20-unidades-370550</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Couve Flor Unidade</t>
+          <t>Ovos Vermelhos Caipira Happy Eggs Com 20 Unidades</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>189111</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>A couveflor é uma hortaliça rica em cálcio e fósforo e fonte de ácido fólico e vitamina C . Como Conservar:Na geladeira pode ser conservada por 3 a 5 dias, dentro de saco plástico perfurado. Antes de guardar, remova as partes escuras e folhas, mas não lave a cabeça.Como Consumir:Pode ser consumida assada, frita ou cozinhe em água e sal. [Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
-        </is>
-      </c>
+          <t>370550</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="n">
-        <v>9.99</v>
+        <v>24.99</v>
       </c>
       <c r="F17" t="n">
-        <v>9.99</v>
+        <v>24.99</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2020-09-28T00:00:00Z</t>
+          <t>2020-09-27T00:00:00Z</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3041615/VF4qT-qqCUAAAAAAAAGF4Q.jpg?v=637792579893500000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4343192/VF4qT-qqCUAAAAAAAAn9QA.jpg?v=638956617627730000</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1643,21 +1643,21 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>7446</t>
+          <t>6939</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>7465</t>
+          <t>6957</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>HAPPY EGGS</t>
         </is>
       </c>
       <c r="O17" t="n">
-        <v>2000015</v>
+        <v>2003319</v>
       </c>
       <c r="P17" t="n">
         <v>99999</v>
@@ -1666,43 +1666,39 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>limao-cariorta-1kg-98981</t>
+          <t>pao-frances-panetto-60g-com-4-unidades-96318</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Limão Cariorta 1Kg</t>
+          <t>Pão Francês Panetto  60g Com 4 unidades</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>98981</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Cariorta selecionados de coração.</t>
-        </is>
-      </c>
+          <t>96318</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="n">
-        <v>11.99</v>
+        <v>24.99</v>
       </c>
       <c r="F18" t="n">
-        <v>11.99</v>
+        <v>24.99</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>89</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2020-05-20T00:00:00Z</t>
+          <t>2024-01-31T00:00:00Z</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3084385/VF4qT-qqCUAAAAAAAAOgIg.jpg?v=638000868147970000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3307700/VF4qT-qqCUAAAAAAAAWnXQ.jpg?v=638932898013670000</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1711,25 +1707,25 @@
         </is>
       </c>
       <c r="K18" t="n">
-        <v>1</v>
+        <v>0.24</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>24698</t>
+          <t>35477</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>24622</t>
+          <t>35404</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>CARIORTA</t>
+          <t>PANETTO</t>
         </is>
       </c>
       <c r="O18" t="n">
-        <v>2001012</v>
+        <v>2000307</v>
       </c>
       <c r="P18" t="n">
         <v>99999</v>
@@ -1738,43 +1734,43 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ovos-vermelhos-mantiqueira-happy-eggs-com-10-unidades-5106753</t>
+          <t>azeite-italiano-extra-virgem-due-500ml-5472040</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ovos Vermelhos Mantiqueira Happy Eggs com 10 Unidades</t>
+          <t>Azeite Italiano Extravirgem Due 500ml</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>5106753</t>
+          <t>5472040</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Produzidos por galinhas criadas livres de gaiolas. Garantia de Bem-Estar Animal. Ovos Vermelhos Tipo Grande Categoria A. Embalagem com 10 unidades.</t>
+          <t>O azeite Due é um blend de azeites do Mediterrâneo que confere um resultado clássico e ideal para o cotidiano da cozinha. Sua elaboração conta com uma seleção cautelosamente realizada pelo Expert em Azeites e Temperos Marcelo Scofano, que anualmente viaja à Toscana (Itália), onde o azeite é produzido, para cuidar de cada detalhe pessoalmente.Due é um azeite clássico, ideal para o dia a dia da cozinha: marinados, refogados, emulsão de molhos, finalização de saladas, massas e pratos do cotidiano. O azeite clássico é extraído de azeitonas maduras. Possui sabor amendoado, com notas amargas e picantes em equilíbrio.O azeite Due faz parte da grupo de marcas exclusivas Zona Sul, criada e pensada com carinho para os cariocas de coração. O planejamento de cada produto exclusivo conta com a participação dos Experts Zona Sul em todo o processo, até chegar na sua mesa. E com a linha Due não é diferente!</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>11.99</v>
+        <v>36.9</v>
       </c>
       <c r="F19" t="n">
-        <v>11.99</v>
+        <v>36.9</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>597</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2021-01-11T00:00:00Z</t>
+          <t>2025-05-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4222023/VF4qT-qqCUAAAAAAAAStHA.jpg?v=638894405636230000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4116721/VF4qT-qqCUAAAAAAAAiyjQ.jpg?v=638846625781330000</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1787,21 +1783,21 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>18105</t>
+          <t>40224</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>17997</t>
+          <t>40151</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>HAPPY EGGS</t>
+          <t>DUE</t>
         </is>
       </c>
       <c r="O19" t="n">
-        <v>2003319</v>
+        <v>2005138</v>
       </c>
       <c r="P19" t="n">
         <v>99999</v>
@@ -1810,43 +1806,43 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>detergente-para-loucas-odd-clear-500ml-982911</t>
+          <t>file-de-peito-de-frango-sadia-bandeja-1kg-290564</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Detergente Para Louças Odd Clear 500ml</t>
+          <t>Filé de Peito de Frango Sadia Bandeja 1kg</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>982911</t>
+          <t>290564</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>ODD voltou!Alto rendimento , controle de odor.</t>
+          <t>Peito De Frango Em Filés Sadia Bandeja 1kg</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1.9</v>
+        <v>24.99</v>
       </c>
       <c r="F20" t="n">
-        <v>2.49</v>
+        <v>26.99</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>125</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2020-10-06T00:00:00Z</t>
+          <t>2020-09-29T00:00:00Z</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3056732/VF4qT-qqCUAAAAAAAAHzRQ.jpg?v=637793635376800000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3538840/VF4qT-qqCUAAAAAAAAa5gg.jpg?v=638550537679130000</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1859,21 +1855,21 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>11872</t>
+          <t>7</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>11898</t>
+          <t>7</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>LIMPPANO</t>
+          <t>SADIA</t>
         </is>
       </c>
       <c r="O20" t="n">
-        <v>2001341</v>
+        <v>2000057</v>
       </c>
       <c r="P20" t="n">
         <v>99999</v>
@@ -1882,39 +1878,43 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ovos-vermelhos-caipira-happy-eggs-com-20-unidades-370550</t>
+          <t>morango-250g-289612</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ovos Vermelhos Caipira Happy Eggs Com 20 Unidades</t>
+          <t>Morango 250g</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>370550</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
+          <t>289612</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Embalagem com 250g "O morango é rico em vitamina C e, por isso, o consumo da fruta evita a fragilidade dos ossos e a má formação dos dentes. Ele também dá resistência aos tecidos, age contra infecções ajudando na cicatrização. O morango também possui, em menor quantidade, vitamina B5, conhecida como niacina. Ela tem a função de evitar problemas de pele, do aparelho digestivo e do sistema nervoso. Na fruta, também é encontrado ferro, que faz parte da formação do sangue."</t>
+        </is>
+      </c>
       <c r="E21" t="n">
-        <v>24.99</v>
+        <v>9.99</v>
       </c>
       <c r="F21" t="n">
-        <v>24.99</v>
+        <v>9.99</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2020-09-27T00:00:00Z</t>
+          <t>2020-09-26T00:00:00Z</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4343192/VF4qT-qqCUAAAAAAAAn9QA.jpg?v=638956617627730000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3226559/VF4qT-qqCUAAAAAAAAHKNA.jpg?v=638352676547800000</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1927,21 +1927,21 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>6939</t>
+          <t>5152</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>6957</t>
+          <t>5168</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>HAPPY EGGS</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O21" t="n">
-        <v>2003319</v>
+        <v>2000015</v>
       </c>
       <c r="P21" t="n">
         <v>99999</v>
@@ -1950,111 +1950,115 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>pao-frances-panetto-60g-com-4-unidades-96318</t>
+          <t>farinha-de-trigo-dona-benta-1kg-105287</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Pão Francês Panetto  60g Com 4 unidades</t>
+          <t>Farinha De Trigo Dona Benta 1kg</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>96318</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
+          <t>105287</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Farinha De Trigo Dona Benta 1kg</t>
+        </is>
+      </c>
       <c r="E22" t="n">
-        <v>24.99</v>
+        <v>250</v>
       </c>
       <c r="F22" t="n">
-        <v>24.99</v>
+        <v>300</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>63</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2024-01-31T00:00:00Z</t>
+          <t>2020-07-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3307700/VF4qT-qqCUAAAAAAAAWnXQ.jpg?v=638932898013670000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3079291/VF4qT-qqCUAAAAAAAANuog.jpg?v=637897755804270000</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K22" t="n">
-        <v>0.24</v>
+        <v>1</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>35477</t>
+          <t>31</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>35404</t>
+          <t>31</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>PANETTO</t>
+          <t>DONA BENTA</t>
         </is>
       </c>
       <c r="O22" t="n">
-        <v>2000307</v>
+        <v>2000701</v>
       </c>
       <c r="P22" t="n">
-        <v>99999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>azeite-italiano-extra-virgem-due-500ml-5472040</t>
+          <t>abobrinha-italiana-unidade-423513</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Azeite Italiano Extravirgem Due 500ml</t>
+          <t>Abobrinha Italiana Unidade</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>5472040</t>
+          <t>423513</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>O azeite Due é um blend de azeites do Mediterrâneo que confere um resultado clássico e ideal para o cotidiano da cozinha. Sua elaboração conta com uma seleção cautelosamente realizada pelo Expert em Azeites e Temperos Marcelo Scofano, que anualmente viaja à Toscana (Itália), onde o azeite é produzido, para cuidar de cada detalhe pessoalmente.Due é um azeite clássico, ideal para o dia a dia da cozinha: marinados, refogados, emulsão de molhos, finalização de saladas, massas e pratos do cotidiano. O azeite clássico é extraído de azeitonas maduras. Possui sabor amendoado, com notas amargas e picantes em equilíbrio.O azeite Due faz parte da grupo de marcas exclusivas Zona Sul, criada e pensada com carinho para os cariocas de coração. O planejamento de cada produto exclusivo conta com a participação dos Experts Zona Sul em todo o processo, até chegar na sua mesa. E com a linha Due não é diferente!</t>
+          <t>Abobrinha Italiana Unidade</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>36.9</v>
+        <v>2.45</v>
       </c>
       <c r="F23" t="n">
-        <v>36.9</v>
+        <v>2.45</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>53</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-06T00:00:00Z</t>
+          <t>2020-12-07T00:00:00Z</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4116721/VF4qT-qqCUAAAAAAAAiyjQ.jpg?v=638846625781330000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3095398/VF4qT-qqCUAAAAAAAASlGA.jpg?v=638211351178300000</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -2067,21 +2071,21 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>40224</t>
+          <t>16065</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>40151</t>
+          <t>15956</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>DUE</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O23" t="n">
-        <v>2005138</v>
+        <v>2000015</v>
       </c>
       <c r="P23" t="n">
         <v>99999</v>
@@ -2090,43 +2094,43 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>file-de-peito-de-frango-sadia-bandeja-1kg-290564</t>
+          <t>guardanapo-folha-dupla-scott-grand-hotel-jantar-33×33-cm-com-50-unidades-129887</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Filé de Peito de Frango Sadia Bandeja 1kg</t>
+          <t>Guardanapo Folha Dupla Scott Grand Hotel Jantar 33×33 Cm Com 50 Unidades</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>290564</t>
+          <t>129887</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Peito De Frango Em Filés Sadia Bandeja 1kg</t>
+          <t>O Guardanapo Grand Hotel folha tripla é mais sofisticado e garante uma maciez superior para todos os momentos. Contém 50 folhas de tamanho 31,8x32,8 cm cada.</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>24.99</v>
+        <v>12.99</v>
       </c>
       <c r="F24" t="n">
-        <v>26.99</v>
+        <v>12.99</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>111</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2020-09-29T00:00:00Z</t>
+          <t>2020-10-05T00:00:00Z</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3538840/VF4qT-qqCUAAAAAAAAa5gg.jpg?v=638550537679130000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3078100/129887_1.jpg?v=637895346534630000</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -2139,21 +2143,21 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9427</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9439</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>SADIA</t>
+          <t>GRANDE HOTEL</t>
         </is>
       </c>
       <c r="O24" t="n">
-        <v>2000057</v>
+        <v>2001401</v>
       </c>
       <c r="P24" t="n">
         <v>99999</v>
@@ -2162,43 +2166,43 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>farinha-de-trigo-dona-benta-1kg-105287</t>
+          <t>papel-higienico-folha-tripla-neve-supreme-dermacare-pacote-leve-16-pague-15-unidades-981168</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Farinha De Trigo Dona Benta 1kg</t>
+          <t>Papel Higiênico Folha Tripla Neve Supreme Dermacare Pacote Leve 16 Pague 15 Unidades</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>105287</t>
+          <t>981168</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Farinha De Trigo Dona Benta 1kg</t>
+          <t>Papel higiênico neutro folha tripla de alta qualidade. Neve quer ajudar as pessoas a cuidarem de si, por isso desenvolveu um produto que proporciona maciez insuperável com mais absorção e resistência.</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>7.99</v>
+        <v>32.19</v>
       </c>
       <c r="F25" t="n">
-        <v>7.99</v>
+        <v>32.19</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>14</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2020-07-06T00:00:00Z</t>
+          <t>2020-09-22T00:00:00Z</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3079291/VF4qT-qqCUAAAAAAAANuog.jpg?v=637897755804270000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4430737/VF4qT-qqCUAAAAAAAAoMMw.jpg?v=639014499358300000</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2211,66 +2215,66 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>1262</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>1269</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>DONA BENTA</t>
+          <t>NEVE</t>
         </is>
       </c>
       <c r="O25" t="n">
-        <v>2000701</v>
+        <v>2000291</v>
       </c>
       <c r="P25" t="n">
-        <v>100</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>morango-250g-289612</t>
+          <t>detergente-para-loucas-biodegradavel-limpol-neutro-500-ml-100510</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Morango 250g</t>
+          <t>Detergente Para Louças Biodegradável Limpol Neutro 500ml</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>289612</t>
+          <t>100510</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Embalagem com 250g "O morango é rico em vitamina C e, por isso, o consumo da fruta evita a fragilidade dos ossos e a má formação dos dentes. Ele também dá resistência aos tecidos, age contra infecções ajudando na cicatrização. O morango também possui, em menor quantidade, vitamina B5, conhecida como niacina. Ela tem a função de evitar problemas de pele, do aparelho digestivo e do sistema nervoso. Na fruta, também é encontrado ferro, que faz parte da formação do sangue."</t>
+          <t>O Lava-Louças Limpol é eficiente no poder da limpeza, remoção da gordura e sujeiras e no combate aos maus odores indesejados da cozinha. Sua fórmula é dermatologicamente testada e contém glicerina, tornando-a mais suave para as mãos.</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>9.99</v>
+        <v>2.79</v>
       </c>
       <c r="F26" t="n">
-        <v>9.99</v>
+        <v>2.79</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>76</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2020-09-26T00:00:00Z</t>
+          <t>2020-10-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3226559/VF4qT-qqCUAAAAAAAAHKNA.jpg?v=638352676547800000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3269221/12054_1.jpg?v=638386029717470000</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2283,21 +2287,21 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>5152</t>
+          <t>12054</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>5168</t>
+          <t>12081</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>LIMPOL</t>
         </is>
       </c>
       <c r="O26" t="n">
-        <v>2000015</v>
+        <v>2001413</v>
       </c>
       <c r="P26" t="n">
         <v>99999</v>
@@ -2306,43 +2310,43 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>abobrinha-italiana-unidade-423513</t>
+          <t>la-de-aco-bombril-com-6-unidades-45g-1180320</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Abobrinha Italiana Unidade</t>
+          <t>Lã de Aço Bombril com 6 Unidades 45g</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>423513</t>
+          <t>1180320</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Abobrinha Italiana Unidade</t>
+          <t>Uso: Ideal para limpeza de panelas, utensílios de cozinha, superfícies metálicas e outras áreas que necessitam de uma limpeza mais intensa.Remove sujeiras difíceis, incluindo resíduos de alimentos queimados e ferrugem.</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>2.1</v>
+        <v>2.19</v>
       </c>
       <c r="F27" t="n">
-        <v>2.45</v>
+        <v>2.99</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>78</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2020-12-07T00:00:00Z</t>
+          <t>2025-07-17T00:00:00Z</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3095398/VF4qT-qqCUAAAAAAAASlGA.jpg?v=638211351178300000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4216409/VF4qT-qqCUAAAAAAAAko5g.jpg?v=638889221726300000</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -2355,21 +2359,21 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>16065</t>
+          <t>41130</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>15956</t>
+          <t>41057</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>BOMBRIL</t>
         </is>
       </c>
       <c r="O27" t="n">
-        <v>2000015</v>
+        <v>2001389</v>
       </c>
       <c r="P27" t="n">
         <v>99999</v>
@@ -2378,43 +2382,43 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>guardanapo-folha-dupla-scott-grand-hotel-jantar-33×33-cm-com-50-unidades-129887</t>
+          <t>coentro-unidade-200930</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Guardanapo Folha Dupla Scott Grand Hotel Jantar 33×33 Cm Com 50 Unidades</t>
+          <t>Coentro Unidade</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>129887</t>
+          <t>200930</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>O Guardanapo Grand Hotel folha tripla é mais sofisticado e garante uma maciez superior para todos os momentos. Contém 50 folhas de tamanho 31,8x32,8 cm cada.</t>
+          <t>Coentro Unidade</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>12.99</v>
+        <v>3.39</v>
       </c>
       <c r="F28" t="n">
-        <v>12.99</v>
+        <v>3.39</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2020-10-05T00:00:00Z</t>
+          <t>2020-09-28T00:00:00Z</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3078100/129887_1.jpg?v=637895346534630000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3076728/VF4qT-qqCUAAAAAAAAGF4g.jpg?v=637877840364830000</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2427,21 +2431,21 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>9427</t>
+          <t>7408</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>9439</t>
+          <t>7427</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>GRANDE HOTEL</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O28" t="n">
-        <v>2001401</v>
+        <v>2000015</v>
       </c>
       <c r="P28" t="n">
         <v>99999</v>
@@ -2450,39 +2454,39 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>papel-toalha-coquetel-19cm-x-19cm-com-2-rolos-com-60-folhas-cada-783242</t>
+          <t>pao-de-queijo-forno-de-minas-tradicional--400-g-456110</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Papel Toalha Coquetel 19Cm X 19Cm com 2 Rolos com 60 Folhas Cada</t>
+          <t>Pão De Queijo Forno De Minas Tradicional 400g</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>783242</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="n">
-        <v>6.99</v>
-      </c>
-      <c r="F29" t="n">
-        <v>6.99</v>
-      </c>
+          <t>456110</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Pão De Queijo Forno De Minas Tradicional 400g</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>119</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2020-10-06T00:00:00Z</t>
+          <t>2020-10-20T00:00:00Z</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3050348/VF4qT-qqCUAAAAAAAAJRgg.jpg?v=637793335676500000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3041185/VF4qT-qqCUAAAAAAAAHIag.jpg?v=637792557833470000</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2495,93 +2499,93 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>11627</t>
+          <t>13544</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>11650</t>
+          <t>13564</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>COQUETEL</t>
+          <t>FORNO MINAS</t>
         </is>
       </c>
       <c r="O29" t="n">
-        <v>2001855</v>
+        <v>2001500</v>
       </c>
       <c r="P29" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>papel-higienico-folha-tripla-neve-supreme-dermacare-pacote-leve-16-pague-15-unidades-981168</t>
+          <t>mamao-papaia-cariorta-12kg-99007</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Papel Higiênico Folha Tripla Neve Supreme Dermacare Pacote Leve 16 Pague 15 Unidades</t>
+          <t>Mamão Papaia Cariorta 1,2kg</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>981168</t>
+          <t>99007</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Papel higiênico neutro folha tripla de alta qualidade. Neve quer ajudar as pessoas a cuidarem de si, por isso desenvolveu um produto que proporciona maciez insuperável com mais absorção e resistência.</t>
+          <t>Cariorta selecionados de coração.</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>32.19</v>
+        <v>15.99</v>
       </c>
       <c r="F30" t="n">
-        <v>32.19</v>
+        <v>15.99</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>482</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2020-09-22T00:00:00Z</t>
+          <t>2020-05-20T00:00:00Z</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4430737/VF4qT-qqCUAAAAAAAAoMMw.jpg?v=639014499358300000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3082688/VF4qT-qqCUAAAAAAAAOOog.jpg?v=637980006057500000</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K30" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>1262</t>
+          <t>24413</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>1269</t>
+          <t>24337</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>NEVE</t>
+          <t>CARIORTA</t>
         </is>
       </c>
       <c r="O30" t="n">
-        <v>2000291</v>
+        <v>2001012</v>
       </c>
       <c r="P30" t="n">
         <v>99999</v>
@@ -2590,43 +2594,43 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>detergente-para-loucas-biodegradavel-limpol-neutro-500-ml-100510</t>
+          <t>refrigerante-coca-cola-sem-acucar-pet-600-ml-429392</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Detergente Para Louças Biodegradável Limpol Neutro 500ml</t>
+          <t>Refrigerante Coca Cola Sem Açúcar Pet 600ml</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>100510</t>
+          <t>429392</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>O Lava-Louças Limpol é eficiente no poder da limpeza, remoção da gordura e sujeiras e no combate aos maus odores indesejados da cozinha. Sua fórmula é dermatologicamente testada e contém glicerina, tornando-a mais suave para as mãos.</t>
+          <t>A Coca-Cola Sem Açúcar é um refrigerante que não contém calorias! Com certeza você já se perguntou: “Então, de onde vem aquele gostinho doce? ” A Coca-Cola Sem Açúcar é produzida especialmente com adoçantes para manter o delicioso sabor de Coca-Cola porém com 0% Açucar. Perfeita para matar sua sede a qualquer hora do dia!</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>2.79</v>
+        <v>5.69</v>
       </c>
       <c r="F31" t="n">
-        <v>2.79</v>
+        <v>5.69</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2020-10-06T00:00:00Z</t>
+          <t>2020-10-01T00:00:00Z</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3269221/12054_1.jpg?v=638386029717470000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4483407/VF4qT-qqCUAAAAAAAAoapA.jpg?v=639052524553700000</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -2639,21 +2643,21 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>12054</t>
+          <t>8816</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>12081</t>
+          <t>8828</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>LIMPOL</t>
+          <t>COCA COLA</t>
         </is>
       </c>
       <c r="O31" t="n">
-        <v>2001413</v>
+        <v>2000027</v>
       </c>
       <c r="P31" t="n">
         <v>99999</v>
@@ -2662,115 +2666,115 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>cebola-roxa-400g-38393</t>
+          <t>oleo-de-soja-liza-900ml-127310</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Cebola Roxa 400g</t>
+          <t>Óleo De Soja Liza 900ml</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>38393</t>
+          <t>127310</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Embalagem com 2 a 3 unidades. Melhor para comer cru; Use : no guacamole, em conserva, na salada, no sanduíche.</t>
+          <t>Óleo De Soja Liza 900ml</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>7.69</v>
+        <v>8.59</v>
       </c>
       <c r="F32" t="n">
-        <v>7.69</v>
+        <v>8.59</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>576</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2020-09-26T00:00:00Z</t>
+          <t>2020-09-15T00:00:00Z</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3081506/VF4qT-qqCUAAAAAAAAOBng.jpg?v=637947101712670000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3075849/VF4qT-qqCUAAAAAAAAIxqw.jpg?v=637877802666600000</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K32" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>5543</t>
+          <t>127</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>5559</t>
+          <t>132</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>LIZA</t>
         </is>
       </c>
       <c r="O32" t="n">
-        <v>2000015</v>
+        <v>2000067</v>
       </c>
       <c r="P32" t="n">
-        <v>100</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>la-de-aco-bombril-com-6-unidades-45g-1180320</t>
+          <t>espinafre-unidade-200948</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Lã de Aço Bombril com 6 Unidades 45g</t>
+          <t>Espinafre Unidade</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1180320</t>
+          <t>200948</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Uso: Ideal para limpeza de panelas, utensílios de cozinha, superfícies metálicas e outras áreas que necessitam de uma limpeza mais intensa.Remove sujeiras difíceis, incluindo resíduos de alimentos queimados e ferrugem.</t>
+          <t>O espinafre é uma hortaliça saborosa, rica em ferro e também é fonte de vitamina A e B2, além de fornecer cálcio, fósforo, potássio e magnésio, é indicado também para pessoas com anemia e desnutrição.Como conservar :Sob refrigeração, pode ser mantido por no máximo 5 dias. Antes de colocálo na geladeira, lave as folhas, escorra o excesso de água e coloqueo em sacos de plástico perfurados ou em vasilha de plástico.Como consumir :O espinafre também pode ser usado em saladas, sopas,suflês omeletes. É ótimo como recheio ou acompanhamento de massas como macarrão, quiche, tortas, pastéis e assados. [Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>2.19</v>
+        <v>3.39</v>
       </c>
       <c r="F33" t="n">
-        <v>2.99</v>
+        <v>3.39</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-07-17T00:00:00Z</t>
+          <t>2020-09-28T00:00:00Z</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4216409/VF4qT-qqCUAAAAAAAAko5g.jpg?v=638889221726300000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3076729/VF4qT-qqCUAAAAAAAAKBdQ.jpg?v=637877840409270000</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2783,21 +2787,21 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>41130</t>
+          <t>7464</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>41057</t>
+          <t>7483</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>BOMBRIL</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O33" t="n">
-        <v>2001389</v>
+        <v>2000015</v>
       </c>
       <c r="P33" t="n">
         <v>99999</v>
@@ -2806,43 +2810,43 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>coentro-unidade-200930</t>
+          <t>sal-refinado-iodado-ita-1kg-117293</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Coentro Unidade</t>
+          <t>Sal Refinado Iodado Ita 1kg</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>200930</t>
+          <t>117293</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Coentro Unidade</t>
+          <t>Sal Refinado Iodado Ita 1kg</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>3.39</v>
+        <v>3.65</v>
       </c>
       <c r="F34" t="n">
-        <v>3.39</v>
+        <v>3.65</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2020-09-28T00:00:00Z</t>
+          <t>2020-09-15T00:00:00Z</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3076728/VF4qT-qqCUAAAAAAAAGF4g.jpg?v=637877840364830000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3076051/VF4qT-qqCUAAAAAAAAKZcQ.jpg?v=637877811480070000</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2855,21 +2859,21 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>7408</t>
+          <t>126</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>7427</t>
+          <t>131</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>ITA</t>
         </is>
       </c>
       <c r="O34" t="n">
-        <v>2000015</v>
+        <v>2000066</v>
       </c>
       <c r="P34" t="n">
         <v>99999</v>
@@ -2878,43 +2882,43 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>mamao-papaia-cariorta-12kg-99007</t>
+          <t>abobora-japonesa-pedaco-500g-38229</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Mamão Papaia Cariorta 1,2kg</t>
+          <t>Abóbora Japonesa Pedaço 500g</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>99007</t>
+          <t>38229</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Cariorta selecionados de coração.</t>
+          <t>Embalagem com 1 pedaço.</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>15.99</v>
+        <v>5.29</v>
       </c>
       <c r="F35" t="n">
-        <v>15.99</v>
+        <v>5.29</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>53</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2020-05-20T00:00:00Z</t>
+          <t>2020-09-26T00:00:00Z</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3082688/VF4qT-qqCUAAAAAAAAOOog.jpg?v=637980006057500000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3096862/VF4qT-qqCUAAAAAAAAS9Tw.jpg?v=638235593168230000</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2923,25 +2927,25 @@
         </is>
       </c>
       <c r="K35" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>24413</t>
+          <t>5593</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>24337</t>
+          <t>5609</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>CARIORTA</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O35" t="n">
-        <v>2001012</v>
+        <v>2000015</v>
       </c>
       <c r="P35" t="n">
         <v>99999</v>
@@ -2950,43 +2954,43 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>oleo-de-soja-liza-900ml-127310</t>
+          <t>saponaceo-cremoso-cif-limpeza-milagrosa-450ml-781266</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Óleo De Soja Liza 900ml</t>
+          <t>CIF Cremoso Limpeza Milagrosa remove 100% da sujeira 450 ml</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>127310</t>
+          <t>781266</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Óleo De Soja Liza 900ml</t>
+          <t>• Cif Cremoso Original é o produto de limpeza milagrosa que limpa fácil e dá brilho em mais de 100 superfícies*, removendo 100% da sujeira difícil, sem esforço • O Cif Cremoso Original possui um perfume suave, é mais concentrado e rende 7 garrafas do limpador comum • Fórmula com tecnologia poderosa que limpa sem riscar, removendo toda a sujeira desde a mais pesada até a limpeza de casa do dia a dia, deixando um brilho imbatível • Com o Cif, a limpeza nunca foi tão fácil e versátil. Cif Cremoso possui três variantes: Original, Limão e Laranja • Cif Cremoso Original é o produto de limpeza milagrosa para todo tipo de objeto como: eletrodomésticos, pias, couro sintético, borracha, plástico, porcelana e serve até como limpador de pisos • Cif promove uma limpeza milagrosa completa, com produtos versáteis que atendem a todas as suas necessidades. Cif. Sinta a limpeza acontecer! Cif Cremoso Original 450 ml é o produto de limpeza milagroso que limpa fácil e dá brilho em mais de 100 superfícies*, removendo 100% da sujeira difícil, sem esforço. O higienizador de casa cremoso é mais concentrado e rende 7 garrafas do limpador comum**. Sua fórmula, poderosa, limpa sem riscar***, removendo toda a sujeira desde a mais pesada até a limpeza de casa do dia a dia, deixando um brilho imbatível. Limpe toda sua casa usando o Cif Cremoso Original, que limpa todo tipo de objeto, como eletrodomésticos, potes plásticos, pias, brinquedos das crianças, persianas, pisos e até ajuda a deixar aquele cabo de carregador de celular como novo! Com o Limpador Cif, a limpeza nunca foi tão fácil e versátil. A linha do milagroso Cif Cremoso possui outras variedades de perfumes, como Laranja e Limão, que se adaptam ao seu estilo. Conheça a linha completa de produtos de limpeza Cif que não podem ficar de fora da sua lista de material de limpeza. Use também: Cif Cozinha, Cif Derrete Gordura, Cif Banheiro, Cif Tira Limo Com Cloro, Cif Vidros, Cif Cremoso e muito mais. Cif: Sinta a limpeza acontecer! Modo de usar: 1. Agite antes de usar. 2. Aplique uma pequena quantidade do produto sobre uma esponja ou pano úmido. 3. Esfregue a superfície suavemente até eliminar a sujeira. 4. Passe um pano úmido para finalizar. 5. Feche a embalagem após o uso. *Consulte lista das superfícies em www.ciflimpadores.com.br **Manchas de sabão e gordura queimada, comparado com limpadores comuns do mercado. Consulte a diferença de preços entre produtos. ***Não usar esponja ácida, como palha de aço, para a limpeza de vidros. A imagem do produto é meramente ilustrativa e o rótulo pode variar. Será enviada a embalagem disponível no momento da compra.</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>8.59</v>
+        <v>18.99</v>
       </c>
       <c r="F36" t="n">
-        <v>8.59</v>
+        <v>18.99</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>74</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2020-09-15T00:00:00Z</t>
+          <t>2020-10-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3075849/VF4qT-qqCUAAAAAAAAIxqw.jpg?v=637877802666600000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3640099/VF4qT-qqCUAAAAAAAAbyew.jpg?v=638585098972800000</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2999,165 +3003,165 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>11602</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>11625</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>LIZA</t>
+          <t>CIF</t>
         </is>
       </c>
       <c r="O36" t="n">
-        <v>2000067</v>
+        <v>2000541</v>
       </c>
       <c r="P36" t="n">
-        <v>99999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>pao-de-queijo-forno-de-minas-tradicional--400-g-456110</t>
+          <t>cereja-chilena-300g-13463</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Pão De Queijo Forno De Minas Tradicional 400g</t>
+          <t>Cereja Chilena 300g</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>456110</t>
+          <t>13463</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Pão De Queijo Forno De Minas Tradicional 400g</t>
+          <t>As cerejas chilenas vão deleitar seu paladar com seu doce e suculento sabor. Sua cor intensa, que varia do vermelho vibrante a tonalidades mais escuras, é um banquete para os olhos e o sinal dos inúmeros benefícios à saúde. Essa pequena fruta é uma fonte nutricional completa, com vitaminas essenciais como a C e a E, além de minerais como o ferro, potássio e magnésio. A cerejas podem ser consumidas frescas, no preparo de conservas, sobremesas e tortas e são classificadas por tamanho e nós só trazemos as mais graúdas especialmente para você!</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>21.99</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="F37" t="n">
-        <v>21.99</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2020-10-20T00:00:00Z</t>
+          <t>2020-09-26T00:00:00Z</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3041185/VF4qT-qqCUAAAAAAAAHIag.jpg?v=637792557833470000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4434078/VF4qT-qqCUAAAAAAAAoONQ.jpg?v=639019170859200000</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K37" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>13544</t>
+          <t>5090</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>13564</t>
+          <t>5106</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>FORNO MINAS</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O37" t="n">
-        <v>2001500</v>
+        <v>2000015</v>
       </c>
       <c r="P37" t="n">
-        <v>100</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>espinafre-unidade-200948</t>
+          <t>alho-roxo-cariorta-4-a-5-unidades-250g-99279</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Espinafre Unidade</t>
+          <t>Alho Roxo Cariorta 4 a 5 unidades 250g</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>200948</t>
+          <t>99279</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>O espinafre é uma hortaliça saborosa, rica em ferro e também é fonte de vitamina A e B2, além de fornecer cálcio, fósforo, potássio e magnésio, é indicado também para pessoas com anemia e desnutrição.Como conservar :Sob refrigeração, pode ser mantido por no máximo 5 dias. Antes de colocálo na geladeira, lave as folhas, escorra o excesso de água e coloqueo em sacos de plástico perfurados ou em vasilha de plástico.Como consumir :O espinafre também pode ser usado em saladas, sopas,suflês omeletes. É ótimo como recheio ou acompanhamento de massas como macarrão, quiche, tortas, pastéis e assados. [Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
+          <t>Cariorta selecionados de coração.</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>2.49</v>
+        <v>59.99</v>
       </c>
       <c r="F38" t="n">
-        <v>3.39</v>
+        <v>59.99</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>480</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2020-09-28T00:00:00Z</t>
+          <t>2020-05-27T00:00:00Z</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3076729/VF4qT-qqCUAAAAAAAAKBdQ.jpg?v=637877840409270000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3082698/VF4qT-qqCUAAAAAAAAOOtg.jpg?v=637980006345970000</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K38" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>7464</t>
+          <t>24684</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>7483</t>
+          <t>24608</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>CARIORTA</t>
         </is>
       </c>
       <c r="O38" t="n">
-        <v>2000015</v>
+        <v>2001012</v>
       </c>
       <c r="P38" t="n">
         <v>99999</v>
@@ -3166,43 +3170,43 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>refrigerante-coca-cola-sem-acucar-pet-600-ml-429392</t>
+          <t>couve-manteiga-unidade-201235</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Refrigerante Coca Cola Sem Açúcar Pet 600ml</t>
+          <t>Couve Manteiga Unidade</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>429392</t>
+          <t>201235</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>A Coca-Cola Sem Açúcar é um refrigerante que não contém calorias! Com certeza você já se perguntou: “Então, de onde vem aquele gostinho doce? ” A Coca-Cola Sem Açúcar é produzida especialmente com adoçantes para manter o delicioso sabor de Coca-Cola porém com 0% Açucar. Perfeita para matar sua sede a qualquer hora do dia!</t>
+          <t>A couve é uma hortaliça muito rica em nutriente,cálcio, ferro e vitaminas A,C, K e B5.Como conservar:Em geladeira, inteira ou picada deve ser mantida em saco plástico fechado ou em vasilha de plástico tampada.Como consumir:Pode ser consumida crua, em saladas e sucos, refogada ou como ingrediente de sopas, farofas e cozidos.[ Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>5.69</v>
+        <v>3.39</v>
       </c>
       <c r="F39" t="n">
-        <v>5.69</v>
+        <v>3.39</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2020-10-01T00:00:00Z</t>
+          <t>2020-09-28T00:00:00Z</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4483407/VF4qT-qqCUAAAAAAAAoapA.jpg?v=639052524553700000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3083631/VF4qT-qqCUAAAAAAAAOZOA.jpg?v=637994955185970000</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -3215,21 +3219,21 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>8816</t>
+          <t>7445</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>8828</t>
+          <t>7464</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>COCA COLA</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O39" t="n">
-        <v>2000027</v>
+        <v>2000015</v>
       </c>
       <c r="P39" t="n">
         <v>99999</v>
@@ -3238,43 +3242,43 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>sal-refinado-iodado-ita-1kg-117293</t>
+          <t>desinfetante-banheiro-tira-limo-veja-x-14-sache-400ml-refil-economico-1066404</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Sal Refinado Iodado Ita 1kg</t>
+          <t>Desinfetante Banheiro Tira-Limo Veja X-14 Sachê 400ml Refil Econômico</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>117293</t>
+          <t>1066404</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Sal Refinado Iodado Ita 1kg</t>
+          <t>Desinfetante Banheiro Tira-Limo Veja X-14 Sachê 400ml Refil Econômico</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>3.65</v>
+        <v>9.9</v>
       </c>
       <c r="F40" t="n">
-        <v>3.65</v>
+        <v>11.99</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>74</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2020-09-15T00:00:00Z</t>
+          <t>2022-08-11T00:00:00Z</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3076051/VF4qT-qqCUAAAAAAAAKZcQ.jpg?v=637877811480070000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3927710/VF4qT-qqCUAAAAAAAAOGFQ.jpg?v=638733705155570000</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -3287,21 +3291,21 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>27159</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>27083</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>ITA</t>
+          <t>VEJA</t>
         </is>
       </c>
       <c r="O40" t="n">
-        <v>2000066</v>
+        <v>2000523</v>
       </c>
       <c r="P40" t="n">
         <v>99999</v>
@@ -3310,70 +3314,70 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>abobora-japonesa-pedaco-500g-38229</t>
+          <t>biscoito-cream-cracker-piraque-pacote-184g-1105795</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Abóbora Japonesa Pedaço 500g</t>
+          <t>Biscoito Cream Cracker Piraquê Pacote 184g</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>38229</t>
+          <t>1105795</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Embalagem com 1 pedaço.</t>
+          <t>Biscoito Salgado Cream Cracker Piraquê Pacote 184g</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>5.29</v>
+        <v>3.95</v>
       </c>
       <c r="F41" t="n">
-        <v>5.29</v>
+        <v>5.99</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>31</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2020-09-26T00:00:00Z</t>
+          <t>2023-07-26T00:00:00Z</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3096862/VF4qT-qqCUAAAAAAAAS9Tw.jpg?v=638235593168230000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3099416/VF4qT-qqCUAAAAAAAATd0w.jpg?v=638264204522930000</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K41" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>5593</t>
+          <t>33955</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>5609</t>
+          <t>33882</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>PIRAQUE</t>
         </is>
       </c>
       <c r="O41" t="n">
-        <v>2000015</v>
+        <v>2000017</v>
       </c>
       <c r="P41" t="n">
         <v>99999</v>
@@ -3382,43 +3386,39 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>saponaceo-cremoso-cif-limpeza-milagrosa-450ml-781266</t>
+          <t>papel-aluminio-rolitto-30cm-x-75-m-897795</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>CIF Cremoso Limpeza Milagrosa remove 100% da sujeira 450 ml</t>
+          <t>Papel Alumínio Rolitto 30Cm X 7,5 M</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>781266</t>
+          <t>897795</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>• Cif Cremoso Original é o produto de limpeza milagrosa que limpa fácil e dá brilho em mais de 100 superfícies*, removendo 100% da sujeira difícil, sem esforço • O Cif Cremoso Original possui um perfume suave, é mais concentrado e rende 7 garrafas do limpador comum • Fórmula com tecnologia poderosa que limpa sem riscar, removendo toda a sujeira desde a mais pesada até a limpeza de casa do dia a dia, deixando um brilho imbatível • Com o Cif, a limpeza nunca foi tão fácil e versátil. Cif Cremoso possui três variantes: Original, Limão e Laranja • Cif Cremoso Original é o produto de limpeza milagrosa para todo tipo de objeto como: eletrodomésticos, pias, couro sintético, borracha, plástico, porcelana e serve até como limpador de pisos • Cif promove uma limpeza milagrosa completa, com produtos versáteis que atendem a todas as suas necessidades. Cif. Sinta a limpeza acontecer! Cif Cremoso Original 450 ml é o produto de limpeza milagroso que limpa fácil e dá brilho em mais de 100 superfícies*, removendo 100% da sujeira difícil, sem esforço. O higienizador de casa cremoso é mais concentrado e rende 7 garrafas do limpador comum**. Sua fórmula, poderosa, limpa sem riscar***, removendo toda a sujeira desde a mais pesada até a limpeza de casa do dia a dia, deixando um brilho imbatível. Limpe toda sua casa usando o Cif Cremoso Original, que limpa todo tipo de objeto, como eletrodomésticos, potes plásticos, pias, brinquedos das crianças, persianas, pisos e até ajuda a deixar aquele cabo de carregador de celular como novo! Com o Limpador Cif, a limpeza nunca foi tão fácil e versátil. A linha do milagroso Cif Cremoso possui outras variedades de perfumes, como Laranja e Limão, que se adaptam ao seu estilo. Conheça a linha completa de produtos de limpeza Cif que não podem ficar de fora da sua lista de material de limpeza. Use também: Cif Cozinha, Cif Derrete Gordura, Cif Banheiro, Cif Tira Limo Com Cloro, Cif Vidros, Cif Cremoso e muito mais. Cif: Sinta a limpeza acontecer! Modo de usar: 1. Agite antes de usar. 2. Aplique uma pequena quantidade do produto sobre uma esponja ou pano úmido. 3. Esfregue a superfície suavemente até eliminar a sujeira. 4. Passe um pano úmido para finalizar. 5. Feche a embalagem após o uso. *Consulte lista das superfícies em www.ciflimpadores.com.br **Manchas de sabão e gordura queimada, comparado com limpadores comuns do mercado. Consulte a diferença de preços entre produtos. ***Não usar esponja ácida, como palha de aço, para a limpeza de vidros. A imagem do produto é meramente ilustrativa e o rótulo pode variar. Será enviada a embalagem disponível no momento da compra.</t>
-        </is>
-      </c>
-      <c r="E42" t="n">
-        <v>18.99</v>
-      </c>
-      <c r="F42" t="n">
-        <v>18.99</v>
-      </c>
+          <t>Envolve , protege e conserva.</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>111</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2020-10-06T00:00:00Z</t>
+          <t>2020-10-05T00:00:00Z</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3640099/VF4qT-qqCUAAAAAAAAbyew.jpg?v=638585098972800000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3061098/VF4qT-qqCUAAAAAAAAGpfA.jpg?v=637794125591230000</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -3431,93 +3431,93 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>11602</t>
+          <t>9853</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>11625</t>
+          <t>9866</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>CIF</t>
+          <t>KENTINHA</t>
         </is>
       </c>
       <c r="O42" t="n">
-        <v>2000541</v>
+        <v>2001532</v>
       </c>
       <c r="P42" t="n">
-        <v>99999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>alho-roxo-cariorta-4-a-5-unidades-250g-99279</t>
+          <t>matte-leao-natural-pet-15l-118214</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Alho Roxo Cariorta 4 a 5 unidades 250g</t>
+          <t>Matte Leão Natural Pet 1,5L</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>99279</t>
+          <t>118214</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Cariorta selecionados de coração.</t>
+          <t>Renove seu humor, recicle seu ritmo e siga em frente. Experimente combinar o seu dia com o sabor inconfundível de Matte Leão.Matte Leão é feito com folhas de ervamate selecionadas e tostadas num processo único, especialmente para você.Porção de 200 mL (1 copo) = 68 kcal.</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>59.99</v>
+        <v>7.69</v>
       </c>
       <c r="F43" t="n">
-        <v>59.99</v>
+        <v>8.99</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2020-05-27T00:00:00Z</t>
+          <t>2020-10-01T00:00:00Z</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3082698/VF4qT-qqCUAAAAAAAAOOtg.jpg?v=637980006345970000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3704453/VF4qT-qqCUAAAAAAAAGyOQ.jpg?v=638609291247270000</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K43" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>24684</t>
+          <t>8709</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>24608</t>
+          <t>8721</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>CARIORTA</t>
+          <t>LEAO</t>
         </is>
       </c>
       <c r="O43" t="n">
-        <v>2001012</v>
+        <v>2000010</v>
       </c>
       <c r="P43" t="n">
         <v>99999</v>
@@ -3526,43 +3526,39 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>cereja-chilena-300g-13463</t>
+          <t>abobrinha-italiana-cariorta-1kg-98663</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Cereja Chilena 300g</t>
+          <t>Abobrinha Italiana Cariorta 1Kg</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>13463</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>As cerejas chilenas vão deleitar seu paladar com seu doce e suculento sabor. Sua cor intensa, que varia do vermelho vibrante a tonalidades mais escuras, é um banquete para os olhos e o sinal dos inúmeros benefícios à saúde. Essa pequena fruta é uma fonte nutricional completa, com vitaminas essenciais como a C e a E, além de minerais como o ferro, potássio e magnésio. A cerejas podem ser consumidas frescas, no preparo de conservas, sobremesas e tortas e são classificadas por tamanho e nós só trazemos as mais graúdas especialmente para você!</t>
-        </is>
-      </c>
+          <t>98663</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
       <c r="E44" t="n">
-        <v>64.90000000000001</v>
+        <v>7.99</v>
       </c>
       <c r="F44" t="n">
-        <v>69.90000000000001</v>
+        <v>7.99</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>483</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2020-09-26T00:00:00Z</t>
+          <t>2020-12-16T00:00:00Z</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4434078/VF4qT-qqCUAAAAAAAAoONQ.jpg?v=639019170859200000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3082667/VF4qT-qqCUAAAAAAAAOOdQ.jpg?v=637979987909700000</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -3571,25 +3567,25 @@
         </is>
       </c>
       <c r="K44" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>5090</t>
+          <t>16567</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>5106</t>
+          <t>16458</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>CARIORTA</t>
         </is>
       </c>
       <c r="O44" t="n">
-        <v>2000015</v>
+        <v>2001012</v>
       </c>
       <c r="P44" t="n">
         <v>99999</v>
@@ -3598,33 +3594,29 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>couve-manteiga-unidade-201235</t>
+          <t>file-mignon-resfriado-sem-cordao-2-2kg-44822</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Couve Manteiga Unidade</t>
+          <t>Filé Mignon Resfriado Sem Cordão 2,2kg</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>201235</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>A couve é uma hortaliça muito rica em nutriente,cálcio, ferro e vitaminas A,C, K e B5.Como conservar:Em geladeira, inteira ou picada deve ser mantida em saco plástico fechado ou em vasilha de plástico tampada.Como consumir:Pode ser consumida crua, em saladas e sucos, refogada ou como ingrediente de sopas, farofas e cozidos.[ Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
-        </is>
-      </c>
+          <t>44822</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
       <c r="E45" t="n">
-        <v>3.39</v>
+        <v>79.98999999999999</v>
       </c>
       <c r="F45" t="n">
-        <v>3.39</v>
+        <v>99.98999999999999</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>124</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -3634,25 +3626,25 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3083631/VF4qT-qqCUAAAAAAAAOZOA.jpg?v=637994955185970000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4340142/VF4qT-qqCUAAAAAAAAJRsQ.jpg?v=638954025546430000</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K45" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>7445</t>
+          <t>7539</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>7464</t>
+          <t>7558</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -3670,43 +3662,43 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>desinfetante-banheiro-tira-limo-veja-x-14-sache-400ml-refil-economico-1066404</t>
+          <t>milho-em-conserva-quero-lata-200g-476625</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Desinfetante Banheiro Tira-Limo Veja X-14 Sachê 400ml Refil Econômico</t>
+          <t>Milho em Conserva Quero Lata 200g</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1066404</t>
+          <t>476625</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Desinfetante Banheiro Tira-Limo Veja X-14 Sachê 400ml Refil Econômico</t>
+          <t>Sabor inigualável e cozimento na medida certa são os segredos do Milho Quero. O Milho Verde em Conserva Quero Lata 170g é ideal para receitas em pequenas quantidades. Se você prefere embalagens em lata, essa opção é ideal pra você! Para garantir a qualidade da sua receita, a Quero seleciona os vegetais com todo o cuidado, deixando o resultado final impecável. Pode confiar que seus pratos vão ficar uma delícia. Sabor e frescor para o seu dia a dia! Que tal experimentar? Quero cabe na panela, no prato e no bolso, sendo a marca queridinha entre os brasileiros.* Pode confiar que quando você tem Quero, você faz acontecer!</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>9.9</v>
+        <v>3.89</v>
       </c>
       <c r="F46" t="n">
-        <v>11.99</v>
+        <v>4.99</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>147</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2022-08-11T00:00:00Z</t>
+          <t>2020-10-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3927710/VF4qT-qqCUAAAAAAAAOGFQ.jpg?v=638733705155570000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3090347/476625_1.jpg?v=638126891970330000</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -3719,21 +3711,21 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>27159</t>
+          <t>10734</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>27083</t>
+          <t>10752</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>VEJA</t>
+          <t>QUERO</t>
         </is>
       </c>
       <c r="O46" t="n">
-        <v>2000523</v>
+        <v>2001778</v>
       </c>
       <c r="P46" t="n">
         <v>99999</v>
@@ -3742,43 +3734,43 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>biscoito-cream-cracker-piraque-pacote-184g-1105795</t>
+          <t>leite-longa-vida-integral-elege-tetra-pak-1l-371289</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Biscoito Cream Cracker Piraquê Pacote 184g</t>
+          <t>Leite Longa Vida Integral Elegê Tetra Pak 1L</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>1105795</t>
+          <t>371289</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Biscoito Salgado Cream Cracker Piraquê Pacote 184g</t>
+          <t>Leite Longa Vida Integral Elegê Tetra Pak 1L</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>5.99</v>
+        <v>5.39</v>
       </c>
       <c r="F47" t="n">
-        <v>5.99</v>
+        <v>5.39</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>130</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2023-07-26T00:00:00Z</t>
+          <t>2020-10-05T00:00:00Z</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3099416/VF4qT-qqCUAAAAAAAATd0w.jpg?v=638264204522930000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3129041/VF4qT-qqCUAAAAAAAAUbaw.jpg?v=638309476429500000</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -3791,21 +3783,21 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>33955</t>
+          <t>9974</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>33882</t>
+          <t>9988</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>PIRAQUE</t>
+          <t>ELEGE</t>
         </is>
       </c>
       <c r="O47" t="n">
-        <v>2000017</v>
+        <v>2000400</v>
       </c>
       <c r="P47" t="n">
         <v>99999</v>
@@ -3814,43 +3806,43 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>papel-aluminio-rolitto-30cm-x-75-m-897795</t>
+          <t>saponaceo-cremoso-cif-gratis-20-450-ml-839264</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Papel Alumínio Rolitto 30Cm X 7,5 M</t>
+          <t>Saponáceo Cremoso Cif Grátis 20% 450ml</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>897795</t>
+          <t>839264</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Envolve , protege e conserva.</t>
+          <t>• Multiuso Cremoso • 1 gota remove 100% da sujeira difícil • Limpa sem riscar com micropartículas de origem natural • Poderoso na limpeza, imbatível no cuidado • Use também em couro sintético, plástico, porcelana e borracha • Para toda casa CIF Multiuso Cremoso Original, possui uma fórmula exclusiva que limpa profundamente, removendo 100% da sujeira difícil, com apenas 1 gota. O limpador CIF Cremoso é mais concentrado e por isso pode render até 7 garrafas * dos limpadores comuns encontrados no mercado. Com sua tecnologia, o limpador de casa CIF Multiuso Cremoso Original é poderoso na limpeza e imbatível no cuidado. Sua formula com micropartículas de origem natural limpam, sem riscar, removendo toda a sujeira desde a mais pesada até a manutenção do dia a dia, deixando um brilho imbatível. Limpe toda sua casa usando o limpador multiuso CIF Multiuso Cremoso, que limpa mais de 100 objetos **, como fogão, micro-ondas, chinelos, panelas, geladeira, potes plásticos, pias, torneiras, sofá, máquina de lavar, brinquedos das crianças, persianas, utensílios de churrasco, talheres, ventilador e até ajuda a deixar aquele cabo de carregador de celular como novo! CIF é muito mais do que uma linha de produtos de limpeza, CIF é cuidado com a sua casa. A família de multiuso CIF Cremoso possui uma variedade de fragrâncias, sendo elas: Original, Laranja e Limão, todas super refrescantes e se adaptam ao seu estilo e à sua casa. CIF Multiuso Cremoso é um grande aliado na limpeza de casa, para mantê-la sempre limpa, bonita e bem cuidada, do jeito que você e sua família merecem. CIF é poderoso na limpeza e imbatível no cuidado pois sabemos que cada cantinho da sua casa merece limpeza e cuidado.</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>5.99</v>
+        <v>14.99</v>
       </c>
       <c r="F48" t="n">
-        <v>6.99</v>
+        <v>14.99</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>74</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2020-10-05T00:00:00Z</t>
+          <t>2020-10-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3061098/VF4qT-qqCUAAAAAAAAGpfA.jpg?v=637794125591230000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3077844/839264_17.jpg?v=637895340530470000</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -3863,21 +3855,21 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>9853</t>
+          <t>12274</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>9866</t>
+          <t>12301</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>KENTINHA</t>
+          <t>CIF</t>
         </is>
       </c>
       <c r="O48" t="n">
-        <v>2001532</v>
+        <v>2000541</v>
       </c>
       <c r="P48" t="n">
         <v>99999</v>
@@ -3886,43 +3878,43 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>cafe-torrado-e-moido-melitta-a-vacuo-500g-103845</t>
+          <t>iogurte-integral-nestle-natural-copo-170-g-364738</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Café Torrado e Moído Melitta A Vácuo 500g</t>
+          <t>Iogurte Integral Nestlé Natural Copo 170g</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>103845</t>
+          <t>364738</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Feitos com uma cuidadosa seleção dos grãos que passam por um processo de torra a ar quente que resultam em cafés marcantes e fortes.</t>
+          <t>Descubra a pureza e a qualidade do Iogurte Natural Nestlé® Integral. Este iogurte foi pensado em todos que buscam uma experiência simples e natural. Ele é feito apenas com dois ingredientes: leite e fermento, sendo uma opção para quem procura uma alimentação mais equilibrada, livre de produtos que contém diversos ingredientes. Com o Iogurte Natural Integral você pode aproveitar os benefícios do leite e do fermento de forma pura e autêntica. A versatilidade deste iogurte é outro diferencial, pois permite que seja usado conforme o gosto de cada um. Pode ser consumido puro, servido com frutas, adicionado a smoothies ou utilizado em receitas. Linha Nestlé® é tradição e qualidade!</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>32.98</v>
+        <v>3.79</v>
       </c>
       <c r="F49" t="n">
-        <v>39.9</v>
+        <v>4.89</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>100</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2020-07-13T00:00:00Z</t>
+          <t>2020-09-29T00:00:00Z</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3038677/VF4qT-qqCUAAAAAAAAGwhg.jpg?v=637792444870400000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3959333/VF4qT-qqCUAAAAAAAAUrxw.jpg?v=638755307288170000</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -3935,24 +3927,168 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>2122</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>2129</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>MELITTA</t>
+          <t>NESTLE</t>
         </is>
       </c>
       <c r="O49" t="n">
-        <v>2001329</v>
+        <v>2000043</v>
       </c>
       <c r="P49" t="n">
-        <v>100</v>
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>pao-frances-panetto-60g-com-8-unidades-96504</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Pão Francês Panetto 60g Com 8 Unidades</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>96504</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Pão Francês Panetto é feito com farinha de qualidade superior, sua massa é cuidadosamente elaborada para garantir uma textura crocante por fora e um interior macio e arejado. Cada mordida revela a combinação perfeita entre crocância e suavidade, tornando-o ideal para acompanhar seu café da manhã e lanche da tarde.</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>24.99</v>
+      </c>
+      <c r="F50" t="n">
+        <v>24.99</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>2024-02-01T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3310764/VF4qT-qqCUAAAAAAAAWu8Q.jpg?v=638932897909230000</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>35484</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>35411</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>PANETTO</t>
+        </is>
+      </c>
+      <c r="O50" t="n">
+        <v>2000307</v>
+      </c>
+      <c r="P50" t="n">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>alcool-montenegro-46-1-l-780570</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Álcool Montenegro 46% 1 L</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>780570</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Álcool Montenegro 46% 1 L</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>8.789999999999999</v>
+      </c>
+      <c r="F51" t="n">
+        <v>8.789999999999999</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>2020-10-06T10:47:00Z</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3051579/VF4qT-qqCUAAAAAAAAG3pQ.jpg?v=637793390624870000</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>un</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>11598</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>11621</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>MONTENEGRO</t>
+        </is>
+      </c>
+      <c r="O51" t="n">
+        <v>2000527</v>
+      </c>
+      <c r="P51" t="n">
+        <v>99999</v>
       </c>
     </row>
   </sheetData>

--- a/zonasul.xlsx
+++ b/zonasul.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P51"/>
+  <dimension ref="A1:P49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,43 +518,39 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>uva-preta-sem-semente-500-g-674583</t>
+          <t>creme-de-leite-nestle-10--gratis-200g-1165151</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Uva Preta Sem Semente 500g</t>
+          <t>Creme de Leite Nestlé 10% Grátis 200g</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>674583</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Eventualmente, devido à variações climáticas, essa variedade pode apresentar traços de sementes comestíveis As uvas são, sem dúvidas, uma das frutas mais nutritivas de todas. Apesar de seu tamanho relativamente pequeno, elas são extremamente poderosas nutricionalmente e consumilas é muito importante para o bom funcionamento do corpo.As calorias presentes nas uvas também são poucas: apenas 90 em cerca de 150g. Por isso, é uma ótima opção também para aqueles que estão em processo de redução da massa corporal, desde que consumida com cautela.Rica em antioxidantes que são responsáveis por ‘’limpar’’ e proteger as nossas células dos chamados radicais livres, compostos potencialmente perigosos que podem danificar essas estruturas.Os antioxidantes estão mais comumente presentes na casca da fruta, o que é indicado pela coloração delas. Quanto mais escuras, maior é a concentração desses compostos na uva. Os principais exemplos são os polifenois, e o mais famoso deles chamase resveratrol.</t>
-        </is>
-      </c>
+          <t>1165151</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="n">
-        <v>11.99</v>
+        <v>5.99</v>
       </c>
       <c r="F2" t="n">
-        <v>11.99</v>
+        <v>5.99</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>71</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2020-09-26T00:00:00Z</t>
+          <t>2025-02-20T00:00:00Z</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3047035/VF4qT-qqCUAAAAAAAAGXCQ.jpg?v=637793205627670000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4395976/VF4qT-qqCUAAAAAAAAoEeQ.jpg?v=638984266226730000</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -567,21 +563,21 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>5264</t>
+          <t>40151</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>5280</t>
+          <t>40078</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>NESTLE</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>2000015</v>
+        <v>2000043</v>
       </c>
       <c r="P2" t="n">
         <v>99999</v>
@@ -590,43 +586,43 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>refrigerante-coca-cola-sem-acucar-lata-350-ml-429376</t>
+          <t>ovos-brancos-jumbo-mantiqueira-com-10-unidades-437638</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Refrigerante Coca Cola Sem Açúcar Lata 350ml</t>
+          <t>Ovos Brancos Jumbo Mantiqueira Com 10 Unidades</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>429376</t>
+          <t>437638</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A Coca-Cola Sem Açúcar é um refrigerante que não contém calorias! Com certeza você já se perguntou: “Então, de onde vem aquele gostinho doce? ” A Coca-Cola Sem Açúcar é produzida especialmente com adoçantes para manter o delicioso sabor de Coca-Cola porém com 0% Açucar. Uma Lata de Coca-Cola Sem Perfeita para matar sua sede a qualquer hora do dia!</t>
+          <t>Os Ovos Jumbo Mantiqueira possuem maior tamanho, ideais para quem busca uma alimentação rica em vitaminas, proteínas e minerais, ou para quem gosta de um maior rendimento em suas receitas. Um único ovo contém quase todos os nutrientes necessários para manter o corpo saudável, fortalecendo os ossos e auxiliando em dietas para perda de peso ou ganho de massa.O Ovo Jumbo Mantiqueira é um produto da linha Especial da marca e possui a qualidade superior, passando por um moderno sistema de seleção, limpeza e embalagem sem contato de mãos humanas.Especificações:Ovos maiores, tamanho família.Embalagem com 10 unidades.Ovos brancos e vermelhos tipo jumbo categoria A.</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3.99</v>
+        <v>10.9</v>
       </c>
       <c r="F3" t="n">
-        <v>3.99</v>
+        <v>10.9</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2020-10-01T00:00:00Z</t>
+          <t>2020-09-27T00:00:00Z</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4483405/VF4qT-qqCUAAAAAAAAoaow.jpg?v=639052524439630000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3976126/VF4qT-qqCUAAAAAAAAh4RA.jpg?v=638769994856100000</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -639,84 +635,84 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>8817</t>
+          <t>7002</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>8829</t>
+          <t>7020</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>COCA COLA</t>
+          <t>MANTIQUEIRA</t>
         </is>
       </c>
       <c r="O3" t="n">
-        <v>2000027</v>
+        <v>2001056</v>
       </c>
       <c r="P3" t="n">
-        <v>99999</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>mucarela-em-fatias-92363</t>
+          <t>rucula-unidade-201006</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Muçarela  em Fatias 200g</t>
+          <t>Rúcula Unidade</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>92363</t>
+          <t>201006</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Muçarela em Fatias</t>
+          <t>A rúcula é uma hortaliça rica em sais minerais e vitaminas A e C, tem o sabor picante e cheiro agradável e acentuado. Como Conservar:A hortaliça pode ser mantida no máximo por um dia, desde que colocando em local fresco, com a parte de baixo em uma vasilha com água .Em Geladeira o produto deve ser condicionado em saco de plástico ou vasilha tampada.Como Consumir : A rúcula é tradicionalmente consumida crua em saladas, temperada com azeite, sal e limão. Também pode ser consumida como ingredientes de torta,quiche, lasanha, sanduíches e bolinhos. [ Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>59.9</v>
+        <v>3.79</v>
       </c>
       <c r="F4" t="n">
-        <v>59.9</v>
+        <v>3.79</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2020-09-27T00:00:00Z</t>
+          <t>2020-09-28T00:00:00Z</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3052070/VF4qT-qqCUAAAAAAAAI4-w.jpg?v=637793416889100000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3040890/VF4qT-qqCUAAAAAAAAHLpQ.jpg?v=637792545082200000</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>1361</t>
+          <t>7467</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>1368</t>
+          <t>7486</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -734,70 +730,70 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>batata-inglesa-cariorta-12kg-98698</t>
+          <t>alcool-montenegro-46-1-l-780570</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Batata Inglesa Cariorta 1,2Kg</t>
+          <t>Álcool Montenegro 46% 1 L</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>98698</t>
+          <t>780570</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Cariorta selecionados de coração.</t>
+          <t>Álcool Montenegro 46% 1 L</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7.99</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>7.99</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>74</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2020-12-16T00:00:00Z</t>
+          <t>2020-10-06T10:47:00Z</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3082670/VF4qT-qqCUAAAAAAAAOOew.jpg?v=637979987993130000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3051579/VF4qT-qqCUAAAAAAAAG3pQ.jpg?v=637793390624870000</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K5" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>16570</t>
+          <t>11598</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>16461</t>
+          <t>11621</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>CARIORTA</t>
+          <t>MONTENEGRO</t>
         </is>
       </c>
       <c r="O5" t="n">
-        <v>2001012</v>
+        <v>2000527</v>
       </c>
       <c r="P5" t="n">
         <v>99999</v>
@@ -806,43 +802,43 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>agua-mineral-com-gas-sao-lourenco-pet-1-26-l-140805</t>
+          <t>uva-preta-sem-semente-500-g-674583</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Água Mineral Com Gás São Lourenço Pet 1,26 L</t>
+          <t>Uva Preta Sem Semente 500g</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>140805</t>
+          <t>674583</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Água Mineral Com Gás São Lourenço Pet 1,26 L</t>
+          <t>Eventualmente, devido à variações climáticas, essa variedade pode apresentar traços de sementes comestíveis As uvas são, sem dúvidas, uma das frutas mais nutritivas de todas. Apesar de seu tamanho relativamente pequeno, elas são extremamente poderosas nutricionalmente e consumilas é muito importante para o bom funcionamento do corpo.As calorias presentes nas uvas também são poucas: apenas 90 em cerca de 150g. Por isso, é uma ótima opção também para aqueles que estão em processo de redução da massa corporal, desde que consumida com cautela.Rica em antioxidantes que são responsáveis por ‘’limpar’’ e proteger as nossas células dos chamados radicais livres, compostos potencialmente perigosos que podem danificar essas estruturas.Os antioxidantes estão mais comumente presentes na casca da fruta, o que é indicado pela coloração delas. Quanto mais escuras, maior é a concentração desses compostos na uva. Os principais exemplos são os polifenois, e o mais famoso deles chamase resveratrol.</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3.89</v>
+        <v>11.99</v>
       </c>
       <c r="F6" t="n">
-        <v>5.29</v>
+        <v>11.99</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2020-09-25T00:00:00Z</t>
+          <t>2020-09-26T00:00:00Z</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3076277/VF4qT-qqCUAAAAAAAAHMBQ.jpg?v=637877821166370000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3047035/VF4qT-qqCUAAAAAAAAGXCQ.jpg?v=637793205627670000</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -855,21 +851,21 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>3915</t>
+          <t>5264</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>3929</t>
+          <t>5280</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>SAO LOURENCO</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O6" t="n">
-        <v>2000145</v>
+        <v>2000015</v>
       </c>
       <c r="P6" t="n">
         <v>99999</v>
@@ -878,33 +874,33 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>tomate-italiano-unidade-495212</t>
+          <t>mucarela-em-fatias-92363</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Tomate Italiano Unidade</t>
+          <t>Muçarela  em Fatias 200g</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>495212</t>
+          <t>92363</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Tomate Italiano Unidade</t>
+          <t>Muçarela em Fatias</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1.53</v>
+        <v>59.9</v>
       </c>
       <c r="F7" t="n">
-        <v>1.53</v>
+        <v>59.9</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>83</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -914,25 +910,25 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3094266/VF4qT-qqCUAAAAAAAASLmg.jpg?v=638191532599970000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3052070/VF4qT-qqCUAAAAAAAAI4-w.jpg?v=637793416889100000</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>6965</t>
+          <t>1361</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>6983</t>
+          <t>1368</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -950,43 +946,43 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>cheiro-verde-unidade-201049</t>
+          <t>refrigerante-coca-cola-sem-acucar-lata-350-ml-429376</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Cheiro Verde Unidade</t>
+          <t>Refrigerante Coca Cola Sem Açúcar Lata 350ml</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>201049</t>
+          <t>429376</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>O cheiro verde é a combinação da cebolinha e salsinha .Como conservar:Em geladeira por até 5 dias em saco ou vasilha de plástico.Como consumir:Podem ser adicionadas cruas, em saladas e recheios de sanduíches e como ingredientes em marinadas.</t>
+          <t>A Coca-Cola Sem Açúcar é um refrigerante que não contém calorias! Com certeza você já se perguntou: “Então, de onde vem aquele gostinho doce? ” A Coca-Cola Sem Açúcar é produzida especialmente com adoçantes para manter o delicioso sabor de Coca-Cola porém com 0% Açucar. Uma Lata de Coca-Cola Sem Perfeita para matar sua sede a qualquer hora do dia!</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3.39</v>
+        <v>3.99</v>
       </c>
       <c r="F8" t="n">
-        <v>3.39</v>
+        <v>3.99</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2020-09-28T00:00:00Z</t>
+          <t>2020-10-01T00:00:00Z</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3457712/VF4qT-qqCUAAAAAAAAXvTg.jpg?v=638507335658200000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4483405/VF4qT-qqCUAAAAAAAAoaow.jpg?v=639052524439630000</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -999,21 +995,21 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>7411</t>
+          <t>8817</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>7430</t>
+          <t>8829</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>COCA COLA</t>
         </is>
       </c>
       <c r="O8" t="n">
-        <v>2000015</v>
+        <v>2000027</v>
       </c>
       <c r="P8" t="n">
         <v>99999</v>
@@ -1022,70 +1018,70 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>manga-palmer-unidade-5130760</t>
+          <t>batata-inglesa-cariorta-12kg-98698</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Manga Palmer Unidade</t>
+          <t>Batata Inglesa Cariorta 1,2Kg</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>5130760</t>
+          <t>98698</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Manga Palmer Unidade</t>
+          <t>Cariorta selecionados de coração.</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5.39</v>
+        <v>7.99</v>
       </c>
       <c r="F9" t="n">
-        <v>5.39</v>
+        <v>7.99</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>483</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2023-02-16T00:00:00Z</t>
+          <t>2020-12-16T00:00:00Z</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3153453/VF4qT-qqCUAAAAAAAAUnKA.jpg?v=638319847497670000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3082670/VF4qT-qqCUAAAAAAAAOOew.jpg?v=637979987993130000</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>31977</t>
+          <t>16570</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>31902</t>
+          <t>16461</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>CARIORTA</t>
         </is>
       </c>
       <c r="O9" t="n">
-        <v>2000015</v>
+        <v>2001012</v>
       </c>
       <c r="P9" t="n">
         <v>99999</v>
@@ -1094,43 +1090,43 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>leite-uht-piracanjuba-integral-1l-865427</t>
+          <t>agua-mineral-com-gas-sao-lourenco-pet-1-26-l-140805</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Leite Uht Piracanjuba Integral 1L</t>
+          <t>Água Mineral Com Gás São Lourenço Pet 1,26 L</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>865427</t>
+          <t>140805</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>No café da manhã, em um delicioso lanche da tarde ou até mesmo antes de dormir, o Leite Piracanjuba cumpre bem o seu papel principal: trazer mais sabor para os seus momentos especiais e para as suas receitas. Mais sabor para todos os momentos.</t>
+          <t>Água Mineral Com Gás São Lourenço Pet 1,26 L</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5.59</v>
+        <v>3.89</v>
       </c>
       <c r="F10" t="n">
-        <v>5.59</v>
+        <v>5.29</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>18</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2017-04-12T00:00:00Z</t>
+          <t>2020-09-25T00:00:00Z</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3294485/VF4qT-qqCUAAAAAAAAWbgQ.jpg?v=638412300289570000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3076277/VF4qT-qqCUAAAAAAAAHMBQ.jpg?v=637877821166370000</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1143,21 +1139,21 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>23232</t>
+          <t>3915</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>23158</t>
+          <t>3929</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>PIRACANJUBA</t>
+          <t>SAO LOURENCO</t>
         </is>
       </c>
       <c r="O10" t="n">
-        <v>2002038</v>
+        <v>2000145</v>
       </c>
       <c r="P10" t="n">
         <v>99999</v>
@@ -1166,43 +1162,43 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>guardanapo-folha-dupla-scott-grand-hotel-238cm×218cm-50-unidades-129879</t>
+          <t>tomate-italiano-unidade-495212</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Guardanapo Folha Dupla Scott Grand Hotel 23,8cm×21,8cm 50 Unidades</t>
+          <t>Tomate Italiano Unidade</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>129879</t>
+          <t>495212</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Guardanapo Folha Dupla Scott Grand Hotel 23,8cm×21,8cm 50 Unidades</t>
+          <t>Tomate Italiano Unidade</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6.19</v>
+        <v>1.53</v>
       </c>
       <c r="F11" t="n">
-        <v>6.19</v>
+        <v>1.53</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>53</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2020-10-05T00:00:00Z</t>
+          <t>2020-09-27T00:00:00Z</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3239421/VF4qT-qqCUAAAAAAAAVSfw.jpg?v=638362188224230000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3094266/VF4qT-qqCUAAAAAAAASLmg.jpg?v=638191532599970000</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1215,66 +1211,66 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>9426</t>
+          <t>6965</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>9438</t>
+          <t>6983</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>GRANDE HOTEL</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O11" t="n">
-        <v>2001400</v>
+        <v>2000015</v>
       </c>
       <c r="P11" t="n">
-        <v>100</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>cafe-torrado-e-moido-pilao-tradicional-500g-828025</t>
+          <t>cheiro-verde-unidade-201049</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Café Torrado E Moído Pilão Tradicional Fresh Pack 500g</t>
+          <t>Cheiro Verde Unidade</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>828025</t>
+          <t>201049</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Tem um ponto de torra acentuado e um processo de moagem fina e uniforme, que garantem e preservam seu sabor forte e encorpado.É perfeito para servir em dia de casa cheia, pois seu sabor tradicional agrada a todo mundo.</t>
+          <t>O cheiro verde é a combinação da cebolinha e salsinha .Como conservar:Em geladeira por até 5 dias em saco ou vasilha de plástico.Como consumir:Podem ser adicionadas cruas, em saladas e recheios de sanduíches e como ingredientes em marinadas.</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>31.98</v>
+        <v>3.79</v>
       </c>
       <c r="F12" t="n">
-        <v>43.9</v>
+        <v>3.79</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2020-09-15T00:00:00Z</t>
+          <t>2020-09-28T00:00:00Z</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3051146/VF4qT-qqCUAAAAAAAAG1sQ.jpg?v=637793369863530000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3457712/VF4qT-qqCUAAAAAAAAXvTg.jpg?v=638507335658200000</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1287,66 +1283,66 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>7411</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>7430</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>PILAO</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O12" t="n">
-        <v>2000070</v>
+        <v>2000015</v>
       </c>
       <c r="P12" t="n">
-        <v>100</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>couve-flor-unidade-189111</t>
+          <t>manga-palmer-unidade-5130760</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Couve Flor Unidade</t>
+          <t>Manga Palmer Unidade</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>189111</t>
+          <t>5130760</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>A couveflor é uma hortaliça rica em cálcio e fósforo e fonte de ácido fólico e vitamina C . Como Conservar:Na geladeira pode ser conservada por 3 a 5 dias, dentro de saco plástico perfurado. Antes de guardar, remova as partes escuras e folhas, mas não lave a cabeça.Como Consumir:Pode ser consumida assada, frita ou cozinhe em água e sal. [Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
+          <t>Manga Palmer Unidade</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>9.99</v>
+        <v>5.39</v>
       </c>
       <c r="F13" t="n">
-        <v>9.99</v>
+        <v>5.39</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2020-09-28T00:00:00Z</t>
+          <t>2023-02-16T00:00:00Z</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3041615/VF4qT-qqCUAAAAAAAAGF4Q.jpg?v=637792579893500000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3153453/VF4qT-qqCUAAAAAAAAUnKA.jpg?v=638319847497670000</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1359,12 +1355,12 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>7446</t>
+          <t>31977</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>7465</t>
+          <t>31902</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1382,43 +1378,43 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>detergente-para-loucas-odd-clear-500ml-982911</t>
+          <t>abacaxi-unidade-221</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Detergente Para Louças Odd Clear 500ml</t>
+          <t>Abacaxi Unidade</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>982911</t>
+          <t>221</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>ODD voltou!Alto rendimento , controle de odor.</t>
+          <t>Peso Aproximado 1,61,8Kg / Unidade.O Abacaxi é rico em Vitaminas A, B5, B6, C, BetaCaroteno, Tiamina, Antioxidantes e Fibras, auxiliando na saciedade e regulação do peso. É uma Importante fonte de energia póstreino. Auxilia nos processos antiinflamatórios por conter Bromelina, enzima encontrada principalmente no talo da fruta. Como preparar: no seu estado natural cortado, em saladas, assado, grelhado, sucos, geleias, sorvetes e chás.</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1.9</v>
+        <v>10.99</v>
       </c>
       <c r="F14" t="n">
-        <v>2.49</v>
+        <v>10.99</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2020-10-06T00:00:00Z</t>
+          <t>2020-09-26T00:00:00Z</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3056732/VF4qT-qqCUAAAAAAAAHzRQ.jpg?v=637793635376800000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3041923/VF4qT-qqCUAAAAAAAAFtXw.jpg?v=637792593143530000</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1431,71 +1427,71 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>11872</t>
+          <t>4959</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>11898</t>
+          <t>4975</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>LIMPPANO</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O14" t="n">
-        <v>2001341</v>
+        <v>2000015</v>
       </c>
       <c r="P14" t="n">
-        <v>99999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>limao-cariorta-1kg-98981</t>
+          <t>leite-uht-piracanjuba-integral-1l-865427</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Limão Cariorta 1Kg</t>
+          <t>Leite Uht Piracanjuba Integral 1L</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>98981</t>
+          <t>865427</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Cariorta selecionados de coração.</t>
+          <t>No café da manhã, em um delicioso lanche da tarde ou até mesmo antes de dormir, o Leite Piracanjuba cumpre bem o seu papel principal: trazer mais sabor para os seus momentos especiais e para as suas receitas. Mais sabor para todos os momentos.</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>11.99</v>
+        <v>5.59</v>
       </c>
       <c r="F15" t="n">
-        <v>11.99</v>
+        <v>5.59</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>130</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2020-05-20T00:00:00Z</t>
+          <t>2017-04-12T00:00:00Z</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3084385/VF4qT-qqCUAAAAAAAAOgIg.jpg?v=638000868147970000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3294485/VF4qT-qqCUAAAAAAAAWbgQ.jpg?v=638412300289570000</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K15" t="n">
@@ -1503,21 +1499,21 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>24698</t>
+          <t>23232</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>24622</t>
+          <t>23158</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>CARIORTA</t>
+          <t>PIRACANJUBA</t>
         </is>
       </c>
       <c r="O15" t="n">
-        <v>2001012</v>
+        <v>2002038</v>
       </c>
       <c r="P15" t="n">
         <v>99999</v>
@@ -1526,43 +1522,43 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ovos-vermelhos-mantiqueira-happy-eggs-com-10-unidades-5106753</t>
+          <t>cafe-torrado-e-moido-pilao-tradicional-500g-828025</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Ovos Vermelhos Mantiqueira Happy Eggs com 10 Unidades</t>
+          <t>Café Torrado E Moído Pilão Tradicional Fresh Pack 500g</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>5106753</t>
+          <t>828025</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Produzidos por galinhas criadas livres de gaiolas. Garantia de Bem-Estar Animal. Ovos Vermelhos Tipo Grande Categoria A. Embalagem com 10 unidades.</t>
+          <t>Tem um ponto de torra acentuado e um processo de moagem fina e uniforme, que garantem e preservam seu sabor forte e encorpado.É perfeito para servir em dia de casa cheia, pois seu sabor tradicional agrada a todo mundo.</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>11.99</v>
+        <v>31.98</v>
       </c>
       <c r="F16" t="n">
-        <v>11.99</v>
+        <v>43.9</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>59</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2021-01-11T00:00:00Z</t>
+          <t>2020-09-15T00:00:00Z</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4222023/VF4qT-qqCUAAAAAAAAStHA.jpg?v=638894405636230000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3051146/VF4qT-qqCUAAAAAAAAG1sQ.jpg?v=637793369863530000</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1575,21 +1571,21 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>18105</t>
+          <t>130</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>17997</t>
+          <t>135</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>HAPPY EGGS</t>
+          <t>PILAO</t>
         </is>
       </c>
       <c r="O16" t="n">
-        <v>2003319</v>
+        <v>2000070</v>
       </c>
       <c r="P16" t="n">
         <v>99999</v>
@@ -1598,39 +1594,43 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ovos-vermelhos-caipira-happy-eggs-com-20-unidades-370550</t>
+          <t>guardanapo-folha-dupla-scott-grand-hotel-238cm×218cm-50-unidades-129879</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Ovos Vermelhos Caipira Happy Eggs Com 20 Unidades</t>
+          <t>Guardanapo Folha Dupla Scott Grand Hotel 23,8cm×21,8cm 50 Unidades</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>370550</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
+          <t>129879</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Guardanapo Folha Dupla Scott Grand Hotel 23,8cm×21,8cm 50 Unidades</t>
+        </is>
+      </c>
       <c r="E17" t="n">
-        <v>24.99</v>
+        <v>6.19</v>
       </c>
       <c r="F17" t="n">
-        <v>24.99</v>
+        <v>6.19</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>111</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2020-09-27T00:00:00Z</t>
+          <t>2020-10-05T00:00:00Z</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4343192/VF4qT-qqCUAAAAAAAAn9QA.jpg?v=638956617627730000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3239421/VF4qT-qqCUAAAAAAAAVSfw.jpg?v=638362188224230000</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1643,40 +1643,40 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>6939</t>
+          <t>9426</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>6957</t>
+          <t>9438</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>HAPPY EGGS</t>
+          <t>GRANDE HOTEL</t>
         </is>
       </c>
       <c r="O17" t="n">
-        <v>2003319</v>
+        <v>2001400</v>
       </c>
       <c r="P17" t="n">
-        <v>99999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>pao-frances-panetto-60g-com-4-unidades-96318</t>
+          <t>ovos-vermelhos-caipira-happy-eggs-com-20-unidades-370550</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Pão Francês Panetto  60g Com 4 unidades</t>
+          <t>Ovos Vermelhos Caipira Happy Eggs Com 20 Unidades</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>96318</t>
+          <t>370550</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -1688,44 +1688,44 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2024-01-31T00:00:00Z</t>
+          <t>2020-09-27T00:00:00Z</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3307700/VF4qT-qqCUAAAAAAAAWnXQ.jpg?v=638932898013670000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4343192/VF4qT-qqCUAAAAAAAAn9QA.jpg?v=638956617627730000</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K18" t="n">
-        <v>0.24</v>
+        <v>1</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>35477</t>
+          <t>6939</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>35404</t>
+          <t>6957</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>PANETTO</t>
+          <t>HAPPY EGGS</t>
         </is>
       </c>
       <c r="O18" t="n">
-        <v>2000307</v>
+        <v>2003319</v>
       </c>
       <c r="P18" t="n">
         <v>99999</v>
@@ -1734,43 +1734,43 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>azeite-italiano-extra-virgem-due-500ml-5472040</t>
+          <t>couve-flor-unidade-189111</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Azeite Italiano Extravirgem Due 500ml</t>
+          <t>Couve Flor Unidade</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>5472040</t>
+          <t>189111</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>O azeite Due é um blend de azeites do Mediterrâneo que confere um resultado clássico e ideal para o cotidiano da cozinha. Sua elaboração conta com uma seleção cautelosamente realizada pelo Expert em Azeites e Temperos Marcelo Scofano, que anualmente viaja à Toscana (Itália), onde o azeite é produzido, para cuidar de cada detalhe pessoalmente.Due é um azeite clássico, ideal para o dia a dia da cozinha: marinados, refogados, emulsão de molhos, finalização de saladas, massas e pratos do cotidiano. O azeite clássico é extraído de azeitonas maduras. Possui sabor amendoado, com notas amargas e picantes em equilíbrio.O azeite Due faz parte da grupo de marcas exclusivas Zona Sul, criada e pensada com carinho para os cariocas de coração. O planejamento de cada produto exclusivo conta com a participação dos Experts Zona Sul em todo o processo, até chegar na sua mesa. E com a linha Due não é diferente!</t>
+          <t>A couveflor é uma hortaliça rica em cálcio e fósforo e fonte de ácido fólico e vitamina C . Como Conservar:Na geladeira pode ser conservada por 3 a 5 dias, dentro de saco plástico perfurado. Antes de guardar, remova as partes escuras e folhas, mas não lave a cabeça.Como Consumir:Pode ser consumida assada, frita ou cozinhe em água e sal. [Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>36.9</v>
+        <v>9.99</v>
       </c>
       <c r="F19" t="n">
-        <v>36.9</v>
+        <v>9.99</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>53</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-06T00:00:00Z</t>
+          <t>2020-09-28T00:00:00Z</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4116721/VF4qT-qqCUAAAAAAAAiyjQ.jpg?v=638846625781330000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3041615/VF4qT-qqCUAAAAAAAAGF4Q.jpg?v=637792579893500000</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1783,21 +1783,21 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>40224</t>
+          <t>7446</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>40151</t>
+          <t>7465</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>DUE</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O19" t="n">
-        <v>2005138</v>
+        <v>2000015</v>
       </c>
       <c r="P19" t="n">
         <v>99999</v>
@@ -1806,43 +1806,43 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>file-de-peito-de-frango-sadia-bandeja-1kg-290564</t>
+          <t>detergente-para-loucas-odd-clear-500ml-982911</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Filé de Peito de Frango Sadia Bandeja 1kg</t>
+          <t>Detergente Para Louças Odd Clear 500ml</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>290564</t>
+          <t>982911</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Peito De Frango Em Filés Sadia Bandeja 1kg</t>
+          <t>ODD voltou!Alto rendimento , controle de odor.</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>24.99</v>
+        <v>1.9</v>
       </c>
       <c r="F20" t="n">
-        <v>26.99</v>
+        <v>2.49</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>76</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2020-09-29T00:00:00Z</t>
+          <t>2020-10-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3538840/VF4qT-qqCUAAAAAAAAa5gg.jpg?v=638550537679130000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3056732/VF4qT-qqCUAAAAAAAAHzRQ.jpg?v=637793635376800000</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1855,21 +1855,21 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>11872</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>11898</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>SADIA</t>
+          <t>LIMPPANO</t>
         </is>
       </c>
       <c r="O20" t="n">
-        <v>2000057</v>
+        <v>2001341</v>
       </c>
       <c r="P20" t="n">
         <v>99999</v>
@@ -1878,43 +1878,43 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>morango-250g-289612</t>
+          <t>ovos-vermelhos-mantiqueira-happy-eggs-com-10-unidades-5106753</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Morango 250g</t>
+          <t>Ovos Vermelhos Mantiqueira Happy Eggs com 10 Unidades</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>289612</t>
+          <t>5106753</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Embalagem com 250g "O morango é rico em vitamina C e, por isso, o consumo da fruta evita a fragilidade dos ossos e a má formação dos dentes. Ele também dá resistência aos tecidos, age contra infecções ajudando na cicatrização. O morango também possui, em menor quantidade, vitamina B5, conhecida como niacina. Ela tem a função de evitar problemas de pele, do aparelho digestivo e do sistema nervoso. Na fruta, também é encontrado ferro, que faz parte da formação do sangue."</t>
+          <t>Produzidos por galinhas criadas livres de gaiolas. Garantia de Bem-Estar Animal. Ovos Vermelhos Tipo Grande Categoria A. Embalagem com 10 unidades.</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>9.99</v>
+        <v>11.99</v>
       </c>
       <c r="F21" t="n">
-        <v>9.99</v>
+        <v>11.99</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2020-09-26T00:00:00Z</t>
+          <t>2021-01-11T00:00:00Z</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3226559/VF4qT-qqCUAAAAAAAAHKNA.jpg?v=638352676547800000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4222023/VF4qT-qqCUAAAAAAAAStHA.jpg?v=638894405636230000</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1927,21 +1927,21 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>5152</t>
+          <t>18105</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>5168</t>
+          <t>17997</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>HAPPY EGGS</t>
         </is>
       </c>
       <c r="O21" t="n">
-        <v>2000015</v>
+        <v>2003319</v>
       </c>
       <c r="P21" t="n">
         <v>99999</v>
@@ -1950,48 +1950,48 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>farinha-de-trigo-dona-benta-1kg-105287</t>
+          <t>limao-cariorta-1kg-98981</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Farinha De Trigo Dona Benta 1kg</t>
+          <t>Limão Cariorta 1Kg</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>105287</t>
+          <t>98981</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Farinha De Trigo Dona Benta 1kg</t>
+          <t>Cariorta selecionados de coração.</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>250</v>
+        <v>11.99</v>
       </c>
       <c r="F22" t="n">
-        <v>300</v>
+        <v>11.99</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>482</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2020-07-06T00:00:00Z</t>
+          <t>2020-05-20T00:00:00Z</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3079291/VF4qT-qqCUAAAAAAAANuog.jpg?v=637897755804270000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3084385/VF4qT-qqCUAAAAAAAAOgIg.jpg?v=638000868147970000</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K22" t="n">
@@ -1999,93 +1999,89 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>24698</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>24622</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>DONA BENTA</t>
+          <t>CARIORTA</t>
         </is>
       </c>
       <c r="O22" t="n">
-        <v>2000701</v>
+        <v>2001012</v>
       </c>
       <c r="P22" t="n">
-        <v>100</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>abobrinha-italiana-unidade-423513</t>
+          <t>pao-frances-panetto-60g-com-4-unidades-96318</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Abobrinha Italiana Unidade</t>
+          <t>Pão Francês Panetto  60g Com 4 unidades</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>423513</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Abobrinha Italiana Unidade</t>
-        </is>
-      </c>
+          <t>96318</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="n">
-        <v>2.45</v>
+        <v>24.99</v>
       </c>
       <c r="F23" t="n">
-        <v>2.45</v>
+        <v>24.99</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>89</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2020-12-07T00:00:00Z</t>
+          <t>2024-01-31T00:00:00Z</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3095398/VF4qT-qqCUAAAAAAAASlGA.jpg?v=638211351178300000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3307700/VF4qT-qqCUAAAAAAAAWnXQ.jpg?v=638932898013670000</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K23" t="n">
-        <v>1</v>
+        <v>0.24</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>16065</t>
+          <t>35477</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>15956</t>
+          <t>35404</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>PANETTO</t>
         </is>
       </c>
       <c r="O23" t="n">
-        <v>2000015</v>
+        <v>2000307</v>
       </c>
       <c r="P23" t="n">
         <v>99999</v>
@@ -2094,43 +2090,43 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>guardanapo-folha-dupla-scott-grand-hotel-jantar-33×33-cm-com-50-unidades-129887</t>
+          <t>azeite-italiano-extra-virgem-due-500ml-5472040</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Guardanapo Folha Dupla Scott Grand Hotel Jantar 33×33 Cm Com 50 Unidades</t>
+          <t>Azeite Italiano Extravirgem Due 500ml</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>129887</t>
+          <t>5472040</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>O Guardanapo Grand Hotel folha tripla é mais sofisticado e garante uma maciez superior para todos os momentos. Contém 50 folhas de tamanho 31,8x32,8 cm cada.</t>
+          <t>O azeite Due é um blend de azeites do Mediterrâneo que confere um resultado clássico e ideal para o cotidiano da cozinha. Sua elaboração conta com uma seleção cautelosamente realizada pelo Expert em Azeites e Temperos Marcelo Scofano, que anualmente viaja à Toscana (Itália), onde o azeite é produzido, para cuidar de cada detalhe pessoalmente.Due é um azeite clássico, ideal para o dia a dia da cozinha: marinados, refogados, emulsão de molhos, finalização de saladas, massas e pratos do cotidiano. O azeite clássico é extraído de azeitonas maduras. Possui sabor amendoado, com notas amargas e picantes em equilíbrio.O azeite Due faz parte da grupo de marcas exclusivas Zona Sul, criada e pensada com carinho para os cariocas de coração. O planejamento de cada produto exclusivo conta com a participação dos Experts Zona Sul em todo o processo, até chegar na sua mesa. E com a linha Due não é diferente!</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>12.99</v>
+        <v>36.9</v>
       </c>
       <c r="F24" t="n">
-        <v>12.99</v>
+        <v>36.9</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>597</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2020-10-05T00:00:00Z</t>
+          <t>2025-05-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3078100/129887_1.jpg?v=637895346534630000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4116721/VF4qT-qqCUAAAAAAAAiyjQ.jpg?v=638846625781330000</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -2143,21 +2139,21 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>9427</t>
+          <t>40224</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>9439</t>
+          <t>40151</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>GRANDE HOTEL</t>
+          <t>DUE</t>
         </is>
       </c>
       <c r="O24" t="n">
-        <v>2001401</v>
+        <v>2005138</v>
       </c>
       <c r="P24" t="n">
         <v>99999</v>
@@ -2166,43 +2162,43 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>papel-higienico-folha-tripla-neve-supreme-dermacare-pacote-leve-16-pague-15-unidades-981168</t>
+          <t>file-de-peito-de-frango-sadia-bandeja-1kg-290564</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Papel Higiênico Folha Tripla Neve Supreme Dermacare Pacote Leve 16 Pague 15 Unidades</t>
+          <t>Filé de Peito de Frango Sadia Bandeja 1kg</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>981168</t>
+          <t>290564</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Papel higiênico neutro folha tripla de alta qualidade. Neve quer ajudar as pessoas a cuidarem de si, por isso desenvolveu um produto que proporciona maciez insuperável com mais absorção e resistência.</t>
+          <t>Peito De Frango Em Filés Sadia Bandeja 1kg</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>32.19</v>
+        <v>24.99</v>
       </c>
       <c r="F25" t="n">
-        <v>32.19</v>
+        <v>26.99</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>125</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2020-09-22T00:00:00Z</t>
+          <t>2020-09-29T00:00:00Z</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4430737/VF4qT-qqCUAAAAAAAAoMMw.jpg?v=639014499358300000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3538840/VF4qT-qqCUAAAAAAAAa5gg.jpg?v=638550537679130000</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2215,21 +2211,21 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>1262</t>
+          <t>7</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>1269</t>
+          <t>7</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>NEVE</t>
+          <t>SADIA</t>
         </is>
       </c>
       <c r="O25" t="n">
-        <v>2000291</v>
+        <v>2000057</v>
       </c>
       <c r="P25" t="n">
         <v>99999</v>
@@ -2238,43 +2234,43 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>detergente-para-loucas-biodegradavel-limpol-neutro-500-ml-100510</t>
+          <t>morango-250g-289612</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Detergente Para Louças Biodegradável Limpol Neutro 500ml</t>
+          <t>Morango 250g</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>100510</t>
+          <t>289612</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>O Lava-Louças Limpol é eficiente no poder da limpeza, remoção da gordura e sujeiras e no combate aos maus odores indesejados da cozinha. Sua fórmula é dermatologicamente testada e contém glicerina, tornando-a mais suave para as mãos.</t>
+          <t>Embalagem com 250g "O morango é rico em vitamina C e, por isso, o consumo da fruta evita a fragilidade dos ossos e a má formação dos dentes. Ele também dá resistência aos tecidos, age contra infecções ajudando na cicatrização. O morango também possui, em menor quantidade, vitamina B5, conhecida como niacina. Ela tem a função de evitar problemas de pele, do aparelho digestivo e do sistema nervoso. Na fruta, também é encontrado ferro, que faz parte da formação do sangue."</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>2.79</v>
+        <v>9.99</v>
       </c>
       <c r="F26" t="n">
-        <v>2.79</v>
+        <v>9.99</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2020-10-06T00:00:00Z</t>
+          <t>2020-09-26T00:00:00Z</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3269221/12054_1.jpg?v=638386029717470000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3226559/VF4qT-qqCUAAAAAAAAHKNA.jpg?v=638352676547800000</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2287,21 +2283,21 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>12054</t>
+          <t>5152</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>12081</t>
+          <t>5168</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>LIMPOL</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O26" t="n">
-        <v>2001413</v>
+        <v>2000015</v>
       </c>
       <c r="P26" t="n">
         <v>99999</v>
@@ -2310,43 +2306,43 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>la-de-aco-bombril-com-6-unidades-45g-1180320</t>
+          <t>abobrinha-italiana-unidade-423513</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Lã de Aço Bombril com 6 Unidades 45g</t>
+          <t>Abobrinha Italiana Unidade</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1180320</t>
+          <t>423513</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Uso: Ideal para limpeza de panelas, utensílios de cozinha, superfícies metálicas e outras áreas que necessitam de uma limpeza mais intensa.Remove sujeiras difíceis, incluindo resíduos de alimentos queimados e ferrugem.</t>
+          <t>Abobrinha Italiana Unidade</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>2.19</v>
+        <v>2.45</v>
       </c>
       <c r="F27" t="n">
-        <v>2.99</v>
+        <v>2.45</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>53</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-07-17T00:00:00Z</t>
+          <t>2020-12-07T00:00:00Z</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4216409/VF4qT-qqCUAAAAAAAAko5g.jpg?v=638889221726300000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3095398/VF4qT-qqCUAAAAAAAASlGA.jpg?v=638211351178300000</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -2359,21 +2355,21 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>41130</t>
+          <t>16065</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>41057</t>
+          <t>15956</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>BOMBRIL</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O27" t="n">
-        <v>2001389</v>
+        <v>2000015</v>
       </c>
       <c r="P27" t="n">
         <v>99999</v>
@@ -2382,43 +2378,43 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>coentro-unidade-200930</t>
+          <t>farinha-de-trigo-dona-benta-1kg-105287</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Coentro Unidade</t>
+          <t>Farinha De Trigo Dona Benta 1kg</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>200930</t>
+          <t>105287</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Coentro Unidade</t>
+          <t>Farinha De Trigo Dona Benta 1kg</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>3.39</v>
+        <v>7.99</v>
       </c>
       <c r="F28" t="n">
-        <v>3.39</v>
+        <v>7.99</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>63</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2020-09-28T00:00:00Z</t>
+          <t>2020-07-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3076728/VF4qT-qqCUAAAAAAAAGF4g.jpg?v=637877840364830000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3079291/VF4qT-qqCUAAAAAAAANuog.jpg?v=637897755804270000</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2431,62 +2427,66 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>7408</t>
+          <t>31</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>7427</t>
+          <t>31</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>DONA BENTA</t>
         </is>
       </c>
       <c r="O28" t="n">
-        <v>2000015</v>
+        <v>2000701</v>
       </c>
       <c r="P28" t="n">
-        <v>99999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>pao-de-queijo-forno-de-minas-tradicional--400-g-456110</t>
+          <t>detergente-para-loucas-biodegradavel-limpol-neutro-500-ml-100510</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Pão De Queijo Forno De Minas Tradicional 400g</t>
+          <t>Detergente Para Louças Biodegradável Limpol Neutro 500ml</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>456110</t>
+          <t>100510</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Pão De Queijo Forno De Minas Tradicional 400g</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
+          <t>O Lava-Louças Limpol é eficiente no poder da limpeza, remoção da gordura e sujeiras e no combate aos maus odores indesejados da cozinha. Sua fórmula é dermatologicamente testada e contém glicerina, tornando-a mais suave para as mãos.</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="F29" t="n">
+        <v>2.79</v>
+      </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>76</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2020-10-20T00:00:00Z</t>
+          <t>2020-10-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3041185/VF4qT-qqCUAAAAAAAAHIag.jpg?v=637792557833470000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3269221/12054_1.jpg?v=638386029717470000</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2499,93 +2499,93 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>13544</t>
+          <t>12054</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>13564</t>
+          <t>12081</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>FORNO MINAS</t>
+          <t>LIMPOL</t>
         </is>
       </c>
       <c r="O29" t="n">
-        <v>2001500</v>
+        <v>2001413</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>mamao-papaia-cariorta-12kg-99007</t>
+          <t>guardanapo-folha-dupla-scott-grand-hotel-jantar-33×33-cm-com-50-unidades-129887</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Mamão Papaia Cariorta 1,2kg</t>
+          <t>Guardanapo Folha Dupla Scott Grand Hotel Jantar 33×33 Cm Com 50 Unidades</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>99007</t>
+          <t>129887</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Cariorta selecionados de coração.</t>
+          <t>O Guardanapo Grand Hotel folha tripla é mais sofisticado e garante uma maciez superior para todos os momentos. Contém 50 folhas de tamanho 31,8x32,8 cm cada.</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>15.99</v>
+        <v>12.99</v>
       </c>
       <c r="F30" t="n">
-        <v>15.99</v>
+        <v>12.99</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>111</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2020-05-20T00:00:00Z</t>
+          <t>2020-10-05T00:00:00Z</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3082688/VF4qT-qqCUAAAAAAAAOOog.jpg?v=637980006057500000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3078100/129887_1.jpg?v=637895346534630000</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K30" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>24413</t>
+          <t>9427</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>24337</t>
+          <t>9439</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>CARIORTA</t>
+          <t>GRANDE HOTEL</t>
         </is>
       </c>
       <c r="O30" t="n">
-        <v>2001012</v>
+        <v>2001401</v>
       </c>
       <c r="P30" t="n">
         <v>99999</v>
@@ -2594,43 +2594,43 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>refrigerante-coca-cola-sem-acucar-pet-600-ml-429392</t>
+          <t>la-de-aco-bombril-com-6-unidades-45g-1180320</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Refrigerante Coca Cola Sem Açúcar Pet 600ml</t>
+          <t>Lã de Aço Bombril com 6 Unidades 45g</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>429392</t>
+          <t>1180320</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>A Coca-Cola Sem Açúcar é um refrigerante que não contém calorias! Com certeza você já se perguntou: “Então, de onde vem aquele gostinho doce? ” A Coca-Cola Sem Açúcar é produzida especialmente com adoçantes para manter o delicioso sabor de Coca-Cola porém com 0% Açucar. Perfeita para matar sua sede a qualquer hora do dia!</t>
+          <t>Uso: Ideal para limpeza de panelas, utensílios de cozinha, superfícies metálicas e outras áreas que necessitam de uma limpeza mais intensa.Remove sujeiras difíceis, incluindo resíduos de alimentos queimados e ferrugem.</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>5.69</v>
+        <v>2.19</v>
       </c>
       <c r="F31" t="n">
-        <v>5.69</v>
+        <v>2.99</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>78</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2020-10-01T00:00:00Z</t>
+          <t>2025-07-17T00:00:00Z</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4483407/VF4qT-qqCUAAAAAAAAoapA.jpg?v=639052524553700000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4216409/VF4qT-qqCUAAAAAAAAko5g.jpg?v=638889221726300000</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -2643,21 +2643,21 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>8816</t>
+          <t>41130</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>8828</t>
+          <t>41057</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>COCA COLA</t>
+          <t>BOMBRIL</t>
         </is>
       </c>
       <c r="O31" t="n">
-        <v>2000027</v>
+        <v>2001389</v>
       </c>
       <c r="P31" t="n">
         <v>99999</v>
@@ -2666,43 +2666,43 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>oleo-de-soja-liza-900ml-127310</t>
+          <t>coentro-unidade-200930</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Óleo De Soja Liza 900ml</t>
+          <t>Coentro Unidade</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>127310</t>
+          <t>200930</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Óleo De Soja Liza 900ml</t>
+          <t>Coentro Unidade</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>8.59</v>
+        <v>3.79</v>
       </c>
       <c r="F32" t="n">
-        <v>8.59</v>
+        <v>3.79</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2020-09-15T00:00:00Z</t>
+          <t>2020-09-28T00:00:00Z</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3075849/VF4qT-qqCUAAAAAAAAIxqw.jpg?v=637877802666600000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3076728/VF4qT-qqCUAAAAAAAAGF4g.jpg?v=637877840364830000</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2715,21 +2715,21 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>7408</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>7427</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>LIZA</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O32" t="n">
-        <v>2000067</v>
+        <v>2000015</v>
       </c>
       <c r="P32" t="n">
         <v>99999</v>
@@ -2738,43 +2738,43 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>espinafre-unidade-200948</t>
+          <t>papel-higienico-folha-tripla-neve-supreme-dermacare-pacote-leve-16-pague-15-unidades-981168</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Espinafre Unidade</t>
+          <t>Papel Higiênico Folha Tripla Neve Supreme Dermacare Pacote Leve 16 Pague 15 Unidades</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>200948</t>
+          <t>981168</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>O espinafre é uma hortaliça saborosa, rica em ferro e também é fonte de vitamina A e B2, além de fornecer cálcio, fósforo, potássio e magnésio, é indicado também para pessoas com anemia e desnutrição.Como conservar :Sob refrigeração, pode ser mantido por no máximo 5 dias. Antes de colocálo na geladeira, lave as folhas, escorra o excesso de água e coloqueo em sacos de plástico perfurados ou em vasilha de plástico.Como consumir :O espinafre também pode ser usado em saladas, sopas,suflês omeletes. É ótimo como recheio ou acompanhamento de massas como macarrão, quiche, tortas, pastéis e assados. [Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
+          <t>Papel higiênico neutro folha tripla de alta qualidade. Neve quer ajudar as pessoas a cuidarem de si, por isso desenvolveu um produto que proporciona maciez insuperável com mais absorção e resistência.</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>3.39</v>
+        <v>32.19</v>
       </c>
       <c r="F33" t="n">
-        <v>3.39</v>
+        <v>32.19</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>14</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2020-09-28T00:00:00Z</t>
+          <t>2020-09-22T00:00:00Z</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3076729/VF4qT-qqCUAAAAAAAAKBdQ.jpg?v=637877840409270000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4430737/VF4qT-qqCUAAAAAAAAoMMw.jpg?v=639014499358300000</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2787,66 +2787,62 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>7464</t>
+          <t>1262</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>7483</t>
+          <t>1269</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>NEVE</t>
         </is>
       </c>
       <c r="O33" t="n">
-        <v>2000015</v>
+        <v>2000291</v>
       </c>
       <c r="P33" t="n">
-        <v>99999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>sal-refinado-iodado-ita-1kg-117293</t>
+          <t>papel-toalha-coquetel-19cm-x-19cm-com-2-rolos-com-60-folhas-cada-783242</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Sal Refinado Iodado Ita 1kg</t>
+          <t>Papel Toalha Coquetel 19Cm X 19Cm com 2 Rolos com 60 Folhas Cada</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>117293</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Sal Refinado Iodado Ita 1kg</t>
-        </is>
-      </c>
+          <t>783242</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
       <c r="E34" t="n">
-        <v>3.65</v>
+        <v>6.99</v>
       </c>
       <c r="F34" t="n">
-        <v>3.65</v>
+        <v>6.99</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>111</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2020-09-15T00:00:00Z</t>
+          <t>2020-10-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3076051/VF4qT-qqCUAAAAAAAAKZcQ.jpg?v=637877811480070000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3050348/VF4qT-qqCUAAAAAAAAJRgg.jpg?v=637793335676500000</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2859,138 +2855,138 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>11627</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>11650</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>ITA</t>
+          <t>COQUETEL</t>
         </is>
       </c>
       <c r="O34" t="n">
-        <v>2000066</v>
+        <v>2001855</v>
       </c>
       <c r="P34" t="n">
-        <v>99999</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>abobora-japonesa-pedaco-500g-38229</t>
+          <t>pao-de-queijo-forno-de-minas-tradicional--400-g-456110</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Abóbora Japonesa Pedaço 500g</t>
+          <t>Pão De Queijo Forno De Minas Tradicional 400g</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>38229</t>
+          <t>456110</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Embalagem com 1 pedaço.</t>
+          <t>Pão De Queijo Forno De Minas Tradicional 400g</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>5.29</v>
+        <v>21.99</v>
       </c>
       <c r="F35" t="n">
-        <v>5.29</v>
+        <v>21.99</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>119</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2020-09-26T00:00:00Z</t>
+          <t>2020-10-20T00:00:00Z</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3096862/VF4qT-qqCUAAAAAAAAS9Tw.jpg?v=638235593168230000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3041185/VF4qT-qqCUAAAAAAAAHIag.jpg?v=637792557833470000</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K35" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>5593</t>
+          <t>13544</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>5609</t>
+          <t>13564</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>FORNO MINAS</t>
         </is>
       </c>
       <c r="O35" t="n">
-        <v>2000015</v>
+        <v>2001500</v>
       </c>
       <c r="P35" t="n">
-        <v>99999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>saponaceo-cremoso-cif-limpeza-milagrosa-450ml-781266</t>
+          <t>sal-refinado-iodado-ita-1kg-117293</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>CIF Cremoso Limpeza Milagrosa remove 100% da sujeira 450 ml</t>
+          <t>Sal Refinado Iodado Ita 1kg</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>781266</t>
+          <t>117293</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>• Cif Cremoso Original é o produto de limpeza milagrosa que limpa fácil e dá brilho em mais de 100 superfícies*, removendo 100% da sujeira difícil, sem esforço • O Cif Cremoso Original possui um perfume suave, é mais concentrado e rende 7 garrafas do limpador comum • Fórmula com tecnologia poderosa que limpa sem riscar, removendo toda a sujeira desde a mais pesada até a limpeza de casa do dia a dia, deixando um brilho imbatível • Com o Cif, a limpeza nunca foi tão fácil e versátil. Cif Cremoso possui três variantes: Original, Limão e Laranja • Cif Cremoso Original é o produto de limpeza milagrosa para todo tipo de objeto como: eletrodomésticos, pias, couro sintético, borracha, plástico, porcelana e serve até como limpador de pisos • Cif promove uma limpeza milagrosa completa, com produtos versáteis que atendem a todas as suas necessidades. Cif. Sinta a limpeza acontecer! Cif Cremoso Original 450 ml é o produto de limpeza milagroso que limpa fácil e dá brilho em mais de 100 superfícies*, removendo 100% da sujeira difícil, sem esforço. O higienizador de casa cremoso é mais concentrado e rende 7 garrafas do limpador comum**. Sua fórmula, poderosa, limpa sem riscar***, removendo toda a sujeira desde a mais pesada até a limpeza de casa do dia a dia, deixando um brilho imbatível. Limpe toda sua casa usando o Cif Cremoso Original, que limpa todo tipo de objeto, como eletrodomésticos, potes plásticos, pias, brinquedos das crianças, persianas, pisos e até ajuda a deixar aquele cabo de carregador de celular como novo! Com o Limpador Cif, a limpeza nunca foi tão fácil e versátil. A linha do milagroso Cif Cremoso possui outras variedades de perfumes, como Laranja e Limão, que se adaptam ao seu estilo. Conheça a linha completa de produtos de limpeza Cif que não podem ficar de fora da sua lista de material de limpeza. Use também: Cif Cozinha, Cif Derrete Gordura, Cif Banheiro, Cif Tira Limo Com Cloro, Cif Vidros, Cif Cremoso e muito mais. Cif: Sinta a limpeza acontecer! Modo de usar: 1. Agite antes de usar. 2. Aplique uma pequena quantidade do produto sobre uma esponja ou pano úmido. 3. Esfregue a superfície suavemente até eliminar a sujeira. 4. Passe um pano úmido para finalizar. 5. Feche a embalagem após o uso. *Consulte lista das superfícies em www.ciflimpadores.com.br **Manchas de sabão e gordura queimada, comparado com limpadores comuns do mercado. Consulte a diferença de preços entre produtos. ***Não usar esponja ácida, como palha de aço, para a limpeza de vidros. A imagem do produto é meramente ilustrativa e o rótulo pode variar. Será enviada a embalagem disponível no momento da compra.</t>
+          <t>Sal Refinado Iodado Ita 1kg</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>18.99</v>
+        <v>3.65</v>
       </c>
       <c r="F36" t="n">
-        <v>18.99</v>
+        <v>3.65</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2020-10-06T00:00:00Z</t>
+          <t>2020-09-15T00:00:00Z</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3640099/VF4qT-qqCUAAAAAAAAbyew.jpg?v=638585098972800000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3076051/VF4qT-qqCUAAAAAAAAKZcQ.jpg?v=637877811480070000</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -3003,21 +2999,21 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>11602</t>
+          <t>126</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>11625</t>
+          <t>131</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>CIF</t>
+          <t>ITA</t>
         </is>
       </c>
       <c r="O36" t="n">
-        <v>2000541</v>
+        <v>2000066</v>
       </c>
       <c r="P36" t="n">
         <v>100</v>
@@ -3026,43 +3022,43 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>cereja-chilena-300g-13463</t>
+          <t>mamao-papaia-cariorta-12kg-99007</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Cereja Chilena 300g</t>
+          <t>Mamão Papaia Cariorta 1,2kg</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>13463</t>
+          <t>99007</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>As cerejas chilenas vão deleitar seu paladar com seu doce e suculento sabor. Sua cor intensa, que varia do vermelho vibrante a tonalidades mais escuras, é um banquete para os olhos e o sinal dos inúmeros benefícios à saúde. Essa pequena fruta é uma fonte nutricional completa, com vitaminas essenciais como a C e a E, além de minerais como o ferro, potássio e magnésio. A cerejas podem ser consumidas frescas, no preparo de conservas, sobremesas e tortas e são classificadas por tamanho e nós só trazemos as mais graúdas especialmente para você!</t>
+          <t>Cariorta selecionados de coração.</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>69.90000000000001</v>
+        <v>15.99</v>
       </c>
       <c r="F37" t="n">
-        <v>69.90000000000001</v>
+        <v>15.99</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>482</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2020-09-26T00:00:00Z</t>
+          <t>2020-05-20T00:00:00Z</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4434078/VF4qT-qqCUAAAAAAAAoONQ.jpg?v=639019170859200000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3082688/VF4qT-qqCUAAAAAAAAOOog.jpg?v=637980006057500000</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -3071,25 +3067,25 @@
         </is>
       </c>
       <c r="K37" t="n">
-        <v>0.3</v>
+        <v>1.2</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>5090</t>
+          <t>24413</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>5106</t>
+          <t>24337</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>CARIORTA</t>
         </is>
       </c>
       <c r="O37" t="n">
-        <v>2000015</v>
+        <v>2001012</v>
       </c>
       <c r="P37" t="n">
         <v>99999</v>
@@ -3098,70 +3094,70 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>alho-roxo-cariorta-4-a-5-unidades-250g-99279</t>
+          <t>refrigerante-coca-cola-sem-acucar-pet-600-ml-429392</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Alho Roxo Cariorta 4 a 5 unidades 250g</t>
+          <t>Refrigerante Coca Cola Sem Açúcar Pet 600ml</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>99279</t>
+          <t>429392</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Cariorta selecionados de coração.</t>
+          <t>A Coca-Cola Sem Açúcar é um refrigerante que não contém calorias! Com certeza você já se perguntou: “Então, de onde vem aquele gostinho doce? ” A Coca-Cola Sem Açúcar é produzida especialmente com adoçantes para manter o delicioso sabor de Coca-Cola porém com 0% Açucar. Perfeita para matar sua sede a qualquer hora do dia!</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>59.99</v>
+        <v>5.69</v>
       </c>
       <c r="F38" t="n">
-        <v>59.99</v>
+        <v>5.69</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2020-05-27T00:00:00Z</t>
+          <t>2020-10-01T00:00:00Z</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3082698/VF4qT-qqCUAAAAAAAAOOtg.jpg?v=637980006345970000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4483407/VF4qT-qqCUAAAAAAAAoapA.jpg?v=639052524553700000</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K38" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>24684</t>
+          <t>8816</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>24608</t>
+          <t>8828</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>CARIORTA</t>
+          <t>COCA COLA</t>
         </is>
       </c>
       <c r="O38" t="n">
-        <v>2001012</v>
+        <v>2000027</v>
       </c>
       <c r="P38" t="n">
         <v>99999</v>
@@ -3170,29 +3166,29 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>couve-manteiga-unidade-201235</t>
+          <t>espinafre-unidade-200948</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Couve Manteiga Unidade</t>
+          <t>Espinafre Unidade</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>201235</t>
+          <t>200948</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>A couve é uma hortaliça muito rica em nutriente,cálcio, ferro e vitaminas A,C, K e B5.Como conservar:Em geladeira, inteira ou picada deve ser mantida em saco plástico fechado ou em vasilha de plástico tampada.Como consumir:Pode ser consumida crua, em saladas e sucos, refogada ou como ingrediente de sopas, farofas e cozidos.[ Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
+          <t>O espinafre é uma hortaliça saborosa, rica em ferro e também é fonte de vitamina A e B2, além de fornecer cálcio, fósforo, potássio e magnésio, é indicado também para pessoas com anemia e desnutrição.Como conservar :Sob refrigeração, pode ser mantido por no máximo 5 dias. Antes de colocálo na geladeira, lave as folhas, escorra o excesso de água e coloqueo em sacos de plástico perfurados ou em vasilha de plástico.Como consumir :O espinafre também pode ser usado em saladas, sopas,suflês omeletes. É ótimo como recheio ou acompanhamento de massas como macarrão, quiche, tortas, pastéis e assados. [Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>3.39</v>
+        <v>3.79</v>
       </c>
       <c r="F39" t="n">
-        <v>3.39</v>
+        <v>3.79</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -3206,7 +3202,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3083631/VF4qT-qqCUAAAAAAAAOZOA.jpg?v=637994955185970000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3076729/VF4qT-qqCUAAAAAAAAKBdQ.jpg?v=637877840409270000</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -3219,12 +3215,12 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>7445</t>
+          <t>7464</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>7464</t>
+          <t>7483</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -3242,43 +3238,43 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>desinfetante-banheiro-tira-limo-veja-x-14-sache-400ml-refil-economico-1066404</t>
+          <t>oleo-de-soja-liza-900ml-127310</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Desinfetante Banheiro Tira-Limo Veja X-14 Sachê 400ml Refil Econômico</t>
+          <t>Óleo De Soja Liza 900ml</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1066404</t>
+          <t>127310</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Desinfetante Banheiro Tira-Limo Veja X-14 Sachê 400ml Refil Econômico</t>
+          <t>Óleo De Soja Liza 900ml</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>9.9</v>
+        <v>8.59</v>
       </c>
       <c r="F40" t="n">
-        <v>11.99</v>
+        <v>8.59</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>576</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2022-08-11T00:00:00Z</t>
+          <t>2020-09-15T00:00:00Z</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3927710/VF4qT-qqCUAAAAAAAAOGFQ.jpg?v=638733705155570000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3075849/VF4qT-qqCUAAAAAAAAIxqw.jpg?v=637877802666600000</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -3291,21 +3287,21 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>27159</t>
+          <t>127</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>27083</t>
+          <t>132</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>VEJA</t>
+          <t>LIZA</t>
         </is>
       </c>
       <c r="O40" t="n">
-        <v>2000523</v>
+        <v>2000067</v>
       </c>
       <c r="P40" t="n">
         <v>99999</v>
@@ -3314,70 +3310,70 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>biscoito-cream-cracker-piraque-pacote-184g-1105795</t>
+          <t>abobora-japonesa-pedaco-500g-38229</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Biscoito Cream Cracker Piraquê Pacote 184g</t>
+          <t>Abóbora Japonesa Pedaço 500g</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>1105795</t>
+          <t>38229</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Biscoito Salgado Cream Cracker Piraquê Pacote 184g</t>
+          <t>Embalagem com 1 pedaço.</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>3.95</v>
+        <v>5.29</v>
       </c>
       <c r="F41" t="n">
-        <v>5.99</v>
+        <v>5.29</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>53</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2023-07-26T00:00:00Z</t>
+          <t>2020-09-26T00:00:00Z</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3099416/VF4qT-qqCUAAAAAAAATd0w.jpg?v=638264204522930000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3096862/VF4qT-qqCUAAAAAAAAS9Tw.jpg?v=638235593168230000</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K41" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>33955</t>
+          <t>5593</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>33882</t>
+          <t>5609</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>PIRAQUE</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O41" t="n">
-        <v>2000017</v>
+        <v>2000015</v>
       </c>
       <c r="P41" t="n">
         <v>99999</v>
@@ -3386,111 +3382,115 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>papel-aluminio-rolitto-30cm-x-75-m-897795</t>
+          <t>cereja-chilena-300g-13463</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Papel Alumínio Rolitto 30Cm X 7,5 M</t>
+          <t>Cereja Chilena 300g</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>897795</t>
+          <t>13463</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Envolve , protege e conserva.</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
+          <t>As cerejas chilenas vão deleitar seu paladar com seu doce e suculento sabor. Sua cor intensa, que varia do vermelho vibrante a tonalidades mais escuras, é um banquete para os olhos e o sinal dos inúmeros benefícios à saúde. Essa pequena fruta é uma fonte nutricional completa, com vitaminas essenciais como a C e a E, além de minerais como o ferro, potássio e magnésio. A cerejas podem ser consumidas frescas, no preparo de conservas, sobremesas e tortas e são classificadas por tamanho e nós só trazemos as mais graúdas especialmente para você!</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="F42" t="n">
+        <v>69.90000000000001</v>
+      </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2020-10-05T00:00:00Z</t>
+          <t>2020-09-26T00:00:00Z</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3061098/VF4qT-qqCUAAAAAAAAGpfA.jpg?v=637794125591230000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4434078/VF4qT-qqCUAAAAAAAAoONQ.jpg?v=639019170859200000</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K42" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>9853</t>
+          <t>5090</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>9866</t>
+          <t>5106</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>KENTINHA</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O42" t="n">
-        <v>2001532</v>
+        <v>2000015</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>matte-leao-natural-pet-15l-118214</t>
+          <t>saponaceo-cremoso-cif-limpeza-milagrosa-450ml-781266</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Matte Leão Natural Pet 1,5L</t>
+          <t>CIF Cremoso Limpeza Milagrosa remove 100% da sujeira 450 ml</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>118214</t>
+          <t>781266</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Renove seu humor, recicle seu ritmo e siga em frente. Experimente combinar o seu dia com o sabor inconfundível de Matte Leão.Matte Leão é feito com folhas de ervamate selecionadas e tostadas num processo único, especialmente para você.Porção de 200 mL (1 copo) = 68 kcal.</t>
+          <t>• Cif Cremoso Original é o produto de limpeza milagrosa que limpa fácil e dá brilho em mais de 100 superfícies*, removendo 100% da sujeira difícil, sem esforço • O Cif Cremoso Original possui um perfume suave, é mais concentrado e rende 7 garrafas do limpador comum • Fórmula com tecnologia poderosa que limpa sem riscar, removendo toda a sujeira desde a mais pesada até a limpeza de casa do dia a dia, deixando um brilho imbatível • Com o Cif, a limpeza nunca foi tão fácil e versátil. Cif Cremoso possui três variantes: Original, Limão e Laranja • Cif Cremoso Original é o produto de limpeza milagrosa para todo tipo de objeto como: eletrodomésticos, pias, couro sintético, borracha, plástico, porcelana e serve até como limpador de pisos • Cif promove uma limpeza milagrosa completa, com produtos versáteis que atendem a todas as suas necessidades. Cif. Sinta a limpeza acontecer! Cif Cremoso Original 450 ml é o produto de limpeza milagroso que limpa fácil e dá brilho em mais de 100 superfícies*, removendo 100% da sujeira difícil, sem esforço. O higienizador de casa cremoso é mais concentrado e rende 7 garrafas do limpador comum**. Sua fórmula, poderosa, limpa sem riscar***, removendo toda a sujeira desde a mais pesada até a limpeza de casa do dia a dia, deixando um brilho imbatível. Limpe toda sua casa usando o Cif Cremoso Original, que limpa todo tipo de objeto, como eletrodomésticos, potes plásticos, pias, brinquedos das crianças, persianas, pisos e até ajuda a deixar aquele cabo de carregador de celular como novo! Com o Limpador Cif, a limpeza nunca foi tão fácil e versátil. A linha do milagroso Cif Cremoso possui outras variedades de perfumes, como Laranja e Limão, que se adaptam ao seu estilo. Conheça a linha completa de produtos de limpeza Cif que não podem ficar de fora da sua lista de material de limpeza. Use também: Cif Cozinha, Cif Derrete Gordura, Cif Banheiro, Cif Tira Limo Com Cloro, Cif Vidros, Cif Cremoso e muito mais. Cif: Sinta a limpeza acontecer! Modo de usar: 1. Agite antes de usar. 2. Aplique uma pequena quantidade do produto sobre uma esponja ou pano úmido. 3. Esfregue a superfície suavemente até eliminar a sujeira. 4. Passe um pano úmido para finalizar. 5. Feche a embalagem após o uso. *Consulte lista das superfícies em www.ciflimpadores.com.br **Manchas de sabão e gordura queimada, comparado com limpadores comuns do mercado. Consulte a diferença de preços entre produtos. ***Não usar esponja ácida, como palha de aço, para a limpeza de vidros. A imagem do produto é meramente ilustrativa e o rótulo pode variar. Será enviada a embalagem disponível no momento da compra.</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>7.69</v>
+        <v>18.99</v>
       </c>
       <c r="F43" t="n">
-        <v>8.99</v>
+        <v>18.99</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>74</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2020-10-01T00:00:00Z</t>
+          <t>2020-10-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3704453/VF4qT-qqCUAAAAAAAAGyOQ.jpg?v=638609291247270000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3640099/VF4qT-qqCUAAAAAAAAbyew.jpg?v=638585098972800000</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -3503,62 +3503,66 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>8709</t>
+          <t>11602</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>8721</t>
+          <t>11625</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>LEAO</t>
+          <t>CIF</t>
         </is>
       </c>
       <c r="O43" t="n">
-        <v>2000010</v>
+        <v>2000541</v>
       </c>
       <c r="P43" t="n">
-        <v>99999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>abobrinha-italiana-cariorta-1kg-98663</t>
+          <t>alho-roxo-cariorta-4-a-5-unidades-250g-99279</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Abobrinha Italiana Cariorta 1Kg</t>
+          <t>Alho Roxo Cariorta 4 a 5 unidades 250g</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>98663</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr"/>
+          <t>99279</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Cariorta selecionados de coração.</t>
+        </is>
+      </c>
       <c r="E44" t="n">
-        <v>7.99</v>
+        <v>59.99</v>
       </c>
       <c r="F44" t="n">
-        <v>7.99</v>
+        <v>59.99</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>480</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2020-12-16T00:00:00Z</t>
+          <t>2020-05-27T00:00:00Z</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3082667/VF4qT-qqCUAAAAAAAAOOdQ.jpg?v=637979987909700000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3082698/VF4qT-qqCUAAAAAAAAOOtg.jpg?v=637980006345970000</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -3567,16 +3571,16 @@
         </is>
       </c>
       <c r="K44" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>16567</t>
+          <t>24684</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>16458</t>
+          <t>24608</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -3594,29 +3598,33 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>file-mignon-resfriado-sem-cordao-2-2kg-44822</t>
+          <t>couve-manteiga-unidade-201235</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Filé Mignon Resfriado Sem Cordão 2,2kg</t>
+          <t>Couve Manteiga Unidade</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>44822</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
+          <t>201235</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>A couve é uma hortaliça muito rica em nutriente,cálcio, ferro e vitaminas A,C, K e B5.Como conservar:Em geladeira, inteira ou picada deve ser mantida em saco plástico fechado ou em vasilha de plástico tampada.Como consumir:Pode ser consumida crua, em saladas e sucos, refogada ou como ingrediente de sopas, farofas e cozidos.[ Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
+        </is>
+      </c>
       <c r="E45" t="n">
-        <v>79.98999999999999</v>
+        <v>3.79</v>
       </c>
       <c r="F45" t="n">
-        <v>99.98999999999999</v>
+        <v>3.79</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -3626,25 +3634,25 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4340142/VF4qT-qqCUAAAAAAAAJRsQ.jpg?v=638954025546430000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3083631/VF4qT-qqCUAAAAAAAAOZOA.jpg?v=637994955185970000</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K45" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>7539</t>
+          <t>7445</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>7558</t>
+          <t>7464</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -3662,43 +3670,43 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>milho-em-conserva-quero-lata-200g-476625</t>
+          <t>desinfetante-banheiro-tira-limo-veja-x-14-sache-400ml-refil-economico-1066404</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Milho em Conserva Quero Lata 200g</t>
+          <t>Desinfetante Banheiro Tira-Limo Veja X-14 Sachê 400ml Refil Econômico</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>476625</t>
+          <t>1066404</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Sabor inigualável e cozimento na medida certa são os segredos do Milho Quero. O Milho Verde em Conserva Quero Lata 170g é ideal para receitas em pequenas quantidades. Se você prefere embalagens em lata, essa opção é ideal pra você! Para garantir a qualidade da sua receita, a Quero seleciona os vegetais com todo o cuidado, deixando o resultado final impecável. Pode confiar que seus pratos vão ficar uma delícia. Sabor e frescor para o seu dia a dia! Que tal experimentar? Quero cabe na panela, no prato e no bolso, sendo a marca queridinha entre os brasileiros.* Pode confiar que quando você tem Quero, você faz acontecer!</t>
+          <t>Desinfetante Banheiro Tira-Limo Veja X-14 Sachê 400ml Refil Econômico</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>3.89</v>
+        <v>9.9</v>
       </c>
       <c r="F46" t="n">
-        <v>4.99</v>
+        <v>11.99</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>74</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2020-10-06T00:00:00Z</t>
+          <t>2022-08-11T00:00:00Z</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3090347/476625_1.jpg?v=638126891970330000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3927710/VF4qT-qqCUAAAAAAAAOGFQ.jpg?v=638733705155570000</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -3711,21 +3719,21 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>10734</t>
+          <t>27159</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>10752</t>
+          <t>27083</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>QUERO</t>
+          <t>VEJA</t>
         </is>
       </c>
       <c r="O46" t="n">
-        <v>2001778</v>
+        <v>2000523</v>
       </c>
       <c r="P46" t="n">
         <v>99999</v>
@@ -3734,33 +3742,33 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>leite-longa-vida-integral-elege-tetra-pak-1l-371289</t>
+          <t>papel-aluminio-rolitto-30cm-x-75-m-897795</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Leite Longa Vida Integral Elegê Tetra Pak 1L</t>
+          <t>Papel Alumínio Rolitto 30Cm X 7,5 M</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>371289</t>
+          <t>897795</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Leite Longa Vida Integral Elegê Tetra Pak 1L</t>
+          <t>Envolve , protege e conserva.</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>5.39</v>
+        <v>5.99</v>
       </c>
       <c r="F47" t="n">
-        <v>5.39</v>
+        <v>6.99</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>111</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -3770,7 +3778,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3129041/VF4qT-qqCUAAAAAAAAUbaw.jpg?v=638309476429500000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3061098/VF4qT-qqCUAAAAAAAAGpfA.jpg?v=637794125591230000</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -3783,21 +3791,21 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>9974</t>
+          <t>9853</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>9988</t>
+          <t>9866</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>ELEGE</t>
+          <t>KENTINHA</t>
         </is>
       </c>
       <c r="O47" t="n">
-        <v>2000400</v>
+        <v>2001532</v>
       </c>
       <c r="P47" t="n">
         <v>99999</v>
@@ -3806,43 +3814,43 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>saponaceo-cremoso-cif-gratis-20-450-ml-839264</t>
+          <t>biscoito-cream-cracker-piraque-pacote-184g-1105795</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Saponáceo Cremoso Cif Grátis 20% 450ml</t>
+          <t>Biscoito Cream Cracker Piraquê Pacote 184g</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>839264</t>
+          <t>1105795</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>• Multiuso Cremoso • 1 gota remove 100% da sujeira difícil • Limpa sem riscar com micropartículas de origem natural • Poderoso na limpeza, imbatível no cuidado • Use também em couro sintético, plástico, porcelana e borracha • Para toda casa CIF Multiuso Cremoso Original, possui uma fórmula exclusiva que limpa profundamente, removendo 100% da sujeira difícil, com apenas 1 gota. O limpador CIF Cremoso é mais concentrado e por isso pode render até 7 garrafas * dos limpadores comuns encontrados no mercado. Com sua tecnologia, o limpador de casa CIF Multiuso Cremoso Original é poderoso na limpeza e imbatível no cuidado. Sua formula com micropartículas de origem natural limpam, sem riscar, removendo toda a sujeira desde a mais pesada até a manutenção do dia a dia, deixando um brilho imbatível. Limpe toda sua casa usando o limpador multiuso CIF Multiuso Cremoso, que limpa mais de 100 objetos **, como fogão, micro-ondas, chinelos, panelas, geladeira, potes plásticos, pias, torneiras, sofá, máquina de lavar, brinquedos das crianças, persianas, utensílios de churrasco, talheres, ventilador e até ajuda a deixar aquele cabo de carregador de celular como novo! CIF é muito mais do que uma linha de produtos de limpeza, CIF é cuidado com a sua casa. A família de multiuso CIF Cremoso possui uma variedade de fragrâncias, sendo elas: Original, Laranja e Limão, todas super refrescantes e se adaptam ao seu estilo e à sua casa. CIF Multiuso Cremoso é um grande aliado na limpeza de casa, para mantê-la sempre limpa, bonita e bem cuidada, do jeito que você e sua família merecem. CIF é poderoso na limpeza e imbatível no cuidado pois sabemos que cada cantinho da sua casa merece limpeza e cuidado.</t>
+          <t>Biscoito Salgado Cream Cracker Piraquê Pacote 184g</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>14.99</v>
+        <v>3.95</v>
       </c>
       <c r="F48" t="n">
-        <v>14.99</v>
+        <v>5.99</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>31</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2020-10-06T00:00:00Z</t>
+          <t>2023-07-26T00:00:00Z</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3077844/839264_17.jpg?v=637895340530470000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3099416/VF4qT-qqCUAAAAAAAATd0w.jpg?v=638264204522930000</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -3855,21 +3863,21 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>12274</t>
+          <t>33955</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>12301</t>
+          <t>33882</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>CIF</t>
+          <t>PIRAQUE</t>
         </is>
       </c>
       <c r="O48" t="n">
-        <v>2000541</v>
+        <v>2000017</v>
       </c>
       <c r="P48" t="n">
         <v>99999</v>
@@ -3878,43 +3886,43 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>iogurte-integral-nestle-natural-copo-170-g-364738</t>
+          <t>matte-leao-natural-pet-15l-118214</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Iogurte Integral Nestlé Natural Copo 170g</t>
+          <t>Matte Leão Natural Pet 1,5L</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>364738</t>
+          <t>118214</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Descubra a pureza e a qualidade do Iogurte Natural Nestlé® Integral. Este iogurte foi pensado em todos que buscam uma experiência simples e natural. Ele é feito apenas com dois ingredientes: leite e fermento, sendo uma opção para quem procura uma alimentação mais equilibrada, livre de produtos que contém diversos ingredientes. Com o Iogurte Natural Integral você pode aproveitar os benefícios do leite e do fermento de forma pura e autêntica. A versatilidade deste iogurte é outro diferencial, pois permite que seja usado conforme o gosto de cada um. Pode ser consumido puro, servido com frutas, adicionado a smoothies ou utilizado em receitas. Linha Nestlé® é tradição e qualidade!</t>
+          <t>Renove seu humor, recicle seu ritmo e siga em frente. Experimente combinar o seu dia com o sabor inconfundível de Matte Leão.Matte Leão é feito com folhas de ervamate selecionadas e tostadas num processo único, especialmente para você.Porção de 200 mL (1 copo) = 68 kcal.</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>3.79</v>
+        <v>7.69</v>
       </c>
       <c r="F49" t="n">
-        <v>4.89</v>
+        <v>8.99</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2020-09-29T00:00:00Z</t>
+          <t>2020-10-01T00:00:00Z</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3959333/VF4qT-qqCUAAAAAAAAUrxw.jpg?v=638755307288170000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3704453/VF4qT-qqCUAAAAAAAAGyOQ.jpg?v=638609291247270000</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -3927,167 +3935,23 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>2122</t>
+          <t>8709</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>2129</t>
+          <t>8721</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>NESTLE</t>
+          <t>LEAO</t>
         </is>
       </c>
       <c r="O49" t="n">
-        <v>2000043</v>
+        <v>2000010</v>
       </c>
       <c r="P49" t="n">
-        <v>99999</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>pao-frances-panetto-60g-com-8-unidades-96504</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Pão Francês Panetto 60g Com 8 Unidades</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>96504</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Pão Francês Panetto é feito com farinha de qualidade superior, sua massa é cuidadosamente elaborada para garantir uma textura crocante por fora e um interior macio e arejado. Cada mordida revela a combinação perfeita entre crocância e suavidade, tornando-o ideal para acompanhar seu café da manhã e lanche da tarde.</t>
-        </is>
-      </c>
-      <c r="E50" t="n">
-        <v>24.99</v>
-      </c>
-      <c r="F50" t="n">
-        <v>24.99</v>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2024-02-01T00:00:00Z</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3310764/VF4qT-qqCUAAAAAAAAWu8Q.jpg?v=638932897909230000</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
-      </c>
-      <c r="K50" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>35484</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>35411</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>PANETTO</t>
-        </is>
-      </c>
-      <c r="O50" t="n">
-        <v>2000307</v>
-      </c>
-      <c r="P50" t="n">
-        <v>99999</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>alcool-montenegro-46-1-l-780570</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Álcool Montenegro 46% 1 L</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>780570</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Álcool Montenegro 46% 1 L</t>
-        </is>
-      </c>
-      <c r="E51" t="n">
-        <v>8.789999999999999</v>
-      </c>
-      <c r="F51" t="n">
-        <v>8.789999999999999</v>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2020-10-06T10:47:00Z</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3051579/VF4qT-qqCUAAAAAAAAG3pQ.jpg?v=637793390624870000</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>un</t>
-        </is>
-      </c>
-      <c r="K51" t="n">
-        <v>1</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>11598</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>11621</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>MONTENEGRO</t>
-        </is>
-      </c>
-      <c r="O51" t="n">
-        <v>2000527</v>
-      </c>
-      <c r="P51" t="n">
         <v>99999</v>
       </c>
     </row>

--- a/zonasul.xlsx
+++ b/zonasul.xlsx
@@ -518,39 +518,43 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>creme-de-leite-nestle-10--gratis-200g-1165151</t>
+          <t>matte-leao-limao-pet-1-5l-118222</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Creme de Leite Nestlé 10% Grátis 200g</t>
+          <t>Matte Leão Limão Pet 1,5L</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1165151</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
+          <t>118222</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>O Chá MATTE Limão Leão é um dos tipos de chás preferido dos consumidores. A marca Chá Mate Leão está presente no mercado há mais de 100 anos, sendo a marca de chá mais vendida e tradicional. Produzido com extrato aquoso de mate, açúcar e suco de limão, o Chá MATTE LEÃO Limão é a opção ideal para refrescar o seu dia! Compre e compartilhe com amigos e familiares!</t>
+        </is>
+      </c>
       <c r="E2" t="n">
-        <v>5.99</v>
+        <v>7.69</v>
       </c>
       <c r="F2" t="n">
-        <v>5.99</v>
+        <v>8.99</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-02-20T00:00:00Z</t>
+          <t>2020-10-01T00:00:00Z</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4395976/VF4qT-qqCUAAAAAAAAoEeQ.jpg?v=638984266226730000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3704455/VF4qT-qqCUAAAAAAAAcePQ.jpg?v=638609291270100000</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -563,21 +567,21 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>40151</t>
+          <t>8711</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>40078</t>
+          <t>8723</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>NESTLE</t>
+          <t>LEAO</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>2000043</v>
+        <v>2000010</v>
       </c>
       <c r="P2" t="n">
         <v>99999</v>
@@ -586,43 +590,39 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ovos-brancos-jumbo-mantiqueira-com-10-unidades-437638</t>
+          <t>creme-de-leite-nestle-10--gratis-200g-1165151</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ovos Brancos Jumbo Mantiqueira Com 10 Unidades</t>
+          <t>Creme de Leite Nestlé 10% Grátis 200g</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>437638</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Os Ovos Jumbo Mantiqueira possuem maior tamanho, ideais para quem busca uma alimentação rica em vitaminas, proteínas e minerais, ou para quem gosta de um maior rendimento em suas receitas. Um único ovo contém quase todos os nutrientes necessários para manter o corpo saudável, fortalecendo os ossos e auxiliando em dietas para perda de peso ou ganho de massa.O Ovo Jumbo Mantiqueira é um produto da linha Especial da marca e possui a qualidade superior, passando por um moderno sistema de seleção, limpeza e embalagem sem contato de mãos humanas.Especificações:Ovos maiores, tamanho família.Embalagem com 10 unidades.Ovos brancos e vermelhos tipo jumbo categoria A.</t>
-        </is>
-      </c>
+          <t>1165151</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
-        <v>10.9</v>
+        <v>5.99</v>
       </c>
       <c r="F3" t="n">
-        <v>10.9</v>
+        <v>5.99</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>71</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2020-09-27T00:00:00Z</t>
+          <t>2025-02-20T00:00:00Z</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3976126/VF4qT-qqCUAAAAAAAAh4RA.jpg?v=638769994856100000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4395976/VF4qT-qqCUAAAAAAAAoEeQ.jpg?v=638984266226730000</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -635,24 +635,24 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>7002</t>
+          <t>40151</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>7020</t>
+          <t>40078</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>MANTIQUEIRA</t>
+          <t>NESTLE</t>
         </is>
       </c>
       <c r="O3" t="n">
-        <v>2001056</v>
+        <v>2000043</v>
       </c>
       <c r="P3" t="n">
-        <v>10</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="4">
@@ -1018,70 +1018,70 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>batata-inglesa-cariorta-12kg-98698</t>
+          <t>agua-mineral-com-gas-sao-lourenco-pet-1-26-l-140805</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Batata Inglesa Cariorta 1,2Kg</t>
+          <t>Água Mineral Com Gás São Lourenço Pet 1,26 L</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>98698</t>
+          <t>140805</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Cariorta selecionados de coração.</t>
+          <t>Água Mineral Com Gás São Lourenço Pet 1,26 L</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>7.99</v>
+        <v>3.89</v>
       </c>
       <c r="F9" t="n">
-        <v>7.99</v>
+        <v>5.29</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>18</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2020-12-16T00:00:00Z</t>
+          <t>2020-09-25T00:00:00Z</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3082670/VF4qT-qqCUAAAAAAAAOOew.jpg?v=637979987993130000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3076277/VF4qT-qqCUAAAAAAAAHMBQ.jpg?v=637877821166370000</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K9" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>16570</t>
+          <t>3915</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>16461</t>
+          <t>3929</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>CARIORTA</t>
+          <t>SAO LOURENCO</t>
         </is>
       </c>
       <c r="O9" t="n">
-        <v>2001012</v>
+        <v>2000145</v>
       </c>
       <c r="P9" t="n">
         <v>99999</v>
@@ -1090,70 +1090,70 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>agua-mineral-com-gas-sao-lourenco-pet-1-26-l-140805</t>
+          <t>batata-inglesa-cariorta-12kg-98698</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Água Mineral Com Gás São Lourenço Pet 1,26 L</t>
+          <t>Batata Inglesa Cariorta 1,2Kg</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>140805</t>
+          <t>98698</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Água Mineral Com Gás São Lourenço Pet 1,26 L</t>
+          <t>Cariorta selecionados de coração.</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3.89</v>
+        <v>7.99</v>
       </c>
       <c r="F10" t="n">
-        <v>5.29</v>
+        <v>7.99</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>483</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2020-09-25T00:00:00Z</t>
+          <t>2020-12-16T00:00:00Z</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3076277/VF4qT-qqCUAAAAAAAAHMBQ.jpg?v=637877821166370000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3082670/VF4qT-qqCUAAAAAAAAOOew.jpg?v=637979987993130000</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>3915</t>
+          <t>16570</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>3929</t>
+          <t>16461</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>SAO LOURENCO</t>
+          <t>CARIORTA</t>
         </is>
       </c>
       <c r="O10" t="n">
-        <v>2000145</v>
+        <v>2001012</v>
       </c>
       <c r="P10" t="n">
         <v>99999</v>
@@ -1378,43 +1378,43 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>abacaxi-unidade-221</t>
+          <t>cafe-torrado-e-moido-pilao-tradicional-500g-828025</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Abacaxi Unidade</t>
+          <t>Café Torrado E Moído Pilão Tradicional Fresh Pack 500g</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>828025</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Peso Aproximado 1,61,8Kg / Unidade.O Abacaxi é rico em Vitaminas A, B5, B6, C, BetaCaroteno, Tiamina, Antioxidantes e Fibras, auxiliando na saciedade e regulação do peso. É uma Importante fonte de energia póstreino. Auxilia nos processos antiinflamatórios por conter Bromelina, enzima encontrada principalmente no talo da fruta. Como preparar: no seu estado natural cortado, em saladas, assado, grelhado, sucos, geleias, sorvetes e chás.</t>
+          <t>Tem um ponto de torra acentuado e um processo de moagem fina e uniforme, que garantem e preservam seu sabor forte e encorpado.É perfeito para servir em dia de casa cheia, pois seu sabor tradicional agrada a todo mundo.</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>10.99</v>
+        <v>31.98</v>
       </c>
       <c r="F14" t="n">
-        <v>10.99</v>
+        <v>43.9</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>59</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2020-09-26T00:00:00Z</t>
+          <t>2020-09-15T00:00:00Z</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3041923/VF4qT-qqCUAAAAAAAAFtXw.jpg?v=637792593143530000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3051146/VF4qT-qqCUAAAAAAAAG1sQ.jpg?v=637793369863530000</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1427,66 +1427,66 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>4959</t>
+          <t>130</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>4975</t>
+          <t>135</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>PILAO</t>
         </is>
       </c>
       <c r="O14" t="n">
-        <v>2000015</v>
+        <v>2000070</v>
       </c>
       <c r="P14" t="n">
-        <v>100</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>leite-uht-piracanjuba-integral-1l-865427</t>
+          <t>abacaxi-unidade-221</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Leite Uht Piracanjuba Integral 1L</t>
+          <t>Abacaxi Unidade</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>865427</t>
+          <t>221</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>No café da manhã, em um delicioso lanche da tarde ou até mesmo antes de dormir, o Leite Piracanjuba cumpre bem o seu papel principal: trazer mais sabor para os seus momentos especiais e para as suas receitas. Mais sabor para todos os momentos.</t>
+          <t>Peso Aproximado 1,61,8Kg / Unidade.O Abacaxi é rico em Vitaminas A, B5, B6, C, BetaCaroteno, Tiamina, Antioxidantes e Fibras, auxiliando na saciedade e regulação do peso. É uma Importante fonte de energia póstreino. Auxilia nos processos antiinflamatórios por conter Bromelina, enzima encontrada principalmente no talo da fruta. Como preparar: no seu estado natural cortado, em saladas, assado, grelhado, sucos, geleias, sorvetes e chás.</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5.59</v>
+        <v>10.99</v>
       </c>
       <c r="F15" t="n">
-        <v>5.59</v>
+        <v>10.99</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2017-04-12T00:00:00Z</t>
+          <t>2020-09-26T00:00:00Z</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3294485/VF4qT-qqCUAAAAAAAAWbgQ.jpg?v=638412300289570000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3041923/VF4qT-qqCUAAAAAAAAFtXw.jpg?v=637792593143530000</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1499,66 +1499,66 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>23232</t>
+          <t>4959</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>23158</t>
+          <t>4975</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>PIRACANJUBA</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O15" t="n">
-        <v>2002038</v>
+        <v>2000015</v>
       </c>
       <c r="P15" t="n">
-        <v>99999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>cafe-torrado-e-moido-pilao-tradicional-500g-828025</t>
+          <t>leite-uht-piracanjuba-integral-1l-865427</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Café Torrado E Moído Pilão Tradicional Fresh Pack 500g</t>
+          <t>Leite Uht Piracanjuba Integral 1L</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>828025</t>
+          <t>865427</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Tem um ponto de torra acentuado e um processo de moagem fina e uniforme, que garantem e preservam seu sabor forte e encorpado.É perfeito para servir em dia de casa cheia, pois seu sabor tradicional agrada a todo mundo.</t>
+          <t>No café da manhã, em um delicioso lanche da tarde ou até mesmo antes de dormir, o Leite Piracanjuba cumpre bem o seu papel principal: trazer mais sabor para os seus momentos especiais e para as suas receitas. Mais sabor para todos os momentos.</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>31.98</v>
+        <v>5.59</v>
       </c>
       <c r="F16" t="n">
-        <v>43.9</v>
+        <v>5.59</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>130</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2020-09-15T00:00:00Z</t>
+          <t>2017-04-12T00:00:00Z</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3051146/VF4qT-qqCUAAAAAAAAG1sQ.jpg?v=637793369863530000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3294485/VF4qT-qqCUAAAAAAAAWbgQ.jpg?v=638412300289570000</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1571,21 +1571,21 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>23232</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>23158</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>PILAO</t>
+          <t>PIRACANJUBA</t>
         </is>
       </c>
       <c r="O16" t="n">
-        <v>2000070</v>
+        <v>2002038</v>
       </c>
       <c r="P16" t="n">
         <v>99999</v>
@@ -1594,43 +1594,39 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>guardanapo-folha-dupla-scott-grand-hotel-238cm×218cm-50-unidades-129879</t>
+          <t>ovos-vermelhos-caipira-happy-eggs-com-20-unidades-370550</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Guardanapo Folha Dupla Scott Grand Hotel 23,8cm×21,8cm 50 Unidades</t>
+          <t>Ovos Vermelhos Caipira Happy Eggs Com 20 Unidades</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>129879</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Guardanapo Folha Dupla Scott Grand Hotel 23,8cm×21,8cm 50 Unidades</t>
-        </is>
-      </c>
+          <t>370550</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="n">
-        <v>6.19</v>
+        <v>24.99</v>
       </c>
       <c r="F17" t="n">
-        <v>6.19</v>
+        <v>24.99</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2020-10-05T00:00:00Z</t>
+          <t>2020-09-27T00:00:00Z</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3239421/VF4qT-qqCUAAAAAAAAVSfw.jpg?v=638362188224230000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4343192/VF4qT-qqCUAAAAAAAAn9QA.jpg?v=638956617627730000</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1643,62 +1639,66 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>9426</t>
+          <t>6939</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>9438</t>
+          <t>6957</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>GRANDE HOTEL</t>
+          <t>HAPPY EGGS</t>
         </is>
       </c>
       <c r="O17" t="n">
-        <v>2001400</v>
+        <v>2003319</v>
       </c>
       <c r="P17" t="n">
-        <v>100</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ovos-vermelhos-caipira-happy-eggs-com-20-unidades-370550</t>
+          <t>couve-flor-unidade-189111</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Ovos Vermelhos Caipira Happy Eggs Com 20 Unidades</t>
+          <t>Couve Flor Unidade</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>370550</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
+          <t>189111</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>A couveflor é uma hortaliça rica em cálcio e fósforo e fonte de ácido fólico e vitamina C . Como Conservar:Na geladeira pode ser conservada por 3 a 5 dias, dentro de saco plástico perfurado. Antes de guardar, remova as partes escuras e folhas, mas não lave a cabeça.Como Consumir:Pode ser consumida assada, frita ou cozinhe em água e sal. [Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
+        </is>
+      </c>
       <c r="E18" t="n">
-        <v>24.99</v>
+        <v>9.99</v>
       </c>
       <c r="F18" t="n">
-        <v>24.99</v>
+        <v>9.99</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>53</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2020-09-27T00:00:00Z</t>
+          <t>2020-09-28T00:00:00Z</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4343192/VF4qT-qqCUAAAAAAAAn9QA.jpg?v=638956617627730000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3041615/VF4qT-qqCUAAAAAAAAGF4Q.jpg?v=637792579893500000</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1711,21 +1711,21 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>6939</t>
+          <t>7446</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>6957</t>
+          <t>7465</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>HAPPY EGGS</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O18" t="n">
-        <v>2003319</v>
+        <v>2000015</v>
       </c>
       <c r="P18" t="n">
         <v>99999</v>
@@ -1734,43 +1734,43 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>couve-flor-unidade-189111</t>
+          <t>detergente-para-loucas-odd-clear-500ml-982911</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Couve Flor Unidade</t>
+          <t>Detergente Para Louças Odd Clear 500ml</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>189111</t>
+          <t>982911</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>A couveflor é uma hortaliça rica em cálcio e fósforo e fonte de ácido fólico e vitamina C . Como Conservar:Na geladeira pode ser conservada por 3 a 5 dias, dentro de saco plástico perfurado. Antes de guardar, remova as partes escuras e folhas, mas não lave a cabeça.Como Consumir:Pode ser consumida assada, frita ou cozinhe em água e sal. [Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
+          <t>ODD voltou!Alto rendimento , controle de odor.</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>9.99</v>
+        <v>1.9</v>
       </c>
       <c r="F19" t="n">
-        <v>9.99</v>
+        <v>2.49</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>76</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2020-09-28T00:00:00Z</t>
+          <t>2020-10-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3041615/VF4qT-qqCUAAAAAAAAGF4Q.jpg?v=637792579893500000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3056732/VF4qT-qqCUAAAAAAAAHzRQ.jpg?v=637793635376800000</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1783,21 +1783,21 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>7446</t>
+          <t>11872</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>7465</t>
+          <t>11898</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>LIMPPANO</t>
         </is>
       </c>
       <c r="O19" t="n">
-        <v>2000015</v>
+        <v>2001341</v>
       </c>
       <c r="P19" t="n">
         <v>99999</v>
@@ -1806,43 +1806,43 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>detergente-para-loucas-odd-clear-500ml-982911</t>
+          <t>ovos-vermelhos-mantiqueira-happy-eggs-com-10-unidades-5106753</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Detergente Para Louças Odd Clear 500ml</t>
+          <t>Ovos Vermelhos Mantiqueira Happy Eggs com 10 Unidades</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>982911</t>
+          <t>5106753</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>ODD voltou!Alto rendimento , controle de odor.</t>
+          <t>Produzidos por galinhas criadas livres de gaiolas. Garantia de Bem-Estar Animal. Ovos Vermelhos Tipo Grande Categoria A. Embalagem com 10 unidades.</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1.9</v>
+        <v>11.99</v>
       </c>
       <c r="F20" t="n">
-        <v>2.49</v>
+        <v>11.99</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2020-10-06T00:00:00Z</t>
+          <t>2021-01-11T00:00:00Z</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3056732/VF4qT-qqCUAAAAAAAAHzRQ.jpg?v=637793635376800000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4222023/VF4qT-qqCUAAAAAAAAStHA.jpg?v=638894405636230000</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1855,21 +1855,21 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>11872</t>
+          <t>18105</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>11898</t>
+          <t>17997</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>LIMPPANO</t>
+          <t>HAPPY EGGS</t>
         </is>
       </c>
       <c r="O20" t="n">
-        <v>2001341</v>
+        <v>2003319</v>
       </c>
       <c r="P20" t="n">
         <v>99999</v>
@@ -1878,22 +1878,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ovos-vermelhos-mantiqueira-happy-eggs-com-10-unidades-5106753</t>
+          <t>limao-cariorta-1kg-98981</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ovos Vermelhos Mantiqueira Happy Eggs com 10 Unidades</t>
+          <t>Limão Cariorta 1Kg</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>5106753</t>
+          <t>98981</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Produzidos por galinhas criadas livres de gaiolas. Garantia de Bem-Estar Animal. Ovos Vermelhos Tipo Grande Categoria A. Embalagem com 10 unidades.</t>
+          <t>Cariorta selecionados de coração.</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -1904,22 +1904,22 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>482</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2021-01-11T00:00:00Z</t>
+          <t>2020-05-20T00:00:00Z</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4222023/VF4qT-qqCUAAAAAAAAStHA.jpg?v=638894405636230000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3084385/VF4qT-qqCUAAAAAAAAOgIg.jpg?v=638000868147970000</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K21" t="n">
@@ -1927,21 +1927,21 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>18105</t>
+          <t>24698</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>17997</t>
+          <t>24622</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>HAPPY EGGS</t>
+          <t>CARIORTA</t>
         </is>
       </c>
       <c r="O21" t="n">
-        <v>2003319</v>
+        <v>2001012</v>
       </c>
       <c r="P21" t="n">
         <v>99999</v>
@@ -1950,43 +1950,39 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>limao-cariorta-1kg-98981</t>
+          <t>pao-frances-panetto-60g-com-4-unidades-96318</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Limão Cariorta 1Kg</t>
+          <t>Pão Francês Panetto  60g Com 4 unidades</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>98981</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Cariorta selecionados de coração.</t>
-        </is>
-      </c>
+          <t>96318</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="n">
-        <v>11.99</v>
+        <v>24.99</v>
       </c>
       <c r="F22" t="n">
-        <v>11.99</v>
+        <v>24.99</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>89</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2020-05-20T00:00:00Z</t>
+          <t>2024-01-31T00:00:00Z</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3084385/VF4qT-qqCUAAAAAAAAOgIg.jpg?v=638000868147970000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3307700/VF4qT-qqCUAAAAAAAAWnXQ.jpg?v=638932898013670000</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1995,25 +1991,25 @@
         </is>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>0.24</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>24698</t>
+          <t>35477</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>24622</t>
+          <t>35404</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>CARIORTA</t>
+          <t>PANETTO</t>
         </is>
       </c>
       <c r="O22" t="n">
-        <v>2001012</v>
+        <v>2000307</v>
       </c>
       <c r="P22" t="n">
         <v>99999</v>
@@ -2022,66 +2018,70 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>pao-frances-panetto-60g-com-4-unidades-96318</t>
+          <t>azeite-italiano-extra-virgem-due-500ml-5472040</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Pão Francês Panetto  60g Com 4 unidades</t>
+          <t>Azeite Italiano Extravirgem Due 500ml</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>96318</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
+          <t>5472040</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>O azeite Due é um blend de azeites do Mediterrâneo que confere um resultado clássico e ideal para o cotidiano da cozinha. Sua elaboração conta com uma seleção cautelosamente realizada pelo Expert em Azeites e Temperos Marcelo Scofano, que anualmente viaja à Toscana (Itália), onde o azeite é produzido, para cuidar de cada detalhe pessoalmente.Due é um azeite clássico, ideal para o dia a dia da cozinha: marinados, refogados, emulsão de molhos, finalização de saladas, massas e pratos do cotidiano. O azeite clássico é extraído de azeitonas maduras. Possui sabor amendoado, com notas amargas e picantes em equilíbrio.O azeite Due faz parte da grupo de marcas exclusivas Zona Sul, criada e pensada com carinho para os cariocas de coração. O planejamento de cada produto exclusivo conta com a participação dos Experts Zona Sul em todo o processo, até chegar na sua mesa. E com a linha Due não é diferente!</t>
+        </is>
+      </c>
       <c r="E23" t="n">
-        <v>24.99</v>
+        <v>36.9</v>
       </c>
       <c r="F23" t="n">
-        <v>24.99</v>
+        <v>36.9</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>597</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2024-01-31T00:00:00Z</t>
+          <t>2025-05-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3307700/VF4qT-qqCUAAAAAAAAWnXQ.jpg?v=638932898013670000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4116721/VF4qT-qqCUAAAAAAAAiyjQ.jpg?v=638846625781330000</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K23" t="n">
-        <v>0.24</v>
+        <v>1</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>35477</t>
+          <t>40224</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>35404</t>
+          <t>40151</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>PANETTO</t>
+          <t>DUE</t>
         </is>
       </c>
       <c r="O23" t="n">
-        <v>2000307</v>
+        <v>2005138</v>
       </c>
       <c r="P23" t="n">
         <v>99999</v>
@@ -2090,43 +2090,43 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>azeite-italiano-extra-virgem-due-500ml-5472040</t>
+          <t>file-de-peito-de-frango-sadia-bandeja-1kg-290564</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Azeite Italiano Extravirgem Due 500ml</t>
+          <t>Filé de Peito de Frango Sadia Bandeja 1kg</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>5472040</t>
+          <t>290564</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>O azeite Due é um blend de azeites do Mediterrâneo que confere um resultado clássico e ideal para o cotidiano da cozinha. Sua elaboração conta com uma seleção cautelosamente realizada pelo Expert em Azeites e Temperos Marcelo Scofano, que anualmente viaja à Toscana (Itália), onde o azeite é produzido, para cuidar de cada detalhe pessoalmente.Due é um azeite clássico, ideal para o dia a dia da cozinha: marinados, refogados, emulsão de molhos, finalização de saladas, massas e pratos do cotidiano. O azeite clássico é extraído de azeitonas maduras. Possui sabor amendoado, com notas amargas e picantes em equilíbrio.O azeite Due faz parte da grupo de marcas exclusivas Zona Sul, criada e pensada com carinho para os cariocas de coração. O planejamento de cada produto exclusivo conta com a participação dos Experts Zona Sul em todo o processo, até chegar na sua mesa. E com a linha Due não é diferente!</t>
+          <t>Peito De Frango Em Filés Sadia Bandeja 1kg</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>36.9</v>
+        <v>26.99</v>
       </c>
       <c r="F24" t="n">
-        <v>36.9</v>
+        <v>26.99</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>125</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-06T00:00:00Z</t>
+          <t>2020-09-29T00:00:00Z</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4116721/VF4qT-qqCUAAAAAAAAiyjQ.jpg?v=638846625781330000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3538840/VF4qT-qqCUAAAAAAAAa5gg.jpg?v=638550537679130000</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -2139,66 +2139,66 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>40224</t>
+          <t>7</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>40151</t>
+          <t>7</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>DUE</t>
+          <t>SADIA</t>
         </is>
       </c>
       <c r="O24" t="n">
-        <v>2005138</v>
+        <v>2000057</v>
       </c>
       <c r="P24" t="n">
-        <v>99999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>file-de-peito-de-frango-sadia-bandeja-1kg-290564</t>
+          <t>morango-250g-289612</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Filé de Peito de Frango Sadia Bandeja 1kg</t>
+          <t>Morango 250g</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>290564</t>
+          <t>289612</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Peito De Frango Em Filés Sadia Bandeja 1kg</t>
+          <t>Embalagem com 250g "O morango é rico em vitamina C e, por isso, o consumo da fruta evita a fragilidade dos ossos e a má formação dos dentes. Ele também dá resistência aos tecidos, age contra infecções ajudando na cicatrização. O morango também possui, em menor quantidade, vitamina B5, conhecida como niacina. Ela tem a função de evitar problemas de pele, do aparelho digestivo e do sistema nervoso. Na fruta, também é encontrado ferro, que faz parte da formação do sangue."</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>24.99</v>
+        <v>9.99</v>
       </c>
       <c r="F25" t="n">
-        <v>26.99</v>
+        <v>9.99</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2020-09-29T00:00:00Z</t>
+          <t>2020-09-26T00:00:00Z</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3538840/VF4qT-qqCUAAAAAAAAa5gg.jpg?v=638550537679130000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3226559/VF4qT-qqCUAAAAAAAAHKNA.jpg?v=638352676547800000</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2211,21 +2211,21 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5152</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5168</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>SADIA</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O25" t="n">
-        <v>2000057</v>
+        <v>2000015</v>
       </c>
       <c r="P25" t="n">
         <v>99999</v>
@@ -2234,43 +2234,43 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>morango-250g-289612</t>
+          <t>farinha-de-trigo-dona-benta-1kg-105287</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Morango 250g</t>
+          <t>Farinha De Trigo Dona Benta 1kg</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>289612</t>
+          <t>105287</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Embalagem com 250g "O morango é rico em vitamina C e, por isso, o consumo da fruta evita a fragilidade dos ossos e a má formação dos dentes. Ele também dá resistência aos tecidos, age contra infecções ajudando na cicatrização. O morango também possui, em menor quantidade, vitamina B5, conhecida como niacina. Ela tem a função de evitar problemas de pele, do aparelho digestivo e do sistema nervoso. Na fruta, também é encontrado ferro, que faz parte da formação do sangue."</t>
+          <t>Farinha De Trigo Dona Benta 1kg</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>9.99</v>
+        <v>7.99</v>
       </c>
       <c r="F26" t="n">
-        <v>9.99</v>
+        <v>7.99</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>63</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2020-09-26T00:00:00Z</t>
+          <t>2020-07-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3226559/VF4qT-qqCUAAAAAAAAHKNA.jpg?v=638352676547800000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3079291/VF4qT-qqCUAAAAAAAANuog.jpg?v=637897755804270000</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2283,24 +2283,24 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>5152</t>
+          <t>31</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>5168</t>
+          <t>31</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>DONA BENTA</t>
         </is>
       </c>
       <c r="O26" t="n">
-        <v>2000015</v>
+        <v>2000701</v>
       </c>
       <c r="P26" t="n">
-        <v>99999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27">
@@ -2378,43 +2378,43 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>farinha-de-trigo-dona-benta-1kg-105287</t>
+          <t>detergente-para-loucas-biodegradavel-limpol-neutro-500-ml-100510</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Farinha De Trigo Dona Benta 1kg</t>
+          <t>Detergente Para Louças Biodegradável Limpol Neutro 500ml</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>105287</t>
+          <t>100510</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Farinha De Trigo Dona Benta 1kg</t>
+          <t>O Lava-Louças Limpol é eficiente no poder da limpeza, remoção da gordura e sujeiras e no combate aos maus odores indesejados da cozinha. Sua fórmula é dermatologicamente testada e contém glicerina, tornando-a mais suave para as mãos.</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>7.99</v>
+        <v>2.79</v>
       </c>
       <c r="F28" t="n">
-        <v>7.99</v>
+        <v>2.79</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>76</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2020-07-06T00:00:00Z</t>
+          <t>2020-10-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3079291/VF4qT-qqCUAAAAAAAANuog.jpg?v=637897755804270000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3269221/12054_1.jpg?v=638386029717470000</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2427,66 +2427,66 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>12054</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>12081</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>DONA BENTA</t>
+          <t>LIMPOL</t>
         </is>
       </c>
       <c r="O28" t="n">
-        <v>2000701</v>
+        <v>2001413</v>
       </c>
       <c r="P28" t="n">
-        <v>100</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>detergente-para-loucas-biodegradavel-limpol-neutro-500-ml-100510</t>
+          <t>guardanapo-folha-dupla-scott-grand-hotel-jantar-33×33-cm-com-50-unidades-129887</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Detergente Para Louças Biodegradável Limpol Neutro 500ml</t>
+          <t>Guardanapo Folha Dupla Scott Grand Hotel Jantar 33×33 Cm Com 50 Unidades</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>100510</t>
+          <t>129887</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>O Lava-Louças Limpol é eficiente no poder da limpeza, remoção da gordura e sujeiras e no combate aos maus odores indesejados da cozinha. Sua fórmula é dermatologicamente testada e contém glicerina, tornando-a mais suave para as mãos.</t>
+          <t>O Guardanapo Grand Hotel folha tripla é mais sofisticado e garante uma maciez superior para todos os momentos. Contém 50 folhas de tamanho 31,8x32,8 cm cada.</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>2.79</v>
+        <v>12.99</v>
       </c>
       <c r="F29" t="n">
-        <v>2.79</v>
+        <v>12.99</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>111</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2020-10-06T00:00:00Z</t>
+          <t>2020-10-05T00:00:00Z</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3269221/12054_1.jpg?v=638386029717470000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3078100/129887_1.jpg?v=637895346534630000</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2499,21 +2499,21 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>12054</t>
+          <t>9427</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>12081</t>
+          <t>9439</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>LIMPOL</t>
+          <t>GRANDE HOTEL</t>
         </is>
       </c>
       <c r="O29" t="n">
-        <v>2001413</v>
+        <v>2001401</v>
       </c>
       <c r="P29" t="n">
         <v>99999</v>
@@ -2522,29 +2522,25 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>guardanapo-folha-dupla-scott-grand-hotel-jantar-33×33-cm-com-50-unidades-129887</t>
+          <t>papel-toalha-coquetel-19cm-x-19cm-com-2-rolos-com-60-folhas-cada-783242</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Guardanapo Folha Dupla Scott Grand Hotel Jantar 33×33 Cm Com 50 Unidades</t>
+          <t>Papel Toalha Coquetel 19Cm X 19Cm com 2 Rolos com 60 Folhas Cada</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>129887</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>O Guardanapo Grand Hotel folha tripla é mais sofisticado e garante uma maciez superior para todos os momentos. Contém 50 folhas de tamanho 31,8x32,8 cm cada.</t>
-        </is>
-      </c>
+          <t>783242</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="n">
-        <v>12.99</v>
+        <v>6.99</v>
       </c>
       <c r="F30" t="n">
-        <v>12.99</v>
+        <v>6.99</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -2553,12 +2549,12 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2020-10-05T00:00:00Z</t>
+          <t>2020-10-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3078100/129887_1.jpg?v=637895346534630000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3050348/VF4qT-qqCUAAAAAAAAJRgg.jpg?v=637793335676500000</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -2571,24 +2567,24 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>9427</t>
+          <t>11627</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>9439</t>
+          <t>11650</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>GRANDE HOTEL</t>
+          <t>COQUETEL</t>
         </is>
       </c>
       <c r="O30" t="n">
-        <v>2001401</v>
+        <v>2001855</v>
       </c>
       <c r="P30" t="n">
-        <v>99999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31">
@@ -2738,43 +2734,43 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>papel-higienico-folha-tripla-neve-supreme-dermacare-pacote-leve-16-pague-15-unidades-981168</t>
+          <t>pao-de-queijo-forno-de-minas-tradicional--400-g-456110</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Papel Higiênico Folha Tripla Neve Supreme Dermacare Pacote Leve 16 Pague 15 Unidades</t>
+          <t>Pão De Queijo Forno De Minas Tradicional 400g</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>981168</t>
+          <t>456110</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Papel higiênico neutro folha tripla de alta qualidade. Neve quer ajudar as pessoas a cuidarem de si, por isso desenvolveu um produto que proporciona maciez insuperável com mais absorção e resistência.</t>
+          <t>Pão De Queijo Forno De Minas Tradicional 400g</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>32.19</v>
+        <v>21.99</v>
       </c>
       <c r="F33" t="n">
-        <v>32.19</v>
+        <v>21.99</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>119</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2020-09-22T00:00:00Z</t>
+          <t>2020-10-20T00:00:00Z</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4430737/VF4qT-qqCUAAAAAAAAoMMw.jpg?v=639014499358300000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3041185/VF4qT-qqCUAAAAAAAAHIag.jpg?v=637792557833470000</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2787,62 +2783,66 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>1262</t>
+          <t>13544</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>1269</t>
+          <t>13564</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>NEVE</t>
+          <t>FORNO MINAS</t>
         </is>
       </c>
       <c r="O33" t="n">
-        <v>2000291</v>
+        <v>2001500</v>
       </c>
       <c r="P33" t="n">
-        <v>100</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>papel-toalha-coquetel-19cm-x-19cm-com-2-rolos-com-60-folhas-cada-783242</t>
+          <t>papel-higienico-folha-tripla-neve-supreme-dermacare-pacote-leve-16-pague-15-unidades-981168</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Papel Toalha Coquetel 19Cm X 19Cm com 2 Rolos com 60 Folhas Cada</t>
+          <t>Papel Higiênico Folha Tripla Neve Supreme Dermacare Pacote Leve 16 Pague 15 Unidades</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>783242</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
+          <t>981168</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Papel higiênico neutro folha tripla de alta qualidade. Neve quer ajudar as pessoas a cuidarem de si, por isso desenvolveu um produto que proporciona maciez insuperável com mais absorção e resistência.</t>
+        </is>
+      </c>
       <c r="E34" t="n">
-        <v>6.99</v>
+        <v>32.19</v>
       </c>
       <c r="F34" t="n">
-        <v>6.99</v>
+        <v>32.19</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>14</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2020-10-06T00:00:00Z</t>
+          <t>2020-09-22T00:00:00Z</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3050348/VF4qT-qqCUAAAAAAAAJRgg.jpg?v=637793335676500000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4430737/VF4qT-qqCUAAAAAAAAoMMw.jpg?v=639014499358300000</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2855,66 +2855,66 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>11627</t>
+          <t>1262</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>11650</t>
+          <t>1269</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>COQUETEL</t>
+          <t>NEVE</t>
         </is>
       </c>
       <c r="O34" t="n">
-        <v>2001855</v>
+        <v>2000291</v>
       </c>
       <c r="P34" t="n">
-        <v>10</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>pao-de-queijo-forno-de-minas-tradicional--400-g-456110</t>
+          <t>sal-refinado-iodado-ita-1kg-117293</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Pão De Queijo Forno De Minas Tradicional 400g</t>
+          <t>Sal Refinado Iodado Ita 1kg</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>456110</t>
+          <t>117293</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Pão De Queijo Forno De Minas Tradicional 400g</t>
+          <t>Sal Refinado Iodado Ita 1kg</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>21.99</v>
+        <v>3.65</v>
       </c>
       <c r="F35" t="n">
-        <v>21.99</v>
+        <v>3.65</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2020-10-20T00:00:00Z</t>
+          <t>2020-09-15T00:00:00Z</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3041185/VF4qT-qqCUAAAAAAAAHIag.jpg?v=637792557833470000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3076051/VF4qT-qqCUAAAAAAAAKZcQ.jpg?v=637877811480070000</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2927,21 +2927,21 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>13544</t>
+          <t>126</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>13564</t>
+          <t>131</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>FORNO MINAS</t>
+          <t>ITA</t>
         </is>
       </c>
       <c r="O35" t="n">
-        <v>2001500</v>
+        <v>2000066</v>
       </c>
       <c r="P35" t="n">
         <v>100</v>
@@ -2950,142 +2950,142 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>sal-refinado-iodado-ita-1kg-117293</t>
+          <t>mamao-papaia-cariorta-12kg-99007</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Sal Refinado Iodado Ita 1kg</t>
+          <t>Mamão Papaia Cariorta 1,2kg</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>117293</t>
+          <t>99007</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Sal Refinado Iodado Ita 1kg</t>
+          <t>Cariorta selecionados de coração.</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>3.65</v>
+        <v>15.99</v>
       </c>
       <c r="F36" t="n">
-        <v>3.65</v>
+        <v>15.99</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>482</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2020-09-15T00:00:00Z</t>
+          <t>2020-05-20T00:00:00Z</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3076051/VF4qT-qqCUAAAAAAAAKZcQ.jpg?v=637877811480070000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3082688/VF4qT-qqCUAAAAAAAAOOog.jpg?v=637980006057500000</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K36" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>24413</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>24337</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>ITA</t>
+          <t>CARIORTA</t>
         </is>
       </c>
       <c r="O36" t="n">
-        <v>2000066</v>
+        <v>2001012</v>
       </c>
       <c r="P36" t="n">
-        <v>100</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>mamao-papaia-cariorta-12kg-99007</t>
+          <t>refrigerante-coca-cola-sem-acucar-pet-600-ml-429392</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Mamão Papaia Cariorta 1,2kg</t>
+          <t>Refrigerante Coca Cola Sem Açúcar Pet 600ml</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>99007</t>
+          <t>429392</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Cariorta selecionados de coração.</t>
+          <t>A Coca-Cola Sem Açúcar é um refrigerante que não contém calorias! Com certeza você já se perguntou: “Então, de onde vem aquele gostinho doce? ” A Coca-Cola Sem Açúcar é produzida especialmente com adoçantes para manter o delicioso sabor de Coca-Cola porém com 0% Açucar. Perfeita para matar sua sede a qualquer hora do dia!</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>15.99</v>
+        <v>5.69</v>
       </c>
       <c r="F37" t="n">
-        <v>15.99</v>
+        <v>5.69</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2020-05-20T00:00:00Z</t>
+          <t>2020-10-01T00:00:00Z</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3082688/VF4qT-qqCUAAAAAAAAOOog.jpg?v=637980006057500000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4483407/VF4qT-qqCUAAAAAAAAoapA.jpg?v=639052524553700000</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K37" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>24413</t>
+          <t>8816</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>24337</t>
+          <t>8828</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>CARIORTA</t>
+          <t>COCA COLA</t>
         </is>
       </c>
       <c r="O37" t="n">
-        <v>2001012</v>
+        <v>2000027</v>
       </c>
       <c r="P37" t="n">
         <v>99999</v>
@@ -3094,43 +3094,43 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>refrigerante-coca-cola-sem-acucar-pet-600-ml-429392</t>
+          <t>espinafre-unidade-200948</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Refrigerante Coca Cola Sem Açúcar Pet 600ml</t>
+          <t>Espinafre Unidade</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>429392</t>
+          <t>200948</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>A Coca-Cola Sem Açúcar é um refrigerante que não contém calorias! Com certeza você já se perguntou: “Então, de onde vem aquele gostinho doce? ” A Coca-Cola Sem Açúcar é produzida especialmente com adoçantes para manter o delicioso sabor de Coca-Cola porém com 0% Açucar. Perfeita para matar sua sede a qualquer hora do dia!</t>
+          <t>O espinafre é uma hortaliça saborosa, rica em ferro e também é fonte de vitamina A e B2, além de fornecer cálcio, fósforo, potássio e magnésio, é indicado também para pessoas com anemia e desnutrição.Como conservar :Sob refrigeração, pode ser mantido por no máximo 5 dias. Antes de colocálo na geladeira, lave as folhas, escorra o excesso de água e coloqueo em sacos de plástico perfurados ou em vasilha de plástico.Como consumir :O espinafre também pode ser usado em saladas, sopas,suflês omeletes. É ótimo como recheio ou acompanhamento de massas como macarrão, quiche, tortas, pastéis e assados. [Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>5.69</v>
+        <v>3.79</v>
       </c>
       <c r="F38" t="n">
-        <v>5.69</v>
+        <v>3.79</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2020-10-01T00:00:00Z</t>
+          <t>2020-09-28T00:00:00Z</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4483407/VF4qT-qqCUAAAAAAAAoapA.jpg?v=639052524553700000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3076729/VF4qT-qqCUAAAAAAAAKBdQ.jpg?v=637877840409270000</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -3143,21 +3143,21 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>8816</t>
+          <t>7464</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>8828</t>
+          <t>7483</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>COCA COLA</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O38" t="n">
-        <v>2000027</v>
+        <v>2000015</v>
       </c>
       <c r="P38" t="n">
         <v>99999</v>
@@ -3166,61 +3166,61 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>espinafre-unidade-200948</t>
+          <t>cereja-chilena-300g-13463</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Espinafre Unidade</t>
+          <t>Cereja Chilena 300g</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>200948</t>
+          <t>13463</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>O espinafre é uma hortaliça saborosa, rica em ferro e também é fonte de vitamina A e B2, além de fornecer cálcio, fósforo, potássio e magnésio, é indicado também para pessoas com anemia e desnutrição.Como conservar :Sob refrigeração, pode ser mantido por no máximo 5 dias. Antes de colocálo na geladeira, lave as folhas, escorra o excesso de água e coloqueo em sacos de plástico perfurados ou em vasilha de plástico.Como consumir :O espinafre também pode ser usado em saladas, sopas,suflês omeletes. É ótimo como recheio ou acompanhamento de massas como macarrão, quiche, tortas, pastéis e assados. [Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
+          <t>As cerejas chilenas vão deleitar seu paladar com seu doce e suculento sabor. Sua cor intensa, que varia do vermelho vibrante a tonalidades mais escuras, é um banquete para os olhos e o sinal dos inúmeros benefícios à saúde. Essa pequena fruta é uma fonte nutricional completa, com vitaminas essenciais como a C e a E, além de minerais como o ferro, potássio e magnésio. A cerejas podem ser consumidas frescas, no preparo de conservas, sobremesas e tortas e são classificadas por tamanho e nós só trazemos as mais graúdas especialmente para você!</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>3.79</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="F39" t="n">
-        <v>3.79</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2020-09-28T00:00:00Z</t>
+          <t>2020-09-26T00:00:00Z</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3076729/VF4qT-qqCUAAAAAAAAKBdQ.jpg?v=637877840409270000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4434078/VF4qT-qqCUAAAAAAAAoONQ.jpg?v=639019170859200000</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K39" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>7464</t>
+          <t>5090</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>7483</t>
+          <t>5106</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -3238,43 +3238,43 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>oleo-de-soja-liza-900ml-127310</t>
+          <t>saponaceo-cremoso-cif-limpeza-milagrosa-450ml-781266</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Óleo De Soja Liza 900ml</t>
+          <t>CIF Cremoso Limpeza Milagrosa remove 100% da sujeira 450 ml</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>127310</t>
+          <t>781266</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Óleo De Soja Liza 900ml</t>
+          <t>• Cif Cremoso Original é o produto de limpeza milagrosa que limpa fácil e dá brilho em mais de 100 superfícies*, removendo 100% da sujeira difícil, sem esforço • O Cif Cremoso Original possui um perfume suave, é mais concentrado e rende 7 garrafas do limpador comum • Fórmula com tecnologia poderosa que limpa sem riscar, removendo toda a sujeira desde a mais pesada até a limpeza de casa do dia a dia, deixando um brilho imbatível • Com o Cif, a limpeza nunca foi tão fácil e versátil. Cif Cremoso possui três variantes: Original, Limão e Laranja • Cif Cremoso Original é o produto de limpeza milagrosa para todo tipo de objeto como: eletrodomésticos, pias, couro sintético, borracha, plástico, porcelana e serve até como limpador de pisos • Cif promove uma limpeza milagrosa completa, com produtos versáteis que atendem a todas as suas necessidades. Cif. Sinta a limpeza acontecer! Cif Cremoso Original 450 ml é o produto de limpeza milagroso que limpa fácil e dá brilho em mais de 100 superfícies*, removendo 100% da sujeira difícil, sem esforço. O higienizador de casa cremoso é mais concentrado e rende 7 garrafas do limpador comum**. Sua fórmula, poderosa, limpa sem riscar***, removendo toda a sujeira desde a mais pesada até a limpeza de casa do dia a dia, deixando um brilho imbatível. Limpe toda sua casa usando o Cif Cremoso Original, que limpa todo tipo de objeto, como eletrodomésticos, potes plásticos, pias, brinquedos das crianças, persianas, pisos e até ajuda a deixar aquele cabo de carregador de celular como novo! Com o Limpador Cif, a limpeza nunca foi tão fácil e versátil. A linha do milagroso Cif Cremoso possui outras variedades de perfumes, como Laranja e Limão, que se adaptam ao seu estilo. Conheça a linha completa de produtos de limpeza Cif que não podem ficar de fora da sua lista de material de limpeza. Use também: Cif Cozinha, Cif Derrete Gordura, Cif Banheiro, Cif Tira Limo Com Cloro, Cif Vidros, Cif Cremoso e muito mais. Cif: Sinta a limpeza acontecer! Modo de usar: 1. Agite antes de usar. 2. Aplique uma pequena quantidade do produto sobre uma esponja ou pano úmido. 3. Esfregue a superfície suavemente até eliminar a sujeira. 4. Passe um pano úmido para finalizar. 5. Feche a embalagem após o uso. *Consulte lista das superfícies em www.ciflimpadores.com.br **Manchas de sabão e gordura queimada, comparado com limpadores comuns do mercado. Consulte a diferença de preços entre produtos. ***Não usar esponja ácida, como palha de aço, para a limpeza de vidros. A imagem do produto é meramente ilustrativa e o rótulo pode variar. Será enviada a embalagem disponível no momento da compra.</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>8.59</v>
+        <v>18.99</v>
       </c>
       <c r="F40" t="n">
-        <v>8.59</v>
+        <v>18.99</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>74</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2020-09-15T00:00:00Z</t>
+          <t>2020-10-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3075849/VF4qT-qqCUAAAAAAAAIxqw.jpg?v=637877802666600000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3640099/VF4qT-qqCUAAAAAAAAbyew.jpg?v=638585098972800000</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -3287,21 +3287,21 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>11602</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>11625</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>LIZA</t>
+          <t>CIF</t>
         </is>
       </c>
       <c r="O40" t="n">
-        <v>2000067</v>
+        <v>2000541</v>
       </c>
       <c r="P40" t="n">
         <v>99999</v>
@@ -3382,70 +3382,70 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>cereja-chilena-300g-13463</t>
+          <t>oleo-de-soja-liza-900ml-127310</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Cereja Chilena 300g</t>
+          <t>Óleo De Soja Liza 900ml</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>13463</t>
+          <t>127310</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>As cerejas chilenas vão deleitar seu paladar com seu doce e suculento sabor. Sua cor intensa, que varia do vermelho vibrante a tonalidades mais escuras, é um banquete para os olhos e o sinal dos inúmeros benefícios à saúde. Essa pequena fruta é uma fonte nutricional completa, com vitaminas essenciais como a C e a E, além de minerais como o ferro, potássio e magnésio. A cerejas podem ser consumidas frescas, no preparo de conservas, sobremesas e tortas e são classificadas por tamanho e nós só trazemos as mais graúdas especialmente para você!</t>
+          <t>Óleo De Soja Liza 900ml</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>69.90000000000001</v>
+        <v>8.59</v>
       </c>
       <c r="F42" t="n">
-        <v>69.90000000000001</v>
+        <v>8.59</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>576</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2020-09-26T00:00:00Z</t>
+          <t>2020-09-15T00:00:00Z</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4434078/VF4qT-qqCUAAAAAAAAoONQ.jpg?v=639019170859200000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3075849/VF4qT-qqCUAAAAAAAAIxqw.jpg?v=637877802666600000</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K42" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>5090</t>
+          <t>127</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>5106</t>
+          <t>132</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>LIZA</t>
         </is>
       </c>
       <c r="O42" t="n">
-        <v>2000015</v>
+        <v>2000067</v>
       </c>
       <c r="P42" t="n">
         <v>99999</v>
@@ -3454,142 +3454,142 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>saponaceo-cremoso-cif-limpeza-milagrosa-450ml-781266</t>
+          <t>alho-roxo-cariorta-4-a-5-unidades-250g-99279</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>CIF Cremoso Limpeza Milagrosa remove 100% da sujeira 450 ml</t>
+          <t>Alho Roxo Cariorta 4 a 5 unidades 250g</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>781266</t>
+          <t>99279</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>• Cif Cremoso Original é o produto de limpeza milagrosa que limpa fácil e dá brilho em mais de 100 superfícies*, removendo 100% da sujeira difícil, sem esforço • O Cif Cremoso Original possui um perfume suave, é mais concentrado e rende 7 garrafas do limpador comum • Fórmula com tecnologia poderosa que limpa sem riscar, removendo toda a sujeira desde a mais pesada até a limpeza de casa do dia a dia, deixando um brilho imbatível • Com o Cif, a limpeza nunca foi tão fácil e versátil. Cif Cremoso possui três variantes: Original, Limão e Laranja • Cif Cremoso Original é o produto de limpeza milagrosa para todo tipo de objeto como: eletrodomésticos, pias, couro sintético, borracha, plástico, porcelana e serve até como limpador de pisos • Cif promove uma limpeza milagrosa completa, com produtos versáteis que atendem a todas as suas necessidades. Cif. Sinta a limpeza acontecer! Cif Cremoso Original 450 ml é o produto de limpeza milagroso que limpa fácil e dá brilho em mais de 100 superfícies*, removendo 100% da sujeira difícil, sem esforço. O higienizador de casa cremoso é mais concentrado e rende 7 garrafas do limpador comum**. Sua fórmula, poderosa, limpa sem riscar***, removendo toda a sujeira desde a mais pesada até a limpeza de casa do dia a dia, deixando um brilho imbatível. Limpe toda sua casa usando o Cif Cremoso Original, que limpa todo tipo de objeto, como eletrodomésticos, potes plásticos, pias, brinquedos das crianças, persianas, pisos e até ajuda a deixar aquele cabo de carregador de celular como novo! Com o Limpador Cif, a limpeza nunca foi tão fácil e versátil. A linha do milagroso Cif Cremoso possui outras variedades de perfumes, como Laranja e Limão, que se adaptam ao seu estilo. Conheça a linha completa de produtos de limpeza Cif que não podem ficar de fora da sua lista de material de limpeza. Use também: Cif Cozinha, Cif Derrete Gordura, Cif Banheiro, Cif Tira Limo Com Cloro, Cif Vidros, Cif Cremoso e muito mais. Cif: Sinta a limpeza acontecer! Modo de usar: 1. Agite antes de usar. 2. Aplique uma pequena quantidade do produto sobre uma esponja ou pano úmido. 3. Esfregue a superfície suavemente até eliminar a sujeira. 4. Passe um pano úmido para finalizar. 5. Feche a embalagem após o uso. *Consulte lista das superfícies em www.ciflimpadores.com.br **Manchas de sabão e gordura queimada, comparado com limpadores comuns do mercado. Consulte a diferença de preços entre produtos. ***Não usar esponja ácida, como palha de aço, para a limpeza de vidros. A imagem do produto é meramente ilustrativa e o rótulo pode variar. Será enviada a embalagem disponível no momento da compra.</t>
+          <t>Cariorta selecionados de coração.</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>18.99</v>
+        <v>59.99</v>
       </c>
       <c r="F43" t="n">
-        <v>18.99</v>
+        <v>59.99</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>480</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2020-10-06T00:00:00Z</t>
+          <t>2020-05-27T00:00:00Z</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3640099/VF4qT-qqCUAAAAAAAAbyew.jpg?v=638585098972800000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3082698/VF4qT-qqCUAAAAAAAAOOtg.jpg?v=637980006345970000</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K43" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>11602</t>
+          <t>24684</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>11625</t>
+          <t>24608</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>CIF</t>
+          <t>CARIORTA</t>
         </is>
       </c>
       <c r="O43" t="n">
-        <v>2000541</v>
+        <v>2001012</v>
       </c>
       <c r="P43" t="n">
-        <v>100</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>alho-roxo-cariorta-4-a-5-unidades-250g-99279</t>
+          <t>couve-manteiga-unidade-201235</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Alho Roxo Cariorta 4 a 5 unidades 250g</t>
+          <t>Couve Manteiga Unidade</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>99279</t>
+          <t>201235</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Cariorta selecionados de coração.</t>
+          <t>A couve é uma hortaliça muito rica em nutriente,cálcio, ferro e vitaminas A,C, K e B5.Como conservar:Em geladeira, inteira ou picada deve ser mantida em saco plástico fechado ou em vasilha de plástico tampada.Como consumir:Pode ser consumida crua, em saladas e sucos, refogada ou como ingrediente de sopas, farofas e cozidos.[ Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>59.99</v>
+        <v>3.79</v>
       </c>
       <c r="F44" t="n">
-        <v>59.99</v>
+        <v>3.79</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2020-05-27T00:00:00Z</t>
+          <t>2020-09-28T00:00:00Z</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3082698/VF4qT-qqCUAAAAAAAAOOtg.jpg?v=637980006345970000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3083631/VF4qT-qqCUAAAAAAAAOZOA.jpg?v=637994955185970000</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K44" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>24684</t>
+          <t>7445</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>24608</t>
+          <t>7464</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>CARIORTA</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O44" t="n">
-        <v>2001012</v>
+        <v>2000015</v>
       </c>
       <c r="P44" t="n">
         <v>99999</v>
@@ -3598,43 +3598,43 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>couve-manteiga-unidade-201235</t>
+          <t>desinfetante-banheiro-tira-limo-veja-x-14-sache-400ml-refil-economico-1066404</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Couve Manteiga Unidade</t>
+          <t>Desinfetante Banheiro Tira-Limo Veja X-14 Sachê 400ml Refil Econômico</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>201235</t>
+          <t>1066404</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>A couve é uma hortaliça muito rica em nutriente,cálcio, ferro e vitaminas A,C, K e B5.Como conservar:Em geladeira, inteira ou picada deve ser mantida em saco plástico fechado ou em vasilha de plástico tampada.Como consumir:Pode ser consumida crua, em saladas e sucos, refogada ou como ingrediente de sopas, farofas e cozidos.[ Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
+          <t>Desinfetante Banheiro Tira-Limo Veja X-14 Sachê 400ml Refil Econômico</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>3.79</v>
+        <v>9.9</v>
       </c>
       <c r="F45" t="n">
-        <v>3.79</v>
+        <v>11.99</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>74</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2020-09-28T00:00:00Z</t>
+          <t>2022-08-11T00:00:00Z</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3083631/VF4qT-qqCUAAAAAAAAOZOA.jpg?v=637994955185970000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3927710/VF4qT-qqCUAAAAAAAAOGFQ.jpg?v=638733705155570000</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -3647,21 +3647,21 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>7445</t>
+          <t>27159</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>7464</t>
+          <t>27083</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>VEJA</t>
         </is>
       </c>
       <c r="O45" t="n">
-        <v>2000015</v>
+        <v>2000523</v>
       </c>
       <c r="P45" t="n">
         <v>99999</v>
@@ -3670,43 +3670,43 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>desinfetante-banheiro-tira-limo-veja-x-14-sache-400ml-refil-economico-1066404</t>
+          <t>papel-aluminio-rolitto-30cm-x-75-m-897795</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Desinfetante Banheiro Tira-Limo Veja X-14 Sachê 400ml Refil Econômico</t>
+          <t>Papel Alumínio Rolitto 30Cm X 7,5 M</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1066404</t>
+          <t>897795</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Desinfetante Banheiro Tira-Limo Veja X-14 Sachê 400ml Refil Econômico</t>
+          <t>Envolve , protege e conserva.</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>9.9</v>
+        <v>5.99</v>
       </c>
       <c r="F46" t="n">
-        <v>11.99</v>
+        <v>6.99</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>111</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2022-08-11T00:00:00Z</t>
+          <t>2020-10-05T00:00:00Z</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3927710/VF4qT-qqCUAAAAAAAAOGFQ.jpg?v=638733705155570000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3061098/VF4qT-qqCUAAAAAAAAGpfA.jpg?v=637794125591230000</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -3719,21 +3719,21 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>27159</t>
+          <t>9853</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>27083</t>
+          <t>9866</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>VEJA</t>
+          <t>KENTINHA</t>
         </is>
       </c>
       <c r="O46" t="n">
-        <v>2000523</v>
+        <v>2001532</v>
       </c>
       <c r="P46" t="n">
         <v>99999</v>
@@ -3742,33 +3742,33 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>papel-aluminio-rolitto-30cm-x-75-m-897795</t>
+          <t>leite-longa-vida-integral-elege-tetra-pak-1l-371289</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Papel Alumínio Rolitto 30Cm X 7,5 M</t>
+          <t>Leite Longa Vida Integral Elegê Tetra Pak 1L</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>897795</t>
+          <t>371289</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Envolve , protege e conserva.</t>
+          <t>Leite Longa Vida Integral Elegê Tetra Pak 1L</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>5.99</v>
+        <v>5.39</v>
       </c>
       <c r="F47" t="n">
-        <v>6.99</v>
+        <v>5.39</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>130</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -3778,7 +3778,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3061098/VF4qT-qqCUAAAAAAAAGpfA.jpg?v=637794125591230000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3129041/VF4qT-qqCUAAAAAAAAUbaw.jpg?v=638309476429500000</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -3791,21 +3791,21 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>9853</t>
+          <t>9974</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>9866</t>
+          <t>9988</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>KENTINHA</t>
+          <t>ELEGE</t>
         </is>
       </c>
       <c r="O47" t="n">
-        <v>2001532</v>
+        <v>2000400</v>
       </c>
       <c r="P47" t="n">
         <v>99999</v>
@@ -3814,43 +3814,43 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>biscoito-cream-cracker-piraque-pacote-184g-1105795</t>
+          <t>matte-leao-natural-pet-15l-118214</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Biscoito Cream Cracker Piraquê Pacote 184g</t>
+          <t>Matte Leão Natural Pet 1,5L</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1105795</t>
+          <t>118214</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Biscoito Salgado Cream Cracker Piraquê Pacote 184g</t>
+          <t>Renove seu humor, recicle seu ritmo e siga em frente. Experimente combinar o seu dia com o sabor inconfundível de Matte Leão.Matte Leão é feito com folhas de ervamate selecionadas e tostadas num processo único, especialmente para você.Porção de 200 mL (1 copo) = 68 kcal.</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>3.95</v>
+        <v>7.69</v>
       </c>
       <c r="F48" t="n">
-        <v>5.99</v>
+        <v>8.99</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2023-07-26T00:00:00Z</t>
+          <t>2020-10-01T00:00:00Z</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3099416/VF4qT-qqCUAAAAAAAATd0w.jpg?v=638264204522930000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3704453/VF4qT-qqCUAAAAAAAAGyOQ.jpg?v=638609291247270000</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -3863,21 +3863,21 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>33955</t>
+          <t>8709</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>33882</t>
+          <t>8721</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>PIRAQUE</t>
+          <t>LEAO</t>
         </is>
       </c>
       <c r="O48" t="n">
-        <v>2000017</v>
+        <v>2000010</v>
       </c>
       <c r="P48" t="n">
         <v>99999</v>
@@ -3886,43 +3886,43 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>matte-leao-natural-pet-15l-118214</t>
+          <t>milho-em-conserva-quero-lata-200g-476625</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Matte Leão Natural Pet 1,5L</t>
+          <t>Milho em Conserva Quero Lata 200g</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>118214</t>
+          <t>476625</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Renove seu humor, recicle seu ritmo e siga em frente. Experimente combinar o seu dia com o sabor inconfundível de Matte Leão.Matte Leão é feito com folhas de ervamate selecionadas e tostadas num processo único, especialmente para você.Porção de 200 mL (1 copo) = 68 kcal.</t>
+          <t>Sabor inigualável e cozimento na medida certa são os segredos do Milho Quero. O Milho Verde em Conserva Quero Lata 170g é ideal para receitas em pequenas quantidades. Se você prefere embalagens em lata, essa opção é ideal pra você! Para garantir a qualidade da sua receita, a Quero seleciona os vegetais com todo o cuidado, deixando o resultado final impecável. Pode confiar que seus pratos vão ficar uma delícia. Sabor e frescor para o seu dia a dia! Que tal experimentar? Quero cabe na panela, no prato e no bolso, sendo a marca queridinha entre os brasileiros.* Pode confiar que quando você tem Quero, você faz acontecer!</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>7.69</v>
+        <v>3.89</v>
       </c>
       <c r="F49" t="n">
-        <v>8.99</v>
+        <v>4.99</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>147</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2020-10-01T00:00:00Z</t>
+          <t>2020-10-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3704453/VF4qT-qqCUAAAAAAAAGyOQ.jpg?v=638609291247270000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3090347/476625_1.jpg?v=638126891970330000</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -3935,21 +3935,21 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>8709</t>
+          <t>10734</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>8721</t>
+          <t>10752</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>LEAO</t>
+          <t>QUERO</t>
         </is>
       </c>
       <c r="O49" t="n">
-        <v>2000010</v>
+        <v>2001778</v>
       </c>
       <c r="P49" t="n">
         <v>99999</v>

--- a/zonasul.xlsx
+++ b/zonasul.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P49"/>
+  <dimension ref="A1:P50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,43 +518,39 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>matte-leao-limao-pet-1-5l-118222</t>
+          <t>creme-de-leite-nestle-10--gratis-200g-1165151</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Matte Leão Limão Pet 1,5L</t>
+          <t>Creme de Leite Nestlé 10% Grátis 200g</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>118222</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>O Chá MATTE Limão Leão é um dos tipos de chás preferido dos consumidores. A marca Chá Mate Leão está presente no mercado há mais de 100 anos, sendo a marca de chá mais vendida e tradicional. Produzido com extrato aquoso de mate, açúcar e suco de limão, o Chá MATTE LEÃO Limão é a opção ideal para refrescar o seu dia! Compre e compartilhe com amigos e familiares!</t>
-        </is>
-      </c>
+          <t>1165151</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="n">
-        <v>7.69</v>
+        <v>5.99</v>
       </c>
       <c r="F2" t="n">
-        <v>8.99</v>
+        <v>5.99</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>71</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2020-10-01T00:00:00Z</t>
+          <t>2025-02-20T00:00:00Z</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3704455/VF4qT-qqCUAAAAAAAAcePQ.jpg?v=638609291270100000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4395976/VF4qT-qqCUAAAAAAAAoEeQ.jpg?v=638984266226730000</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -567,21 +563,21 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>8711</t>
+          <t>40151</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>8723</t>
+          <t>40078</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>LEAO</t>
+          <t>NESTLE</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>2000010</v>
+        <v>2000043</v>
       </c>
       <c r="P2" t="n">
         <v>99999</v>
@@ -590,39 +586,43 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>creme-de-leite-nestle-10--gratis-200g-1165151</t>
+          <t>ovos-brancos-jumbo-mantiqueira-com-10-unidades-437638</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Creme de Leite Nestlé 10% Grátis 200g</t>
+          <t>Ovos Brancos Jumbo Mantiqueira Com 10 Unidades</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1165151</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
+          <t>437638</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Os Ovos Jumbo Mantiqueira possuem maior tamanho, ideais para quem busca uma alimentação rica em vitaminas, proteínas e minerais, ou para quem gosta de um maior rendimento em suas receitas. Um único ovo contém quase todos os nutrientes necessários para manter o corpo saudável, fortalecendo os ossos e auxiliando em dietas para perda de peso ou ganho de massa.O Ovo Jumbo Mantiqueira é um produto da linha Especial da marca e possui a qualidade superior, passando por um moderno sistema de seleção, limpeza e embalagem sem contato de mãos humanas.Especificações:Ovos maiores, tamanho família.Embalagem com 10 unidades.Ovos brancos e vermelhos tipo jumbo categoria A.</t>
+        </is>
+      </c>
       <c r="E3" t="n">
-        <v>5.99</v>
+        <v>10.9</v>
       </c>
       <c r="F3" t="n">
-        <v>5.99</v>
+        <v>10.9</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-02-20T00:00:00Z</t>
+          <t>2020-09-27T00:00:00Z</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4395976/VF4qT-qqCUAAAAAAAAoEeQ.jpg?v=638984266226730000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3976126/VF4qT-qqCUAAAAAAAAh4RA.jpg?v=638769994856100000</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -635,66 +635,66 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>40151</t>
+          <t>7002</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>40078</t>
+          <t>7020</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>NESTLE</t>
+          <t>MANTIQUEIRA</t>
         </is>
       </c>
       <c r="O3" t="n">
-        <v>2000043</v>
+        <v>2001056</v>
       </c>
       <c r="P3" t="n">
-        <v>99999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>rucula-unidade-201006</t>
+          <t>alcool-montenegro-46-1-l-780570</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Rúcula Unidade</t>
+          <t>Álcool Montenegro 46% 1 L</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>201006</t>
+          <t>780570</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>A rúcula é uma hortaliça rica em sais minerais e vitaminas A e C, tem o sabor picante e cheiro agradável e acentuado. Como Conservar:A hortaliça pode ser mantida no máximo por um dia, desde que colocando em local fresco, com a parte de baixo em uma vasilha com água .Em Geladeira o produto deve ser condicionado em saco de plástico ou vasilha tampada.Como Consumir : A rúcula é tradicionalmente consumida crua em saladas, temperada com azeite, sal e limão. Também pode ser consumida como ingredientes de torta,quiche, lasanha, sanduíches e bolinhos. [ Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
+          <t>Álcool Montenegro 46% 1 L</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3.79</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>3.79</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>74</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2020-09-28T00:00:00Z</t>
+          <t>2020-10-06T10:47:00Z</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3040890/VF4qT-qqCUAAAAAAAAHLpQ.jpg?v=637792545082200000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3051579/VF4qT-qqCUAAAAAAAAG3pQ.jpg?v=637793390624870000</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -707,21 +707,21 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>7467</t>
+          <t>11598</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>7486</t>
+          <t>11621</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>MONTENEGRO</t>
         </is>
       </c>
       <c r="O4" t="n">
-        <v>2000015</v>
+        <v>2000527</v>
       </c>
       <c r="P4" t="n">
         <v>99999</v>
@@ -730,70 +730,70 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>alcool-montenegro-46-1-l-780570</t>
+          <t>mucarela-em-fatias-92363</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Álcool Montenegro 46% 1 L</t>
+          <t>Muçarela  em Fatias 200g</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>780570</t>
+          <t>92363</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Álcool Montenegro 46% 1 L</t>
+          <t>Muçarela em Fatias</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>8.789999999999999</v>
+        <v>59.9</v>
       </c>
       <c r="F5" t="n">
-        <v>8.789999999999999</v>
+        <v>59.9</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>83</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2020-10-06T10:47:00Z</t>
+          <t>2020-09-27T00:00:00Z</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3051579/VF4qT-qqCUAAAAAAAAG3pQ.jpg?v=637793390624870000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3052070/VF4qT-qqCUAAAAAAAAI4-w.jpg?v=637793416889100000</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>11598</t>
+          <t>1361</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>11621</t>
+          <t>1368</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>MONTENEGRO</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O5" t="n">
-        <v>2000527</v>
+        <v>2000015</v>
       </c>
       <c r="P5" t="n">
         <v>99999</v>
@@ -874,70 +874,70 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>mucarela-em-fatias-92363</t>
+          <t>agua-mineral-com-gas-sao-lourenco-pet-1-26-l-140805</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Muçarela  em Fatias 200g</t>
+          <t>Água Mineral Com Gás São Lourenço Pet 1,26 L</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>92363</t>
+          <t>140805</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Muçarela em Fatias</t>
+          <t>Água Mineral Com Gás São Lourenço Pet 1,26 L</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>59.9</v>
+        <v>3.89</v>
       </c>
       <c r="F7" t="n">
-        <v>59.9</v>
+        <v>5.29</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>18</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2020-09-27T00:00:00Z</t>
+          <t>2020-09-25T00:00:00Z</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3052070/VF4qT-qqCUAAAAAAAAI4-w.jpg?v=637793416889100000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3076277/VF4qT-qqCUAAAAAAAAHMBQ.jpg?v=637877821166370000</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>1361</t>
+          <t>3915</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>1368</t>
+          <t>3929</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>SAO LOURENCO</t>
         </is>
       </c>
       <c r="O7" t="n">
-        <v>2000015</v>
+        <v>2000145</v>
       </c>
       <c r="P7" t="n">
         <v>99999</v>
@@ -1018,70 +1018,70 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>agua-mineral-com-gas-sao-lourenco-pet-1-26-l-140805</t>
+          <t>batata-inglesa-cariorta-12kg-98698</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Água Mineral Com Gás São Lourenço Pet 1,26 L</t>
+          <t>Batata Inglesa Cariorta 1,2Kg</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>140805</t>
+          <t>98698</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Água Mineral Com Gás São Lourenço Pet 1,26 L</t>
+          <t>Cariorta selecionados de coração.</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3.89</v>
+        <v>7.99</v>
       </c>
       <c r="F9" t="n">
-        <v>5.29</v>
+        <v>7.99</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>483</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2020-09-25T00:00:00Z</t>
+          <t>2020-12-16T00:00:00Z</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3076277/VF4qT-qqCUAAAAAAAAHMBQ.jpg?v=637877821166370000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3082670/VF4qT-qqCUAAAAAAAAOOew.jpg?v=637979987993130000</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>3915</t>
+          <t>16570</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>3929</t>
+          <t>16461</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>SAO LOURENCO</t>
+          <t>CARIORTA</t>
         </is>
       </c>
       <c r="O9" t="n">
-        <v>2000145</v>
+        <v>2001012</v>
       </c>
       <c r="P9" t="n">
         <v>99999</v>
@@ -1090,70 +1090,70 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>batata-inglesa-cariorta-12kg-98698</t>
+          <t>tomate-italiano-unidade-495212</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Batata Inglesa Cariorta 1,2Kg</t>
+          <t>Tomate Italiano Unidade</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>98698</t>
+          <t>495212</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Cariorta selecionados de coração.</t>
+          <t>Tomate Italiano Unidade</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>7.99</v>
+        <v>1.53</v>
       </c>
       <c r="F10" t="n">
-        <v>7.99</v>
+        <v>1.53</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>53</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2020-12-16T00:00:00Z</t>
+          <t>2020-09-27T00:00:00Z</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3082670/VF4qT-qqCUAAAAAAAAOOew.jpg?v=637979987993130000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3094266/VF4qT-qqCUAAAAAAAASLmg.jpg?v=638191532599970000</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K10" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>16570</t>
+          <t>6965</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>16461</t>
+          <t>6983</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>CARIORTA</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O10" t="n">
-        <v>2001012</v>
+        <v>2000015</v>
       </c>
       <c r="P10" t="n">
         <v>99999</v>
@@ -1162,43 +1162,43 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>tomate-italiano-unidade-495212</t>
+          <t>cheiro-verde-unidade-201049</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Tomate Italiano Unidade</t>
+          <t>Cheiro Verde Unidade</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>495212</t>
+          <t>201049</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Tomate Italiano Unidade</t>
+          <t>O cheiro verde é a combinação da cebolinha e salsinha .Como conservar:Em geladeira por até 5 dias em saco ou vasilha de plástico.Como consumir:Podem ser adicionadas cruas, em saladas e recheios de sanduíches e como ingredientes em marinadas.</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1.53</v>
+        <v>3.79</v>
       </c>
       <c r="F11" t="n">
-        <v>1.53</v>
+        <v>3.79</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2020-09-27T00:00:00Z</t>
+          <t>2020-09-28T00:00:00Z</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3094266/VF4qT-qqCUAAAAAAAASLmg.jpg?v=638191532599970000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3457712/VF4qT-qqCUAAAAAAAAXvTg.jpg?v=638507335658200000</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1211,12 +1211,12 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>6965</t>
+          <t>7411</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>6983</t>
+          <t>7430</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1234,43 +1234,43 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>cheiro-verde-unidade-201049</t>
+          <t>cafe-torrado-e-moido-pilao-tradicional-500g-828025</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Cheiro Verde Unidade</t>
+          <t>Café Torrado E Moído Pilão Tradicional Fresh Pack 500g</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>201049</t>
+          <t>828025</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>O cheiro verde é a combinação da cebolinha e salsinha .Como conservar:Em geladeira por até 5 dias em saco ou vasilha de plástico.Como consumir:Podem ser adicionadas cruas, em saladas e recheios de sanduíches e como ingredientes em marinadas.</t>
+          <t>Tem um ponto de torra acentuado e um processo de moagem fina e uniforme, que garantem e preservam seu sabor forte e encorpado.É perfeito para servir em dia de casa cheia, pois seu sabor tradicional agrada a todo mundo.</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>3.79</v>
+        <v>31.98</v>
       </c>
       <c r="F12" t="n">
-        <v>3.79</v>
+        <v>43.9</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>59</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2020-09-28T00:00:00Z</t>
+          <t>2020-09-15T00:00:00Z</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3457712/VF4qT-qqCUAAAAAAAAXvTg.jpg?v=638507335658200000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3051146/VF4qT-qqCUAAAAAAAAG1sQ.jpg?v=637793369863530000</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1283,21 +1283,21 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>7411</t>
+          <t>130</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>7430</t>
+          <t>135</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>PILAO</t>
         </is>
       </c>
       <c r="O12" t="n">
-        <v>2000015</v>
+        <v>2000070</v>
       </c>
       <c r="P12" t="n">
         <v>99999</v>
@@ -1325,7 +1325,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5.39</v>
+        <v>4.79</v>
       </c>
       <c r="F13" t="n">
         <v>5.39</v>
@@ -1378,43 +1378,43 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>cafe-torrado-e-moido-pilao-tradicional-500g-828025</t>
+          <t>abacaxi-unidade-221</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Café Torrado E Moído Pilão Tradicional Fresh Pack 500g</t>
+          <t>Abacaxi Unidade</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>828025</t>
+          <t>221</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Tem um ponto de torra acentuado e um processo de moagem fina e uniforme, que garantem e preservam seu sabor forte e encorpado.É perfeito para servir em dia de casa cheia, pois seu sabor tradicional agrada a todo mundo.</t>
+          <t>Peso Aproximado 1,61,8Kg / Unidade.O Abacaxi é rico em Vitaminas A, B5, B6, C, BetaCaroteno, Tiamina, Antioxidantes e Fibras, auxiliando na saciedade e regulação do peso. É uma Importante fonte de energia póstreino. Auxilia nos processos antiinflamatórios por conter Bromelina, enzima encontrada principalmente no talo da fruta. Como preparar: no seu estado natural cortado, em saladas, assado, grelhado, sucos, geleias, sorvetes e chás.</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>31.98</v>
+        <v>8.99</v>
       </c>
       <c r="F14" t="n">
-        <v>43.9</v>
+        <v>10.99</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2020-09-15T00:00:00Z</t>
+          <t>2020-09-26T00:00:00Z</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3051146/VF4qT-qqCUAAAAAAAAG1sQ.jpg?v=637793369863530000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3041923/VF4qT-qqCUAAAAAAAAFtXw.jpg?v=637792593143530000</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1427,66 +1427,66 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>4959</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>4975</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>PILAO</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O14" t="n">
-        <v>2000070</v>
+        <v>2000015</v>
       </c>
       <c r="P14" t="n">
-        <v>99999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>abacaxi-unidade-221</t>
+          <t>detergente-para-loucas-odd-clear-500ml-982911</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Abacaxi Unidade</t>
+          <t>Detergente Para Louças Odd Clear 500ml</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>982911</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Peso Aproximado 1,61,8Kg / Unidade.O Abacaxi é rico em Vitaminas A, B5, B6, C, BetaCaroteno, Tiamina, Antioxidantes e Fibras, auxiliando na saciedade e regulação do peso. É uma Importante fonte de energia póstreino. Auxilia nos processos antiinflamatórios por conter Bromelina, enzima encontrada principalmente no talo da fruta. Como preparar: no seu estado natural cortado, em saladas, assado, grelhado, sucos, geleias, sorvetes e chás.</t>
+          <t>ODD voltou!Alto rendimento , controle de odor.</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>10.99</v>
+        <v>1.9</v>
       </c>
       <c r="F15" t="n">
-        <v>10.99</v>
+        <v>2.49</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>76</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2020-09-26T00:00:00Z</t>
+          <t>2020-10-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3041923/VF4qT-qqCUAAAAAAAAFtXw.jpg?v=637792593143530000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3056732/VF4qT-qqCUAAAAAAAAHzRQ.jpg?v=637793635376800000</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1499,66 +1499,62 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>4959</t>
+          <t>11872</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>4975</t>
+          <t>11898</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>LIMPPANO</t>
         </is>
       </c>
       <c r="O15" t="n">
-        <v>2000015</v>
+        <v>2001341</v>
       </c>
       <c r="P15" t="n">
-        <v>100</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>leite-uht-piracanjuba-integral-1l-865427</t>
+          <t>ovos-vermelhos-caipira-happy-eggs-com-20-unidades-370550</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Leite Uht Piracanjuba Integral 1L</t>
+          <t>Ovos Vermelhos Caipira Happy Eggs Com 20 Unidades</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>865427</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>No café da manhã, em um delicioso lanche da tarde ou até mesmo antes de dormir, o Leite Piracanjuba cumpre bem o seu papel principal: trazer mais sabor para os seus momentos especiais e para as suas receitas. Mais sabor para todos os momentos.</t>
-        </is>
-      </c>
+          <t>370550</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="n">
-        <v>5.59</v>
+        <v>24.99</v>
       </c>
       <c r="F16" t="n">
-        <v>5.59</v>
+        <v>24.99</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2017-04-12T00:00:00Z</t>
+          <t>2020-09-27T00:00:00Z</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3294485/VF4qT-qqCUAAAAAAAAWbgQ.jpg?v=638412300289570000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4343192/VF4qT-qqCUAAAAAAAAn9QA.jpg?v=638956617627730000</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1571,21 +1567,21 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>23232</t>
+          <t>6939</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>23158</t>
+          <t>6957</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>PIRACANJUBA</t>
+          <t>HAPPY EGGS</t>
         </is>
       </c>
       <c r="O16" t="n">
-        <v>2002038</v>
+        <v>2003319</v>
       </c>
       <c r="P16" t="n">
         <v>99999</v>
@@ -1594,39 +1590,43 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ovos-vermelhos-caipira-happy-eggs-com-20-unidades-370550</t>
+          <t>couve-flor-unidade-189111</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Ovos Vermelhos Caipira Happy Eggs Com 20 Unidades</t>
+          <t>Couve Flor Unidade</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>370550</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
+          <t>189111</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>A couveflor é uma hortaliça rica em cálcio e fósforo e fonte de ácido fólico e vitamina C . Como Conservar:Na geladeira pode ser conservada por 3 a 5 dias, dentro de saco plástico perfurado. Antes de guardar, remova as partes escuras e folhas, mas não lave a cabeça.Como Consumir:Pode ser consumida assada, frita ou cozinhe em água e sal. [Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
+        </is>
+      </c>
       <c r="E17" t="n">
-        <v>24.99</v>
+        <v>9.99</v>
       </c>
       <c r="F17" t="n">
-        <v>24.99</v>
+        <v>9.99</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>53</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2020-09-27T00:00:00Z</t>
+          <t>2020-09-28T00:00:00Z</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4343192/VF4qT-qqCUAAAAAAAAn9QA.jpg?v=638956617627730000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3041615/VF4qT-qqCUAAAAAAAAGF4Q.jpg?v=637792579893500000</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1639,21 +1639,21 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>6939</t>
+          <t>7446</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>6957</t>
+          <t>7465</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>HAPPY EGGS</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O17" t="n">
-        <v>2003319</v>
+        <v>2000015</v>
       </c>
       <c r="P17" t="n">
         <v>99999</v>
@@ -1662,43 +1662,43 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>couve-flor-unidade-189111</t>
+          <t>ovos-vermelhos-mantiqueira-happy-eggs-com-10-unidades-5106753</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Couve Flor Unidade</t>
+          <t>Ovos Vermelhos Mantiqueira Happy Eggs com 10 Unidades</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>189111</t>
+          <t>5106753</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>A couveflor é uma hortaliça rica em cálcio e fósforo e fonte de ácido fólico e vitamina C . Como Conservar:Na geladeira pode ser conservada por 3 a 5 dias, dentro de saco plástico perfurado. Antes de guardar, remova as partes escuras e folhas, mas não lave a cabeça.Como Consumir:Pode ser consumida assada, frita ou cozinhe em água e sal. [Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
+          <t>Produzidos por galinhas criadas livres de gaiolas. Garantia de Bem-Estar Animal. Ovos Vermelhos Tipo Grande Categoria A. Embalagem com 10 unidades.</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>9.99</v>
+        <v>11.99</v>
       </c>
       <c r="F18" t="n">
-        <v>9.99</v>
+        <v>11.99</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2020-09-28T00:00:00Z</t>
+          <t>2021-01-11T00:00:00Z</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3041615/VF4qT-qqCUAAAAAAAAGF4Q.jpg?v=637792579893500000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4222023/VF4qT-qqCUAAAAAAAAStHA.jpg?v=638894405636230000</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1711,21 +1711,21 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>7446</t>
+          <t>18105</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>7465</t>
+          <t>17997</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>HAPPY EGGS</t>
         </is>
       </c>
       <c r="O18" t="n">
-        <v>2000015</v>
+        <v>2003319</v>
       </c>
       <c r="P18" t="n">
         <v>99999</v>
@@ -1734,43 +1734,43 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>detergente-para-loucas-odd-clear-500ml-982911</t>
+          <t>leite-uht-piracanjuba-integral-1l-865427</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Detergente Para Louças Odd Clear 500ml</t>
+          <t>Leite Uht Piracanjuba Integral 1L</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>982911</t>
+          <t>865427</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>ODD voltou!Alto rendimento , controle de odor.</t>
+          <t>No café da manhã, em um delicioso lanche da tarde ou até mesmo antes de dormir, o Leite Piracanjuba cumpre bem o seu papel principal: trazer mais sabor para os seus momentos especiais e para as suas receitas. Mais sabor para todos os momentos.</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1.9</v>
+        <v>5.59</v>
       </c>
       <c r="F19" t="n">
-        <v>2.49</v>
+        <v>5.59</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>130</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2020-10-06T00:00:00Z</t>
+          <t>2017-04-12T00:00:00Z</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3056732/VF4qT-qqCUAAAAAAAAHzRQ.jpg?v=637793635376800000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3294485/VF4qT-qqCUAAAAAAAAWbgQ.jpg?v=638412300289570000</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1783,21 +1783,21 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>11872</t>
+          <t>23232</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>11898</t>
+          <t>23158</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>LIMPPANO</t>
+          <t>PIRACANJUBA</t>
         </is>
       </c>
       <c r="O19" t="n">
-        <v>2001341</v>
+        <v>2002038</v>
       </c>
       <c r="P19" t="n">
         <v>99999</v>
@@ -1806,22 +1806,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ovos-vermelhos-mantiqueira-happy-eggs-com-10-unidades-5106753</t>
+          <t>limao-cariorta-1kg-98981</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Ovos Vermelhos Mantiqueira Happy Eggs com 10 Unidades</t>
+          <t>Limão Cariorta 1Kg</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>5106753</t>
+          <t>98981</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Produzidos por galinhas criadas livres de gaiolas. Garantia de Bem-Estar Animal. Ovos Vermelhos Tipo Grande Categoria A. Embalagem com 10 unidades.</t>
+          <t>Cariorta selecionados de coração.</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -1832,22 +1832,22 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>482</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2021-01-11T00:00:00Z</t>
+          <t>2020-05-20T00:00:00Z</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4222023/VF4qT-qqCUAAAAAAAAStHA.jpg?v=638894405636230000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3084385/VF4qT-qqCUAAAAAAAAOgIg.jpg?v=638000868147970000</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K20" t="n">
@@ -1855,21 +1855,21 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>18105</t>
+          <t>24698</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>17997</t>
+          <t>24622</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>HAPPY EGGS</t>
+          <t>CARIORTA</t>
         </is>
       </c>
       <c r="O20" t="n">
-        <v>2003319</v>
+        <v>2001012</v>
       </c>
       <c r="P20" t="n">
         <v>99999</v>
@@ -1878,43 +1878,39 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>limao-cariorta-1kg-98981</t>
+          <t>pao-frances-panetto-60g-com-4-unidades-96318</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Limão Cariorta 1Kg</t>
+          <t>Pão Francês Panetto  60g Com 4 unidades</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>98981</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Cariorta selecionados de coração.</t>
-        </is>
-      </c>
+          <t>96318</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="n">
-        <v>11.99</v>
+        <v>24.99</v>
       </c>
       <c r="F21" t="n">
-        <v>11.99</v>
+        <v>24.99</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>89</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2020-05-20T00:00:00Z</t>
+          <t>2024-01-31T00:00:00Z</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3084385/VF4qT-qqCUAAAAAAAAOgIg.jpg?v=638000868147970000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3307700/VF4qT-qqCUAAAAAAAAWnXQ.jpg?v=638932898013670000</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1923,25 +1919,25 @@
         </is>
       </c>
       <c r="K21" t="n">
-        <v>1</v>
+        <v>0.24</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>24698</t>
+          <t>35477</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>24622</t>
+          <t>35404</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>CARIORTA</t>
+          <t>PANETTO</t>
         </is>
       </c>
       <c r="O21" t="n">
-        <v>2001012</v>
+        <v>2000307</v>
       </c>
       <c r="P21" t="n">
         <v>99999</v>
@@ -1950,66 +1946,70 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>pao-frances-panetto-60g-com-4-unidades-96318</t>
+          <t>azeite-italiano-extra-virgem-due-500ml-5472040</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Pão Francês Panetto  60g Com 4 unidades</t>
+          <t>Azeite Italiano Extravirgem Due 500ml</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>96318</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
+          <t>5472040</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>O azeite Due é um blend de azeites do Mediterrâneo que confere um resultado clássico e ideal para o cotidiano da cozinha. Sua elaboração conta com uma seleção cautelosamente realizada pelo Expert em Azeites e Temperos Marcelo Scofano, que anualmente viaja à Toscana (Itália), onde o azeite é produzido, para cuidar de cada detalhe pessoalmente.Due é um azeite clássico, ideal para o dia a dia da cozinha: marinados, refogados, emulsão de molhos, finalização de saladas, massas e pratos do cotidiano. O azeite clássico é extraído de azeitonas maduras. Possui sabor amendoado, com notas amargas e picantes em equilíbrio.O azeite Due faz parte da grupo de marcas exclusivas Zona Sul, criada e pensada com carinho para os cariocas de coração. O planejamento de cada produto exclusivo conta com a participação dos Experts Zona Sul em todo o processo, até chegar na sua mesa. E com a linha Due não é diferente!</t>
+        </is>
+      </c>
       <c r="E22" t="n">
-        <v>24.99</v>
+        <v>36.9</v>
       </c>
       <c r="F22" t="n">
-        <v>24.99</v>
+        <v>36.9</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>597</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2024-01-31T00:00:00Z</t>
+          <t>2025-05-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3307700/VF4qT-qqCUAAAAAAAAWnXQ.jpg?v=638932898013670000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4116721/VF4qT-qqCUAAAAAAAAiyjQ.jpg?v=638846625781330000</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K22" t="n">
-        <v>0.24</v>
+        <v>1</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>35477</t>
+          <t>40224</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>35404</t>
+          <t>40151</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>PANETTO</t>
+          <t>DUE</t>
         </is>
       </c>
       <c r="O22" t="n">
-        <v>2000307</v>
+        <v>2005138</v>
       </c>
       <c r="P22" t="n">
         <v>99999</v>
@@ -2018,43 +2018,43 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>azeite-italiano-extra-virgem-due-500ml-5472040</t>
+          <t>morango-250g-289612</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Azeite Italiano Extravirgem Due 500ml</t>
+          <t>Morango 250g</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>5472040</t>
+          <t>289612</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>O azeite Due é um blend de azeites do Mediterrâneo que confere um resultado clássico e ideal para o cotidiano da cozinha. Sua elaboração conta com uma seleção cautelosamente realizada pelo Expert em Azeites e Temperos Marcelo Scofano, que anualmente viaja à Toscana (Itália), onde o azeite é produzido, para cuidar de cada detalhe pessoalmente.Due é um azeite clássico, ideal para o dia a dia da cozinha: marinados, refogados, emulsão de molhos, finalização de saladas, massas e pratos do cotidiano. O azeite clássico é extraído de azeitonas maduras. Possui sabor amendoado, com notas amargas e picantes em equilíbrio.O azeite Due faz parte da grupo de marcas exclusivas Zona Sul, criada e pensada com carinho para os cariocas de coração. O planejamento de cada produto exclusivo conta com a participação dos Experts Zona Sul em todo o processo, até chegar na sua mesa. E com a linha Due não é diferente!</t>
+          <t>Embalagem com 250g "O morango é rico em vitamina C e, por isso, o consumo da fruta evita a fragilidade dos ossos e a má formação dos dentes. Ele também dá resistência aos tecidos, age contra infecções ajudando na cicatrização. O morango também possui, em menor quantidade, vitamina B5, conhecida como niacina. Ela tem a função de evitar problemas de pele, do aparelho digestivo e do sistema nervoso. Na fruta, também é encontrado ferro, que faz parte da formação do sangue."</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>36.9</v>
+        <v>9.99</v>
       </c>
       <c r="F23" t="n">
-        <v>36.9</v>
+        <v>9.99</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-06T00:00:00Z</t>
+          <t>2020-09-26T00:00:00Z</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4116721/VF4qT-qqCUAAAAAAAAiyjQ.jpg?v=638846625781330000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3226559/VF4qT-qqCUAAAAAAAAHKNA.jpg?v=638352676547800000</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -2067,21 +2067,21 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>40224</t>
+          <t>5152</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>40151</t>
+          <t>5168</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>DUE</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O23" t="n">
-        <v>2005138</v>
+        <v>2000015</v>
       </c>
       <c r="P23" t="n">
         <v>99999</v>
@@ -2109,7 +2109,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>26.99</v>
+        <v>24.99</v>
       </c>
       <c r="F24" t="n">
         <v>26.99</v>
@@ -2156,49 +2156,49 @@
         <v>2000057</v>
       </c>
       <c r="P24" t="n">
-        <v>100</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>morango-250g-289612</t>
+          <t>detergente-para-loucas-biodegradavel-limpol-neutro-500-ml-100510</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Morango 250g</t>
+          <t>Detergente Para Louças Biodegradável Limpol Neutro 500ml</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>289612</t>
+          <t>100510</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Embalagem com 250g "O morango é rico em vitamina C e, por isso, o consumo da fruta evita a fragilidade dos ossos e a má formação dos dentes. Ele também dá resistência aos tecidos, age contra infecções ajudando na cicatrização. O morango também possui, em menor quantidade, vitamina B5, conhecida como niacina. Ela tem a função de evitar problemas de pele, do aparelho digestivo e do sistema nervoso. Na fruta, também é encontrado ferro, que faz parte da formação do sangue."</t>
+          <t>O Lava-Louças Limpol é eficiente no poder da limpeza, remoção da gordura e sujeiras e no combate aos maus odores indesejados da cozinha. Sua fórmula é dermatologicamente testada e contém glicerina, tornando-a mais suave para as mãos.</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>9.99</v>
+        <v>2.79</v>
       </c>
       <c r="F25" t="n">
-        <v>9.99</v>
+        <v>2.79</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>76</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2020-09-26T00:00:00Z</t>
+          <t>2020-10-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3226559/VF4qT-qqCUAAAAAAAAHKNA.jpg?v=638352676547800000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3269221/12054_1.jpg?v=638386029717470000</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2211,21 +2211,21 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>5152</t>
+          <t>12054</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>5168</t>
+          <t>12081</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>LIMPOL</t>
         </is>
       </c>
       <c r="O25" t="n">
-        <v>2000015</v>
+        <v>2001413</v>
       </c>
       <c r="P25" t="n">
         <v>99999</v>
@@ -2378,43 +2378,43 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>detergente-para-loucas-biodegradavel-limpol-neutro-500-ml-100510</t>
+          <t>guardanapo-folha-dupla-scott-grand-hotel-jantar-33×33-cm-com-50-unidades-129887</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Detergente Para Louças Biodegradável Limpol Neutro 500ml</t>
+          <t>Guardanapo Folha Dupla Scott Grand Hotel Jantar 33×33 Cm Com 50 Unidades</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>100510</t>
+          <t>129887</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>O Lava-Louças Limpol é eficiente no poder da limpeza, remoção da gordura e sujeiras e no combate aos maus odores indesejados da cozinha. Sua fórmula é dermatologicamente testada e contém glicerina, tornando-a mais suave para as mãos.</t>
+          <t>O Guardanapo Grand Hotel folha tripla é mais sofisticado e garante uma maciez superior para todos os momentos. Contém 50 folhas de tamanho 31,8x32,8 cm cada.</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>2.79</v>
+        <v>12.99</v>
       </c>
       <c r="F28" t="n">
-        <v>2.79</v>
+        <v>12.99</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>111</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2020-10-06T00:00:00Z</t>
+          <t>2020-10-05T00:00:00Z</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3269221/12054_1.jpg?v=638386029717470000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3078100/129887_1.jpg?v=637895346534630000</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2427,21 +2427,21 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>12054</t>
+          <t>9427</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>12081</t>
+          <t>9439</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>LIMPOL</t>
+          <t>GRANDE HOTEL</t>
         </is>
       </c>
       <c r="O28" t="n">
-        <v>2001413</v>
+        <v>2001401</v>
       </c>
       <c r="P28" t="n">
         <v>99999</v>
@@ -2450,29 +2450,25 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>guardanapo-folha-dupla-scott-grand-hotel-jantar-33×33-cm-com-50-unidades-129887</t>
+          <t>papel-toalha-coquetel-19cm-x-19cm-com-2-rolos-com-60-folhas-cada-783242</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Guardanapo Folha Dupla Scott Grand Hotel Jantar 33×33 Cm Com 50 Unidades</t>
+          <t>Papel Toalha Coquetel 19Cm X 19Cm com 2 Rolos com 60 Folhas Cada</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>129887</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>O Guardanapo Grand Hotel folha tripla é mais sofisticado e garante uma maciez superior para todos os momentos. Contém 50 folhas de tamanho 31,8x32,8 cm cada.</t>
-        </is>
-      </c>
+          <t>783242</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="n">
-        <v>12.99</v>
+        <v>6.99</v>
       </c>
       <c r="F29" t="n">
-        <v>12.99</v>
+        <v>6.99</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -2481,12 +2477,12 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2020-10-05T00:00:00Z</t>
+          <t>2020-10-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3078100/129887_1.jpg?v=637895346534630000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3050348/VF4qT-qqCUAAAAAAAAJRgg.jpg?v=637793335676500000</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2499,21 +2495,21 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>9427</t>
+          <t>11627</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>9439</t>
+          <t>11650</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>GRANDE HOTEL</t>
+          <t>COQUETEL</t>
         </is>
       </c>
       <c r="O29" t="n">
-        <v>2001401</v>
+        <v>2001855</v>
       </c>
       <c r="P29" t="n">
         <v>99999</v>
@@ -2522,39 +2518,43 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>papel-toalha-coquetel-19cm-x-19cm-com-2-rolos-com-60-folhas-cada-783242</t>
+          <t>la-de-aco-bombril-com-6-unidades-45g-1180320</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Papel Toalha Coquetel 19Cm X 19Cm com 2 Rolos com 60 Folhas Cada</t>
+          <t>Lã de Aço Bombril com 6 Unidades 45g</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>783242</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
+          <t>1180320</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Uso: Ideal para limpeza de panelas, utensílios de cozinha, superfícies metálicas e outras áreas que necessitam de uma limpeza mais intensa.Remove sujeiras difíceis, incluindo resíduos de alimentos queimados e ferrugem.</t>
+        </is>
+      </c>
       <c r="E30" t="n">
-        <v>6.99</v>
+        <v>2.19</v>
       </c>
       <c r="F30" t="n">
-        <v>6.99</v>
+        <v>2.99</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>78</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2020-10-06T00:00:00Z</t>
+          <t>2025-07-17T00:00:00Z</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3050348/VF4qT-qqCUAAAAAAAAJRgg.jpg?v=637793335676500000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4216409/VF4qT-qqCUAAAAAAAAko5g.jpg?v=638889221726300000</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -2567,66 +2567,66 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>11627</t>
+          <t>41130</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>11650</t>
+          <t>41057</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>COQUETEL</t>
+          <t>BOMBRIL</t>
         </is>
       </c>
       <c r="O30" t="n">
-        <v>2001855</v>
+        <v>2001389</v>
       </c>
       <c r="P30" t="n">
-        <v>100</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>la-de-aco-bombril-com-6-unidades-45g-1180320</t>
+          <t>coentro-unidade-200930</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Lã de Aço Bombril com 6 Unidades 45g</t>
+          <t>Coentro Unidade</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1180320</t>
+          <t>200930</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Uso: Ideal para limpeza de panelas, utensílios de cozinha, superfícies metálicas e outras áreas que necessitam de uma limpeza mais intensa.Remove sujeiras difíceis, incluindo resíduos de alimentos queimados e ferrugem.</t>
+          <t>Coentro Unidade</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>2.19</v>
+        <v>3.79</v>
       </c>
       <c r="F31" t="n">
-        <v>2.99</v>
+        <v>3.79</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-07-17T00:00:00Z</t>
+          <t>2020-09-28T00:00:00Z</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4216409/VF4qT-qqCUAAAAAAAAko5g.jpg?v=638889221726300000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3076728/VF4qT-qqCUAAAAAAAAGF4g.jpg?v=637877840364830000</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -2639,21 +2639,21 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>41130</t>
+          <t>7408</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>41057</t>
+          <t>7427</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>BOMBRIL</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O31" t="n">
-        <v>2001389</v>
+        <v>2000015</v>
       </c>
       <c r="P31" t="n">
         <v>99999</v>
@@ -2662,43 +2662,43 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>coentro-unidade-200930</t>
+          <t>pao-de-queijo-forno-de-minas-tradicional--400-g-456110</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Coentro Unidade</t>
+          <t>Pão De Queijo Forno De Minas Tradicional 400g</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>200930</t>
+          <t>456110</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Coentro Unidade</t>
+          <t>Pão De Queijo Forno De Minas Tradicional 400g</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>3.79</v>
+        <v>21.99</v>
       </c>
       <c r="F32" t="n">
-        <v>3.79</v>
+        <v>21.99</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>119</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2020-09-28T00:00:00Z</t>
+          <t>2020-10-20T00:00:00Z</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3076728/VF4qT-qqCUAAAAAAAAGF4g.jpg?v=637877840364830000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3041185/VF4qT-qqCUAAAAAAAAHIag.jpg?v=637792557833470000</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2711,66 +2711,66 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>7408</t>
+          <t>13544</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>7427</t>
+          <t>13564</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>FORNO MINAS</t>
         </is>
       </c>
       <c r="O32" t="n">
-        <v>2000015</v>
+        <v>2001500</v>
       </c>
       <c r="P32" t="n">
-        <v>99999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>pao-de-queijo-forno-de-minas-tradicional--400-g-456110</t>
+          <t>sal-refinado-iodado-ita-1kg-117293</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Pão De Queijo Forno De Minas Tradicional 400g</t>
+          <t>Sal Refinado Iodado Ita 1kg</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>456110</t>
+          <t>117293</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Pão De Queijo Forno De Minas Tradicional 400g</t>
+          <t>Sal Refinado Iodado Ita 1kg</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>21.99</v>
+        <v>3.65</v>
       </c>
       <c r="F33" t="n">
-        <v>21.99</v>
+        <v>3.65</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2020-10-20T00:00:00Z</t>
+          <t>2020-09-15T00:00:00Z</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3041185/VF4qT-qqCUAAAAAAAAHIag.jpg?v=637792557833470000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3076051/VF4qT-qqCUAAAAAAAAKZcQ.jpg?v=637877811480070000</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2783,21 +2783,21 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>13544</t>
+          <t>126</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>13564</t>
+          <t>131</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>FORNO MINAS</t>
+          <t>ITA</t>
         </is>
       </c>
       <c r="O33" t="n">
-        <v>2001500</v>
+        <v>2000066</v>
       </c>
       <c r="P33" t="n">
         <v>99999</v>
@@ -2806,214 +2806,214 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>papel-higienico-folha-tripla-neve-supreme-dermacare-pacote-leve-16-pague-15-unidades-981168</t>
+          <t>cebola-roxa-400g-38393</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Papel Higiênico Folha Tripla Neve Supreme Dermacare Pacote Leve 16 Pague 15 Unidades</t>
+          <t>Cebola Roxa 400g</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>981168</t>
+          <t>38393</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Papel higiênico neutro folha tripla de alta qualidade. Neve quer ajudar as pessoas a cuidarem de si, por isso desenvolveu um produto que proporciona maciez insuperável com mais absorção e resistência.</t>
+          <t>Embalagem com 2 a 3 unidades. Melhor para comer cru; Use : no guacamole, em conserva, na salada, no sanduíche.</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>32.19</v>
+        <v>6.99</v>
       </c>
       <c r="F34" t="n">
-        <v>32.19</v>
+        <v>6.99</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2020-09-22T00:00:00Z</t>
+          <t>2020-09-26T00:00:00Z</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4430737/VF4qT-qqCUAAAAAAAAoMMw.jpg?v=639014499358300000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3081506/VF4qT-qqCUAAAAAAAAOBng.jpg?v=637947101712670000</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K34" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>1262</t>
+          <t>5543</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>1269</t>
+          <t>5559</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>NEVE</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O34" t="n">
-        <v>2000291</v>
+        <v>2000015</v>
       </c>
       <c r="P34" t="n">
-        <v>99999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>sal-refinado-iodado-ita-1kg-117293</t>
+          <t>mamao-papaia-cariorta-12kg-99007</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Sal Refinado Iodado Ita 1kg</t>
+          <t>Mamão Papaia Cariorta 1,2kg</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>117293</t>
+          <t>99007</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Sal Refinado Iodado Ita 1kg</t>
+          <t>Cariorta selecionados de coração.</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>3.65</v>
+        <v>15.99</v>
       </c>
       <c r="F35" t="n">
-        <v>3.65</v>
+        <v>15.99</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>482</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2020-09-15T00:00:00Z</t>
+          <t>2020-05-20T00:00:00Z</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3076051/VF4qT-qqCUAAAAAAAAKZcQ.jpg?v=637877811480070000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3082688/VF4qT-qqCUAAAAAAAAOOog.jpg?v=637980006057500000</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K35" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>24413</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>24337</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>ITA</t>
+          <t>CARIORTA</t>
         </is>
       </c>
       <c r="O35" t="n">
-        <v>2000066</v>
+        <v>2001012</v>
       </c>
       <c r="P35" t="n">
-        <v>100</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>mamao-papaia-cariorta-12kg-99007</t>
+          <t>refrigerante-coca-cola-sem-acucar-pet-600-ml-429392</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Mamão Papaia Cariorta 1,2kg</t>
+          <t>Refrigerante Coca Cola Sem Açúcar Pet 600ml</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>99007</t>
+          <t>429392</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Cariorta selecionados de coração.</t>
+          <t>A Coca-Cola Sem Açúcar é um refrigerante que não contém calorias! Com certeza você já se perguntou: “Então, de onde vem aquele gostinho doce? ” A Coca-Cola Sem Açúcar é produzida especialmente com adoçantes para manter o delicioso sabor de Coca-Cola porém com 0% Açucar. Perfeita para matar sua sede a qualquer hora do dia!</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>15.99</v>
+        <v>5.69</v>
       </c>
       <c r="F36" t="n">
-        <v>15.99</v>
+        <v>5.69</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2020-05-20T00:00:00Z</t>
+          <t>2020-10-01T00:00:00Z</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3082688/VF4qT-qqCUAAAAAAAAOOog.jpg?v=637980006057500000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4483407/VF4qT-qqCUAAAAAAAAoapA.jpg?v=639052524553700000</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K36" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>24413</t>
+          <t>8816</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>24337</t>
+          <t>8828</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>CARIORTA</t>
+          <t>COCA COLA</t>
         </is>
       </c>
       <c r="O36" t="n">
-        <v>2001012</v>
+        <v>2000027</v>
       </c>
       <c r="P36" t="n">
         <v>99999</v>
@@ -3022,43 +3022,43 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>refrigerante-coca-cola-sem-acucar-pet-600-ml-429392</t>
+          <t>espinafre-unidade-200948</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Refrigerante Coca Cola Sem Açúcar Pet 600ml</t>
+          <t>Espinafre Unidade</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>429392</t>
+          <t>200948</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>A Coca-Cola Sem Açúcar é um refrigerante que não contém calorias! Com certeza você já se perguntou: “Então, de onde vem aquele gostinho doce? ” A Coca-Cola Sem Açúcar é produzida especialmente com adoçantes para manter o delicioso sabor de Coca-Cola porém com 0% Açucar. Perfeita para matar sua sede a qualquer hora do dia!</t>
+          <t>O espinafre é uma hortaliça saborosa, rica em ferro e também é fonte de vitamina A e B2, além de fornecer cálcio, fósforo, potássio e magnésio, é indicado também para pessoas com anemia e desnutrição.Como conservar :Sob refrigeração, pode ser mantido por no máximo 5 dias. Antes de colocálo na geladeira, lave as folhas, escorra o excesso de água e coloqueo em sacos de plástico perfurados ou em vasilha de plástico.Como consumir :O espinafre também pode ser usado em saladas, sopas,suflês omeletes. É ótimo como recheio ou acompanhamento de massas como macarrão, quiche, tortas, pastéis e assados. [Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>5.69</v>
+        <v>2.89</v>
       </c>
       <c r="F37" t="n">
-        <v>5.69</v>
+        <v>3.79</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2020-10-01T00:00:00Z</t>
+          <t>2020-09-28T00:00:00Z</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4483407/VF4qT-qqCUAAAAAAAAoapA.jpg?v=639052524553700000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3076729/VF4qT-qqCUAAAAAAAAKBdQ.jpg?v=637877840409270000</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -3071,21 +3071,21 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>8816</t>
+          <t>7464</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>8828</t>
+          <t>7483</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>COCA COLA</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O37" t="n">
-        <v>2000027</v>
+        <v>2000015</v>
       </c>
       <c r="P37" t="n">
         <v>99999</v>
@@ -3094,43 +3094,43 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>espinafre-unidade-200948</t>
+          <t>papel-higienico-folha-tripla-neve-supreme-dermacare-pacote-leve-16-pague-15-unidades-981168</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Espinafre Unidade</t>
+          <t>Papel Higiênico Folha Tripla Neve Supreme Dermacare Pacote Leve 16 Pague 15 Unidades</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>200948</t>
+          <t>981168</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>O espinafre é uma hortaliça saborosa, rica em ferro e também é fonte de vitamina A e B2, além de fornecer cálcio, fósforo, potássio e magnésio, é indicado também para pessoas com anemia e desnutrição.Como conservar :Sob refrigeração, pode ser mantido por no máximo 5 dias. Antes de colocálo na geladeira, lave as folhas, escorra o excesso de água e coloqueo em sacos de plástico perfurados ou em vasilha de plástico.Como consumir :O espinafre também pode ser usado em saladas, sopas,suflês omeletes. É ótimo como recheio ou acompanhamento de massas como macarrão, quiche, tortas, pastéis e assados. [Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
+          <t>Papel higiênico neutro folha tripla de alta qualidade. Neve quer ajudar as pessoas a cuidarem de si, por isso desenvolveu um produto que proporciona maciez insuperável com mais absorção e resistência.</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>3.79</v>
+        <v>32.19</v>
       </c>
       <c r="F38" t="n">
-        <v>3.79</v>
+        <v>32.19</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>14</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2020-09-28T00:00:00Z</t>
+          <t>2020-09-22T00:00:00Z</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3076729/VF4qT-qqCUAAAAAAAAKBdQ.jpg?v=637877840409270000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4430737/VF4qT-qqCUAAAAAAAAoMMw.jpg?v=639014499358300000</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -3143,21 +3143,21 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>7464</t>
+          <t>1262</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>7483</t>
+          <t>1269</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>NEVE</t>
         </is>
       </c>
       <c r="O38" t="n">
-        <v>2000015</v>
+        <v>2000291</v>
       </c>
       <c r="P38" t="n">
         <v>99999</v>
@@ -3185,7 +3185,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>69.90000000000001</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="F39" t="n">
         <v>69.90000000000001</v>
@@ -3310,43 +3310,43 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>abobora-japonesa-pedaco-500g-38229</t>
+          <t>alho-roxo-cariorta-4-a-5-unidades-250g-99279</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Abóbora Japonesa Pedaço 500g</t>
+          <t>Alho Roxo Cariorta 4 a 5 unidades 250g</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>38229</t>
+          <t>99279</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Embalagem com 1 pedaço.</t>
+          <t>Cariorta selecionados de coração.</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>5.29</v>
+        <v>59.99</v>
       </c>
       <c r="F41" t="n">
-        <v>5.29</v>
+        <v>59.99</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>480</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2020-09-26T00:00:00Z</t>
+          <t>2020-05-27T00:00:00Z</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3096862/VF4qT-qqCUAAAAAAAAS9Tw.jpg?v=638235593168230000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3082698/VF4qT-qqCUAAAAAAAAOOtg.jpg?v=637980006345970000</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -3355,25 +3355,25 @@
         </is>
       </c>
       <c r="K41" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>5593</t>
+          <t>24684</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>5609</t>
+          <t>24608</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>CARIORTA</t>
         </is>
       </c>
       <c r="O41" t="n">
-        <v>2000015</v>
+        <v>2001012</v>
       </c>
       <c r="P41" t="n">
         <v>99999</v>
@@ -3382,70 +3382,70 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>oleo-de-soja-liza-900ml-127310</t>
+          <t>abobora-japonesa-pedaco-500g-38229</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Óleo De Soja Liza 900ml</t>
+          <t>Abóbora Japonesa Pedaço 500g</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>127310</t>
+          <t>38229</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Óleo De Soja Liza 900ml</t>
+          <t>Embalagem com 1 pedaço.</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>8.59</v>
+        <v>5.29</v>
       </c>
       <c r="F42" t="n">
-        <v>8.59</v>
+        <v>5.29</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>53</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2020-09-15T00:00:00Z</t>
+          <t>2020-09-26T00:00:00Z</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3075849/VF4qT-qqCUAAAAAAAAIxqw.jpg?v=637877802666600000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3096862/VF4qT-qqCUAAAAAAAAS9Tw.jpg?v=638235593168230000</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K42" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>5593</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>5609</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>LIZA</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O42" t="n">
-        <v>2000067</v>
+        <v>2000015</v>
       </c>
       <c r="P42" t="n">
         <v>99999</v>
@@ -3454,70 +3454,70 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>alho-roxo-cariorta-4-a-5-unidades-250g-99279</t>
+          <t>couve-manteiga-unidade-201235</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Alho Roxo Cariorta 4 a 5 unidades 250g</t>
+          <t>Couve Manteiga Unidade</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>99279</t>
+          <t>201235</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Cariorta selecionados de coração.</t>
+          <t>A couve é uma hortaliça muito rica em nutriente,cálcio, ferro e vitaminas A,C, K e B5.Como conservar:Em geladeira, inteira ou picada deve ser mantida em saco plástico fechado ou em vasilha de plástico tampada.Como consumir:Pode ser consumida crua, em saladas e sucos, refogada ou como ingrediente de sopas, farofas e cozidos.[ Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>59.99</v>
+        <v>2.89</v>
       </c>
       <c r="F43" t="n">
-        <v>59.99</v>
+        <v>3.79</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2020-05-27T00:00:00Z</t>
+          <t>2020-09-28T00:00:00Z</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3082698/VF4qT-qqCUAAAAAAAAOOtg.jpg?v=637980006345970000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3083631/VF4qT-qqCUAAAAAAAAOZOA.jpg?v=637994955185970000</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K43" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>24684</t>
+          <t>7445</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>24608</t>
+          <t>7464</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>CARIORTA</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O43" t="n">
-        <v>2001012</v>
+        <v>2000015</v>
       </c>
       <c r="P43" t="n">
         <v>99999</v>
@@ -3526,43 +3526,43 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>couve-manteiga-unidade-201235</t>
+          <t>oleo-de-soja-liza-900ml-127310</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Couve Manteiga Unidade</t>
+          <t>Óleo De Soja Liza 900ml</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>201235</t>
+          <t>127310</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>A couve é uma hortaliça muito rica em nutriente,cálcio, ferro e vitaminas A,C, K e B5.Como conservar:Em geladeira, inteira ou picada deve ser mantida em saco plástico fechado ou em vasilha de plástico tampada.Como consumir:Pode ser consumida crua, em saladas e sucos, refogada ou como ingrediente de sopas, farofas e cozidos.[ Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
+          <t>Óleo De Soja Liza 900ml</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>3.79</v>
+        <v>8.59</v>
       </c>
       <c r="F44" t="n">
-        <v>3.79</v>
+        <v>8.59</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>576</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2020-09-28T00:00:00Z</t>
+          <t>2020-09-15T00:00:00Z</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3083631/VF4qT-qqCUAAAAAAAAOZOA.jpg?v=637994955185970000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3075849/VF4qT-qqCUAAAAAAAAIxqw.jpg?v=637877802666600000</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -3575,21 +3575,21 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>7445</t>
+          <t>127</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>7464</t>
+          <t>132</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>LIZA</t>
         </is>
       </c>
       <c r="O44" t="n">
-        <v>2000015</v>
+        <v>2000067</v>
       </c>
       <c r="P44" t="n">
         <v>99999</v>
@@ -3598,43 +3598,43 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>desinfetante-banheiro-tira-limo-veja-x-14-sache-400ml-refil-economico-1066404</t>
+          <t>papel-aluminio-rolitto-30cm-x-75-m-897795</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Desinfetante Banheiro Tira-Limo Veja X-14 Sachê 400ml Refil Econômico</t>
+          <t>Papel Alumínio Rolitto 30Cm X 7,5 M</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1066404</t>
+          <t>897795</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Desinfetante Banheiro Tira-Limo Veja X-14 Sachê 400ml Refil Econômico</t>
+          <t>Envolve , protege e conserva.</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>9.9</v>
+        <v>5.99</v>
       </c>
       <c r="F45" t="n">
-        <v>11.99</v>
+        <v>6.99</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>111</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2022-08-11T00:00:00Z</t>
+          <t>2020-10-05T00:00:00Z</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3927710/VF4qT-qqCUAAAAAAAAOGFQ.jpg?v=638733705155570000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3061098/VF4qT-qqCUAAAAAAAAGpfA.jpg?v=637794125591230000</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -3647,21 +3647,21 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>27159</t>
+          <t>9853</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>27083</t>
+          <t>9866</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>VEJA</t>
+          <t>KENTINHA</t>
         </is>
       </c>
       <c r="O45" t="n">
-        <v>2000523</v>
+        <v>2001532</v>
       </c>
       <c r="P45" t="n">
         <v>99999</v>
@@ -3670,33 +3670,33 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>papel-aluminio-rolitto-30cm-x-75-m-897795</t>
+          <t>leite-longa-vida-integral-elege-tetra-pak-1l-371289</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Papel Alumínio Rolitto 30Cm X 7,5 M</t>
+          <t>Leite Longa Vida Integral Elegê Tetra Pak 1L</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>897795</t>
+          <t>371289</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Envolve , protege e conserva.</t>
+          <t>Leite Longa Vida Integral Elegê Tetra Pak 1L</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>5.99</v>
+        <v>5.39</v>
       </c>
       <c r="F46" t="n">
-        <v>6.99</v>
+        <v>5.39</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>130</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -3706,7 +3706,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3061098/VF4qT-qqCUAAAAAAAAGpfA.jpg?v=637794125591230000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3129041/VF4qT-qqCUAAAAAAAAUbaw.jpg?v=638309476429500000</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -3719,66 +3719,66 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>9853</t>
+          <t>9974</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>9866</t>
+          <t>9988</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>KENTINHA</t>
+          <t>ELEGE</t>
         </is>
       </c>
       <c r="O46" t="n">
-        <v>2001532</v>
+        <v>2000400</v>
       </c>
       <c r="P46" t="n">
-        <v>99999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>leite-longa-vida-integral-elege-tetra-pak-1l-371289</t>
+          <t>desinfetante-banheiro-tira-limo-veja-x-14-sache-400ml-refil-economico-1066404</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Leite Longa Vida Integral Elegê Tetra Pak 1L</t>
+          <t>Desinfetante Banheiro Tira-Limo Veja X-14 Sachê 400ml Refil Econômico</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>371289</t>
+          <t>1066404</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Leite Longa Vida Integral Elegê Tetra Pak 1L</t>
+          <t>Desinfetante Banheiro Tira-Limo Veja X-14 Sachê 400ml Refil Econômico</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>5.39</v>
+        <v>9.9</v>
       </c>
       <c r="F47" t="n">
-        <v>5.39</v>
+        <v>11.99</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>74</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2020-10-05T00:00:00Z</t>
+          <t>2022-08-11T00:00:00Z</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3129041/VF4qT-qqCUAAAAAAAAUbaw.jpg?v=638309476429500000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3927710/VF4qT-qqCUAAAAAAAAOGFQ.jpg?v=638733705155570000</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -3791,21 +3791,21 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>9974</t>
+          <t>27159</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>9988</t>
+          <t>27083</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>ELEGE</t>
+          <t>VEJA</t>
         </is>
       </c>
       <c r="O47" t="n">
-        <v>2000400</v>
+        <v>2000523</v>
       </c>
       <c r="P47" t="n">
         <v>99999</v>
@@ -3814,43 +3814,43 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>matte-leao-natural-pet-15l-118214</t>
+          <t>milho-em-conserva-quero-lata-200g-476625</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Matte Leão Natural Pet 1,5L</t>
+          <t>Milho em Conserva Quero Lata 200g</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>118214</t>
+          <t>476625</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Renove seu humor, recicle seu ritmo e siga em frente. Experimente combinar o seu dia com o sabor inconfundível de Matte Leão.Matte Leão é feito com folhas de ervamate selecionadas e tostadas num processo único, especialmente para você.Porção de 200 mL (1 copo) = 68 kcal.</t>
+          <t>Sabor inigualável e cozimento na medida certa são os segredos do Milho Quero. O Milho Verde em Conserva Quero Lata 170g é ideal para receitas em pequenas quantidades. Se você prefere embalagens em lata, essa opção é ideal pra você! Para garantir a qualidade da sua receita, a Quero seleciona os vegetais com todo o cuidado, deixando o resultado final impecável. Pode confiar que seus pratos vão ficar uma delícia. Sabor e frescor para o seu dia a dia! Que tal experimentar? Quero cabe na panela, no prato e no bolso, sendo a marca queridinha entre os brasileiros.* Pode confiar que quando você tem Quero, você faz acontecer!</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>7.69</v>
+        <v>3.89</v>
       </c>
       <c r="F48" t="n">
-        <v>8.99</v>
+        <v>4.99</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>147</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2020-10-01T00:00:00Z</t>
+          <t>2020-10-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3704453/VF4qT-qqCUAAAAAAAAGyOQ.jpg?v=638609291247270000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3090347/476625_1.jpg?v=638126891970330000</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -3863,21 +3863,21 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>8709</t>
+          <t>10734</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>8721</t>
+          <t>10752</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>LEAO</t>
+          <t>QUERO</t>
         </is>
       </c>
       <c r="O48" t="n">
-        <v>2000010</v>
+        <v>2001778</v>
       </c>
       <c r="P48" t="n">
         <v>99999</v>
@@ -3886,43 +3886,43 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>milho-em-conserva-quero-lata-200g-476625</t>
+          <t>iogurte-integral-nestle-natural-copo-170-g-364738</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Milho em Conserva Quero Lata 200g</t>
+          <t>Iogurte Integral Nestlé Natural Copo 170g</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>476625</t>
+          <t>364738</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Sabor inigualável e cozimento na medida certa são os segredos do Milho Quero. O Milho Verde em Conserva Quero Lata 170g é ideal para receitas em pequenas quantidades. Se você prefere embalagens em lata, essa opção é ideal pra você! Para garantir a qualidade da sua receita, a Quero seleciona os vegetais com todo o cuidado, deixando o resultado final impecável. Pode confiar que seus pratos vão ficar uma delícia. Sabor e frescor para o seu dia a dia! Que tal experimentar? Quero cabe na panela, no prato e no bolso, sendo a marca queridinha entre os brasileiros.* Pode confiar que quando você tem Quero, você faz acontecer!</t>
+          <t>Descubra a pureza e a qualidade do Iogurte Natural Nestlé® Integral. Este iogurte foi pensado em todos que buscam uma experiência simples e natural. Ele é feito apenas com dois ingredientes: leite e fermento, sendo uma opção para quem procura uma alimentação mais equilibrada, livre de produtos que contém diversos ingredientes. Com o Iogurte Natural Integral você pode aproveitar os benefícios do leite e do fermento de forma pura e autêntica. A versatilidade deste iogurte é outro diferencial, pois permite que seja usado conforme o gosto de cada um. Pode ser consumido puro, servido com frutas, adicionado a smoothies ou utilizado em receitas. Linha Nestlé® é tradição e qualidade!</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>3.89</v>
+        <v>3.79</v>
       </c>
       <c r="F49" t="n">
-        <v>4.99</v>
+        <v>4.89</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>100</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2020-10-06T00:00:00Z</t>
+          <t>2020-09-29T00:00:00Z</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3090347/476625_1.jpg?v=638126891970330000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3959333/VF4qT-qqCUAAAAAAAAUrxw.jpg?v=638755307288170000</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -3935,23 +3935,95 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>10734</t>
+          <t>2122</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>10752</t>
+          <t>2129</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>QUERO</t>
+          <t>NESTLE</t>
         </is>
       </c>
       <c r="O49" t="n">
-        <v>2001778</v>
+        <v>2000043</v>
       </c>
       <c r="P49" t="n">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>matte-leao-natural-pet-15l-118214</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Matte Leão Natural Pet 1,5L</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>118214</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Renove seu humor, recicle seu ritmo e siga em frente. Experimente combinar o seu dia com o sabor inconfundível de Matte Leão.Matte Leão é feito com folhas de ervamate selecionadas e tostadas num processo único, especialmente para você.Porção de 200 mL (1 copo) = 68 kcal.</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>7.69</v>
+      </c>
+      <c r="F50" t="n">
+        <v>8.99</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>2020-10-01T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3704453/VF4qT-qqCUAAAAAAAAGyOQ.jpg?v=638609291247270000</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>un</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>8709</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>8721</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>LEAO</t>
+        </is>
+      </c>
+      <c r="O50" t="n">
+        <v>2000010</v>
+      </c>
+      <c r="P50" t="n">
         <v>99999</v>
       </c>
     </row>

--- a/zonasul.xlsx
+++ b/zonasul.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P50"/>
+  <dimension ref="A1:P49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -586,43 +586,43 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ovos-brancos-jumbo-mantiqueira-com-10-unidades-437638</t>
+          <t>matte-leao-limao-pet-1-5l-118222</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ovos Brancos Jumbo Mantiqueira Com 10 Unidades</t>
+          <t>Matte Leão Limão Pet 1,5L</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>437638</t>
+          <t>118222</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Os Ovos Jumbo Mantiqueira possuem maior tamanho, ideais para quem busca uma alimentação rica em vitaminas, proteínas e minerais, ou para quem gosta de um maior rendimento em suas receitas. Um único ovo contém quase todos os nutrientes necessários para manter o corpo saudável, fortalecendo os ossos e auxiliando em dietas para perda de peso ou ganho de massa.O Ovo Jumbo Mantiqueira é um produto da linha Especial da marca e possui a qualidade superior, passando por um moderno sistema de seleção, limpeza e embalagem sem contato de mãos humanas.Especificações:Ovos maiores, tamanho família.Embalagem com 10 unidades.Ovos brancos e vermelhos tipo jumbo categoria A.</t>
+          <t>O Chá MATTE Limão Leão é um dos tipos de chás preferido dos consumidores. A marca Chá Mate Leão está presente no mercado há mais de 100 anos, sendo a marca de chá mais vendida e tradicional. Produzido com extrato aquoso de mate, açúcar e suco de limão, o Chá MATTE LEÃO Limão é a opção ideal para refrescar o seu dia! Compre e compartilhe com amigos e familiares!</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>10.9</v>
+        <v>7.69</v>
       </c>
       <c r="F3" t="n">
-        <v>10.9</v>
+        <v>8.99</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2020-09-27T00:00:00Z</t>
+          <t>2020-10-01T00:00:00Z</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3976126/VF4qT-qqCUAAAAAAAAh4RA.jpg?v=638769994856100000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3704455/VF4qT-qqCUAAAAAAAAcePQ.jpg?v=638609291270100000</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -635,66 +635,66 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>7002</t>
+          <t>8711</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>7020</t>
+          <t>8723</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>MANTIQUEIRA</t>
+          <t>LEAO</t>
         </is>
       </c>
       <c r="O3" t="n">
-        <v>2001056</v>
+        <v>2000010</v>
       </c>
       <c r="P3" t="n">
-        <v>100</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>alcool-montenegro-46-1-l-780570</t>
+          <t>ovos-brancos-jumbo-mantiqueira-com-10-unidades-437638</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Álcool Montenegro 46% 1 L</t>
+          <t>Ovos Brancos Jumbo Mantiqueira Com 10 Unidades</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>780570</t>
+          <t>437638</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Álcool Montenegro 46% 1 L</t>
+          <t>Os Ovos Jumbo Mantiqueira possuem maior tamanho, ideais para quem busca uma alimentação rica em vitaminas, proteínas e minerais, ou para quem gosta de um maior rendimento em suas receitas. Um único ovo contém quase todos os nutrientes necessários para manter o corpo saudável, fortalecendo os ossos e auxiliando em dietas para perda de peso ou ganho de massa.O Ovo Jumbo Mantiqueira é um produto da linha Especial da marca e possui a qualidade superior, passando por um moderno sistema de seleção, limpeza e embalagem sem contato de mãos humanas.Especificações:Ovos maiores, tamanho família.Embalagem com 10 unidades.Ovos brancos e vermelhos tipo jumbo categoria A.</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>8.789999999999999</v>
+        <v>10.9</v>
       </c>
       <c r="F4" t="n">
-        <v>8.789999999999999</v>
+        <v>10.9</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2020-10-06T10:47:00Z</t>
+          <t>2020-09-27T00:00:00Z</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3051579/VF4qT-qqCUAAAAAAAAG3pQ.jpg?v=637793390624870000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3976126/VF4qT-qqCUAAAAAAAAh4RA.jpg?v=638769994856100000</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -707,21 +707,21 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>11598</t>
+          <t>7002</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>11621</t>
+          <t>7020</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>MONTENEGRO</t>
+          <t>MANTIQUEIRA</t>
         </is>
       </c>
       <c r="O4" t="n">
-        <v>2000527</v>
+        <v>2001056</v>
       </c>
       <c r="P4" t="n">
         <v>99999</v>
@@ -730,70 +730,70 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>mucarela-em-fatias-92363</t>
+          <t>alcool-montenegro-46-1-l-780570</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Muçarela  em Fatias 200g</t>
+          <t>Álcool Montenegro 46% 1 L</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>92363</t>
+          <t>780570</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Muçarela em Fatias</t>
+          <t>Álcool Montenegro 46% 1 L</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>59.9</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>59.9</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>74</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2020-09-27T00:00:00Z</t>
+          <t>2020-10-06T10:47:00Z</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3052070/VF4qT-qqCUAAAAAAAAI4-w.jpg?v=637793416889100000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3051579/VF4qT-qqCUAAAAAAAAG3pQ.jpg?v=637793390624870000</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K5" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>1361</t>
+          <t>11598</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>1368</t>
+          <t>11621</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>MONTENEGRO</t>
         </is>
       </c>
       <c r="O5" t="n">
-        <v>2000015</v>
+        <v>2000527</v>
       </c>
       <c r="P5" t="n">
         <v>99999</v>
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>11.99</v>
+        <v>10.99</v>
       </c>
       <c r="F6" t="n">
         <v>11.99</v>
@@ -874,70 +874,70 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>agua-mineral-com-gas-sao-lourenco-pet-1-26-l-140805</t>
+          <t>mucarela-em-fatias-92363</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Água Mineral Com Gás São Lourenço Pet 1,26 L</t>
+          <t>Muçarela  em Fatias 200g</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>140805</t>
+          <t>92363</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Água Mineral Com Gás São Lourenço Pet 1,26 L</t>
+          <t>Muçarela em Fatias</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3.89</v>
+        <v>59.9</v>
       </c>
       <c r="F7" t="n">
-        <v>5.29</v>
+        <v>59.9</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>83</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2020-09-25T00:00:00Z</t>
+          <t>2020-09-27T00:00:00Z</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3076277/VF4qT-qqCUAAAAAAAAHMBQ.jpg?v=637877821166370000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3052070/VF4qT-qqCUAAAAAAAAI4-w.jpg?v=637793416889100000</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>3915</t>
+          <t>1361</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>3929</t>
+          <t>1368</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>SAO LOURENCO</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O7" t="n">
-        <v>2000145</v>
+        <v>2000015</v>
       </c>
       <c r="P7" t="n">
         <v>99999</v>
@@ -946,43 +946,43 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>refrigerante-coca-cola-sem-acucar-lata-350-ml-429376</t>
+          <t>agua-mineral-com-gas-sao-lourenco-pet-1-26-l-140805</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Refrigerante Coca Cola Sem Açúcar Lata 350ml</t>
+          <t>Água Mineral Com Gás São Lourenço Pet 1,26 L</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>429376</t>
+          <t>140805</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>A Coca-Cola Sem Açúcar é um refrigerante que não contém calorias! Com certeza você já se perguntou: “Então, de onde vem aquele gostinho doce? ” A Coca-Cola Sem Açúcar é produzida especialmente com adoçantes para manter o delicioso sabor de Coca-Cola porém com 0% Açucar. Uma Lata de Coca-Cola Sem Perfeita para matar sua sede a qualquer hora do dia!</t>
+          <t>Água Mineral Com Gás São Lourenço Pet 1,26 L</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3.99</v>
+        <v>4.59</v>
       </c>
       <c r="F8" t="n">
-        <v>3.99</v>
+        <v>5.29</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>18</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2020-10-01T00:00:00Z</t>
+          <t>2020-09-25T00:00:00Z</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4483405/VF4qT-qqCUAAAAAAAAoaow.jpg?v=639052524439630000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3076277/VF4qT-qqCUAAAAAAAAHMBQ.jpg?v=637877821166370000</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -995,21 +995,21 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>8817</t>
+          <t>3915</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>8829</t>
+          <t>3929</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>COCA COLA</t>
+          <t>SAO LOURENCO</t>
         </is>
       </c>
       <c r="O8" t="n">
-        <v>2000027</v>
+        <v>2000145</v>
       </c>
       <c r="P8" t="n">
         <v>99999</v>
@@ -1018,70 +1018,70 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>batata-inglesa-cariorta-12kg-98698</t>
+          <t>refrigerante-coca-cola-sem-acucar-lata-350-ml-429376</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Batata Inglesa Cariorta 1,2Kg</t>
+          <t>Refrigerante Coca Cola Sem Açúcar Lata 350ml</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>98698</t>
+          <t>429376</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Cariorta selecionados de coração.</t>
+          <t>A Coca-Cola Sem Açúcar é um refrigerante que não contém calorias! Com certeza você já se perguntou: “Então, de onde vem aquele gostinho doce? ” A Coca-Cola Sem Açúcar é produzida especialmente com adoçantes para manter o delicioso sabor de Coca-Cola porém com 0% Açucar. Uma Lata de Coca-Cola Sem Perfeita para matar sua sede a qualquer hora do dia!</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>7.99</v>
+        <v>3.99</v>
       </c>
       <c r="F9" t="n">
-        <v>7.99</v>
+        <v>3.99</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2020-12-16T00:00:00Z</t>
+          <t>2020-10-01T00:00:00Z</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3082670/VF4qT-qqCUAAAAAAAAOOew.jpg?v=637979987993130000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4483405/VF4qT-qqCUAAAAAAAAoaow.jpg?v=639052524439630000</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K9" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>16570</t>
+          <t>8817</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>16461</t>
+          <t>8829</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>CARIORTA</t>
+          <t>COCA COLA</t>
         </is>
       </c>
       <c r="O9" t="n">
-        <v>2001012</v>
+        <v>2000027</v>
       </c>
       <c r="P9" t="n">
         <v>99999</v>
@@ -1090,70 +1090,70 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>tomate-italiano-unidade-495212</t>
+          <t>batata-inglesa-cariorta-12kg-98698</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Tomate Italiano Unidade</t>
+          <t>Batata Inglesa Cariorta 1,2Kg</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>495212</t>
+          <t>98698</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Tomate Italiano Unidade</t>
+          <t>Cariorta selecionados de coração.</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1.53</v>
+        <v>7.99</v>
       </c>
       <c r="F10" t="n">
-        <v>1.53</v>
+        <v>7.99</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>483</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2020-09-27T00:00:00Z</t>
+          <t>2020-12-16T00:00:00Z</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3094266/VF4qT-qqCUAAAAAAAASLmg.jpg?v=638191532599970000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3082670/VF4qT-qqCUAAAAAAAAOOew.jpg?v=637979987993130000</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>6965</t>
+          <t>16570</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>6983</t>
+          <t>16461</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>CARIORTA</t>
         </is>
       </c>
       <c r="O10" t="n">
-        <v>2000015</v>
+        <v>2001012</v>
       </c>
       <c r="P10" t="n">
         <v>99999</v>
@@ -1162,43 +1162,43 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>cheiro-verde-unidade-201049</t>
+          <t>tomate-italiano-unidade-495212</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Cheiro Verde Unidade</t>
+          <t>Tomate Italiano Unidade</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>201049</t>
+          <t>495212</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>O cheiro verde é a combinação da cebolinha e salsinha .Como conservar:Em geladeira por até 5 dias em saco ou vasilha de plástico.Como consumir:Podem ser adicionadas cruas, em saladas e recheios de sanduíches e como ingredientes em marinadas.</t>
+          <t>Tomate Italiano Unidade</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3.79</v>
+        <v>1.18</v>
       </c>
       <c r="F11" t="n">
-        <v>3.79</v>
+        <v>1.53</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>53</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2020-09-28T00:00:00Z</t>
+          <t>2020-09-27T00:00:00Z</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3457712/VF4qT-qqCUAAAAAAAAXvTg.jpg?v=638507335658200000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3094266/VF4qT-qqCUAAAAAAAASLmg.jpg?v=638191532599970000</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1211,12 +1211,12 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>7411</t>
+          <t>6965</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>7430</t>
+          <t>6983</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1234,43 +1234,43 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>cafe-torrado-e-moido-pilao-tradicional-500g-828025</t>
+          <t>cheiro-verde-unidade-201049</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Café Torrado E Moído Pilão Tradicional Fresh Pack 500g</t>
+          <t>Cheiro Verde Unidade</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>828025</t>
+          <t>201049</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Tem um ponto de torra acentuado e um processo de moagem fina e uniforme, que garantem e preservam seu sabor forte e encorpado.É perfeito para servir em dia de casa cheia, pois seu sabor tradicional agrada a todo mundo.</t>
+          <t>O cheiro verde é a combinação da cebolinha e salsinha .Como conservar:Em geladeira por até 5 dias em saco ou vasilha de plástico.Como consumir:Podem ser adicionadas cruas, em saladas e recheios de sanduíches e como ingredientes em marinadas.</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>31.98</v>
+        <v>2.89</v>
       </c>
       <c r="F12" t="n">
-        <v>43.9</v>
+        <v>3.79</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2020-09-15T00:00:00Z</t>
+          <t>2020-09-28T00:00:00Z</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3051146/VF4qT-qqCUAAAAAAAAG1sQ.jpg?v=637793369863530000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3457712/VF4qT-qqCUAAAAAAAAXvTg.jpg?v=638507335658200000</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1283,21 +1283,21 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>7411</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>7430</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>PILAO</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O12" t="n">
-        <v>2000070</v>
+        <v>2000015</v>
       </c>
       <c r="P12" t="n">
         <v>99999</v>
@@ -1306,43 +1306,43 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>manga-palmer-unidade-5130760</t>
+          <t>cafe-torrado-e-moido-pilao-tradicional-500g-828025</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Manga Palmer Unidade</t>
+          <t>Café Torrado E Moído Pilão Tradicional Fresh Pack 500g</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>5130760</t>
+          <t>828025</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Manga Palmer Unidade</t>
+          <t>Tem um ponto de torra acentuado e um processo de moagem fina e uniforme, que garantem e preservam seu sabor forte e encorpado.É perfeito para servir em dia de casa cheia, pois seu sabor tradicional agrada a todo mundo.</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4.79</v>
+        <v>43.9</v>
       </c>
       <c r="F13" t="n">
-        <v>5.39</v>
+        <v>43.9</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>59</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2023-02-16T00:00:00Z</t>
+          <t>2020-09-15T00:00:00Z</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3153453/VF4qT-qqCUAAAAAAAAUnKA.jpg?v=638319847497670000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3051146/VF4qT-qqCUAAAAAAAAG1sQ.jpg?v=637793369863530000</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1355,21 +1355,21 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>31977</t>
+          <t>130</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>31902</t>
+          <t>135</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>PILAO</t>
         </is>
       </c>
       <c r="O13" t="n">
-        <v>2000015</v>
+        <v>2000070</v>
       </c>
       <c r="P13" t="n">
         <v>99999</v>
@@ -1378,29 +1378,29 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>abacaxi-unidade-221</t>
+          <t>manga-palmer-unidade-5130760</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Abacaxi Unidade</t>
+          <t>Manga Palmer Unidade</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>5130760</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Peso Aproximado 1,61,8Kg / Unidade.O Abacaxi é rico em Vitaminas A, B5, B6, C, BetaCaroteno, Tiamina, Antioxidantes e Fibras, auxiliando na saciedade e regulação do peso. É uma Importante fonte de energia póstreino. Auxilia nos processos antiinflamatórios por conter Bromelina, enzima encontrada principalmente no talo da fruta. Como preparar: no seu estado natural cortado, em saladas, assado, grelhado, sucos, geleias, sorvetes e chás.</t>
+          <t>Manga Palmer Unidade</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>8.99</v>
+        <v>4.79</v>
       </c>
       <c r="F14" t="n">
-        <v>10.99</v>
+        <v>5.39</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1409,12 +1409,12 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2020-09-26T00:00:00Z</t>
+          <t>2023-02-16T00:00:00Z</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3041923/VF4qT-qqCUAAAAAAAAFtXw.jpg?v=637792593143530000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3153453/VF4qT-qqCUAAAAAAAAUnKA.jpg?v=638319847497670000</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1427,12 +1427,12 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>4959</t>
+          <t>31977</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>4975</t>
+          <t>31902</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1444,49 +1444,49 @@
         <v>2000015</v>
       </c>
       <c r="P14" t="n">
-        <v>100</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>detergente-para-loucas-odd-clear-500ml-982911</t>
+          <t>abacaxi-unidade-221</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Detergente Para Louças Odd Clear 500ml</t>
+          <t>Abacaxi Unidade</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>982911</t>
+          <t>221</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>ODD voltou!Alto rendimento , controle de odor.</t>
+          <t>Peso Aproximado 1,61,8Kg / Unidade.O Abacaxi é rico em Vitaminas A, B5, B6, C, BetaCaroteno, Tiamina, Antioxidantes e Fibras, auxiliando na saciedade e regulação do peso. É uma Importante fonte de energia póstreino. Auxilia nos processos antiinflamatórios por conter Bromelina, enzima encontrada principalmente no talo da fruta. Como preparar: no seu estado natural cortado, em saladas, assado, grelhado, sucos, geleias, sorvetes e chás.</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1.9</v>
+        <v>8.99</v>
       </c>
       <c r="F15" t="n">
-        <v>2.49</v>
+        <v>10.99</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2020-10-06T00:00:00Z</t>
+          <t>2020-09-26T00:00:00Z</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3056732/VF4qT-qqCUAAAAAAAAHzRQ.jpg?v=637793635376800000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3041923/VF4qT-qqCUAAAAAAAAFtXw.jpg?v=637792593143530000</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1499,62 +1499,66 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>11872</t>
+          <t>4959</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>11898</t>
+          <t>4975</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>LIMPPANO</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O15" t="n">
-        <v>2001341</v>
+        <v>2000015</v>
       </c>
       <c r="P15" t="n">
-        <v>99999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ovos-vermelhos-caipira-happy-eggs-com-20-unidades-370550</t>
+          <t>detergente-para-loucas-odd-clear-500ml-982911</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Ovos Vermelhos Caipira Happy Eggs Com 20 Unidades</t>
+          <t>Detergente Para Louças Odd Clear 500ml</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>370550</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
+          <t>982911</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ODD voltou!Alto rendimento , controle de odor.</t>
+        </is>
+      </c>
       <c r="E16" t="n">
-        <v>24.99</v>
+        <v>1.9</v>
       </c>
       <c r="F16" t="n">
-        <v>24.99</v>
+        <v>2.49</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>76</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2020-09-27T00:00:00Z</t>
+          <t>2020-10-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4343192/VF4qT-qqCUAAAAAAAAn9QA.jpg?v=638956617627730000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3056732/VF4qT-qqCUAAAAAAAAHzRQ.jpg?v=637793635376800000</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1567,21 +1571,21 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>6939</t>
+          <t>11872</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>6957</t>
+          <t>11898</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>HAPPY EGGS</t>
+          <t>LIMPPANO</t>
         </is>
       </c>
       <c r="O16" t="n">
-        <v>2003319</v>
+        <v>2001341</v>
       </c>
       <c r="P16" t="n">
         <v>99999</v>
@@ -1590,43 +1594,39 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>couve-flor-unidade-189111</t>
+          <t>ovos-vermelhos-caipira-happy-eggs-com-20-unidades-370550</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Couve Flor Unidade</t>
+          <t>Ovos Vermelhos Caipira Happy Eggs Com 20 Unidades</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>189111</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>A couveflor é uma hortaliça rica em cálcio e fósforo e fonte de ácido fólico e vitamina C . Como Conservar:Na geladeira pode ser conservada por 3 a 5 dias, dentro de saco plástico perfurado. Antes de guardar, remova as partes escuras e folhas, mas não lave a cabeça.Como Consumir:Pode ser consumida assada, frita ou cozinhe em água e sal. [Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
-        </is>
-      </c>
+          <t>370550</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="n">
-        <v>9.99</v>
+        <v>24.99</v>
       </c>
       <c r="F17" t="n">
-        <v>9.99</v>
+        <v>24.99</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2020-09-28T00:00:00Z</t>
+          <t>2020-09-27T00:00:00Z</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3041615/VF4qT-qqCUAAAAAAAAGF4Q.jpg?v=637792579893500000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4343192/VF4qT-qqCUAAAAAAAAn9QA.jpg?v=638956617627730000</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1639,21 +1639,21 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>7446</t>
+          <t>6939</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>7465</t>
+          <t>6957</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>HAPPY EGGS</t>
         </is>
       </c>
       <c r="O17" t="n">
-        <v>2000015</v>
+        <v>2003319</v>
       </c>
       <c r="P17" t="n">
         <v>99999</v>
@@ -1662,43 +1662,43 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ovos-vermelhos-mantiqueira-happy-eggs-com-10-unidades-5106753</t>
+          <t>couve-flor-unidade-189111</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Ovos Vermelhos Mantiqueira Happy Eggs com 10 Unidades</t>
+          <t>Couve Flor Unidade</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>5106753</t>
+          <t>189111</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Produzidos por galinhas criadas livres de gaiolas. Garantia de Bem-Estar Animal. Ovos Vermelhos Tipo Grande Categoria A. Embalagem com 10 unidades.</t>
+          <t>A couveflor é uma hortaliça rica em cálcio e fósforo e fonte de ácido fólico e vitamina C . Como Conservar:Na geladeira pode ser conservada por 3 a 5 dias, dentro de saco plástico perfurado. Antes de guardar, remova as partes escuras e folhas, mas não lave a cabeça.Como Consumir:Pode ser consumida assada, frita ou cozinhe em água e sal. [Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>11.99</v>
+        <v>9.49</v>
       </c>
       <c r="F18" t="n">
-        <v>11.99</v>
+        <v>9.99</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>53</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2021-01-11T00:00:00Z</t>
+          <t>2020-09-28T00:00:00Z</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4222023/VF4qT-qqCUAAAAAAAAStHA.jpg?v=638894405636230000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3041615/VF4qT-qqCUAAAAAAAAGF4Q.jpg?v=637792579893500000</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1711,21 +1711,21 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>18105</t>
+          <t>7446</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>17997</t>
+          <t>7465</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>HAPPY EGGS</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O18" t="n">
-        <v>2003319</v>
+        <v>2000015</v>
       </c>
       <c r="P18" t="n">
         <v>99999</v>
@@ -1806,22 +1806,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>limao-cariorta-1kg-98981</t>
+          <t>ovos-vermelhos-mantiqueira-happy-eggs-com-10-unidades-5106753</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Limão Cariorta 1Kg</t>
+          <t>Ovos Vermelhos Mantiqueira Happy Eggs com 10 Unidades</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>98981</t>
+          <t>5106753</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Cariorta selecionados de coração.</t>
+          <t>Produzidos por galinhas criadas livres de gaiolas. Garantia de Bem-Estar Animal. Ovos Vermelhos Tipo Grande Categoria A. Embalagem com 10 unidades.</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -1832,22 +1832,22 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2020-05-20T00:00:00Z</t>
+          <t>2021-01-11T00:00:00Z</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3084385/VF4qT-qqCUAAAAAAAAOgIg.jpg?v=638000868147970000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4222023/VF4qT-qqCUAAAAAAAAStHA.jpg?v=638894405636230000</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K20" t="n">
@@ -1855,21 +1855,21 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>24698</t>
+          <t>18105</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>24622</t>
+          <t>17997</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>CARIORTA</t>
+          <t>HAPPY EGGS</t>
         </is>
       </c>
       <c r="O20" t="n">
-        <v>2001012</v>
+        <v>2003319</v>
       </c>
       <c r="P20" t="n">
         <v>99999</v>
@@ -1878,39 +1878,43 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>pao-frances-panetto-60g-com-4-unidades-96318</t>
+          <t>limao-cariorta-1kg-98981</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Pão Francês Panetto  60g Com 4 unidades</t>
+          <t>Limão Cariorta 1Kg</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>96318</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
+          <t>98981</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Cariorta selecionados de coração.</t>
+        </is>
+      </c>
       <c r="E21" t="n">
-        <v>24.99</v>
+        <v>11.99</v>
       </c>
       <c r="F21" t="n">
-        <v>24.99</v>
+        <v>11.99</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>482</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2024-01-31T00:00:00Z</t>
+          <t>2020-05-20T00:00:00Z</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3307700/VF4qT-qqCUAAAAAAAAWnXQ.jpg?v=638932898013670000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3084385/VF4qT-qqCUAAAAAAAAOgIg.jpg?v=638000868147970000</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1919,25 +1923,25 @@
         </is>
       </c>
       <c r="K21" t="n">
-        <v>0.24</v>
+        <v>1</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>35477</t>
+          <t>24698</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>35404</t>
+          <t>24622</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>PANETTO</t>
+          <t>CARIORTA</t>
         </is>
       </c>
       <c r="O21" t="n">
-        <v>2000307</v>
+        <v>2001012</v>
       </c>
       <c r="P21" t="n">
         <v>99999</v>
@@ -1946,70 +1950,66 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>azeite-italiano-extra-virgem-due-500ml-5472040</t>
+          <t>pao-frances-panetto-60g-com-4-unidades-96318</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Azeite Italiano Extravirgem Due 500ml</t>
+          <t>Pão Francês Panetto  60g Com 4 unidades</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>5472040</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>O azeite Due é um blend de azeites do Mediterrâneo que confere um resultado clássico e ideal para o cotidiano da cozinha. Sua elaboração conta com uma seleção cautelosamente realizada pelo Expert em Azeites e Temperos Marcelo Scofano, que anualmente viaja à Toscana (Itália), onde o azeite é produzido, para cuidar de cada detalhe pessoalmente.Due é um azeite clássico, ideal para o dia a dia da cozinha: marinados, refogados, emulsão de molhos, finalização de saladas, massas e pratos do cotidiano. O azeite clássico é extraído de azeitonas maduras. Possui sabor amendoado, com notas amargas e picantes em equilíbrio.O azeite Due faz parte da grupo de marcas exclusivas Zona Sul, criada e pensada com carinho para os cariocas de coração. O planejamento de cada produto exclusivo conta com a participação dos Experts Zona Sul em todo o processo, até chegar na sua mesa. E com a linha Due não é diferente!</t>
-        </is>
-      </c>
+          <t>96318</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="n">
-        <v>36.9</v>
+        <v>24.99</v>
       </c>
       <c r="F22" t="n">
-        <v>36.9</v>
+        <v>24.99</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>89</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-06T00:00:00Z</t>
+          <t>2024-01-31T00:00:00Z</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4116721/VF4qT-qqCUAAAAAAAAiyjQ.jpg?v=638846625781330000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3307700/VF4qT-qqCUAAAAAAAAWnXQ.jpg?v=638932898013670000</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>0.24</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>40224</t>
+          <t>35477</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>40151</t>
+          <t>35404</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>DUE</t>
+          <t>PANETTO</t>
         </is>
       </c>
       <c r="O22" t="n">
-        <v>2005138</v>
+        <v>2000307</v>
       </c>
       <c r="P22" t="n">
         <v>99999</v>
@@ -2018,43 +2018,43 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>morango-250g-289612</t>
+          <t>guardanapo-folha-dupla-scott-grand-hotel-238cm×218cm-50-unidades-129879</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Morango 250g</t>
+          <t>Guardanapo Folha Dupla Scott Grand Hotel 23,8cm×21,8cm 50 Unidades</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>289612</t>
+          <t>129879</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Embalagem com 250g "O morango é rico em vitamina C e, por isso, o consumo da fruta evita a fragilidade dos ossos e a má formação dos dentes. Ele também dá resistência aos tecidos, age contra infecções ajudando na cicatrização. O morango também possui, em menor quantidade, vitamina B5, conhecida como niacina. Ela tem a função de evitar problemas de pele, do aparelho digestivo e do sistema nervoso. Na fruta, também é encontrado ferro, que faz parte da formação do sangue."</t>
+          <t>Guardanapo Folha Dupla Scott Grand Hotel 23,8cm×21,8cm 50 Unidades</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>9.99</v>
+        <v>6.19</v>
       </c>
       <c r="F23" t="n">
-        <v>9.99</v>
+        <v>6.19</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>111</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2020-09-26T00:00:00Z</t>
+          <t>2020-10-05T00:00:00Z</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3226559/VF4qT-qqCUAAAAAAAAHKNA.jpg?v=638352676547800000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3239421/VF4qT-qqCUAAAAAAAAVSfw.jpg?v=638362188224230000</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -2067,21 +2067,21 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>5152</t>
+          <t>9426</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>5168</t>
+          <t>9438</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>GRANDE HOTEL</t>
         </is>
       </c>
       <c r="O23" t="n">
-        <v>2000015</v>
+        <v>2001400</v>
       </c>
       <c r="P23" t="n">
         <v>99999</v>
@@ -2090,43 +2090,43 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>file-de-peito-de-frango-sadia-bandeja-1kg-290564</t>
+          <t>morango-250g-289612</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Filé de Peito de Frango Sadia Bandeja 1kg</t>
+          <t>Morango 250g</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>290564</t>
+          <t>289612</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Peito De Frango Em Filés Sadia Bandeja 1kg</t>
+          <t>Embalagem com 250g "O morango é rico em vitamina C e, por isso, o consumo da fruta evita a fragilidade dos ossos e a má formação dos dentes. Ele também dá resistência aos tecidos, age contra infecções ajudando na cicatrização. O morango também possui, em menor quantidade, vitamina B5, conhecida como niacina. Ela tem a função de evitar problemas de pele, do aparelho digestivo e do sistema nervoso. Na fruta, também é encontrado ferro, que faz parte da formação do sangue."</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>24.99</v>
+        <v>8.99</v>
       </c>
       <c r="F24" t="n">
-        <v>26.99</v>
+        <v>9.99</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2020-09-29T00:00:00Z</t>
+          <t>2020-09-26T00:00:00Z</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3538840/VF4qT-qqCUAAAAAAAAa5gg.jpg?v=638550537679130000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3226559/VF4qT-qqCUAAAAAAAAHKNA.jpg?v=638352676547800000</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -2139,21 +2139,21 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5152</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5168</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>SADIA</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O24" t="n">
-        <v>2000057</v>
+        <v>2000015</v>
       </c>
       <c r="P24" t="n">
         <v>99999</v>
@@ -2162,43 +2162,43 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>detergente-para-loucas-biodegradavel-limpol-neutro-500-ml-100510</t>
+          <t>azeite-italiano-extra-virgem-due-500ml-5472040</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Detergente Para Louças Biodegradável Limpol Neutro 500ml</t>
+          <t>Azeite Italiano Extravirgem Due 500ml</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>100510</t>
+          <t>5472040</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>O Lava-Louças Limpol é eficiente no poder da limpeza, remoção da gordura e sujeiras e no combate aos maus odores indesejados da cozinha. Sua fórmula é dermatologicamente testada e contém glicerina, tornando-a mais suave para as mãos.</t>
+          <t>O azeite Due é um blend de azeites do Mediterrâneo que confere um resultado clássico e ideal para o cotidiano da cozinha. Sua elaboração conta com uma seleção cautelosamente realizada pelo Expert em Azeites e Temperos Marcelo Scofano, que anualmente viaja à Toscana (Itália), onde o azeite é produzido, para cuidar de cada detalhe pessoalmente.Due é um azeite clássico, ideal para o dia a dia da cozinha: marinados, refogados, emulsão de molhos, finalização de saladas, massas e pratos do cotidiano. O azeite clássico é extraído de azeitonas maduras. Possui sabor amendoado, com notas amargas e picantes em equilíbrio.O azeite Due faz parte da grupo de marcas exclusivas Zona Sul, criada e pensada com carinho para os cariocas de coração. O planejamento de cada produto exclusivo conta com a participação dos Experts Zona Sul em todo o processo, até chegar na sua mesa. E com a linha Due não é diferente!</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>2.79</v>
+        <v>36.9</v>
       </c>
       <c r="F25" t="n">
-        <v>2.79</v>
+        <v>36.9</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>597</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2020-10-06T00:00:00Z</t>
+          <t>2025-05-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3269221/12054_1.jpg?v=638386029717470000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4116721/VF4qT-qqCUAAAAAAAAiyjQ.jpg?v=638846625781330000</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2211,21 +2211,21 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>12054</t>
+          <t>40224</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>12081</t>
+          <t>40151</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>LIMPOL</t>
+          <t>DUE</t>
         </is>
       </c>
       <c r="O25" t="n">
-        <v>2001413</v>
+        <v>2005138</v>
       </c>
       <c r="P25" t="n">
         <v>99999</v>
@@ -2234,43 +2234,43 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>farinha-de-trigo-dona-benta-1kg-105287</t>
+          <t>file-de-peito-de-frango-sadia-bandeja-1kg-290564</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Farinha De Trigo Dona Benta 1kg</t>
+          <t>Filé de Peito de Frango Sadia Bandeja 1kg</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>105287</t>
+          <t>290564</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Farinha De Trigo Dona Benta 1kg</t>
+          <t>Peito De Frango Em Filés Sadia Bandeja 1kg</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>7.99</v>
+        <v>22.99</v>
       </c>
       <c r="F26" t="n">
-        <v>7.99</v>
+        <v>26.99</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>125</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2020-07-06T00:00:00Z</t>
+          <t>2020-09-29T00:00:00Z</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3079291/VF4qT-qqCUAAAAAAAANuog.jpg?v=637897755804270000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3538840/VF4qT-qqCUAAAAAAAAa5gg.jpg?v=638550537679130000</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2283,24 +2283,24 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>7</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>7</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>DONA BENTA</t>
+          <t>SADIA</t>
         </is>
       </c>
       <c r="O26" t="n">
-        <v>2000701</v>
+        <v>2000057</v>
       </c>
       <c r="P26" t="n">
-        <v>100</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="27">
@@ -2325,7 +2325,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="F27" t="n">
         <v>2.45</v>
@@ -2378,43 +2378,43 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>guardanapo-folha-dupla-scott-grand-hotel-jantar-33×33-cm-com-50-unidades-129887</t>
+          <t>detergente-para-loucas-biodegradavel-limpol-neutro-500-ml-100510</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Guardanapo Folha Dupla Scott Grand Hotel Jantar 33×33 Cm Com 50 Unidades</t>
+          <t>Detergente Para Louças Biodegradável Limpol Neutro 500ml</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>129887</t>
+          <t>100510</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>O Guardanapo Grand Hotel folha tripla é mais sofisticado e garante uma maciez superior para todos os momentos. Contém 50 folhas de tamanho 31,8x32,8 cm cada.</t>
+          <t>O Lava-Louças Limpol é eficiente no poder da limpeza, remoção da gordura e sujeiras e no combate aos maus odores indesejados da cozinha. Sua fórmula é dermatologicamente testada e contém glicerina, tornando-a mais suave para as mãos.</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>12.99</v>
+        <v>2.09</v>
       </c>
       <c r="F28" t="n">
-        <v>12.99</v>
+        <v>2.79</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>76</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2020-10-05T00:00:00Z</t>
+          <t>2020-10-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3078100/129887_1.jpg?v=637895346534630000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3269221/12054_1.jpg?v=638386029717470000</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2427,21 +2427,21 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>9427</t>
+          <t>12054</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>9439</t>
+          <t>12081</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>GRANDE HOTEL</t>
+          <t>LIMPOL</t>
         </is>
       </c>
       <c r="O28" t="n">
-        <v>2001401</v>
+        <v>2001413</v>
       </c>
       <c r="P28" t="n">
         <v>99999</v>
@@ -2450,25 +2450,29 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>papel-toalha-coquetel-19cm-x-19cm-com-2-rolos-com-60-folhas-cada-783242</t>
+          <t>guardanapo-folha-dupla-scott-grand-hotel-jantar-33×33-cm-com-50-unidades-129887</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Papel Toalha Coquetel 19Cm X 19Cm com 2 Rolos com 60 Folhas Cada</t>
+          <t>Guardanapo Folha Dupla Scott Grand Hotel Jantar 33×33 Cm Com 50 Unidades</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>783242</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
+          <t>129887</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>O Guardanapo Grand Hotel folha tripla é mais sofisticado e garante uma maciez superior para todos os momentos. Contém 50 folhas de tamanho 31,8x32,8 cm cada.</t>
+        </is>
+      </c>
       <c r="E29" t="n">
-        <v>6.99</v>
+        <v>12.99</v>
       </c>
       <c r="F29" t="n">
-        <v>6.99</v>
+        <v>12.99</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -2477,12 +2481,12 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2020-10-06T00:00:00Z</t>
+          <t>2020-10-05T00:00:00Z</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3050348/VF4qT-qqCUAAAAAAAAJRgg.jpg?v=637793335676500000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3078100/129887_1.jpg?v=637895346534630000</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2495,21 +2499,21 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>11627</t>
+          <t>9427</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>11650</t>
+          <t>9439</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>COQUETEL</t>
+          <t>GRANDE HOTEL</t>
         </is>
       </c>
       <c r="O29" t="n">
-        <v>2001855</v>
+        <v>2001401</v>
       </c>
       <c r="P29" t="n">
         <v>99999</v>
@@ -2518,43 +2522,43 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>la-de-aco-bombril-com-6-unidades-45g-1180320</t>
+          <t>farinha-de-trigo-dona-benta-1kg-105287</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Lã de Aço Bombril com 6 Unidades 45g</t>
+          <t>Farinha De Trigo Dona Benta 1kg</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1180320</t>
+          <t>105287</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Uso: Ideal para limpeza de panelas, utensílios de cozinha, superfícies metálicas e outras áreas que necessitam de uma limpeza mais intensa.Remove sujeiras difíceis, incluindo resíduos de alimentos queimados e ferrugem.</t>
+          <t>Farinha De Trigo Dona Benta 1kg</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>2.19</v>
+        <v>7.99</v>
       </c>
       <c r="F30" t="n">
-        <v>2.99</v>
+        <v>7.99</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>63</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-07-17T00:00:00Z</t>
+          <t>2020-07-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4216409/VF4qT-qqCUAAAAAAAAko5g.jpg?v=638889221726300000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3079291/VF4qT-qqCUAAAAAAAANuog.jpg?v=637897755804270000</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -2567,66 +2571,62 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>41130</t>
+          <t>31</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>41057</t>
+          <t>31</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>BOMBRIL</t>
+          <t>DONA BENTA</t>
         </is>
       </c>
       <c r="O30" t="n">
-        <v>2001389</v>
+        <v>2000701</v>
       </c>
       <c r="P30" t="n">
-        <v>99999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>coentro-unidade-200930</t>
+          <t>papel-toalha-coquetel-19cm-x-19cm-com-2-rolos-com-60-folhas-cada-783242</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Coentro Unidade</t>
+          <t>Papel Toalha Coquetel 19Cm X 19Cm com 2 Rolos com 60 Folhas Cada</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>200930</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Coentro Unidade</t>
-        </is>
-      </c>
+          <t>783242</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
       <c r="E31" t="n">
-        <v>3.79</v>
+        <v>5.79</v>
       </c>
       <c r="F31" t="n">
-        <v>3.79</v>
+        <v>6.99</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>111</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2020-09-28T00:00:00Z</t>
+          <t>2020-10-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3076728/VF4qT-qqCUAAAAAAAAGF4g.jpg?v=637877840364830000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3050348/VF4qT-qqCUAAAAAAAAJRgg.jpg?v=637793335676500000</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -2639,21 +2639,21 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>7408</t>
+          <t>11627</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>7427</t>
+          <t>11650</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>COQUETEL</t>
         </is>
       </c>
       <c r="O31" t="n">
-        <v>2000015</v>
+        <v>2001855</v>
       </c>
       <c r="P31" t="n">
         <v>99999</v>
@@ -2662,43 +2662,43 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>pao-de-queijo-forno-de-minas-tradicional--400-g-456110</t>
+          <t>la-de-aco-bombril-com-6-unidades-45g-1180320</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Pão De Queijo Forno De Minas Tradicional 400g</t>
+          <t>Lã de Aço Bombril com 6 Unidades 45g</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>456110</t>
+          <t>1180320</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Pão De Queijo Forno De Minas Tradicional 400g</t>
+          <t>Uso: Ideal para limpeza de panelas, utensílios de cozinha, superfícies metálicas e outras áreas que necessitam de uma limpeza mais intensa.Remove sujeiras difíceis, incluindo resíduos de alimentos queimados e ferrugem.</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>21.99</v>
+        <v>2.99</v>
       </c>
       <c r="F32" t="n">
-        <v>21.99</v>
+        <v>2.99</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>78</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2020-10-20T00:00:00Z</t>
+          <t>2025-07-17T00:00:00Z</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3041185/VF4qT-qqCUAAAAAAAAHIag.jpg?v=637792557833470000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4216409/VF4qT-qqCUAAAAAAAAko5g.jpg?v=638889221726300000</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2711,66 +2711,66 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>13544</t>
+          <t>41130</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>13564</t>
+          <t>41057</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>FORNO MINAS</t>
+          <t>BOMBRIL</t>
         </is>
       </c>
       <c r="O32" t="n">
-        <v>2001500</v>
+        <v>2001389</v>
       </c>
       <c r="P32" t="n">
-        <v>100</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>sal-refinado-iodado-ita-1kg-117293</t>
+          <t>pao-de-forma-plus-vita-tradicional-500-g-252921</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Sal Refinado Iodado Ita 1kg</t>
+          <t>Pão de Forma Tradicional Plusvita 480g</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>117293</t>
+          <t>252921</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Sal Refinado Iodado Ita 1kg</t>
+          <t>Versátil, prático e para qualquer momento, trazendo a energia necessária para o seu dia. Perfeito para sanduíches, torradas, receitas para o café da manhã, café da tarde, almoço e jantar</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>3.65</v>
+        <v>9.98</v>
       </c>
       <c r="F33" t="n">
-        <v>3.65</v>
+        <v>9.98</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>183</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2020-09-15T00:00:00Z</t>
+          <t>2020-10-05T00:00:00Z</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3076051/VF4qT-qqCUAAAAAAAAKZcQ.jpg?v=637877811480070000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3663691/VF4qT-qqCUAAAAAAAAb-gA.jpg?v=638592874910030000</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2783,52 +2783,52 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>9715</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>9727</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>ITA</t>
+          <t>PLUS VITA</t>
         </is>
       </c>
       <c r="O33" t="n">
-        <v>2000066</v>
+        <v>2000316</v>
       </c>
       <c r="P33" t="n">
-        <v>99999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>cebola-roxa-400g-38393</t>
+          <t>coentro-unidade-200930</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Cebola Roxa 400g</t>
+          <t>Coentro Unidade</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>38393</t>
+          <t>200930</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Embalagem com 2 a 3 unidades. Melhor para comer cru; Use : no guacamole, em conserva, na salada, no sanduíche.</t>
+          <t>Coentro Unidade</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6.99</v>
+        <v>2.89</v>
       </c>
       <c r="F34" t="n">
-        <v>6.99</v>
+        <v>3.79</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -2837,30 +2837,30 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2020-09-26T00:00:00Z</t>
+          <t>2020-09-28T00:00:00Z</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3081506/VF4qT-qqCUAAAAAAAAOBng.jpg?v=637947101712670000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3076728/VF4qT-qqCUAAAAAAAAGF4g.jpg?v=637877840364830000</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K34" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>5543</t>
+          <t>7408</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>5559</t>
+          <t>7427</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -2872,76 +2872,76 @@
         <v>2000015</v>
       </c>
       <c r="P34" t="n">
-        <v>100</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>mamao-papaia-cariorta-12kg-99007</t>
+          <t>sal-refinado-iodado-ita-1kg-117293</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Mamão Papaia Cariorta 1,2kg</t>
+          <t>Sal Refinado Iodado Ita 1kg</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>99007</t>
+          <t>117293</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Cariorta selecionados de coração.</t>
+          <t>Sal Refinado Iodado Ita 1kg</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>15.99</v>
+        <v>3.65</v>
       </c>
       <c r="F35" t="n">
-        <v>15.99</v>
+        <v>3.65</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2020-05-20T00:00:00Z</t>
+          <t>2020-09-15T00:00:00Z</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3082688/VF4qT-qqCUAAAAAAAAOOog.jpg?v=637980006057500000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3076051/VF4qT-qqCUAAAAAAAAKZcQ.jpg?v=637877811480070000</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K35" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>24413</t>
+          <t>126</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>24337</t>
+          <t>131</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>CARIORTA</t>
+          <t>ITA</t>
         </is>
       </c>
       <c r="O35" t="n">
-        <v>2001012</v>
+        <v>2000066</v>
       </c>
       <c r="P35" t="n">
         <v>99999</v>
@@ -2950,43 +2950,43 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>refrigerante-coca-cola-sem-acucar-pet-600-ml-429392</t>
+          <t>pao-de-queijo-forno-de-minas-tradicional--400-g-456110</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Refrigerante Coca Cola Sem Açúcar Pet 600ml</t>
+          <t>Pão De Queijo Forno De Minas Tradicional 400g</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>429392</t>
+          <t>456110</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>A Coca-Cola Sem Açúcar é um refrigerante que não contém calorias! Com certeza você já se perguntou: “Então, de onde vem aquele gostinho doce? ” A Coca-Cola Sem Açúcar é produzida especialmente com adoçantes para manter o delicioso sabor de Coca-Cola porém com 0% Açucar. Perfeita para matar sua sede a qualquer hora do dia!</t>
+          <t>Pão De Queijo Forno De Minas Tradicional 400g</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>5.69</v>
+        <v>21.99</v>
       </c>
       <c r="F36" t="n">
-        <v>5.69</v>
+        <v>21.99</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>119</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2020-10-01T00:00:00Z</t>
+          <t>2020-10-20T00:00:00Z</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4483407/VF4qT-qqCUAAAAAAAAoapA.jpg?v=639052524553700000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3041185/VF4qT-qqCUAAAAAAAAHIag.jpg?v=637792557833470000</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2999,24 +2999,24 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>8816</t>
+          <t>13544</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>8828</t>
+          <t>13564</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>COCA COLA</t>
+          <t>FORNO MINAS</t>
         </is>
       </c>
       <c r="O36" t="n">
-        <v>2000027</v>
+        <v>2001500</v>
       </c>
       <c r="P36" t="n">
-        <v>99999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37">
@@ -3094,70 +3094,70 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>papel-higienico-folha-tripla-neve-supreme-dermacare-pacote-leve-16-pague-15-unidades-981168</t>
+          <t>mamao-papaia-cariorta-12kg-99007</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Papel Higiênico Folha Tripla Neve Supreme Dermacare Pacote Leve 16 Pague 15 Unidades</t>
+          <t>Mamão Papaia Cariorta 1,2kg</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>981168</t>
+          <t>99007</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Papel higiênico neutro folha tripla de alta qualidade. Neve quer ajudar as pessoas a cuidarem de si, por isso desenvolveu um produto que proporciona maciez insuperável com mais absorção e resistência.</t>
+          <t>Cariorta selecionados de coração.</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>32.19</v>
+        <v>15.99</v>
       </c>
       <c r="F38" t="n">
-        <v>32.19</v>
+        <v>15.99</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>482</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2020-09-22T00:00:00Z</t>
+          <t>2020-05-20T00:00:00Z</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4430737/VF4qT-qqCUAAAAAAAAoMMw.jpg?v=639014499358300000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3082688/VF4qT-qqCUAAAAAAAAOOog.jpg?v=637980006057500000</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K38" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>1262</t>
+          <t>24413</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>1269</t>
+          <t>24337</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>NEVE</t>
+          <t>CARIORTA</t>
         </is>
       </c>
       <c r="O38" t="n">
-        <v>2000291</v>
+        <v>2001012</v>
       </c>
       <c r="P38" t="n">
         <v>99999</v>
@@ -3166,33 +3166,33 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>cereja-chilena-300g-13463</t>
+          <t>cebola-roxa-400g-38393</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Cereja Chilena 300g</t>
+          <t>Cebola Roxa 400g</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>13463</t>
+          <t>38393</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>As cerejas chilenas vão deleitar seu paladar com seu doce e suculento sabor. Sua cor intensa, que varia do vermelho vibrante a tonalidades mais escuras, é um banquete para os olhos e o sinal dos inúmeros benefícios à saúde. Essa pequena fruta é uma fonte nutricional completa, com vitaminas essenciais como a C e a E, além de minerais como o ferro, potássio e magnésio. A cerejas podem ser consumidas frescas, no preparo de conservas, sobremesas e tortas e são classificadas por tamanho e nós só trazemos as mais graúdas especialmente para você!</t>
+          <t>Embalagem com 2 a 3 unidades. Melhor para comer cru; Use : no guacamole, em conserva, na salada, no sanduíche.</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>64.90000000000001</v>
+        <v>6.99</v>
       </c>
       <c r="F39" t="n">
-        <v>69.90000000000001</v>
+        <v>6.99</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -3202,7 +3202,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4434078/VF4qT-qqCUAAAAAAAAoONQ.jpg?v=639019170859200000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3081506/VF4qT-qqCUAAAAAAAAOBng.jpg?v=637947101712670000</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -3211,16 +3211,16 @@
         </is>
       </c>
       <c r="K39" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>5090</t>
+          <t>5543</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>5106</t>
+          <t>5559</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -3238,43 +3238,43 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>saponaceo-cremoso-cif-limpeza-milagrosa-450ml-781266</t>
+          <t>refrigerante-coca-cola-sem-acucar-pet-600-ml-429392</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>CIF Cremoso Limpeza Milagrosa remove 100% da sujeira 450 ml</t>
+          <t>Refrigerante Coca Cola Sem Açúcar Pet 600ml</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>781266</t>
+          <t>429392</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>• Cif Cremoso Original é o produto de limpeza milagrosa que limpa fácil e dá brilho em mais de 100 superfícies*, removendo 100% da sujeira difícil, sem esforço • O Cif Cremoso Original possui um perfume suave, é mais concentrado e rende 7 garrafas do limpador comum • Fórmula com tecnologia poderosa que limpa sem riscar, removendo toda a sujeira desde a mais pesada até a limpeza de casa do dia a dia, deixando um brilho imbatível • Com o Cif, a limpeza nunca foi tão fácil e versátil. Cif Cremoso possui três variantes: Original, Limão e Laranja • Cif Cremoso Original é o produto de limpeza milagrosa para todo tipo de objeto como: eletrodomésticos, pias, couro sintético, borracha, plástico, porcelana e serve até como limpador de pisos • Cif promove uma limpeza milagrosa completa, com produtos versáteis que atendem a todas as suas necessidades. Cif. Sinta a limpeza acontecer! Cif Cremoso Original 450 ml é o produto de limpeza milagroso que limpa fácil e dá brilho em mais de 100 superfícies*, removendo 100% da sujeira difícil, sem esforço. O higienizador de casa cremoso é mais concentrado e rende 7 garrafas do limpador comum**. Sua fórmula, poderosa, limpa sem riscar***, removendo toda a sujeira desde a mais pesada até a limpeza de casa do dia a dia, deixando um brilho imbatível. Limpe toda sua casa usando o Cif Cremoso Original, que limpa todo tipo de objeto, como eletrodomésticos, potes plásticos, pias, brinquedos das crianças, persianas, pisos e até ajuda a deixar aquele cabo de carregador de celular como novo! Com o Limpador Cif, a limpeza nunca foi tão fácil e versátil. A linha do milagroso Cif Cremoso possui outras variedades de perfumes, como Laranja e Limão, que se adaptam ao seu estilo. Conheça a linha completa de produtos de limpeza Cif que não podem ficar de fora da sua lista de material de limpeza. Use também: Cif Cozinha, Cif Derrete Gordura, Cif Banheiro, Cif Tira Limo Com Cloro, Cif Vidros, Cif Cremoso e muito mais. Cif: Sinta a limpeza acontecer! Modo de usar: 1. Agite antes de usar. 2. Aplique uma pequena quantidade do produto sobre uma esponja ou pano úmido. 3. Esfregue a superfície suavemente até eliminar a sujeira. 4. Passe um pano úmido para finalizar. 5. Feche a embalagem após o uso. *Consulte lista das superfícies em www.ciflimpadores.com.br **Manchas de sabão e gordura queimada, comparado com limpadores comuns do mercado. Consulte a diferença de preços entre produtos. ***Não usar esponja ácida, como palha de aço, para a limpeza de vidros. A imagem do produto é meramente ilustrativa e o rótulo pode variar. Será enviada a embalagem disponível no momento da compra.</t>
+          <t>A Coca-Cola Sem Açúcar é um refrigerante que não contém calorias! Com certeza você já se perguntou: “Então, de onde vem aquele gostinho doce? ” A Coca-Cola Sem Açúcar é produzida especialmente com adoçantes para manter o delicioso sabor de Coca-Cola porém com 0% Açucar. Perfeita para matar sua sede a qualquer hora do dia!</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>18.99</v>
+        <v>5.69</v>
       </c>
       <c r="F40" t="n">
-        <v>18.99</v>
+        <v>5.69</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2020-10-06T00:00:00Z</t>
+          <t>2020-10-01T00:00:00Z</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3640099/VF4qT-qqCUAAAAAAAAbyew.jpg?v=638585098972800000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4483407/VF4qT-qqCUAAAAAAAAoapA.jpg?v=639052524553700000</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -3287,21 +3287,21 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>11602</t>
+          <t>8816</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>11625</t>
+          <t>8828</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>CIF</t>
+          <t>COCA COLA</t>
         </is>
       </c>
       <c r="O40" t="n">
-        <v>2000541</v>
+        <v>2000027</v>
       </c>
       <c r="P40" t="n">
         <v>99999</v>
@@ -3310,43 +3310,43 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>alho-roxo-cariorta-4-a-5-unidades-250g-99279</t>
+          <t>cereja-chilena-300g-13463</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Alho Roxo Cariorta 4 a 5 unidades 250g</t>
+          <t>Cereja Chilena 300g</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>99279</t>
+          <t>13463</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Cariorta selecionados de coração.</t>
+          <t>As cerejas chilenas vão deleitar seu paladar com seu doce e suculento sabor. Sua cor intensa, que varia do vermelho vibrante a tonalidades mais escuras, é um banquete para os olhos e o sinal dos inúmeros benefícios à saúde. Essa pequena fruta é uma fonte nutricional completa, com vitaminas essenciais como a C e a E, além de minerais como o ferro, potássio e magnésio. A cerejas podem ser consumidas frescas, no preparo de conservas, sobremesas e tortas e são classificadas por tamanho e nós só trazemos as mais graúdas especialmente para você!</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>59.99</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="F41" t="n">
-        <v>59.99</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2020-05-27T00:00:00Z</t>
+          <t>2020-09-26T00:00:00Z</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3082698/VF4qT-qqCUAAAAAAAAOOtg.jpg?v=637980006345970000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4434078/VF4qT-qqCUAAAAAAAAoONQ.jpg?v=639019170859200000</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -3355,25 +3355,25 @@
         </is>
       </c>
       <c r="K41" t="n">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>24684</t>
+          <t>5090</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>24608</t>
+          <t>5106</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>CARIORTA</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O41" t="n">
-        <v>2001012</v>
+        <v>2000015</v>
       </c>
       <c r="P41" t="n">
         <v>99999</v>
@@ -3382,70 +3382,70 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>abobora-japonesa-pedaco-500g-38229</t>
+          <t>saponaceo-cremoso-cif-limpeza-milagrosa-450ml-781266</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Abóbora Japonesa Pedaço 500g</t>
+          <t>CIF Cremoso Limpeza Milagrosa remove 100% da sujeira 450 ml</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>38229</t>
+          <t>781266</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Embalagem com 1 pedaço.</t>
+          <t>• Cif Cremoso Original é o produto de limpeza milagrosa que limpa fácil e dá brilho em mais de 100 superfícies*, removendo 100% da sujeira difícil, sem esforço • O Cif Cremoso Original possui um perfume suave, é mais concentrado e rende 7 garrafas do limpador comum • Fórmula com tecnologia poderosa que limpa sem riscar, removendo toda a sujeira desde a mais pesada até a limpeza de casa do dia a dia, deixando um brilho imbatível • Com o Cif, a limpeza nunca foi tão fácil e versátil. Cif Cremoso possui três variantes: Original, Limão e Laranja • Cif Cremoso Original é o produto de limpeza milagrosa para todo tipo de objeto como: eletrodomésticos, pias, couro sintético, borracha, plástico, porcelana e serve até como limpador de pisos • Cif promove uma limpeza milagrosa completa, com produtos versáteis que atendem a todas as suas necessidades. Cif. Sinta a limpeza acontecer! Cif Cremoso Original 450 ml é o produto de limpeza milagroso que limpa fácil e dá brilho em mais de 100 superfícies*, removendo 100% da sujeira difícil, sem esforço. O higienizador de casa cremoso é mais concentrado e rende 7 garrafas do limpador comum**. Sua fórmula, poderosa, limpa sem riscar***, removendo toda a sujeira desde a mais pesada até a limpeza de casa do dia a dia, deixando um brilho imbatível. Limpe toda sua casa usando o Cif Cremoso Original, que limpa todo tipo de objeto, como eletrodomésticos, potes plásticos, pias, brinquedos das crianças, persianas, pisos e até ajuda a deixar aquele cabo de carregador de celular como novo! Com o Limpador Cif, a limpeza nunca foi tão fácil e versátil. A linha do milagroso Cif Cremoso possui outras variedades de perfumes, como Laranja e Limão, que se adaptam ao seu estilo. Conheça a linha completa de produtos de limpeza Cif que não podem ficar de fora da sua lista de material de limpeza. Use também: Cif Cozinha, Cif Derrete Gordura, Cif Banheiro, Cif Tira Limo Com Cloro, Cif Vidros, Cif Cremoso e muito mais. Cif: Sinta a limpeza acontecer! Modo de usar: 1. Agite antes de usar. 2. Aplique uma pequena quantidade do produto sobre uma esponja ou pano úmido. 3. Esfregue a superfície suavemente até eliminar a sujeira. 4. Passe um pano úmido para finalizar. 5. Feche a embalagem após o uso. *Consulte lista das superfícies em www.ciflimpadores.com.br **Manchas de sabão e gordura queimada, comparado com limpadores comuns do mercado. Consulte a diferença de preços entre produtos. ***Não usar esponja ácida, como palha de aço, para a limpeza de vidros. A imagem do produto é meramente ilustrativa e o rótulo pode variar. Será enviada a embalagem disponível no momento da compra.</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>5.29</v>
+        <v>18.99</v>
       </c>
       <c r="F42" t="n">
-        <v>5.29</v>
+        <v>18.99</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>74</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2020-09-26T00:00:00Z</t>
+          <t>2020-10-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3096862/VF4qT-qqCUAAAAAAAAS9Tw.jpg?v=638235593168230000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3640099/VF4qT-qqCUAAAAAAAAbyew.jpg?v=638585098972800000</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K42" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>5593</t>
+          <t>11602</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>5609</t>
+          <t>11625</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>CIF</t>
         </is>
       </c>
       <c r="O42" t="n">
-        <v>2000015</v>
+        <v>2000541</v>
       </c>
       <c r="P42" t="n">
         <v>99999</v>
@@ -3454,43 +3454,43 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>couve-manteiga-unidade-201235</t>
+          <t>papel-higienico-folha-tripla-neve-supreme-dermacare-pacote-leve-16-pague-15-unidades-981168</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Couve Manteiga Unidade</t>
+          <t>Papel Higiênico Folha Tripla Neve Supreme Dermacare Pacote Leve 16 Pague 15 Unidades</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>201235</t>
+          <t>981168</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>A couve é uma hortaliça muito rica em nutriente,cálcio, ferro e vitaminas A,C, K e B5.Como conservar:Em geladeira, inteira ou picada deve ser mantida em saco plástico fechado ou em vasilha de plástico tampada.Como consumir:Pode ser consumida crua, em saladas e sucos, refogada ou como ingrediente de sopas, farofas e cozidos.[ Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
+          <t>Papel higiênico neutro folha tripla de alta qualidade. Neve quer ajudar as pessoas a cuidarem de si, por isso desenvolveu um produto que proporciona maciez insuperável com mais absorção e resistência.</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>2.89</v>
+        <v>32.19</v>
       </c>
       <c r="F43" t="n">
-        <v>3.79</v>
+        <v>32.19</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>14</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2020-09-28T00:00:00Z</t>
+          <t>2020-09-22T00:00:00Z</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3083631/VF4qT-qqCUAAAAAAAAOZOA.jpg?v=637994955185970000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4430737/VF4qT-qqCUAAAAAAAAoMMw.jpg?v=639014499358300000</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -3503,21 +3503,21 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>7445</t>
+          <t>1262</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>7464</t>
+          <t>1269</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>NEVE</t>
         </is>
       </c>
       <c r="O43" t="n">
-        <v>2000015</v>
+        <v>2000291</v>
       </c>
       <c r="P43" t="n">
         <v>99999</v>
@@ -3526,70 +3526,70 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>oleo-de-soja-liza-900ml-127310</t>
+          <t>alho-roxo-cariorta-4-a-5-unidades-250g-99279</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Óleo De Soja Liza 900ml</t>
+          <t>Alho Roxo Cariorta 4 a 5 unidades 250g</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>127310</t>
+          <t>99279</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Óleo De Soja Liza 900ml</t>
+          <t>Cariorta selecionados de coração.</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>8.59</v>
+        <v>59.99</v>
       </c>
       <c r="F44" t="n">
-        <v>8.59</v>
+        <v>59.99</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>480</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2020-09-15T00:00:00Z</t>
+          <t>2020-05-27T00:00:00Z</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3075849/VF4qT-qqCUAAAAAAAAIxqw.jpg?v=637877802666600000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3082698/VF4qT-qqCUAAAAAAAAOOtg.jpg?v=637980006345970000</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K44" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>24684</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>24608</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>LIZA</t>
+          <t>CARIORTA</t>
         </is>
       </c>
       <c r="O44" t="n">
-        <v>2000067</v>
+        <v>2001012</v>
       </c>
       <c r="P44" t="n">
         <v>99999</v>
@@ -3598,70 +3598,70 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>papel-aluminio-rolitto-30cm-x-75-m-897795</t>
+          <t>abobora-japonesa-pedaco-500g-38229</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Papel Alumínio Rolitto 30Cm X 7,5 M</t>
+          <t>Abóbora Japonesa Pedaço 500g</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>897795</t>
+          <t>38229</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Envolve , protege e conserva.</t>
+          <t>Embalagem com 1 pedaço.</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>5.99</v>
+        <v>5.29</v>
       </c>
       <c r="F45" t="n">
-        <v>6.99</v>
+        <v>5.29</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>53</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2020-10-05T00:00:00Z</t>
+          <t>2020-09-26T00:00:00Z</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3061098/VF4qT-qqCUAAAAAAAAGpfA.jpg?v=637794125591230000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3096862/VF4qT-qqCUAAAAAAAAS9Tw.jpg?v=638235593168230000</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K45" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>9853</t>
+          <t>5593</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>9866</t>
+          <t>5609</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>KENTINHA</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O45" t="n">
-        <v>2001532</v>
+        <v>2000015</v>
       </c>
       <c r="P45" t="n">
         <v>99999</v>
@@ -3670,43 +3670,43 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>leite-longa-vida-integral-elege-tetra-pak-1l-371289</t>
+          <t>couve-manteiga-unidade-201235</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Leite Longa Vida Integral Elegê Tetra Pak 1L</t>
+          <t>Couve Manteiga Unidade</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>371289</t>
+          <t>201235</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Leite Longa Vida Integral Elegê Tetra Pak 1L</t>
+          <t>A couve é uma hortaliça muito rica em nutriente,cálcio, ferro e vitaminas A,C, K e B5.Como conservar:Em geladeira, inteira ou picada deve ser mantida em saco plástico fechado ou em vasilha de plástico tampada.Como consumir:Pode ser consumida crua, em saladas e sucos, refogada ou como ingrediente de sopas, farofas e cozidos.[ Fonte: 50 Hortaliças – Como Comprar, Conservar e Consumir. Editora: Embrapa]</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>5.39</v>
+        <v>2.89</v>
       </c>
       <c r="F46" t="n">
-        <v>5.39</v>
+        <v>3.79</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2020-10-05T00:00:00Z</t>
+          <t>2020-09-28T00:00:00Z</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3129041/VF4qT-qqCUAAAAAAAAUbaw.jpg?v=638309476429500000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3083631/VF4qT-qqCUAAAAAAAAOZOA.jpg?v=637994955185970000</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -3719,66 +3719,66 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>9974</t>
+          <t>7445</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>9988</t>
+          <t>7464</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>ELEGE</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O46" t="n">
-        <v>2000400</v>
+        <v>2000015</v>
       </c>
       <c r="P46" t="n">
-        <v>100</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>desinfetante-banheiro-tira-limo-veja-x-14-sache-400ml-refil-economico-1066404</t>
+          <t>papel-aluminio-rolitto-30cm-x-75-m-897795</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Desinfetante Banheiro Tira-Limo Veja X-14 Sachê 400ml Refil Econômico</t>
+          <t>Papel Alumínio Rolitto 30Cm X 7,5 M</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>1066404</t>
+          <t>897795</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Desinfetante Banheiro Tira-Limo Veja X-14 Sachê 400ml Refil Econômico</t>
+          <t>Envolve , protege e conserva.</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>9.9</v>
+        <v>6.99</v>
       </c>
       <c r="F47" t="n">
-        <v>11.99</v>
+        <v>6.99</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>111</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2022-08-11T00:00:00Z</t>
+          <t>2020-10-05T00:00:00Z</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3927710/VF4qT-qqCUAAAAAAAAOGFQ.jpg?v=638733705155570000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3061098/VF4qT-qqCUAAAAAAAAGpfA.jpg?v=637794125591230000</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -3791,21 +3791,21 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>27159</t>
+          <t>9853</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>27083</t>
+          <t>9866</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>VEJA</t>
+          <t>KENTINHA</t>
         </is>
       </c>
       <c r="O47" t="n">
-        <v>2000523</v>
+        <v>2001532</v>
       </c>
       <c r="P47" t="n">
         <v>99999</v>
@@ -3814,43 +3814,43 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>milho-em-conserva-quero-lata-200g-476625</t>
+          <t>iogurte-integral-nestle-natural-copo-170-g-364738</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Milho em Conserva Quero Lata 200g</t>
+          <t>Iogurte Integral Nestlé Natural Copo 170g</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>476625</t>
+          <t>364738</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Sabor inigualável e cozimento na medida certa são os segredos do Milho Quero. O Milho Verde em Conserva Quero Lata 170g é ideal para receitas em pequenas quantidades. Se você prefere embalagens em lata, essa opção é ideal pra você! Para garantir a qualidade da sua receita, a Quero seleciona os vegetais com todo o cuidado, deixando o resultado final impecável. Pode confiar que seus pratos vão ficar uma delícia. Sabor e frescor para o seu dia a dia! Que tal experimentar? Quero cabe na panela, no prato e no bolso, sendo a marca queridinha entre os brasileiros.* Pode confiar que quando você tem Quero, você faz acontecer!</t>
+          <t>Descubra a pureza e a qualidade do Iogurte Natural Nestlé® Integral. Este iogurte foi pensado em todos que buscam uma experiência simples e natural. Ele é feito apenas com dois ingredientes: leite e fermento, sendo uma opção para quem procura uma alimentação mais equilibrada, livre de produtos que contém diversos ingredientes. Com o Iogurte Natural Integral você pode aproveitar os benefícios do leite e do fermento de forma pura e autêntica. A versatilidade deste iogurte é outro diferencial, pois permite que seja usado conforme o gosto de cada um. Pode ser consumido puro, servido com frutas, adicionado a smoothies ou utilizado em receitas. Linha Nestlé® é tradição e qualidade!</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>3.89</v>
+        <v>4.89</v>
       </c>
       <c r="F48" t="n">
-        <v>4.99</v>
+        <v>4.89</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>100</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2020-10-06T00:00:00Z</t>
+          <t>2020-09-29T00:00:00Z</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3090347/476625_1.jpg?v=638126891970330000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3959333/VF4qT-qqCUAAAAAAAAUrxw.jpg?v=638755307288170000</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -3863,21 +3863,21 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>10734</t>
+          <t>2122</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>10752</t>
+          <t>2129</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>QUERO</t>
+          <t>NESTLE</t>
         </is>
       </c>
       <c r="O48" t="n">
-        <v>2001778</v>
+        <v>2000043</v>
       </c>
       <c r="P48" t="n">
         <v>99999</v>
@@ -3886,43 +3886,43 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>iogurte-integral-nestle-natural-copo-170-g-364738</t>
+          <t>milho-em-conserva-quero-lata-200g-476625</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Iogurte Integral Nestlé Natural Copo 170g</t>
+          <t>Milho em Conserva Quero Lata 200g</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>364738</t>
+          <t>476625</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Descubra a pureza e a qualidade do Iogurte Natural Nestlé® Integral. Este iogurte foi pensado em todos que buscam uma experiência simples e natural. Ele é feito apenas com dois ingredientes: leite e fermento, sendo uma opção para quem procura uma alimentação mais equilibrada, livre de produtos que contém diversos ingredientes. Com o Iogurte Natural Integral você pode aproveitar os benefícios do leite e do fermento de forma pura e autêntica. A versatilidade deste iogurte é outro diferencial, pois permite que seja usado conforme o gosto de cada um. Pode ser consumido puro, servido com frutas, adicionado a smoothies ou utilizado em receitas. Linha Nestlé® é tradição e qualidade!</t>
+          <t>Sabor inigualável e cozimento na medida certa são os segredos do Milho Quero. O Milho Verde em Conserva Quero Lata 170g é ideal para receitas em pequenas quantidades. Se você prefere embalagens em lata, essa opção é ideal pra você! Para garantir a qualidade da sua receita, a Quero seleciona os vegetais com todo o cuidado, deixando o resultado final impecável. Pode confiar que seus pratos vão ficar uma delícia. Sabor e frescor para o seu dia a dia! Que tal experimentar? Quero cabe na panela, no prato e no bolso, sendo a marca queridinha entre os brasileiros.* Pode confiar que quando você tem Quero, você faz acontecer!</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>3.79</v>
+        <v>3.78</v>
       </c>
       <c r="F49" t="n">
-        <v>4.89</v>
+        <v>4.99</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>147</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2020-09-29T00:00:00Z</t>
+          <t>2020-10-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3959333/VF4qT-qqCUAAAAAAAAUrxw.jpg?v=638755307288170000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3090347/476625_1.jpg?v=638126891970330000</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -3935,95 +3935,23 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>2122</t>
+          <t>10734</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>2129</t>
+          <t>10752</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>NESTLE</t>
+          <t>QUERO</t>
         </is>
       </c>
       <c r="O49" t="n">
-        <v>2000043</v>
+        <v>2001778</v>
       </c>
       <c r="P49" t="n">
-        <v>99999</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>matte-leao-natural-pet-15l-118214</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Matte Leão Natural Pet 1,5L</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>118214</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Renove seu humor, recicle seu ritmo e siga em frente. Experimente combinar o seu dia com o sabor inconfundível de Matte Leão.Matte Leão é feito com folhas de ervamate selecionadas e tostadas num processo único, especialmente para você.Porção de 200 mL (1 copo) = 68 kcal.</t>
-        </is>
-      </c>
-      <c r="E50" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="F50" t="n">
-        <v>8.99</v>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2020-10-01T00:00:00Z</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3704453/VF4qT-qqCUAAAAAAAAGyOQ.jpg?v=638609291247270000</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>un</t>
-        </is>
-      </c>
-      <c r="K50" t="n">
-        <v>1</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>8709</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>8721</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>LEAO</t>
-        </is>
-      </c>
-      <c r="O50" t="n">
-        <v>2000010</v>
-      </c>
-      <c r="P50" t="n">
         <v>99999</v>
       </c>
     </row>

--- a/zonasul.xlsx
+++ b/zonasul.xlsx
@@ -533,7 +533,7 @@
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="n">
-        <v>5.99</v>
+        <v>3.99</v>
       </c>
       <c r="F2" t="n">
         <v>5.99</v>
@@ -802,61 +802,61 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>uva-preta-sem-semente-500-g-674583</t>
+          <t>mucarela-em-fatias-92363</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Uva Preta Sem Semente 500g</t>
+          <t>Muçarela  em Fatias 200g</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>674583</t>
+          <t>92363</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Eventualmente, devido à variações climáticas, essa variedade pode apresentar traços de sementes comestíveis As uvas são, sem dúvidas, uma das frutas mais nutritivas de todas. Apesar de seu tamanho relativamente pequeno, elas são extremamente poderosas nutricionalmente e consumilas é muito importante para o bom funcionamento do corpo.As calorias presentes nas uvas também são poucas: apenas 90 em cerca de 150g. Por isso, é uma ótima opção também para aqueles que estão em processo de redução da massa corporal, desde que consumida com cautela.Rica em antioxidantes que são responsáveis por ‘’limpar’’ e proteger as nossas células dos chamados radicais livres, compostos potencialmente perigosos que podem danificar essas estruturas.Os antioxidantes estão mais comumente presentes na casca da fruta, o que é indicado pela coloração delas. Quanto mais escuras, maior é a concentração desses compostos na uva. Os principais exemplos são os polifenois, e o mais famoso deles chamase resveratrol.</t>
+          <t>Muçarela em Fatias</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>10.99</v>
+        <v>59.9</v>
       </c>
       <c r="F6" t="n">
-        <v>11.99</v>
+        <v>59.9</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>83</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2020-09-26T00:00:00Z</t>
+          <t>2020-09-27T00:00:00Z</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3047035/VF4qT-qqCUAAAAAAAAGXCQ.jpg?v=637793205627670000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3052070/VF4qT-qqCUAAAAAAAAI4-w.jpg?v=637793416889100000</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>5264</t>
+          <t>1361</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>5280</t>
+          <t>1368</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -874,61 +874,61 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>mucarela-em-fatias-92363</t>
+          <t>uva-preta-sem-semente-500-g-674583</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Muçarela  em Fatias 200g</t>
+          <t>Uva Preta Sem Semente 500g</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>92363</t>
+          <t>674583</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Muçarela em Fatias</t>
+          <t>Eventualmente, devido à variações climáticas, essa variedade pode apresentar traços de sementes comestíveis As uvas são, sem dúvidas, uma das frutas mais nutritivas de todas. Apesar de seu tamanho relativamente pequeno, elas são extremamente poderosas nutricionalmente e consumilas é muito importante para o bom funcionamento do corpo.As calorias presentes nas uvas também são poucas: apenas 90 em cerca de 150g. Por isso, é uma ótima opção também para aqueles que estão em processo de redução da massa corporal, desde que consumida com cautela.Rica em antioxidantes que são responsáveis por ‘’limpar’’ e proteger as nossas células dos chamados radicais livres, compostos potencialmente perigosos que podem danificar essas estruturas.Os antioxidantes estão mais comumente presentes na casca da fruta, o que é indicado pela coloração delas. Quanto mais escuras, maior é a concentração desses compostos na uva. Os principais exemplos são os polifenois, e o mais famoso deles chamase resveratrol.</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>59.9</v>
+        <v>11.99</v>
       </c>
       <c r="F7" t="n">
-        <v>59.9</v>
+        <v>11.99</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2020-09-27T00:00:00Z</t>
+          <t>2020-09-26T00:00:00Z</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3052070/VF4qT-qqCUAAAAAAAAI4-w.jpg?v=637793416889100000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3047035/VF4qT-qqCUAAAAAAAAGXCQ.jpg?v=637793205627670000</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>1361</t>
+          <t>5264</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>1368</t>
+          <t>5280</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -1018,43 +1018,43 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>refrigerante-coca-cola-sem-acucar-lata-350-ml-429376</t>
+          <t>tomate-italiano-unidade-495212</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Refrigerante Coca Cola Sem Açúcar Lata 350ml</t>
+          <t>Tomate Italiano Unidade</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>429376</t>
+          <t>495212</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>A Coca-Cola Sem Açúcar é um refrigerante que não contém calorias! Com certeza você já se perguntou: “Então, de onde vem aquele gostinho doce? ” A Coca-Cola Sem Açúcar é produzida especialmente com adoçantes para manter o delicioso sabor de Coca-Cola porém com 0% Açucar. Uma Lata de Coca-Cola Sem Perfeita para matar sua sede a qualquer hora do dia!</t>
+          <t>Tomate Italiano Unidade</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3.99</v>
+        <v>1.53</v>
       </c>
       <c r="F9" t="n">
-        <v>3.99</v>
+        <v>1.53</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>53</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2020-10-01T00:00:00Z</t>
+          <t>2020-09-27T00:00:00Z</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4483405/VF4qT-qqCUAAAAAAAAoaow.jpg?v=639052524439630000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3094266/VF4qT-qqCUAAAAAAAASLmg.jpg?v=638191532599970000</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1067,21 +1067,21 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>8817</t>
+          <t>6965</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>8829</t>
+          <t>6983</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>COCA COLA</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O9" t="n">
-        <v>2000027</v>
+        <v>2000015</v>
       </c>
       <c r="P9" t="n">
         <v>99999</v>
@@ -1090,70 +1090,70 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>batata-inglesa-cariorta-12kg-98698</t>
+          <t>refrigerante-coca-cola-sem-acucar-lata-350-ml-429376</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Batata Inglesa Cariorta 1,2Kg</t>
+          <t>Refrigerante Coca Cola Sem Açúcar Lata 350ml</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>98698</t>
+          <t>429376</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Cariorta selecionados de coração.</t>
+          <t>A Coca-Cola Sem Açúcar é um refrigerante que não contém calorias! Com certeza você já se perguntou: “Então, de onde vem aquele gostinho doce? ” A Coca-Cola Sem Açúcar é produzida especialmente com adoçantes para manter o delicioso sabor de Coca-Cola porém com 0% Açucar. Uma Lata de Coca-Cola Sem Perfeita para matar sua sede a qualquer hora do dia!</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>7.99</v>
+        <v>3.99</v>
       </c>
       <c r="F10" t="n">
-        <v>7.99</v>
+        <v>3.99</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2020-12-16T00:00:00Z</t>
+          <t>2020-10-01T00:00:00Z</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3082670/VF4qT-qqCUAAAAAAAAOOew.jpg?v=637979987993130000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4483405/VF4qT-qqCUAAAAAAAAoaow.jpg?v=639052524439630000</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K10" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>16570</t>
+          <t>8817</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>16461</t>
+          <t>8829</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>CARIORTA</t>
+          <t>COCA COLA</t>
         </is>
       </c>
       <c r="O10" t="n">
-        <v>2001012</v>
+        <v>2000027</v>
       </c>
       <c r="P10" t="n">
         <v>99999</v>
@@ -1162,70 +1162,70 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>tomate-italiano-unidade-495212</t>
+          <t>batata-inglesa-cariorta-12kg-98698</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Tomate Italiano Unidade</t>
+          <t>Batata Inglesa Cariorta 1,2Kg</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>495212</t>
+          <t>98698</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Tomate Italiano Unidade</t>
+          <t>Cariorta selecionados de coração.</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1.18</v>
+        <v>7.99</v>
       </c>
       <c r="F11" t="n">
-        <v>1.53</v>
+        <v>7.99</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>483</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2020-09-27T00:00:00Z</t>
+          <t>2020-12-16T00:00:00Z</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3094266/VF4qT-qqCUAAAAAAAASLmg.jpg?v=638191532599970000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3082670/VF4qT-qqCUAAAAAAAAOOew.jpg?v=637979987993130000</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>6965</t>
+          <t>16570</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>6983</t>
+          <t>16461</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>CARIORTA</t>
         </is>
       </c>
       <c r="O11" t="n">
-        <v>2000015</v>
+        <v>2001012</v>
       </c>
       <c r="P11" t="n">
         <v>99999</v>
@@ -1253,7 +1253,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2.89</v>
+        <v>3.79</v>
       </c>
       <c r="F12" t="n">
         <v>3.79</v>
@@ -1325,7 +1325,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>43.9</v>
+        <v>29.98</v>
       </c>
       <c r="F13" t="n">
         <v>43.9</v>
@@ -1397,10 +1397,10 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4.79</v>
+        <v>5.99</v>
       </c>
       <c r="F14" t="n">
-        <v>5.39</v>
+        <v>5.99</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1469,7 +1469,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>8.99</v>
+        <v>10.99</v>
       </c>
       <c r="F15" t="n">
         <v>10.99</v>
@@ -1681,7 +1681,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>9.49</v>
+        <v>9.99</v>
       </c>
       <c r="F18" t="n">
         <v>9.99</v>
@@ -2090,43 +2090,43 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>morango-250g-289612</t>
+          <t>file-de-peito-de-frango-sadia-bandeja-1kg-290564</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Morango 250g</t>
+          <t>Filé de Peito de Frango Sadia Bandeja 1kg</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>289612</t>
+          <t>290564</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Embalagem com 250g "O morango é rico em vitamina C e, por isso, o consumo da fruta evita a fragilidade dos ossos e a má formação dos dentes. Ele também dá resistência aos tecidos, age contra infecções ajudando na cicatrização. O morango também possui, em menor quantidade, vitamina B5, conhecida como niacina. Ela tem a função de evitar problemas de pele, do aparelho digestivo e do sistema nervoso. Na fruta, também é encontrado ferro, que faz parte da formação do sangue."</t>
+          <t>Peito De Frango Em Filés Sadia Bandeja 1kg</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>8.99</v>
+        <v>22.99</v>
       </c>
       <c r="F24" t="n">
-        <v>9.99</v>
+        <v>26.99</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>125</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2020-09-26T00:00:00Z</t>
+          <t>2020-09-29T00:00:00Z</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3226559/VF4qT-qqCUAAAAAAAAHKNA.jpg?v=638352676547800000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3538840/VF4qT-qqCUAAAAAAAAa5gg.jpg?v=638550537679130000</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -2139,21 +2139,21 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>5152</t>
+          <t>7</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>5168</t>
+          <t>7</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>SADIA</t>
         </is>
       </c>
       <c r="O24" t="n">
-        <v>2000015</v>
+        <v>2000057</v>
       </c>
       <c r="P24" t="n">
         <v>99999</v>
@@ -2162,43 +2162,43 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>azeite-italiano-extra-virgem-due-500ml-5472040</t>
+          <t>morango-250g-289612</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Azeite Italiano Extravirgem Due 500ml</t>
+          <t>Morango 250g</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>5472040</t>
+          <t>289612</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>O azeite Due é um blend de azeites do Mediterrâneo que confere um resultado clássico e ideal para o cotidiano da cozinha. Sua elaboração conta com uma seleção cautelosamente realizada pelo Expert em Azeites e Temperos Marcelo Scofano, que anualmente viaja à Toscana (Itália), onde o azeite é produzido, para cuidar de cada detalhe pessoalmente.Due é um azeite clássico, ideal para o dia a dia da cozinha: marinados, refogados, emulsão de molhos, finalização de saladas, massas e pratos do cotidiano. O azeite clássico é extraído de azeitonas maduras. Possui sabor amendoado, com notas amargas e picantes em equilíbrio.O azeite Due faz parte da grupo de marcas exclusivas Zona Sul, criada e pensada com carinho para os cariocas de coração. O planejamento de cada produto exclusivo conta com a participação dos Experts Zona Sul em todo o processo, até chegar na sua mesa. E com a linha Due não é diferente!</t>
+          <t>Embalagem com 250g "O morango é rico em vitamina C e, por isso, o consumo da fruta evita a fragilidade dos ossos e a má formação dos dentes. Ele também dá resistência aos tecidos, age contra infecções ajudando na cicatrização. O morango também possui, em menor quantidade, vitamina B5, conhecida como niacina. Ela tem a função de evitar problemas de pele, do aparelho digestivo e do sistema nervoso. Na fruta, também é encontrado ferro, que faz parte da formação do sangue."</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>36.9</v>
+        <v>9.99</v>
       </c>
       <c r="F25" t="n">
-        <v>36.9</v>
+        <v>9.99</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-06T00:00:00Z</t>
+          <t>2020-09-26T00:00:00Z</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4116721/VF4qT-qqCUAAAAAAAAiyjQ.jpg?v=638846625781330000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3226559/VF4qT-qqCUAAAAAAAAHKNA.jpg?v=638352676547800000</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2211,21 +2211,21 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>40224</t>
+          <t>5152</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>40151</t>
+          <t>5168</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>DUE</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O25" t="n">
-        <v>2005138</v>
+        <v>2000015</v>
       </c>
       <c r="P25" t="n">
         <v>99999</v>
@@ -2234,43 +2234,39 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>file-de-peito-de-frango-sadia-bandeja-1kg-290564</t>
+          <t>papel-toalha-coquetel-19cm-x-19cm-com-2-rolos-com-60-folhas-cada-783242</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Filé de Peito de Frango Sadia Bandeja 1kg</t>
+          <t>Papel Toalha Coquetel 19Cm X 19Cm com 2 Rolos com 60 Folhas Cada</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>290564</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Peito De Frango Em Filés Sadia Bandeja 1kg</t>
-        </is>
-      </c>
+          <t>783242</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="n">
-        <v>22.99</v>
+        <v>5.79</v>
       </c>
       <c r="F26" t="n">
-        <v>26.99</v>
+        <v>6.99</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>111</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2020-09-29T00:00:00Z</t>
+          <t>2020-10-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3538840/VF4qT-qqCUAAAAAAAAa5gg.jpg?v=638550537679130000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3050348/VF4qT-qqCUAAAAAAAAJRgg.jpg?v=637793335676500000</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2283,21 +2279,21 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>11627</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>11650</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>SADIA</t>
+          <t>COQUETEL</t>
         </is>
       </c>
       <c r="O26" t="n">
-        <v>2000057</v>
+        <v>2001855</v>
       </c>
       <c r="P26" t="n">
         <v>99999</v>
@@ -2306,43 +2302,43 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>abobrinha-italiana-unidade-423513</t>
+          <t>azeite-italiano-extra-virgem-due-500ml-5472040</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Abobrinha Italiana Unidade</t>
+          <t>Azeite Italiano Extravirgem Due 500ml</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>423513</t>
+          <t>5472040</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Abobrinha Italiana Unidade</t>
+          <t>O azeite Due é um blend de azeites do Mediterrâneo que confere um resultado clássico e ideal para o cotidiano da cozinha. Sua elaboração conta com uma seleção cautelosamente realizada pelo Expert em Azeites e Temperos Marcelo Scofano, que anualmente viaja à Toscana (Itália), onde o azeite é produzido, para cuidar de cada detalhe pessoalmente.Due é um azeite clássico, ideal para o dia a dia da cozinha: marinados, refogados, emulsão de molhos, finalização de saladas, massas e pratos do cotidiano. O azeite clássico é extraído de azeitonas maduras. Possui sabor amendoado, com notas amargas e picantes em equilíbrio.O azeite Due faz parte da grupo de marcas exclusivas Zona Sul, criada e pensada com carinho para os cariocas de coração. O planejamento de cada produto exclusivo conta com a participação dos Experts Zona Sul em todo o processo, até chegar na sua mesa. E com a linha Due não é diferente!</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>2.1</v>
+        <v>36.9</v>
       </c>
       <c r="F27" t="n">
-        <v>2.45</v>
+        <v>36.9</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>597</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2020-12-07T00:00:00Z</t>
+          <t>2025-05-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3095398/VF4qT-qqCUAAAAAAAASlGA.jpg?v=638211351178300000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4116721/VF4qT-qqCUAAAAAAAAiyjQ.jpg?v=638846625781330000</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -2355,21 +2351,21 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>16065</t>
+          <t>40224</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>15956</t>
+          <t>40151</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>DUE</t>
         </is>
       </c>
       <c r="O27" t="n">
-        <v>2000015</v>
+        <v>2005138</v>
       </c>
       <c r="P27" t="n">
         <v>99999</v>
@@ -2450,43 +2446,43 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>guardanapo-folha-dupla-scott-grand-hotel-jantar-33×33-cm-com-50-unidades-129887</t>
+          <t>abobrinha-italiana-unidade-423513</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Guardanapo Folha Dupla Scott Grand Hotel Jantar 33×33 Cm Com 50 Unidades</t>
+          <t>Abobrinha Italiana Unidade</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>129887</t>
+          <t>423513</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>O Guardanapo Grand Hotel folha tripla é mais sofisticado e garante uma maciez superior para todos os momentos. Contém 50 folhas de tamanho 31,8x32,8 cm cada.</t>
+          <t>Abobrinha Italiana Unidade</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>12.99</v>
+        <v>2.45</v>
       </c>
       <c r="F29" t="n">
-        <v>12.99</v>
+        <v>2.45</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>53</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2020-10-05T00:00:00Z</t>
+          <t>2020-12-07T00:00:00Z</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3078100/129887_1.jpg?v=637895346534630000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3095398/VF4qT-qqCUAAAAAAAASlGA.jpg?v=638211351178300000</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2499,21 +2495,21 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>9427</t>
+          <t>16065</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>9439</t>
+          <t>15956</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>GRANDE HOTEL</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O29" t="n">
-        <v>2001401</v>
+        <v>2000015</v>
       </c>
       <c r="P29" t="n">
         <v>99999</v>
@@ -2522,43 +2518,43 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>farinha-de-trigo-dona-benta-1kg-105287</t>
+          <t>guardanapo-folha-dupla-scott-grand-hotel-jantar-33×33-cm-com-50-unidades-129887</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Farinha De Trigo Dona Benta 1kg</t>
+          <t>Guardanapo Folha Dupla Scott Grand Hotel Jantar 33×33 Cm Com 50 Unidades</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>105287</t>
+          <t>129887</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Farinha De Trigo Dona Benta 1kg</t>
+          <t>O Guardanapo Grand Hotel folha tripla é mais sofisticado e garante uma maciez superior para todos os momentos. Contém 50 folhas de tamanho 31,8x32,8 cm cada.</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>7.99</v>
+        <v>12.99</v>
       </c>
       <c r="F30" t="n">
-        <v>7.99</v>
+        <v>12.99</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>111</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2020-07-06T00:00:00Z</t>
+          <t>2020-10-05T00:00:00Z</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3079291/VF4qT-qqCUAAAAAAAANuog.jpg?v=637897755804270000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3078100/129887_1.jpg?v=637895346534630000</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -2571,62 +2567,66 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>9427</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>9439</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>DONA BENTA</t>
+          <t>GRANDE HOTEL</t>
         </is>
       </c>
       <c r="O30" t="n">
-        <v>2000701</v>
+        <v>2001401</v>
       </c>
       <c r="P30" t="n">
-        <v>100</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>papel-toalha-coquetel-19cm-x-19cm-com-2-rolos-com-60-folhas-cada-783242</t>
+          <t>farinha-de-trigo-dona-benta-1kg-105287</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Papel Toalha Coquetel 19Cm X 19Cm com 2 Rolos com 60 Folhas Cada</t>
+          <t>Farinha De Trigo Dona Benta 1kg</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>783242</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
+          <t>105287</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Farinha De Trigo Dona Benta 1kg</t>
+        </is>
+      </c>
       <c r="E31" t="n">
-        <v>5.79</v>
+        <v>7.99</v>
       </c>
       <c r="F31" t="n">
-        <v>6.99</v>
+        <v>7.99</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>63</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2020-10-06T00:00:00Z</t>
+          <t>2020-07-06T00:00:00Z</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3050348/VF4qT-qqCUAAAAAAAAJRgg.jpg?v=637793335676500000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3079291/VF4qT-qqCUAAAAAAAANuog.jpg?v=637897755804270000</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -2639,66 +2639,66 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>11627</t>
+          <t>31</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>11650</t>
+          <t>31</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>COQUETEL</t>
+          <t>DONA BENTA</t>
         </is>
       </c>
       <c r="O31" t="n">
-        <v>2001855</v>
+        <v>2000701</v>
       </c>
       <c r="P31" t="n">
-        <v>99999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>la-de-aco-bombril-com-6-unidades-45g-1180320</t>
+          <t>pao-de-forma-plus-vita-tradicional-500-g-252921</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Lã de Aço Bombril com 6 Unidades 45g</t>
+          <t>Pão de Forma Tradicional Plusvita 480g</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1180320</t>
+          <t>252921</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Uso: Ideal para limpeza de panelas, utensílios de cozinha, superfícies metálicas e outras áreas que necessitam de uma limpeza mais intensa.Remove sujeiras difíceis, incluindo resíduos de alimentos queimados e ferrugem.</t>
+          <t>Versátil, prático e para qualquer momento, trazendo a energia necessária para o seu dia. Perfeito para sanduíches, torradas, receitas para o café da manhã, café da tarde, almoço e jantar</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>2.99</v>
+        <v>9.98</v>
       </c>
       <c r="F32" t="n">
-        <v>2.99</v>
+        <v>9.98</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>183</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-07-17T00:00:00Z</t>
+          <t>2020-10-05T00:00:00Z</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4216409/VF4qT-qqCUAAAAAAAAko5g.jpg?v=638889221726300000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3663691/VF4qT-qqCUAAAAAAAAb-gA.jpg?v=638592874910030000</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2711,21 +2711,21 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>41130</t>
+          <t>9715</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>41057</t>
+          <t>9727</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>BOMBRIL</t>
+          <t>PLUS VITA</t>
         </is>
       </c>
       <c r="O32" t="n">
-        <v>2001389</v>
+        <v>2000316</v>
       </c>
       <c r="P32" t="n">
         <v>99999</v>
@@ -2734,43 +2734,43 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>pao-de-forma-plus-vita-tradicional-500-g-252921</t>
+          <t>la-de-aco-bombril-com-6-unidades-45g-1180320</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Pão de Forma Tradicional Plusvita 480g</t>
+          <t>Lã de Aço Bombril com 6 Unidades 45g</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>252921</t>
+          <t>1180320</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Versátil, prático e para qualquer momento, trazendo a energia necessária para o seu dia. Perfeito para sanduíches, torradas, receitas para o café da manhã, café da tarde, almoço e jantar</t>
+          <t>Uso: Ideal para limpeza de panelas, utensílios de cozinha, superfícies metálicas e outras áreas que necessitam de uma limpeza mais intensa.Remove sujeiras difíceis, incluindo resíduos de alimentos queimados e ferrugem.</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>9.98</v>
+        <v>2.99</v>
       </c>
       <c r="F33" t="n">
-        <v>9.98</v>
+        <v>2.99</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>78</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2020-10-05T00:00:00Z</t>
+          <t>2025-07-17T00:00:00Z</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3663691/VF4qT-qqCUAAAAAAAAb-gA.jpg?v=638592874910030000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4216409/VF4qT-qqCUAAAAAAAAko5g.jpg?v=638889221726300000</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2783,24 +2783,24 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>9715</t>
+          <t>41130</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>9727</t>
+          <t>41057</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>PLUS VITA</t>
+          <t>BOMBRIL</t>
         </is>
       </c>
       <c r="O33" t="n">
-        <v>2000316</v>
+        <v>2001389</v>
       </c>
       <c r="P33" t="n">
-        <v>100</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="34">
@@ -2825,7 +2825,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>2.89</v>
+        <v>3.79</v>
       </c>
       <c r="F34" t="n">
         <v>3.79</v>
@@ -3016,7 +3016,7 @@
         <v>2001500</v>
       </c>
       <c r="P36" t="n">
-        <v>100</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="37">
@@ -3041,7 +3041,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>2.89</v>
+        <v>3.79</v>
       </c>
       <c r="F37" t="n">
         <v>3.79</v>
@@ -3166,70 +3166,70 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>cebola-roxa-400g-38393</t>
+          <t>refrigerante-coca-cola-sem-acucar-pet-600-ml-429392</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Cebola Roxa 400g</t>
+          <t>Refrigerante Coca Cola Sem Açúcar Pet 600ml</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>38393</t>
+          <t>429392</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Embalagem com 2 a 3 unidades. Melhor para comer cru; Use : no guacamole, em conserva, na salada, no sanduíche.</t>
+          <t>A Coca-Cola Sem Açúcar é um refrigerante que não contém calorias! Com certeza você já se perguntou: “Então, de onde vem aquele gostinho doce? ” A Coca-Cola Sem Açúcar é produzida especialmente com adoçantes para manter o delicioso sabor de Coca-Cola porém com 0% Açucar. Perfeita para matar sua sede a qualquer hora do dia!</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6.99</v>
+        <v>5.69</v>
       </c>
       <c r="F39" t="n">
-        <v>6.99</v>
+        <v>5.69</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2020-09-26T00:00:00Z</t>
+          <t>2020-10-01T00:00:00Z</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/3081506/VF4qT-qqCUAAAAAAAAOBng.jpg?v=637947101712670000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/4483407/VF4qT-qqCUAAAAAAAAoapA.jpg?v=639052524553700000</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="K39" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>5543</t>
+          <t>8816</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>5559</t>
+          <t>8828</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Zona Sul</t>
+          <t>COCA COLA</t>
         </is>
       </c>
       <c r="O39" t="n">
-        <v>2000015</v>
+        <v>2000027</v>
       </c>
       <c r="P39" t="n">
         <v>99999</v>
@@ -3238,70 +3238,70 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>refrigerante-coca-cola-sem-acucar-pet-600-ml-429392</t>
+          <t>cebola-roxa-400g-38393</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Refrigerante Coca Cola Sem Açúcar Pet 600ml</t>
+          <t>Cebola Roxa 400g</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>429392</t>
+          <t>38393</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>A Coca-Cola Sem Açúcar é um refrigerante que não contém calorias! Com certeza você já se perguntou: “Então, de onde vem aquele gostinho doce? ” A Coca-Cola Sem Açúcar é produzida especialmente com adoçantes para manter o delicioso sabor de Coca-Cola porém com 0% Açucar. Perfeita para matar sua sede a qualquer hora do dia!</t>
+          <t>Embalagem com 2 a 3 unidades. Melhor para comer cru; Use : no guacamole, em conserva, na salada, no sanduíche.</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>5.69</v>
+        <v>6.99</v>
       </c>
       <c r="F40" t="n">
-        <v>5.69</v>
+        <v>6.99</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2020-10-01T00:00:00Z</t>
+          <t>2020-09-26T00:00:00Z</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4483407/VF4qT-qqCUAAAAAAAAoapA.jpg?v=639052524553700000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3081506/VF4qT-qqCUAAAAAAAAOBng.jpg?v=637947101712670000</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K40" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>8816</t>
+          <t>5543</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>8828</t>
+          <t>5559</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>COCA COLA</t>
+          <t>Zona Sul</t>
         </is>
       </c>
       <c r="O40" t="n">
-        <v>2000027</v>
+        <v>2000015</v>
       </c>
       <c r="P40" t="n">
         <v>99999</v>
@@ -3329,7 +3329,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>64.90000000000001</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="F41" t="n">
         <v>69.90000000000001</v>
@@ -3454,70 +3454,70 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>papel-higienico-folha-tripla-neve-supreme-dermacare-pacote-leve-16-pague-15-unidades-981168</t>
+          <t>alho-roxo-cariorta-4-a-5-unidades-250g-99279</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Papel Higiênico Folha Tripla Neve Supreme Dermacare Pacote Leve 16 Pague 15 Unidades</t>
+          <t>Alho Roxo Cariorta 4 a 5 unidades 250g</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>981168</t>
+          <t>99279</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Papel higiênico neutro folha tripla de alta qualidade. Neve quer ajudar as pessoas a cuidarem de si, por isso desenvolveu um produto que proporciona maciez insuperável com mais absorção e resistência.</t>
+          <t>Cariorta selecionados de coração.</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>32.19</v>
+        <v>59.99</v>
       </c>
       <c r="F43" t="n">
-        <v>32.19</v>
+        <v>59.99</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>480</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2020-09-22T00:00:00Z</t>
+          <t>2020-05-27T00:00:00Z</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://zonasul.vtexassets.com/arquivos/ids/4430737/VF4qT-qqCUAAAAAAAAoMMw.jpg?v=639014499358300000</t>
+          <t>https://zonasul.vtexassets.com/arquivos/ids/3082698/VF4qT-qqCUAAAAAAAAOOtg.jpg?v=637980006345970000</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K43" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>1262</t>
+          <t>24684</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>1269</t>
+          <t>24608</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>NEVE</t>
+          <t>CARIORTA</t>
         </is>
       </c>
       <c r="O43" t="n">
-        <v>2000291</v>
+        <v>2001012</v>
       </c>
       <c r="P43" t="n">
         <v>99999</v>
@@ -3526,70 +3526,70 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>alho-roxo-cariorta-4-a-5-unidades-250g-99279</t>
+          <t>couve-manteiga-unidade-201235</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Alho Roxo Cariorta 4 a 5 unidades 250g</t>
+          <t>Couve Manteiga Unidade</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>99279</t>
+          <t>201235</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Cariorta selecionados de coração.</t>
+          <t>A couve é uma hortaliça muito rica em nutriente,cálcio, 